--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="634">
   <si>
     <t>ID</t>
   </si>
@@ -2627,15 +2627,6 @@
   </si>
   <si>
     <t>Actual results</t>
-  </si>
-  <si>
-    <t>ádafsafsdfaE</t>
-  </si>
-  <si>
-    <t>Tên : Nguyễn Thành Duy</t>
-  </si>
-  <si>
-    <t>sdasdahskvhas</t>
   </si>
 </sst>
 </file>
@@ -2939,6 +2930,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2957,6 +2957,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2974,39 +2998,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3375,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3415,20 +3406,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E7" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
@@ -3446,11 +3429,11 @@
       <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
@@ -3514,15 +3497,13 @@
         <v>6</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="8" t="s">
-        <v>634</v>
-      </c>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="26" t="s">
         <v>23</v>
       </c>
@@ -3551,7 +3532,7 @@
       <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="26" t="s">
         <v>27</v>
       </c>
@@ -3580,7 +3561,7 @@
       <c r="A19" s="22">
         <v>4</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="26" t="s">
         <v>23</v>
       </c>
@@ -3609,7 +3590,7 @@
       <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="26" t="s">
         <v>54</v>
       </c>
@@ -3638,7 +3619,7 @@
       <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="26" t="s">
         <v>59</v>
       </c>
@@ -3668,7 +3649,7 @@
       <c r="B22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="43" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -3694,8 +3675,8 @@
       <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="10" t="s">
         <v>65</v>
       </c>
@@ -3719,8 +3700,8 @@
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="43" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -3746,8 +3727,8 @@
       <c r="A25" s="22">
         <v>10</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="10" t="s">
         <v>65</v>
       </c>
@@ -3771,7 +3752,7 @@
       <c r="A26" s="22">
         <v>11</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="26" t="s">
         <v>72</v>
       </c>
@@ -3798,7 +3779,7 @@
       <c r="A27" s="22">
         <v>12</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="26" t="s">
         <v>73</v>
       </c>
@@ -3825,7 +3806,7 @@
       <c r="A28" s="22">
         <v>13</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="26" t="s">
         <v>74</v>
       </c>
@@ -3852,7 +3833,7 @@
       <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="26" t="s">
         <v>76</v>
       </c>
@@ -3879,7 +3860,7 @@
       <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="26" t="s">
         <v>78</v>
       </c>
@@ -3908,7 +3889,7 @@
       <c r="A31" s="22">
         <v>16</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="26" t="s">
         <v>79</v>
       </c>
@@ -3937,7 +3918,7 @@
       <c r="A32" s="22">
         <v>17</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="26" t="s">
         <v>79</v>
       </c>
@@ -3966,7 +3947,7 @@
       <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="26" t="s">
         <v>84</v>
       </c>
@@ -3993,7 +3974,7 @@
       <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="26" t="s">
         <v>85</v>
       </c>
@@ -4020,7 +4001,7 @@
       <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="26" t="s">
         <v>88</v>
       </c>
@@ -4047,7 +4028,7 @@
       <c r="A36" s="22">
         <v>21</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="26" t="s">
         <v>88</v>
       </c>
@@ -4103,7 +4084,7 @@
       <c r="A38" s="22">
         <v>23</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="26" t="s">
         <v>94</v>
       </c>
@@ -4132,7 +4113,7 @@
       <c r="A39" s="22">
         <v>24</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="26" t="s">
         <v>99</v>
       </c>
@@ -4161,7 +4142,7 @@
       <c r="A40" s="22">
         <v>25</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="26" t="s">
         <v>100</v>
       </c>
@@ -4192,7 +4173,7 @@
       <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="26" t="s">
         <v>103</v>
       </c>
@@ -4223,7 +4204,7 @@
       <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="26" t="s">
         <v>105</v>
       </c>
@@ -4252,7 +4233,7 @@
       <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="B43" s="54"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="26" t="s">
         <v>108</v>
       </c>
@@ -4312,7 +4293,7 @@
       <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="26" t="s">
         <v>113</v>
       </c>
@@ -4341,7 +4322,7 @@
       <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="26" t="s">
         <v>94</v>
       </c>
@@ -4370,7 +4351,7 @@
       <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="B47" s="53"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="26" t="s">
         <v>99</v>
       </c>
@@ -4399,7 +4380,7 @@
       <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="26" t="s">
         <v>116</v>
       </c>
@@ -4428,7 +4409,7 @@
       <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="26" t="s">
         <v>117</v>
       </c>
@@ -4457,7 +4438,7 @@
       <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="57" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -4486,7 +4467,7 @@
       <c r="A51" s="22">
         <v>36</v>
       </c>
-      <c r="B51" s="47"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="26" t="s">
         <v>94</v>
       </c>
@@ -4515,7 +4496,7 @@
       <c r="A52" s="22">
         <v>37</v>
       </c>
-      <c r="B52" s="48"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="26" t="s">
         <v>99</v>
       </c>
@@ -4571,7 +4552,7 @@
       <c r="A54" s="22">
         <v>39</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="26" t="s">
         <v>94</v>
       </c>
@@ -4600,7 +4581,7 @@
       <c r="A55" s="22">
         <v>40</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="26" t="s">
         <v>99</v>
       </c>
@@ -4629,7 +4610,7 @@
       <c r="A56" s="22">
         <v>41</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="26" t="s">
         <v>99</v>
       </c>
@@ -4658,7 +4639,7 @@
       <c r="A57" s="22">
         <v>42</v>
       </c>
-      <c r="B57" s="54"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="26" t="s">
         <v>99</v>
       </c>
@@ -4717,10 +4698,10 @@
       <c r="A60" s="22">
         <v>45</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -4746,8 +4727,8 @@
       <c r="A61" s="22">
         <v>46</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="10" t="s">
         <v>36</v>
       </c>
@@ -4771,8 +4752,8 @@
       <c r="A62" s="22">
         <v>47</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="56"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="10" t="s">
         <v>35</v>
       </c>
@@ -4796,8 +4777,8 @@
       <c r="A63" s="22">
         <v>48</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="10" t="s">
         <v>34</v>
       </c>
@@ -4821,8 +4802,8 @@
       <c r="A64" s="22">
         <v>49</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="56"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="10" t="s">
         <v>33</v>
       </c>
@@ -4846,10 +4827,10 @@
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="54" t="s">
         <v>145</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -4875,8 +4856,8 @@
       <c r="A66" s="22">
         <v>51</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="56"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="10" t="s">
         <v>148</v>
       </c>
@@ -4900,8 +4881,8 @@
       <c r="A67" s="22">
         <v>52</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="56"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="10" t="s">
         <v>150</v>
       </c>
@@ -4927,8 +4908,8 @@
       <c r="A68" s="22">
         <v>53</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="56"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="10" t="s">
         <v>153</v>
       </c>
@@ -4954,8 +4935,8 @@
       <c r="A69" s="22">
         <v>54</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="56"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="10" t="s">
         <v>156</v>
       </c>
@@ -4981,8 +4962,8 @@
       <c r="A70" s="22">
         <v>55</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="56"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="10" t="s">
         <v>159</v>
       </c>
@@ -5008,8 +4989,8 @@
       <c r="A71" s="22">
         <v>56</v>
       </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="56" t="s">
+      <c r="B71" s="53"/>
+      <c r="C71" s="54" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -5035,8 +5016,8 @@
       <c r="A72" s="22">
         <v>57</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="10" t="s">
         <v>162</v>
       </c>
@@ -5060,8 +5041,8 @@
       <c r="A73" s="22">
         <v>58</v>
       </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="56"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="10" t="s">
         <v>164</v>
       </c>
@@ -5085,8 +5066,8 @@
       <c r="A74" s="22">
         <v>59</v>
       </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="56"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="10" t="s">
         <v>166</v>
       </c>
@@ -5110,8 +5091,8 @@
       <c r="A75" s="22">
         <v>60</v>
       </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="56"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="10" t="s">
         <v>168</v>
       </c>
@@ -5135,8 +5116,8 @@
       <c r="A76" s="22">
         <v>61</v>
       </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="56"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="10" t="s">
         <v>170</v>
       </c>
@@ -5160,7 +5141,7 @@
       <c r="A77" s="22">
         <v>62</v>
       </c>
-      <c r="B77" s="55"/>
+      <c r="B77" s="53"/>
       <c r="C77" s="26" t="s">
         <v>172</v>
       </c>
@@ -5187,8 +5168,8 @@
       <c r="A78" s="22">
         <v>63</v>
       </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="56" t="s">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -5214,8 +5195,8 @@
       <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="56"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="10" t="s">
         <v>42</v>
       </c>
@@ -5239,8 +5220,8 @@
       <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="56"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="10" t="s">
         <v>44</v>
       </c>
@@ -5264,7 +5245,7 @@
       <c r="A81" s="22">
         <v>66</v>
       </c>
-      <c r="B81" s="55"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="26"/>
       <c r="D81" s="10" t="s">
         <v>175</v>
@@ -5283,10 +5264,10 @@
       <c r="A82" s="22">
         <v>67</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="56" t="s">
+      <c r="C82" s="54" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -5314,8 +5295,8 @@
       <c r="A83" s="22">
         <v>68</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="10" t="s">
         <v>181</v>
       </c>
@@ -5339,8 +5320,8 @@
       <c r="A84" s="22">
         <v>69</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="56" t="s">
+      <c r="B84" s="53"/>
+      <c r="C84" s="54" t="s">
         <v>183</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -5366,8 +5347,8 @@
       <c r="A85" s="22">
         <v>70</v>
       </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="10" t="s">
         <v>186</v>
       </c>
@@ -5391,8 +5372,8 @@
       <c r="A86" s="22">
         <v>71</v>
       </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="56"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="10" t="s">
         <v>188</v>
       </c>
@@ -5416,8 +5397,8 @@
       <c r="A87" s="22">
         <v>72</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="56"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="10" t="s">
         <v>190</v>
       </c>
@@ -5441,7 +5422,7 @@
       <c r="A88" s="22">
         <v>73</v>
       </c>
-      <c r="B88" s="55"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="26" t="s">
         <v>172</v>
       </c>
@@ -5468,7 +5449,7 @@
       <c r="A89" s="22">
         <v>74</v>
       </c>
-      <c r="B89" s="55"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="26"/>
       <c r="D89" s="10" t="s">
         <v>175</v>
@@ -5487,10 +5468,10 @@
       <c r="A90" s="22">
         <v>75</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="54" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -5516,8 +5497,8 @@
       <c r="A91" s="22">
         <v>76</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="56"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="10" t="s">
         <v>181</v>
       </c>
@@ -5541,8 +5522,8 @@
       <c r="A92" s="22">
         <v>77</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="56" t="s">
+      <c r="B92" s="53"/>
+      <c r="C92" s="54" t="s">
         <v>183</v>
       </c>
       <c r="D92" s="10" t="s">
@@ -5568,8 +5549,8 @@
       <c r="A93" s="22">
         <v>78</v>
       </c>
-      <c r="B93" s="55"/>
-      <c r="C93" s="56"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="10" t="s">
         <v>186</v>
       </c>
@@ -5593,8 +5574,8 @@
       <c r="A94" s="22">
         <v>79</v>
       </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="56"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="10" t="s">
         <v>188</v>
       </c>
@@ -5618,8 +5599,8 @@
       <c r="A95" s="22">
         <v>80</v>
       </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="10" t="s">
         <v>190</v>
       </c>
@@ -5643,7 +5624,7 @@
       <c r="A96" s="22">
         <v>81</v>
       </c>
-      <c r="B96" s="55"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="26" t="s">
         <v>172</v>
       </c>
@@ -5670,7 +5651,7 @@
       <c r="A97" s="22">
         <v>82</v>
       </c>
-      <c r="B97" s="55"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="26"/>
       <c r="D97" s="10" t="s">
         <v>175</v>
@@ -5689,7 +5670,7 @@
       <c r="A98" s="22">
         <v>83</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="26" t="s">
@@ -5718,7 +5699,7 @@
       <c r="A99" s="22">
         <v>84</v>
       </c>
-      <c r="B99" s="55"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="26"/>
       <c r="D99" s="10" t="s">
         <v>175</v>
@@ -5737,7 +5718,7 @@
       <c r="A100" s="22">
         <v>85</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="53" t="s">
         <v>196</v>
       </c>
       <c r="C100" s="26" t="s">
@@ -5766,7 +5747,7 @@
       <c r="A101" s="22">
         <v>86</v>
       </c>
-      <c r="B101" s="55"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="26" t="s">
         <v>172</v>
       </c>
@@ -5793,7 +5774,7 @@
       <c r="A102" s="22">
         <v>87</v>
       </c>
-      <c r="B102" s="55"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="26"/>
       <c r="D102" s="10" t="s">
         <v>175</v>
@@ -5812,7 +5793,7 @@
       <c r="A103" s="22">
         <v>88</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="53" t="s">
         <v>198</v>
       </c>
       <c r="C103" s="26" t="s">
@@ -5843,7 +5824,7 @@
       <c r="A104" s="22">
         <v>89</v>
       </c>
-      <c r="B104" s="55"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="26" t="s">
         <v>200</v>
       </c>
@@ -5872,8 +5853,8 @@
       <c r="A105" s="22">
         <v>90</v>
       </c>
-      <c r="B105" s="55"/>
-      <c r="C105" s="56" t="s">
+      <c r="B105" s="53"/>
+      <c r="C105" s="54" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="10" t="s">
@@ -5899,8 +5880,8 @@
       <c r="A106" s="22">
         <v>91</v>
       </c>
-      <c r="B106" s="55"/>
-      <c r="C106" s="56"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
       <c r="D106" s="10" t="s">
         <v>206</v>
       </c>
@@ -5924,8 +5905,8 @@
       <c r="A107" s="22">
         <v>92</v>
       </c>
-      <c r="B107" s="55"/>
-      <c r="C107" s="56"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="10" t="s">
         <v>207</v>
       </c>
@@ -5949,8 +5930,8 @@
       <c r="A108" s="22">
         <v>93</v>
       </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="56"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="10" t="s">
         <v>209</v>
       </c>
@@ -5974,7 +5955,7 @@
       <c r="A109" s="22">
         <v>94</v>
       </c>
-      <c r="B109" s="55"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="26" t="s">
         <v>210</v>
       </c>
@@ -6001,7 +5982,7 @@
       <c r="A110" s="22">
         <v>95</v>
       </c>
-      <c r="B110" s="55"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="26"/>
       <c r="D110" s="10" t="s">
         <v>175</v>
@@ -6026,7 +6007,7 @@
       <c r="A111" s="22">
         <v>96</v>
       </c>
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="53" t="s">
         <v>213</v>
       </c>
       <c r="C111" s="26"/>
@@ -6053,7 +6034,7 @@
       <c r="A112" s="22">
         <v>97</v>
       </c>
-      <c r="B112" s="55"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="26"/>
       <c r="D112" s="10" t="s">
         <v>216</v>
@@ -6078,7 +6059,7 @@
       <c r="A113" s="22">
         <v>98</v>
       </c>
-      <c r="B113" s="55"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="26"/>
       <c r="D113" s="10" t="s">
         <v>218</v>
@@ -6103,7 +6084,7 @@
       <c r="A114" s="22">
         <v>99</v>
       </c>
-      <c r="B114" s="55"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="26"/>
       <c r="D114" s="10" t="s">
         <v>220</v>
@@ -6128,7 +6109,7 @@
       <c r="A115" s="22">
         <v>100</v>
       </c>
-      <c r="B115" s="55" t="s">
+      <c r="B115" s="53" t="s">
         <v>222</v>
       </c>
       <c r="C115" s="26" t="s">
@@ -6157,8 +6138,8 @@
       <c r="A116" s="22">
         <v>101</v>
       </c>
-      <c r="B116" s="55"/>
-      <c r="C116" s="56" t="s">
+      <c r="B116" s="53"/>
+      <c r="C116" s="54" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="10" t="s">
@@ -6184,8 +6165,8 @@
       <c r="A117" s="22">
         <v>102</v>
       </c>
-      <c r="B117" s="55"/>
-      <c r="C117" s="56"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="10" t="s">
         <v>229</v>
       </c>
@@ -6209,8 +6190,8 @@
       <c r="A118" s="22">
         <v>103</v>
       </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="56"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="10" t="s">
         <v>231</v>
       </c>
@@ -6234,8 +6215,8 @@
       <c r="A119" s="22">
         <v>104</v>
       </c>
-      <c r="B119" s="55"/>
-      <c r="C119" s="56"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="10" t="s">
         <v>233</v>
       </c>
@@ -6259,8 +6240,8 @@
       <c r="A120" s="22">
         <v>105</v>
       </c>
-      <c r="B120" s="55"/>
-      <c r="C120" s="56" t="s">
+      <c r="B120" s="53"/>
+      <c r="C120" s="54" t="s">
         <v>234</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -6286,8 +6267,8 @@
       <c r="A121" s="22">
         <v>106</v>
       </c>
-      <c r="B121" s="55"/>
-      <c r="C121" s="56"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="10" t="s">
         <v>237</v>
       </c>
@@ -6311,8 +6292,8 @@
       <c r="A122" s="22">
         <v>107</v>
       </c>
-      <c r="B122" s="55"/>
-      <c r="C122" s="56"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="54"/>
       <c r="D122" s="10" t="s">
         <v>239</v>
       </c>
@@ -6336,8 +6317,8 @@
       <c r="A123" s="22">
         <v>108</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="56"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="10" t="s">
         <v>240</v>
       </c>
@@ -6361,8 +6342,8 @@
       <c r="A124" s="22">
         <v>109</v>
       </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="56" t="s">
+      <c r="B124" s="53"/>
+      <c r="C124" s="54" t="s">
         <v>241</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -6388,8 +6369,8 @@
       <c r="A125" s="22">
         <v>110</v>
       </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="56"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="10" t="s">
         <v>244</v>
       </c>
@@ -6413,8 +6394,8 @@
       <c r="A126" s="22">
         <v>111</v>
       </c>
-      <c r="B126" s="55"/>
-      <c r="C126" s="56"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="54"/>
       <c r="D126" s="10" t="s">
         <v>245</v>
       </c>
@@ -6438,8 +6419,8 @@
       <c r="A127" s="22">
         <v>112</v>
       </c>
-      <c r="B127" s="55"/>
-      <c r="C127" s="56" t="s">
+      <c r="B127" s="53"/>
+      <c r="C127" s="54" t="s">
         <v>247</v>
       </c>
       <c r="D127" s="10" t="s">
@@ -6465,8 +6446,8 @@
       <c r="A128" s="22">
         <v>113</v>
       </c>
-      <c r="B128" s="55"/>
-      <c r="C128" s="56"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="54"/>
       <c r="D128" s="10" t="s">
         <v>250</v>
       </c>
@@ -6490,8 +6471,8 @@
       <c r="A129" s="22">
         <v>114</v>
       </c>
-      <c r="B129" s="55"/>
-      <c r="C129" s="56" t="s">
+      <c r="B129" s="53"/>
+      <c r="C129" s="54" t="s">
         <v>252</v>
       </c>
       <c r="D129" s="10" t="s">
@@ -6517,8 +6498,8 @@
       <c r="A130" s="22">
         <v>115</v>
       </c>
-      <c r="B130" s="55"/>
-      <c r="C130" s="56"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="10" t="s">
         <v>255</v>
       </c>
@@ -6542,8 +6523,8 @@
       <c r="A131" s="22">
         <v>116</v>
       </c>
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="54"/>
       <c r="D131" s="10" t="s">
         <v>257</v>
       </c>
@@ -6567,7 +6548,7 @@
       <c r="A132" s="22">
         <v>117</v>
       </c>
-      <c r="B132" s="55"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
         <v>175</v>
@@ -6592,10 +6573,10 @@
       <c r="A133" s="22">
         <v>118</v>
       </c>
-      <c r="B133" s="55" t="s">
+      <c r="B133" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="C133" s="56" t="s">
+      <c r="C133" s="54" t="s">
         <v>261</v>
       </c>
       <c r="D133" s="10" t="s">
@@ -6621,8 +6602,8 @@
       <c r="A134" s="22">
         <v>119</v>
       </c>
-      <c r="B134" s="55"/>
-      <c r="C134" s="56"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="10" t="s">
         <v>264</v>
       </c>
@@ -6646,8 +6627,8 @@
       <c r="A135" s="22">
         <v>120</v>
       </c>
-      <c r="B135" s="55"/>
-      <c r="C135" s="56" t="s">
+      <c r="B135" s="53"/>
+      <c r="C135" s="54" t="s">
         <v>266</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6673,8 +6654,8 @@
       <c r="A136" s="22">
         <v>121</v>
       </c>
-      <c r="B136" s="55"/>
-      <c r="C136" s="56"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="54"/>
       <c r="D136" s="10" t="s">
         <v>269</v>
       </c>
@@ -6698,8 +6679,8 @@
       <c r="A137" s="22">
         <v>122</v>
       </c>
-      <c r="B137" s="55"/>
-      <c r="C137" s="56"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="54"/>
       <c r="D137" s="10" t="s">
         <v>270</v>
       </c>
@@ -6724,8 +6705,8 @@
       <c r="A138" s="22">
         <v>123</v>
       </c>
-      <c r="B138" s="55"/>
-      <c r="C138" s="56"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="54"/>
       <c r="D138" s="10" t="s">
         <v>271</v>
       </c>
@@ -6749,8 +6730,8 @@
       <c r="A139" s="22">
         <v>124</v>
       </c>
-      <c r="B139" s="55"/>
-      <c r="C139" s="56"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="54"/>
       <c r="D139" s="10" t="s">
         <v>272</v>
       </c>
@@ -6774,8 +6755,8 @@
       <c r="A140" s="22">
         <v>125</v>
       </c>
-      <c r="B140" s="55"/>
-      <c r="C140" s="56" t="s">
+      <c r="B140" s="53"/>
+      <c r="C140" s="54" t="s">
         <v>274</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -6801,8 +6782,8 @@
       <c r="A141" s="22">
         <v>126</v>
       </c>
-      <c r="B141" s="55"/>
-      <c r="C141" s="56"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="54"/>
       <c r="D141" s="10" t="s">
         <v>277</v>
       </c>
@@ -6826,7 +6807,7 @@
       <c r="A142" s="22">
         <v>127</v>
       </c>
-      <c r="B142" s="55"/>
+      <c r="B142" s="53"/>
       <c r="C142" s="26" t="s">
         <v>279</v>
       </c>
@@ -6853,8 +6834,8 @@
       <c r="A143" s="22">
         <v>128</v>
       </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="56" t="s">
+      <c r="B143" s="53"/>
+      <c r="C143" s="54" t="s">
         <v>282</v>
       </c>
       <c r="D143" s="10" t="s">
@@ -6880,8 +6861,8 @@
       <c r="A144" s="22">
         <v>129</v>
       </c>
-      <c r="B144" s="55"/>
-      <c r="C144" s="56"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="54"/>
       <c r="D144" s="10" t="s">
         <v>285</v>
       </c>
@@ -6905,8 +6886,8 @@
       <c r="A145" s="22">
         <v>130</v>
       </c>
-      <c r="B145" s="55"/>
-      <c r="C145" s="56"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="54"/>
       <c r="D145" s="10" t="s">
         <v>287</v>
       </c>
@@ -6930,7 +6911,7 @@
       <c r="A146" s="22">
         <v>131</v>
       </c>
-      <c r="B146" s="55"/>
+      <c r="B146" s="53"/>
       <c r="C146" s="26"/>
       <c r="D146" s="10" t="s">
         <v>175</v>
@@ -6955,10 +6936,10 @@
       <c r="A147" s="22">
         <v>132</v>
       </c>
-      <c r="B147" s="55" t="s">
+      <c r="B147" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="56" t="s">
+      <c r="C147" s="54" t="s">
         <v>290</v>
       </c>
       <c r="D147" s="10" t="s">
@@ -6984,8 +6965,8 @@
       <c r="A148" s="22">
         <v>133</v>
       </c>
-      <c r="B148" s="55"/>
-      <c r="C148" s="56"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="54"/>
       <c r="D148" s="10" t="s">
         <v>293</v>
       </c>
@@ -7009,7 +6990,7 @@
       <c r="A149" s="22">
         <v>134</v>
       </c>
-      <c r="B149" s="55"/>
+      <c r="B149" s="53"/>
       <c r="C149" s="26"/>
       <c r="D149" s="10" t="s">
         <v>175</v>
@@ -7037,7 +7018,7 @@
       <c r="B150" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="C150" s="40" t="s">
+      <c r="C150" s="43" t="s">
         <v>296</v>
       </c>
       <c r="D150" s="10" t="s">
@@ -7063,8 +7044,8 @@
       <c r="A151" s="22">
         <v>136</v>
       </c>
-      <c r="B151" s="53"/>
-      <c r="C151" s="41"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="44"/>
       <c r="D151" s="10" t="s">
         <v>299</v>
       </c>
@@ -7088,8 +7069,8 @@
       <c r="A152" s="22">
         <v>137</v>
       </c>
-      <c r="B152" s="53"/>
-      <c r="C152" s="41"/>
+      <c r="B152" s="50"/>
+      <c r="C152" s="44"/>
       <c r="D152" s="10" t="s">
         <v>301</v>
       </c>
@@ -7113,8 +7094,8 @@
       <c r="A153" s="22">
         <v>138</v>
       </c>
-      <c r="B153" s="53"/>
-      <c r="C153" s="42"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="45"/>
       <c r="D153" s="10" t="s">
         <v>303</v>
       </c>
@@ -7138,8 +7119,8 @@
       <c r="A154" s="22">
         <v>139</v>
       </c>
-      <c r="B154" s="53"/>
-      <c r="C154" s="40" t="s">
+      <c r="B154" s="50"/>
+      <c r="C154" s="43" t="s">
         <v>290</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -7165,8 +7146,8 @@
       <c r="A155" s="22">
         <v>140</v>
       </c>
-      <c r="B155" s="53"/>
-      <c r="C155" s="42"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="45"/>
       <c r="D155" s="10" t="s">
         <v>307</v>
       </c>
@@ -7190,7 +7171,7 @@
       <c r="A156" s="22">
         <v>141</v>
       </c>
-      <c r="B156" s="54"/>
+      <c r="B156" s="51"/>
       <c r="C156" s="26"/>
       <c r="D156" s="10" t="s">
         <v>175</v>
@@ -7244,7 +7225,7 @@
       <c r="A158" s="22">
         <v>143</v>
       </c>
-      <c r="B158" s="53"/>
+      <c r="B158" s="50"/>
       <c r="C158" s="26" t="s">
         <v>313</v>
       </c>
@@ -7271,7 +7252,7 @@
       <c r="A159" s="22">
         <v>144</v>
       </c>
-      <c r="B159" s="53"/>
+      <c r="B159" s="50"/>
       <c r="C159" s="26" t="s">
         <v>316</v>
       </c>
@@ -7298,7 +7279,7 @@
       <c r="A160" s="22">
         <v>145</v>
       </c>
-      <c r="B160" s="54"/>
+      <c r="B160" s="51"/>
       <c r="C160" s="26"/>
       <c r="D160" s="10" t="s">
         <v>175</v>
@@ -7352,8 +7333,8 @@
       <c r="A162" s="22">
         <v>147</v>
       </c>
-      <c r="B162" s="53"/>
-      <c r="C162" s="40" t="s">
+      <c r="B162" s="50"/>
+      <c r="C162" s="43" t="s">
         <v>322</v>
       </c>
       <c r="D162" s="10" t="s">
@@ -7379,8 +7360,8 @@
       <c r="A163" s="22">
         <v>148</v>
       </c>
-      <c r="B163" s="53"/>
-      <c r="C163" s="42"/>
+      <c r="B163" s="50"/>
+      <c r="C163" s="45"/>
       <c r="D163" s="10" t="s">
         <v>325</v>
       </c>
@@ -7404,8 +7385,8 @@
       <c r="A164" s="22">
         <v>149</v>
       </c>
-      <c r="B164" s="53"/>
-      <c r="C164" s="40" t="s">
+      <c r="B164" s="50"/>
+      <c r="C164" s="43" t="s">
         <v>327</v>
       </c>
       <c r="D164" s="10" t="s">
@@ -7431,8 +7412,8 @@
       <c r="A165" s="22">
         <v>150</v>
       </c>
-      <c r="B165" s="53"/>
-      <c r="C165" s="42"/>
+      <c r="B165" s="50"/>
+      <c r="C165" s="45"/>
       <c r="D165" s="10" t="s">
         <v>328</v>
       </c>
@@ -7456,7 +7437,7 @@
       <c r="A166" s="22">
         <v>151</v>
       </c>
-      <c r="B166" s="53"/>
+      <c r="B166" s="50"/>
       <c r="C166" s="26" t="s">
         <v>331</v>
       </c>
@@ -7483,8 +7464,8 @@
       <c r="A167" s="22">
         <v>152</v>
       </c>
-      <c r="B167" s="53"/>
-      <c r="C167" s="40" t="s">
+      <c r="B167" s="50"/>
+      <c r="C167" s="43" t="s">
         <v>334</v>
       </c>
       <c r="D167" s="10" t="s">
@@ -7510,8 +7491,8 @@
       <c r="A168" s="22">
         <v>153</v>
       </c>
-      <c r="B168" s="53"/>
-      <c r="C168" s="42"/>
+      <c r="B168" s="50"/>
+      <c r="C168" s="45"/>
       <c r="D168" s="10" t="s">
         <v>338</v>
       </c>
@@ -7535,8 +7516,8 @@
       <c r="A169" s="22">
         <v>154</v>
       </c>
-      <c r="B169" s="53"/>
-      <c r="C169" s="40" t="s">
+      <c r="B169" s="50"/>
+      <c r="C169" s="43" t="s">
         <v>337</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -7562,8 +7543,8 @@
       <c r="A170" s="22">
         <v>155</v>
       </c>
-      <c r="B170" s="53"/>
-      <c r="C170" s="42"/>
+      <c r="B170" s="50"/>
+      <c r="C170" s="45"/>
       <c r="D170" s="10" t="s">
         <v>340</v>
       </c>
@@ -7587,8 +7568,8 @@
       <c r="A171" s="22">
         <v>156</v>
       </c>
-      <c r="B171" s="53"/>
-      <c r="C171" s="40" t="s">
+      <c r="B171" s="50"/>
+      <c r="C171" s="43" t="s">
         <v>344</v>
       </c>
       <c r="D171" s="10" t="s">
@@ -7614,8 +7595,8 @@
       <c r="A172" s="22">
         <v>157</v>
       </c>
-      <c r="B172" s="53"/>
-      <c r="C172" s="41"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="44"/>
       <c r="D172" s="10" t="s">
         <v>347</v>
       </c>
@@ -7639,8 +7620,8 @@
       <c r="A173" s="22">
         <v>158</v>
       </c>
-      <c r="B173" s="53"/>
-      <c r="C173" s="42"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="45"/>
       <c r="D173" s="10" t="s">
         <v>349</v>
       </c>
@@ -7664,8 +7645,8 @@
       <c r="A174" s="22">
         <v>159</v>
       </c>
-      <c r="B174" s="53"/>
-      <c r="C174" s="40" t="s">
+      <c r="B174" s="50"/>
+      <c r="C174" s="43" t="s">
         <v>351</v>
       </c>
       <c r="D174" s="10" t="s">
@@ -7691,8 +7672,8 @@
       <c r="A175" s="22">
         <v>160</v>
       </c>
-      <c r="B175" s="53"/>
-      <c r="C175" s="42"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="45"/>
       <c r="D175" s="10" t="s">
         <v>352</v>
       </c>
@@ -7716,7 +7697,7 @@
       <c r="A176" s="22">
         <v>161</v>
       </c>
-      <c r="B176" s="53" t="s">
+      <c r="B176" s="50" t="s">
         <v>355</v>
       </c>
       <c r="C176" s="26" t="s">
@@ -7745,7 +7726,7 @@
       <c r="A177" s="22">
         <v>162</v>
       </c>
-      <c r="B177" s="53"/>
+      <c r="B177" s="50"/>
       <c r="C177" s="26" t="s">
         <v>356</v>
       </c>
@@ -7772,8 +7753,8 @@
       <c r="A178" s="22">
         <v>163</v>
       </c>
-      <c r="B178" s="53"/>
-      <c r="C178" s="40" t="s">
+      <c r="B178" s="50"/>
+      <c r="C178" s="43" t="s">
         <v>360</v>
       </c>
       <c r="D178" s="10" t="s">
@@ -7799,8 +7780,8 @@
       <c r="A179" s="22">
         <v>164</v>
       </c>
-      <c r="B179" s="54"/>
-      <c r="C179" s="42"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="45"/>
       <c r="D179" s="10" t="s">
         <v>362</v>
       </c>
@@ -7824,7 +7805,7 @@
       <c r="A180" s="22">
         <v>165</v>
       </c>
-      <c r="B180" s="59" t="s">
+      <c r="B180" s="49" t="s">
         <v>364</v>
       </c>
       <c r="C180" s="34"/>
@@ -7851,7 +7832,7 @@
       <c r="A181" s="22">
         <v>166</v>
       </c>
-      <c r="B181" s="59"/>
+      <c r="B181" s="49"/>
       <c r="C181" s="34"/>
       <c r="D181" s="33" t="s">
         <v>367</v>
@@ -7876,7 +7857,7 @@
       <c r="A182" s="22">
         <v>167</v>
       </c>
-      <c r="B182" s="59"/>
+      <c r="B182" s="49"/>
       <c r="C182" s="34"/>
       <c r="D182" s="33" t="s">
         <v>369</v>
@@ -7901,7 +7882,7 @@
       <c r="A183" s="22">
         <v>168</v>
       </c>
-      <c r="B183" s="59"/>
+      <c r="B183" s="49"/>
       <c r="C183" s="34"/>
       <c r="D183" s="33" t="s">
         <v>371</v>
@@ -7926,7 +7907,7 @@
       <c r="A184" s="22">
         <v>169</v>
       </c>
-      <c r="B184" s="59" t="s">
+      <c r="B184" s="49" t="s">
         <v>373</v>
       </c>
       <c r="C184" s="34" t="s">
@@ -7955,7 +7936,7 @@
       <c r="A185" s="22">
         <v>170</v>
       </c>
-      <c r="B185" s="59"/>
+      <c r="B185" s="49"/>
       <c r="C185" s="34" t="s">
         <v>377</v>
       </c>
@@ -7982,7 +7963,7 @@
       <c r="A186" s="22">
         <v>171</v>
       </c>
-      <c r="B186" s="59"/>
+      <c r="B186" s="49"/>
       <c r="C186" s="34" t="s">
         <v>380</v>
       </c>
@@ -8009,7 +7990,7 @@
       <c r="A187" s="22">
         <v>172</v>
       </c>
-      <c r="B187" s="59"/>
+      <c r="B187" s="49"/>
       <c r="C187" s="34" t="s">
         <v>383</v>
       </c>
@@ -8036,7 +8017,7 @@
       <c r="A188" s="22">
         <v>173</v>
       </c>
-      <c r="B188" s="59" t="s">
+      <c r="B188" s="49" t="s">
         <v>386</v>
       </c>
       <c r="C188" s="34" t="s">
@@ -8065,7 +8046,7 @@
       <c r="A189" s="22">
         <v>174</v>
       </c>
-      <c r="B189" s="59"/>
+      <c r="B189" s="49"/>
       <c r="C189" s="34" t="s">
         <v>390</v>
       </c>
@@ -8092,7 +8073,7 @@
       <c r="A190" s="22">
         <v>175</v>
       </c>
-      <c r="B190" s="59"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="34" t="s">
         <v>393</v>
       </c>
@@ -8119,7 +8100,7 @@
       <c r="A191" s="22">
         <v>176</v>
       </c>
-      <c r="B191" s="59"/>
+      <c r="B191" s="49"/>
       <c r="C191" s="34" t="s">
         <v>396</v>
       </c>
@@ -8146,7 +8127,7 @@
       <c r="A192" s="22">
         <v>177</v>
       </c>
-      <c r="B192" s="59"/>
+      <c r="B192" s="49"/>
       <c r="C192" s="34" t="s">
         <v>398</v>
       </c>
@@ -8173,7 +8154,7 @@
       <c r="A193" s="22">
         <v>178</v>
       </c>
-      <c r="B193" s="59" t="s">
+      <c r="B193" s="49" t="s">
         <v>400</v>
       </c>
       <c r="C193" s="34" t="s">
@@ -8202,7 +8183,7 @@
       <c r="A194" s="22">
         <v>179</v>
       </c>
-      <c r="B194" s="59"/>
+      <c r="B194" s="49"/>
       <c r="C194" s="34"/>
       <c r="D194" s="33" t="s">
         <v>404</v>
@@ -8227,7 +8208,7 @@
       <c r="A195" s="22">
         <v>180</v>
       </c>
-      <c r="B195" s="59"/>
+      <c r="B195" s="49"/>
       <c r="C195" s="34"/>
       <c r="D195" s="33" t="s">
         <v>406</v>
@@ -8252,7 +8233,7 @@
       <c r="A196" s="22">
         <v>181</v>
       </c>
-      <c r="B196" s="59"/>
+      <c r="B196" s="49"/>
       <c r="C196" s="34"/>
       <c r="D196" s="33" t="s">
         <v>408</v>
@@ -8277,7 +8258,7 @@
       <c r="A197" s="22">
         <v>182</v>
       </c>
-      <c r="B197" s="59"/>
+      <c r="B197" s="49"/>
       <c r="C197" s="34" t="s">
         <v>410</v>
       </c>
@@ -8304,7 +8285,7 @@
       <c r="A198" s="22">
         <v>183</v>
       </c>
-      <c r="B198" s="59"/>
+      <c r="B198" s="49"/>
       <c r="C198" s="34" t="s">
         <v>413</v>
       </c>
@@ -8331,7 +8312,7 @@
       <c r="A199" s="22">
         <v>184</v>
       </c>
-      <c r="B199" s="59"/>
+      <c r="B199" s="49"/>
       <c r="C199" s="34"/>
       <c r="D199" s="33" t="s">
         <v>416</v>
@@ -8356,7 +8337,7 @@
       <c r="A200" s="22">
         <v>185</v>
       </c>
-      <c r="B200" s="59"/>
+      <c r="B200" s="49"/>
       <c r="C200" s="34"/>
       <c r="D200" s="33" t="s">
         <v>418</v>
@@ -8381,7 +8362,7 @@
       <c r="A201" s="22">
         <v>186</v>
       </c>
-      <c r="B201" s="59"/>
+      <c r="B201" s="49"/>
       <c r="C201" s="34" t="s">
         <v>420</v>
       </c>
@@ -8408,7 +8389,7 @@
       <c r="A202" s="22">
         <v>187</v>
       </c>
-      <c r="B202" s="59"/>
+      <c r="B202" s="49"/>
       <c r="C202" s="34" t="s">
         <v>398</v>
       </c>
@@ -8435,7 +8416,7 @@
       <c r="A203" s="22">
         <v>188</v>
       </c>
-      <c r="B203" s="59"/>
+      <c r="B203" s="49"/>
       <c r="C203" s="34" t="s">
         <v>423</v>
       </c>
@@ -8462,7 +8443,7 @@
       <c r="A204" s="22">
         <v>189</v>
       </c>
-      <c r="B204" s="59" t="s">
+      <c r="B204" s="49" t="s">
         <v>425</v>
       </c>
       <c r="C204" s="34" t="s">
@@ -8491,7 +8472,7 @@
       <c r="A205" s="22">
         <v>190</v>
       </c>
-      <c r="B205" s="59"/>
+      <c r="B205" s="49"/>
       <c r="C205" s="34"/>
       <c r="D205" s="33" t="s">
         <v>394</v>
@@ -8516,7 +8497,7 @@
       <c r="A206" s="22">
         <v>191</v>
       </c>
-      <c r="B206" s="59"/>
+      <c r="B206" s="49"/>
       <c r="C206" s="34" t="s">
         <v>423</v>
       </c>
@@ -8543,7 +8524,7 @@
       <c r="A207" s="22">
         <v>192</v>
       </c>
-      <c r="B207" s="59"/>
+      <c r="B207" s="49"/>
       <c r="C207" s="34" t="s">
         <v>429</v>
       </c>
@@ -8570,7 +8551,7 @@
       <c r="A208" s="22">
         <v>193</v>
       </c>
-      <c r="B208" s="59"/>
+      <c r="B208" s="49"/>
       <c r="C208" s="35" t="s">
         <v>432</v>
       </c>
@@ -8626,8 +8607,8 @@
       <c r="A210" s="22">
         <v>195</v>
       </c>
-      <c r="B210" s="53"/>
-      <c r="C210" s="40" t="s">
+      <c r="B210" s="50"/>
+      <c r="C210" s="43" t="s">
         <v>438</v>
       </c>
       <c r="D210" s="10" t="s">
@@ -8653,8 +8634,8 @@
       <c r="A211" s="22">
         <v>196</v>
       </c>
-      <c r="B211" s="53"/>
-      <c r="C211" s="41"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="44"/>
       <c r="D211" s="10" t="s">
         <v>441</v>
       </c>
@@ -8678,8 +8659,8 @@
       <c r="A212" s="22">
         <v>197</v>
       </c>
-      <c r="B212" s="53"/>
-      <c r="C212" s="42"/>
+      <c r="B212" s="50"/>
+      <c r="C212" s="45"/>
       <c r="D212" s="10" t="s">
         <v>443</v>
       </c>
@@ -8703,7 +8684,7 @@
       <c r="A213" s="22">
         <v>198</v>
       </c>
-      <c r="B213" s="53"/>
+      <c r="B213" s="50"/>
       <c r="C213" s="26" t="s">
         <v>445</v>
       </c>
@@ -8730,7 +8711,7 @@
       <c r="A214" s="22">
         <v>199</v>
       </c>
-      <c r="B214" s="53"/>
+      <c r="B214" s="50"/>
       <c r="C214" s="26" t="s">
         <v>448</v>
       </c>
@@ -8757,8 +8738,8 @@
       <c r="A215" s="22">
         <v>200</v>
       </c>
-      <c r="B215" s="53"/>
-      <c r="C215" s="40" t="s">
+      <c r="B215" s="50"/>
+      <c r="C215" s="43" t="s">
         <v>451</v>
       </c>
       <c r="D215" s="10" t="s">
@@ -8784,8 +8765,8 @@
       <c r="A216" s="22">
         <v>201</v>
       </c>
-      <c r="B216" s="53"/>
-      <c r="C216" s="41"/>
+      <c r="B216" s="50"/>
+      <c r="C216" s="44"/>
       <c r="D216" s="10" t="s">
         <v>452</v>
       </c>
@@ -8809,8 +8790,8 @@
       <c r="A217" s="22">
         <v>202</v>
       </c>
-      <c r="B217" s="53"/>
-      <c r="C217" s="42"/>
+      <c r="B217" s="50"/>
+      <c r="C217" s="45"/>
       <c r="D217" s="10" t="s">
         <v>452</v>
       </c>
@@ -8834,7 +8815,7 @@
       <c r="A218" s="22">
         <v>203</v>
       </c>
-      <c r="B218" s="53"/>
+      <c r="B218" s="50"/>
       <c r="C218" s="26" t="s">
         <v>398</v>
       </c>
@@ -8861,7 +8842,7 @@
       <c r="A219" s="22">
         <v>204</v>
       </c>
-      <c r="B219" s="53"/>
+      <c r="B219" s="50"/>
       <c r="C219" s="26" t="s">
         <v>423</v>
       </c>
@@ -8888,7 +8869,7 @@
       <c r="A220" s="22">
         <v>205</v>
       </c>
-      <c r="B220" s="54"/>
+      <c r="B220" s="51"/>
       <c r="C220" s="26" t="s">
         <v>459</v>
       </c>
@@ -8915,7 +8896,7 @@
       <c r="A221" s="22">
         <v>206</v>
       </c>
-      <c r="B221" s="49" t="s">
+      <c r="B221" s="60" t="s">
         <v>462</v>
       </c>
       <c r="C221" s="26" t="s">
@@ -8944,8 +8925,8 @@
       <c r="A222" s="22">
         <v>207</v>
       </c>
-      <c r="B222" s="50"/>
-      <c r="C222" s="40" t="s">
+      <c r="B222" s="61"/>
+      <c r="C222" s="43" t="s">
         <v>438</v>
       </c>
       <c r="D222" s="10" t="s">
@@ -8971,8 +8952,8 @@
       <c r="A223" s="22">
         <v>208</v>
       </c>
-      <c r="B223" s="50"/>
-      <c r="C223" s="41"/>
+      <c r="B223" s="61"/>
+      <c r="C223" s="44"/>
       <c r="D223" s="10" t="s">
         <v>475</v>
       </c>
@@ -8996,8 +8977,8 @@
       <c r="A224" s="22">
         <v>209</v>
       </c>
-      <c r="B224" s="50"/>
-      <c r="C224" s="42"/>
+      <c r="B224" s="61"/>
+      <c r="C224" s="45"/>
       <c r="D224" s="10" t="s">
         <v>475</v>
       </c>
@@ -9021,7 +9002,7 @@
       <c r="A225" s="22">
         <v>210</v>
       </c>
-      <c r="B225" s="50"/>
+      <c r="B225" s="61"/>
       <c r="C225" s="26" t="s">
         <v>448</v>
       </c>
@@ -9048,8 +9029,8 @@
       <c r="A226" s="22">
         <v>211</v>
       </c>
-      <c r="B226" s="50"/>
-      <c r="C226" s="40" t="s">
+      <c r="B226" s="61"/>
+      <c r="C226" s="43" t="s">
         <v>451</v>
       </c>
       <c r="D226" s="10" t="s">
@@ -9075,8 +9056,8 @@
       <c r="A227" s="22">
         <v>212</v>
       </c>
-      <c r="B227" s="50"/>
-      <c r="C227" s="41"/>
+      <c r="B227" s="61"/>
+      <c r="C227" s="44"/>
       <c r="D227" s="10" t="s">
         <v>477</v>
       </c>
@@ -9100,8 +9081,8 @@
       <c r="A228" s="22">
         <v>213</v>
       </c>
-      <c r="B228" s="50"/>
-      <c r="C228" s="42"/>
+      <c r="B228" s="61"/>
+      <c r="C228" s="45"/>
       <c r="D228" s="10" t="s">
         <v>477</v>
       </c>
@@ -9125,7 +9106,7 @@
       <c r="A229" s="22">
         <v>214</v>
       </c>
-      <c r="B229" s="50"/>
+      <c r="B229" s="61"/>
       <c r="C229" s="26" t="s">
         <v>398</v>
       </c>
@@ -9152,7 +9133,7 @@
       <c r="A230" s="22">
         <v>215</v>
       </c>
-      <c r="B230" s="51"/>
+      <c r="B230" s="62"/>
       <c r="C230" s="26" t="s">
         <v>423</v>
       </c>
@@ -9179,7 +9160,7 @@
       <c r="A231" s="22">
         <v>216</v>
       </c>
-      <c r="B231" s="43" t="s">
+      <c r="B231" s="46" t="s">
         <v>465</v>
       </c>
       <c r="C231" s="26" t="s">
@@ -9208,8 +9189,8 @@
       <c r="A232" s="22">
         <v>217</v>
       </c>
-      <c r="B232" s="44"/>
-      <c r="C232" s="40" t="s">
+      <c r="B232" s="47"/>
+      <c r="C232" s="43" t="s">
         <v>438</v>
       </c>
       <c r="D232" s="10" t="s">
@@ -9235,8 +9216,8 @@
       <c r="A233" s="22">
         <v>218</v>
       </c>
-      <c r="B233" s="44"/>
-      <c r="C233" s="41"/>
+      <c r="B233" s="47"/>
+      <c r="C233" s="44"/>
       <c r="D233" s="10" t="s">
         <v>469</v>
       </c>
@@ -9260,8 +9241,8 @@
       <c r="A234" s="22">
         <v>219</v>
       </c>
-      <c r="B234" s="44"/>
-      <c r="C234" s="42"/>
+      <c r="B234" s="47"/>
+      <c r="C234" s="45"/>
       <c r="D234" s="10" t="s">
         <v>469</v>
       </c>
@@ -9285,7 +9266,7 @@
       <c r="A235" s="22">
         <v>220</v>
       </c>
-      <c r="B235" s="44"/>
+      <c r="B235" s="47"/>
       <c r="C235" s="26" t="s">
         <v>448</v>
       </c>
@@ -9312,8 +9293,8 @@
       <c r="A236" s="22">
         <v>221</v>
       </c>
-      <c r="B236" s="44"/>
-      <c r="C236" s="40" t="s">
+      <c r="B236" s="47"/>
+      <c r="C236" s="43" t="s">
         <v>451</v>
       </c>
       <c r="D236" s="10" t="s">
@@ -9339,8 +9320,8 @@
       <c r="A237" s="22">
         <v>222</v>
       </c>
-      <c r="B237" s="44"/>
-      <c r="C237" s="41"/>
+      <c r="B237" s="47"/>
+      <c r="C237" s="44"/>
       <c r="D237" s="10" t="s">
         <v>471</v>
       </c>
@@ -9364,8 +9345,8 @@
       <c r="A238" s="22">
         <v>223</v>
       </c>
-      <c r="B238" s="44"/>
-      <c r="C238" s="42"/>
+      <c r="B238" s="47"/>
+      <c r="C238" s="45"/>
       <c r="D238" s="10" t="s">
         <v>471</v>
       </c>
@@ -9389,7 +9370,7 @@
       <c r="A239" s="22">
         <v>224</v>
       </c>
-      <c r="B239" s="44"/>
+      <c r="B239" s="47"/>
       <c r="C239" s="26" t="s">
         <v>398</v>
       </c>
@@ -9416,7 +9397,7 @@
       <c r="A240" s="22">
         <v>225</v>
       </c>
-      <c r="B240" s="44"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="26" t="s">
         <v>423</v>
       </c>
@@ -9443,7 +9424,7 @@
       <c r="A241" s="22">
         <v>226</v>
       </c>
-      <c r="B241" s="45"/>
+      <c r="B241" s="48"/>
       <c r="C241" s="26" t="s">
         <v>445</v>
       </c>
@@ -9470,7 +9451,7 @@
       <c r="A242" s="22">
         <v>227</v>
       </c>
-      <c r="B242" s="43" t="s">
+      <c r="B242" s="46" t="s">
         <v>480</v>
       </c>
       <c r="C242" s="26" t="s">
@@ -9499,7 +9480,7 @@
       <c r="A243" s="22">
         <v>228</v>
       </c>
-      <c r="B243" s="44"/>
+      <c r="B243" s="47"/>
       <c r="C243" s="26" t="s">
         <v>483</v>
       </c>
@@ -9526,7 +9507,7 @@
       <c r="A244" s="22">
         <v>229</v>
       </c>
-      <c r="B244" s="44"/>
+      <c r="B244" s="47"/>
       <c r="C244" s="26" t="s">
         <v>486</v>
       </c>
@@ -9553,7 +9534,7 @@
       <c r="A245" s="22">
         <v>230</v>
       </c>
-      <c r="B245" s="44"/>
+      <c r="B245" s="47"/>
       <c r="C245" s="26"/>
       <c r="D245" s="10" t="s">
         <v>489</v>
@@ -9578,7 +9559,7 @@
       <c r="A246" s="22">
         <v>231</v>
       </c>
-      <c r="B246" s="45"/>
+      <c r="B246" s="48"/>
       <c r="C246" s="26"/>
       <c r="D246" s="10" t="s">
         <v>491</v>
@@ -9603,7 +9584,7 @@
       <c r="A247" s="22">
         <v>232</v>
       </c>
-      <c r="B247" s="43" t="s">
+      <c r="B247" s="46" t="s">
         <v>493</v>
       </c>
       <c r="C247" s="32" t="s">
@@ -9626,8 +9607,8 @@
       <c r="A248" s="22">
         <v>233</v>
       </c>
-      <c r="B248" s="44"/>
-      <c r="C248" s="40" t="s">
+      <c r="B248" s="47"/>
+      <c r="C248" s="43" t="s">
         <v>494</v>
       </c>
       <c r="D248" s="10" t="s">
@@ -9647,8 +9628,8 @@
       <c r="A249" s="22">
         <v>234</v>
       </c>
-      <c r="B249" s="44"/>
-      <c r="C249" s="41"/>
+      <c r="B249" s="47"/>
+      <c r="C249" s="44"/>
       <c r="D249" s="10" t="s">
         <v>500</v>
       </c>
@@ -9666,8 +9647,8 @@
       <c r="A250" s="22">
         <v>235</v>
       </c>
-      <c r="B250" s="44"/>
-      <c r="C250" s="41"/>
+      <c r="B250" s="47"/>
+      <c r="C250" s="44"/>
       <c r="D250" s="10" t="s">
         <v>501</v>
       </c>
@@ -9685,8 +9666,8 @@
       <c r="A251" s="22">
         <v>236</v>
       </c>
-      <c r="B251" s="44"/>
-      <c r="C251" s="42"/>
+      <c r="B251" s="47"/>
+      <c r="C251" s="45"/>
       <c r="D251" s="10" t="s">
         <v>503</v>
       </c>
@@ -9704,7 +9685,7 @@
       <c r="A252" s="22">
         <v>237</v>
       </c>
-      <c r="B252" s="44"/>
+      <c r="B252" s="47"/>
       <c r="C252" s="32" t="s">
         <v>505</v>
       </c>
@@ -9725,7 +9706,7 @@
       <c r="A253" s="22">
         <v>238</v>
       </c>
-      <c r="B253" s="44"/>
+      <c r="B253" s="47"/>
       <c r="C253" s="32" t="s">
         <v>508</v>
       </c>
@@ -9746,7 +9727,7 @@
       <c r="A254" s="22">
         <v>239</v>
       </c>
-      <c r="B254" s="44"/>
+      <c r="B254" s="47"/>
       <c r="C254" s="32" t="s">
         <v>511</v>
       </c>
@@ -9767,7 +9748,7 @@
       <c r="A255" s="22">
         <v>240</v>
       </c>
-      <c r="B255" s="44"/>
+      <c r="B255" s="47"/>
       <c r="C255" s="32" t="s">
         <v>514</v>
       </c>
@@ -9788,7 +9769,7 @@
       <c r="A256" s="22">
         <v>241</v>
       </c>
-      <c r="B256" s="45"/>
+      <c r="B256" s="48"/>
       <c r="C256" s="32" t="s">
         <v>517</v>
       </c>
@@ -9809,7 +9790,7 @@
       <c r="A257" s="22">
         <v>242</v>
       </c>
-      <c r="B257" s="43" t="s">
+      <c r="B257" s="46" t="s">
         <v>520</v>
       </c>
       <c r="C257" s="32" t="s">
@@ -9832,7 +9813,7 @@
       <c r="A258" s="22">
         <v>243</v>
       </c>
-      <c r="B258" s="44"/>
+      <c r="B258" s="47"/>
       <c r="C258" s="26" t="s">
         <v>523</v>
       </c>
@@ -9853,7 +9834,7 @@
       <c r="A259" s="22">
         <v>244</v>
       </c>
-      <c r="B259" s="44"/>
+      <c r="B259" s="47"/>
       <c r="C259" s="26" t="s">
         <v>177</v>
       </c>
@@ -9874,8 +9855,8 @@
       <c r="A260" s="22">
         <v>245</v>
       </c>
-      <c r="B260" s="44"/>
-      <c r="C260" s="40" t="s">
+      <c r="B260" s="47"/>
+      <c r="C260" s="43" t="s">
         <v>528</v>
       </c>
       <c r="D260" s="10" t="s">
@@ -9895,8 +9876,8 @@
       <c r="A261" s="22">
         <v>246</v>
       </c>
-      <c r="B261" s="44"/>
-      <c r="C261" s="41"/>
+      <c r="B261" s="47"/>
+      <c r="C261" s="44"/>
       <c r="D261" s="10" t="s">
         <v>531</v>
       </c>
@@ -9914,8 +9895,8 @@
       <c r="A262" s="22">
         <v>247</v>
       </c>
-      <c r="B262" s="44"/>
-      <c r="C262" s="42"/>
+      <c r="B262" s="47"/>
+      <c r="C262" s="45"/>
       <c r="D262" s="10" t="s">
         <v>533</v>
       </c>
@@ -9933,7 +9914,7 @@
       <c r="A263" s="22">
         <v>248</v>
       </c>
-      <c r="B263" s="44"/>
+      <c r="B263" s="47"/>
       <c r="C263" s="39" t="s">
         <v>535</v>
       </c>
@@ -9954,7 +9935,7 @@
       <c r="A264" s="22">
         <v>249</v>
       </c>
-      <c r="B264" s="44"/>
+      <c r="B264" s="47"/>
       <c r="C264" s="32" t="s">
         <v>538</v>
       </c>
@@ -9975,7 +9956,7 @@
       <c r="A265" s="22">
         <v>250</v>
       </c>
-      <c r="B265" s="44"/>
+      <c r="B265" s="47"/>
       <c r="C265" s="32" t="s">
         <v>541</v>
       </c>
@@ -9996,7 +9977,7 @@
       <c r="A266" s="22">
         <v>251</v>
       </c>
-      <c r="B266" s="45"/>
+      <c r="B266" s="48"/>
       <c r="C266" s="32" t="s">
         <v>544</v>
       </c>
@@ -10017,7 +9998,7 @@
       <c r="A267" s="22">
         <v>252</v>
       </c>
-      <c r="B267" s="43" t="s">
+      <c r="B267" s="46" t="s">
         <v>547</v>
       </c>
       <c r="C267" s="32" t="s">
@@ -10040,7 +10021,7 @@
       <c r="A268" s="22">
         <v>253</v>
       </c>
-      <c r="B268" s="44"/>
+      <c r="B268" s="47"/>
       <c r="C268" s="32" t="s">
         <v>550</v>
       </c>
@@ -10061,7 +10042,7 @@
       <c r="A269" s="22">
         <v>254</v>
       </c>
-      <c r="B269" s="44"/>
+      <c r="B269" s="47"/>
       <c r="C269" s="32" t="s">
         <v>553</v>
       </c>
@@ -10082,7 +10063,7 @@
       <c r="A270" s="22">
         <v>255</v>
       </c>
-      <c r="B270" s="44"/>
+      <c r="B270" s="47"/>
       <c r="C270" s="32" t="s">
         <v>556</v>
       </c>
@@ -10103,7 +10084,7 @@
       <c r="A271" s="22">
         <v>256</v>
       </c>
-      <c r="B271" s="44"/>
+      <c r="B271" s="47"/>
       <c r="C271" s="32" t="s">
         <v>541</v>
       </c>
@@ -10124,7 +10105,7 @@
       <c r="A272" s="22">
         <v>257</v>
       </c>
-      <c r="B272" s="45"/>
+      <c r="B272" s="48"/>
       <c r="C272" s="32" t="s">
         <v>538</v>
       </c>
@@ -10145,7 +10126,7 @@
       <c r="A273" s="22">
         <v>258</v>
       </c>
-      <c r="B273" s="43" t="s">
+      <c r="B273" s="46" t="s">
         <v>561</v>
       </c>
       <c r="C273" s="32" t="s">
@@ -10168,7 +10149,7 @@
       <c r="A274" s="22">
         <v>259</v>
       </c>
-      <c r="B274" s="44"/>
+      <c r="B274" s="47"/>
       <c r="C274" s="32" t="s">
         <v>523</v>
       </c>
@@ -10189,7 +10170,7 @@
       <c r="A275" s="22">
         <v>260</v>
       </c>
-      <c r="B275" s="44"/>
+      <c r="B275" s="47"/>
       <c r="C275" s="32" t="s">
         <v>177</v>
       </c>
@@ -10210,8 +10191,8 @@
       <c r="A276" s="22">
         <v>261</v>
       </c>
-      <c r="B276" s="44"/>
-      <c r="C276" s="40" t="s">
+      <c r="B276" s="47"/>
+      <c r="C276" s="43" t="s">
         <v>528</v>
       </c>
       <c r="D276" s="10" t="s">
@@ -10231,8 +10212,8 @@
       <c r="A277" s="22">
         <v>262</v>
       </c>
-      <c r="B277" s="44"/>
-      <c r="C277" s="41"/>
+      <c r="B277" s="47"/>
+      <c r="C277" s="44"/>
       <c r="D277" s="10" t="s">
         <v>531</v>
       </c>
@@ -10250,8 +10231,8 @@
       <c r="A278" s="22">
         <v>263</v>
       </c>
-      <c r="B278" s="44"/>
-      <c r="C278" s="42"/>
+      <c r="B278" s="47"/>
+      <c r="C278" s="45"/>
       <c r="D278" s="10" t="s">
         <v>533</v>
       </c>
@@ -10269,7 +10250,7 @@
       <c r="A279" s="22">
         <v>264</v>
       </c>
-      <c r="B279" s="44"/>
+      <c r="B279" s="47"/>
       <c r="C279" s="39" t="s">
         <v>535</v>
       </c>
@@ -10290,7 +10271,7 @@
       <c r="A280" s="22">
         <v>265</v>
       </c>
-      <c r="B280" s="44"/>
+      <c r="B280" s="47"/>
       <c r="C280" s="32" t="s">
         <v>538</v>
       </c>
@@ -10311,7 +10292,7 @@
       <c r="A281" s="22">
         <v>266</v>
       </c>
-      <c r="B281" s="45"/>
+      <c r="B281" s="48"/>
       <c r="C281" s="32" t="s">
         <v>541</v>
       </c>
@@ -10332,7 +10313,7 @@
       <c r="A282" s="22">
         <v>267</v>
       </c>
-      <c r="B282" s="43" t="s">
+      <c r="B282" s="46" t="s">
         <v>571</v>
       </c>
       <c r="C282" s="32" t="s">
@@ -10355,7 +10336,7 @@
       <c r="A283" s="22">
         <v>268</v>
       </c>
-      <c r="B283" s="44"/>
+      <c r="B283" s="47"/>
       <c r="C283" s="32" t="s">
         <v>523</v>
       </c>
@@ -10376,7 +10357,7 @@
       <c r="A284" s="22">
         <v>269</v>
       </c>
-      <c r="B284" s="44"/>
+      <c r="B284" s="47"/>
       <c r="C284" s="32" t="s">
         <v>177</v>
       </c>
@@ -10397,7 +10378,7 @@
       <c r="A285" s="22">
         <v>270</v>
       </c>
-      <c r="B285" s="44"/>
+      <c r="B285" s="47"/>
       <c r="C285" s="32" t="s">
         <v>541</v>
       </c>
@@ -10418,7 +10399,7 @@
       <c r="A286" s="22">
         <v>271</v>
       </c>
-      <c r="B286" s="44"/>
+      <c r="B286" s="47"/>
       <c r="C286" s="32" t="s">
         <v>538</v>
       </c>
@@ -10439,8 +10420,8 @@
       <c r="A287" s="22">
         <v>272</v>
       </c>
-      <c r="B287" s="44"/>
-      <c r="C287" s="40" t="s">
+      <c r="B287" s="47"/>
+      <c r="C287" s="43" t="s">
         <v>528</v>
       </c>
       <c r="D287" s="10" t="s">
@@ -10460,8 +10441,8 @@
       <c r="A288" s="22">
         <v>273</v>
       </c>
-      <c r="B288" s="44"/>
-      <c r="C288" s="41"/>
+      <c r="B288" s="47"/>
+      <c r="C288" s="44"/>
       <c r="D288" s="10" t="s">
         <v>531</v>
       </c>
@@ -10479,8 +10460,8 @@
       <c r="A289" s="22">
         <v>274</v>
       </c>
-      <c r="B289" s="44"/>
-      <c r="C289" s="41"/>
+      <c r="B289" s="47"/>
+      <c r="C289" s="44"/>
       <c r="D289" s="10" t="s">
         <v>533</v>
       </c>
@@ -10498,8 +10479,8 @@
       <c r="A290" s="22">
         <v>275</v>
       </c>
-      <c r="B290" s="44"/>
-      <c r="C290" s="41"/>
+      <c r="B290" s="47"/>
+      <c r="C290" s="44"/>
       <c r="D290" s="10" t="s">
         <v>581</v>
       </c>
@@ -10517,8 +10498,8 @@
       <c r="A291" s="22">
         <v>276</v>
       </c>
-      <c r="B291" s="44"/>
-      <c r="C291" s="41"/>
+      <c r="B291" s="47"/>
+      <c r="C291" s="44"/>
       <c r="D291" s="10" t="s">
         <v>578</v>
       </c>
@@ -10536,8 +10517,8 @@
       <c r="A292" s="22">
         <v>277</v>
       </c>
-      <c r="B292" s="45"/>
-      <c r="C292" s="42"/>
+      <c r="B292" s="48"/>
+      <c r="C292" s="45"/>
       <c r="D292" s="10" t="s">
         <v>578</v>
       </c>
@@ -10555,7 +10536,7 @@
       <c r="A293" s="22">
         <v>278</v>
       </c>
-      <c r="B293" s="43" t="s">
+      <c r="B293" s="46" t="s">
         <v>585</v>
       </c>
       <c r="C293" s="32" t="s">
@@ -10578,7 +10559,7 @@
       <c r="A294" s="22">
         <v>279</v>
       </c>
-      <c r="B294" s="44"/>
+      <c r="B294" s="47"/>
       <c r="C294" s="32" t="s">
         <v>523</v>
       </c>
@@ -10599,7 +10580,7 @@
       <c r="A295" s="22">
         <v>280</v>
       </c>
-      <c r="B295" s="44"/>
+      <c r="B295" s="47"/>
       <c r="C295" s="32" t="s">
         <v>177</v>
       </c>
@@ -10620,7 +10601,7 @@
       <c r="A296" s="22">
         <v>281</v>
       </c>
-      <c r="B296" s="44"/>
+      <c r="B296" s="47"/>
       <c r="C296" s="32" t="s">
         <v>538</v>
       </c>
@@ -10641,8 +10622,8 @@
       <c r="A297" s="22">
         <v>282</v>
       </c>
-      <c r="B297" s="44"/>
-      <c r="C297" s="40" t="s">
+      <c r="B297" s="47"/>
+      <c r="C297" s="43" t="s">
         <v>528</v>
       </c>
       <c r="D297" s="10" t="s">
@@ -10662,8 +10643,8 @@
       <c r="A298" s="22">
         <v>283</v>
       </c>
-      <c r="B298" s="44"/>
-      <c r="C298" s="41"/>
+      <c r="B298" s="47"/>
+      <c r="C298" s="44"/>
       <c r="D298" s="10" t="s">
         <v>531</v>
       </c>
@@ -10681,8 +10662,8 @@
       <c r="A299" s="22">
         <v>284</v>
       </c>
-      <c r="B299" s="44"/>
-      <c r="C299" s="41"/>
+      <c r="B299" s="47"/>
+      <c r="C299" s="44"/>
       <c r="D299" s="10" t="s">
         <v>533</v>
       </c>
@@ -10700,8 +10681,8 @@
       <c r="A300" s="22">
         <v>285</v>
       </c>
-      <c r="B300" s="44"/>
-      <c r="C300" s="42"/>
+      <c r="B300" s="47"/>
+      <c r="C300" s="45"/>
       <c r="D300" s="10" t="s">
         <v>591</v>
       </c>
@@ -10719,7 +10700,7 @@
       <c r="A301" s="22">
         <v>286</v>
       </c>
-      <c r="B301" s="44"/>
+      <c r="B301" s="47"/>
       <c r="C301" s="32" t="s">
         <v>593</v>
       </c>
@@ -10740,7 +10721,7 @@
       <c r="A302" s="22">
         <v>287</v>
       </c>
-      <c r="B302" s="45"/>
+      <c r="B302" s="48"/>
       <c r="C302" s="32" t="s">
         <v>541</v>
       </c>
@@ -10761,7 +10742,7 @@
       <c r="A303" s="22">
         <v>288</v>
       </c>
-      <c r="B303" s="60" t="s">
+      <c r="B303" s="40" t="s">
         <v>597</v>
       </c>
       <c r="C303" s="32" t="s">
@@ -10784,7 +10765,7 @@
       <c r="A304" s="22">
         <v>289</v>
       </c>
-      <c r="B304" s="61"/>
+      <c r="B304" s="41"/>
       <c r="C304" s="32" t="s">
         <v>593</v>
       </c>
@@ -10805,7 +10786,7 @@
       <c r="A305" s="22">
         <v>290</v>
       </c>
-      <c r="B305" s="61"/>
+      <c r="B305" s="41"/>
       <c r="C305" s="32" t="s">
         <v>541</v>
       </c>
@@ -10826,7 +10807,7 @@
       <c r="A306" s="22">
         <v>291</v>
       </c>
-      <c r="B306" s="61"/>
+      <c r="B306" s="41"/>
       <c r="C306" s="32" t="s">
         <v>538</v>
       </c>
@@ -10847,7 +10828,7 @@
       <c r="A307" s="22">
         <v>292</v>
       </c>
-      <c r="B307" s="62"/>
+      <c r="B307" s="42"/>
       <c r="C307" s="32" t="s">
         <v>602</v>
       </c>
@@ -10868,7 +10849,7 @@
       <c r="A308" s="22">
         <v>293</v>
       </c>
-      <c r="B308" s="43" t="s">
+      <c r="B308" s="46" t="s">
         <v>605</v>
       </c>
       <c r="C308" s="32" t="s">
@@ -10891,7 +10872,7 @@
       <c r="A309" s="22">
         <v>294</v>
       </c>
-      <c r="B309" s="44"/>
+      <c r="B309" s="47"/>
       <c r="C309" s="32" t="s">
         <v>541</v>
       </c>
@@ -10912,7 +10893,7 @@
       <c r="A310" s="22">
         <v>295</v>
       </c>
-      <c r="B310" s="44"/>
+      <c r="B310" s="47"/>
       <c r="C310" s="32" t="s">
         <v>538</v>
       </c>
@@ -10933,8 +10914,8 @@
       <c r="A311" s="22">
         <v>296</v>
       </c>
-      <c r="B311" s="44"/>
-      <c r="C311" s="40" t="s">
+      <c r="B311" s="47"/>
+      <c r="C311" s="43" t="s">
         <v>528</v>
       </c>
       <c r="D311" s="10" t="s">
@@ -10954,8 +10935,8 @@
       <c r="A312" s="22">
         <v>297</v>
       </c>
-      <c r="B312" s="44"/>
-      <c r="C312" s="41"/>
+      <c r="B312" s="47"/>
+      <c r="C312" s="44"/>
       <c r="D312" s="10" t="s">
         <v>531</v>
       </c>
@@ -10973,8 +10954,8 @@
       <c r="A313" s="22">
         <v>298</v>
       </c>
-      <c r="B313" s="44"/>
-      <c r="C313" s="42"/>
+      <c r="B313" s="47"/>
+      <c r="C313" s="45"/>
       <c r="D313" s="10" t="s">
         <v>533</v>
       </c>
@@ -10992,8 +10973,8 @@
       <c r="A314" s="22">
         <v>299</v>
       </c>
-      <c r="B314" s="44"/>
-      <c r="C314" s="40" t="s">
+      <c r="B314" s="47"/>
+      <c r="C314" s="43" t="s">
         <v>610</v>
       </c>
       <c r="D314" s="10" t="s">
@@ -11013,8 +10994,8 @@
       <c r="A315" s="22">
         <v>300</v>
       </c>
-      <c r="B315" s="44"/>
-      <c r="C315" s="41"/>
+      <c r="B315" s="47"/>
+      <c r="C315" s="44"/>
       <c r="D315" s="10" t="s">
         <v>614</v>
       </c>
@@ -11032,8 +11013,8 @@
       <c r="A316" s="22">
         <v>301</v>
       </c>
-      <c r="B316" s="44"/>
-      <c r="C316" s="42"/>
+      <c r="B316" s="47"/>
+      <c r="C316" s="45"/>
       <c r="D316" s="10" t="s">
         <v>615</v>
       </c>
@@ -11051,8 +11032,8 @@
       <c r="A317" s="22">
         <v>302</v>
       </c>
-      <c r="B317" s="44"/>
-      <c r="C317" s="40" t="s">
+      <c r="B317" s="47"/>
+      <c r="C317" s="43" t="s">
         <v>617</v>
       </c>
       <c r="D317" s="10" t="s">
@@ -11072,8 +11053,8 @@
       <c r="A318" s="22">
         <v>303</v>
       </c>
-      <c r="B318" s="44"/>
-      <c r="C318" s="42"/>
+      <c r="B318" s="47"/>
+      <c r="C318" s="45"/>
       <c r="D318" s="10" t="s">
         <v>620</v>
       </c>
@@ -11091,7 +11072,7 @@
       <c r="A319" s="22">
         <v>304</v>
       </c>
-      <c r="B319" s="45"/>
+      <c r="B319" s="48"/>
       <c r="C319" s="32" t="s">
         <v>622</v>
       </c>
@@ -11403,74 +11384,6 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="B308:B319"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="B273:B281"/>
-    <mergeCell ref="C287:C292"/>
-    <mergeCell ref="B282:B292"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="B293:B302"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="B247:B256"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="B257:B266"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B193:B203"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B133:B146"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="B115:B132"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="B65:B81"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="C78:C80"/>
     <mergeCell ref="C236:C238"/>
     <mergeCell ref="B231:B241"/>
     <mergeCell ref="B242:B246"/>
@@ -11487,6 +11400,74 @@
     <mergeCell ref="B111:B114"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="B65:B81"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B115:B132"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="B133:B146"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B193:B203"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="B247:B256"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="B257:B266"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="B273:B281"/>
+    <mergeCell ref="C287:C292"/>
+    <mergeCell ref="B282:B292"/>
+    <mergeCell ref="C297:C300"/>
+    <mergeCell ref="B293:B302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="B308:B319"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G60:I246 G16:I57">

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nhom16_DT\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChuyenDe12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="635">
   <si>
     <t>ID</t>
   </si>
@@ -2627,6 +2627,9 @@
   </si>
   <si>
     <t>Actual results</t>
+  </si>
+  <si>
+    <t>Ten: abc</t>
   </si>
 </sst>
 </file>
@@ -2930,15 +2933,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2957,30 +2951,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2998,6 +2968,39 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3366,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3406,12 +3409,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
@@ -3429,11 +3437,11 @@
       <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
@@ -3503,7 +3511,7 @@
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="26" t="s">
         <v>23</v>
       </c>
@@ -3532,7 +3540,7 @@
       <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="26" t="s">
         <v>27</v>
       </c>
@@ -3561,7 +3569,7 @@
       <c r="A19" s="22">
         <v>4</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="26" t="s">
         <v>23</v>
       </c>
@@ -3590,7 +3598,7 @@
       <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="26" t="s">
         <v>54</v>
       </c>
@@ -3619,7 +3627,7 @@
       <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>59</v>
       </c>
@@ -3649,7 +3657,7 @@
       <c r="B22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="40" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -3675,8 +3683,8 @@
       <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="10" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3708,8 @@
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="43" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="40" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -3727,8 +3735,8 @@
       <c r="A25" s="22">
         <v>10</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="10" t="s">
         <v>65</v>
       </c>
@@ -3752,7 +3760,7 @@
       <c r="A26" s="22">
         <v>11</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="26" t="s">
         <v>72</v>
       </c>
@@ -3779,7 +3787,7 @@
       <c r="A27" s="22">
         <v>12</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="26" t="s">
         <v>73</v>
       </c>
@@ -3806,7 +3814,7 @@
       <c r="A28" s="22">
         <v>13</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="26" t="s">
         <v>74</v>
       </c>
@@ -3833,7 +3841,7 @@
       <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="26" t="s">
         <v>76</v>
       </c>
@@ -3860,7 +3868,7 @@
       <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="26" t="s">
         <v>78</v>
       </c>
@@ -3889,7 +3897,7 @@
       <c r="A31" s="22">
         <v>16</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="26" t="s">
         <v>79</v>
       </c>
@@ -3918,7 +3926,7 @@
       <c r="A32" s="22">
         <v>17</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="26" t="s">
         <v>79</v>
       </c>
@@ -3947,7 +3955,7 @@
       <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="26" t="s">
         <v>84</v>
       </c>
@@ -3974,7 +3982,7 @@
       <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="26" t="s">
         <v>85</v>
       </c>
@@ -4001,7 +4009,7 @@
       <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="26" t="s">
         <v>88</v>
       </c>
@@ -4028,7 +4036,7 @@
       <c r="A36" s="22">
         <v>21</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="26" t="s">
         <v>88</v>
       </c>
@@ -4084,7 +4092,7 @@
       <c r="A38" s="22">
         <v>23</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="26" t="s">
         <v>94</v>
       </c>
@@ -4113,7 +4121,7 @@
       <c r="A39" s="22">
         <v>24</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="26" t="s">
         <v>99</v>
       </c>
@@ -4142,7 +4150,7 @@
       <c r="A40" s="22">
         <v>25</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="26" t="s">
         <v>100</v>
       </c>
@@ -4173,7 +4181,7 @@
       <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="26" t="s">
         <v>103</v>
       </c>
@@ -4204,7 +4212,7 @@
       <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="26" t="s">
         <v>105</v>
       </c>
@@ -4233,7 +4241,7 @@
       <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="26" t="s">
         <v>108</v>
       </c>
@@ -4293,7 +4301,7 @@
       <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="B45" s="50"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="26" t="s">
         <v>113</v>
       </c>
@@ -4322,7 +4330,7 @@
       <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B46" s="50"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="26" t="s">
         <v>94</v>
       </c>
@@ -4351,7 +4359,7 @@
       <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="26" t="s">
         <v>99</v>
       </c>
@@ -4380,7 +4388,7 @@
       <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B48" s="50"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="26" t="s">
         <v>116</v>
       </c>
@@ -4409,7 +4417,7 @@
       <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="26" t="s">
         <v>117</v>
       </c>
@@ -4438,7 +4446,7 @@
       <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="46" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -4467,7 +4475,7 @@
       <c r="A51" s="22">
         <v>36</v>
       </c>
-      <c r="B51" s="58"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="26" t="s">
         <v>94</v>
       </c>
@@ -4496,7 +4504,7 @@
       <c r="A52" s="22">
         <v>37</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="26" t="s">
         <v>99</v>
       </c>
@@ -4552,7 +4560,7 @@
       <c r="A54" s="22">
         <v>39</v>
       </c>
-      <c r="B54" s="50"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="26" t="s">
         <v>94</v>
       </c>
@@ -4581,7 +4589,7 @@
       <c r="A55" s="22">
         <v>40</v>
       </c>
-      <c r="B55" s="50"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="26" t="s">
         <v>99</v>
       </c>
@@ -4610,7 +4618,7 @@
       <c r="A56" s="22">
         <v>41</v>
       </c>
-      <c r="B56" s="50"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="26" t="s">
         <v>99</v>
       </c>
@@ -4639,7 +4647,7 @@
       <c r="A57" s="22">
         <v>42</v>
       </c>
-      <c r="B57" s="51"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="26" t="s">
         <v>99</v>
       </c>
@@ -4698,10 +4706,10 @@
       <c r="A60" s="22">
         <v>45</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="56" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -4727,8 +4735,8 @@
       <c r="A61" s="22">
         <v>46</v>
       </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="10" t="s">
         <v>36</v>
       </c>
@@ -4752,8 +4760,8 @@
       <c r="A62" s="22">
         <v>47</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="54"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="10" t="s">
         <v>35</v>
       </c>
@@ -4777,8 +4785,8 @@
       <c r="A63" s="22">
         <v>48</v>
       </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="10" t="s">
         <v>34</v>
       </c>
@@ -4802,8 +4810,8 @@
       <c r="A64" s="22">
         <v>49</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="10" t="s">
         <v>33</v>
       </c>
@@ -4827,10 +4835,10 @@
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="56" t="s">
         <v>145</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -4856,8 +4864,8 @@
       <c r="A66" s="22">
         <v>51</v>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="54"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="10" t="s">
         <v>148</v>
       </c>
@@ -4881,8 +4889,8 @@
       <c r="A67" s="22">
         <v>52</v>
       </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="54"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="10" t="s">
         <v>150</v>
       </c>
@@ -4908,8 +4916,8 @@
       <c r="A68" s="22">
         <v>53</v>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="54"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="56"/>
       <c r="D68" s="10" t="s">
         <v>153</v>
       </c>
@@ -4935,8 +4943,8 @@
       <c r="A69" s="22">
         <v>54</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
       <c r="D69" s="10" t="s">
         <v>156</v>
       </c>
@@ -4962,8 +4970,8 @@
       <c r="A70" s="22">
         <v>55</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="10" t="s">
         <v>159</v>
       </c>
@@ -4989,8 +4997,8 @@
       <c r="A71" s="22">
         <v>56</v>
       </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="54" t="s">
+      <c r="B71" s="55"/>
+      <c r="C71" s="56" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -5016,8 +5024,8 @@
       <c r="A72" s="22">
         <v>57</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="10" t="s">
         <v>162</v>
       </c>
@@ -5041,8 +5049,8 @@
       <c r="A73" s="22">
         <v>58</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="54"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="10" t="s">
         <v>164</v>
       </c>
@@ -5066,8 +5074,8 @@
       <c r="A74" s="22">
         <v>59</v>
       </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="10" t="s">
         <v>166</v>
       </c>
@@ -5091,8 +5099,8 @@
       <c r="A75" s="22">
         <v>60</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="54"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="10" t="s">
         <v>168</v>
       </c>
@@ -5116,8 +5124,8 @@
       <c r="A76" s="22">
         <v>61</v>
       </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="10" t="s">
         <v>170</v>
       </c>
@@ -5141,7 +5149,7 @@
       <c r="A77" s="22">
         <v>62</v>
       </c>
-      <c r="B77" s="53"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="26" t="s">
         <v>172</v>
       </c>
@@ -5168,8 +5176,8 @@
       <c r="A78" s="22">
         <v>63</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="54" t="s">
+      <c r="B78" s="55"/>
+      <c r="C78" s="56" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -5195,8 +5203,8 @@
       <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="10" t="s">
         <v>42</v>
       </c>
@@ -5220,8 +5228,8 @@
       <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="10" t="s">
         <v>44</v>
       </c>
@@ -5245,7 +5253,7 @@
       <c r="A81" s="22">
         <v>66</v>
       </c>
-      <c r="B81" s="53"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="26"/>
       <c r="D81" s="10" t="s">
         <v>175</v>
@@ -5264,10 +5272,10 @@
       <c r="A82" s="22">
         <v>67</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="56" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -5295,8 +5303,8 @@
       <c r="A83" s="22">
         <v>68</v>
       </c>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="56"/>
       <c r="D83" s="10" t="s">
         <v>181</v>
       </c>
@@ -5320,8 +5328,8 @@
       <c r="A84" s="22">
         <v>69</v>
       </c>
-      <c r="B84" s="53"/>
-      <c r="C84" s="54" t="s">
+      <c r="B84" s="55"/>
+      <c r="C84" s="56" t="s">
         <v>183</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -5347,8 +5355,8 @@
       <c r="A85" s="22">
         <v>70</v>
       </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="10" t="s">
         <v>186</v>
       </c>
@@ -5372,8 +5380,8 @@
       <c r="A86" s="22">
         <v>71</v>
       </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="54"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="56"/>
       <c r="D86" s="10" t="s">
         <v>188</v>
       </c>
@@ -5397,8 +5405,8 @@
       <c r="A87" s="22">
         <v>72</v>
       </c>
-      <c r="B87" s="53"/>
-      <c r="C87" s="54"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="56"/>
       <c r="D87" s="10" t="s">
         <v>190</v>
       </c>
@@ -5422,7 +5430,7 @@
       <c r="A88" s="22">
         <v>73</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="26" t="s">
         <v>172</v>
       </c>
@@ -5449,7 +5457,7 @@
       <c r="A89" s="22">
         <v>74</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="26"/>
       <c r="D89" s="10" t="s">
         <v>175</v>
@@ -5468,10 +5476,10 @@
       <c r="A90" s="22">
         <v>75</v>
       </c>
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="56" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -5497,8 +5505,8 @@
       <c r="A91" s="22">
         <v>76</v>
       </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="54"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="56"/>
       <c r="D91" s="10" t="s">
         <v>181</v>
       </c>
@@ -5522,8 +5530,8 @@
       <c r="A92" s="22">
         <v>77</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="54" t="s">
+      <c r="B92" s="55"/>
+      <c r="C92" s="56" t="s">
         <v>183</v>
       </c>
       <c r="D92" s="10" t="s">
@@ -5549,8 +5557,8 @@
       <c r="A93" s="22">
         <v>78</v>
       </c>
-      <c r="B93" s="53"/>
-      <c r="C93" s="54"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="10" t="s">
         <v>186</v>
       </c>
@@ -5574,8 +5582,8 @@
       <c r="A94" s="22">
         <v>79</v>
       </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="54"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="10" t="s">
         <v>188</v>
       </c>
@@ -5599,8 +5607,8 @@
       <c r="A95" s="22">
         <v>80</v>
       </c>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="10" t="s">
         <v>190</v>
       </c>
@@ -5624,7 +5632,7 @@
       <c r="A96" s="22">
         <v>81</v>
       </c>
-      <c r="B96" s="53"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="26" t="s">
         <v>172</v>
       </c>
@@ -5651,7 +5659,7 @@
       <c r="A97" s="22">
         <v>82</v>
       </c>
-      <c r="B97" s="53"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="26"/>
       <c r="D97" s="10" t="s">
         <v>175</v>
@@ -5670,7 +5678,7 @@
       <c r="A98" s="22">
         <v>83</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="55" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="26" t="s">
@@ -5699,7 +5707,7 @@
       <c r="A99" s="22">
         <v>84</v>
       </c>
-      <c r="B99" s="53"/>
+      <c r="B99" s="55"/>
       <c r="C99" s="26"/>
       <c r="D99" s="10" t="s">
         <v>175</v>
@@ -5718,7 +5726,7 @@
       <c r="A100" s="22">
         <v>85</v>
       </c>
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="55" t="s">
         <v>196</v>
       </c>
       <c r="C100" s="26" t="s">
@@ -5747,7 +5755,7 @@
       <c r="A101" s="22">
         <v>86</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="55"/>
       <c r="C101" s="26" t="s">
         <v>172</v>
       </c>
@@ -5774,7 +5782,7 @@
       <c r="A102" s="22">
         <v>87</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="55"/>
       <c r="C102" s="26"/>
       <c r="D102" s="10" t="s">
         <v>175</v>
@@ -5793,7 +5801,7 @@
       <c r="A103" s="22">
         <v>88</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="55" t="s">
         <v>198</v>
       </c>
       <c r="C103" s="26" t="s">
@@ -5824,7 +5832,7 @@
       <c r="A104" s="22">
         <v>89</v>
       </c>
-      <c r="B104" s="53"/>
+      <c r="B104" s="55"/>
       <c r="C104" s="26" t="s">
         <v>200</v>
       </c>
@@ -5853,8 +5861,8 @@
       <c r="A105" s="22">
         <v>90</v>
       </c>
-      <c r="B105" s="53"/>
-      <c r="C105" s="54" t="s">
+      <c r="B105" s="55"/>
+      <c r="C105" s="56" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="10" t="s">
@@ -5880,8 +5888,8 @@
       <c r="A106" s="22">
         <v>91</v>
       </c>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="56"/>
       <c r="D106" s="10" t="s">
         <v>206</v>
       </c>
@@ -5905,8 +5913,8 @@
       <c r="A107" s="22">
         <v>92</v>
       </c>
-      <c r="B107" s="53"/>
-      <c r="C107" s="54"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="56"/>
       <c r="D107" s="10" t="s">
         <v>207</v>
       </c>
@@ -5930,8 +5938,8 @@
       <c r="A108" s="22">
         <v>93</v>
       </c>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="56"/>
       <c r="D108" s="10" t="s">
         <v>209</v>
       </c>
@@ -5955,7 +5963,7 @@
       <c r="A109" s="22">
         <v>94</v>
       </c>
-      <c r="B109" s="53"/>
+      <c r="B109" s="55"/>
       <c r="C109" s="26" t="s">
         <v>210</v>
       </c>
@@ -5982,7 +5990,7 @@
       <c r="A110" s="22">
         <v>95</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="55"/>
       <c r="C110" s="26"/>
       <c r="D110" s="10" t="s">
         <v>175</v>
@@ -6007,7 +6015,7 @@
       <c r="A111" s="22">
         <v>96</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="55" t="s">
         <v>213</v>
       </c>
       <c r="C111" s="26"/>
@@ -6034,7 +6042,7 @@
       <c r="A112" s="22">
         <v>97</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="26"/>
       <c r="D112" s="10" t="s">
         <v>216</v>
@@ -6059,7 +6067,7 @@
       <c r="A113" s="22">
         <v>98</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="55"/>
       <c r="C113" s="26"/>
       <c r="D113" s="10" t="s">
         <v>218</v>
@@ -6084,7 +6092,7 @@
       <c r="A114" s="22">
         <v>99</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="55"/>
       <c r="C114" s="26"/>
       <c r="D114" s="10" t="s">
         <v>220</v>
@@ -6109,7 +6117,7 @@
       <c r="A115" s="22">
         <v>100</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="55" t="s">
         <v>222</v>
       </c>
       <c r="C115" s="26" t="s">
@@ -6138,8 +6146,8 @@
       <c r="A116" s="22">
         <v>101</v>
       </c>
-      <c r="B116" s="53"/>
-      <c r="C116" s="54" t="s">
+      <c r="B116" s="55"/>
+      <c r="C116" s="56" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="10" t="s">
@@ -6165,8 +6173,8 @@
       <c r="A117" s="22">
         <v>102</v>
       </c>
-      <c r="B117" s="53"/>
-      <c r="C117" s="54"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="56"/>
       <c r="D117" s="10" t="s">
         <v>229</v>
       </c>
@@ -6190,8 +6198,8 @@
       <c r="A118" s="22">
         <v>103</v>
       </c>
-      <c r="B118" s="53"/>
-      <c r="C118" s="54"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="56"/>
       <c r="D118" s="10" t="s">
         <v>231</v>
       </c>
@@ -6215,8 +6223,8 @@
       <c r="A119" s="22">
         <v>104</v>
       </c>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="56"/>
       <c r="D119" s="10" t="s">
         <v>233</v>
       </c>
@@ -6240,8 +6248,8 @@
       <c r="A120" s="22">
         <v>105</v>
       </c>
-      <c r="B120" s="53"/>
-      <c r="C120" s="54" t="s">
+      <c r="B120" s="55"/>
+      <c r="C120" s="56" t="s">
         <v>234</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -6267,8 +6275,8 @@
       <c r="A121" s="22">
         <v>106</v>
       </c>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="56"/>
       <c r="D121" s="10" t="s">
         <v>237</v>
       </c>
@@ -6292,8 +6300,8 @@
       <c r="A122" s="22">
         <v>107</v>
       </c>
-      <c r="B122" s="53"/>
-      <c r="C122" s="54"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="56"/>
       <c r="D122" s="10" t="s">
         <v>239</v>
       </c>
@@ -6317,8 +6325,8 @@
       <c r="A123" s="22">
         <v>108</v>
       </c>
-      <c r="B123" s="53"/>
-      <c r="C123" s="54"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="56"/>
       <c r="D123" s="10" t="s">
         <v>240</v>
       </c>
@@ -6342,8 +6350,8 @@
       <c r="A124" s="22">
         <v>109</v>
       </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="54" t="s">
+      <c r="B124" s="55"/>
+      <c r="C124" s="56" t="s">
         <v>241</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -6369,8 +6377,8 @@
       <c r="A125" s="22">
         <v>110</v>
       </c>
-      <c r="B125" s="53"/>
-      <c r="C125" s="54"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="56"/>
       <c r="D125" s="10" t="s">
         <v>244</v>
       </c>
@@ -6394,8 +6402,8 @@
       <c r="A126" s="22">
         <v>111</v>
       </c>
-      <c r="B126" s="53"/>
-      <c r="C126" s="54"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="56"/>
       <c r="D126" s="10" t="s">
         <v>245</v>
       </c>
@@ -6419,8 +6427,8 @@
       <c r="A127" s="22">
         <v>112</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="54" t="s">
+      <c r="B127" s="55"/>
+      <c r="C127" s="56" t="s">
         <v>247</v>
       </c>
       <c r="D127" s="10" t="s">
@@ -6446,8 +6454,8 @@
       <c r="A128" s="22">
         <v>113</v>
       </c>
-      <c r="B128" s="53"/>
-      <c r="C128" s="54"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="56"/>
       <c r="D128" s="10" t="s">
         <v>250</v>
       </c>
@@ -6471,8 +6479,8 @@
       <c r="A129" s="22">
         <v>114</v>
       </c>
-      <c r="B129" s="53"/>
-      <c r="C129" s="54" t="s">
+      <c r="B129" s="55"/>
+      <c r="C129" s="56" t="s">
         <v>252</v>
       </c>
       <c r="D129" s="10" t="s">
@@ -6498,8 +6506,8 @@
       <c r="A130" s="22">
         <v>115</v>
       </c>
-      <c r="B130" s="53"/>
-      <c r="C130" s="54"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="56"/>
       <c r="D130" s="10" t="s">
         <v>255</v>
       </c>
@@ -6523,8 +6531,8 @@
       <c r="A131" s="22">
         <v>116</v>
       </c>
-      <c r="B131" s="53"/>
-      <c r="C131" s="54"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
       <c r="D131" s="10" t="s">
         <v>257</v>
       </c>
@@ -6548,7 +6556,7 @@
       <c r="A132" s="22">
         <v>117</v>
       </c>
-      <c r="B132" s="53"/>
+      <c r="B132" s="55"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
         <v>175</v>
@@ -6573,10 +6581,10 @@
       <c r="A133" s="22">
         <v>118</v>
       </c>
-      <c r="B133" s="53" t="s">
+      <c r="B133" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="C133" s="54" t="s">
+      <c r="C133" s="56" t="s">
         <v>261</v>
       </c>
       <c r="D133" s="10" t="s">
@@ -6602,8 +6610,8 @@
       <c r="A134" s="22">
         <v>119</v>
       </c>
-      <c r="B134" s="53"/>
-      <c r="C134" s="54"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="56"/>
       <c r="D134" s="10" t="s">
         <v>264</v>
       </c>
@@ -6627,8 +6635,8 @@
       <c r="A135" s="22">
         <v>120</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="54" t="s">
+      <c r="B135" s="55"/>
+      <c r="C135" s="56" t="s">
         <v>266</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6654,8 +6662,8 @@
       <c r="A136" s="22">
         <v>121</v>
       </c>
-      <c r="B136" s="53"/>
-      <c r="C136" s="54"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="56"/>
       <c r="D136" s="10" t="s">
         <v>269</v>
       </c>
@@ -6679,8 +6687,8 @@
       <c r="A137" s="22">
         <v>122</v>
       </c>
-      <c r="B137" s="53"/>
-      <c r="C137" s="54"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="56"/>
       <c r="D137" s="10" t="s">
         <v>270</v>
       </c>
@@ -6705,8 +6713,8 @@
       <c r="A138" s="22">
         <v>123</v>
       </c>
-      <c r="B138" s="53"/>
-      <c r="C138" s="54"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="56"/>
       <c r="D138" s="10" t="s">
         <v>271</v>
       </c>
@@ -6730,8 +6738,8 @@
       <c r="A139" s="22">
         <v>124</v>
       </c>
-      <c r="B139" s="53"/>
-      <c r="C139" s="54"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="56"/>
       <c r="D139" s="10" t="s">
         <v>272</v>
       </c>
@@ -6755,8 +6763,8 @@
       <c r="A140" s="22">
         <v>125</v>
       </c>
-      <c r="B140" s="53"/>
-      <c r="C140" s="54" t="s">
+      <c r="B140" s="55"/>
+      <c r="C140" s="56" t="s">
         <v>274</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -6782,8 +6790,8 @@
       <c r="A141" s="22">
         <v>126</v>
       </c>
-      <c r="B141" s="53"/>
-      <c r="C141" s="54"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="56"/>
       <c r="D141" s="10" t="s">
         <v>277</v>
       </c>
@@ -6807,7 +6815,7 @@
       <c r="A142" s="22">
         <v>127</v>
       </c>
-      <c r="B142" s="53"/>
+      <c r="B142" s="55"/>
       <c r="C142" s="26" t="s">
         <v>279</v>
       </c>
@@ -6834,8 +6842,8 @@
       <c r="A143" s="22">
         <v>128</v>
       </c>
-      <c r="B143" s="53"/>
-      <c r="C143" s="54" t="s">
+      <c r="B143" s="55"/>
+      <c r="C143" s="56" t="s">
         <v>282</v>
       </c>
       <c r="D143" s="10" t="s">
@@ -6861,8 +6869,8 @@
       <c r="A144" s="22">
         <v>129</v>
       </c>
-      <c r="B144" s="53"/>
-      <c r="C144" s="54"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="56"/>
       <c r="D144" s="10" t="s">
         <v>285</v>
       </c>
@@ -6886,8 +6894,8 @@
       <c r="A145" s="22">
         <v>130</v>
       </c>
-      <c r="B145" s="53"/>
-      <c r="C145" s="54"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="56"/>
       <c r="D145" s="10" t="s">
         <v>287</v>
       </c>
@@ -6911,7 +6919,7 @@
       <c r="A146" s="22">
         <v>131</v>
       </c>
-      <c r="B146" s="53"/>
+      <c r="B146" s="55"/>
       <c r="C146" s="26"/>
       <c r="D146" s="10" t="s">
         <v>175</v>
@@ -6936,10 +6944,10 @@
       <c r="A147" s="22">
         <v>132</v>
       </c>
-      <c r="B147" s="53" t="s">
+      <c r="B147" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="54" t="s">
+      <c r="C147" s="56" t="s">
         <v>290</v>
       </c>
       <c r="D147" s="10" t="s">
@@ -6965,8 +6973,8 @@
       <c r="A148" s="22">
         <v>133</v>
       </c>
-      <c r="B148" s="53"/>
-      <c r="C148" s="54"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="56"/>
       <c r="D148" s="10" t="s">
         <v>293</v>
       </c>
@@ -6990,7 +6998,7 @@
       <c r="A149" s="22">
         <v>134</v>
       </c>
-      <c r="B149" s="53"/>
+      <c r="B149" s="55"/>
       <c r="C149" s="26"/>
       <c r="D149" s="10" t="s">
         <v>175</v>
@@ -7018,7 +7026,7 @@
       <c r="B150" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="C150" s="43" t="s">
+      <c r="C150" s="40" t="s">
         <v>296</v>
       </c>
       <c r="D150" s="10" t="s">
@@ -7044,8 +7052,8 @@
       <c r="A151" s="22">
         <v>136</v>
       </c>
-      <c r="B151" s="50"/>
-      <c r="C151" s="44"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="41"/>
       <c r="D151" s="10" t="s">
         <v>299</v>
       </c>
@@ -7069,8 +7077,8 @@
       <c r="A152" s="22">
         <v>137</v>
       </c>
-      <c r="B152" s="50"/>
-      <c r="C152" s="44"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="41"/>
       <c r="D152" s="10" t="s">
         <v>301</v>
       </c>
@@ -7094,8 +7102,8 @@
       <c r="A153" s="22">
         <v>138</v>
       </c>
-      <c r="B153" s="50"/>
-      <c r="C153" s="45"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="42"/>
       <c r="D153" s="10" t="s">
         <v>303</v>
       </c>
@@ -7119,8 +7127,8 @@
       <c r="A154" s="22">
         <v>139</v>
       </c>
-      <c r="B154" s="50"/>
-      <c r="C154" s="43" t="s">
+      <c r="B154" s="53"/>
+      <c r="C154" s="40" t="s">
         <v>290</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -7146,8 +7154,8 @@
       <c r="A155" s="22">
         <v>140</v>
       </c>
-      <c r="B155" s="50"/>
-      <c r="C155" s="45"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="42"/>
       <c r="D155" s="10" t="s">
         <v>307</v>
       </c>
@@ -7171,7 +7179,7 @@
       <c r="A156" s="22">
         <v>141</v>
       </c>
-      <c r="B156" s="51"/>
+      <c r="B156" s="54"/>
       <c r="C156" s="26"/>
       <c r="D156" s="10" t="s">
         <v>175</v>
@@ -7225,7 +7233,7 @@
       <c r="A158" s="22">
         <v>143</v>
       </c>
-      <c r="B158" s="50"/>
+      <c r="B158" s="53"/>
       <c r="C158" s="26" t="s">
         <v>313</v>
       </c>
@@ -7252,7 +7260,7 @@
       <c r="A159" s="22">
         <v>144</v>
       </c>
-      <c r="B159" s="50"/>
+      <c r="B159" s="53"/>
       <c r="C159" s="26" t="s">
         <v>316</v>
       </c>
@@ -7279,7 +7287,7 @@
       <c r="A160" s="22">
         <v>145</v>
       </c>
-      <c r="B160" s="51"/>
+      <c r="B160" s="54"/>
       <c r="C160" s="26"/>
       <c r="D160" s="10" t="s">
         <v>175</v>
@@ -7333,8 +7341,8 @@
       <c r="A162" s="22">
         <v>147</v>
       </c>
-      <c r="B162" s="50"/>
-      <c r="C162" s="43" t="s">
+      <c r="B162" s="53"/>
+      <c r="C162" s="40" t="s">
         <v>322</v>
       </c>
       <c r="D162" s="10" t="s">
@@ -7360,8 +7368,8 @@
       <c r="A163" s="22">
         <v>148</v>
       </c>
-      <c r="B163" s="50"/>
-      <c r="C163" s="45"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="42"/>
       <c r="D163" s="10" t="s">
         <v>325</v>
       </c>
@@ -7385,8 +7393,8 @@
       <c r="A164" s="22">
         <v>149</v>
       </c>
-      <c r="B164" s="50"/>
-      <c r="C164" s="43" t="s">
+      <c r="B164" s="53"/>
+      <c r="C164" s="40" t="s">
         <v>327</v>
       </c>
       <c r="D164" s="10" t="s">
@@ -7412,8 +7420,8 @@
       <c r="A165" s="22">
         <v>150</v>
       </c>
-      <c r="B165" s="50"/>
-      <c r="C165" s="45"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="42"/>
       <c r="D165" s="10" t="s">
         <v>328</v>
       </c>
@@ -7437,7 +7445,7 @@
       <c r="A166" s="22">
         <v>151</v>
       </c>
-      <c r="B166" s="50"/>
+      <c r="B166" s="53"/>
       <c r="C166" s="26" t="s">
         <v>331</v>
       </c>
@@ -7464,8 +7472,8 @@
       <c r="A167" s="22">
         <v>152</v>
       </c>
-      <c r="B167" s="50"/>
-      <c r="C167" s="43" t="s">
+      <c r="B167" s="53"/>
+      <c r="C167" s="40" t="s">
         <v>334</v>
       </c>
       <c r="D167" s="10" t="s">
@@ -7491,8 +7499,8 @@
       <c r="A168" s="22">
         <v>153</v>
       </c>
-      <c r="B168" s="50"/>
-      <c r="C168" s="45"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="42"/>
       <c r="D168" s="10" t="s">
         <v>338</v>
       </c>
@@ -7516,8 +7524,8 @@
       <c r="A169" s="22">
         <v>154</v>
       </c>
-      <c r="B169" s="50"/>
-      <c r="C169" s="43" t="s">
+      <c r="B169" s="53"/>
+      <c r="C169" s="40" t="s">
         <v>337</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -7543,8 +7551,8 @@
       <c r="A170" s="22">
         <v>155</v>
       </c>
-      <c r="B170" s="50"/>
-      <c r="C170" s="45"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="42"/>
       <c r="D170" s="10" t="s">
         <v>340</v>
       </c>
@@ -7568,8 +7576,8 @@
       <c r="A171" s="22">
         <v>156</v>
       </c>
-      <c r="B171" s="50"/>
-      <c r="C171" s="43" t="s">
+      <c r="B171" s="53"/>
+      <c r="C171" s="40" t="s">
         <v>344</v>
       </c>
       <c r="D171" s="10" t="s">
@@ -7595,8 +7603,8 @@
       <c r="A172" s="22">
         <v>157</v>
       </c>
-      <c r="B172" s="50"/>
-      <c r="C172" s="44"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="41"/>
       <c r="D172" s="10" t="s">
         <v>347</v>
       </c>
@@ -7620,8 +7628,8 @@
       <c r="A173" s="22">
         <v>158</v>
       </c>
-      <c r="B173" s="50"/>
-      <c r="C173" s="45"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="42"/>
       <c r="D173" s="10" t="s">
         <v>349</v>
       </c>
@@ -7645,8 +7653,8 @@
       <c r="A174" s="22">
         <v>159</v>
       </c>
-      <c r="B174" s="50"/>
-      <c r="C174" s="43" t="s">
+      <c r="B174" s="53"/>
+      <c r="C174" s="40" t="s">
         <v>351</v>
       </c>
       <c r="D174" s="10" t="s">
@@ -7672,8 +7680,8 @@
       <c r="A175" s="22">
         <v>160</v>
       </c>
-      <c r="B175" s="50"/>
-      <c r="C175" s="45"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="42"/>
       <c r="D175" s="10" t="s">
         <v>352</v>
       </c>
@@ -7697,7 +7705,7 @@
       <c r="A176" s="22">
         <v>161</v>
       </c>
-      <c r="B176" s="50" t="s">
+      <c r="B176" s="53" t="s">
         <v>355</v>
       </c>
       <c r="C176" s="26" t="s">
@@ -7726,7 +7734,7 @@
       <c r="A177" s="22">
         <v>162</v>
       </c>
-      <c r="B177" s="50"/>
+      <c r="B177" s="53"/>
       <c r="C177" s="26" t="s">
         <v>356</v>
       </c>
@@ -7753,8 +7761,8 @@
       <c r="A178" s="22">
         <v>163</v>
       </c>
-      <c r="B178" s="50"/>
-      <c r="C178" s="43" t="s">
+      <c r="B178" s="53"/>
+      <c r="C178" s="40" t="s">
         <v>360</v>
       </c>
       <c r="D178" s="10" t="s">
@@ -7780,8 +7788,8 @@
       <c r="A179" s="22">
         <v>164</v>
       </c>
-      <c r="B179" s="51"/>
-      <c r="C179" s="45"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="42"/>
       <c r="D179" s="10" t="s">
         <v>362</v>
       </c>
@@ -7805,7 +7813,7 @@
       <c r="A180" s="22">
         <v>165</v>
       </c>
-      <c r="B180" s="49" t="s">
+      <c r="B180" s="59" t="s">
         <v>364</v>
       </c>
       <c r="C180" s="34"/>
@@ -7832,7 +7840,7 @@
       <c r="A181" s="22">
         <v>166</v>
       </c>
-      <c r="B181" s="49"/>
+      <c r="B181" s="59"/>
       <c r="C181" s="34"/>
       <c r="D181" s="33" t="s">
         <v>367</v>
@@ -7857,7 +7865,7 @@
       <c r="A182" s="22">
         <v>167</v>
       </c>
-      <c r="B182" s="49"/>
+      <c r="B182" s="59"/>
       <c r="C182" s="34"/>
       <c r="D182" s="33" t="s">
         <v>369</v>
@@ -7882,7 +7890,7 @@
       <c r="A183" s="22">
         <v>168</v>
       </c>
-      <c r="B183" s="49"/>
+      <c r="B183" s="59"/>
       <c r="C183" s="34"/>
       <c r="D183" s="33" t="s">
         <v>371</v>
@@ -7907,7 +7915,7 @@
       <c r="A184" s="22">
         <v>169</v>
       </c>
-      <c r="B184" s="49" t="s">
+      <c r="B184" s="59" t="s">
         <v>373</v>
       </c>
       <c r="C184" s="34" t="s">
@@ -7936,7 +7944,7 @@
       <c r="A185" s="22">
         <v>170</v>
       </c>
-      <c r="B185" s="49"/>
+      <c r="B185" s="59"/>
       <c r="C185" s="34" t="s">
         <v>377</v>
       </c>
@@ -7963,7 +7971,7 @@
       <c r="A186" s="22">
         <v>171</v>
       </c>
-      <c r="B186" s="49"/>
+      <c r="B186" s="59"/>
       <c r="C186" s="34" t="s">
         <v>380</v>
       </c>
@@ -7990,7 +7998,7 @@
       <c r="A187" s="22">
         <v>172</v>
       </c>
-      <c r="B187" s="49"/>
+      <c r="B187" s="59"/>
       <c r="C187" s="34" t="s">
         <v>383</v>
       </c>
@@ -8017,7 +8025,7 @@
       <c r="A188" s="22">
         <v>173</v>
       </c>
-      <c r="B188" s="49" t="s">
+      <c r="B188" s="59" t="s">
         <v>386</v>
       </c>
       <c r="C188" s="34" t="s">
@@ -8046,7 +8054,7 @@
       <c r="A189" s="22">
         <v>174</v>
       </c>
-      <c r="B189" s="49"/>
+      <c r="B189" s="59"/>
       <c r="C189" s="34" t="s">
         <v>390</v>
       </c>
@@ -8073,7 +8081,7 @@
       <c r="A190" s="22">
         <v>175</v>
       </c>
-      <c r="B190" s="49"/>
+      <c r="B190" s="59"/>
       <c r="C190" s="34" t="s">
         <v>393</v>
       </c>
@@ -8100,7 +8108,7 @@
       <c r="A191" s="22">
         <v>176</v>
       </c>
-      <c r="B191" s="49"/>
+      <c r="B191" s="59"/>
       <c r="C191" s="34" t="s">
         <v>396</v>
       </c>
@@ -8127,7 +8135,7 @@
       <c r="A192" s="22">
         <v>177</v>
       </c>
-      <c r="B192" s="49"/>
+      <c r="B192" s="59"/>
       <c r="C192" s="34" t="s">
         <v>398</v>
       </c>
@@ -8154,7 +8162,7 @@
       <c r="A193" s="22">
         <v>178</v>
       </c>
-      <c r="B193" s="49" t="s">
+      <c r="B193" s="59" t="s">
         <v>400</v>
       </c>
       <c r="C193" s="34" t="s">
@@ -8183,7 +8191,7 @@
       <c r="A194" s="22">
         <v>179</v>
       </c>
-      <c r="B194" s="49"/>
+      <c r="B194" s="59"/>
       <c r="C194" s="34"/>
       <c r="D194" s="33" t="s">
         <v>404</v>
@@ -8208,7 +8216,7 @@
       <c r="A195" s="22">
         <v>180</v>
       </c>
-      <c r="B195" s="49"/>
+      <c r="B195" s="59"/>
       <c r="C195" s="34"/>
       <c r="D195" s="33" t="s">
         <v>406</v>
@@ -8233,7 +8241,7 @@
       <c r="A196" s="22">
         <v>181</v>
       </c>
-      <c r="B196" s="49"/>
+      <c r="B196" s="59"/>
       <c r="C196" s="34"/>
       <c r="D196" s="33" t="s">
         <v>408</v>
@@ -8258,7 +8266,7 @@
       <c r="A197" s="22">
         <v>182</v>
       </c>
-      <c r="B197" s="49"/>
+      <c r="B197" s="59"/>
       <c r="C197" s="34" t="s">
         <v>410</v>
       </c>
@@ -8285,7 +8293,7 @@
       <c r="A198" s="22">
         <v>183</v>
       </c>
-      <c r="B198" s="49"/>
+      <c r="B198" s="59"/>
       <c r="C198" s="34" t="s">
         <v>413</v>
       </c>
@@ -8312,7 +8320,7 @@
       <c r="A199" s="22">
         <v>184</v>
       </c>
-      <c r="B199" s="49"/>
+      <c r="B199" s="59"/>
       <c r="C199" s="34"/>
       <c r="D199" s="33" t="s">
         <v>416</v>
@@ -8337,7 +8345,7 @@
       <c r="A200" s="22">
         <v>185</v>
       </c>
-      <c r="B200" s="49"/>
+      <c r="B200" s="59"/>
       <c r="C200" s="34"/>
       <c r="D200" s="33" t="s">
         <v>418</v>
@@ -8362,7 +8370,7 @@
       <c r="A201" s="22">
         <v>186</v>
       </c>
-      <c r="B201" s="49"/>
+      <c r="B201" s="59"/>
       <c r="C201" s="34" t="s">
         <v>420</v>
       </c>
@@ -8389,7 +8397,7 @@
       <c r="A202" s="22">
         <v>187</v>
       </c>
-      <c r="B202" s="49"/>
+      <c r="B202" s="59"/>
       <c r="C202" s="34" t="s">
         <v>398</v>
       </c>
@@ -8416,7 +8424,7 @@
       <c r="A203" s="22">
         <v>188</v>
       </c>
-      <c r="B203" s="49"/>
+      <c r="B203" s="59"/>
       <c r="C203" s="34" t="s">
         <v>423</v>
       </c>
@@ -8443,7 +8451,7 @@
       <c r="A204" s="22">
         <v>189</v>
       </c>
-      <c r="B204" s="49" t="s">
+      <c r="B204" s="59" t="s">
         <v>425</v>
       </c>
       <c r="C204" s="34" t="s">
@@ -8472,7 +8480,7 @@
       <c r="A205" s="22">
         <v>190</v>
       </c>
-      <c r="B205" s="49"/>
+      <c r="B205" s="59"/>
       <c r="C205" s="34"/>
       <c r="D205" s="33" t="s">
         <v>394</v>
@@ -8497,7 +8505,7 @@
       <c r="A206" s="22">
         <v>191</v>
       </c>
-      <c r="B206" s="49"/>
+      <c r="B206" s="59"/>
       <c r="C206" s="34" t="s">
         <v>423</v>
       </c>
@@ -8524,7 +8532,7 @@
       <c r="A207" s="22">
         <v>192</v>
       </c>
-      <c r="B207" s="49"/>
+      <c r="B207" s="59"/>
       <c r="C207" s="34" t="s">
         <v>429</v>
       </c>
@@ -8551,7 +8559,7 @@
       <c r="A208" s="22">
         <v>193</v>
       </c>
-      <c r="B208" s="49"/>
+      <c r="B208" s="59"/>
       <c r="C208" s="35" t="s">
         <v>432</v>
       </c>
@@ -8607,8 +8615,8 @@
       <c r="A210" s="22">
         <v>195</v>
       </c>
-      <c r="B210" s="50"/>
-      <c r="C210" s="43" t="s">
+      <c r="B210" s="53"/>
+      <c r="C210" s="40" t="s">
         <v>438</v>
       </c>
       <c r="D210" s="10" t="s">
@@ -8634,8 +8642,8 @@
       <c r="A211" s="22">
         <v>196</v>
       </c>
-      <c r="B211" s="50"/>
-      <c r="C211" s="44"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="41"/>
       <c r="D211" s="10" t="s">
         <v>441</v>
       </c>
@@ -8659,8 +8667,8 @@
       <c r="A212" s="22">
         <v>197</v>
       </c>
-      <c r="B212" s="50"/>
-      <c r="C212" s="45"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="42"/>
       <c r="D212" s="10" t="s">
         <v>443</v>
       </c>
@@ -8684,7 +8692,7 @@
       <c r="A213" s="22">
         <v>198</v>
       </c>
-      <c r="B213" s="50"/>
+      <c r="B213" s="53"/>
       <c r="C213" s="26" t="s">
         <v>445</v>
       </c>
@@ -8711,7 +8719,7 @@
       <c r="A214" s="22">
         <v>199</v>
       </c>
-      <c r="B214" s="50"/>
+      <c r="B214" s="53"/>
       <c r="C214" s="26" t="s">
         <v>448</v>
       </c>
@@ -8738,8 +8746,8 @@
       <c r="A215" s="22">
         <v>200</v>
       </c>
-      <c r="B215" s="50"/>
-      <c r="C215" s="43" t="s">
+      <c r="B215" s="53"/>
+      <c r="C215" s="40" t="s">
         <v>451</v>
       </c>
       <c r="D215" s="10" t="s">
@@ -8765,8 +8773,8 @@
       <c r="A216" s="22">
         <v>201</v>
       </c>
-      <c r="B216" s="50"/>
-      <c r="C216" s="44"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="41"/>
       <c r="D216" s="10" t="s">
         <v>452</v>
       </c>
@@ -8790,8 +8798,8 @@
       <c r="A217" s="22">
         <v>202</v>
       </c>
-      <c r="B217" s="50"/>
-      <c r="C217" s="45"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="42"/>
       <c r="D217" s="10" t="s">
         <v>452</v>
       </c>
@@ -8815,7 +8823,7 @@
       <c r="A218" s="22">
         <v>203</v>
       </c>
-      <c r="B218" s="50"/>
+      <c r="B218" s="53"/>
       <c r="C218" s="26" t="s">
         <v>398</v>
       </c>
@@ -8842,7 +8850,7 @@
       <c r="A219" s="22">
         <v>204</v>
       </c>
-      <c r="B219" s="50"/>
+      <c r="B219" s="53"/>
       <c r="C219" s="26" t="s">
         <v>423</v>
       </c>
@@ -8869,7 +8877,7 @@
       <c r="A220" s="22">
         <v>205</v>
       </c>
-      <c r="B220" s="51"/>
+      <c r="B220" s="54"/>
       <c r="C220" s="26" t="s">
         <v>459</v>
       </c>
@@ -8896,7 +8904,7 @@
       <c r="A221" s="22">
         <v>206</v>
       </c>
-      <c r="B221" s="60" t="s">
+      <c r="B221" s="49" t="s">
         <v>462</v>
       </c>
       <c r="C221" s="26" t="s">
@@ -8925,8 +8933,8 @@
       <c r="A222" s="22">
         <v>207</v>
       </c>
-      <c r="B222" s="61"/>
-      <c r="C222" s="43" t="s">
+      <c r="B222" s="50"/>
+      <c r="C222" s="40" t="s">
         <v>438</v>
       </c>
       <c r="D222" s="10" t="s">
@@ -8952,8 +8960,8 @@
       <c r="A223" s="22">
         <v>208</v>
       </c>
-      <c r="B223" s="61"/>
-      <c r="C223" s="44"/>
+      <c r="B223" s="50"/>
+      <c r="C223" s="41"/>
       <c r="D223" s="10" t="s">
         <v>475</v>
       </c>
@@ -8977,8 +8985,8 @@
       <c r="A224" s="22">
         <v>209</v>
       </c>
-      <c r="B224" s="61"/>
-      <c r="C224" s="45"/>
+      <c r="B224" s="50"/>
+      <c r="C224" s="42"/>
       <c r="D224" s="10" t="s">
         <v>475</v>
       </c>
@@ -9002,7 +9010,7 @@
       <c r="A225" s="22">
         <v>210</v>
       </c>
-      <c r="B225" s="61"/>
+      <c r="B225" s="50"/>
       <c r="C225" s="26" t="s">
         <v>448</v>
       </c>
@@ -9029,8 +9037,8 @@
       <c r="A226" s="22">
         <v>211</v>
       </c>
-      <c r="B226" s="61"/>
-      <c r="C226" s="43" t="s">
+      <c r="B226" s="50"/>
+      <c r="C226" s="40" t="s">
         <v>451</v>
       </c>
       <c r="D226" s="10" t="s">
@@ -9056,8 +9064,8 @@
       <c r="A227" s="22">
         <v>212</v>
       </c>
-      <c r="B227" s="61"/>
-      <c r="C227" s="44"/>
+      <c r="B227" s="50"/>
+      <c r="C227" s="41"/>
       <c r="D227" s="10" t="s">
         <v>477</v>
       </c>
@@ -9081,8 +9089,8 @@
       <c r="A228" s="22">
         <v>213</v>
       </c>
-      <c r="B228" s="61"/>
-      <c r="C228" s="45"/>
+      <c r="B228" s="50"/>
+      <c r="C228" s="42"/>
       <c r="D228" s="10" t="s">
         <v>477</v>
       </c>
@@ -9106,7 +9114,7 @@
       <c r="A229" s="22">
         <v>214</v>
       </c>
-      <c r="B229" s="61"/>
+      <c r="B229" s="50"/>
       <c r="C229" s="26" t="s">
         <v>398</v>
       </c>
@@ -9133,7 +9141,7 @@
       <c r="A230" s="22">
         <v>215</v>
       </c>
-      <c r="B230" s="62"/>
+      <c r="B230" s="51"/>
       <c r="C230" s="26" t="s">
         <v>423</v>
       </c>
@@ -9160,7 +9168,7 @@
       <c r="A231" s="22">
         <v>216</v>
       </c>
-      <c r="B231" s="46" t="s">
+      <c r="B231" s="43" t="s">
         <v>465</v>
       </c>
       <c r="C231" s="26" t="s">
@@ -9189,8 +9197,8 @@
       <c r="A232" s="22">
         <v>217</v>
       </c>
-      <c r="B232" s="47"/>
-      <c r="C232" s="43" t="s">
+      <c r="B232" s="44"/>
+      <c r="C232" s="40" t="s">
         <v>438</v>
       </c>
       <c r="D232" s="10" t="s">
@@ -9216,8 +9224,8 @@
       <c r="A233" s="22">
         <v>218</v>
       </c>
-      <c r="B233" s="47"/>
-      <c r="C233" s="44"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="41"/>
       <c r="D233" s="10" t="s">
         <v>469</v>
       </c>
@@ -9241,8 +9249,8 @@
       <c r="A234" s="22">
         <v>219</v>
       </c>
-      <c r="B234" s="47"/>
-      <c r="C234" s="45"/>
+      <c r="B234" s="44"/>
+      <c r="C234" s="42"/>
       <c r="D234" s="10" t="s">
         <v>469</v>
       </c>
@@ -9266,7 +9274,7 @@
       <c r="A235" s="22">
         <v>220</v>
       </c>
-      <c r="B235" s="47"/>
+      <c r="B235" s="44"/>
       <c r="C235" s="26" t="s">
         <v>448</v>
       </c>
@@ -9293,8 +9301,8 @@
       <c r="A236" s="22">
         <v>221</v>
       </c>
-      <c r="B236" s="47"/>
-      <c r="C236" s="43" t="s">
+      <c r="B236" s="44"/>
+      <c r="C236" s="40" t="s">
         <v>451</v>
       </c>
       <c r="D236" s="10" t="s">
@@ -9320,8 +9328,8 @@
       <c r="A237" s="22">
         <v>222</v>
       </c>
-      <c r="B237" s="47"/>
-      <c r="C237" s="44"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="41"/>
       <c r="D237" s="10" t="s">
         <v>471</v>
       </c>
@@ -9345,8 +9353,8 @@
       <c r="A238" s="22">
         <v>223</v>
       </c>
-      <c r="B238" s="47"/>
-      <c r="C238" s="45"/>
+      <c r="B238" s="44"/>
+      <c r="C238" s="42"/>
       <c r="D238" s="10" t="s">
         <v>471</v>
       </c>
@@ -9370,7 +9378,7 @@
       <c r="A239" s="22">
         <v>224</v>
       </c>
-      <c r="B239" s="47"/>
+      <c r="B239" s="44"/>
       <c r="C239" s="26" t="s">
         <v>398</v>
       </c>
@@ -9397,7 +9405,7 @@
       <c r="A240" s="22">
         <v>225</v>
       </c>
-      <c r="B240" s="47"/>
+      <c r="B240" s="44"/>
       <c r="C240" s="26" t="s">
         <v>423</v>
       </c>
@@ -9424,7 +9432,7 @@
       <c r="A241" s="22">
         <v>226</v>
       </c>
-      <c r="B241" s="48"/>
+      <c r="B241" s="45"/>
       <c r="C241" s="26" t="s">
         <v>445</v>
       </c>
@@ -9451,7 +9459,7 @@
       <c r="A242" s="22">
         <v>227</v>
       </c>
-      <c r="B242" s="46" t="s">
+      <c r="B242" s="43" t="s">
         <v>480</v>
       </c>
       <c r="C242" s="26" t="s">
@@ -9480,7 +9488,7 @@
       <c r="A243" s="22">
         <v>228</v>
       </c>
-      <c r="B243" s="47"/>
+      <c r="B243" s="44"/>
       <c r="C243" s="26" t="s">
         <v>483</v>
       </c>
@@ -9507,7 +9515,7 @@
       <c r="A244" s="22">
         <v>229</v>
       </c>
-      <c r="B244" s="47"/>
+      <c r="B244" s="44"/>
       <c r="C244" s="26" t="s">
         <v>486</v>
       </c>
@@ -9534,7 +9542,7 @@
       <c r="A245" s="22">
         <v>230</v>
       </c>
-      <c r="B245" s="47"/>
+      <c r="B245" s="44"/>
       <c r="C245" s="26"/>
       <c r="D245" s="10" t="s">
         <v>489</v>
@@ -9559,7 +9567,7 @@
       <c r="A246" s="22">
         <v>231</v>
       </c>
-      <c r="B246" s="48"/>
+      <c r="B246" s="45"/>
       <c r="C246" s="26"/>
       <c r="D246" s="10" t="s">
         <v>491</v>
@@ -9584,7 +9592,7 @@
       <c r="A247" s="22">
         <v>232</v>
       </c>
-      <c r="B247" s="46" t="s">
+      <c r="B247" s="43" t="s">
         <v>493</v>
       </c>
       <c r="C247" s="32" t="s">
@@ -9607,8 +9615,8 @@
       <c r="A248" s="22">
         <v>233</v>
       </c>
-      <c r="B248" s="47"/>
-      <c r="C248" s="43" t="s">
+      <c r="B248" s="44"/>
+      <c r="C248" s="40" t="s">
         <v>494</v>
       </c>
       <c r="D248" s="10" t="s">
@@ -9628,8 +9636,8 @@
       <c r="A249" s="22">
         <v>234</v>
       </c>
-      <c r="B249" s="47"/>
-      <c r="C249" s="44"/>
+      <c r="B249" s="44"/>
+      <c r="C249" s="41"/>
       <c r="D249" s="10" t="s">
         <v>500</v>
       </c>
@@ -9647,8 +9655,8 @@
       <c r="A250" s="22">
         <v>235</v>
       </c>
-      <c r="B250" s="47"/>
-      <c r="C250" s="44"/>
+      <c r="B250" s="44"/>
+      <c r="C250" s="41"/>
       <c r="D250" s="10" t="s">
         <v>501</v>
       </c>
@@ -9666,8 +9674,8 @@
       <c r="A251" s="22">
         <v>236</v>
       </c>
-      <c r="B251" s="47"/>
-      <c r="C251" s="45"/>
+      <c r="B251" s="44"/>
+      <c r="C251" s="42"/>
       <c r="D251" s="10" t="s">
         <v>503</v>
       </c>
@@ -9685,7 +9693,7 @@
       <c r="A252" s="22">
         <v>237</v>
       </c>
-      <c r="B252" s="47"/>
+      <c r="B252" s="44"/>
       <c r="C252" s="32" t="s">
         <v>505</v>
       </c>
@@ -9706,7 +9714,7 @@
       <c r="A253" s="22">
         <v>238</v>
       </c>
-      <c r="B253" s="47"/>
+      <c r="B253" s="44"/>
       <c r="C253" s="32" t="s">
         <v>508</v>
       </c>
@@ -9727,7 +9735,7 @@
       <c r="A254" s="22">
         <v>239</v>
       </c>
-      <c r="B254" s="47"/>
+      <c r="B254" s="44"/>
       <c r="C254" s="32" t="s">
         <v>511</v>
       </c>
@@ -9748,7 +9756,7 @@
       <c r="A255" s="22">
         <v>240</v>
       </c>
-      <c r="B255" s="47"/>
+      <c r="B255" s="44"/>
       <c r="C255" s="32" t="s">
         <v>514</v>
       </c>
@@ -9769,7 +9777,7 @@
       <c r="A256" s="22">
         <v>241</v>
       </c>
-      <c r="B256" s="48"/>
+      <c r="B256" s="45"/>
       <c r="C256" s="32" t="s">
         <v>517</v>
       </c>
@@ -9790,7 +9798,7 @@
       <c r="A257" s="22">
         <v>242</v>
       </c>
-      <c r="B257" s="46" t="s">
+      <c r="B257" s="43" t="s">
         <v>520</v>
       </c>
       <c r="C257" s="32" t="s">
@@ -9813,7 +9821,7 @@
       <c r="A258" s="22">
         <v>243</v>
       </c>
-      <c r="B258" s="47"/>
+      <c r="B258" s="44"/>
       <c r="C258" s="26" t="s">
         <v>523</v>
       </c>
@@ -9834,7 +9842,7 @@
       <c r="A259" s="22">
         <v>244</v>
       </c>
-      <c r="B259" s="47"/>
+      <c r="B259" s="44"/>
       <c r="C259" s="26" t="s">
         <v>177</v>
       </c>
@@ -9855,8 +9863,8 @@
       <c r="A260" s="22">
         <v>245</v>
       </c>
-      <c r="B260" s="47"/>
-      <c r="C260" s="43" t="s">
+      <c r="B260" s="44"/>
+      <c r="C260" s="40" t="s">
         <v>528</v>
       </c>
       <c r="D260" s="10" t="s">
@@ -9876,8 +9884,8 @@
       <c r="A261" s="22">
         <v>246</v>
       </c>
-      <c r="B261" s="47"/>
-      <c r="C261" s="44"/>
+      <c r="B261" s="44"/>
+      <c r="C261" s="41"/>
       <c r="D261" s="10" t="s">
         <v>531</v>
       </c>
@@ -9895,8 +9903,8 @@
       <c r="A262" s="22">
         <v>247</v>
       </c>
-      <c r="B262" s="47"/>
-      <c r="C262" s="45"/>
+      <c r="B262" s="44"/>
+      <c r="C262" s="42"/>
       <c r="D262" s="10" t="s">
         <v>533</v>
       </c>
@@ -9914,7 +9922,7 @@
       <c r="A263" s="22">
         <v>248</v>
       </c>
-      <c r="B263" s="47"/>
+      <c r="B263" s="44"/>
       <c r="C263" s="39" t="s">
         <v>535</v>
       </c>
@@ -9935,7 +9943,7 @@
       <c r="A264" s="22">
         <v>249</v>
       </c>
-      <c r="B264" s="47"/>
+      <c r="B264" s="44"/>
       <c r="C264" s="32" t="s">
         <v>538</v>
       </c>
@@ -9956,7 +9964,7 @@
       <c r="A265" s="22">
         <v>250</v>
       </c>
-      <c r="B265" s="47"/>
+      <c r="B265" s="44"/>
       <c r="C265" s="32" t="s">
         <v>541</v>
       </c>
@@ -9977,7 +9985,7 @@
       <c r="A266" s="22">
         <v>251</v>
       </c>
-      <c r="B266" s="48"/>
+      <c r="B266" s="45"/>
       <c r="C266" s="32" t="s">
         <v>544</v>
       </c>
@@ -9998,7 +10006,7 @@
       <c r="A267" s="22">
         <v>252</v>
       </c>
-      <c r="B267" s="46" t="s">
+      <c r="B267" s="43" t="s">
         <v>547</v>
       </c>
       <c r="C267" s="32" t="s">
@@ -10021,7 +10029,7 @@
       <c r="A268" s="22">
         <v>253</v>
       </c>
-      <c r="B268" s="47"/>
+      <c r="B268" s="44"/>
       <c r="C268" s="32" t="s">
         <v>550</v>
       </c>
@@ -10042,7 +10050,7 @@
       <c r="A269" s="22">
         <v>254</v>
       </c>
-      <c r="B269" s="47"/>
+      <c r="B269" s="44"/>
       <c r="C269" s="32" t="s">
         <v>553</v>
       </c>
@@ -10063,7 +10071,7 @@
       <c r="A270" s="22">
         <v>255</v>
       </c>
-      <c r="B270" s="47"/>
+      <c r="B270" s="44"/>
       <c r="C270" s="32" t="s">
         <v>556</v>
       </c>
@@ -10084,7 +10092,7 @@
       <c r="A271" s="22">
         <v>256</v>
       </c>
-      <c r="B271" s="47"/>
+      <c r="B271" s="44"/>
       <c r="C271" s="32" t="s">
         <v>541</v>
       </c>
@@ -10105,7 +10113,7 @@
       <c r="A272" s="22">
         <v>257</v>
       </c>
-      <c r="B272" s="48"/>
+      <c r="B272" s="45"/>
       <c r="C272" s="32" t="s">
         <v>538</v>
       </c>
@@ -10126,7 +10134,7 @@
       <c r="A273" s="22">
         <v>258</v>
       </c>
-      <c r="B273" s="46" t="s">
+      <c r="B273" s="43" t="s">
         <v>561</v>
       </c>
       <c r="C273" s="32" t="s">
@@ -10149,7 +10157,7 @@
       <c r="A274" s="22">
         <v>259</v>
       </c>
-      <c r="B274" s="47"/>
+      <c r="B274" s="44"/>
       <c r="C274" s="32" t="s">
         <v>523</v>
       </c>
@@ -10170,7 +10178,7 @@
       <c r="A275" s="22">
         <v>260</v>
       </c>
-      <c r="B275" s="47"/>
+      <c r="B275" s="44"/>
       <c r="C275" s="32" t="s">
         <v>177</v>
       </c>
@@ -10191,8 +10199,8 @@
       <c r="A276" s="22">
         <v>261</v>
       </c>
-      <c r="B276" s="47"/>
-      <c r="C276" s="43" t="s">
+      <c r="B276" s="44"/>
+      <c r="C276" s="40" t="s">
         <v>528</v>
       </c>
       <c r="D276" s="10" t="s">
@@ -10212,8 +10220,8 @@
       <c r="A277" s="22">
         <v>262</v>
       </c>
-      <c r="B277" s="47"/>
-      <c r="C277" s="44"/>
+      <c r="B277" s="44"/>
+      <c r="C277" s="41"/>
       <c r="D277" s="10" t="s">
         <v>531</v>
       </c>
@@ -10231,8 +10239,8 @@
       <c r="A278" s="22">
         <v>263</v>
       </c>
-      <c r="B278" s="47"/>
-      <c r="C278" s="45"/>
+      <c r="B278" s="44"/>
+      <c r="C278" s="42"/>
       <c r="D278" s="10" t="s">
         <v>533</v>
       </c>
@@ -10250,7 +10258,7 @@
       <c r="A279" s="22">
         <v>264</v>
       </c>
-      <c r="B279" s="47"/>
+      <c r="B279" s="44"/>
       <c r="C279" s="39" t="s">
         <v>535</v>
       </c>
@@ -10271,7 +10279,7 @@
       <c r="A280" s="22">
         <v>265</v>
       </c>
-      <c r="B280" s="47"/>
+      <c r="B280" s="44"/>
       <c r="C280" s="32" t="s">
         <v>538</v>
       </c>
@@ -10292,7 +10300,7 @@
       <c r="A281" s="22">
         <v>266</v>
       </c>
-      <c r="B281" s="48"/>
+      <c r="B281" s="45"/>
       <c r="C281" s="32" t="s">
         <v>541</v>
       </c>
@@ -10313,7 +10321,7 @@
       <c r="A282" s="22">
         <v>267</v>
       </c>
-      <c r="B282" s="46" t="s">
+      <c r="B282" s="43" t="s">
         <v>571</v>
       </c>
       <c r="C282" s="32" t="s">
@@ -10336,7 +10344,7 @@
       <c r="A283" s="22">
         <v>268</v>
       </c>
-      <c r="B283" s="47"/>
+      <c r="B283" s="44"/>
       <c r="C283" s="32" t="s">
         <v>523</v>
       </c>
@@ -10357,7 +10365,7 @@
       <c r="A284" s="22">
         <v>269</v>
       </c>
-      <c r="B284" s="47"/>
+      <c r="B284" s="44"/>
       <c r="C284" s="32" t="s">
         <v>177</v>
       </c>
@@ -10378,7 +10386,7 @@
       <c r="A285" s="22">
         <v>270</v>
       </c>
-      <c r="B285" s="47"/>
+      <c r="B285" s="44"/>
       <c r="C285" s="32" t="s">
         <v>541</v>
       </c>
@@ -10399,7 +10407,7 @@
       <c r="A286" s="22">
         <v>271</v>
       </c>
-      <c r="B286" s="47"/>
+      <c r="B286" s="44"/>
       <c r="C286" s="32" t="s">
         <v>538</v>
       </c>
@@ -10420,8 +10428,8 @@
       <c r="A287" s="22">
         <v>272</v>
       </c>
-      <c r="B287" s="47"/>
-      <c r="C287" s="43" t="s">
+      <c r="B287" s="44"/>
+      <c r="C287" s="40" t="s">
         <v>528</v>
       </c>
       <c r="D287" s="10" t="s">
@@ -10441,8 +10449,8 @@
       <c r="A288" s="22">
         <v>273</v>
       </c>
-      <c r="B288" s="47"/>
-      <c r="C288" s="44"/>
+      <c r="B288" s="44"/>
+      <c r="C288" s="41"/>
       <c r="D288" s="10" t="s">
         <v>531</v>
       </c>
@@ -10460,8 +10468,8 @@
       <c r="A289" s="22">
         <v>274</v>
       </c>
-      <c r="B289" s="47"/>
-      <c r="C289" s="44"/>
+      <c r="B289" s="44"/>
+      <c r="C289" s="41"/>
       <c r="D289" s="10" t="s">
         <v>533</v>
       </c>
@@ -10479,8 +10487,8 @@
       <c r="A290" s="22">
         <v>275</v>
       </c>
-      <c r="B290" s="47"/>
-      <c r="C290" s="44"/>
+      <c r="B290" s="44"/>
+      <c r="C290" s="41"/>
       <c r="D290" s="10" t="s">
         <v>581</v>
       </c>
@@ -10498,8 +10506,8 @@
       <c r="A291" s="22">
         <v>276</v>
       </c>
-      <c r="B291" s="47"/>
-      <c r="C291" s="44"/>
+      <c r="B291" s="44"/>
+      <c r="C291" s="41"/>
       <c r="D291" s="10" t="s">
         <v>578</v>
       </c>
@@ -10517,8 +10525,8 @@
       <c r="A292" s="22">
         <v>277</v>
       </c>
-      <c r="B292" s="48"/>
-      <c r="C292" s="45"/>
+      <c r="B292" s="45"/>
+      <c r="C292" s="42"/>
       <c r="D292" s="10" t="s">
         <v>578</v>
       </c>
@@ -10536,7 +10544,7 @@
       <c r="A293" s="22">
         <v>278</v>
       </c>
-      <c r="B293" s="46" t="s">
+      <c r="B293" s="43" t="s">
         <v>585</v>
       </c>
       <c r="C293" s="32" t="s">
@@ -10559,7 +10567,7 @@
       <c r="A294" s="22">
         <v>279</v>
       </c>
-      <c r="B294" s="47"/>
+      <c r="B294" s="44"/>
       <c r="C294" s="32" t="s">
         <v>523</v>
       </c>
@@ -10580,7 +10588,7 @@
       <c r="A295" s="22">
         <v>280</v>
       </c>
-      <c r="B295" s="47"/>
+      <c r="B295" s="44"/>
       <c r="C295" s="32" t="s">
         <v>177</v>
       </c>
@@ -10601,7 +10609,7 @@
       <c r="A296" s="22">
         <v>281</v>
       </c>
-      <c r="B296" s="47"/>
+      <c r="B296" s="44"/>
       <c r="C296" s="32" t="s">
         <v>538</v>
       </c>
@@ -10622,8 +10630,8 @@
       <c r="A297" s="22">
         <v>282</v>
       </c>
-      <c r="B297" s="47"/>
-      <c r="C297" s="43" t="s">
+      <c r="B297" s="44"/>
+      <c r="C297" s="40" t="s">
         <v>528</v>
       </c>
       <c r="D297" s="10" t="s">
@@ -10643,8 +10651,8 @@
       <c r="A298" s="22">
         <v>283</v>
       </c>
-      <c r="B298" s="47"/>
-      <c r="C298" s="44"/>
+      <c r="B298" s="44"/>
+      <c r="C298" s="41"/>
       <c r="D298" s="10" t="s">
         <v>531</v>
       </c>
@@ -10662,8 +10670,8 @@
       <c r="A299" s="22">
         <v>284</v>
       </c>
-      <c r="B299" s="47"/>
-      <c r="C299" s="44"/>
+      <c r="B299" s="44"/>
+      <c r="C299" s="41"/>
       <c r="D299" s="10" t="s">
         <v>533</v>
       </c>
@@ -10681,8 +10689,8 @@
       <c r="A300" s="22">
         <v>285</v>
       </c>
-      <c r="B300" s="47"/>
-      <c r="C300" s="45"/>
+      <c r="B300" s="44"/>
+      <c r="C300" s="42"/>
       <c r="D300" s="10" t="s">
         <v>591</v>
       </c>
@@ -10700,7 +10708,7 @@
       <c r="A301" s="22">
         <v>286</v>
       </c>
-      <c r="B301" s="47"/>
+      <c r="B301" s="44"/>
       <c r="C301" s="32" t="s">
         <v>593</v>
       </c>
@@ -10721,7 +10729,7 @@
       <c r="A302" s="22">
         <v>287</v>
       </c>
-      <c r="B302" s="48"/>
+      <c r="B302" s="45"/>
       <c r="C302" s="32" t="s">
         <v>541</v>
       </c>
@@ -10742,7 +10750,7 @@
       <c r="A303" s="22">
         <v>288</v>
       </c>
-      <c r="B303" s="40" t="s">
+      <c r="B303" s="60" t="s">
         <v>597</v>
       </c>
       <c r="C303" s="32" t="s">
@@ -10765,7 +10773,7 @@
       <c r="A304" s="22">
         <v>289</v>
       </c>
-      <c r="B304" s="41"/>
+      <c r="B304" s="61"/>
       <c r="C304" s="32" t="s">
         <v>593</v>
       </c>
@@ -10786,7 +10794,7 @@
       <c r="A305" s="22">
         <v>290</v>
       </c>
-      <c r="B305" s="41"/>
+      <c r="B305" s="61"/>
       <c r="C305" s="32" t="s">
         <v>541</v>
       </c>
@@ -10807,7 +10815,7 @@
       <c r="A306" s="22">
         <v>291</v>
       </c>
-      <c r="B306" s="41"/>
+      <c r="B306" s="61"/>
       <c r="C306" s="32" t="s">
         <v>538</v>
       </c>
@@ -10828,7 +10836,7 @@
       <c r="A307" s="22">
         <v>292</v>
       </c>
-      <c r="B307" s="42"/>
+      <c r="B307" s="62"/>
       <c r="C307" s="32" t="s">
         <v>602</v>
       </c>
@@ -10849,7 +10857,7 @@
       <c r="A308" s="22">
         <v>293</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="43" t="s">
         <v>605</v>
       </c>
       <c r="C308" s="32" t="s">
@@ -10872,7 +10880,7 @@
       <c r="A309" s="22">
         <v>294</v>
       </c>
-      <c r="B309" s="47"/>
+      <c r="B309" s="44"/>
       <c r="C309" s="32" t="s">
         <v>541</v>
       </c>
@@ -10893,7 +10901,7 @@
       <c r="A310" s="22">
         <v>295</v>
       </c>
-      <c r="B310" s="47"/>
+      <c r="B310" s="44"/>
       <c r="C310" s="32" t="s">
         <v>538</v>
       </c>
@@ -10914,8 +10922,8 @@
       <c r="A311" s="22">
         <v>296</v>
       </c>
-      <c r="B311" s="47"/>
-      <c r="C311" s="43" t="s">
+      <c r="B311" s="44"/>
+      <c r="C311" s="40" t="s">
         <v>528</v>
       </c>
       <c r="D311" s="10" t="s">
@@ -10935,8 +10943,8 @@
       <c r="A312" s="22">
         <v>297</v>
       </c>
-      <c r="B312" s="47"/>
-      <c r="C312" s="44"/>
+      <c r="B312" s="44"/>
+      <c r="C312" s="41"/>
       <c r="D312" s="10" t="s">
         <v>531</v>
       </c>
@@ -10954,8 +10962,8 @@
       <c r="A313" s="22">
         <v>298</v>
       </c>
-      <c r="B313" s="47"/>
-      <c r="C313" s="45"/>
+      <c r="B313" s="44"/>
+      <c r="C313" s="42"/>
       <c r="D313" s="10" t="s">
         <v>533</v>
       </c>
@@ -10973,8 +10981,8 @@
       <c r="A314" s="22">
         <v>299</v>
       </c>
-      <c r="B314" s="47"/>
-      <c r="C314" s="43" t="s">
+      <c r="B314" s="44"/>
+      <c r="C314" s="40" t="s">
         <v>610</v>
       </c>
       <c r="D314" s="10" t="s">
@@ -10994,8 +11002,8 @@
       <c r="A315" s="22">
         <v>300</v>
       </c>
-      <c r="B315" s="47"/>
-      <c r="C315" s="44"/>
+      <c r="B315" s="44"/>
+      <c r="C315" s="41"/>
       <c r="D315" s="10" t="s">
         <v>614</v>
       </c>
@@ -11013,8 +11021,8 @@
       <c r="A316" s="22">
         <v>301</v>
       </c>
-      <c r="B316" s="47"/>
-      <c r="C316" s="45"/>
+      <c r="B316" s="44"/>
+      <c r="C316" s="42"/>
       <c r="D316" s="10" t="s">
         <v>615</v>
       </c>
@@ -11032,8 +11040,8 @@
       <c r="A317" s="22">
         <v>302</v>
       </c>
-      <c r="B317" s="47"/>
-      <c r="C317" s="43" t="s">
+      <c r="B317" s="44"/>
+      <c r="C317" s="40" t="s">
         <v>617</v>
       </c>
       <c r="D317" s="10" t="s">
@@ -11053,8 +11061,8 @@
       <c r="A318" s="22">
         <v>303</v>
       </c>
-      <c r="B318" s="47"/>
-      <c r="C318" s="45"/>
+      <c r="B318" s="44"/>
+      <c r="C318" s="42"/>
       <c r="D318" s="10" t="s">
         <v>620</v>
       </c>
@@ -11072,7 +11080,7 @@
       <c r="A319" s="22">
         <v>304</v>
       </c>
-      <c r="B319" s="48"/>
+      <c r="B319" s="45"/>
       <c r="C319" s="32" t="s">
         <v>622</v>
       </c>
@@ -11384,6 +11392,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="B308:B319"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="B273:B281"/>
+    <mergeCell ref="C287:C292"/>
+    <mergeCell ref="B282:B292"/>
+    <mergeCell ref="C297:C300"/>
+    <mergeCell ref="B293:B302"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="B247:B256"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="B257:B266"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B193:B203"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B133:B146"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="B115:B132"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="B65:B81"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C78:C80"/>
     <mergeCell ref="C236:C238"/>
     <mergeCell ref="B231:B241"/>
     <mergeCell ref="B242:B246"/>
@@ -11400,74 +11476,6 @@
     <mergeCell ref="B111:B114"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="B65:B81"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B115:B132"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="B133:B146"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B193:B203"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="B247:B256"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="B257:B266"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="B273:B281"/>
-    <mergeCell ref="C287:C292"/>
-    <mergeCell ref="B282:B292"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="B293:B302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="B308:B319"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G60:I246 G16:I57">

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="633">
   <si>
     <t>ID</t>
   </si>
@@ -2620,16 +2620,10 @@
 2. click the Tabbar . Button</t>
   </si>
   <si>
-    <t>chưa có nút check</t>
-  </si>
-  <si>
-    <t>chưa có nút loign tại màn hình đăng ký</t>
-  </si>
-  <si>
     <t>Actual results</t>
   </si>
   <si>
-    <t>Ten: abc</t>
+    <t>Thoát Ứng Dụng</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2850,9 +2844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2871,15 +2862,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2933,6 +2915,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2950,6 +2944,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2969,44 +2987,109 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3369,15 +3452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111:I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="25" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="31.5546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="31.5546875" style="5" customWidth="1"/>
@@ -3390,42 +3473,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
-        <v>634</v>
+      <c r="B5" s="19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -3437,44 +3515,44 @@
       <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="K15" s="13" t="s">
+      <c r="J15" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3482,10 +3560,10 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -3495,13 +3573,13 @@
         <v>20</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="G16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="8"/>
@@ -3511,8 +3589,8 @@
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -3524,24 +3602,24 @@
       <c r="F17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>10</v>
+      <c r="G17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="18">
         <v>3</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -3553,24 +3631,26 @@
       <c r="F18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="8"/>
+      <c r="G18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>632</v>
+      </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="18">
         <v>4</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -3583,23 +3663,23 @@
         <v>51</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="18">
         <v>5</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -3612,23 +3692,25 @@
         <v>58</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>632</v>
+      </c>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
-        <v>6</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="18">
+        <v>6</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -3639,22 +3721,22 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="18">
         <v>7</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="40" t="s">
@@ -3668,22 +3750,22 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="18">
         <v>8</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="42"/>
       <c r="D23" s="10" t="s">
         <v>65</v>
@@ -3693,22 +3775,22 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="18">
         <v>9</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="40" t="s">
         <v>70</v>
       </c>
@@ -3720,22 +3802,22 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
-        <v>10</v>
-      </c>
-      <c r="B25" s="53"/>
+      <c r="A25" s="18">
+        <v>10</v>
+      </c>
+      <c r="B25" s="47"/>
       <c r="C25" s="42"/>
       <c r="D25" s="10" t="s">
         <v>65</v>
@@ -3745,23 +3827,23 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="18">
         <v>11</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="22" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3772,23 +3854,23 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="18">
         <v>12</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3799,23 +3881,23 @@
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="18">
         <v>13</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -3826,23 +3908,23 @@
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="18">
         <v>14</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -3853,23 +3935,23 @@
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="18">
         <v>15</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="47"/>
+      <c r="C30" s="22" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -3882,23 +3964,25 @@
         <v>51</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>632</v>
+      </c>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="18">
         <v>16</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -3911,23 +3995,25 @@
         <v>52</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>632</v>
+      </c>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="18">
         <v>17</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="47"/>
+      <c r="C32" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -3940,23 +4026,23 @@
         <v>58</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="18">
         <v>18</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -3967,23 +4053,23 @@
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="18">
         <v>19</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="22" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -3994,23 +4080,23 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="18">
         <v>20</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="47"/>
+      <c r="C35" s="22" t="s">
         <v>88</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -4021,23 +4107,23 @@
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="18">
         <v>21</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="22" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -4048,25 +4134,25 @@
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+      <c r="A37" s="18">
         <v>22</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -4077,23 +4163,23 @@
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+      <c r="A38" s="18">
         <v>23</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="47"/>
+      <c r="C38" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -4108,21 +4194,21 @@
       <c r="G38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="19" t="s">
+      <c r="H38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="18">
         <v>24</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="47"/>
+      <c r="C39" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -4137,21 +4223,21 @@
       <c r="G39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="19" t="s">
+      <c r="H39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="18">
         <v>25</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="47"/>
+      <c r="C40" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -4164,25 +4250,23 @@
         <v>51</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>631</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
+      <c r="A41" s="18">
         <v>26</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="47"/>
+      <c r="C41" s="22" t="s">
         <v>103</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -4194,26 +4278,24 @@
       <c r="F41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>631</v>
-      </c>
+      <c r="G41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+      <c r="A42" s="18">
         <v>27</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="47"/>
+      <c r="C42" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -4223,26 +4305,24 @@
         <v>107</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>631</v>
-      </c>
+      <c r="G42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="18">
         <v>28</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -4252,28 +4332,26 @@
         <v>109</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>631</v>
-      </c>
+      <c r="G43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+      <c r="A44" s="18">
         <v>29</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="22" t="s">
         <v>112</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -4284,25 +4362,23 @@
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>632</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+      <c r="A45" s="18">
         <v>30</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="22" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -4312,26 +4388,24 @@
         <v>109</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>632</v>
-      </c>
+      <c r="G45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="22">
+      <c r="A46" s="18">
         <v>31</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="26" t="s">
+      <c r="B46" s="47"/>
+      <c r="C46" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -4343,24 +4417,24 @@
       <c r="F46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="19" t="s">
+      <c r="G46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="18">
         <v>32</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="26" t="s">
+      <c r="B47" s="47"/>
+      <c r="C47" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -4372,24 +4446,24 @@
       <c r="F47" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="20" t="s">
+      <c r="G47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="18">
         <v>33</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="47"/>
+      <c r="C48" s="22" t="s">
         <v>116</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -4401,24 +4475,24 @@
       <c r="F48" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>10</v>
+      <c r="G48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="18">
         <v>34</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="22" t="s">
         <v>117</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -4430,26 +4504,26 @@
       <c r="F49" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>10</v>
+      <c r="G49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="22">
+      <c r="A50" s="18">
         <v>35</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -4459,24 +4533,24 @@
         <v>125</v>
       </c>
       <c r="F50" s="8"/>
-      <c r="G50" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="21" t="s">
+      <c r="G50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="18">
         <v>36</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="10" t="s">
@@ -4488,24 +4562,24 @@
       <c r="F51" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="21" t="s">
+      <c r="G51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="18">
         <v>37</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="56"/>
+      <c r="C52" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D52" s="10" t="s">
@@ -4515,26 +4589,26 @@
         <v>129</v>
       </c>
       <c r="F52" s="8"/>
-      <c r="G52" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="21" t="s">
+      <c r="G52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
+      <c r="A53" s="18">
         <v>38</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -4544,24 +4618,24 @@
         <v>133</v>
       </c>
       <c r="F53" s="8"/>
-      <c r="G53" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>10</v>
+      <c r="G53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="A54" s="18">
         <v>39</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="26" t="s">
+      <c r="B54" s="47"/>
+      <c r="C54" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -4573,24 +4647,24 @@
       <c r="F54" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>10</v>
+      <c r="G54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="18">
         <v>40</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="26" t="s">
+      <c r="B55" s="47"/>
+      <c r="C55" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -4602,24 +4676,24 @@
       <c r="F55" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G55" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>10</v>
+      <c r="G55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="18">
         <v>41</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="26" t="s">
+      <c r="B56" s="47"/>
+      <c r="C56" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="10" t="s">
@@ -4631,24 +4705,24 @@
       <c r="F56" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>10</v>
+      <c r="G56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
+      <c r="A57" s="18">
         <v>42</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="26" t="s">
+      <c r="B57" s="48"/>
+      <c r="C57" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D57" s="10" t="s">
@@ -4660,56 +4734,56 @@
       <c r="F57" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>10</v>
+      <c r="G57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="A58" s="18">
         <v>43</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="22">
+      <c r="A59" s="18">
         <v>44</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="22">
+      <c r="A60" s="18">
         <v>45</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="51" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -4719,24 +4793,24 @@
         <v>29</v>
       </c>
       <c r="F60" s="10"/>
-      <c r="G60" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="25" t="s">
+      <c r="G60" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="18">
         <v>46</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="10" t="s">
         <v>36</v>
       </c>
@@ -4744,24 +4818,24 @@
         <v>28</v>
       </c>
       <c r="F61" s="10"/>
-      <c r="G61" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="25" t="s">
+      <c r="G61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="22">
+      <c r="A62" s="18">
         <v>47</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="56"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="10" t="s">
         <v>35</v>
       </c>
@@ -4769,24 +4843,24 @@
         <v>30</v>
       </c>
       <c r="F62" s="10"/>
-      <c r="G62" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="25" t="s">
+      <c r="G62" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="18">
         <v>48</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="10" t="s">
         <v>34</v>
       </c>
@@ -4794,24 +4868,24 @@
         <v>31</v>
       </c>
       <c r="F63" s="10"/>
-      <c r="G63" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="25" t="s">
+      <c r="G63" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="18">
         <v>49</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="56"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="10" t="s">
         <v>33</v>
       </c>
@@ -4819,26 +4893,26 @@
         <v>32</v>
       </c>
       <c r="F64" s="10"/>
-      <c r="G64" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="25" t="s">
+      <c r="G64" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="22">
+      <c r="A65" s="18">
         <v>50</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="51" t="s">
         <v>145</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -4848,24 +4922,24 @@
         <v>147</v>
       </c>
       <c r="F65" s="10"/>
-      <c r="G65" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="25" t="s">
+      <c r="G65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="18">
         <v>51</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="56"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="10" t="s">
         <v>148</v>
       </c>
@@ -4873,24 +4947,24 @@
         <v>149</v>
       </c>
       <c r="F66" s="10"/>
-      <c r="G66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="25" t="s">
+      <c r="G66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A67" s="22">
+      <c r="A67" s="18">
         <v>52</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="56"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="10" t="s">
         <v>150</v>
       </c>
@@ -4900,24 +4974,24 @@
       <c r="F67" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G67" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="25" t="s">
+      <c r="G67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A68" s="22">
+      <c r="A68" s="18">
         <v>53</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="56"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="10" t="s">
         <v>153</v>
       </c>
@@ -4927,24 +5001,24 @@
       <c r="F68" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G68" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="25" t="s">
+      <c r="G68" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="18">
         <v>54</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="56"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="10" t="s">
         <v>156</v>
       </c>
@@ -4954,24 +5028,24 @@
       <c r="F69" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G69" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="25" t="s">
+      <c r="G69" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="22">
+      <c r="A70" s="18">
         <v>55</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="56"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="10" t="s">
         <v>159</v>
       </c>
@@ -4981,24 +5055,24 @@
       <c r="F70" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G70" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="25" t="s">
+      <c r="G70" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
+      <c r="A71" s="18">
         <v>56</v>
       </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="56" t="s">
+      <c r="B71" s="50"/>
+      <c r="C71" s="51" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -5008,24 +5082,24 @@
         <v>147</v>
       </c>
       <c r="F71" s="10"/>
-      <c r="G71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="25" t="s">
+      <c r="G71" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="22">
+      <c r="A72" s="18">
         <v>57</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="10" t="s">
         <v>162</v>
       </c>
@@ -5033,24 +5107,24 @@
         <v>163</v>
       </c>
       <c r="F72" s="10"/>
-      <c r="G72" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="25" t="s">
+      <c r="G72" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="A73" s="18">
         <v>58</v>
       </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="56"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="10" t="s">
         <v>164</v>
       </c>
@@ -5058,24 +5132,24 @@
         <v>165</v>
       </c>
       <c r="F73" s="10"/>
-      <c r="G73" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="25" t="s">
+      <c r="G73" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="18">
         <v>59</v>
       </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="56"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="10" t="s">
         <v>166</v>
       </c>
@@ -5083,24 +5157,24 @@
         <v>167</v>
       </c>
       <c r="F74" s="10"/>
-      <c r="G74" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="25" t="s">
+      <c r="G74" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
+      <c r="A75" s="18">
         <v>60</v>
       </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="56"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="10" t="s">
         <v>168</v>
       </c>
@@ -5108,24 +5182,24 @@
         <v>169</v>
       </c>
       <c r="F75" s="10"/>
-      <c r="G75" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="25" t="s">
+      <c r="G75" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="22">
+      <c r="A76" s="18">
         <v>61</v>
       </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="56"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="10" t="s">
         <v>170</v>
       </c>
@@ -5133,24 +5207,24 @@
         <v>171</v>
       </c>
       <c r="F76" s="10"/>
-      <c r="G76" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="25" t="s">
+      <c r="G76" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
+      <c r="A77" s="18">
         <v>62</v>
       </c>
-      <c r="B77" s="55"/>
-      <c r="C77" s="26" t="s">
+      <c r="B77" s="50"/>
+      <c r="C77" s="22" t="s">
         <v>172</v>
       </c>
       <c r="D77" s="10" t="s">
@@ -5160,24 +5234,24 @@
         <v>40</v>
       </c>
       <c r="F77" s="10"/>
-      <c r="G77" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="25" t="s">
+      <c r="G77" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
+      <c r="A78" s="18">
         <v>63</v>
       </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="56" t="s">
+      <c r="B78" s="50"/>
+      <c r="C78" s="51" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -5187,24 +5261,24 @@
         <v>45</v>
       </c>
       <c r="F78" s="10"/>
-      <c r="G78" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="25" t="s">
+      <c r="G78" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="18">
         <v>64</v>
       </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="56"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="10" t="s">
         <v>42</v>
       </c>
@@ -5212,24 +5286,24 @@
         <v>43</v>
       </c>
       <c r="F79" s="10"/>
-      <c r="G79" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="25" t="s">
+      <c r="G79" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="22">
+      <c r="A80" s="18">
         <v>65</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="56"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="10" t="s">
         <v>44</v>
       </c>
@@ -5237,24 +5311,24 @@
         <v>46</v>
       </c>
       <c r="F80" s="10"/>
-      <c r="G80" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="25" t="s">
+      <c r="G80" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
+      <c r="A81" s="18">
         <v>66</v>
       </c>
-      <c r="B81" s="55"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="10" t="s">
         <v>175</v>
       </c>
@@ -5262,20 +5336,20 @@
         <v>176</v>
       </c>
       <c r="F81" s="10"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
       <c r="J81" s="8"/>
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="22">
+      <c r="A82" s="18">
         <v>67</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="56" t="s">
+      <c r="C82" s="51" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -5287,24 +5361,24 @@
       <c r="F82" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="G82" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="25" t="s">
+      <c r="G82" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
+      <c r="A83" s="18">
         <v>68</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="56"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="10" t="s">
         <v>181</v>
       </c>
@@ -5312,24 +5386,24 @@
         <v>182</v>
       </c>
       <c r="F83" s="10"/>
-      <c r="G83" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="25" t="s">
+      <c r="G83" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="22">
+      <c r="A84" s="18">
         <v>69</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="56" t="s">
+      <c r="B84" s="50"/>
+      <c r="C84" s="51" t="s">
         <v>183</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -5339,24 +5413,24 @@
         <v>185</v>
       </c>
       <c r="F84" s="10"/>
-      <c r="G84" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="25" t="s">
+      <c r="G84" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="18">
         <v>70</v>
       </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="56"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="10" t="s">
         <v>186</v>
       </c>
@@ -5364,24 +5438,24 @@
         <v>187</v>
       </c>
       <c r="F85" s="10"/>
-      <c r="G85" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="25" t="s">
+      <c r="G85" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="22">
+      <c r="A86" s="18">
         <v>71</v>
       </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="56"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="10" t="s">
         <v>188</v>
       </c>
@@ -5389,24 +5463,24 @@
         <v>189</v>
       </c>
       <c r="F86" s="10"/>
-      <c r="G86" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="25" t="s">
+      <c r="G86" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="9"/>
     </row>
     <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="22">
+      <c r="A87" s="18">
         <v>72</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="56"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="10" t="s">
         <v>190</v>
       </c>
@@ -5414,24 +5488,24 @@
         <v>191</v>
       </c>
       <c r="F87" s="10"/>
-      <c r="G87" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="25" t="s">
+      <c r="G87" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="22">
+      <c r="A88" s="18">
         <v>73</v>
       </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="26" t="s">
+      <c r="B88" s="50"/>
+      <c r="C88" s="22" t="s">
         <v>172</v>
       </c>
       <c r="D88" s="10" t="s">
@@ -5441,24 +5515,24 @@
         <v>40</v>
       </c>
       <c r="F88" s="10"/>
-      <c r="G88" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="25" t="s">
+      <c r="G88" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="22">
+      <c r="A89" s="18">
         <v>74</v>
       </c>
-      <c r="B89" s="55"/>
-      <c r="C89" s="26"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="10" t="s">
         <v>175</v>
       </c>
@@ -5466,20 +5540,20 @@
         <v>176</v>
       </c>
       <c r="F89" s="10"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
       <c r="J89" s="8"/>
       <c r="K89" s="9"/>
     </row>
     <row r="90" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="22">
+      <c r="A90" s="18">
         <v>75</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="51" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -5489,24 +5563,24 @@
         <v>179</v>
       </c>
       <c r="F90" s="10"/>
-      <c r="G90" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="25" t="s">
+      <c r="G90" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="22">
+      <c r="A91" s="18">
         <v>76</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="56"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="51"/>
       <c r="D91" s="10" t="s">
         <v>181</v>
       </c>
@@ -5514,24 +5588,24 @@
         <v>182</v>
       </c>
       <c r="F91" s="10"/>
-      <c r="G91" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="25" t="s">
+      <c r="G91" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="22">
+      <c r="A92" s="18">
         <v>77</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="56" t="s">
+      <c r="B92" s="50"/>
+      <c r="C92" s="51" t="s">
         <v>183</v>
       </c>
       <c r="D92" s="10" t="s">
@@ -5541,24 +5615,24 @@
         <v>185</v>
       </c>
       <c r="F92" s="10"/>
-      <c r="G92" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="25" t="s">
+      <c r="G92" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="22">
+      <c r="A93" s="18">
         <v>78</v>
       </c>
-      <c r="B93" s="55"/>
-      <c r="C93" s="56"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="10" t="s">
         <v>186</v>
       </c>
@@ -5566,24 +5640,24 @@
         <v>187</v>
       </c>
       <c r="F93" s="10"/>
-      <c r="G93" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="25" t="s">
+      <c r="G93" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="22">
+      <c r="A94" s="18">
         <v>79</v>
       </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="56"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="10" t="s">
         <v>188</v>
       </c>
@@ -5591,24 +5665,24 @@
         <v>189</v>
       </c>
       <c r="F94" s="10"/>
-      <c r="G94" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="25" t="s">
+      <c r="G94" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="9"/>
     </row>
     <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="22">
+      <c r="A95" s="18">
         <v>80</v>
       </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="56"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="10" t="s">
         <v>190</v>
       </c>
@@ -5616,24 +5690,24 @@
         <v>192</v>
       </c>
       <c r="F95" s="10"/>
-      <c r="G95" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="25" t="s">
+      <c r="G95" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="22">
+      <c r="A96" s="18">
         <v>81</v>
       </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="26" t="s">
+      <c r="B96" s="50"/>
+      <c r="C96" s="22" t="s">
         <v>172</v>
       </c>
       <c r="D96" s="10" t="s">
@@ -5643,24 +5717,24 @@
         <v>40</v>
       </c>
       <c r="F96" s="10"/>
-      <c r="G96" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="25" t="s">
+      <c r="G96" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="22">
+      <c r="A97" s="18">
         <v>82</v>
       </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="26"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="10" t="s">
         <v>175</v>
       </c>
@@ -5668,20 +5742,20 @@
         <v>176</v>
       </c>
       <c r="F97" s="10"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
       <c r="J97" s="8"/>
       <c r="K97" s="9"/>
     </row>
     <row r="98" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="22">
+      <c r="A98" s="18">
         <v>83</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="22" t="s">
         <v>193</v>
       </c>
       <c r="D98" s="10" t="s">
@@ -5691,24 +5765,24 @@
         <v>195</v>
       </c>
       <c r="F98" s="10"/>
-      <c r="G98" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="25" t="s">
+      <c r="G98" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="22">
+      <c r="A99" s="18">
         <v>84</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="22"/>
       <c r="D99" s="10" t="s">
         <v>175</v>
       </c>
@@ -5716,20 +5790,20 @@
         <v>176</v>
       </c>
       <c r="F99" s="10"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
       <c r="J99" s="8"/>
       <c r="K99" s="9"/>
     </row>
     <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="22">
+      <c r="A100" s="18">
         <v>85</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="22" t="s">
         <v>193</v>
       </c>
       <c r="D100" s="10" t="s">
@@ -5739,24 +5813,24 @@
         <v>197</v>
       </c>
       <c r="F100" s="10"/>
-      <c r="G100" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="25" t="s">
+      <c r="G100" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="9"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="22">
+      <c r="A101" s="18">
         <v>86</v>
       </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="26" t="s">
+      <c r="B101" s="50"/>
+      <c r="C101" s="22" t="s">
         <v>172</v>
       </c>
       <c r="D101" s="10" t="s">
@@ -5766,24 +5840,24 @@
         <v>40</v>
       </c>
       <c r="F101" s="10"/>
-      <c r="G101" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="25" t="s">
+      <c r="G101" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="9"/>
     </row>
     <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="22">
+      <c r="A102" s="18">
         <v>87</v>
       </c>
-      <c r="B102" s="55"/>
-      <c r="C102" s="26"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="10" t="s">
         <v>175</v>
       </c>
@@ -5791,20 +5865,20 @@
         <v>176</v>
       </c>
       <c r="F102" s="10"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
       <c r="J102" s="8"/>
       <c r="K102" s="9"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="22">
+      <c r="A103" s="18">
         <v>88</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="22" t="s">
         <v>172</v>
       </c>
       <c r="D103" s="10" t="s">
@@ -5816,24 +5890,24 @@
       <c r="F103" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G103" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="25" t="s">
+      <c r="G103" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="22">
+      <c r="A104" s="18">
         <v>89</v>
       </c>
-      <c r="B104" s="55"/>
-      <c r="C104" s="26" t="s">
+      <c r="B104" s="50"/>
+      <c r="C104" s="22" t="s">
         <v>200</v>
       </c>
       <c r="D104" s="10" t="s">
@@ -5845,24 +5919,24 @@
       <c r="F104" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G104" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="25" t="s">
+      <c r="G104" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="9"/>
     </row>
     <row r="105" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="22">
+      <c r="A105" s="18">
         <v>90</v>
       </c>
-      <c r="B105" s="55"/>
-      <c r="C105" s="56" t="s">
+      <c r="B105" s="50"/>
+      <c r="C105" s="51" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="10" t="s">
@@ -5872,24 +5946,24 @@
         <v>205</v>
       </c>
       <c r="F105" s="10"/>
-      <c r="G105" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H105" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" s="25" t="s">
+      <c r="G105" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="22">
+      <c r="A106" s="18">
         <v>91</v>
       </c>
-      <c r="B106" s="55"/>
-      <c r="C106" s="56"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="51"/>
       <c r="D106" s="10" t="s">
         <v>206</v>
       </c>
@@ -5897,24 +5971,24 @@
         <v>205</v>
       </c>
       <c r="F106" s="10"/>
-      <c r="G106" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I106" s="25" t="s">
+      <c r="G106" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="22">
+      <c r="A107" s="18">
         <v>92</v>
       </c>
-      <c r="B107" s="55"/>
-      <c r="C107" s="56"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="10" t="s">
         <v>207</v>
       </c>
@@ -5922,24 +5996,24 @@
         <v>208</v>
       </c>
       <c r="F107" s="10"/>
-      <c r="G107" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" s="25" t="s">
+      <c r="G107" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="22">
+      <c r="A108" s="18">
         <v>93</v>
       </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="56"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="10" t="s">
         <v>209</v>
       </c>
@@ -5947,24 +6021,24 @@
         <v>205</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" s="25" t="s">
+      <c r="G108" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="22">
+      <c r="A109" s="18">
         <v>94</v>
       </c>
-      <c r="B109" s="55"/>
-      <c r="C109" s="26" t="s">
+      <c r="B109" s="50"/>
+      <c r="C109" s="22" t="s">
         <v>210</v>
       </c>
       <c r="D109" s="10" t="s">
@@ -5974,24 +6048,24 @@
         <v>212</v>
       </c>
       <c r="F109" s="10"/>
-      <c r="G109" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" s="25" t="s">
+      <c r="G109" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="22">
+      <c r="A110" s="18">
         <v>95</v>
       </c>
-      <c r="B110" s="55"/>
-      <c r="C110" s="26"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="22"/>
       <c r="D110" s="10" t="s">
         <v>175</v>
       </c>
@@ -5999,26 +6073,26 @@
         <v>176</v>
       </c>
       <c r="F110" s="10"/>
-      <c r="G110" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="25" t="s">
+      <c r="G110" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="22">
+      <c r="A111" s="18">
         <v>96</v>
       </c>
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C111" s="26"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="10" t="s">
         <v>214</v>
       </c>
@@ -6026,24 +6100,24 @@
         <v>215</v>
       </c>
       <c r="F111" s="10"/>
-      <c r="G111" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="25" t="s">
-        <v>10</v>
+      <c r="G111" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="9"/>
     </row>
     <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="22">
+      <c r="A112" s="18">
         <v>97</v>
       </c>
-      <c r="B112" s="55"/>
-      <c r="C112" s="26"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="22"/>
       <c r="D112" s="10" t="s">
         <v>216</v>
       </c>
@@ -6051,24 +6125,24 @@
         <v>217</v>
       </c>
       <c r="F112" s="10"/>
-      <c r="G112" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="25" t="s">
-        <v>10</v>
+      <c r="G112" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="9"/>
     </row>
     <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="22">
+      <c r="A113" s="18">
         <v>98</v>
       </c>
-      <c r="B113" s="55"/>
-      <c r="C113" s="26"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="22"/>
       <c r="D113" s="10" t="s">
         <v>218</v>
       </c>
@@ -6076,24 +6150,24 @@
         <v>219</v>
       </c>
       <c r="F113" s="10"/>
-      <c r="G113" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="25" t="s">
-        <v>10</v>
+      <c r="G113" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="9"/>
     </row>
     <row r="114" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="22">
+      <c r="A114" s="18">
         <v>99</v>
       </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="26"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="22"/>
       <c r="D114" s="10" t="s">
         <v>220</v>
       </c>
@@ -6101,26 +6175,26 @@
         <v>221</v>
       </c>
       <c r="F114" s="10"/>
-      <c r="G114" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" s="25" t="s">
-        <v>10</v>
+      <c r="G114" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="J114" s="8"/>
       <c r="K114" s="9"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="22">
+      <c r="A115" s="18">
         <v>100</v>
       </c>
-      <c r="B115" s="55" t="s">
+      <c r="B115" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="22" t="s">
         <v>223</v>
       </c>
       <c r="D115" s="10" t="s">
@@ -6130,24 +6204,24 @@
         <v>225</v>
       </c>
       <c r="F115" s="10"/>
-      <c r="G115" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="25" t="s">
+      <c r="G115" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J115" s="8"/>
       <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="22">
+      <c r="A116" s="18">
         <v>101</v>
       </c>
-      <c r="B116" s="55"/>
-      <c r="C116" s="56" t="s">
+      <c r="B116" s="50"/>
+      <c r="C116" s="51" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="10" t="s">
@@ -6157,24 +6231,24 @@
         <v>228</v>
       </c>
       <c r="F116" s="10"/>
-      <c r="G116" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="25" t="s">
+      <c r="G116" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="9"/>
     </row>
     <row r="117" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="22">
+      <c r="A117" s="18">
         <v>102</v>
       </c>
-      <c r="B117" s="55"/>
-      <c r="C117" s="56"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="10" t="s">
         <v>229</v>
       </c>
@@ -6182,24 +6256,24 @@
         <v>230</v>
       </c>
       <c r="F117" s="10"/>
-      <c r="G117" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" s="25" t="s">
+      <c r="G117" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="9"/>
     </row>
     <row r="118" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="22">
+      <c r="A118" s="18">
         <v>103</v>
       </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="56"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="51"/>
       <c r="D118" s="10" t="s">
         <v>231</v>
       </c>
@@ -6207,24 +6281,24 @@
         <v>232</v>
       </c>
       <c r="F118" s="10"/>
-      <c r="G118" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="25" t="s">
+      <c r="G118" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J118" s="8"/>
       <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="22">
+      <c r="A119" s="18">
         <v>104</v>
       </c>
-      <c r="B119" s="55"/>
-      <c r="C119" s="56"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="10" t="s">
         <v>233</v>
       </c>
@@ -6232,24 +6306,24 @@
         <v>230</v>
       </c>
       <c r="F119" s="10"/>
-      <c r="G119" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" s="25" t="s">
+      <c r="G119" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J119" s="8"/>
       <c r="K119" s="9"/>
     </row>
     <row r="120" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="22">
+      <c r="A120" s="18">
         <v>105</v>
       </c>
-      <c r="B120" s="55"/>
-      <c r="C120" s="56" t="s">
+      <c r="B120" s="50"/>
+      <c r="C120" s="51" t="s">
         <v>234</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -6259,24 +6333,24 @@
         <v>236</v>
       </c>
       <c r="F120" s="10"/>
-      <c r="G120" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="25" t="s">
+      <c r="G120" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J120" s="8"/>
       <c r="K120" s="9"/>
     </row>
     <row r="121" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="22">
+      <c r="A121" s="18">
         <v>106</v>
       </c>
-      <c r="B121" s="55"/>
-      <c r="C121" s="56"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="51"/>
       <c r="D121" s="10" t="s">
         <v>237</v>
       </c>
@@ -6284,24 +6358,24 @@
         <v>238</v>
       </c>
       <c r="F121" s="10"/>
-      <c r="G121" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" s="25" t="s">
+      <c r="G121" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J121" s="8"/>
       <c r="K121" s="9"/>
     </row>
     <row r="122" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A122" s="22">
+      <c r="A122" s="18">
         <v>107</v>
       </c>
-      <c r="B122" s="55"/>
-      <c r="C122" s="56"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="10" t="s">
         <v>239</v>
       </c>
@@ -6309,24 +6383,24 @@
         <v>236</v>
       </c>
       <c r="F122" s="10"/>
-      <c r="G122" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="25" t="s">
+      <c r="G122" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="9"/>
     </row>
     <row r="123" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="22">
+      <c r="A123" s="18">
         <v>108</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="56"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="10" t="s">
         <v>240</v>
       </c>
@@ -6334,24 +6408,24 @@
         <v>236</v>
       </c>
       <c r="F123" s="10"/>
-      <c r="G123" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123" s="25" t="s">
+      <c r="G123" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J123" s="8"/>
       <c r="K123" s="9"/>
     </row>
     <row r="124" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="22">
+      <c r="A124" s="18">
         <v>109</v>
       </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="56" t="s">
+      <c r="B124" s="50"/>
+      <c r="C124" s="51" t="s">
         <v>241</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -6361,24 +6435,24 @@
         <v>243</v>
       </c>
       <c r="F124" s="10"/>
-      <c r="G124" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" s="25" t="s">
+      <c r="G124" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J124" s="8"/>
       <c r="K124" s="9"/>
     </row>
     <row r="125" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="22">
+      <c r="A125" s="18">
         <v>110</v>
       </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="56"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="10" t="s">
         <v>244</v>
       </c>
@@ -6386,24 +6460,24 @@
         <v>243</v>
       </c>
       <c r="F125" s="10"/>
-      <c r="G125" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H125" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="25" t="s">
+      <c r="G125" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="9"/>
     </row>
     <row r="126" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="22">
+      <c r="A126" s="18">
         <v>111</v>
       </c>
-      <c r="B126" s="55"/>
-      <c r="C126" s="56"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="51"/>
       <c r="D126" s="10" t="s">
         <v>245</v>
       </c>
@@ -6411,24 +6485,24 @@
         <v>246</v>
       </c>
       <c r="F126" s="10"/>
-      <c r="G126" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="25" t="s">
+      <c r="G126" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="9"/>
     </row>
     <row r="127" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="22">
+      <c r="A127" s="18">
         <v>112</v>
       </c>
-      <c r="B127" s="55"/>
-      <c r="C127" s="56" t="s">
+      <c r="B127" s="50"/>
+      <c r="C127" s="51" t="s">
         <v>247</v>
       </c>
       <c r="D127" s="10" t="s">
@@ -6438,24 +6512,24 @@
         <v>249</v>
       </c>
       <c r="F127" s="10"/>
-      <c r="G127" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="25" t="s">
+      <c r="G127" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="9"/>
     </row>
     <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="22">
+      <c r="A128" s="18">
         <v>113</v>
       </c>
-      <c r="B128" s="55"/>
-      <c r="C128" s="56"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="10" t="s">
         <v>250</v>
       </c>
@@ -6463,24 +6537,24 @@
         <v>251</v>
       </c>
       <c r="F128" s="10"/>
-      <c r="G128" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="25" t="s">
+      <c r="G128" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="9"/>
     </row>
     <row r="129" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A129" s="22">
+      <c r="A129" s="18">
         <v>114</v>
       </c>
-      <c r="B129" s="55"/>
-      <c r="C129" s="56" t="s">
+      <c r="B129" s="50"/>
+      <c r="C129" s="51" t="s">
         <v>252</v>
       </c>
       <c r="D129" s="10" t="s">
@@ -6490,24 +6564,24 @@
         <v>254</v>
       </c>
       <c r="F129" s="10"/>
-      <c r="G129" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="25" t="s">
+      <c r="G129" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="9"/>
     </row>
     <row r="130" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="22">
+      <c r="A130" s="18">
         <v>115</v>
       </c>
-      <c r="B130" s="55"/>
-      <c r="C130" s="56"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="51"/>
       <c r="D130" s="10" t="s">
         <v>255</v>
       </c>
@@ -6515,24 +6589,24 @@
         <v>256</v>
       </c>
       <c r="F130" s="10"/>
-      <c r="G130" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="25" t="s">
+      <c r="G130" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J130" s="8"/>
       <c r="K130" s="9"/>
     </row>
     <row r="131" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="22">
+      <c r="A131" s="18">
         <v>116</v>
       </c>
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="51"/>
       <c r="D131" s="10" t="s">
         <v>257</v>
       </c>
@@ -6540,51 +6614,51 @@
         <v>258</v>
       </c>
       <c r="F131" s="10"/>
-      <c r="G131" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H131" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="25" t="s">
+      <c r="G131" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="9"/>
     </row>
     <row r="132" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="22">
+      <c r="A132" s="18">
         <v>117</v>
       </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="27" t="s">
+      <c r="B132" s="50"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="23" t="s">
         <v>175</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>259</v>
       </c>
       <c r="F132" s="10"/>
-      <c r="G132" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H132" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="25" t="s">
+      <c r="G132" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J132" s="8"/>
       <c r="K132" s="9"/>
     </row>
     <row r="133" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="22">
+      <c r="A133" s="18">
         <v>118</v>
       </c>
-      <c r="B133" s="55" t="s">
+      <c r="B133" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="C133" s="56" t="s">
+      <c r="C133" s="51" t="s">
         <v>261</v>
       </c>
       <c r="D133" s="10" t="s">
@@ -6594,24 +6668,24 @@
         <v>263</v>
       </c>
       <c r="F133" s="10"/>
-      <c r="G133" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="25" t="s">
+      <c r="G133" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J133" s="8"/>
       <c r="K133" s="9"/>
     </row>
     <row r="134" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="22">
+      <c r="A134" s="18">
         <v>119</v>
       </c>
-      <c r="B134" s="55"/>
-      <c r="C134" s="56"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="51"/>
       <c r="D134" s="10" t="s">
         <v>264</v>
       </c>
@@ -6619,24 +6693,24 @@
         <v>265</v>
       </c>
       <c r="F134" s="10"/>
-      <c r="G134" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H134" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="25" t="s">
+      <c r="G134" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="9"/>
     </row>
     <row r="135" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="22">
+      <c r="A135" s="18">
         <v>120</v>
       </c>
-      <c r="B135" s="55"/>
-      <c r="C135" s="56" t="s">
+      <c r="B135" s="50"/>
+      <c r="C135" s="51" t="s">
         <v>266</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6646,24 +6720,24 @@
         <v>268</v>
       </c>
       <c r="F135" s="10"/>
-      <c r="G135" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H135" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I135" s="25" t="s">
+      <c r="G135" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="9"/>
     </row>
     <row r="136" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="22">
+      <c r="A136" s="18">
         <v>121</v>
       </c>
-      <c r="B136" s="55"/>
-      <c r="C136" s="56"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="51"/>
       <c r="D136" s="10" t="s">
         <v>269</v>
       </c>
@@ -6671,24 +6745,24 @@
         <v>268</v>
       </c>
       <c r="F136" s="10"/>
-      <c r="G136" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="25" t="s">
+      <c r="G136" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="9"/>
     </row>
     <row r="137" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="22">
+      <c r="A137" s="18">
         <v>122</v>
       </c>
-      <c r="B137" s="55"/>
-      <c r="C137" s="56"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="51"/>
       <c r="D137" s="10" t="s">
         <v>270</v>
       </c>
@@ -6696,25 +6770,25 @@
         <v>268</v>
       </c>
       <c r="F137" s="10"/>
-      <c r="G137" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" s="25" t="s">
+      <c r="G137" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="9"/>
-      <c r="N137" s="28"/>
+      <c r="N137" s="24"/>
     </row>
     <row r="138" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="22">
+      <c r="A138" s="18">
         <v>123</v>
       </c>
-      <c r="B138" s="55"/>
-      <c r="C138" s="56"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="51"/>
       <c r="D138" s="10" t="s">
         <v>271</v>
       </c>
@@ -6722,24 +6796,24 @@
         <v>268</v>
       </c>
       <c r="F138" s="10"/>
-      <c r="G138" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="25" t="s">
+      <c r="G138" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="22">
+      <c r="A139" s="18">
         <v>124</v>
       </c>
-      <c r="B139" s="55"/>
-      <c r="C139" s="56"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="51"/>
       <c r="D139" s="10" t="s">
         <v>272</v>
       </c>
@@ -6747,24 +6821,24 @@
         <v>273</v>
       </c>
       <c r="F139" s="10"/>
-      <c r="G139" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I139" s="25" t="s">
+      <c r="G139" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J139" s="8"/>
       <c r="K139" s="9"/>
     </row>
     <row r="140" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="22">
+      <c r="A140" s="18">
         <v>125</v>
       </c>
-      <c r="B140" s="55"/>
-      <c r="C140" s="56" t="s">
+      <c r="B140" s="50"/>
+      <c r="C140" s="51" t="s">
         <v>274</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -6774,24 +6848,24 @@
         <v>276</v>
       </c>
       <c r="F140" s="10"/>
-      <c r="G140" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140" s="25" t="s">
+      <c r="G140" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="22">
+      <c r="A141" s="18">
         <v>126</v>
       </c>
-      <c r="B141" s="55"/>
-      <c r="C141" s="56"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="51"/>
       <c r="D141" s="10" t="s">
         <v>277</v>
       </c>
@@ -6799,24 +6873,24 @@
         <v>278</v>
       </c>
       <c r="F141" s="10"/>
-      <c r="G141" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141" s="25" t="s">
+      <c r="G141" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="9"/>
     </row>
     <row r="142" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="22">
+      <c r="A142" s="18">
         <v>127</v>
       </c>
-      <c r="B142" s="55"/>
-      <c r="C142" s="26" t="s">
+      <c r="B142" s="50"/>
+      <c r="C142" s="22" t="s">
         <v>279</v>
       </c>
       <c r="D142" s="10" t="s">
@@ -6826,24 +6900,24 @@
         <v>281</v>
       </c>
       <c r="F142" s="10"/>
-      <c r="G142" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H142" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I142" s="25" t="s">
+      <c r="G142" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J142" s="8"/>
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="22">
+      <c r="A143" s="18">
         <v>128</v>
       </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="56" t="s">
+      <c r="B143" s="50"/>
+      <c r="C143" s="51" t="s">
         <v>282</v>
       </c>
       <c r="D143" s="10" t="s">
@@ -6853,24 +6927,24 @@
         <v>284</v>
       </c>
       <c r="F143" s="10"/>
-      <c r="G143" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I143" s="25" t="s">
+      <c r="G143" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:14" ht="216" x14ac:dyDescent="0.3">
-      <c r="A144" s="22">
+      <c r="A144" s="18">
         <v>129</v>
       </c>
-      <c r="B144" s="55"/>
-      <c r="C144" s="56"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="51"/>
       <c r="D144" s="10" t="s">
         <v>285</v>
       </c>
@@ -6878,24 +6952,24 @@
         <v>286</v>
       </c>
       <c r="F144" s="10"/>
-      <c r="G144" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H144" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I144" s="25" t="s">
+      <c r="G144" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J144" s="8"/>
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A145" s="22">
+      <c r="A145" s="18">
         <v>130</v>
       </c>
-      <c r="B145" s="55"/>
-      <c r="C145" s="56"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="51"/>
       <c r="D145" s="10" t="s">
         <v>287</v>
       </c>
@@ -6903,24 +6977,24 @@
         <v>288</v>
       </c>
       <c r="F145" s="10"/>
-      <c r="G145" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I145" s="25" t="s">
+      <c r="G145" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J145" s="8"/>
       <c r="K145" s="9"/>
     </row>
     <row r="146" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="22">
+      <c r="A146" s="18">
         <v>131</v>
       </c>
-      <c r="B146" s="55"/>
-      <c r="C146" s="26"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="22"/>
       <c r="D146" s="10" t="s">
         <v>175</v>
       </c>
@@ -6928,26 +7002,26 @@
         <v>259</v>
       </c>
       <c r="F146" s="10"/>
-      <c r="G146" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H146" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I146" s="25" t="s">
+      <c r="G146" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J146" s="8"/>
       <c r="K146" s="9"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="22">
+      <c r="A147" s="18">
         <v>132</v>
       </c>
-      <c r="B147" s="55" t="s">
+      <c r="B147" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="56" t="s">
+      <c r="C147" s="51" t="s">
         <v>290</v>
       </c>
       <c r="D147" s="10" t="s">
@@ -6957,24 +7031,24 @@
         <v>292</v>
       </c>
       <c r="F147" s="10"/>
-      <c r="G147" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H147" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I147" s="25" t="s">
+      <c r="G147" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J147" s="8"/>
       <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="22">
+      <c r="A148" s="18">
         <v>133</v>
       </c>
-      <c r="B148" s="55"/>
-      <c r="C148" s="56"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="51"/>
       <c r="D148" s="10" t="s">
         <v>293</v>
       </c>
@@ -6982,24 +7056,24 @@
         <v>294</v>
       </c>
       <c r="F148" s="10"/>
-      <c r="G148" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I148" s="25" t="s">
+      <c r="G148" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J148" s="8"/>
       <c r="K148" s="9"/>
     </row>
     <row r="149" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="22">
+      <c r="A149" s="18">
         <v>134</v>
       </c>
-      <c r="B149" s="55"/>
-      <c r="C149" s="26"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="22"/>
       <c r="D149" s="10" t="s">
         <v>175</v>
       </c>
@@ -7007,23 +7081,23 @@
         <v>259</v>
       </c>
       <c r="F149" s="10"/>
-      <c r="G149" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H149" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I149" s="25" t="s">
+      <c r="G149" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J149" s="8"/>
       <c r="K149" s="9"/>
     </row>
     <row r="150" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="22">
+      <c r="A150" s="18">
         <v>135</v>
       </c>
-      <c r="B150" s="52" t="s">
+      <c r="B150" s="49" t="s">
         <v>295</v>
       </c>
       <c r="C150" s="40" t="s">
@@ -7036,23 +7110,23 @@
         <v>298</v>
       </c>
       <c r="F150" s="10"/>
-      <c r="G150" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I150" s="25" t="s">
+      <c r="G150" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I150" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J150" s="8"/>
       <c r="K150" s="9"/>
     </row>
     <row r="151" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="22">
+      <c r="A151" s="18">
         <v>136</v>
       </c>
-      <c r="B151" s="53"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="41"/>
       <c r="D151" s="10" t="s">
         <v>299</v>
@@ -7061,23 +7135,23 @@
         <v>300</v>
       </c>
       <c r="F151" s="10"/>
-      <c r="G151" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H151" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I151" s="25" t="s">
+      <c r="G151" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I151" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J151" s="8"/>
       <c r="K151" s="9"/>
     </row>
     <row r="152" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A152" s="22">
+      <c r="A152" s="18">
         <v>137</v>
       </c>
-      <c r="B152" s="53"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="41"/>
       <c r="D152" s="10" t="s">
         <v>301</v>
@@ -7086,23 +7160,23 @@
         <v>302</v>
       </c>
       <c r="F152" s="10"/>
-      <c r="G152" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I152" s="25" t="s">
+      <c r="G152" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I152" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="9"/>
     </row>
     <row r="153" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="22">
+      <c r="A153" s="18">
         <v>138</v>
       </c>
-      <c r="B153" s="53"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="42"/>
       <c r="D153" s="10" t="s">
         <v>303</v>
@@ -7111,23 +7185,23 @@
         <v>304</v>
       </c>
       <c r="F153" s="10"/>
-      <c r="G153" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H153" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I153" s="25" t="s">
+      <c r="G153" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I153" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J153" s="8"/>
       <c r="K153" s="9"/>
     </row>
     <row r="154" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="22">
+      <c r="A154" s="18">
         <v>139</v>
       </c>
-      <c r="B154" s="53"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="40" t="s">
         <v>290</v>
       </c>
@@ -7138,23 +7212,23 @@
         <v>306</v>
       </c>
       <c r="F154" s="10"/>
-      <c r="G154" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H154" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I154" s="25" t="s">
+      <c r="G154" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J154" s="8"/>
       <c r="K154" s="9"/>
     </row>
     <row r="155" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="22">
+      <c r="A155" s="18">
         <v>140</v>
       </c>
-      <c r="B155" s="53"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="42"/>
       <c r="D155" s="10" t="s">
         <v>307</v>
@@ -7163,24 +7237,24 @@
         <v>308</v>
       </c>
       <c r="F155" s="10"/>
-      <c r="G155" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H155" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I155" s="25" t="s">
+      <c r="G155" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I155" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J155" s="8"/>
       <c r="K155" s="9"/>
     </row>
     <row r="156" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="22">
+      <c r="A156" s="18">
         <v>141</v>
       </c>
-      <c r="B156" s="54"/>
-      <c r="C156" s="26"/>
+      <c r="B156" s="48"/>
+      <c r="C156" s="22"/>
       <c r="D156" s="10" t="s">
         <v>175</v>
       </c>
@@ -7188,26 +7262,26 @@
         <v>259</v>
       </c>
       <c r="F156" s="10"/>
-      <c r="G156" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H156" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I156" s="25" t="s">
+      <c r="G156" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="9"/>
     </row>
     <row r="157" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="22">
+      <c r="A157" s="18">
         <v>142</v>
       </c>
-      <c r="B157" s="52" t="s">
+      <c r="B157" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="22" t="s">
         <v>310</v>
       </c>
       <c r="D157" s="10" t="s">
@@ -7217,24 +7291,24 @@
         <v>312</v>
       </c>
       <c r="F157" s="10"/>
-      <c r="G157" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H157" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I157" s="25" t="s">
+      <c r="G157" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J157" s="8"/>
       <c r="K157" s="9"/>
     </row>
     <row r="158" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="22">
+      <c r="A158" s="18">
         <v>143</v>
       </c>
-      <c r="B158" s="53"/>
-      <c r="C158" s="26" t="s">
+      <c r="B158" s="47"/>
+      <c r="C158" s="22" t="s">
         <v>313</v>
       </c>
       <c r="D158" s="8" t="s">
@@ -7244,51 +7318,51 @@
         <v>315</v>
       </c>
       <c r="F158" s="8"/>
-      <c r="G158" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H158" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I158" s="25" t="s">
+      <c r="G158" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J158" s="8"/>
       <c r="K158" s="9"/>
     </row>
     <row r="159" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A159" s="22">
+      <c r="A159" s="18">
         <v>144</v>
       </c>
-      <c r="B159" s="53"/>
-      <c r="C159" s="26" t="s">
+      <c r="B159" s="47"/>
+      <c r="C159" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D159" s="27" t="s">
+      <c r="D159" s="23" t="s">
         <v>317</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>318</v>
       </c>
       <c r="F159" s="8"/>
-      <c r="G159" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H159" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I159" s="25" t="s">
+      <c r="G159" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J159" s="8"/>
       <c r="K159" s="9"/>
     </row>
     <row r="160" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="22">
+      <c r="A160" s="18">
         <v>145</v>
       </c>
-      <c r="B160" s="54"/>
-      <c r="C160" s="26"/>
+      <c r="B160" s="48"/>
+      <c r="C160" s="22"/>
       <c r="D160" s="10" t="s">
         <v>175</v>
       </c>
@@ -7296,26 +7370,26 @@
         <v>259</v>
       </c>
       <c r="F160" s="8"/>
-      <c r="G160" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H160" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I160" s="25" t="s">
+      <c r="G160" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J160" s="8"/>
       <c r="K160" s="9"/>
     </row>
     <row r="161" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A161" s="22">
+      <c r="A161" s="18">
         <v>146</v>
       </c>
-      <c r="B161" s="52" t="s">
+      <c r="B161" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D161" s="10" t="s">
@@ -7325,23 +7399,23 @@
         <v>321</v>
       </c>
       <c r="F161" s="8"/>
-      <c r="G161" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H161" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I161" s="25" t="s">
+      <c r="G161" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J161" s="8"/>
       <c r="K161" s="9"/>
     </row>
     <row r="162" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="22">
+      <c r="A162" s="18">
         <v>147</v>
       </c>
-      <c r="B162" s="53"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="40" t="s">
         <v>322</v>
       </c>
@@ -7352,23 +7426,23 @@
         <v>324</v>
       </c>
       <c r="F162" s="8"/>
-      <c r="G162" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H162" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I162" s="25" t="s">
+      <c r="G162" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J162" s="8"/>
       <c r="K162" s="9"/>
     </row>
     <row r="163" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A163" s="22">
+      <c r="A163" s="18">
         <v>148</v>
       </c>
-      <c r="B163" s="53"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="42"/>
       <c r="D163" s="10" t="s">
         <v>325</v>
@@ -7377,23 +7451,23 @@
         <v>326</v>
       </c>
       <c r="F163" s="8"/>
-      <c r="G163" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H163" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I163" s="25" t="s">
+      <c r="G163" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H163" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I163" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J163" s="8"/>
       <c r="K163" s="9"/>
     </row>
     <row r="164" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="22">
+      <c r="A164" s="18">
         <v>149</v>
       </c>
-      <c r="B164" s="53"/>
+      <c r="B164" s="47"/>
       <c r="C164" s="40" t="s">
         <v>327</v>
       </c>
@@ -7404,23 +7478,23 @@
         <v>329</v>
       </c>
       <c r="F164" s="8"/>
-      <c r="G164" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H164" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I164" s="25" t="s">
+      <c r="G164" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H164" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J164" s="8"/>
       <c r="K164" s="9"/>
     </row>
     <row r="165" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="22">
+      <c r="A165" s="18">
         <v>150</v>
       </c>
-      <c r="B165" s="53"/>
+      <c r="B165" s="47"/>
       <c r="C165" s="42"/>
       <c r="D165" s="10" t="s">
         <v>328</v>
@@ -7429,24 +7503,24 @@
         <v>330</v>
       </c>
       <c r="F165" s="8"/>
-      <c r="G165" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H165" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I165" s="25" t="s">
+      <c r="G165" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J165" s="8"/>
       <c r="K165" s="9"/>
     </row>
     <row r="166" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A166" s="22">
+      <c r="A166" s="18">
         <v>151</v>
       </c>
-      <c r="B166" s="53"/>
-      <c r="C166" s="26" t="s">
+      <c r="B166" s="47"/>
+      <c r="C166" s="22" t="s">
         <v>331</v>
       </c>
       <c r="D166" s="10" t="s">
@@ -7456,23 +7530,23 @@
         <v>333</v>
       </c>
       <c r="F166" s="8"/>
-      <c r="G166" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H166" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I166" s="25" t="s">
+      <c r="G166" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J166" s="8"/>
       <c r="K166" s="9"/>
     </row>
     <row r="167" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A167" s="22">
+      <c r="A167" s="18">
         <v>152</v>
       </c>
-      <c r="B167" s="53"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="40" t="s">
         <v>334</v>
       </c>
@@ -7483,23 +7557,23 @@
         <v>335</v>
       </c>
       <c r="F167" s="8"/>
-      <c r="G167" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H167" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I167" s="25" t="s">
+      <c r="G167" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J167" s="8"/>
       <c r="K167" s="9"/>
     </row>
     <row r="168" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="22">
+      <c r="A168" s="18">
         <v>153</v>
       </c>
-      <c r="B168" s="53"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="42"/>
       <c r="D168" s="10" t="s">
         <v>338</v>
@@ -7508,23 +7582,23 @@
         <v>336</v>
       </c>
       <c r="F168" s="8"/>
-      <c r="G168" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H168" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I168" s="25" t="s">
+      <c r="G168" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="9"/>
     </row>
     <row r="169" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A169" s="22">
+      <c r="A169" s="18">
         <v>154</v>
       </c>
-      <c r="B169" s="53"/>
+      <c r="B169" s="47"/>
       <c r="C169" s="40" t="s">
         <v>337</v>
       </c>
@@ -7535,23 +7609,23 @@
         <v>341</v>
       </c>
       <c r="F169" s="8"/>
-      <c r="G169" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H169" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I169" s="25" t="s">
+      <c r="G169" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H169" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="9"/>
     </row>
     <row r="170" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="22">
+      <c r="A170" s="18">
         <v>155</v>
       </c>
-      <c r="B170" s="53"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="42"/>
       <c r="D170" s="10" t="s">
         <v>340</v>
@@ -7560,23 +7634,23 @@
         <v>343</v>
       </c>
       <c r="F170" s="8"/>
-      <c r="G170" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I170" s="25" t="s">
+      <c r="G170" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="9"/>
     </row>
     <row r="171" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A171" s="22">
+      <c r="A171" s="18">
         <v>156</v>
       </c>
-      <c r="B171" s="53"/>
+      <c r="B171" s="47"/>
       <c r="C171" s="40" t="s">
         <v>344</v>
       </c>
@@ -7587,23 +7661,23 @@
         <v>345</v>
       </c>
       <c r="F171" s="8"/>
-      <c r="G171" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H171" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I171" s="25" t="s">
+      <c r="G171" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="9"/>
     </row>
     <row r="172" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="22">
+      <c r="A172" s="18">
         <v>157</v>
       </c>
-      <c r="B172" s="53"/>
+      <c r="B172" s="47"/>
       <c r="C172" s="41"/>
       <c r="D172" s="10" t="s">
         <v>347</v>
@@ -7612,23 +7686,23 @@
         <v>348</v>
       </c>
       <c r="F172" s="8"/>
-      <c r="G172" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H172" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I172" s="25" t="s">
+      <c r="G172" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="9"/>
     </row>
     <row r="173" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="22">
+      <c r="A173" s="18">
         <v>158</v>
       </c>
-      <c r="B173" s="53"/>
+      <c r="B173" s="47"/>
       <c r="C173" s="42"/>
       <c r="D173" s="10" t="s">
         <v>349</v>
@@ -7637,23 +7711,23 @@
         <v>350</v>
       </c>
       <c r="F173" s="8"/>
-      <c r="G173" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H173" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I173" s="25" t="s">
+      <c r="G173" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="9"/>
     </row>
     <row r="174" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A174" s="22">
+      <c r="A174" s="18">
         <v>159</v>
       </c>
-      <c r="B174" s="53"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="40" t="s">
         <v>351</v>
       </c>
@@ -7664,23 +7738,23 @@
         <v>353</v>
       </c>
       <c r="F174" s="8"/>
-      <c r="G174" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H174" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I174" s="25" t="s">
+      <c r="G174" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="9"/>
     </row>
     <row r="175" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A175" s="22">
+      <c r="A175" s="18">
         <v>160</v>
       </c>
-      <c r="B175" s="53"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="42"/>
       <c r="D175" s="10" t="s">
         <v>352</v>
@@ -7689,26 +7763,26 @@
         <v>354</v>
       </c>
       <c r="F175" s="8"/>
-      <c r="G175" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H175" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I175" s="25" t="s">
+      <c r="G175" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H175" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I175" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J175" s="8"/>
       <c r="K175" s="9"/>
     </row>
     <row r="176" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A176" s="22">
+      <c r="A176" s="18">
         <v>161</v>
       </c>
-      <c r="B176" s="53" t="s">
+      <c r="B176" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="C176" s="26" t="s">
+      <c r="C176" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D176" s="10" t="s">
@@ -7718,24 +7792,24 @@
         <v>321</v>
       </c>
       <c r="F176" s="8"/>
-      <c r="G176" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H176" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I176" s="25" t="s">
+      <c r="G176" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H176" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I176" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="9"/>
     </row>
     <row r="177" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="22">
+      <c r="A177" s="18">
         <v>162</v>
       </c>
-      <c r="B177" s="53"/>
-      <c r="C177" s="26" t="s">
+      <c r="B177" s="47"/>
+      <c r="C177" s="22" t="s">
         <v>356</v>
       </c>
       <c r="D177" s="10" t="s">
@@ -7745,23 +7819,23 @@
         <v>359</v>
       </c>
       <c r="F177" s="8"/>
-      <c r="G177" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H177" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I177" s="25" t="s">
+      <c r="G177" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H177" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J177" s="8"/>
       <c r="K177" s="9"/>
     </row>
     <row r="178" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A178" s="22">
+      <c r="A178" s="18">
         <v>163</v>
       </c>
-      <c r="B178" s="53"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="40" t="s">
         <v>360</v>
       </c>
@@ -7772,23 +7846,23 @@
         <v>361</v>
       </c>
       <c r="F178" s="8"/>
-      <c r="G178" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H178" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I178" s="25" t="s">
+      <c r="G178" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I178" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J178" s="8"/>
       <c r="K178" s="9"/>
     </row>
     <row r="179" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="22">
+      <c r="A179" s="18">
         <v>164</v>
       </c>
-      <c r="B179" s="54"/>
+      <c r="B179" s="48"/>
       <c r="C179" s="42"/>
       <c r="D179" s="10" t="s">
         <v>362</v>
@@ -7797,799 +7871,799 @@
         <v>363</v>
       </c>
       <c r="F179" s="8"/>
-      <c r="G179" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H179" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I179" s="25" t="s">
+      <c r="G179" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H179" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I179" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J179" s="8"/>
       <c r="K179" s="9"/>
     </row>
     <row r="180" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="22">
+      <c r="A180" s="18">
         <v>165</v>
       </c>
-      <c r="B180" s="59" t="s">
+      <c r="B180" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="C180" s="34"/>
-      <c r="D180" s="33" t="s">
+      <c r="C180" s="30"/>
+      <c r="D180" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E180" s="33" t="s">
+      <c r="E180" s="29" t="s">
         <v>366</v>
       </c>
       <c r="F180" s="8"/>
-      <c r="G180" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H180" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I180" s="26" t="s">
+      <c r="G180" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I180" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J180" s="8"/>
       <c r="K180" s="9"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="22">
+      <c r="A181" s="18">
         <v>166</v>
       </c>
-      <c r="B181" s="59"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="33" t="s">
+      <c r="B181" s="46"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="E181" s="33" t="s">
+      <c r="E181" s="29" t="s">
         <v>368</v>
       </c>
       <c r="F181" s="8"/>
-      <c r="G181" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H181" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I181" s="26" t="s">
+      <c r="G181" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I181" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J181" s="8"/>
       <c r="K181" s="9"/>
     </row>
     <row r="182" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="22">
+      <c r="A182" s="18">
         <v>167</v>
       </c>
-      <c r="B182" s="59"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="33" t="s">
+      <c r="B182" s="46"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="E182" s="36" t="s">
+      <c r="E182" s="32" t="s">
         <v>370</v>
       </c>
       <c r="F182" s="8"/>
-      <c r="G182" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H182" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I182" s="26" t="s">
+      <c r="G182" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H182" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I182" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J182" s="8"/>
       <c r="K182" s="9"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="22">
+      <c r="A183" s="18">
         <v>168</v>
       </c>
-      <c r="B183" s="59"/>
-      <c r="C183" s="34"/>
-      <c r="D183" s="33" t="s">
+      <c r="B183" s="46"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E183" s="33" t="s">
+      <c r="E183" s="29" t="s">
         <v>372</v>
       </c>
       <c r="F183" s="8"/>
-      <c r="G183" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H183" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I183" s="26" t="s">
+      <c r="G183" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H183" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I183" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J183" s="8"/>
       <c r="K183" s="9"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="22">
+      <c r="A184" s="18">
         <v>169</v>
       </c>
-      <c r="B184" s="59" t="s">
+      <c r="B184" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="C184" s="34" t="s">
+      <c r="C184" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="D184" s="33" t="s">
+      <c r="D184" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="E184" s="33" t="s">
+      <c r="E184" s="29" t="s">
         <v>376</v>
       </c>
       <c r="F184" s="8"/>
-      <c r="G184" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H184" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I184" s="26" t="s">
+      <c r="G184" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I184" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J184" s="8"/>
       <c r="K184" s="9"/>
     </row>
     <row r="185" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A185" s="22">
+      <c r="A185" s="18">
         <v>170</v>
       </c>
-      <c r="B185" s="59"/>
-      <c r="C185" s="34" t="s">
+      <c r="B185" s="46"/>
+      <c r="C185" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="D185" s="33" t="s">
+      <c r="D185" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="E185" s="33" t="s">
+      <c r="E185" s="29" t="s">
         <v>379</v>
       </c>
       <c r="F185" s="8"/>
-      <c r="G185" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H185" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I185" s="26" t="s">
+      <c r="G185" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I185" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J185" s="8"/>
       <c r="K185" s="9"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="22">
+      <c r="A186" s="18">
         <v>171</v>
       </c>
-      <c r="B186" s="59"/>
-      <c r="C186" s="34" t="s">
+      <c r="B186" s="46"/>
+      <c r="C186" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D186" s="33" t="s">
+      <c r="D186" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="E186" s="33" t="s">
+      <c r="E186" s="29" t="s">
         <v>382</v>
       </c>
       <c r="F186" s="8"/>
-      <c r="G186" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H186" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I186" s="26" t="s">
+      <c r="G186" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I186" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J186" s="8"/>
       <c r="K186" s="9"/>
     </row>
     <row r="187" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="22">
+      <c r="A187" s="18">
         <v>172</v>
       </c>
-      <c r="B187" s="59"/>
-      <c r="C187" s="34" t="s">
+      <c r="B187" s="46"/>
+      <c r="C187" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="D187" s="33" t="s">
+      <c r="D187" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="E187" s="33" t="s">
+      <c r="E187" s="29" t="s">
         <v>385</v>
       </c>
       <c r="F187" s="8"/>
-      <c r="G187" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H187" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I187" s="26" t="s">
+      <c r="G187" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H187" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I187" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J187" s="8"/>
       <c r="K187" s="9"/>
     </row>
     <row r="188" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="22">
+      <c r="A188" s="18">
         <v>173</v>
       </c>
-      <c r="B188" s="59" t="s">
+      <c r="B188" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="C188" s="34" t="s">
+      <c r="C188" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="D188" s="33" t="s">
+      <c r="D188" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="E188" s="33" t="s">
+      <c r="E188" s="29" t="s">
         <v>389</v>
       </c>
       <c r="F188" s="8"/>
-      <c r="G188" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H188" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I188" s="26" t="s">
+      <c r="G188" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H188" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I188" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J188" s="8"/>
       <c r="K188" s="9"/>
     </row>
     <row r="189" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="22">
+      <c r="A189" s="18">
         <v>174</v>
       </c>
-      <c r="B189" s="59"/>
-      <c r="C189" s="34" t="s">
+      <c r="B189" s="46"/>
+      <c r="C189" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="D189" s="33" t="s">
+      <c r="D189" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="E189" s="33" t="s">
+      <c r="E189" s="29" t="s">
         <v>392</v>
       </c>
       <c r="F189" s="8"/>
-      <c r="G189" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H189" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I189" s="26" t="s">
+      <c r="G189" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H189" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I189" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J189" s="8"/>
       <c r="K189" s="9"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="22">
+      <c r="A190" s="18">
         <v>175</v>
       </c>
-      <c r="B190" s="59"/>
-      <c r="C190" s="34" t="s">
+      <c r="B190" s="46"/>
+      <c r="C190" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="D190" s="33" t="s">
+      <c r="D190" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E190" s="37" t="s">
+      <c r="E190" s="33" t="s">
         <v>395</v>
       </c>
       <c r="F190" s="8"/>
-      <c r="G190" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H190" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I190" s="26" t="s">
+      <c r="G190" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H190" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I190" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J190" s="8"/>
       <c r="K190" s="9"/>
     </row>
     <row r="191" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="22">
+      <c r="A191" s="18">
         <v>176</v>
       </c>
-      <c r="B191" s="59"/>
-      <c r="C191" s="34" t="s">
+      <c r="B191" s="46"/>
+      <c r="C191" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="D191" s="33" t="s">
+      <c r="D191" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E191" s="37" t="s">
+      <c r="E191" s="33" t="s">
         <v>397</v>
       </c>
       <c r="F191" s="8"/>
-      <c r="G191" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H191" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I191" s="26" t="s">
+      <c r="G191" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H191" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I191" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J191" s="8"/>
       <c r="K191" s="9"/>
     </row>
     <row r="192" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="22">
+      <c r="A192" s="18">
         <v>177</v>
       </c>
-      <c r="B192" s="59"/>
-      <c r="C192" s="34" t="s">
+      <c r="B192" s="46"/>
+      <c r="C192" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="D192" s="33" t="s">
+      <c r="D192" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E192" s="33" t="s">
+      <c r="E192" s="29" t="s">
         <v>399</v>
       </c>
       <c r="F192" s="8"/>
-      <c r="G192" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H192" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I192" s="26" t="s">
+      <c r="G192" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H192" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I192" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J192" s="8"/>
       <c r="K192" s="9"/>
     </row>
     <row r="193" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="22">
+      <c r="A193" s="18">
         <v>178</v>
       </c>
-      <c r="B193" s="59" t="s">
+      <c r="B193" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="C193" s="34" t="s">
+      <c r="C193" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="D193" s="33" t="s">
+      <c r="D193" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="E193" s="33" t="s">
+      <c r="E193" s="29" t="s">
         <v>403</v>
       </c>
       <c r="F193" s="8"/>
-      <c r="G193" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H193" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I193" s="26" t="s">
+      <c r="G193" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H193" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I193" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J193" s="8"/>
       <c r="K193" s="9"/>
     </row>
     <row r="194" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="22">
+      <c r="A194" s="18">
         <v>179</v>
       </c>
-      <c r="B194" s="59"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="33" t="s">
+      <c r="B194" s="46"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="E194" s="33" t="s">
+      <c r="E194" s="29" t="s">
         <v>405</v>
       </c>
       <c r="F194" s="8"/>
-      <c r="G194" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H194" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I194" s="26" t="s">
+      <c r="G194" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H194" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I194" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J194" s="8"/>
       <c r="K194" s="9"/>
     </row>
     <row r="195" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A195" s="22">
+      <c r="A195" s="18">
         <v>180</v>
       </c>
-      <c r="B195" s="59"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="33" t="s">
+      <c r="B195" s="46"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="E195" s="33" t="s">
+      <c r="E195" s="29" t="s">
         <v>407</v>
       </c>
       <c r="F195" s="8"/>
-      <c r="G195" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H195" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I195" s="26" t="s">
+      <c r="G195" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H195" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I195" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J195" s="8"/>
       <c r="K195" s="9"/>
     </row>
     <row r="196" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="22">
+      <c r="A196" s="18">
         <v>181</v>
       </c>
-      <c r="B196" s="59"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="33" t="s">
+      <c r="B196" s="46"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="E196" s="33" t="s">
+      <c r="E196" s="29" t="s">
         <v>409</v>
       </c>
       <c r="F196" s="8"/>
-      <c r="G196" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H196" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I196" s="26" t="s">
+      <c r="G196" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I196" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J196" s="8"/>
       <c r="K196" s="9"/>
     </row>
     <row r="197" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A197" s="22">
+      <c r="A197" s="18">
         <v>182</v>
       </c>
-      <c r="B197" s="59"/>
-      <c r="C197" s="34" t="s">
+      <c r="B197" s="46"/>
+      <c r="C197" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="D197" s="33" t="s">
+      <c r="D197" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="E197" s="33" t="s">
+      <c r="E197" s="29" t="s">
         <v>412</v>
       </c>
       <c r="F197" s="8"/>
-      <c r="G197" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H197" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I197" s="26" t="s">
+      <c r="G197" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H197" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I197" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J197" s="8"/>
       <c r="K197" s="9"/>
     </row>
     <row r="198" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A198" s="22">
+      <c r="A198" s="18">
         <v>183</v>
       </c>
-      <c r="B198" s="59"/>
-      <c r="C198" s="34" t="s">
+      <c r="B198" s="46"/>
+      <c r="C198" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="D198" s="33" t="s">
+      <c r="D198" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="E198" s="33" t="s">
+      <c r="E198" s="29" t="s">
         <v>415</v>
       </c>
       <c r="F198" s="8"/>
-      <c r="G198" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H198" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I198" s="26" t="s">
+      <c r="G198" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H198" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I198" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J198" s="8"/>
       <c r="K198" s="9"/>
     </row>
     <row r="199" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="22">
+      <c r="A199" s="18">
         <v>184</v>
       </c>
-      <c r="B199" s="59"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="33" t="s">
+      <c r="B199" s="46"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="E199" s="33" t="s">
+      <c r="E199" s="29" t="s">
         <v>417</v>
       </c>
       <c r="F199" s="8"/>
-      <c r="G199" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H199" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I199" s="26" t="s">
+      <c r="G199" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H199" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I199" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J199" s="8"/>
       <c r="K199" s="9"/>
     </row>
     <row r="200" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A200" s="22">
+      <c r="A200" s="18">
         <v>185</v>
       </c>
-      <c r="B200" s="59"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="33" t="s">
+      <c r="B200" s="46"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="E200" s="33" t="s">
+      <c r="E200" s="29" t="s">
         <v>419</v>
       </c>
       <c r="F200" s="8"/>
-      <c r="G200" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H200" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I200" s="26" t="s">
+      <c r="G200" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H200" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I200" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J200" s="8"/>
       <c r="K200" s="9"/>
     </row>
     <row r="201" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="22">
+      <c r="A201" s="18">
         <v>186</v>
       </c>
-      <c r="B201" s="59"/>
-      <c r="C201" s="34" t="s">
+      <c r="B201" s="46"/>
+      <c r="C201" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="D201" s="33" t="s">
+      <c r="D201" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E201" s="33" t="s">
+      <c r="E201" s="29" t="s">
         <v>421</v>
       </c>
       <c r="F201" s="8"/>
-      <c r="G201" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H201" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I201" s="26" t="s">
+      <c r="G201" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H201" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I201" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J201" s="8"/>
       <c r="K201" s="9"/>
     </row>
     <row r="202" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A202" s="22">
+      <c r="A202" s="18">
         <v>187</v>
       </c>
-      <c r="B202" s="59"/>
-      <c r="C202" s="34" t="s">
+      <c r="B202" s="46"/>
+      <c r="C202" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="D202" s="33" t="s">
+      <c r="D202" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E202" s="33" t="s">
+      <c r="E202" s="29" t="s">
         <v>422</v>
       </c>
       <c r="F202" s="8"/>
-      <c r="G202" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H202" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I202" s="26" t="s">
+      <c r="G202" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H202" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I202" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J202" s="8"/>
       <c r="K202" s="9"/>
     </row>
     <row r="203" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="22">
+      <c r="A203" s="18">
         <v>188</v>
       </c>
-      <c r="B203" s="59"/>
-      <c r="C203" s="34" t="s">
+      <c r="B203" s="46"/>
+      <c r="C203" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D203" s="33" t="s">
+      <c r="D203" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E203" s="33" t="s">
+      <c r="E203" s="29" t="s">
         <v>424</v>
       </c>
       <c r="F203" s="8"/>
-      <c r="G203" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H203" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I203" s="26" t="s">
+      <c r="G203" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H203" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I203" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J203" s="8"/>
       <c r="K203" s="9"/>
     </row>
     <row r="204" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="22">
+      <c r="A204" s="18">
         <v>189</v>
       </c>
-      <c r="B204" s="59" t="s">
+      <c r="B204" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="C204" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="D204" s="33" t="s">
+      <c r="D204" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E204" s="33" t="s">
+      <c r="E204" s="29" t="s">
         <v>426</v>
       </c>
       <c r="F204" s="8"/>
-      <c r="G204" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H204" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I204" s="26" t="s">
+      <c r="G204" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I204" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J204" s="8"/>
       <c r="K204" s="9"/>
     </row>
     <row r="205" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A205" s="22">
+      <c r="A205" s="18">
         <v>190</v>
       </c>
-      <c r="B205" s="59"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="33" t="s">
+      <c r="B205" s="46"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E205" s="37" t="s">
+      <c r="E205" s="33" t="s">
         <v>427</v>
       </c>
       <c r="F205" s="8"/>
-      <c r="G205" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H205" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I205" s="26" t="s">
+      <c r="G205" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I205" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J205" s="8"/>
       <c r="K205" s="9"/>
     </row>
     <row r="206" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A206" s="22">
+      <c r="A206" s="18">
         <v>191</v>
       </c>
-      <c r="B206" s="59"/>
-      <c r="C206" s="34" t="s">
+      <c r="B206" s="46"/>
+      <c r="C206" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D206" s="33" t="s">
+      <c r="D206" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E206" s="33" t="s">
+      <c r="E206" s="29" t="s">
         <v>428</v>
       </c>
       <c r="F206" s="8"/>
-      <c r="G206" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H206" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I206" s="26" t="s">
+      <c r="G206" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I206" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J206" s="8"/>
       <c r="K206" s="9"/>
     </row>
     <row r="207" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A207" s="22">
+      <c r="A207" s="18">
         <v>192</v>
       </c>
-      <c r="B207" s="59"/>
-      <c r="C207" s="34" t="s">
+      <c r="B207" s="46"/>
+      <c r="C207" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="D207" s="33" t="s">
+      <c r="D207" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="E207" s="37" t="s">
+      <c r="E207" s="33" t="s">
         <v>431</v>
       </c>
       <c r="F207" s="8"/>
-      <c r="G207" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H207" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I207" s="26" t="s">
+      <c r="G207" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I207" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J207" s="8"/>
       <c r="K207" s="9"/>
     </row>
     <row r="208" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A208" s="22">
+      <c r="A208" s="18">
         <v>193</v>
       </c>
-      <c r="B208" s="59"/>
-      <c r="C208" s="35" t="s">
+      <c r="B208" s="46"/>
+      <c r="C208" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="D208" s="33" t="s">
+      <c r="D208" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="E208" s="33" t="s">
+      <c r="E208" s="29" t="s">
         <v>434</v>
       </c>
       <c r="F208" s="8"/>
-      <c r="G208" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H208" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I208" s="26" t="s">
+      <c r="G208" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H208" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I208" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J208" s="8"/>
       <c r="K208" s="9"/>
     </row>
     <row r="209" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A209" s="22">
+      <c r="A209" s="18">
         <v>194</v>
       </c>
-      <c r="B209" s="52" t="s">
+      <c r="B209" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="C209" s="26" t="s">
+      <c r="C209" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D209" s="10" t="s">
@@ -8599,23 +8673,23 @@
         <v>437</v>
       </c>
       <c r="F209" s="8"/>
-      <c r="G209" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H209" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I209" s="26" t="s">
+      <c r="G209" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H209" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I209" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J209" s="8"/>
       <c r="K209" s="9"/>
     </row>
     <row r="210" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="22">
+      <c r="A210" s="18">
         <v>195</v>
       </c>
-      <c r="B210" s="53"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="40" t="s">
         <v>438</v>
       </c>
@@ -8626,23 +8700,23 @@
         <v>440</v>
       </c>
       <c r="F210" s="8"/>
-      <c r="G210" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H210" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I210" s="26" t="s">
+      <c r="G210" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H210" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I210" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J210" s="8"/>
       <c r="K210" s="9"/>
     </row>
     <row r="211" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A211" s="22">
+      <c r="A211" s="18">
         <v>196</v>
       </c>
-      <c r="B211" s="53"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="41"/>
       <c r="D211" s="10" t="s">
         <v>441</v>
@@ -8651,23 +8725,23 @@
         <v>442</v>
       </c>
       <c r="F211" s="8"/>
-      <c r="G211" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H211" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I211" s="26" t="s">
+      <c r="G211" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I211" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J211" s="8"/>
       <c r="K211" s="9"/>
     </row>
     <row r="212" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A212" s="22">
+      <c r="A212" s="18">
         <v>197</v>
       </c>
-      <c r="B212" s="53"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="42"/>
       <c r="D212" s="10" t="s">
         <v>443</v>
@@ -8676,24 +8750,24 @@
         <v>444</v>
       </c>
       <c r="F212" s="8"/>
-      <c r="G212" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H212" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I212" s="26" t="s">
+      <c r="G212" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H212" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I212" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J212" s="8"/>
       <c r="K212" s="9"/>
     </row>
     <row r="213" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A213" s="22">
+      <c r="A213" s="18">
         <v>198</v>
       </c>
-      <c r="B213" s="53"/>
-      <c r="C213" s="26" t="s">
+      <c r="B213" s="47"/>
+      <c r="C213" s="22" t="s">
         <v>445</v>
       </c>
       <c r="D213" s="10" t="s">
@@ -8703,24 +8777,24 @@
         <v>447</v>
       </c>
       <c r="F213" s="8"/>
-      <c r="G213" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H213" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I213" s="26" t="s">
+      <c r="G213" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H213" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I213" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J213" s="8"/>
       <c r="K213" s="9"/>
     </row>
     <row r="214" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A214" s="22">
+      <c r="A214" s="18">
         <v>199</v>
       </c>
-      <c r="B214" s="53"/>
-      <c r="C214" s="26" t="s">
+      <c r="B214" s="47"/>
+      <c r="C214" s="22" t="s">
         <v>448</v>
       </c>
       <c r="D214" s="10" t="s">
@@ -8730,23 +8804,23 @@
         <v>450</v>
       </c>
       <c r="F214" s="9"/>
-      <c r="G214" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H214" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I214" s="26" t="s">
+      <c r="G214" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H214" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I214" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J214" s="9"/>
       <c r="K214" s="9"/>
     </row>
     <row r="215" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A215" s="22">
+      <c r="A215" s="18">
         <v>200</v>
       </c>
-      <c r="B215" s="53"/>
+      <c r="B215" s="47"/>
       <c r="C215" s="40" t="s">
         <v>451</v>
       </c>
@@ -8757,23 +8831,23 @@
         <v>455</v>
       </c>
       <c r="F215" s="9"/>
-      <c r="G215" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H215" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I215" s="26" t="s">
+      <c r="G215" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H215" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I215" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
     </row>
     <row r="216" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A216" s="22">
+      <c r="A216" s="18">
         <v>201</v>
       </c>
-      <c r="B216" s="53"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="41"/>
       <c r="D216" s="10" t="s">
         <v>452</v>
@@ -8782,23 +8856,23 @@
         <v>453</v>
       </c>
       <c r="F216" s="9"/>
-      <c r="G216" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H216" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I216" s="26" t="s">
+      <c r="G216" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H216" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I216" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J216" s="9"/>
       <c r="K216" s="9"/>
     </row>
     <row r="217" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A217" s="22">
+      <c r="A217" s="18">
         <v>202</v>
       </c>
-      <c r="B217" s="53"/>
+      <c r="B217" s="47"/>
       <c r="C217" s="42"/>
       <c r="D217" s="10" t="s">
         <v>452</v>
@@ -8807,24 +8881,24 @@
         <v>454</v>
       </c>
       <c r="F217" s="9"/>
-      <c r="G217" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H217" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I217" s="26" t="s">
+      <c r="G217" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H217" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I217" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J217" s="9"/>
       <c r="K217" s="9"/>
     </row>
     <row r="218" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A218" s="22">
+      <c r="A218" s="18">
         <v>203</v>
       </c>
-      <c r="B218" s="53"/>
-      <c r="C218" s="26" t="s">
+      <c r="B218" s="47"/>
+      <c r="C218" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D218" s="4" t="s">
@@ -8834,24 +8908,24 @@
         <v>457</v>
       </c>
       <c r="F218" s="9"/>
-      <c r="G218" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H218" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I218" s="26" t="s">
+      <c r="G218" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H218" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I218" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
     </row>
     <row r="219" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A219" s="22">
+      <c r="A219" s="18">
         <v>204</v>
       </c>
-      <c r="B219" s="53"/>
-      <c r="C219" s="26" t="s">
+      <c r="B219" s="47"/>
+      <c r="C219" s="22" t="s">
         <v>423</v>
       </c>
       <c r="D219" s="10" t="s">
@@ -8861,24 +8935,24 @@
         <v>424</v>
       </c>
       <c r="F219" s="9"/>
-      <c r="G219" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H219" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I219" s="26" t="s">
+      <c r="G219" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H219" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I219" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J219" s="9"/>
       <c r="K219" s="9"/>
     </row>
     <row r="220" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A220" s="22">
+      <c r="A220" s="18">
         <v>205</v>
       </c>
-      <c r="B220" s="54"/>
-      <c r="C220" s="26" t="s">
+      <c r="B220" s="48"/>
+      <c r="C220" s="22" t="s">
         <v>459</v>
       </c>
       <c r="D220" s="10" t="s">
@@ -8888,26 +8962,26 @@
         <v>461</v>
       </c>
       <c r="F220" s="9"/>
-      <c r="G220" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H220" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I220" s="26" t="s">
+      <c r="G220" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H220" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I220" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
     </row>
     <row r="221" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A221" s="22">
+      <c r="A221" s="18">
         <v>206</v>
       </c>
-      <c r="B221" s="49" t="s">
+      <c r="B221" s="57" t="s">
         <v>462</v>
       </c>
-      <c r="C221" s="26" t="s">
+      <c r="C221" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D221" s="10" t="s">
@@ -8917,23 +8991,23 @@
         <v>464</v>
       </c>
       <c r="F221" s="9"/>
-      <c r="G221" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H221" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I221" s="26" t="s">
+      <c r="G221" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H221" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I221" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J221" s="9"/>
       <c r="K221" s="9"/>
     </row>
     <row r="222" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A222" s="22">
+      <c r="A222" s="18">
         <v>207</v>
       </c>
-      <c r="B222" s="50"/>
+      <c r="B222" s="58"/>
       <c r="C222" s="40" t="s">
         <v>438</v>
       </c>
@@ -8944,23 +9018,23 @@
         <v>440</v>
       </c>
       <c r="F222" s="9"/>
-      <c r="G222" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H222" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I222" s="26" t="s">
+      <c r="G222" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H222" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I222" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J222" s="9"/>
       <c r="K222" s="9"/>
     </row>
     <row r="223" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A223" s="22">
+      <c r="A223" s="18">
         <v>208</v>
       </c>
-      <c r="B223" s="50"/>
+      <c r="B223" s="58"/>
       <c r="C223" s="41"/>
       <c r="D223" s="10" t="s">
         <v>475</v>
@@ -8969,23 +9043,23 @@
         <v>442</v>
       </c>
       <c r="F223" s="9"/>
-      <c r="G223" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H223" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I223" s="26" t="s">
+      <c r="G223" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I223" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
     </row>
     <row r="224" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A224" s="22">
+      <c r="A224" s="18">
         <v>209</v>
       </c>
-      <c r="B224" s="50"/>
+      <c r="B224" s="58"/>
       <c r="C224" s="42"/>
       <c r="D224" s="10" t="s">
         <v>475</v>
@@ -8994,24 +9068,24 @@
         <v>444</v>
       </c>
       <c r="F224" s="9"/>
-      <c r="G224" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H224" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I224" s="26" t="s">
+      <c r="G224" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H224" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I224" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
     </row>
     <row r="225" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A225" s="22">
+      <c r="A225" s="18">
         <v>210</v>
       </c>
-      <c r="B225" s="50"/>
-      <c r="C225" s="26" t="s">
+      <c r="B225" s="58"/>
+      <c r="C225" s="22" t="s">
         <v>448</v>
       </c>
       <c r="D225" s="10" t="s">
@@ -9021,23 +9095,23 @@
         <v>450</v>
       </c>
       <c r="F225" s="9"/>
-      <c r="G225" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H225" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I225" s="26" t="s">
+      <c r="G225" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H225" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I225" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J225" s="9"/>
       <c r="K225" s="9"/>
     </row>
     <row r="226" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A226" s="22">
+      <c r="A226" s="18">
         <v>211</v>
       </c>
-      <c r="B226" s="50"/>
+      <c r="B226" s="58"/>
       <c r="C226" s="40" t="s">
         <v>451</v>
       </c>
@@ -9048,23 +9122,23 @@
         <v>455</v>
       </c>
       <c r="F226" s="9"/>
-      <c r="G226" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H226" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I226" s="26" t="s">
+      <c r="G226" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H226" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I226" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J226" s="9"/>
       <c r="K226" s="9"/>
     </row>
     <row r="227" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A227" s="22">
+      <c r="A227" s="18">
         <v>212</v>
       </c>
-      <c r="B227" s="50"/>
+      <c r="B227" s="58"/>
       <c r="C227" s="41"/>
       <c r="D227" s="10" t="s">
         <v>477</v>
@@ -9073,23 +9147,23 @@
         <v>453</v>
       </c>
       <c r="F227" s="9"/>
-      <c r="G227" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H227" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I227" s="26" t="s">
+      <c r="G227" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H227" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I227" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
     </row>
     <row r="228" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A228" s="22">
+      <c r="A228" s="18">
         <v>213</v>
       </c>
-      <c r="B228" s="50"/>
+      <c r="B228" s="58"/>
       <c r="C228" s="42"/>
       <c r="D228" s="10" t="s">
         <v>477</v>
@@ -9098,24 +9172,24 @@
         <v>454</v>
       </c>
       <c r="F228" s="9"/>
-      <c r="G228" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H228" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I228" s="26" t="s">
+      <c r="G228" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H228" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I228" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J228" s="9"/>
       <c r="K228" s="9"/>
     </row>
     <row r="229" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A229" s="22">
+      <c r="A229" s="18">
         <v>214</v>
       </c>
-      <c r="B229" s="50"/>
-      <c r="C229" s="26" t="s">
+      <c r="B229" s="58"/>
+      <c r="C229" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D229" s="4" t="s">
@@ -9125,24 +9199,24 @@
         <v>457</v>
       </c>
       <c r="F229" s="9"/>
-      <c r="G229" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H229" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I229" s="26" t="s">
+      <c r="G229" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H229" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I229" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J229" s="9"/>
       <c r="K229" s="9"/>
     </row>
     <row r="230" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A230" s="22">
+      <c r="A230" s="18">
         <v>215</v>
       </c>
-      <c r="B230" s="51"/>
-      <c r="C230" s="26" t="s">
+      <c r="B230" s="59"/>
+      <c r="C230" s="22" t="s">
         <v>423</v>
       </c>
       <c r="D230" s="10" t="s">
@@ -9152,26 +9226,26 @@
         <v>424</v>
       </c>
       <c r="F230" s="9"/>
-      <c r="G230" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H230" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I230" s="26" t="s">
+      <c r="G230" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H230" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I230" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
     </row>
     <row r="231" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A231" s="22">
+      <c r="A231" s="18">
         <v>216</v>
       </c>
       <c r="B231" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="C231" s="26" t="s">
+      <c r="C231" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D231" s="10" t="s">
@@ -9181,20 +9255,20 @@
         <v>467</v>
       </c>
       <c r="F231" s="9"/>
-      <c r="G231" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H231" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I231" s="26" t="s">
+      <c r="G231" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H231" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I231" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J231" s="9"/>
       <c r="K231" s="9"/>
     </row>
     <row r="232" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="22">
+      <c r="A232" s="18">
         <v>217</v>
       </c>
       <c r="B232" s="44"/>
@@ -9208,20 +9282,20 @@
         <v>440</v>
       </c>
       <c r="F232" s="9"/>
-      <c r="G232" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H232" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I232" s="26" t="s">
+      <c r="G232" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H232" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I232" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J232" s="9"/>
       <c r="K232" s="9"/>
     </row>
     <row r="233" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A233" s="22">
+      <c r="A233" s="18">
         <v>218</v>
       </c>
       <c r="B233" s="44"/>
@@ -9233,20 +9307,20 @@
         <v>442</v>
       </c>
       <c r="F233" s="9"/>
-      <c r="G233" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H233" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I233" s="26" t="s">
+      <c r="G233" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H233" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I233" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J233" s="9"/>
       <c r="K233" s="9"/>
     </row>
     <row r="234" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A234" s="22">
+      <c r="A234" s="18">
         <v>219</v>
       </c>
       <c r="B234" s="44"/>
@@ -9258,24 +9332,24 @@
         <v>444</v>
       </c>
       <c r="F234" s="9"/>
-      <c r="G234" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H234" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I234" s="26" t="s">
+      <c r="G234" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H234" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I234" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J234" s="9"/>
       <c r="K234" s="9"/>
     </row>
     <row r="235" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="22">
+      <c r="A235" s="18">
         <v>220</v>
       </c>
       <c r="B235" s="44"/>
-      <c r="C235" s="26" t="s">
+      <c r="C235" s="22" t="s">
         <v>448</v>
       </c>
       <c r="D235" s="10" t="s">
@@ -9285,20 +9359,20 @@
         <v>450</v>
       </c>
       <c r="F235" s="9"/>
-      <c r="G235" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H235" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I235" s="26" t="s">
+      <c r="G235" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H235" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I235" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J235" s="9"/>
       <c r="K235" s="9"/>
     </row>
     <row r="236" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A236" s="22">
+      <c r="A236" s="18">
         <v>221</v>
       </c>
       <c r="B236" s="44"/>
@@ -9312,20 +9386,20 @@
         <v>455</v>
       </c>
       <c r="F236" s="9"/>
-      <c r="G236" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H236" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I236" s="26" t="s">
+      <c r="G236" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H236" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I236" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J236" s="9"/>
       <c r="K236" s="9"/>
     </row>
     <row r="237" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A237" s="22">
+      <c r="A237" s="18">
         <v>222</v>
       </c>
       <c r="B237" s="44"/>
@@ -9337,20 +9411,20 @@
         <v>453</v>
       </c>
       <c r="F237" s="9"/>
-      <c r="G237" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H237" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I237" s="26" t="s">
+      <c r="G237" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H237" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I237" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J237" s="9"/>
       <c r="K237" s="9"/>
     </row>
     <row r="238" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A238" s="22">
+      <c r="A238" s="18">
         <v>223</v>
       </c>
       <c r="B238" s="44"/>
@@ -9362,24 +9436,24 @@
         <v>454</v>
       </c>
       <c r="F238" s="9"/>
-      <c r="G238" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H238" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I238" s="26" t="s">
+      <c r="G238" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H238" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I238" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J238" s="9"/>
       <c r="K238" s="9"/>
     </row>
     <row r="239" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A239" s="22">
+      <c r="A239" s="18">
         <v>224</v>
       </c>
       <c r="B239" s="44"/>
-      <c r="C239" s="26" t="s">
+      <c r="C239" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D239" s="4" t="s">
@@ -9389,24 +9463,24 @@
         <v>457</v>
       </c>
       <c r="F239" s="9"/>
-      <c r="G239" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H239" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I239" s="26" t="s">
+      <c r="G239" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H239" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I239" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J239" s="9"/>
       <c r="K239" s="9"/>
     </row>
     <row r="240" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="22">
+      <c r="A240" s="18">
         <v>225</v>
       </c>
       <c r="B240" s="44"/>
-      <c r="C240" s="26" t="s">
+      <c r="C240" s="22" t="s">
         <v>423</v>
       </c>
       <c r="D240" s="10" t="s">
@@ -9416,24 +9490,24 @@
         <v>424</v>
       </c>
       <c r="F240" s="9"/>
-      <c r="G240" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H240" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I240" s="26" t="s">
+      <c r="G240" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H240" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I240" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>
     </row>
     <row r="241" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="22">
+      <c r="A241" s="18">
         <v>226</v>
       </c>
       <c r="B241" s="45"/>
-      <c r="C241" s="26" t="s">
+      <c r="C241" s="22" t="s">
         <v>445</v>
       </c>
       <c r="D241" s="10" t="s">
@@ -9443,26 +9517,26 @@
         <v>447</v>
       </c>
       <c r="F241" s="9"/>
-      <c r="G241" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H241" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I241" s="26" t="s">
+      <c r="G241" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H241" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I241" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J241" s="9"/>
       <c r="K241" s="9"/>
     </row>
     <row r="242" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A242" s="22">
+      <c r="A242" s="18">
         <v>227</v>
       </c>
       <c r="B242" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="C242" s="26" t="s">
+      <c r="C242" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D242" s="10" t="s">
@@ -9472,24 +9546,24 @@
         <v>482</v>
       </c>
       <c r="F242" s="9"/>
-      <c r="G242" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H242" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I242" s="26" t="s">
+      <c r="G242" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H242" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I242" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J242" s="9"/>
       <c r="K242" s="9"/>
     </row>
     <row r="243" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A243" s="22">
+      <c r="A243" s="18">
         <v>228</v>
       </c>
       <c r="B243" s="44"/>
-      <c r="C243" s="26" t="s">
+      <c r="C243" s="22" t="s">
         <v>483</v>
       </c>
       <c r="D243" s="10" t="s">
@@ -9499,24 +9573,24 @@
         <v>485</v>
       </c>
       <c r="F243" s="9"/>
-      <c r="G243" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H243" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I243" s="26" t="s">
+      <c r="G243" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H243" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I243" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J243" s="9"/>
       <c r="K243" s="9"/>
     </row>
     <row r="244" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A244" s="22">
+      <c r="A244" s="18">
         <v>229</v>
       </c>
       <c r="B244" s="44"/>
-      <c r="C244" s="26" t="s">
+      <c r="C244" s="22" t="s">
         <v>486</v>
       </c>
       <c r="D244" s="10" t="s">
@@ -9526,24 +9600,24 @@
         <v>488</v>
       </c>
       <c r="F244" s="9"/>
-      <c r="G244" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H244" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I244" s="26" t="s">
+      <c r="G244" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H244" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I244" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J244" s="9"/>
       <c r="K244" s="9"/>
     </row>
     <row r="245" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A245" s="22">
+      <c r="A245" s="18">
         <v>230</v>
       </c>
       <c r="B245" s="44"/>
-      <c r="C245" s="26"/>
+      <c r="C245" s="22"/>
       <c r="D245" s="10" t="s">
         <v>489</v>
       </c>
@@ -9551,24 +9625,24 @@
         <v>490</v>
       </c>
       <c r="F245" s="9"/>
-      <c r="G245" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H245" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I245" s="26" t="s">
+      <c r="G245" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H245" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I245" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J245" s="9"/>
       <c r="K245" s="9"/>
     </row>
     <row r="246" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A246" s="22">
+      <c r="A246" s="18">
         <v>231</v>
       </c>
       <c r="B246" s="45"/>
-      <c r="C246" s="26"/>
+      <c r="C246" s="22"/>
       <c r="D246" s="10" t="s">
         <v>491</v>
       </c>
@@ -9576,26 +9650,26 @@
         <v>492</v>
       </c>
       <c r="F246" s="9"/>
-      <c r="G246" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H246" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I246" s="26" t="s">
+      <c r="G246" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H246" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I246" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J246" s="9"/>
       <c r="K246" s="9"/>
     </row>
     <row r="247" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A247" s="22">
+      <c r="A247" s="18">
         <v>232</v>
       </c>
       <c r="B247" s="43" t="s">
         <v>493</v>
       </c>
-      <c r="C247" s="32" t="s">
+      <c r="C247" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D247" s="10" t="s">
@@ -9612,7 +9686,7 @@
       <c r="K247" s="9"/>
     </row>
     <row r="248" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="22">
+      <c r="A248" s="18">
         <v>233</v>
       </c>
       <c r="B248" s="44"/>
@@ -9633,7 +9707,7 @@
       <c r="K248" s="9"/>
     </row>
     <row r="249" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A249" s="22">
+      <c r="A249" s="18">
         <v>234</v>
       </c>
       <c r="B249" s="44"/>
@@ -9652,7 +9726,7 @@
       <c r="K249" s="9"/>
     </row>
     <row r="250" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A250" s="22">
+      <c r="A250" s="18">
         <v>235</v>
       </c>
       <c r="B250" s="44"/>
@@ -9671,7 +9745,7 @@
       <c r="K250" s="9"/>
     </row>
     <row r="251" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A251" s="22">
+      <c r="A251" s="18">
         <v>236</v>
       </c>
       <c r="B251" s="44"/>
@@ -9690,11 +9764,11 @@
       <c r="K251" s="9"/>
     </row>
     <row r="252" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="22">
+      <c r="A252" s="18">
         <v>237</v>
       </c>
       <c r="B252" s="44"/>
-      <c r="C252" s="32" t="s">
+      <c r="C252" s="28" t="s">
         <v>505</v>
       </c>
       <c r="D252" s="10" t="s">
@@ -9711,11 +9785,11 @@
       <c r="K252" s="9"/>
     </row>
     <row r="253" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="22">
+      <c r="A253" s="18">
         <v>238</v>
       </c>
       <c r="B253" s="44"/>
-      <c r="C253" s="32" t="s">
+      <c r="C253" s="28" t="s">
         <v>508</v>
       </c>
       <c r="D253" s="10" t="s">
@@ -9732,11 +9806,11 @@
       <c r="K253" s="9"/>
     </row>
     <row r="254" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A254" s="22">
+      <c r="A254" s="18">
         <v>239</v>
       </c>
       <c r="B254" s="44"/>
-      <c r="C254" s="32" t="s">
+      <c r="C254" s="28" t="s">
         <v>511</v>
       </c>
       <c r="D254" s="10" t="s">
@@ -9753,11 +9827,11 @@
       <c r="K254" s="9"/>
     </row>
     <row r="255" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A255" s="22">
+      <c r="A255" s="18">
         <v>240</v>
       </c>
       <c r="B255" s="44"/>
-      <c r="C255" s="32" t="s">
+      <c r="C255" s="28" t="s">
         <v>514</v>
       </c>
       <c r="D255" s="10" t="s">
@@ -9774,11 +9848,11 @@
       <c r="K255" s="9"/>
     </row>
     <row r="256" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="22">
+      <c r="A256" s="18">
         <v>241</v>
       </c>
       <c r="B256" s="45"/>
-      <c r="C256" s="32" t="s">
+      <c r="C256" s="28" t="s">
         <v>517</v>
       </c>
       <c r="D256" s="10" t="s">
@@ -9795,13 +9869,13 @@
       <c r="K256" s="9"/>
     </row>
     <row r="257" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A257" s="22">
+      <c r="A257" s="18">
         <v>242</v>
       </c>
       <c r="B257" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="C257" s="32" t="s">
+      <c r="C257" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D257" s="10" t="s">
@@ -9818,11 +9892,11 @@
       <c r="K257" s="9"/>
     </row>
     <row r="258" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="22">
+      <c r="A258" s="18">
         <v>243</v>
       </c>
       <c r="B258" s="44"/>
-      <c r="C258" s="26" t="s">
+      <c r="C258" s="22" t="s">
         <v>523</v>
       </c>
       <c r="D258" s="10" t="s">
@@ -9839,11 +9913,11 @@
       <c r="K258" s="9"/>
     </row>
     <row r="259" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="22">
+      <c r="A259" s="18">
         <v>244</v>
       </c>
       <c r="B259" s="44"/>
-      <c r="C259" s="26" t="s">
+      <c r="C259" s="22" t="s">
         <v>177</v>
       </c>
       <c r="D259" s="10" t="s">
@@ -9860,7 +9934,7 @@
       <c r="K259" s="9"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260" s="22">
+      <c r="A260" s="18">
         <v>245</v>
       </c>
       <c r="B260" s="44"/>
@@ -9881,7 +9955,7 @@
       <c r="K260" s="9"/>
     </row>
     <row r="261" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A261" s="22">
+      <c r="A261" s="18">
         <v>246</v>
       </c>
       <c r="B261" s="44"/>
@@ -9900,7 +9974,7 @@
       <c r="K261" s="9"/>
     </row>
     <row r="262" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A262" s="22">
+      <c r="A262" s="18">
         <v>247</v>
       </c>
       <c r="B262" s="44"/>
@@ -9919,11 +9993,11 @@
       <c r="K262" s="9"/>
     </row>
     <row r="263" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A263" s="22">
+      <c r="A263" s="18">
         <v>248</v>
       </c>
       <c r="B263" s="44"/>
-      <c r="C263" s="39" t="s">
+      <c r="C263" s="35" t="s">
         <v>535</v>
       </c>
       <c r="D263" s="10" t="s">
@@ -9940,11 +10014,11 @@
       <c r="K263" s="9"/>
     </row>
     <row r="264" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A264" s="22">
+      <c r="A264" s="18">
         <v>249</v>
       </c>
       <c r="B264" s="44"/>
-      <c r="C264" s="32" t="s">
+      <c r="C264" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D264" s="10" t="s">
@@ -9961,11 +10035,11 @@
       <c r="K264" s="9"/>
     </row>
     <row r="265" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A265" s="22">
+      <c r="A265" s="18">
         <v>250</v>
       </c>
       <c r="B265" s="44"/>
-      <c r="C265" s="32" t="s">
+      <c r="C265" s="28" t="s">
         <v>541</v>
       </c>
       <c r="D265" s="10" t="s">
@@ -9982,11 +10056,11 @@
       <c r="K265" s="9"/>
     </row>
     <row r="266" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A266" s="22">
+      <c r="A266" s="18">
         <v>251</v>
       </c>
       <c r="B266" s="45"/>
-      <c r="C266" s="32" t="s">
+      <c r="C266" s="28" t="s">
         <v>544</v>
       </c>
       <c r="D266" s="10" t="s">
@@ -10003,13 +10077,13 @@
       <c r="K266" s="9"/>
     </row>
     <row r="267" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A267" s="22">
+      <c r="A267" s="18">
         <v>252</v>
       </c>
       <c r="B267" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="C267" s="32" t="s">
+      <c r="C267" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D267" s="10" t="s">
@@ -10026,11 +10100,11 @@
       <c r="K267" s="9"/>
     </row>
     <row r="268" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A268" s="22">
+      <c r="A268" s="18">
         <v>253</v>
       </c>
       <c r="B268" s="44"/>
-      <c r="C268" s="32" t="s">
+      <c r="C268" s="28" t="s">
         <v>550</v>
       </c>
       <c r="D268" s="10" t="s">
@@ -10047,11 +10121,11 @@
       <c r="K268" s="9"/>
     </row>
     <row r="269" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A269" s="22">
+      <c r="A269" s="18">
         <v>254</v>
       </c>
       <c r="B269" s="44"/>
-      <c r="C269" s="32" t="s">
+      <c r="C269" s="28" t="s">
         <v>553</v>
       </c>
       <c r="D269" s="10" t="s">
@@ -10068,11 +10142,11 @@
       <c r="K269" s="9"/>
     </row>
     <row r="270" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="22">
+      <c r="A270" s="18">
         <v>255</v>
       </c>
       <c r="B270" s="44"/>
-      <c r="C270" s="32" t="s">
+      <c r="C270" s="28" t="s">
         <v>556</v>
       </c>
       <c r="D270" s="10" t="s">
@@ -10089,11 +10163,11 @@
       <c r="K270" s="9"/>
     </row>
     <row r="271" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A271" s="22">
+      <c r="A271" s="18">
         <v>256</v>
       </c>
       <c r="B271" s="44"/>
-      <c r="C271" s="32" t="s">
+      <c r="C271" s="28" t="s">
         <v>541</v>
       </c>
       <c r="D271" s="10" t="s">
@@ -10110,11 +10184,11 @@
       <c r="K271" s="9"/>
     </row>
     <row r="272" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A272" s="22">
+      <c r="A272" s="18">
         <v>257</v>
       </c>
       <c r="B272" s="45"/>
-      <c r="C272" s="32" t="s">
+      <c r="C272" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D272" s="10" t="s">
@@ -10131,13 +10205,13 @@
       <c r="K272" s="9"/>
     </row>
     <row r="273" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A273" s="22">
+      <c r="A273" s="18">
         <v>258</v>
       </c>
       <c r="B273" s="43" t="s">
         <v>561</v>
       </c>
-      <c r="C273" s="32" t="s">
+      <c r="C273" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D273" s="10" t="s">
@@ -10154,11 +10228,11 @@
       <c r="K273" s="9"/>
     </row>
     <row r="274" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A274" s="22">
+      <c r="A274" s="18">
         <v>259</v>
       </c>
       <c r="B274" s="44"/>
-      <c r="C274" s="32" t="s">
+      <c r="C274" s="28" t="s">
         <v>523</v>
       </c>
       <c r="D274" s="10" t="s">
@@ -10175,11 +10249,11 @@
       <c r="K274" s="9"/>
     </row>
     <row r="275" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A275" s="22">
+      <c r="A275" s="18">
         <v>260</v>
       </c>
       <c r="B275" s="44"/>
-      <c r="C275" s="32" t="s">
+      <c r="C275" s="28" t="s">
         <v>177</v>
       </c>
       <c r="D275" s="10" t="s">
@@ -10196,7 +10270,7 @@
       <c r="K275" s="9"/>
     </row>
     <row r="276" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="22">
+      <c r="A276" s="18">
         <v>261</v>
       </c>
       <c r="B276" s="44"/>
@@ -10217,7 +10291,7 @@
       <c r="K276" s="9"/>
     </row>
     <row r="277" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="22">
+      <c r="A277" s="18">
         <v>262</v>
       </c>
       <c r="B277" s="44"/>
@@ -10236,7 +10310,7 @@
       <c r="K277" s="9"/>
     </row>
     <row r="278" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A278" s="22">
+      <c r="A278" s="18">
         <v>263</v>
       </c>
       <c r="B278" s="44"/>
@@ -10255,11 +10329,11 @@
       <c r="K278" s="9"/>
     </row>
     <row r="279" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A279" s="22">
+      <c r="A279" s="18">
         <v>264</v>
       </c>
       <c r="B279" s="44"/>
-      <c r="C279" s="39" t="s">
+      <c r="C279" s="35" t="s">
         <v>535</v>
       </c>
       <c r="D279" s="10" t="s">
@@ -10276,11 +10350,11 @@
       <c r="K279" s="9"/>
     </row>
     <row r="280" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A280" s="22">
+      <c r="A280" s="18">
         <v>265</v>
       </c>
       <c r="B280" s="44"/>
-      <c r="C280" s="32" t="s">
+      <c r="C280" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D280" s="10" t="s">
@@ -10297,11 +10371,11 @@
       <c r="K280" s="9"/>
     </row>
     <row r="281" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A281" s="22">
+      <c r="A281" s="18">
         <v>266</v>
       </c>
       <c r="B281" s="45"/>
-      <c r="C281" s="32" t="s">
+      <c r="C281" s="28" t="s">
         <v>541</v>
       </c>
       <c r="D281" s="10" t="s">
@@ -10318,13 +10392,13 @@
       <c r="K281" s="9"/>
     </row>
     <row r="282" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A282" s="22">
+      <c r="A282" s="18">
         <v>267</v>
       </c>
       <c r="B282" s="43" t="s">
         <v>571</v>
       </c>
-      <c r="C282" s="32" t="s">
+      <c r="C282" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D282" s="10" t="s">
@@ -10341,11 +10415,11 @@
       <c r="K282" s="9"/>
     </row>
     <row r="283" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A283" s="22">
+      <c r="A283" s="18">
         <v>268</v>
       </c>
       <c r="B283" s="44"/>
-      <c r="C283" s="32" t="s">
+      <c r="C283" s="28" t="s">
         <v>523</v>
       </c>
       <c r="D283" s="10" t="s">
@@ -10362,11 +10436,11 @@
       <c r="K283" s="9"/>
     </row>
     <row r="284" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="22">
+      <c r="A284" s="18">
         <v>269</v>
       </c>
       <c r="B284" s="44"/>
-      <c r="C284" s="32" t="s">
+      <c r="C284" s="28" t="s">
         <v>177</v>
       </c>
       <c r="D284" s="10" t="s">
@@ -10383,11 +10457,11 @@
       <c r="K284" s="9"/>
     </row>
     <row r="285" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A285" s="22">
+      <c r="A285" s="18">
         <v>270</v>
       </c>
       <c r="B285" s="44"/>
-      <c r="C285" s="32" t="s">
+      <c r="C285" s="28" t="s">
         <v>541</v>
       </c>
       <c r="D285" s="10" t="s">
@@ -10404,11 +10478,11 @@
       <c r="K285" s="9"/>
     </row>
     <row r="286" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A286" s="22">
+      <c r="A286" s="18">
         <v>271</v>
       </c>
       <c r="B286" s="44"/>
-      <c r="C286" s="32" t="s">
+      <c r="C286" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D286" s="10" t="s">
@@ -10425,7 +10499,7 @@
       <c r="K286" s="9"/>
     </row>
     <row r="287" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="22">
+      <c r="A287" s="18">
         <v>272</v>
       </c>
       <c r="B287" s="44"/>
@@ -10446,7 +10520,7 @@
       <c r="K287" s="9"/>
     </row>
     <row r="288" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A288" s="22">
+      <c r="A288" s="18">
         <v>273</v>
       </c>
       <c r="B288" s="44"/>
@@ -10465,7 +10539,7 @@
       <c r="K288" s="9"/>
     </row>
     <row r="289" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A289" s="22">
+      <c r="A289" s="18">
         <v>274</v>
       </c>
       <c r="B289" s="44"/>
@@ -10484,7 +10558,7 @@
       <c r="K289" s="9"/>
     </row>
     <row r="290" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A290" s="22">
+      <c r="A290" s="18">
         <v>275</v>
       </c>
       <c r="B290" s="44"/>
@@ -10503,7 +10577,7 @@
       <c r="K290" s="9"/>
     </row>
     <row r="291" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A291" s="22">
+      <c r="A291" s="18">
         <v>276</v>
       </c>
       <c r="B291" s="44"/>
@@ -10522,7 +10596,7 @@
       <c r="K291" s="9"/>
     </row>
     <row r="292" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A292" s="22">
+      <c r="A292" s="18">
         <v>277</v>
       </c>
       <c r="B292" s="45"/>
@@ -10541,13 +10615,13 @@
       <c r="K292" s="9"/>
     </row>
     <row r="293" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A293" s="22">
+      <c r="A293" s="18">
         <v>278</v>
       </c>
       <c r="B293" s="43" t="s">
         <v>585</v>
       </c>
-      <c r="C293" s="32" t="s">
+      <c r="C293" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D293" s="10" t="s">
@@ -10564,11 +10638,11 @@
       <c r="K293" s="9"/>
     </row>
     <row r="294" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A294" s="22">
+      <c r="A294" s="18">
         <v>279</v>
       </c>
       <c r="B294" s="44"/>
-      <c r="C294" s="32" t="s">
+      <c r="C294" s="28" t="s">
         <v>523</v>
       </c>
       <c r="D294" s="10" t="s">
@@ -10585,11 +10659,11 @@
       <c r="K294" s="9"/>
     </row>
     <row r="295" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A295" s="22">
+      <c r="A295" s="18">
         <v>280</v>
       </c>
       <c r="B295" s="44"/>
-      <c r="C295" s="32" t="s">
+      <c r="C295" s="28" t="s">
         <v>177</v>
       </c>
       <c r="D295" s="10" t="s">
@@ -10606,11 +10680,11 @@
       <c r="K295" s="9"/>
     </row>
     <row r="296" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A296" s="22">
+      <c r="A296" s="18">
         <v>281</v>
       </c>
       <c r="B296" s="44"/>
-      <c r="C296" s="32" t="s">
+      <c r="C296" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D296" s="10" t="s">
@@ -10627,7 +10701,7 @@
       <c r="K296" s="9"/>
     </row>
     <row r="297" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A297" s="22">
+      <c r="A297" s="18">
         <v>282</v>
       </c>
       <c r="B297" s="44"/>
@@ -10648,7 +10722,7 @@
       <c r="K297" s="9"/>
     </row>
     <row r="298" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A298" s="22">
+      <c r="A298" s="18">
         <v>283</v>
       </c>
       <c r="B298" s="44"/>
@@ -10667,7 +10741,7 @@
       <c r="K298" s="9"/>
     </row>
     <row r="299" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A299" s="22">
+      <c r="A299" s="18">
         <v>284</v>
       </c>
       <c r="B299" s="44"/>
@@ -10686,7 +10760,7 @@
       <c r="K299" s="9"/>
     </row>
     <row r="300" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A300" s="22">
+      <c r="A300" s="18">
         <v>285</v>
       </c>
       <c r="B300" s="44"/>
@@ -10705,11 +10779,11 @@
       <c r="K300" s="9"/>
     </row>
     <row r="301" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A301" s="22">
+      <c r="A301" s="18">
         <v>286</v>
       </c>
       <c r="B301" s="44"/>
-      <c r="C301" s="32" t="s">
+      <c r="C301" s="28" t="s">
         <v>593</v>
       </c>
       <c r="D301" s="10" t="s">
@@ -10726,11 +10800,11 @@
       <c r="K301" s="9"/>
     </row>
     <row r="302" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A302" s="22">
+      <c r="A302" s="18">
         <v>287</v>
       </c>
       <c r="B302" s="45"/>
-      <c r="C302" s="32" t="s">
+      <c r="C302" s="28" t="s">
         <v>541</v>
       </c>
       <c r="D302" s="10" t="s">
@@ -10747,13 +10821,13 @@
       <c r="K302" s="9"/>
     </row>
     <row r="303" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A303" s="22">
+      <c r="A303" s="18">
         <v>288</v>
       </c>
-      <c r="B303" s="60" t="s">
+      <c r="B303" s="37" t="s">
         <v>597</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="C303" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D303" s="10" t="s">
@@ -10770,11 +10844,11 @@
       <c r="K303" s="9"/>
     </row>
     <row r="304" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A304" s="22">
+      <c r="A304" s="18">
         <v>289</v>
       </c>
-      <c r="B304" s="61"/>
-      <c r="C304" s="32" t="s">
+      <c r="B304" s="38"/>
+      <c r="C304" s="28" t="s">
         <v>593</v>
       </c>
       <c r="D304" s="10" t="s">
@@ -10791,11 +10865,11 @@
       <c r="K304" s="9"/>
     </row>
     <row r="305" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A305" s="22">
+      <c r="A305" s="18">
         <v>290</v>
       </c>
-      <c r="B305" s="61"/>
-      <c r="C305" s="32" t="s">
+      <c r="B305" s="38"/>
+      <c r="C305" s="28" t="s">
         <v>541</v>
       </c>
       <c r="D305" s="10" t="s">
@@ -10812,11 +10886,11 @@
       <c r="K305" s="9"/>
     </row>
     <row r="306" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A306" s="22">
+      <c r="A306" s="18">
         <v>291</v>
       </c>
-      <c r="B306" s="61"/>
-      <c r="C306" s="32" t="s">
+      <c r="B306" s="38"/>
+      <c r="C306" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D306" s="10" t="s">
@@ -10833,11 +10907,11 @@
       <c r="K306" s="9"/>
     </row>
     <row r="307" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A307" s="22">
+      <c r="A307" s="18">
         <v>292</v>
       </c>
-      <c r="B307" s="62"/>
-      <c r="C307" s="32" t="s">
+      <c r="B307" s="39"/>
+      <c r="C307" s="28" t="s">
         <v>602</v>
       </c>
       <c r="D307" s="10" t="s">
@@ -10854,13 +10928,13 @@
       <c r="K307" s="9"/>
     </row>
     <row r="308" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A308" s="22">
+      <c r="A308" s="18">
         <v>293</v>
       </c>
       <c r="B308" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="C308" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D308" s="10" t="s">
@@ -10877,11 +10951,11 @@
       <c r="K308" s="9"/>
     </row>
     <row r="309" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A309" s="22">
+      <c r="A309" s="18">
         <v>294</v>
       </c>
       <c r="B309" s="44"/>
-      <c r="C309" s="32" t="s">
+      <c r="C309" s="28" t="s">
         <v>541</v>
       </c>
       <c r="D309" s="10" t="s">
@@ -10898,11 +10972,11 @@
       <c r="K309" s="9"/>
     </row>
     <row r="310" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A310" s="22">
+      <c r="A310" s="18">
         <v>295</v>
       </c>
       <c r="B310" s="44"/>
-      <c r="C310" s="32" t="s">
+      <c r="C310" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D310" s="10" t="s">
@@ -10919,7 +10993,7 @@
       <c r="K310" s="9"/>
     </row>
     <row r="311" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A311" s="22">
+      <c r="A311" s="18">
         <v>296</v>
       </c>
       <c r="B311" s="44"/>
@@ -10940,7 +11014,7 @@
       <c r="K311" s="9"/>
     </row>
     <row r="312" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A312" s="22">
+      <c r="A312" s="18">
         <v>297</v>
       </c>
       <c r="B312" s="44"/>
@@ -10959,7 +11033,7 @@
       <c r="K312" s="9"/>
     </row>
     <row r="313" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A313" s="22">
+      <c r="A313" s="18">
         <v>298</v>
       </c>
       <c r="B313" s="44"/>
@@ -10978,7 +11052,7 @@
       <c r="K313" s="9"/>
     </row>
     <row r="314" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A314" s="22">
+      <c r="A314" s="18">
         <v>299</v>
       </c>
       <c r="B314" s="44"/>
@@ -10999,7 +11073,7 @@
       <c r="K314" s="9"/>
     </row>
     <row r="315" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A315" s="22">
+      <c r="A315" s="18">
         <v>300</v>
       </c>
       <c r="B315" s="44"/>
@@ -11018,7 +11092,7 @@
       <c r="K315" s="9"/>
     </row>
     <row r="316" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A316" s="22">
+      <c r="A316" s="18">
         <v>301</v>
       </c>
       <c r="B316" s="44"/>
@@ -11037,7 +11111,7 @@
       <c r="K316" s="9"/>
     </row>
     <row r="317" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A317" s="22">
+      <c r="A317" s="18">
         <v>302</v>
       </c>
       <c r="B317" s="44"/>
@@ -11058,7 +11132,7 @@
       <c r="K317" s="9"/>
     </row>
     <row r="318" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A318" s="22">
+      <c r="A318" s="18">
         <v>303</v>
       </c>
       <c r="B318" s="44"/>
@@ -11077,11 +11151,11 @@
       <c r="K318" s="9"/>
     </row>
     <row r="319" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A319" s="22">
+      <c r="A319" s="18">
         <v>304</v>
       </c>
       <c r="B319" s="45"/>
-      <c r="C319" s="32" t="s">
+      <c r="C319" s="28" t="s">
         <v>622</v>
       </c>
       <c r="D319" s="10" t="s">
@@ -11098,13 +11172,13 @@
       <c r="K319" s="9"/>
     </row>
     <row r="320" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A320" s="22">
+      <c r="A320" s="18">
         <v>305</v>
       </c>
-      <c r="B320" s="38" t="s">
+      <c r="B320" s="34" t="s">
         <v>625</v>
       </c>
-      <c r="C320" s="32" t="s">
+      <c r="C320" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D320" s="10" t="s">
@@ -11121,11 +11195,11 @@
       <c r="K320" s="9"/>
     </row>
     <row r="321" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A321" s="22">
+      <c r="A321" s="18">
         <v>306</v>
       </c>
-      <c r="B321" s="32"/>
-      <c r="C321" s="32" t="s">
+      <c r="B321" s="28"/>
+      <c r="C321" s="28" t="s">
         <v>535</v>
       </c>
       <c r="D321" s="10" t="s">
@@ -11142,11 +11216,11 @@
       <c r="K321" s="9"/>
     </row>
     <row r="322" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A322" s="22">
+      <c r="A322" s="18">
         <v>307</v>
       </c>
-      <c r="B322" s="32"/>
-      <c r="C322" s="32" t="s">
+      <c r="B322" s="28"/>
+      <c r="C322" s="28" t="s">
         <v>541</v>
       </c>
       <c r="D322" s="10" t="s">
@@ -11163,11 +11237,11 @@
       <c r="K322" s="9"/>
     </row>
     <row r="323" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A323" s="22">
+      <c r="A323" s="18">
         <v>308</v>
       </c>
-      <c r="B323" s="32"/>
-      <c r="C323" s="32" t="s">
+      <c r="B323" s="28"/>
+      <c r="C323" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D323" s="10" t="s">
@@ -11184,9 +11258,9 @@
       <c r="K323" s="9"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="22"/>
-      <c r="B324" s="32"/>
-      <c r="C324" s="32"/>
+      <c r="A324" s="18"/>
+      <c r="B324" s="28"/>
+      <c r="C324" s="28"/>
       <c r="D324" s="10"/>
       <c r="E324" s="10"/>
       <c r="F324" s="9"/>
@@ -11197,9 +11271,9 @@
       <c r="K324" s="9"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325" s="22"/>
-      <c r="B325" s="32"/>
-      <c r="C325" s="32"/>
+      <c r="A325" s="18"/>
+      <c r="B325" s="28"/>
+      <c r="C325" s="28"/>
       <c r="D325" s="10"/>
       <c r="E325" s="10"/>
       <c r="F325" s="9"/>
@@ -11210,9 +11284,9 @@
       <c r="K325" s="9"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326" s="22"/>
-      <c r="B326" s="32"/>
-      <c r="C326" s="32"/>
+      <c r="A326" s="18"/>
+      <c r="B326" s="28"/>
+      <c r="C326" s="28"/>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
       <c r="F326" s="9"/>
@@ -11223,9 +11297,9 @@
       <c r="K326" s="9"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="22"/>
-      <c r="B327" s="32"/>
-      <c r="C327" s="32"/>
+      <c r="A327" s="18"/>
+      <c r="B327" s="28"/>
+      <c r="C327" s="28"/>
       <c r="D327" s="10"/>
       <c r="E327" s="10"/>
       <c r="F327" s="9"/>
@@ -11236,9 +11310,9 @@
       <c r="K327" s="9"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="22"/>
-      <c r="B328" s="32"/>
-      <c r="C328" s="32"/>
+      <c r="A328" s="18"/>
+      <c r="B328" s="28"/>
+      <c r="C328" s="28"/>
       <c r="D328" s="10"/>
       <c r="E328" s="10"/>
       <c r="F328" s="9"/>
@@ -11249,9 +11323,9 @@
       <c r="K328" s="9"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="22"/>
-      <c r="B329" s="32"/>
-      <c r="C329" s="32"/>
+      <c r="A329" s="18"/>
+      <c r="B329" s="28"/>
+      <c r="C329" s="28"/>
       <c r="D329" s="10"/>
       <c r="E329" s="10"/>
       <c r="F329" s="9"/>
@@ -11262,9 +11336,9 @@
       <c r="K329" s="9"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="22"/>
-      <c r="B330" s="32"/>
-      <c r="C330" s="32"/>
+      <c r="A330" s="18"/>
+      <c r="B330" s="28"/>
+      <c r="C330" s="28"/>
       <c r="D330" s="10"/>
       <c r="E330" s="10"/>
       <c r="F330" s="9"/>
@@ -11275,9 +11349,9 @@
       <c r="K330" s="9"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="22"/>
-      <c r="B331" s="32"/>
-      <c r="C331" s="32"/>
+      <c r="A331" s="18"/>
+      <c r="B331" s="28"/>
+      <c r="C331" s="28"/>
       <c r="D331" s="10"/>
       <c r="E331" s="10"/>
       <c r="F331" s="9"/>
@@ -11288,9 +11362,9 @@
       <c r="K331" s="9"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="22"/>
-      <c r="B332" s="32"/>
-      <c r="C332" s="32"/>
+      <c r="A332" s="18"/>
+      <c r="B332" s="28"/>
+      <c r="C332" s="28"/>
       <c r="D332" s="10"/>
       <c r="E332" s="10"/>
       <c r="F332" s="9"/>
@@ -11301,9 +11375,9 @@
       <c r="K332" s="9"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="22"/>
-      <c r="B333" s="32"/>
-      <c r="C333" s="32"/>
+      <c r="A333" s="18"/>
+      <c r="B333" s="28"/>
+      <c r="C333" s="28"/>
       <c r="D333" s="10"/>
       <c r="E333" s="10"/>
       <c r="F333" s="9"/>
@@ -11314,9 +11388,9 @@
       <c r="K333" s="9"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="22"/>
-      <c r="B334" s="32"/>
-      <c r="C334" s="32"/>
+      <c r="A334" s="18"/>
+      <c r="B334" s="28"/>
+      <c r="C334" s="28"/>
       <c r="D334" s="10"/>
       <c r="E334" s="10"/>
       <c r="F334" s="9"/>
@@ -11327,139 +11401,71 @@
       <c r="K334" s="9"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="22"/>
-      <c r="B335" s="26"/>
-      <c r="C335" s="26"/>
+      <c r="A335" s="18"/>
+      <c r="B335" s="22"/>
+      <c r="C335" s="22"/>
       <c r="D335" s="10"/>
       <c r="E335" s="10"/>
-      <c r="F335" s="26"/>
-      <c r="G335" s="26"/>
-      <c r="H335" s="26"/>
-      <c r="I335" s="26"/>
-      <c r="J335" s="26"/>
-      <c r="K335" s="26"/>
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
+      <c r="H335" s="22"/>
+      <c r="I335" s="22"/>
+      <c r="J335" s="22"/>
+      <c r="K335" s="22"/>
     </row>
     <row r="346" spans="14:28" ht="18" x14ac:dyDescent="0.35">
-      <c r="N346" s="15"/>
-      <c r="O346" s="16"/>
-      <c r="P346" s="16"/>
-      <c r="Q346" s="16"/>
-      <c r="R346" s="16"/>
-      <c r="S346" s="16"/>
-      <c r="T346" s="16"/>
-      <c r="U346" s="16"/>
-      <c r="V346" s="16"/>
-      <c r="W346" s="16"/>
-      <c r="X346" s="16"/>
-      <c r="Y346" s="16"/>
-      <c r="Z346" s="16"/>
-      <c r="AA346" s="16"/>
-      <c r="AB346" s="16"/>
+      <c r="N346" s="14"/>
+      <c r="O346" s="15"/>
+      <c r="P346" s="15"/>
+      <c r="Q346" s="15"/>
+      <c r="R346" s="15"/>
+      <c r="S346" s="15"/>
+      <c r="T346" s="15"/>
+      <c r="U346" s="15"/>
+      <c r="V346" s="15"/>
+      <c r="W346" s="15"/>
+      <c r="X346" s="15"/>
+      <c r="Y346" s="15"/>
+      <c r="Z346" s="15"/>
+      <c r="AA346" s="15"/>
+      <c r="AB346" s="15"/>
     </row>
     <row r="347" spans="14:28" x14ac:dyDescent="0.3">
-      <c r="N347" s="15"/>
-      <c r="O347" s="17"/>
-      <c r="P347" s="17"/>
-      <c r="Q347" s="17"/>
-      <c r="R347" s="17"/>
-      <c r="S347" s="17"/>
-      <c r="T347" s="17"/>
-      <c r="U347" s="17"/>
-      <c r="V347" s="17"/>
-      <c r="W347" s="17"/>
-      <c r="X347" s="17"/>
-      <c r="Y347" s="17"/>
-      <c r="Z347" s="17"/>
-      <c r="AA347" s="17"/>
-      <c r="AB347" s="17"/>
+      <c r="N347" s="14"/>
+      <c r="O347" s="16"/>
+      <c r="P347" s="16"/>
+      <c r="Q347" s="16"/>
+      <c r="R347" s="16"/>
+      <c r="S347" s="16"/>
+      <c r="T347" s="16"/>
+      <c r="U347" s="16"/>
+      <c r="V347" s="16"/>
+      <c r="W347" s="16"/>
+      <c r="X347" s="16"/>
+      <c r="Y347" s="16"/>
+      <c r="Z347" s="16"/>
+      <c r="AA347" s="16"/>
+      <c r="AB347" s="16"/>
     </row>
     <row r="348" spans="14:28" x14ac:dyDescent="0.3">
-      <c r="N348" s="15"/>
-      <c r="O348" s="18"/>
-      <c r="P348" s="18"/>
-      <c r="Q348" s="18"/>
-      <c r="R348" s="18"/>
-      <c r="S348" s="18"/>
-      <c r="T348" s="18"/>
-      <c r="U348" s="18"/>
-      <c r="V348" s="18"/>
-      <c r="W348" s="18"/>
-      <c r="X348" s="18"/>
-      <c r="Y348" s="18"/>
-      <c r="Z348" s="18"/>
-      <c r="AA348" s="18"/>
-      <c r="AB348" s="18"/>
+      <c r="N348" s="14"/>
+      <c r="O348" s="17"/>
+      <c r="P348" s="17"/>
+      <c r="Q348" s="17"/>
+      <c r="R348" s="17"/>
+      <c r="S348" s="17"/>
+      <c r="T348" s="17"/>
+      <c r="U348" s="17"/>
+      <c r="V348" s="17"/>
+      <c r="W348" s="17"/>
+      <c r="X348" s="17"/>
+      <c r="Y348" s="17"/>
+      <c r="Z348" s="17"/>
+      <c r="AA348" s="17"/>
+      <c r="AB348" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="B308:B319"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="B273:B281"/>
-    <mergeCell ref="C287:C292"/>
-    <mergeCell ref="B282:B292"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="B293:B302"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="B247:B256"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="B257:B266"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B193:B203"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B133:B146"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="B115:B132"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="B65:B81"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="C78:C80"/>
     <mergeCell ref="C236:C238"/>
     <mergeCell ref="B231:B241"/>
     <mergeCell ref="B242:B246"/>
@@ -11476,9 +11482,77 @@
     <mergeCell ref="B111:B114"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="B65:B81"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B115:B132"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="B133:B146"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B193:B203"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="B247:B256"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="B257:B266"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="B273:B281"/>
+    <mergeCell ref="C287:C292"/>
+    <mergeCell ref="B282:B292"/>
+    <mergeCell ref="C297:C300"/>
+    <mergeCell ref="B293:B302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="B308:B319"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G60:I246 G16:I57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I57 G60:I246">
       <formula1>$B$1:$B$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K61:K213">
@@ -11513,107 +11587,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G16:I20 G22:I23 G51:I52 G57:I57 G54:G56 G26:I49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{ABBBDEAC-7514-4793-BCA6-C6C92376FA80}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G21)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{58F638B7-FCA3-4355-89E8-329642E010BD}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G21)))</xm:f>
-            <xm:f>$B$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G21:I21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{F4FCC53B-A98A-496A-90F1-5BA7CB23BEF9}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G24)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{B5361F40-CD5A-40D5-9592-02B37645C854}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G24)))</xm:f>
-            <xm:f>$B$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G24:I25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{88DF8250-E4DA-405F-AF63-6C6C4A196AE1}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G50)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{D2EA85D8-F9E7-44BD-8969-9A8C0C1CC5BE}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G50)))</xm:f>
-            <xm:f>$B$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G50:I50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{DCC4C8D5-7D9A-48D5-8050-620E745704FF}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G53)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{0713B153-6DA5-48A7-B74D-205043D4F207}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G53)))</xm:f>
-            <xm:f>$B$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G53:I53 H54:I56</xm:sqref>
+          <xm:sqref>G16:I57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{35204DA0-4B38-4084-8FC8-7C958570859B}">

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChuyenDe12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="633">
   <si>
     <t>ID</t>
   </si>
@@ -2629,7 +2629,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2814,7 +2814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2894,21 +2894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2918,14 +2903,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2945,30 +2924,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2987,137 +2942,50 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -3452,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111:I114"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J271" sqref="J271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3493,11 +3361,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
@@ -3515,11 +3383,11 @@
       <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
@@ -3560,7 +3428,7 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -3589,7 +3457,7 @@
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="22" t="s">
         <v>23</v>
       </c>
@@ -3618,7 +3486,7 @@
       <c r="A18" s="18">
         <v>3</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="22" t="s">
         <v>27</v>
       </c>
@@ -3649,7 +3517,7 @@
       <c r="A19" s="18">
         <v>4</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="22" t="s">
         <v>23</v>
       </c>
@@ -3678,7 +3546,7 @@
       <c r="A20" s="18">
         <v>5</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="22" t="s">
         <v>54</v>
       </c>
@@ -3709,7 +3577,7 @@
       <c r="A21" s="18">
         <v>6</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="22" t="s">
         <v>59</v>
       </c>
@@ -3736,10 +3604,10 @@
       <c r="A22" s="18">
         <v>7</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="33" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -3765,8 +3633,8 @@
       <c r="A23" s="18">
         <v>8</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="10" t="s">
         <v>65</v>
       </c>
@@ -3790,8 +3658,8 @@
       <c r="A24" s="18">
         <v>9</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="33" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -3817,8 +3685,8 @@
       <c r="A25" s="18">
         <v>10</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="10" t="s">
         <v>65</v>
       </c>
@@ -3842,7 +3710,7 @@
       <c r="A26" s="18">
         <v>11</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="22" t="s">
         <v>72</v>
       </c>
@@ -3869,7 +3737,7 @@
       <c r="A27" s="18">
         <v>12</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="22" t="s">
         <v>73</v>
       </c>
@@ -3896,7 +3764,7 @@
       <c r="A28" s="18">
         <v>13</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="22" t="s">
         <v>74</v>
       </c>
@@ -3923,7 +3791,7 @@
       <c r="A29" s="18">
         <v>14</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="22" t="s">
         <v>76</v>
       </c>
@@ -3950,7 +3818,7 @@
       <c r="A30" s="18">
         <v>15</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="22" t="s">
         <v>78</v>
       </c>
@@ -3981,7 +3849,7 @@
       <c r="A31" s="18">
         <v>16</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="22" t="s">
         <v>79</v>
       </c>
@@ -4012,7 +3880,7 @@
       <c r="A32" s="18">
         <v>17</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="22" t="s">
         <v>79</v>
       </c>
@@ -4041,7 +3909,7 @@
       <c r="A33" s="18">
         <v>18</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="22" t="s">
         <v>84</v>
       </c>
@@ -4068,7 +3936,7 @@
       <c r="A34" s="18">
         <v>19</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="22" t="s">
         <v>85</v>
       </c>
@@ -4095,7 +3963,7 @@
       <c r="A35" s="18">
         <v>20</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="22" t="s">
         <v>88</v>
       </c>
@@ -4122,7 +3990,7 @@
       <c r="A36" s="18">
         <v>21</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="22" t="s">
         <v>88</v>
       </c>
@@ -4149,7 +4017,7 @@
       <c r="A37" s="18">
         <v>22</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="45" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -4178,7 +4046,7 @@
       <c r="A38" s="18">
         <v>23</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="22" t="s">
         <v>94</v>
       </c>
@@ -4207,7 +4075,7 @@
       <c r="A39" s="18">
         <v>24</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="22" t="s">
         <v>99</v>
       </c>
@@ -4236,7 +4104,7 @@
       <c r="A40" s="18">
         <v>25</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="22" t="s">
         <v>100</v>
       </c>
@@ -4265,7 +4133,7 @@
       <c r="A41" s="18">
         <v>26</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="22" t="s">
         <v>103</v>
       </c>
@@ -4294,7 +4162,7 @@
       <c r="A42" s="18">
         <v>27</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="22" t="s">
         <v>105</v>
       </c>
@@ -4321,7 +4189,7 @@
       <c r="A43" s="18">
         <v>28</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="22" t="s">
         <v>108</v>
       </c>
@@ -4348,7 +4216,7 @@
       <c r="A44" s="18">
         <v>29</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="45" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -4377,7 +4245,7 @@
       <c r="A45" s="18">
         <v>30</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="22" t="s">
         <v>113</v>
       </c>
@@ -4404,7 +4272,7 @@
       <c r="A46" s="18">
         <v>31</v>
       </c>
-      <c r="B46" s="47"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="22" t="s">
         <v>94</v>
       </c>
@@ -4433,7 +4301,7 @@
       <c r="A47" s="18">
         <v>32</v>
       </c>
-      <c r="B47" s="47"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="22" t="s">
         <v>99</v>
       </c>
@@ -4462,7 +4330,7 @@
       <c r="A48" s="18">
         <v>33</v>
       </c>
-      <c r="B48" s="47"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="22" t="s">
         <v>116</v>
       </c>
@@ -4491,7 +4359,7 @@
       <c r="A49" s="18">
         <v>34</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="22" t="s">
         <v>117</v>
       </c>
@@ -4520,7 +4388,7 @@
       <c r="A50" s="18">
         <v>35</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="39" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="22" t="s">
@@ -4549,7 +4417,7 @@
       <c r="A51" s="18">
         <v>36</v>
       </c>
-      <c r="B51" s="55"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="22" t="s">
         <v>94</v>
       </c>
@@ -4578,7 +4446,7 @@
       <c r="A52" s="18">
         <v>37</v>
       </c>
-      <c r="B52" s="56"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="22" t="s">
         <v>99</v>
       </c>
@@ -4605,7 +4473,7 @@
       <c r="A53" s="18">
         <v>38</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="45" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -4634,7 +4502,7 @@
       <c r="A54" s="18">
         <v>39</v>
       </c>
-      <c r="B54" s="47"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="22" t="s">
         <v>94</v>
       </c>
@@ -4663,7 +4531,7 @@
       <c r="A55" s="18">
         <v>40</v>
       </c>
-      <c r="B55" s="47"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="22" t="s">
         <v>99</v>
       </c>
@@ -4692,7 +4560,7 @@
       <c r="A56" s="18">
         <v>41</v>
       </c>
-      <c r="B56" s="47"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="22" t="s">
         <v>99</v>
       </c>
@@ -4721,7 +4589,7 @@
       <c r="A57" s="18">
         <v>42</v>
       </c>
-      <c r="B57" s="48"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="22" t="s">
         <v>99</v>
       </c>
@@ -4780,10 +4648,10 @@
       <c r="A60" s="18">
         <v>45</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="49" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -4809,8 +4677,8 @@
       <c r="A61" s="18">
         <v>46</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="10" t="s">
         <v>36</v>
       </c>
@@ -4834,8 +4702,8 @@
       <c r="A62" s="18">
         <v>47</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="10" t="s">
         <v>35</v>
       </c>
@@ -4859,8 +4727,8 @@
       <c r="A63" s="18">
         <v>48</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="10" t="s">
         <v>34</v>
       </c>
@@ -4884,8 +4752,8 @@
       <c r="A64" s="18">
         <v>49</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="10" t="s">
         <v>33</v>
       </c>
@@ -4909,10 +4777,10 @@
       <c r="A65" s="18">
         <v>50</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="49" t="s">
         <v>145</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -4938,8 +4806,8 @@
       <c r="A66" s="18">
         <v>51</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="10" t="s">
         <v>148</v>
       </c>
@@ -4963,8 +4831,8 @@
       <c r="A67" s="18">
         <v>52</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="10" t="s">
         <v>150</v>
       </c>
@@ -4990,8 +4858,8 @@
       <c r="A68" s="18">
         <v>53</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="10" t="s">
         <v>153</v>
       </c>
@@ -5017,8 +4885,8 @@
       <c r="A69" s="18">
         <v>54</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="10" t="s">
         <v>156</v>
       </c>
@@ -5044,8 +4912,8 @@
       <c r="A70" s="18">
         <v>55</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="10" t="s">
         <v>159</v>
       </c>
@@ -5071,8 +4939,8 @@
       <c r="A71" s="18">
         <v>56</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="51" t="s">
+      <c r="B71" s="48"/>
+      <c r="C71" s="49" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -5098,8 +4966,8 @@
       <c r="A72" s="18">
         <v>57</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="10" t="s">
         <v>162</v>
       </c>
@@ -5123,8 +4991,8 @@
       <c r="A73" s="18">
         <v>58</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="10" t="s">
         <v>164</v>
       </c>
@@ -5148,8 +5016,8 @@
       <c r="A74" s="18">
         <v>59</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="10" t="s">
         <v>166</v>
       </c>
@@ -5173,8 +5041,8 @@
       <c r="A75" s="18">
         <v>60</v>
       </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="10" t="s">
         <v>168</v>
       </c>
@@ -5198,8 +5066,8 @@
       <c r="A76" s="18">
         <v>61</v>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="10" t="s">
         <v>170</v>
       </c>
@@ -5223,7 +5091,7 @@
       <c r="A77" s="18">
         <v>62</v>
       </c>
-      <c r="B77" s="50"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="22" t="s">
         <v>172</v>
       </c>
@@ -5250,8 +5118,8 @@
       <c r="A78" s="18">
         <v>63</v>
       </c>
-      <c r="B78" s="50"/>
-      <c r="C78" s="51" t="s">
+      <c r="B78" s="48"/>
+      <c r="C78" s="49" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -5277,8 +5145,8 @@
       <c r="A79" s="18">
         <v>64</v>
       </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="51"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="10" t="s">
         <v>42</v>
       </c>
@@ -5302,8 +5170,8 @@
       <c r="A80" s="18">
         <v>65</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="51"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="10" t="s">
         <v>44</v>
       </c>
@@ -5327,7 +5195,7 @@
       <c r="A81" s="18">
         <v>66</v>
       </c>
-      <c r="B81" s="50"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="22"/>
       <c r="D81" s="10" t="s">
         <v>175</v>
@@ -5346,10 +5214,10 @@
       <c r="A82" s="18">
         <v>67</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="49" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -5377,8 +5245,8 @@
       <c r="A83" s="18">
         <v>68</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="10" t="s">
         <v>181</v>
       </c>
@@ -5402,8 +5270,8 @@
       <c r="A84" s="18">
         <v>69</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51" t="s">
+      <c r="B84" s="48"/>
+      <c r="C84" s="49" t="s">
         <v>183</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -5429,8 +5297,8 @@
       <c r="A85" s="18">
         <v>70</v>
       </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="49"/>
       <c r="D85" s="10" t="s">
         <v>186</v>
       </c>
@@ -5454,8 +5322,8 @@
       <c r="A86" s="18">
         <v>71</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="51"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="49"/>
       <c r="D86" s="10" t="s">
         <v>188</v>
       </c>
@@ -5479,8 +5347,8 @@
       <c r="A87" s="18">
         <v>72</v>
       </c>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="10" t="s">
         <v>190</v>
       </c>
@@ -5504,7 +5372,7 @@
       <c r="A88" s="18">
         <v>73</v>
       </c>
-      <c r="B88" s="50"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="22" t="s">
         <v>172</v>
       </c>
@@ -5531,7 +5399,7 @@
       <c r="A89" s="18">
         <v>74</v>
       </c>
-      <c r="B89" s="50"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="22"/>
       <c r="D89" s="10" t="s">
         <v>175</v>
@@ -5550,10 +5418,10 @@
       <c r="A90" s="18">
         <v>75</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="49" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -5579,8 +5447,8 @@
       <c r="A91" s="18">
         <v>76</v>
       </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="51"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="10" t="s">
         <v>181</v>
       </c>
@@ -5604,8 +5472,8 @@
       <c r="A92" s="18">
         <v>77</v>
       </c>
-      <c r="B92" s="50"/>
-      <c r="C92" s="51" t="s">
+      <c r="B92" s="48"/>
+      <c r="C92" s="49" t="s">
         <v>183</v>
       </c>
       <c r="D92" s="10" t="s">
@@ -5631,8 +5499,8 @@
       <c r="A93" s="18">
         <v>78</v>
       </c>
-      <c r="B93" s="50"/>
-      <c r="C93" s="51"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="10" t="s">
         <v>186</v>
       </c>
@@ -5656,8 +5524,8 @@
       <c r="A94" s="18">
         <v>79</v>
       </c>
-      <c r="B94" s="50"/>
-      <c r="C94" s="51"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="10" t="s">
         <v>188</v>
       </c>
@@ -5681,8 +5549,8 @@
       <c r="A95" s="18">
         <v>80</v>
       </c>
-      <c r="B95" s="50"/>
-      <c r="C95" s="51"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="10" t="s">
         <v>190</v>
       </c>
@@ -5706,7 +5574,7 @@
       <c r="A96" s="18">
         <v>81</v>
       </c>
-      <c r="B96" s="50"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="22" t="s">
         <v>172</v>
       </c>
@@ -5733,7 +5601,7 @@
       <c r="A97" s="18">
         <v>82</v>
       </c>
-      <c r="B97" s="50"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="22"/>
       <c r="D97" s="10" t="s">
         <v>175</v>
@@ -5752,7 +5620,7 @@
       <c r="A98" s="18">
         <v>83</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="22" t="s">
@@ -5781,7 +5649,7 @@
       <c r="A99" s="18">
         <v>84</v>
       </c>
-      <c r="B99" s="50"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="22"/>
       <c r="D99" s="10" t="s">
         <v>175</v>
@@ -5800,7 +5668,7 @@
       <c r="A100" s="18">
         <v>85</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="48" t="s">
         <v>196</v>
       </c>
       <c r="C100" s="22" t="s">
@@ -5829,7 +5697,7 @@
       <c r="A101" s="18">
         <v>86</v>
       </c>
-      <c r="B101" s="50"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="22" t="s">
         <v>172</v>
       </c>
@@ -5856,7 +5724,7 @@
       <c r="A102" s="18">
         <v>87</v>
       </c>
-      <c r="B102" s="50"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="22"/>
       <c r="D102" s="10" t="s">
         <v>175</v>
@@ -5875,7 +5743,7 @@
       <c r="A103" s="18">
         <v>88</v>
       </c>
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="48" t="s">
         <v>198</v>
       </c>
       <c r="C103" s="22" t="s">
@@ -5906,7 +5774,7 @@
       <c r="A104" s="18">
         <v>89</v>
       </c>
-      <c r="B104" s="50"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="22" t="s">
         <v>200</v>
       </c>
@@ -5935,8 +5803,8 @@
       <c r="A105" s="18">
         <v>90</v>
       </c>
-      <c r="B105" s="50"/>
-      <c r="C105" s="51" t="s">
+      <c r="B105" s="48"/>
+      <c r="C105" s="49" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="10" t="s">
@@ -5962,8 +5830,8 @@
       <c r="A106" s="18">
         <v>91</v>
       </c>
-      <c r="B106" s="50"/>
-      <c r="C106" s="51"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="10" t="s">
         <v>206</v>
       </c>
@@ -5987,8 +5855,8 @@
       <c r="A107" s="18">
         <v>92</v>
       </c>
-      <c r="B107" s="50"/>
-      <c r="C107" s="51"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="10" t="s">
         <v>207</v>
       </c>
@@ -6012,8 +5880,8 @@
       <c r="A108" s="18">
         <v>93</v>
       </c>
-      <c r="B108" s="50"/>
-      <c r="C108" s="51"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="10" t="s">
         <v>209</v>
       </c>
@@ -6037,7 +5905,7 @@
       <c r="A109" s="18">
         <v>94</v>
       </c>
-      <c r="B109" s="50"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="22" t="s">
         <v>210</v>
       </c>
@@ -6064,7 +5932,7 @@
       <c r="A110" s="18">
         <v>95</v>
       </c>
-      <c r="B110" s="50"/>
+      <c r="B110" s="48"/>
       <c r="C110" s="22"/>
       <c r="D110" s="10" t="s">
         <v>175</v>
@@ -6089,7 +5957,7 @@
       <c r="A111" s="18">
         <v>96</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="48" t="s">
         <v>213</v>
       </c>
       <c r="C111" s="22"/>
@@ -6103,10 +5971,10 @@
       <c r="G111" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I111" s="36" t="s">
+      <c r="H111" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J111" s="8"/>
@@ -6116,7 +5984,7 @@
       <c r="A112" s="18">
         <v>97</v>
       </c>
-      <c r="B112" s="50"/>
+      <c r="B112" s="48"/>
       <c r="C112" s="22"/>
       <c r="D112" s="10" t="s">
         <v>216</v>
@@ -6125,13 +5993,13 @@
         <v>217</v>
       </c>
       <c r="F112" s="10"/>
-      <c r="G112" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I112" s="36" t="s">
+      <c r="G112" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J112" s="8"/>
@@ -6141,7 +6009,7 @@
       <c r="A113" s="18">
         <v>98</v>
       </c>
-      <c r="B113" s="50"/>
+      <c r="B113" s="48"/>
       <c r="C113" s="22"/>
       <c r="D113" s="10" t="s">
         <v>218</v>
@@ -6150,13 +6018,13 @@
         <v>219</v>
       </c>
       <c r="F113" s="10"/>
-      <c r="G113" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H113" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I113" s="36" t="s">
+      <c r="G113" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J113" s="8"/>
@@ -6166,7 +6034,7 @@
       <c r="A114" s="18">
         <v>99</v>
       </c>
-      <c r="B114" s="50"/>
+      <c r="B114" s="48"/>
       <c r="C114" s="22"/>
       <c r="D114" s="10" t="s">
         <v>220</v>
@@ -6175,13 +6043,13 @@
         <v>221</v>
       </c>
       <c r="F114" s="10"/>
-      <c r="G114" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H114" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I114" s="36" t="s">
+      <c r="G114" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J114" s="8"/>
@@ -6191,7 +6059,7 @@
       <c r="A115" s="18">
         <v>100</v>
       </c>
-      <c r="B115" s="50" t="s">
+      <c r="B115" s="48" t="s">
         <v>222</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -6220,8 +6088,8 @@
       <c r="A116" s="18">
         <v>101</v>
       </c>
-      <c r="B116" s="50"/>
-      <c r="C116" s="51" t="s">
+      <c r="B116" s="48"/>
+      <c r="C116" s="49" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="10" t="s">
@@ -6247,8 +6115,8 @@
       <c r="A117" s="18">
         <v>102</v>
       </c>
-      <c r="B117" s="50"/>
-      <c r="C117" s="51"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="10" t="s">
         <v>229</v>
       </c>
@@ -6272,8 +6140,8 @@
       <c r="A118" s="18">
         <v>103</v>
       </c>
-      <c r="B118" s="50"/>
-      <c r="C118" s="51"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="49"/>
       <c r="D118" s="10" t="s">
         <v>231</v>
       </c>
@@ -6297,8 +6165,8 @@
       <c r="A119" s="18">
         <v>104</v>
       </c>
-      <c r="B119" s="50"/>
-      <c r="C119" s="51"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="49"/>
       <c r="D119" s="10" t="s">
         <v>233</v>
       </c>
@@ -6322,8 +6190,8 @@
       <c r="A120" s="18">
         <v>105</v>
       </c>
-      <c r="B120" s="50"/>
-      <c r="C120" s="51" t="s">
+      <c r="B120" s="48"/>
+      <c r="C120" s="49" t="s">
         <v>234</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -6349,8 +6217,8 @@
       <c r="A121" s="18">
         <v>106</v>
       </c>
-      <c r="B121" s="50"/>
-      <c r="C121" s="51"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="49"/>
       <c r="D121" s="10" t="s">
         <v>237</v>
       </c>
@@ -6374,8 +6242,8 @@
       <c r="A122" s="18">
         <v>107</v>
       </c>
-      <c r="B122" s="50"/>
-      <c r="C122" s="51"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="49"/>
       <c r="D122" s="10" t="s">
         <v>239</v>
       </c>
@@ -6399,8 +6267,8 @@
       <c r="A123" s="18">
         <v>108</v>
       </c>
-      <c r="B123" s="50"/>
-      <c r="C123" s="51"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="10" t="s">
         <v>240</v>
       </c>
@@ -6424,8 +6292,8 @@
       <c r="A124" s="18">
         <v>109</v>
       </c>
-      <c r="B124" s="50"/>
-      <c r="C124" s="51" t="s">
+      <c r="B124" s="48"/>
+      <c r="C124" s="49" t="s">
         <v>241</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -6451,8 +6319,8 @@
       <c r="A125" s="18">
         <v>110</v>
       </c>
-      <c r="B125" s="50"/>
-      <c r="C125" s="51"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="49"/>
       <c r="D125" s="10" t="s">
         <v>244</v>
       </c>
@@ -6476,8 +6344,8 @@
       <c r="A126" s="18">
         <v>111</v>
       </c>
-      <c r="B126" s="50"/>
-      <c r="C126" s="51"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="49"/>
       <c r="D126" s="10" t="s">
         <v>245</v>
       </c>
@@ -6501,8 +6369,8 @@
       <c r="A127" s="18">
         <v>112</v>
       </c>
-      <c r="B127" s="50"/>
-      <c r="C127" s="51" t="s">
+      <c r="B127" s="48"/>
+      <c r="C127" s="49" t="s">
         <v>247</v>
       </c>
       <c r="D127" s="10" t="s">
@@ -6528,8 +6396,8 @@
       <c r="A128" s="18">
         <v>113</v>
       </c>
-      <c r="B128" s="50"/>
-      <c r="C128" s="51"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="49"/>
       <c r="D128" s="10" t="s">
         <v>250</v>
       </c>
@@ -6553,8 +6421,8 @@
       <c r="A129" s="18">
         <v>114</v>
       </c>
-      <c r="B129" s="50"/>
-      <c r="C129" s="51" t="s">
+      <c r="B129" s="48"/>
+      <c r="C129" s="49" t="s">
         <v>252</v>
       </c>
       <c r="D129" s="10" t="s">
@@ -6580,8 +6448,8 @@
       <c r="A130" s="18">
         <v>115</v>
       </c>
-      <c r="B130" s="50"/>
-      <c r="C130" s="51"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="10" t="s">
         <v>255</v>
       </c>
@@ -6605,8 +6473,8 @@
       <c r="A131" s="18">
         <v>116</v>
       </c>
-      <c r="B131" s="50"/>
-      <c r="C131" s="51"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="49"/>
       <c r="D131" s="10" t="s">
         <v>257</v>
       </c>
@@ -6630,7 +6498,7 @@
       <c r="A132" s="18">
         <v>117</v>
       </c>
-      <c r="B132" s="50"/>
+      <c r="B132" s="48"/>
       <c r="C132" s="22"/>
       <c r="D132" s="23" t="s">
         <v>175</v>
@@ -6655,10 +6523,10 @@
       <c r="A133" s="18">
         <v>118</v>
       </c>
-      <c r="B133" s="50" t="s">
+      <c r="B133" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C133" s="51" t="s">
+      <c r="C133" s="49" t="s">
         <v>261</v>
       </c>
       <c r="D133" s="10" t="s">
@@ -6684,8 +6552,8 @@
       <c r="A134" s="18">
         <v>119</v>
       </c>
-      <c r="B134" s="50"/>
-      <c r="C134" s="51"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="49"/>
       <c r="D134" s="10" t="s">
         <v>264</v>
       </c>
@@ -6709,8 +6577,8 @@
       <c r="A135" s="18">
         <v>120</v>
       </c>
-      <c r="B135" s="50"/>
-      <c r="C135" s="51" t="s">
+      <c r="B135" s="48"/>
+      <c r="C135" s="49" t="s">
         <v>266</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6736,8 +6604,8 @@
       <c r="A136" s="18">
         <v>121</v>
       </c>
-      <c r="B136" s="50"/>
-      <c r="C136" s="51"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="49"/>
       <c r="D136" s="10" t="s">
         <v>269</v>
       </c>
@@ -6761,8 +6629,8 @@
       <c r="A137" s="18">
         <v>122</v>
       </c>
-      <c r="B137" s="50"/>
-      <c r="C137" s="51"/>
+      <c r="B137" s="48"/>
+      <c r="C137" s="49"/>
       <c r="D137" s="10" t="s">
         <v>270</v>
       </c>
@@ -6787,8 +6655,8 @@
       <c r="A138" s="18">
         <v>123</v>
       </c>
-      <c r="B138" s="50"/>
-      <c r="C138" s="51"/>
+      <c r="B138" s="48"/>
+      <c r="C138" s="49"/>
       <c r="D138" s="10" t="s">
         <v>271</v>
       </c>
@@ -6812,8 +6680,8 @@
       <c r="A139" s="18">
         <v>124</v>
       </c>
-      <c r="B139" s="50"/>
-      <c r="C139" s="51"/>
+      <c r="B139" s="48"/>
+      <c r="C139" s="49"/>
       <c r="D139" s="10" t="s">
         <v>272</v>
       </c>
@@ -6837,8 +6705,8 @@
       <c r="A140" s="18">
         <v>125</v>
       </c>
-      <c r="B140" s="50"/>
-      <c r="C140" s="51" t="s">
+      <c r="B140" s="48"/>
+      <c r="C140" s="49" t="s">
         <v>274</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -6864,8 +6732,8 @@
       <c r="A141" s="18">
         <v>126</v>
       </c>
-      <c r="B141" s="50"/>
-      <c r="C141" s="51"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="10" t="s">
         <v>277</v>
       </c>
@@ -6889,7 +6757,7 @@
       <c r="A142" s="18">
         <v>127</v>
       </c>
-      <c r="B142" s="50"/>
+      <c r="B142" s="48"/>
       <c r="C142" s="22" t="s">
         <v>279</v>
       </c>
@@ -6916,8 +6784,8 @@
       <c r="A143" s="18">
         <v>128</v>
       </c>
-      <c r="B143" s="50"/>
-      <c r="C143" s="51" t="s">
+      <c r="B143" s="48"/>
+      <c r="C143" s="49" t="s">
         <v>282</v>
       </c>
       <c r="D143" s="10" t="s">
@@ -6943,8 +6811,8 @@
       <c r="A144" s="18">
         <v>129</v>
       </c>
-      <c r="B144" s="50"/>
-      <c r="C144" s="51"/>
+      <c r="B144" s="48"/>
+      <c r="C144" s="49"/>
       <c r="D144" s="10" t="s">
         <v>285</v>
       </c>
@@ -6968,8 +6836,8 @@
       <c r="A145" s="18">
         <v>130</v>
       </c>
-      <c r="B145" s="50"/>
-      <c r="C145" s="51"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="49"/>
       <c r="D145" s="10" t="s">
         <v>287</v>
       </c>
@@ -6993,7 +6861,7 @@
       <c r="A146" s="18">
         <v>131</v>
       </c>
-      <c r="B146" s="50"/>
+      <c r="B146" s="48"/>
       <c r="C146" s="22"/>
       <c r="D146" s="10" t="s">
         <v>175</v>
@@ -7018,10 +6886,10 @@
       <c r="A147" s="18">
         <v>132</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="51" t="s">
+      <c r="C147" s="49" t="s">
         <v>290</v>
       </c>
       <c r="D147" s="10" t="s">
@@ -7047,8 +6915,8 @@
       <c r="A148" s="18">
         <v>133</v>
       </c>
-      <c r="B148" s="50"/>
-      <c r="C148" s="51"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="49"/>
       <c r="D148" s="10" t="s">
         <v>293</v>
       </c>
@@ -7072,7 +6940,7 @@
       <c r="A149" s="18">
         <v>134</v>
       </c>
-      <c r="B149" s="50"/>
+      <c r="B149" s="48"/>
       <c r="C149" s="22"/>
       <c r="D149" s="10" t="s">
         <v>175</v>
@@ -7097,10 +6965,10 @@
       <c r="A150" s="18">
         <v>135</v>
       </c>
-      <c r="B150" s="49" t="s">
+      <c r="B150" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="C150" s="40" t="s">
+      <c r="C150" s="33" t="s">
         <v>296</v>
       </c>
       <c r="D150" s="10" t="s">
@@ -7126,8 +6994,8 @@
       <c r="A151" s="18">
         <v>136</v>
       </c>
-      <c r="B151" s="47"/>
-      <c r="C151" s="41"/>
+      <c r="B151" s="46"/>
+      <c r="C151" s="34"/>
       <c r="D151" s="10" t="s">
         <v>299</v>
       </c>
@@ -7151,8 +7019,8 @@
       <c r="A152" s="18">
         <v>137</v>
       </c>
-      <c r="B152" s="47"/>
-      <c r="C152" s="41"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="34"/>
       <c r="D152" s="10" t="s">
         <v>301</v>
       </c>
@@ -7176,8 +7044,8 @@
       <c r="A153" s="18">
         <v>138</v>
       </c>
-      <c r="B153" s="47"/>
-      <c r="C153" s="42"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="35"/>
       <c r="D153" s="10" t="s">
         <v>303</v>
       </c>
@@ -7201,8 +7069,8 @@
       <c r="A154" s="18">
         <v>139</v>
       </c>
-      <c r="B154" s="47"/>
-      <c r="C154" s="40" t="s">
+      <c r="B154" s="46"/>
+      <c r="C154" s="33" t="s">
         <v>290</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -7228,8 +7096,8 @@
       <c r="A155" s="18">
         <v>140</v>
       </c>
-      <c r="B155" s="47"/>
-      <c r="C155" s="42"/>
+      <c r="B155" s="46"/>
+      <c r="C155" s="35"/>
       <c r="D155" s="10" t="s">
         <v>307</v>
       </c>
@@ -7253,7 +7121,7 @@
       <c r="A156" s="18">
         <v>141</v>
       </c>
-      <c r="B156" s="48"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="22"/>
       <c r="D156" s="10" t="s">
         <v>175</v>
@@ -7278,7 +7146,7 @@
       <c r="A157" s="18">
         <v>142</v>
       </c>
-      <c r="B157" s="49" t="s">
+      <c r="B157" s="45" t="s">
         <v>309</v>
       </c>
       <c r="C157" s="22" t="s">
@@ -7307,7 +7175,7 @@
       <c r="A158" s="18">
         <v>143</v>
       </c>
-      <c r="B158" s="47"/>
+      <c r="B158" s="46"/>
       <c r="C158" s="22" t="s">
         <v>313</v>
       </c>
@@ -7334,7 +7202,7 @@
       <c r="A159" s="18">
         <v>144</v>
       </c>
-      <c r="B159" s="47"/>
+      <c r="B159" s="46"/>
       <c r="C159" s="22" t="s">
         <v>316</v>
       </c>
@@ -7361,7 +7229,7 @@
       <c r="A160" s="18">
         <v>145</v>
       </c>
-      <c r="B160" s="48"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="22"/>
       <c r="D160" s="10" t="s">
         <v>175</v>
@@ -7386,7 +7254,7 @@
       <c r="A161" s="18">
         <v>146</v>
       </c>
-      <c r="B161" s="49" t="s">
+      <c r="B161" s="45" t="s">
         <v>320</v>
       </c>
       <c r="C161" s="22" t="s">
@@ -7415,8 +7283,8 @@
       <c r="A162" s="18">
         <v>147</v>
       </c>
-      <c r="B162" s="47"/>
-      <c r="C162" s="40" t="s">
+      <c r="B162" s="46"/>
+      <c r="C162" s="33" t="s">
         <v>322</v>
       </c>
       <c r="D162" s="10" t="s">
@@ -7442,8 +7310,8 @@
       <c r="A163" s="18">
         <v>148</v>
       </c>
-      <c r="B163" s="47"/>
-      <c r="C163" s="42"/>
+      <c r="B163" s="46"/>
+      <c r="C163" s="35"/>
       <c r="D163" s="10" t="s">
         <v>325</v>
       </c>
@@ -7467,8 +7335,8 @@
       <c r="A164" s="18">
         <v>149</v>
       </c>
-      <c r="B164" s="47"/>
-      <c r="C164" s="40" t="s">
+      <c r="B164" s="46"/>
+      <c r="C164" s="33" t="s">
         <v>327</v>
       </c>
       <c r="D164" s="10" t="s">
@@ -7494,8 +7362,8 @@
       <c r="A165" s="18">
         <v>150</v>
       </c>
-      <c r="B165" s="47"/>
-      <c r="C165" s="42"/>
+      <c r="B165" s="46"/>
+      <c r="C165" s="35"/>
       <c r="D165" s="10" t="s">
         <v>328</v>
       </c>
@@ -7519,7 +7387,7 @@
       <c r="A166" s="18">
         <v>151</v>
       </c>
-      <c r="B166" s="47"/>
+      <c r="B166" s="46"/>
       <c r="C166" s="22" t="s">
         <v>331</v>
       </c>
@@ -7546,8 +7414,8 @@
       <c r="A167" s="18">
         <v>152</v>
       </c>
-      <c r="B167" s="47"/>
-      <c r="C167" s="40" t="s">
+      <c r="B167" s="46"/>
+      <c r="C167" s="33" t="s">
         <v>334</v>
       </c>
       <c r="D167" s="10" t="s">
@@ -7573,8 +7441,8 @@
       <c r="A168" s="18">
         <v>153</v>
       </c>
-      <c r="B168" s="47"/>
-      <c r="C168" s="42"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="35"/>
       <c r="D168" s="10" t="s">
         <v>338</v>
       </c>
@@ -7598,8 +7466,8 @@
       <c r="A169" s="18">
         <v>154</v>
       </c>
-      <c r="B169" s="47"/>
-      <c r="C169" s="40" t="s">
+      <c r="B169" s="46"/>
+      <c r="C169" s="33" t="s">
         <v>337</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -7625,8 +7493,8 @@
       <c r="A170" s="18">
         <v>155</v>
       </c>
-      <c r="B170" s="47"/>
-      <c r="C170" s="42"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="35"/>
       <c r="D170" s="10" t="s">
         <v>340</v>
       </c>
@@ -7650,8 +7518,8 @@
       <c r="A171" s="18">
         <v>156</v>
       </c>
-      <c r="B171" s="47"/>
-      <c r="C171" s="40" t="s">
+      <c r="B171" s="46"/>
+      <c r="C171" s="33" t="s">
         <v>344</v>
       </c>
       <c r="D171" s="10" t="s">
@@ -7677,8 +7545,8 @@
       <c r="A172" s="18">
         <v>157</v>
       </c>
-      <c r="B172" s="47"/>
-      <c r="C172" s="41"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="34"/>
       <c r="D172" s="10" t="s">
         <v>347</v>
       </c>
@@ -7702,8 +7570,8 @@
       <c r="A173" s="18">
         <v>158</v>
       </c>
-      <c r="B173" s="47"/>
-      <c r="C173" s="42"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="35"/>
       <c r="D173" s="10" t="s">
         <v>349</v>
       </c>
@@ -7727,8 +7595,8 @@
       <c r="A174" s="18">
         <v>159</v>
       </c>
-      <c r="B174" s="47"/>
-      <c r="C174" s="40" t="s">
+      <c r="B174" s="46"/>
+      <c r="C174" s="33" t="s">
         <v>351</v>
       </c>
       <c r="D174" s="10" t="s">
@@ -7754,8 +7622,8 @@
       <c r="A175" s="18">
         <v>160</v>
       </c>
-      <c r="B175" s="47"/>
-      <c r="C175" s="42"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="35"/>
       <c r="D175" s="10" t="s">
         <v>352</v>
       </c>
@@ -7779,7 +7647,7 @@
       <c r="A176" s="18">
         <v>161</v>
       </c>
-      <c r="B176" s="47" t="s">
+      <c r="B176" s="46" t="s">
         <v>355</v>
       </c>
       <c r="C176" s="22" t="s">
@@ -7808,7 +7676,7 @@
       <c r="A177" s="18">
         <v>162</v>
       </c>
-      <c r="B177" s="47"/>
+      <c r="B177" s="46"/>
       <c r="C177" s="22" t="s">
         <v>356</v>
       </c>
@@ -7835,8 +7703,8 @@
       <c r="A178" s="18">
         <v>163</v>
       </c>
-      <c r="B178" s="47"/>
-      <c r="C178" s="40" t="s">
+      <c r="B178" s="46"/>
+      <c r="C178" s="33" t="s">
         <v>360</v>
       </c>
       <c r="D178" s="10" t="s">
@@ -7862,8 +7730,8 @@
       <c r="A179" s="18">
         <v>164</v>
       </c>
-      <c r="B179" s="48"/>
-      <c r="C179" s="42"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="35"/>
       <c r="D179" s="10" t="s">
         <v>362</v>
       </c>
@@ -7887,14 +7755,14 @@
       <c r="A180" s="18">
         <v>165</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C180" s="30"/>
-      <c r="D180" s="29" t="s">
+      <c r="C180" s="32"/>
+      <c r="D180" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E180" s="29" t="s">
+      <c r="E180" s="10" t="s">
         <v>366</v>
       </c>
       <c r="F180" s="8"/>
@@ -7914,12 +7782,12 @@
       <c r="A181" s="18">
         <v>166</v>
       </c>
-      <c r="B181" s="46"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="29" t="s">
+      <c r="B181" s="48"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="E181" s="29" t="s">
+      <c r="E181" s="10" t="s">
         <v>368</v>
       </c>
       <c r="F181" s="8"/>
@@ -7939,12 +7807,12 @@
       <c r="A182" s="18">
         <v>167</v>
       </c>
-      <c r="B182" s="46"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="29" t="s">
+      <c r="B182" s="48"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="E182" s="32" t="s">
+      <c r="E182" s="55" t="s">
         <v>370</v>
       </c>
       <c r="F182" s="8"/>
@@ -7964,12 +7832,12 @@
       <c r="A183" s="18">
         <v>168</v>
       </c>
-      <c r="B183" s="46"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="29" t="s">
+      <c r="B183" s="48"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="E183" s="29" t="s">
+      <c r="E183" s="10" t="s">
         <v>372</v>
       </c>
       <c r="F183" s="8"/>
@@ -7989,16 +7857,16 @@
       <c r="A184" s="18">
         <v>169</v>
       </c>
-      <c r="B184" s="46" t="s">
+      <c r="B184" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="C184" s="30" t="s">
+      <c r="C184" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="D184" s="29" t="s">
+      <c r="D184" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E184" s="29" t="s">
+      <c r="E184" s="10" t="s">
         <v>376</v>
       </c>
       <c r="F184" s="8"/>
@@ -8018,14 +7886,14 @@
       <c r="A185" s="18">
         <v>170</v>
       </c>
-      <c r="B185" s="46"/>
-      <c r="C185" s="30" t="s">
+      <c r="B185" s="48"/>
+      <c r="C185" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="D185" s="29" t="s">
+      <c r="D185" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="E185" s="29" t="s">
+      <c r="E185" s="10" t="s">
         <v>379</v>
       </c>
       <c r="F185" s="8"/>
@@ -8045,14 +7913,14 @@
       <c r="A186" s="18">
         <v>171</v>
       </c>
-      <c r="B186" s="46"/>
-      <c r="C186" s="30" t="s">
+      <c r="B186" s="48"/>
+      <c r="C186" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="D186" s="29" t="s">
+      <c r="D186" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E186" s="29" t="s">
+      <c r="E186" s="10" t="s">
         <v>382</v>
       </c>
       <c r="F186" s="8"/>
@@ -8072,14 +7940,14 @@
       <c r="A187" s="18">
         <v>172</v>
       </c>
-      <c r="B187" s="46"/>
-      <c r="C187" s="30" t="s">
+      <c r="B187" s="48"/>
+      <c r="C187" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="D187" s="29" t="s">
+      <c r="D187" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="E187" s="29" t="s">
+      <c r="E187" s="10" t="s">
         <v>385</v>
       </c>
       <c r="F187" s="8"/>
@@ -8099,16 +7967,16 @@
       <c r="A188" s="18">
         <v>173</v>
       </c>
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="C188" s="30" t="s">
+      <c r="C188" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="D188" s="29" t="s">
+      <c r="D188" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E188" s="29" t="s">
+      <c r="E188" s="10" t="s">
         <v>389</v>
       </c>
       <c r="F188" s="8"/>
@@ -8128,14 +7996,14 @@
       <c r="A189" s="18">
         <v>174</v>
       </c>
-      <c r="B189" s="46"/>
-      <c r="C189" s="30" t="s">
+      <c r="B189" s="48"/>
+      <c r="C189" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="D189" s="29" t="s">
+      <c r="D189" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E189" s="29" t="s">
+      <c r="E189" s="10" t="s">
         <v>392</v>
       </c>
       <c r="F189" s="8"/>
@@ -8155,14 +8023,14 @@
       <c r="A190" s="18">
         <v>175</v>
       </c>
-      <c r="B190" s="46"/>
-      <c r="C190" s="30" t="s">
+      <c r="B190" s="48"/>
+      <c r="C190" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="D190" s="29" t="s">
+      <c r="D190" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E190" s="33" t="s">
+      <c r="E190" s="56" t="s">
         <v>395</v>
       </c>
       <c r="F190" s="8"/>
@@ -8182,14 +8050,14 @@
       <c r="A191" s="18">
         <v>176</v>
       </c>
-      <c r="B191" s="46"/>
-      <c r="C191" s="30" t="s">
+      <c r="B191" s="48"/>
+      <c r="C191" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="D191" s="29" t="s">
+      <c r="D191" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E191" s="33" t="s">
+      <c r="E191" s="56" t="s">
         <v>397</v>
       </c>
       <c r="F191" s="8"/>
@@ -8209,14 +8077,14 @@
       <c r="A192" s="18">
         <v>177</v>
       </c>
-      <c r="B192" s="46"/>
-      <c r="C192" s="30" t="s">
+      <c r="B192" s="48"/>
+      <c r="C192" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="D192" s="29" t="s">
+      <c r="D192" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E192" s="29" t="s">
+      <c r="E192" s="10" t="s">
         <v>399</v>
       </c>
       <c r="F192" s="8"/>
@@ -8236,16 +8104,16 @@
       <c r="A193" s="18">
         <v>178</v>
       </c>
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="C193" s="30" t="s">
+      <c r="C193" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="D193" s="29" t="s">
+      <c r="D193" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="E193" s="29" t="s">
+      <c r="E193" s="10" t="s">
         <v>403</v>
       </c>
       <c r="F193" s="8"/>
@@ -8265,12 +8133,12 @@
       <c r="A194" s="18">
         <v>179</v>
       </c>
-      <c r="B194" s="46"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="29" t="s">
+      <c r="B194" s="48"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E194" s="29" t="s">
+      <c r="E194" s="10" t="s">
         <v>405</v>
       </c>
       <c r="F194" s="8"/>
@@ -8290,12 +8158,12 @@
       <c r="A195" s="18">
         <v>180</v>
       </c>
-      <c r="B195" s="46"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="29" t="s">
+      <c r="B195" s="48"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="E195" s="29" t="s">
+      <c r="E195" s="10" t="s">
         <v>407</v>
       </c>
       <c r="F195" s="8"/>
@@ -8315,12 +8183,12 @@
       <c r="A196" s="18">
         <v>181</v>
       </c>
-      <c r="B196" s="46"/>
-      <c r="C196" s="30"/>
-      <c r="D196" s="29" t="s">
+      <c r="B196" s="48"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="E196" s="29" t="s">
+      <c r="E196" s="10" t="s">
         <v>409</v>
       </c>
       <c r="F196" s="8"/>
@@ -8340,14 +8208,14 @@
       <c r="A197" s="18">
         <v>182</v>
       </c>
-      <c r="B197" s="46"/>
-      <c r="C197" s="30" t="s">
+      <c r="B197" s="48"/>
+      <c r="C197" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="D197" s="29" t="s">
+      <c r="D197" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="E197" s="29" t="s">
+      <c r="E197" s="10" t="s">
         <v>412</v>
       </c>
       <c r="F197" s="8"/>
@@ -8367,14 +8235,14 @@
       <c r="A198" s="18">
         <v>183</v>
       </c>
-      <c r="B198" s="46"/>
-      <c r="C198" s="30" t="s">
+      <c r="B198" s="48"/>
+      <c r="C198" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="D198" s="29" t="s">
+      <c r="D198" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="E198" s="29" t="s">
+      <c r="E198" s="10" t="s">
         <v>415</v>
       </c>
       <c r="F198" s="8"/>
@@ -8394,12 +8262,12 @@
       <c r="A199" s="18">
         <v>184</v>
       </c>
-      <c r="B199" s="46"/>
-      <c r="C199" s="30"/>
-      <c r="D199" s="29" t="s">
+      <c r="B199" s="48"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E199" s="29" t="s">
+      <c r="E199" s="10" t="s">
         <v>417</v>
       </c>
       <c r="F199" s="8"/>
@@ -8419,12 +8287,12 @@
       <c r="A200" s="18">
         <v>185</v>
       </c>
-      <c r="B200" s="46"/>
-      <c r="C200" s="30"/>
-      <c r="D200" s="29" t="s">
+      <c r="B200" s="48"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="E200" s="29" t="s">
+      <c r="E200" s="10" t="s">
         <v>419</v>
       </c>
       <c r="F200" s="8"/>
@@ -8444,14 +8312,14 @@
       <c r="A201" s="18">
         <v>186</v>
       </c>
-      <c r="B201" s="46"/>
-      <c r="C201" s="30" t="s">
+      <c r="B201" s="48"/>
+      <c r="C201" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="D201" s="29" t="s">
+      <c r="D201" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E201" s="29" t="s">
+      <c r="E201" s="10" t="s">
         <v>421</v>
       </c>
       <c r="F201" s="8"/>
@@ -8471,14 +8339,14 @@
       <c r="A202" s="18">
         <v>187</v>
       </c>
-      <c r="B202" s="46"/>
-      <c r="C202" s="30" t="s">
+      <c r="B202" s="48"/>
+      <c r="C202" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="D202" s="29" t="s">
+      <c r="D202" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E202" s="29" t="s">
+      <c r="E202" s="10" t="s">
         <v>422</v>
       </c>
       <c r="F202" s="8"/>
@@ -8498,14 +8366,14 @@
       <c r="A203" s="18">
         <v>188</v>
       </c>
-      <c r="B203" s="46"/>
-      <c r="C203" s="30" t="s">
+      <c r="B203" s="48"/>
+      <c r="C203" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="D203" s="29" t="s">
+      <c r="D203" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E203" s="29" t="s">
+      <c r="E203" s="10" t="s">
         <v>424</v>
       </c>
       <c r="F203" s="8"/>
@@ -8525,16 +8393,16 @@
       <c r="A204" s="18">
         <v>189</v>
       </c>
-      <c r="B204" s="46" t="s">
+      <c r="B204" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="C204" s="30" t="s">
+      <c r="C204" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="D204" s="29" t="s">
+      <c r="D204" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E204" s="29" t="s">
+      <c r="E204" s="10" t="s">
         <v>426</v>
       </c>
       <c r="F204" s="8"/>
@@ -8554,12 +8422,12 @@
       <c r="A205" s="18">
         <v>190</v>
       </c>
-      <c r="B205" s="46"/>
-      <c r="C205" s="30"/>
-      <c r="D205" s="29" t="s">
+      <c r="B205" s="48"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E205" s="33" t="s">
+      <c r="E205" s="56" t="s">
         <v>427</v>
       </c>
       <c r="F205" s="8"/>
@@ -8579,14 +8447,14 @@
       <c r="A206" s="18">
         <v>191</v>
       </c>
-      <c r="B206" s="46"/>
-      <c r="C206" s="30" t="s">
+      <c r="B206" s="48"/>
+      <c r="C206" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="D206" s="29" t="s">
+      <c r="D206" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E206" s="29" t="s">
+      <c r="E206" s="10" t="s">
         <v>428</v>
       </c>
       <c r="F206" s="8"/>
@@ -8606,14 +8474,14 @@
       <c r="A207" s="18">
         <v>192</v>
       </c>
-      <c r="B207" s="46"/>
-      <c r="C207" s="30" t="s">
+      <c r="B207" s="48"/>
+      <c r="C207" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="D207" s="29" t="s">
+      <c r="D207" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="E207" s="33" t="s">
+      <c r="E207" s="56" t="s">
         <v>431</v>
       </c>
       <c r="F207" s="8"/>
@@ -8633,14 +8501,14 @@
       <c r="A208" s="18">
         <v>193</v>
       </c>
-      <c r="B208" s="46"/>
-      <c r="C208" s="31" t="s">
+      <c r="B208" s="48"/>
+      <c r="C208" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="D208" s="29" t="s">
+      <c r="D208" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="E208" s="29" t="s">
+      <c r="E208" s="10" t="s">
         <v>434</v>
       </c>
       <c r="F208" s="8"/>
@@ -8660,7 +8528,7 @@
       <c r="A209" s="18">
         <v>194</v>
       </c>
-      <c r="B209" s="49" t="s">
+      <c r="B209" s="45" t="s">
         <v>435</v>
       </c>
       <c r="C209" s="22" t="s">
@@ -8689,8 +8557,8 @@
       <c r="A210" s="18">
         <v>195</v>
       </c>
-      <c r="B210" s="47"/>
-      <c r="C210" s="40" t="s">
+      <c r="B210" s="46"/>
+      <c r="C210" s="33" t="s">
         <v>438</v>
       </c>
       <c r="D210" s="10" t="s">
@@ -8716,8 +8584,8 @@
       <c r="A211" s="18">
         <v>196</v>
       </c>
-      <c r="B211" s="47"/>
-      <c r="C211" s="41"/>
+      <c r="B211" s="46"/>
+      <c r="C211" s="34"/>
       <c r="D211" s="10" t="s">
         <v>441</v>
       </c>
@@ -8741,8 +8609,8 @@
       <c r="A212" s="18">
         <v>197</v>
       </c>
-      <c r="B212" s="47"/>
-      <c r="C212" s="42"/>
+      <c r="B212" s="46"/>
+      <c r="C212" s="35"/>
       <c r="D212" s="10" t="s">
         <v>443</v>
       </c>
@@ -8766,7 +8634,7 @@
       <c r="A213" s="18">
         <v>198</v>
       </c>
-      <c r="B213" s="47"/>
+      <c r="B213" s="46"/>
       <c r="C213" s="22" t="s">
         <v>445</v>
       </c>
@@ -8793,7 +8661,7 @@
       <c r="A214" s="18">
         <v>199</v>
       </c>
-      <c r="B214" s="47"/>
+      <c r="B214" s="46"/>
       <c r="C214" s="22" t="s">
         <v>448</v>
       </c>
@@ -8820,8 +8688,8 @@
       <c r="A215" s="18">
         <v>200</v>
       </c>
-      <c r="B215" s="47"/>
-      <c r="C215" s="40" t="s">
+      <c r="B215" s="46"/>
+      <c r="C215" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D215" s="10" t="s">
@@ -8847,8 +8715,8 @@
       <c r="A216" s="18">
         <v>201</v>
       </c>
-      <c r="B216" s="47"/>
-      <c r="C216" s="41"/>
+      <c r="B216" s="46"/>
+      <c r="C216" s="34"/>
       <c r="D216" s="10" t="s">
         <v>452</v>
       </c>
@@ -8872,8 +8740,8 @@
       <c r="A217" s="18">
         <v>202</v>
       </c>
-      <c r="B217" s="47"/>
-      <c r="C217" s="42"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="35"/>
       <c r="D217" s="10" t="s">
         <v>452</v>
       </c>
@@ -8897,7 +8765,7 @@
       <c r="A218" s="18">
         <v>203</v>
       </c>
-      <c r="B218" s="47"/>
+      <c r="B218" s="46"/>
       <c r="C218" s="22" t="s">
         <v>398</v>
       </c>
@@ -8924,7 +8792,7 @@
       <c r="A219" s="18">
         <v>204</v>
       </c>
-      <c r="B219" s="47"/>
+      <c r="B219" s="46"/>
       <c r="C219" s="22" t="s">
         <v>423</v>
       </c>
@@ -8951,7 +8819,7 @@
       <c r="A220" s="18">
         <v>205</v>
       </c>
-      <c r="B220" s="48"/>
+      <c r="B220" s="47"/>
       <c r="C220" s="22" t="s">
         <v>459</v>
       </c>
@@ -8978,7 +8846,7 @@
       <c r="A221" s="18">
         <v>206</v>
       </c>
-      <c r="B221" s="57" t="s">
+      <c r="B221" s="42" t="s">
         <v>462</v>
       </c>
       <c r="C221" s="22" t="s">
@@ -9007,8 +8875,8 @@
       <c r="A222" s="18">
         <v>207</v>
       </c>
-      <c r="B222" s="58"/>
-      <c r="C222" s="40" t="s">
+      <c r="B222" s="43"/>
+      <c r="C222" s="33" t="s">
         <v>438</v>
       </c>
       <c r="D222" s="10" t="s">
@@ -9034,8 +8902,8 @@
       <c r="A223" s="18">
         <v>208</v>
       </c>
-      <c r="B223" s="58"/>
-      <c r="C223" s="41"/>
+      <c r="B223" s="43"/>
+      <c r="C223" s="34"/>
       <c r="D223" s="10" t="s">
         <v>475</v>
       </c>
@@ -9059,8 +8927,8 @@
       <c r="A224" s="18">
         <v>209</v>
       </c>
-      <c r="B224" s="58"/>
-      <c r="C224" s="42"/>
+      <c r="B224" s="43"/>
+      <c r="C224" s="35"/>
       <c r="D224" s="10" t="s">
         <v>475</v>
       </c>
@@ -9084,7 +8952,7 @@
       <c r="A225" s="18">
         <v>210</v>
       </c>
-      <c r="B225" s="58"/>
+      <c r="B225" s="43"/>
       <c r="C225" s="22" t="s">
         <v>448</v>
       </c>
@@ -9111,8 +8979,8 @@
       <c r="A226" s="18">
         <v>211</v>
       </c>
-      <c r="B226" s="58"/>
-      <c r="C226" s="40" t="s">
+      <c r="B226" s="43"/>
+      <c r="C226" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D226" s="10" t="s">
@@ -9138,8 +9006,8 @@
       <c r="A227" s="18">
         <v>212</v>
       </c>
-      <c r="B227" s="58"/>
-      <c r="C227" s="41"/>
+      <c r="B227" s="43"/>
+      <c r="C227" s="34"/>
       <c r="D227" s="10" t="s">
         <v>477</v>
       </c>
@@ -9163,8 +9031,8 @@
       <c r="A228" s="18">
         <v>213</v>
       </c>
-      <c r="B228" s="58"/>
-      <c r="C228" s="42"/>
+      <c r="B228" s="43"/>
+      <c r="C228" s="35"/>
       <c r="D228" s="10" t="s">
         <v>477</v>
       </c>
@@ -9188,7 +9056,7 @@
       <c r="A229" s="18">
         <v>214</v>
       </c>
-      <c r="B229" s="58"/>
+      <c r="B229" s="43"/>
       <c r="C229" s="22" t="s">
         <v>398</v>
       </c>
@@ -9215,7 +9083,7 @@
       <c r="A230" s="18">
         <v>215</v>
       </c>
-      <c r="B230" s="59"/>
+      <c r="B230" s="44"/>
       <c r="C230" s="22" t="s">
         <v>423</v>
       </c>
@@ -9242,7 +9110,7 @@
       <c r="A231" s="18">
         <v>216</v>
       </c>
-      <c r="B231" s="43" t="s">
+      <c r="B231" s="36" t="s">
         <v>465</v>
       </c>
       <c r="C231" s="22" t="s">
@@ -9271,8 +9139,8 @@
       <c r="A232" s="18">
         <v>217</v>
       </c>
-      <c r="B232" s="44"/>
-      <c r="C232" s="40" t="s">
+      <c r="B232" s="37"/>
+      <c r="C232" s="33" t="s">
         <v>438</v>
       </c>
       <c r="D232" s="10" t="s">
@@ -9298,8 +9166,8 @@
       <c r="A233" s="18">
         <v>218</v>
       </c>
-      <c r="B233" s="44"/>
-      <c r="C233" s="41"/>
+      <c r="B233" s="37"/>
+      <c r="C233" s="34"/>
       <c r="D233" s="10" t="s">
         <v>469</v>
       </c>
@@ -9323,8 +9191,8 @@
       <c r="A234" s="18">
         <v>219</v>
       </c>
-      <c r="B234" s="44"/>
-      <c r="C234" s="42"/>
+      <c r="B234" s="37"/>
+      <c r="C234" s="35"/>
       <c r="D234" s="10" t="s">
         <v>469</v>
       </c>
@@ -9348,7 +9216,7 @@
       <c r="A235" s="18">
         <v>220</v>
       </c>
-      <c r="B235" s="44"/>
+      <c r="B235" s="37"/>
       <c r="C235" s="22" t="s">
         <v>448</v>
       </c>
@@ -9375,8 +9243,8 @@
       <c r="A236" s="18">
         <v>221</v>
       </c>
-      <c r="B236" s="44"/>
-      <c r="C236" s="40" t="s">
+      <c r="B236" s="37"/>
+      <c r="C236" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D236" s="10" t="s">
@@ -9402,8 +9270,8 @@
       <c r="A237" s="18">
         <v>222</v>
       </c>
-      <c r="B237" s="44"/>
-      <c r="C237" s="41"/>
+      <c r="B237" s="37"/>
+      <c r="C237" s="34"/>
       <c r="D237" s="10" t="s">
         <v>471</v>
       </c>
@@ -9427,8 +9295,8 @@
       <c r="A238" s="18">
         <v>223</v>
       </c>
-      <c r="B238" s="44"/>
-      <c r="C238" s="42"/>
+      <c r="B238" s="37"/>
+      <c r="C238" s="35"/>
       <c r="D238" s="10" t="s">
         <v>471</v>
       </c>
@@ -9452,7 +9320,7 @@
       <c r="A239" s="18">
         <v>224</v>
       </c>
-      <c r="B239" s="44"/>
+      <c r="B239" s="37"/>
       <c r="C239" s="22" t="s">
         <v>398</v>
       </c>
@@ -9479,7 +9347,7 @@
       <c r="A240" s="18">
         <v>225</v>
       </c>
-      <c r="B240" s="44"/>
+      <c r="B240" s="37"/>
       <c r="C240" s="22" t="s">
         <v>423</v>
       </c>
@@ -9506,7 +9374,7 @@
       <c r="A241" s="18">
         <v>226</v>
       </c>
-      <c r="B241" s="45"/>
+      <c r="B241" s="38"/>
       <c r="C241" s="22" t="s">
         <v>445</v>
       </c>
@@ -9533,7 +9401,7 @@
       <c r="A242" s="18">
         <v>227</v>
       </c>
-      <c r="B242" s="43" t="s">
+      <c r="B242" s="36" t="s">
         <v>480</v>
       </c>
       <c r="C242" s="22" t="s">
@@ -9562,7 +9430,7 @@
       <c r="A243" s="18">
         <v>228</v>
       </c>
-      <c r="B243" s="44"/>
+      <c r="B243" s="37"/>
       <c r="C243" s="22" t="s">
         <v>483</v>
       </c>
@@ -9589,7 +9457,7 @@
       <c r="A244" s="18">
         <v>229</v>
       </c>
-      <c r="B244" s="44"/>
+      <c r="B244" s="37"/>
       <c r="C244" s="22" t="s">
         <v>486</v>
       </c>
@@ -9616,7 +9484,7 @@
       <c r="A245" s="18">
         <v>230</v>
       </c>
-      <c r="B245" s="44"/>
+      <c r="B245" s="37"/>
       <c r="C245" s="22"/>
       <c r="D245" s="10" t="s">
         <v>489</v>
@@ -9641,7 +9509,7 @@
       <c r="A246" s="18">
         <v>231</v>
       </c>
-      <c r="B246" s="45"/>
+      <c r="B246" s="38"/>
       <c r="C246" s="22"/>
       <c r="D246" s="10" t="s">
         <v>491</v>
@@ -9666,7 +9534,7 @@
       <c r="A247" s="18">
         <v>232</v>
       </c>
-      <c r="B247" s="43" t="s">
+      <c r="B247" s="36" t="s">
         <v>493</v>
       </c>
       <c r="C247" s="28" t="s">
@@ -9689,8 +9557,8 @@
       <c r="A248" s="18">
         <v>233</v>
       </c>
-      <c r="B248" s="44"/>
-      <c r="C248" s="40" t="s">
+      <c r="B248" s="37"/>
+      <c r="C248" s="33" t="s">
         <v>494</v>
       </c>
       <c r="D248" s="10" t="s">
@@ -9710,8 +9578,8 @@
       <c r="A249" s="18">
         <v>234</v>
       </c>
-      <c r="B249" s="44"/>
-      <c r="C249" s="41"/>
+      <c r="B249" s="37"/>
+      <c r="C249" s="34"/>
       <c r="D249" s="10" t="s">
         <v>500</v>
       </c>
@@ -9729,8 +9597,8 @@
       <c r="A250" s="18">
         <v>235</v>
       </c>
-      <c r="B250" s="44"/>
-      <c r="C250" s="41"/>
+      <c r="B250" s="37"/>
+      <c r="C250" s="34"/>
       <c r="D250" s="10" t="s">
         <v>501</v>
       </c>
@@ -9748,8 +9616,8 @@
       <c r="A251" s="18">
         <v>236</v>
       </c>
-      <c r="B251" s="44"/>
-      <c r="C251" s="42"/>
+      <c r="B251" s="37"/>
+      <c r="C251" s="35"/>
       <c r="D251" s="10" t="s">
         <v>503</v>
       </c>
@@ -9767,7 +9635,7 @@
       <c r="A252" s="18">
         <v>237</v>
       </c>
-      <c r="B252" s="44"/>
+      <c r="B252" s="37"/>
       <c r="C252" s="28" t="s">
         <v>505</v>
       </c>
@@ -9788,7 +9656,7 @@
       <c r="A253" s="18">
         <v>238</v>
       </c>
-      <c r="B253" s="44"/>
+      <c r="B253" s="37"/>
       <c r="C253" s="28" t="s">
         <v>508</v>
       </c>
@@ -9809,7 +9677,7 @@
       <c r="A254" s="18">
         <v>239</v>
       </c>
-      <c r="B254" s="44"/>
+      <c r="B254" s="37"/>
       <c r="C254" s="28" t="s">
         <v>511</v>
       </c>
@@ -9830,7 +9698,7 @@
       <c r="A255" s="18">
         <v>240</v>
       </c>
-      <c r="B255" s="44"/>
+      <c r="B255" s="37"/>
       <c r="C255" s="28" t="s">
         <v>514</v>
       </c>
@@ -9851,7 +9719,7 @@
       <c r="A256" s="18">
         <v>241</v>
       </c>
-      <c r="B256" s="45"/>
+      <c r="B256" s="38"/>
       <c r="C256" s="28" t="s">
         <v>517</v>
       </c>
@@ -9872,7 +9740,7 @@
       <c r="A257" s="18">
         <v>242</v>
       </c>
-      <c r="B257" s="43" t="s">
+      <c r="B257" s="36" t="s">
         <v>520</v>
       </c>
       <c r="C257" s="28" t="s">
@@ -9885,9 +9753,15 @@
         <v>522</v>
       </c>
       <c r="F257" s="9"/>
-      <c r="G257" s="9"/>
-      <c r="H257" s="9"/>
-      <c r="I257" s="9"/>
+      <c r="G257" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H257" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I257" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J257" s="9"/>
       <c r="K257" s="9"/>
     </row>
@@ -9895,7 +9769,7 @@
       <c r="A258" s="18">
         <v>243</v>
       </c>
-      <c r="B258" s="44"/>
+      <c r="B258" s="37"/>
       <c r="C258" s="22" t="s">
         <v>523</v>
       </c>
@@ -9906,9 +9780,15 @@
         <v>524</v>
       </c>
       <c r="F258" s="9"/>
-      <c r="G258" s="9"/>
-      <c r="H258" s="9"/>
-      <c r="I258" s="9"/>
+      <c r="G258" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H258" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I258" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J258" s="9"/>
       <c r="K258" s="9"/>
     </row>
@@ -9916,7 +9796,7 @@
       <c r="A259" s="18">
         <v>244</v>
       </c>
-      <c r="B259" s="44"/>
+      <c r="B259" s="37"/>
       <c r="C259" s="22" t="s">
         <v>177</v>
       </c>
@@ -9927,9 +9807,15 @@
         <v>527</v>
       </c>
       <c r="F259" s="9"/>
-      <c r="G259" s="9"/>
-      <c r="H259" s="9"/>
-      <c r="I259" s="9"/>
+      <c r="G259" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H259" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I259" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J259" s="9"/>
       <c r="K259" s="9"/>
     </row>
@@ -9937,8 +9823,8 @@
       <c r="A260" s="18">
         <v>245</v>
       </c>
-      <c r="B260" s="44"/>
-      <c r="C260" s="40" t="s">
+      <c r="B260" s="37"/>
+      <c r="C260" s="33" t="s">
         <v>528</v>
       </c>
       <c r="D260" s="10" t="s">
@@ -9948,9 +9834,15 @@
         <v>530</v>
       </c>
       <c r="F260" s="9"/>
-      <c r="G260" s="9"/>
-      <c r="H260" s="9"/>
-      <c r="I260" s="9"/>
+      <c r="G260" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H260" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I260" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J260" s="9"/>
       <c r="K260" s="9"/>
     </row>
@@ -9958,8 +9850,8 @@
       <c r="A261" s="18">
         <v>246</v>
       </c>
-      <c r="B261" s="44"/>
-      <c r="C261" s="41"/>
+      <c r="B261" s="37"/>
+      <c r="C261" s="34"/>
       <c r="D261" s="10" t="s">
         <v>531</v>
       </c>
@@ -9967,9 +9859,15 @@
         <v>532</v>
       </c>
       <c r="F261" s="9"/>
-      <c r="G261" s="9"/>
-      <c r="H261" s="9"/>
-      <c r="I261" s="9"/>
+      <c r="G261" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H261" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I261" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J261" s="9"/>
       <c r="K261" s="9"/>
     </row>
@@ -9977,8 +9875,8 @@
       <c r="A262" s="18">
         <v>247</v>
       </c>
-      <c r="B262" s="44"/>
-      <c r="C262" s="42"/>
+      <c r="B262" s="37"/>
+      <c r="C262" s="35"/>
       <c r="D262" s="10" t="s">
         <v>533</v>
       </c>
@@ -9986,9 +9884,15 @@
         <v>534</v>
       </c>
       <c r="F262" s="9"/>
-      <c r="G262" s="9"/>
-      <c r="H262" s="9"/>
-      <c r="I262" s="9"/>
+      <c r="G262" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H262" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I262" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J262" s="9"/>
       <c r="K262" s="9"/>
     </row>
@@ -9996,8 +9900,8 @@
       <c r="A263" s="18">
         <v>248</v>
       </c>
-      <c r="B263" s="44"/>
-      <c r="C263" s="35" t="s">
+      <c r="B263" s="37"/>
+      <c r="C263" s="30" t="s">
         <v>535</v>
       </c>
       <c r="D263" s="10" t="s">
@@ -10007,9 +9911,15 @@
         <v>537</v>
       </c>
       <c r="F263" s="9"/>
-      <c r="G263" s="9"/>
-      <c r="H263" s="9"/>
-      <c r="I263" s="9"/>
+      <c r="G263" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H263" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I263" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J263" s="9"/>
       <c r="K263" s="9"/>
     </row>
@@ -10017,7 +9927,7 @@
       <c r="A264" s="18">
         <v>249</v>
       </c>
-      <c r="B264" s="44"/>
+      <c r="B264" s="37"/>
       <c r="C264" s="28" t="s">
         <v>538</v>
       </c>
@@ -10028,9 +9938,15 @@
         <v>540</v>
       </c>
       <c r="F264" s="9"/>
-      <c r="G264" s="9"/>
-      <c r="H264" s="9"/>
-      <c r="I264" s="9"/>
+      <c r="G264" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H264" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I264" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J264" s="9"/>
       <c r="K264" s="9"/>
     </row>
@@ -10038,7 +9954,7 @@
       <c r="A265" s="18">
         <v>250</v>
       </c>
-      <c r="B265" s="44"/>
+      <c r="B265" s="37"/>
       <c r="C265" s="28" t="s">
         <v>541</v>
       </c>
@@ -10049,9 +9965,15 @@
         <v>543</v>
       </c>
       <c r="F265" s="9"/>
-      <c r="G265" s="9"/>
-      <c r="H265" s="9"/>
-      <c r="I265" s="9"/>
+      <c r="G265" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H265" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I265" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J265" s="9"/>
       <c r="K265" s="9"/>
     </row>
@@ -10059,7 +9981,7 @@
       <c r="A266" s="18">
         <v>251</v>
       </c>
-      <c r="B266" s="45"/>
+      <c r="B266" s="38"/>
       <c r="C266" s="28" t="s">
         <v>544</v>
       </c>
@@ -10070,9 +9992,15 @@
         <v>546</v>
       </c>
       <c r="F266" s="9"/>
-      <c r="G266" s="9"/>
-      <c r="H266" s="9"/>
-      <c r="I266" s="9"/>
+      <c r="G266" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H266" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I266" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J266" s="9"/>
       <c r="K266" s="9"/>
     </row>
@@ -10080,7 +10008,7 @@
       <c r="A267" s="18">
         <v>252</v>
       </c>
-      <c r="B267" s="43" t="s">
+      <c r="B267" s="36" t="s">
         <v>547</v>
       </c>
       <c r="C267" s="28" t="s">
@@ -10093,9 +10021,15 @@
         <v>549</v>
       </c>
       <c r="F267" s="9"/>
-      <c r="G267" s="9"/>
-      <c r="H267" s="9"/>
-      <c r="I267" s="9"/>
+      <c r="G267" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H267" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I267" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J267" s="9"/>
       <c r="K267" s="9"/>
     </row>
@@ -10103,7 +10037,7 @@
       <c r="A268" s="18">
         <v>253</v>
       </c>
-      <c r="B268" s="44"/>
+      <c r="B268" s="37"/>
       <c r="C268" s="28" t="s">
         <v>550</v>
       </c>
@@ -10114,9 +10048,15 @@
         <v>552</v>
       </c>
       <c r="F268" s="9"/>
-      <c r="G268" s="9"/>
-      <c r="H268" s="9"/>
-      <c r="I268" s="9"/>
+      <c r="G268" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H268" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I268" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J268" s="9"/>
       <c r="K268" s="9"/>
     </row>
@@ -10124,7 +10064,7 @@
       <c r="A269" s="18">
         <v>254</v>
       </c>
-      <c r="B269" s="44"/>
+      <c r="B269" s="37"/>
       <c r="C269" s="28" t="s">
         <v>553</v>
       </c>
@@ -10135,9 +10075,15 @@
         <v>555</v>
       </c>
       <c r="F269" s="9"/>
-      <c r="G269" s="9"/>
-      <c r="H269" s="9"/>
-      <c r="I269" s="9"/>
+      <c r="G269" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H269" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I269" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J269" s="9"/>
       <c r="K269" s="9"/>
     </row>
@@ -10145,7 +10091,7 @@
       <c r="A270" s="18">
         <v>255</v>
       </c>
-      <c r="B270" s="44"/>
+      <c r="B270" s="37"/>
       <c r="C270" s="28" t="s">
         <v>556</v>
       </c>
@@ -10156,9 +10102,15 @@
         <v>558</v>
       </c>
       <c r="F270" s="9"/>
-      <c r="G270" s="9"/>
-      <c r="H270" s="9"/>
-      <c r="I270" s="9"/>
+      <c r="G270" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H270" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I270" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J270" s="9"/>
       <c r="K270" s="9"/>
     </row>
@@ -10166,7 +10118,7 @@
       <c r="A271" s="18">
         <v>256</v>
       </c>
-      <c r="B271" s="44"/>
+      <c r="B271" s="37"/>
       <c r="C271" s="28" t="s">
         <v>541</v>
       </c>
@@ -10177,9 +10129,15 @@
         <v>543</v>
       </c>
       <c r="F271" s="9"/>
-      <c r="G271" s="9"/>
-      <c r="H271" s="9"/>
-      <c r="I271" s="9"/>
+      <c r="G271" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H271" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I271" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J271" s="9"/>
       <c r="K271" s="9"/>
     </row>
@@ -10187,7 +10145,7 @@
       <c r="A272" s="18">
         <v>257</v>
       </c>
-      <c r="B272" s="45"/>
+      <c r="B272" s="38"/>
       <c r="C272" s="28" t="s">
         <v>538</v>
       </c>
@@ -10198,9 +10156,15 @@
         <v>540</v>
       </c>
       <c r="F272" s="9"/>
-      <c r="G272" s="9"/>
-      <c r="H272" s="9"/>
-      <c r="I272" s="9"/>
+      <c r="G272" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H272" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I272" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J272" s="9"/>
       <c r="K272" s="9"/>
     </row>
@@ -10208,7 +10172,7 @@
       <c r="A273" s="18">
         <v>258</v>
       </c>
-      <c r="B273" s="43" t="s">
+      <c r="B273" s="36" t="s">
         <v>561</v>
       </c>
       <c r="C273" s="28" t="s">
@@ -10221,9 +10185,15 @@
         <v>563</v>
       </c>
       <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
-      <c r="H273" s="9"/>
-      <c r="I273" s="9"/>
+      <c r="G273" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H273" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I273" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J273" s="9"/>
       <c r="K273" s="9"/>
     </row>
@@ -10231,7 +10201,7 @@
       <c r="A274" s="18">
         <v>259</v>
       </c>
-      <c r="B274" s="44"/>
+      <c r="B274" s="37"/>
       <c r="C274" s="28" t="s">
         <v>523</v>
       </c>
@@ -10242,9 +10212,15 @@
         <v>524</v>
       </c>
       <c r="F274" s="9"/>
-      <c r="G274" s="9"/>
-      <c r="H274" s="9"/>
-      <c r="I274" s="9"/>
+      <c r="G274" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H274" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I274" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J274" s="9"/>
       <c r="K274" s="9"/>
     </row>
@@ -10252,7 +10228,7 @@
       <c r="A275" s="18">
         <v>260</v>
       </c>
-      <c r="B275" s="44"/>
+      <c r="B275" s="37"/>
       <c r="C275" s="28" t="s">
         <v>177</v>
       </c>
@@ -10263,9 +10239,15 @@
         <v>527</v>
       </c>
       <c r="F275" s="9"/>
-      <c r="G275" s="9"/>
-      <c r="H275" s="9"/>
-      <c r="I275" s="9"/>
+      <c r="G275" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H275" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I275" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J275" s="9"/>
       <c r="K275" s="9"/>
     </row>
@@ -10273,8 +10255,8 @@
       <c r="A276" s="18">
         <v>261</v>
       </c>
-      <c r="B276" s="44"/>
-      <c r="C276" s="40" t="s">
+      <c r="B276" s="37"/>
+      <c r="C276" s="33" t="s">
         <v>528</v>
       </c>
       <c r="D276" s="10" t="s">
@@ -10284,9 +10266,15 @@
         <v>569</v>
       </c>
       <c r="F276" s="9"/>
-      <c r="G276" s="9"/>
-      <c r="H276" s="9"/>
-      <c r="I276" s="9"/>
+      <c r="G276" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H276" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I276" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J276" s="9"/>
       <c r="K276" s="9"/>
     </row>
@@ -10294,8 +10282,8 @@
       <c r="A277" s="18">
         <v>262</v>
       </c>
-      <c r="B277" s="44"/>
-      <c r="C277" s="41"/>
+      <c r="B277" s="37"/>
+      <c r="C277" s="34"/>
       <c r="D277" s="10" t="s">
         <v>531</v>
       </c>
@@ -10303,9 +10291,15 @@
         <v>532</v>
       </c>
       <c r="F277" s="9"/>
-      <c r="G277" s="9"/>
-      <c r="H277" s="9"/>
-      <c r="I277" s="9"/>
+      <c r="G277" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H277" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I277" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J277" s="9"/>
       <c r="K277" s="9"/>
     </row>
@@ -10313,8 +10307,8 @@
       <c r="A278" s="18">
         <v>263</v>
       </c>
-      <c r="B278" s="44"/>
-      <c r="C278" s="42"/>
+      <c r="B278" s="37"/>
+      <c r="C278" s="35"/>
       <c r="D278" s="10" t="s">
         <v>533</v>
       </c>
@@ -10322,9 +10316,15 @@
         <v>534</v>
       </c>
       <c r="F278" s="9"/>
-      <c r="G278" s="9"/>
-      <c r="H278" s="9"/>
-      <c r="I278" s="9"/>
+      <c r="G278" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H278" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I278" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J278" s="9"/>
       <c r="K278" s="9"/>
     </row>
@@ -10332,8 +10332,8 @@
       <c r="A279" s="18">
         <v>264</v>
       </c>
-      <c r="B279" s="44"/>
-      <c r="C279" s="35" t="s">
+      <c r="B279" s="37"/>
+      <c r="C279" s="30" t="s">
         <v>535</v>
       </c>
       <c r="D279" s="10" t="s">
@@ -10343,9 +10343,15 @@
         <v>537</v>
       </c>
       <c r="F279" s="9"/>
-      <c r="G279" s="9"/>
-      <c r="H279" s="9"/>
-      <c r="I279" s="9"/>
+      <c r="G279" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H279" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I279" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J279" s="9"/>
       <c r="K279" s="9"/>
     </row>
@@ -10353,7 +10359,7 @@
       <c r="A280" s="18">
         <v>265</v>
       </c>
-      <c r="B280" s="44"/>
+      <c r="B280" s="37"/>
       <c r="C280" s="28" t="s">
         <v>538</v>
       </c>
@@ -10364,9 +10370,15 @@
         <v>540</v>
       </c>
       <c r="F280" s="9"/>
-      <c r="G280" s="9"/>
-      <c r="H280" s="9"/>
-      <c r="I280" s="9"/>
+      <c r="G280" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H280" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I280" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J280" s="9"/>
       <c r="K280" s="9"/>
     </row>
@@ -10374,7 +10386,7 @@
       <c r="A281" s="18">
         <v>266</v>
       </c>
-      <c r="B281" s="45"/>
+      <c r="B281" s="38"/>
       <c r="C281" s="28" t="s">
         <v>541</v>
       </c>
@@ -10385,9 +10397,15 @@
         <v>543</v>
       </c>
       <c r="F281" s="9"/>
-      <c r="G281" s="9"/>
-      <c r="H281" s="9"/>
-      <c r="I281" s="9"/>
+      <c r="G281" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H281" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I281" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="J281" s="9"/>
       <c r="K281" s="9"/>
     </row>
@@ -10395,7 +10413,7 @@
       <c r="A282" s="18">
         <v>267</v>
       </c>
-      <c r="B282" s="43" t="s">
+      <c r="B282" s="36" t="s">
         <v>571</v>
       </c>
       <c r="C282" s="28" t="s">
@@ -10418,7 +10436,7 @@
       <c r="A283" s="18">
         <v>268</v>
       </c>
-      <c r="B283" s="44"/>
+      <c r="B283" s="37"/>
       <c r="C283" s="28" t="s">
         <v>523</v>
       </c>
@@ -10439,7 +10457,7 @@
       <c r="A284" s="18">
         <v>269</v>
       </c>
-      <c r="B284" s="44"/>
+      <c r="B284" s="37"/>
       <c r="C284" s="28" t="s">
         <v>177</v>
       </c>
@@ -10460,7 +10478,7 @@
       <c r="A285" s="18">
         <v>270</v>
       </c>
-      <c r="B285" s="44"/>
+      <c r="B285" s="37"/>
       <c r="C285" s="28" t="s">
         <v>541</v>
       </c>
@@ -10481,7 +10499,7 @@
       <c r="A286" s="18">
         <v>271</v>
       </c>
-      <c r="B286" s="44"/>
+      <c r="B286" s="37"/>
       <c r="C286" s="28" t="s">
         <v>538</v>
       </c>
@@ -10502,8 +10520,8 @@
       <c r="A287" s="18">
         <v>272</v>
       </c>
-      <c r="B287" s="44"/>
-      <c r="C287" s="40" t="s">
+      <c r="B287" s="37"/>
+      <c r="C287" s="33" t="s">
         <v>528</v>
       </c>
       <c r="D287" s="10" t="s">
@@ -10523,8 +10541,8 @@
       <c r="A288" s="18">
         <v>273</v>
       </c>
-      <c r="B288" s="44"/>
-      <c r="C288" s="41"/>
+      <c r="B288" s="37"/>
+      <c r="C288" s="34"/>
       <c r="D288" s="10" t="s">
         <v>531</v>
       </c>
@@ -10542,8 +10560,8 @@
       <c r="A289" s="18">
         <v>274</v>
       </c>
-      <c r="B289" s="44"/>
-      <c r="C289" s="41"/>
+      <c r="B289" s="37"/>
+      <c r="C289" s="34"/>
       <c r="D289" s="10" t="s">
         <v>533</v>
       </c>
@@ -10561,8 +10579,8 @@
       <c r="A290" s="18">
         <v>275</v>
       </c>
-      <c r="B290" s="44"/>
-      <c r="C290" s="41"/>
+      <c r="B290" s="37"/>
+      <c r="C290" s="34"/>
       <c r="D290" s="10" t="s">
         <v>581</v>
       </c>
@@ -10580,8 +10598,8 @@
       <c r="A291" s="18">
         <v>276</v>
       </c>
-      <c r="B291" s="44"/>
-      <c r="C291" s="41"/>
+      <c r="B291" s="37"/>
+      <c r="C291" s="34"/>
       <c r="D291" s="10" t="s">
         <v>578</v>
       </c>
@@ -10599,8 +10617,8 @@
       <c r="A292" s="18">
         <v>277</v>
       </c>
-      <c r="B292" s="45"/>
-      <c r="C292" s="42"/>
+      <c r="B292" s="38"/>
+      <c r="C292" s="35"/>
       <c r="D292" s="10" t="s">
         <v>578</v>
       </c>
@@ -10618,7 +10636,7 @@
       <c r="A293" s="18">
         <v>278</v>
       </c>
-      <c r="B293" s="43" t="s">
+      <c r="B293" s="36" t="s">
         <v>585</v>
       </c>
       <c r="C293" s="28" t="s">
@@ -10641,7 +10659,7 @@
       <c r="A294" s="18">
         <v>279</v>
       </c>
-      <c r="B294" s="44"/>
+      <c r="B294" s="37"/>
       <c r="C294" s="28" t="s">
         <v>523</v>
       </c>
@@ -10662,7 +10680,7 @@
       <c r="A295" s="18">
         <v>280</v>
       </c>
-      <c r="B295" s="44"/>
+      <c r="B295" s="37"/>
       <c r="C295" s="28" t="s">
         <v>177</v>
       </c>
@@ -10683,7 +10701,7 @@
       <c r="A296" s="18">
         <v>281</v>
       </c>
-      <c r="B296" s="44"/>
+      <c r="B296" s="37"/>
       <c r="C296" s="28" t="s">
         <v>538</v>
       </c>
@@ -10704,8 +10722,8 @@
       <c r="A297" s="18">
         <v>282</v>
       </c>
-      <c r="B297" s="44"/>
-      <c r="C297" s="40" t="s">
+      <c r="B297" s="37"/>
+      <c r="C297" s="33" t="s">
         <v>528</v>
       </c>
       <c r="D297" s="10" t="s">
@@ -10725,8 +10743,8 @@
       <c r="A298" s="18">
         <v>283</v>
       </c>
-      <c r="B298" s="44"/>
-      <c r="C298" s="41"/>
+      <c r="B298" s="37"/>
+      <c r="C298" s="34"/>
       <c r="D298" s="10" t="s">
         <v>531</v>
       </c>
@@ -10744,8 +10762,8 @@
       <c r="A299" s="18">
         <v>284</v>
       </c>
-      <c r="B299" s="44"/>
-      <c r="C299" s="41"/>
+      <c r="B299" s="37"/>
+      <c r="C299" s="34"/>
       <c r="D299" s="10" t="s">
         <v>533</v>
       </c>
@@ -10763,8 +10781,8 @@
       <c r="A300" s="18">
         <v>285</v>
       </c>
-      <c r="B300" s="44"/>
-      <c r="C300" s="42"/>
+      <c r="B300" s="37"/>
+      <c r="C300" s="35"/>
       <c r="D300" s="10" t="s">
         <v>591</v>
       </c>
@@ -10782,7 +10800,7 @@
       <c r="A301" s="18">
         <v>286</v>
       </c>
-      <c r="B301" s="44"/>
+      <c r="B301" s="37"/>
       <c r="C301" s="28" t="s">
         <v>593</v>
       </c>
@@ -10803,7 +10821,7 @@
       <c r="A302" s="18">
         <v>287</v>
       </c>
-      <c r="B302" s="45"/>
+      <c r="B302" s="38"/>
       <c r="C302" s="28" t="s">
         <v>541</v>
       </c>
@@ -10824,7 +10842,7 @@
       <c r="A303" s="18">
         <v>288</v>
       </c>
-      <c r="B303" s="37" t="s">
+      <c r="B303" s="52" t="s">
         <v>597</v>
       </c>
       <c r="C303" s="28" t="s">
@@ -10847,7 +10865,7 @@
       <c r="A304" s="18">
         <v>289</v>
       </c>
-      <c r="B304" s="38"/>
+      <c r="B304" s="53"/>
       <c r="C304" s="28" t="s">
         <v>593</v>
       </c>
@@ -10868,7 +10886,7 @@
       <c r="A305" s="18">
         <v>290</v>
       </c>
-      <c r="B305" s="38"/>
+      <c r="B305" s="53"/>
       <c r="C305" s="28" t="s">
         <v>541</v>
       </c>
@@ -10889,7 +10907,7 @@
       <c r="A306" s="18">
         <v>291</v>
       </c>
-      <c r="B306" s="38"/>
+      <c r="B306" s="53"/>
       <c r="C306" s="28" t="s">
         <v>538</v>
       </c>
@@ -10910,7 +10928,7 @@
       <c r="A307" s="18">
         <v>292</v>
       </c>
-      <c r="B307" s="39"/>
+      <c r="B307" s="54"/>
       <c r="C307" s="28" t="s">
         <v>602</v>
       </c>
@@ -10931,7 +10949,7 @@
       <c r="A308" s="18">
         <v>293</v>
       </c>
-      <c r="B308" s="43" t="s">
+      <c r="B308" s="36" t="s">
         <v>605</v>
       </c>
       <c r="C308" s="28" t="s">
@@ -10954,7 +10972,7 @@
       <c r="A309" s="18">
         <v>294</v>
       </c>
-      <c r="B309" s="44"/>
+      <c r="B309" s="37"/>
       <c r="C309" s="28" t="s">
         <v>541</v>
       </c>
@@ -10975,7 +10993,7 @@
       <c r="A310" s="18">
         <v>295</v>
       </c>
-      <c r="B310" s="44"/>
+      <c r="B310" s="37"/>
       <c r="C310" s="28" t="s">
         <v>538</v>
       </c>
@@ -10996,8 +11014,8 @@
       <c r="A311" s="18">
         <v>296</v>
       </c>
-      <c r="B311" s="44"/>
-      <c r="C311" s="40" t="s">
+      <c r="B311" s="37"/>
+      <c r="C311" s="33" t="s">
         <v>528</v>
       </c>
       <c r="D311" s="10" t="s">
@@ -11017,8 +11035,8 @@
       <c r="A312" s="18">
         <v>297</v>
       </c>
-      <c r="B312" s="44"/>
-      <c r="C312" s="41"/>
+      <c r="B312" s="37"/>
+      <c r="C312" s="34"/>
       <c r="D312" s="10" t="s">
         <v>531</v>
       </c>
@@ -11036,8 +11054,8 @@
       <c r="A313" s="18">
         <v>298</v>
       </c>
-      <c r="B313" s="44"/>
-      <c r="C313" s="42"/>
+      <c r="B313" s="37"/>
+      <c r="C313" s="35"/>
       <c r="D313" s="10" t="s">
         <v>533</v>
       </c>
@@ -11055,8 +11073,8 @@
       <c r="A314" s="18">
         <v>299</v>
       </c>
-      <c r="B314" s="44"/>
-      <c r="C314" s="40" t="s">
+      <c r="B314" s="37"/>
+      <c r="C314" s="33" t="s">
         <v>610</v>
       </c>
       <c r="D314" s="10" t="s">
@@ -11076,8 +11094,8 @@
       <c r="A315" s="18">
         <v>300</v>
       </c>
-      <c r="B315" s="44"/>
-      <c r="C315" s="41"/>
+      <c r="B315" s="37"/>
+      <c r="C315" s="34"/>
       <c r="D315" s="10" t="s">
         <v>614</v>
       </c>
@@ -11095,8 +11113,8 @@
       <c r="A316" s="18">
         <v>301</v>
       </c>
-      <c r="B316" s="44"/>
-      <c r="C316" s="42"/>
+      <c r="B316" s="37"/>
+      <c r="C316" s="35"/>
       <c r="D316" s="10" t="s">
         <v>615</v>
       </c>
@@ -11114,8 +11132,8 @@
       <c r="A317" s="18">
         <v>302</v>
       </c>
-      <c r="B317" s="44"/>
-      <c r="C317" s="40" t="s">
+      <c r="B317" s="37"/>
+      <c r="C317" s="33" t="s">
         <v>617</v>
       </c>
       <c r="D317" s="10" t="s">
@@ -11135,8 +11153,8 @@
       <c r="A318" s="18">
         <v>303</v>
       </c>
-      <c r="B318" s="44"/>
-      <c r="C318" s="42"/>
+      <c r="B318" s="37"/>
+      <c r="C318" s="35"/>
       <c r="D318" s="10" t="s">
         <v>620</v>
       </c>
@@ -11154,7 +11172,7 @@
       <c r="A319" s="18">
         <v>304</v>
       </c>
-      <c r="B319" s="45"/>
+      <c r="B319" s="38"/>
       <c r="C319" s="28" t="s">
         <v>622</v>
       </c>
@@ -11175,7 +11193,7 @@
       <c r="A320" s="18">
         <v>305</v>
       </c>
-      <c r="B320" s="34" t="s">
+      <c r="B320" s="29" t="s">
         <v>625</v>
       </c>
       <c r="C320" s="28" t="s">
@@ -11466,6 +11484,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="B308:B319"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="B273:B281"/>
+    <mergeCell ref="C287:C292"/>
+    <mergeCell ref="B282:B292"/>
+    <mergeCell ref="C297:C300"/>
+    <mergeCell ref="B293:B302"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="B247:B256"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="B257:B266"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B193:B203"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B133:B146"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="B115:B132"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="B65:B81"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C78:C80"/>
     <mergeCell ref="C236:C238"/>
     <mergeCell ref="B231:B241"/>
     <mergeCell ref="B242:B246"/>
@@ -11482,77 +11568,9 @@
     <mergeCell ref="B111:B114"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="B65:B81"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B115:B132"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="B133:B146"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B193:B203"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="B247:B256"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="B257:B266"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="B273:B281"/>
-    <mergeCell ref="C287:C292"/>
-    <mergeCell ref="B282:B292"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="B293:B302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="B308:B319"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I57 G60:I246">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I57 G60:I246 G257:I281">
       <formula1>$B$1:$B$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K61:K213">
@@ -11565,7 +11583,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{BDAB6C5B-B2F4-4A90-A78E-332006505865}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{BDAB6C5B-B2F4-4A90-A78E-332006505865}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,G16)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -11576,7 +11594,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{5A2FBB8C-8C79-4C3C-95CB-A2B385D7F486}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{5A2FBB8C-8C79-4C3C-95CB-A2B385D7F486}">
             <xm:f>NOT(ISERROR(SEARCH($B$3,G16)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
@@ -11590,7 +11608,7 @@
           <xm:sqref>G16:I57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{35204DA0-4B38-4084-8FC8-7C958570859B}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{35204DA0-4B38-4084-8FC8-7C958570859B}">
             <xm:f>NOT(ISERROR(SEARCH($B$4,G60)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
@@ -11601,7 +11619,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{2D251495-9689-4DA6-A9EF-A283CBCF93DE}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{2D251495-9689-4DA6-A9EF-A283CBCF93DE}">
             <xm:f>NOT(ISERROR(SEARCH($B$3,G60)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
@@ -11614,6 +11632,56 @@
           </x14:cfRule>
           <xm:sqref>G60:I246</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{D64036A3-F6B1-4627-A75B-F188C124A629}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G273)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{73AE89BE-AA77-4696-B1FD-738F43D5EB58}">
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G273)))</xm:f>
+            <xm:f>$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G273:I281</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{C7485DB5-DD52-4A7B-86CE-8A2F10227C2B}">
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G257)))</xm:f>
+            <xm:f>$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{AA526D1C-7734-4EA1-88D4-9A78643B4D02}">
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G257)))</xm:f>
+            <xm:f>$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G257:I272</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="633">
   <si>
     <t>ID</t>
   </si>
@@ -2621,9 +2621,6 @@
   </si>
   <si>
     <t>Actual results</t>
-  </si>
-  <si>
-    <t>Thoát Ứng Dụng</t>
   </si>
   <si>
     <t>Nhập từ vựng và để trống nghĩa từ vựng nhưng vẫn lưu dc</t>
@@ -2817,7 +2814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2921,14 +2918,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2948,27 +2939,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2987,11 +2957,55 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3410,8 +3424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3451,11 +3465,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
@@ -3473,11 +3487,11 @@
       <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
@@ -3518,7 +3532,7 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -3547,7 +3561,7 @@
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="22" t="s">
         <v>23</v>
       </c>
@@ -3576,7 +3590,7 @@
       <c r="A18" s="18">
         <v>3</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="22" t="s">
         <v>27</v>
       </c>
@@ -3590,24 +3604,22 @@
         <v>52</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>632</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>4</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="22" t="s">
         <v>23</v>
       </c>
@@ -3636,7 +3648,7 @@
       <c r="A20" s="18">
         <v>5</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="22" t="s">
         <v>54</v>
       </c>
@@ -3650,24 +3662,22 @@
         <v>58</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>632</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>6</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="22" t="s">
         <v>59</v>
       </c>
@@ -3694,10 +3704,10 @@
       <c r="A22" s="18">
         <v>7</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="38" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -3723,8 +3733,8 @@
       <c r="A23" s="18">
         <v>8</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="10" t="s">
         <v>65</v>
       </c>
@@ -3748,8 +3758,8 @@
       <c r="A24" s="18">
         <v>9</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -3775,8 +3785,8 @@
       <c r="A25" s="18">
         <v>10</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="10" t="s">
         <v>65</v>
       </c>
@@ -3800,7 +3810,7 @@
       <c r="A26" s="18">
         <v>11</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="22" t="s">
         <v>72</v>
       </c>
@@ -3827,7 +3837,7 @@
       <c r="A27" s="18">
         <v>12</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="22" t="s">
         <v>73</v>
       </c>
@@ -3854,7 +3864,7 @@
       <c r="A28" s="18">
         <v>13</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="22" t="s">
         <v>74</v>
       </c>
@@ -3881,7 +3891,7 @@
       <c r="A29" s="18">
         <v>14</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="22" t="s">
         <v>76</v>
       </c>
@@ -3908,7 +3918,7 @@
       <c r="A30" s="18">
         <v>15</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="22" t="s">
         <v>78</v>
       </c>
@@ -3922,24 +3932,22 @@
         <v>51</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>632</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>16</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="22" t="s">
         <v>79</v>
       </c>
@@ -3953,24 +3961,22 @@
         <v>52</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>632</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>17</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="22" t="s">
         <v>79</v>
       </c>
@@ -3999,7 +4005,7 @@
       <c r="A33" s="18">
         <v>18</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="22" t="s">
         <v>84</v>
       </c>
@@ -4026,7 +4032,7 @@
       <c r="A34" s="18">
         <v>19</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="22" t="s">
         <v>85</v>
       </c>
@@ -4053,7 +4059,7 @@
       <c r="A35" s="18">
         <v>20</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="22" t="s">
         <v>88</v>
       </c>
@@ -4080,7 +4086,7 @@
       <c r="A36" s="18">
         <v>21</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="22" t="s">
         <v>88</v>
       </c>
@@ -4107,7 +4113,7 @@
       <c r="A37" s="18">
         <v>22</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="50" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -4136,7 +4142,7 @@
       <c r="A38" s="18">
         <v>23</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="22" t="s">
         <v>94</v>
       </c>
@@ -4165,7 +4171,7 @@
       <c r="A39" s="18">
         <v>24</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="22" t="s">
         <v>99</v>
       </c>
@@ -4194,7 +4200,7 @@
       <c r="A40" s="18">
         <v>25</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="22" t="s">
         <v>100</v>
       </c>
@@ -4223,7 +4229,7 @@
       <c r="A41" s="18">
         <v>26</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="22" t="s">
         <v>103</v>
       </c>
@@ -4252,7 +4258,7 @@
       <c r="A42" s="18">
         <v>27</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="22" t="s">
         <v>105</v>
       </c>
@@ -4279,7 +4285,7 @@
       <c r="A43" s="18">
         <v>28</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="22" t="s">
         <v>108</v>
       </c>
@@ -4306,7 +4312,7 @@
       <c r="A44" s="18">
         <v>29</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="50" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -4335,7 +4341,7 @@
       <c r="A45" s="18">
         <v>30</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="22" t="s">
         <v>113</v>
       </c>
@@ -4362,7 +4368,7 @@
       <c r="A46" s="18">
         <v>31</v>
       </c>
-      <c r="B46" s="47"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="22" t="s">
         <v>94</v>
       </c>
@@ -4391,7 +4397,7 @@
       <c r="A47" s="18">
         <v>32</v>
       </c>
-      <c r="B47" s="47"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="22" t="s">
         <v>99</v>
       </c>
@@ -4420,7 +4426,7 @@
       <c r="A48" s="18">
         <v>33</v>
       </c>
-      <c r="B48" s="47"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="22" t="s">
         <v>116</v>
       </c>
@@ -4449,7 +4455,7 @@
       <c r="A49" s="18">
         <v>34</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="22" t="s">
         <v>117</v>
       </c>
@@ -4478,7 +4484,7 @@
       <c r="A50" s="18">
         <v>35</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="44" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="22" t="s">
@@ -4507,7 +4513,7 @@
       <c r="A51" s="18">
         <v>36</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="22" t="s">
         <v>94</v>
       </c>
@@ -4536,7 +4542,7 @@
       <c r="A52" s="18">
         <v>37</v>
       </c>
-      <c r="B52" s="55"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="22" t="s">
         <v>99</v>
       </c>
@@ -4563,7 +4569,7 @@
       <c r="A53" s="18">
         <v>38</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -4592,7 +4598,7 @@
       <c r="A54" s="18">
         <v>39</v>
       </c>
-      <c r="B54" s="47"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="22" t="s">
         <v>94</v>
       </c>
@@ -4621,7 +4627,7 @@
       <c r="A55" s="18">
         <v>40</v>
       </c>
-      <c r="B55" s="47"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="22" t="s">
         <v>99</v>
       </c>
@@ -4650,7 +4656,7 @@
       <c r="A56" s="18">
         <v>41</v>
       </c>
-      <c r="B56" s="47"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="22" t="s">
         <v>99</v>
       </c>
@@ -4679,7 +4685,7 @@
       <c r="A57" s="18">
         <v>42</v>
       </c>
-      <c r="B57" s="48"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="22" t="s">
         <v>99</v>
       </c>
@@ -4750,10 +4756,10 @@
       <c r="A60" s="18">
         <v>45</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -4779,8 +4785,8 @@
       <c r="A61" s="18">
         <v>46</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="50"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="10" t="s">
         <v>36</v>
       </c>
@@ -4804,8 +4810,8 @@
       <c r="A62" s="18">
         <v>47</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="50"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="10" t="s">
         <v>35</v>
       </c>
@@ -4829,8 +4835,8 @@
       <c r="A63" s="18">
         <v>48</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="50"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="10" t="s">
         <v>34</v>
       </c>
@@ -4854,8 +4860,8 @@
       <c r="A64" s="18">
         <v>49</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="50"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="10" t="s">
         <v>33</v>
       </c>
@@ -4879,10 +4885,10 @@
       <c r="A65" s="18">
         <v>50</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="54" t="s">
         <v>145</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -4908,8 +4914,8 @@
       <c r="A66" s="18">
         <v>51</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="10" t="s">
         <v>148</v>
       </c>
@@ -4933,8 +4939,8 @@
       <c r="A67" s="18">
         <v>52</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="50"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="10" t="s">
         <v>150</v>
       </c>
@@ -4954,7 +4960,7 @@
         <v>5</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -4962,8 +4968,8 @@
       <c r="A68" s="18">
         <v>53</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="50"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="10" t="s">
         <v>153</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -4991,8 +4997,8 @@
       <c r="A69" s="18">
         <v>54</v>
       </c>
-      <c r="B69" s="46"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="10" t="s">
         <v>156</v>
       </c>
@@ -5018,8 +5024,8 @@
       <c r="A70" s="18">
         <v>55</v>
       </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="10" t="s">
         <v>159</v>
       </c>
@@ -5045,8 +5051,8 @@
       <c r="A71" s="18">
         <v>56</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="50" t="s">
+      <c r="B71" s="53"/>
+      <c r="C71" s="54" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -5072,8 +5078,8 @@
       <c r="A72" s="18">
         <v>57</v>
       </c>
-      <c r="B72" s="46"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="10" t="s">
         <v>162</v>
       </c>
@@ -5097,8 +5103,8 @@
       <c r="A73" s="18">
         <v>58</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="50"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="10" t="s">
         <v>164</v>
       </c>
@@ -5122,8 +5128,8 @@
       <c r="A74" s="18">
         <v>59</v>
       </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="50"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="10" t="s">
         <v>166</v>
       </c>
@@ -5147,8 +5153,8 @@
       <c r="A75" s="18">
         <v>60</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="50"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="10" t="s">
         <v>168</v>
       </c>
@@ -5172,8 +5178,8 @@
       <c r="A76" s="18">
         <v>61</v>
       </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="50"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="10" t="s">
         <v>170</v>
       </c>
@@ -5197,7 +5203,7 @@
       <c r="A77" s="18">
         <v>62</v>
       </c>
-      <c r="B77" s="46"/>
+      <c r="B77" s="53"/>
       <c r="C77" s="22" t="s">
         <v>172</v>
       </c>
@@ -5224,8 +5230,8 @@
       <c r="A78" s="18">
         <v>63</v>
       </c>
-      <c r="B78" s="46"/>
-      <c r="C78" s="50" t="s">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -5251,8 +5257,8 @@
       <c r="A79" s="18">
         <v>64</v>
       </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="50"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="10" t="s">
         <v>42</v>
       </c>
@@ -5276,8 +5282,8 @@
       <c r="A80" s="18">
         <v>65</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="50"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="10" t="s">
         <v>44</v>
       </c>
@@ -5301,7 +5307,7 @@
       <c r="A81" s="18">
         <v>66</v>
       </c>
-      <c r="B81" s="46"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="22"/>
       <c r="D81" s="10" t="s">
         <v>175</v>
@@ -5313,10 +5319,10 @@
       <c r="G81" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H81" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I81" s="33" t="s">
+      <c r="H81" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J81" s="8"/>
@@ -5326,10 +5332,10 @@
       <c r="A82" s="18">
         <v>67</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C82" s="54" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -5341,14 +5347,14 @@
       <c r="F82" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="G82" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>10</v>
+      <c r="G82" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="9"/>
@@ -5357,8 +5363,8 @@
       <c r="A83" s="18">
         <v>68</v>
       </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="50"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="10" t="s">
         <v>181</v>
       </c>
@@ -5366,14 +5372,14 @@
         <v>182</v>
       </c>
       <c r="F83" s="10"/>
-      <c r="G83" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>10</v>
+      <c r="G83" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="9"/>
@@ -5382,8 +5388,8 @@
       <c r="A84" s="18">
         <v>69</v>
       </c>
-      <c r="B84" s="46"/>
-      <c r="C84" s="50" t="s">
+      <c r="B84" s="53"/>
+      <c r="C84" s="54" t="s">
         <v>183</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -5393,14 +5399,14 @@
         <v>185</v>
       </c>
       <c r="F84" s="10"/>
-      <c r="G84" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>10</v>
+      <c r="G84" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="9"/>
@@ -5409,8 +5415,8 @@
       <c r="A85" s="18">
         <v>70</v>
       </c>
-      <c r="B85" s="46"/>
-      <c r="C85" s="50"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="10" t="s">
         <v>186</v>
       </c>
@@ -5418,14 +5424,14 @@
         <v>187</v>
       </c>
       <c r="F85" s="10"/>
-      <c r="G85" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="21" t="s">
-        <v>10</v>
+      <c r="G85" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="9"/>
@@ -5434,8 +5440,8 @@
       <c r="A86" s="18">
         <v>71</v>
       </c>
-      <c r="B86" s="46"/>
-      <c r="C86" s="50"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="10" t="s">
         <v>188</v>
       </c>
@@ -5443,14 +5449,14 @@
         <v>189</v>
       </c>
       <c r="F86" s="10"/>
-      <c r="G86" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="21" t="s">
-        <v>10</v>
+      <c r="G86" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="9"/>
@@ -5459,8 +5465,8 @@
       <c r="A87" s="18">
         <v>72</v>
       </c>
-      <c r="B87" s="46"/>
-      <c r="C87" s="50"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="10" t="s">
         <v>190</v>
       </c>
@@ -5468,14 +5474,14 @@
         <v>191</v>
       </c>
       <c r="F87" s="10"/>
-      <c r="G87" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="21" t="s">
-        <v>10</v>
+      <c r="G87" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="9"/>
@@ -5484,7 +5490,7 @@
       <c r="A88" s="18">
         <v>73</v>
       </c>
-      <c r="B88" s="46"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="22" t="s">
         <v>172</v>
       </c>
@@ -5495,14 +5501,14 @@
         <v>40</v>
       </c>
       <c r="F88" s="10"/>
-      <c r="G88" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="21" t="s">
-        <v>10</v>
+      <c r="G88" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="9"/>
@@ -5511,7 +5517,7 @@
       <c r="A89" s="18">
         <v>74</v>
       </c>
-      <c r="B89" s="46"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="22"/>
       <c r="D89" s="10" t="s">
         <v>175</v>
@@ -5520,9 +5526,15 @@
         <v>176</v>
       </c>
       <c r="F89" s="10"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
+      <c r="G89" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="J89" s="8"/>
       <c r="K89" s="9"/>
     </row>
@@ -5530,10 +5542,10 @@
       <c r="A90" s="18">
         <v>75</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="54" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -5543,14 +5555,14 @@
         <v>179</v>
       </c>
       <c r="F90" s="10"/>
-      <c r="G90" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="21" t="s">
-        <v>10</v>
+      <c r="G90" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="9"/>
@@ -5559,8 +5571,8 @@
       <c r="A91" s="18">
         <v>76</v>
       </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="50"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="10" t="s">
         <v>181</v>
       </c>
@@ -5568,14 +5580,14 @@
         <v>182</v>
       </c>
       <c r="F91" s="10"/>
-      <c r="G91" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="21" t="s">
-        <v>10</v>
+      <c r="G91" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="9"/>
@@ -5584,8 +5596,8 @@
       <c r="A92" s="18">
         <v>77</v>
       </c>
-      <c r="B92" s="46"/>
-      <c r="C92" s="50" t="s">
+      <c r="B92" s="53"/>
+      <c r="C92" s="54" t="s">
         <v>183</v>
       </c>
       <c r="D92" s="10" t="s">
@@ -5595,14 +5607,14 @@
         <v>185</v>
       </c>
       <c r="F92" s="10"/>
-      <c r="G92" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="21" t="s">
-        <v>10</v>
+      <c r="G92" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="9"/>
@@ -5611,8 +5623,8 @@
       <c r="A93" s="18">
         <v>78</v>
       </c>
-      <c r="B93" s="46"/>
-      <c r="C93" s="50"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="10" t="s">
         <v>186</v>
       </c>
@@ -5620,14 +5632,14 @@
         <v>187</v>
       </c>
       <c r="F93" s="10"/>
-      <c r="G93" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="21" t="s">
-        <v>10</v>
+      <c r="G93" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="9"/>
@@ -5636,8 +5648,8 @@
       <c r="A94" s="18">
         <v>79</v>
       </c>
-      <c r="B94" s="46"/>
-      <c r="C94" s="50"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="10" t="s">
         <v>188</v>
       </c>
@@ -5645,14 +5657,14 @@
         <v>189</v>
       </c>
       <c r="F94" s="10"/>
-      <c r="G94" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="21" t="s">
-        <v>10</v>
+      <c r="G94" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="9"/>
@@ -5661,8 +5673,8 @@
       <c r="A95" s="18">
         <v>80</v>
       </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="50"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="10" t="s">
         <v>190</v>
       </c>
@@ -5670,14 +5682,14 @@
         <v>192</v>
       </c>
       <c r="F95" s="10"/>
-      <c r="G95" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="21" t="s">
-        <v>10</v>
+      <c r="G95" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="9"/>
@@ -5686,7 +5698,7 @@
       <c r="A96" s="18">
         <v>81</v>
       </c>
-      <c r="B96" s="46"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="22" t="s">
         <v>172</v>
       </c>
@@ -5697,14 +5709,14 @@
         <v>40</v>
       </c>
       <c r="F96" s="10"/>
-      <c r="G96" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="21" t="s">
-        <v>10</v>
+      <c r="G96" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="9"/>
@@ -5713,7 +5725,7 @@
       <c r="A97" s="18">
         <v>82</v>
       </c>
-      <c r="B97" s="46"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="22"/>
       <c r="D97" s="10" t="s">
         <v>175</v>
@@ -5722,9 +5734,15 @@
         <v>176</v>
       </c>
       <c r="F97" s="10"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
+      <c r="G97" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="J97" s="8"/>
       <c r="K97" s="9"/>
     </row>
@@ -5732,7 +5750,7 @@
       <c r="A98" s="18">
         <v>83</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="22" t="s">
@@ -5745,14 +5763,14 @@
         <v>195</v>
       </c>
       <c r="F98" s="10"/>
-      <c r="G98" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="21" t="s">
-        <v>10</v>
+      <c r="G98" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="9"/>
@@ -5761,7 +5779,7 @@
       <c r="A99" s="18">
         <v>84</v>
       </c>
-      <c r="B99" s="46"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="22"/>
       <c r="D99" s="10" t="s">
         <v>175</v>
@@ -5770,9 +5788,15 @@
         <v>176</v>
       </c>
       <c r="F99" s="10"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
+      <c r="G99" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="J99" s="8"/>
       <c r="K99" s="9"/>
     </row>
@@ -5780,7 +5804,7 @@
       <c r="A100" s="18">
         <v>85</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="53" t="s">
         <v>196</v>
       </c>
       <c r="C100" s="22" t="s">
@@ -5793,14 +5817,14 @@
         <v>197</v>
       </c>
       <c r="F100" s="10"/>
-      <c r="G100" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="21" t="s">
-        <v>10</v>
+      <c r="G100" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="9"/>
@@ -5809,7 +5833,7 @@
       <c r="A101" s="18">
         <v>86</v>
       </c>
-      <c r="B101" s="46"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="22" t="s">
         <v>172</v>
       </c>
@@ -5820,14 +5844,14 @@
         <v>40</v>
       </c>
       <c r="F101" s="10"/>
-      <c r="G101" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="21" t="s">
-        <v>10</v>
+      <c r="G101" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="9"/>
@@ -5836,7 +5860,7 @@
       <c r="A102" s="18">
         <v>87</v>
       </c>
-      <c r="B102" s="46"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="22"/>
       <c r="D102" s="10" t="s">
         <v>175</v>
@@ -5845,9 +5869,15 @@
         <v>176</v>
       </c>
       <c r="F102" s="10"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
+      <c r="G102" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="J102" s="8"/>
       <c r="K102" s="9"/>
     </row>
@@ -5855,7 +5885,7 @@
       <c r="A103" s="18">
         <v>88</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="53" t="s">
         <v>198</v>
       </c>
       <c r="C103" s="22" t="s">
@@ -5886,7 +5916,7 @@
       <c r="A104" s="18">
         <v>89</v>
       </c>
-      <c r="B104" s="46"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="22" t="s">
         <v>200</v>
       </c>
@@ -5915,8 +5945,8 @@
       <c r="A105" s="18">
         <v>90</v>
       </c>
-      <c r="B105" s="46"/>
-      <c r="C105" s="50" t="s">
+      <c r="B105" s="53"/>
+      <c r="C105" s="54" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="10" t="s">
@@ -5942,8 +5972,8 @@
       <c r="A106" s="18">
         <v>91</v>
       </c>
-      <c r="B106" s="46"/>
-      <c r="C106" s="50"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
       <c r="D106" s="10" t="s">
         <v>206</v>
       </c>
@@ -5967,8 +5997,8 @@
       <c r="A107" s="18">
         <v>92</v>
       </c>
-      <c r="B107" s="46"/>
-      <c r="C107" s="50"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="10" t="s">
         <v>207</v>
       </c>
@@ -5992,8 +6022,8 @@
       <c r="A108" s="18">
         <v>93</v>
       </c>
-      <c r="B108" s="46"/>
-      <c r="C108" s="50"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="10" t="s">
         <v>209</v>
       </c>
@@ -6017,7 +6047,7 @@
       <c r="A109" s="18">
         <v>94</v>
       </c>
-      <c r="B109" s="46"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="22" t="s">
         <v>210</v>
       </c>
@@ -6044,7 +6074,7 @@
       <c r="A110" s="18">
         <v>95</v>
       </c>
-      <c r="B110" s="46"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="22"/>
       <c r="D110" s="10" t="s">
         <v>175</v>
@@ -6069,7 +6099,7 @@
       <c r="A111" s="18">
         <v>96</v>
       </c>
-      <c r="B111" s="46" t="s">
+      <c r="B111" s="53" t="s">
         <v>213</v>
       </c>
       <c r="C111" s="22"/>
@@ -6096,7 +6126,7 @@
       <c r="A112" s="18">
         <v>97</v>
       </c>
-      <c r="B112" s="46"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="22"/>
       <c r="D112" s="10" t="s">
         <v>216</v>
@@ -6121,7 +6151,7 @@
       <c r="A113" s="18">
         <v>98</v>
       </c>
-      <c r="B113" s="46"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="22"/>
       <c r="D113" s="10" t="s">
         <v>218</v>
@@ -6146,7 +6176,7 @@
       <c r="A114" s="18">
         <v>99</v>
       </c>
-      <c r="B114" s="46"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="22"/>
       <c r="D114" s="10" t="s">
         <v>220</v>
@@ -6171,7 +6201,7 @@
       <c r="A115" s="18">
         <v>100</v>
       </c>
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="53" t="s">
         <v>222</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -6200,8 +6230,8 @@
       <c r="A116" s="18">
         <v>101</v>
       </c>
-      <c r="B116" s="46"/>
-      <c r="C116" s="50" t="s">
+      <c r="B116" s="53"/>
+      <c r="C116" s="54" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="10" t="s">
@@ -6227,8 +6257,8 @@
       <c r="A117" s="18">
         <v>102</v>
       </c>
-      <c r="B117" s="46"/>
-      <c r="C117" s="50"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="10" t="s">
         <v>229</v>
       </c>
@@ -6252,8 +6282,8 @@
       <c r="A118" s="18">
         <v>103</v>
       </c>
-      <c r="B118" s="46"/>
-      <c r="C118" s="50"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="10" t="s">
         <v>231</v>
       </c>
@@ -6277,8 +6307,8 @@
       <c r="A119" s="18">
         <v>104</v>
       </c>
-      <c r="B119" s="46"/>
-      <c r="C119" s="50"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="10" t="s">
         <v>233</v>
       </c>
@@ -6302,8 +6332,8 @@
       <c r="A120" s="18">
         <v>105</v>
       </c>
-      <c r="B120" s="46"/>
-      <c r="C120" s="50" t="s">
+      <c r="B120" s="53"/>
+      <c r="C120" s="54" t="s">
         <v>234</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -6329,8 +6359,8 @@
       <c r="A121" s="18">
         <v>106</v>
       </c>
-      <c r="B121" s="46"/>
-      <c r="C121" s="50"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="10" t="s">
         <v>237</v>
       </c>
@@ -6354,8 +6384,8 @@
       <c r="A122" s="18">
         <v>107</v>
       </c>
-      <c r="B122" s="46"/>
-      <c r="C122" s="50"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="54"/>
       <c r="D122" s="10" t="s">
         <v>239</v>
       </c>
@@ -6379,8 +6409,8 @@
       <c r="A123" s="18">
         <v>108</v>
       </c>
-      <c r="B123" s="46"/>
-      <c r="C123" s="50"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="10" t="s">
         <v>240</v>
       </c>
@@ -6404,8 +6434,8 @@
       <c r="A124" s="18">
         <v>109</v>
       </c>
-      <c r="B124" s="46"/>
-      <c r="C124" s="50" t="s">
+      <c r="B124" s="53"/>
+      <c r="C124" s="54" t="s">
         <v>241</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -6431,8 +6461,8 @@
       <c r="A125" s="18">
         <v>110</v>
       </c>
-      <c r="B125" s="46"/>
-      <c r="C125" s="50"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="10" t="s">
         <v>244</v>
       </c>
@@ -6456,8 +6486,8 @@
       <c r="A126" s="18">
         <v>111</v>
       </c>
-      <c r="B126" s="46"/>
-      <c r="C126" s="50"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="54"/>
       <c r="D126" s="10" t="s">
         <v>245</v>
       </c>
@@ -6481,8 +6511,8 @@
       <c r="A127" s="18">
         <v>112</v>
       </c>
-      <c r="B127" s="46"/>
-      <c r="C127" s="50" t="s">
+      <c r="B127" s="53"/>
+      <c r="C127" s="54" t="s">
         <v>247</v>
       </c>
       <c r="D127" s="10" t="s">
@@ -6508,8 +6538,8 @@
       <c r="A128" s="18">
         <v>113</v>
       </c>
-      <c r="B128" s="46"/>
-      <c r="C128" s="50"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="54"/>
       <c r="D128" s="10" t="s">
         <v>250</v>
       </c>
@@ -6533,8 +6563,8 @@
       <c r="A129" s="18">
         <v>114</v>
       </c>
-      <c r="B129" s="46"/>
-      <c r="C129" s="50" t="s">
+      <c r="B129" s="53"/>
+      <c r="C129" s="54" t="s">
         <v>252</v>
       </c>
       <c r="D129" s="10" t="s">
@@ -6560,8 +6590,8 @@
       <c r="A130" s="18">
         <v>115</v>
       </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="50"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="10" t="s">
         <v>255</v>
       </c>
@@ -6585,8 +6615,8 @@
       <c r="A131" s="18">
         <v>116</v>
       </c>
-      <c r="B131" s="46"/>
-      <c r="C131" s="50"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="54"/>
       <c r="D131" s="10" t="s">
         <v>257</v>
       </c>
@@ -6610,7 +6640,7 @@
       <c r="A132" s="18">
         <v>117</v>
       </c>
-      <c r="B132" s="46"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="22"/>
       <c r="D132" s="23" t="s">
         <v>175</v>
@@ -6635,10 +6665,10 @@
       <c r="A133" s="18">
         <v>118</v>
       </c>
-      <c r="B133" s="46" t="s">
+      <c r="B133" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="C133" s="50" t="s">
+      <c r="C133" s="54" t="s">
         <v>261</v>
       </c>
       <c r="D133" s="10" t="s">
@@ -6664,8 +6694,8 @@
       <c r="A134" s="18">
         <v>119</v>
       </c>
-      <c r="B134" s="46"/>
-      <c r="C134" s="50"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="10" t="s">
         <v>264</v>
       </c>
@@ -6689,8 +6719,8 @@
       <c r="A135" s="18">
         <v>120</v>
       </c>
-      <c r="B135" s="46"/>
-      <c r="C135" s="50" t="s">
+      <c r="B135" s="53"/>
+      <c r="C135" s="54" t="s">
         <v>266</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6716,8 +6746,8 @@
       <c r="A136" s="18">
         <v>121</v>
       </c>
-      <c r="B136" s="46"/>
-      <c r="C136" s="50"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="54"/>
       <c r="D136" s="10" t="s">
         <v>269</v>
       </c>
@@ -6741,8 +6771,8 @@
       <c r="A137" s="18">
         <v>122</v>
       </c>
-      <c r="B137" s="46"/>
-      <c r="C137" s="50"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="54"/>
       <c r="D137" s="10" t="s">
         <v>270</v>
       </c>
@@ -6767,8 +6797,8 @@
       <c r="A138" s="18">
         <v>123</v>
       </c>
-      <c r="B138" s="46"/>
-      <c r="C138" s="50"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="54"/>
       <c r="D138" s="10" t="s">
         <v>271</v>
       </c>
@@ -6792,8 +6822,8 @@
       <c r="A139" s="18">
         <v>124</v>
       </c>
-      <c r="B139" s="46"/>
-      <c r="C139" s="50"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="54"/>
       <c r="D139" s="10" t="s">
         <v>272</v>
       </c>
@@ -6817,8 +6847,8 @@
       <c r="A140" s="18">
         <v>125</v>
       </c>
-      <c r="B140" s="46"/>
-      <c r="C140" s="50" t="s">
+      <c r="B140" s="53"/>
+      <c r="C140" s="54" t="s">
         <v>274</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -6844,8 +6874,8 @@
       <c r="A141" s="18">
         <v>126</v>
       </c>
-      <c r="B141" s="46"/>
-      <c r="C141" s="50"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="54"/>
       <c r="D141" s="10" t="s">
         <v>277</v>
       </c>
@@ -6869,7 +6899,7 @@
       <c r="A142" s="18">
         <v>127</v>
       </c>
-      <c r="B142" s="46"/>
+      <c r="B142" s="53"/>
       <c r="C142" s="22" t="s">
         <v>279</v>
       </c>
@@ -6896,8 +6926,8 @@
       <c r="A143" s="18">
         <v>128</v>
       </c>
-      <c r="B143" s="46"/>
-      <c r="C143" s="50" t="s">
+      <c r="B143" s="53"/>
+      <c r="C143" s="54" t="s">
         <v>282</v>
       </c>
       <c r="D143" s="10" t="s">
@@ -6923,8 +6953,8 @@
       <c r="A144" s="18">
         <v>129</v>
       </c>
-      <c r="B144" s="46"/>
-      <c r="C144" s="50"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="54"/>
       <c r="D144" s="10" t="s">
         <v>285</v>
       </c>
@@ -6948,8 +6978,8 @@
       <c r="A145" s="18">
         <v>130</v>
       </c>
-      <c r="B145" s="46"/>
-      <c r="C145" s="50"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="54"/>
       <c r="D145" s="10" t="s">
         <v>287</v>
       </c>
@@ -6973,7 +7003,7 @@
       <c r="A146" s="18">
         <v>131</v>
       </c>
-      <c r="B146" s="46"/>
+      <c r="B146" s="53"/>
       <c r="C146" s="22"/>
       <c r="D146" s="10" t="s">
         <v>175</v>
@@ -6998,10 +7028,10 @@
       <c r="A147" s="18">
         <v>132</v>
       </c>
-      <c r="B147" s="46" t="s">
+      <c r="B147" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="50" t="s">
+      <c r="C147" s="54" t="s">
         <v>290</v>
       </c>
       <c r="D147" s="10" t="s">
@@ -7027,8 +7057,8 @@
       <c r="A148" s="18">
         <v>133</v>
       </c>
-      <c r="B148" s="46"/>
-      <c r="C148" s="50"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="54"/>
       <c r="D148" s="10" t="s">
         <v>293</v>
       </c>
@@ -7052,7 +7082,7 @@
       <c r="A149" s="18">
         <v>134</v>
       </c>
-      <c r="B149" s="46"/>
+      <c r="B149" s="53"/>
       <c r="C149" s="22"/>
       <c r="D149" s="10" t="s">
         <v>175</v>
@@ -7077,10 +7107,10 @@
       <c r="A150" s="18">
         <v>135</v>
       </c>
-      <c r="B150" s="49" t="s">
+      <c r="B150" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C150" s="40" t="s">
+      <c r="C150" s="38" t="s">
         <v>296</v>
       </c>
       <c r="D150" s="10" t="s">
@@ -7106,8 +7136,8 @@
       <c r="A151" s="18">
         <v>136</v>
       </c>
-      <c r="B151" s="47"/>
-      <c r="C151" s="41"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="39"/>
       <c r="D151" s="10" t="s">
         <v>299</v>
       </c>
@@ -7131,8 +7161,8 @@
       <c r="A152" s="18">
         <v>137</v>
       </c>
-      <c r="B152" s="47"/>
-      <c r="C152" s="41"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="39"/>
       <c r="D152" s="10" t="s">
         <v>301</v>
       </c>
@@ -7156,8 +7186,8 @@
       <c r="A153" s="18">
         <v>138</v>
       </c>
-      <c r="B153" s="47"/>
-      <c r="C153" s="42"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="40"/>
       <c r="D153" s="10" t="s">
         <v>303</v>
       </c>
@@ -7181,8 +7211,8 @@
       <c r="A154" s="18">
         <v>139</v>
       </c>
-      <c r="B154" s="47"/>
-      <c r="C154" s="40" t="s">
+      <c r="B154" s="51"/>
+      <c r="C154" s="38" t="s">
         <v>290</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -7208,8 +7238,8 @@
       <c r="A155" s="18">
         <v>140</v>
       </c>
-      <c r="B155" s="47"/>
-      <c r="C155" s="42"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="40"/>
       <c r="D155" s="10" t="s">
         <v>307</v>
       </c>
@@ -7233,7 +7263,7 @@
       <c r="A156" s="18">
         <v>141</v>
       </c>
-      <c r="B156" s="48"/>
+      <c r="B156" s="52"/>
       <c r="C156" s="22"/>
       <c r="D156" s="10" t="s">
         <v>175</v>
@@ -7258,7 +7288,7 @@
       <c r="A157" s="18">
         <v>142</v>
       </c>
-      <c r="B157" s="49" t="s">
+      <c r="B157" s="50" t="s">
         <v>309</v>
       </c>
       <c r="C157" s="22" t="s">
@@ -7287,7 +7317,7 @@
       <c r="A158" s="18">
         <v>143</v>
       </c>
-      <c r="B158" s="47"/>
+      <c r="B158" s="51"/>
       <c r="C158" s="22" t="s">
         <v>313</v>
       </c>
@@ -7314,7 +7344,7 @@
       <c r="A159" s="18">
         <v>144</v>
       </c>
-      <c r="B159" s="47"/>
+      <c r="B159" s="51"/>
       <c r="C159" s="22" t="s">
         <v>316</v>
       </c>
@@ -7341,7 +7371,7 @@
       <c r="A160" s="18">
         <v>145</v>
       </c>
-      <c r="B160" s="48"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="22"/>
       <c r="D160" s="10" t="s">
         <v>175</v>
@@ -7366,7 +7396,7 @@
       <c r="A161" s="18">
         <v>146</v>
       </c>
-      <c r="B161" s="49" t="s">
+      <c r="B161" s="50" t="s">
         <v>320</v>
       </c>
       <c r="C161" s="22" t="s">
@@ -7395,8 +7425,8 @@
       <c r="A162" s="18">
         <v>147</v>
       </c>
-      <c r="B162" s="47"/>
-      <c r="C162" s="40" t="s">
+      <c r="B162" s="51"/>
+      <c r="C162" s="38" t="s">
         <v>322</v>
       </c>
       <c r="D162" s="10" t="s">
@@ -7422,8 +7452,8 @@
       <c r="A163" s="18">
         <v>148</v>
       </c>
-      <c r="B163" s="47"/>
-      <c r="C163" s="42"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="40"/>
       <c r="D163" s="10" t="s">
         <v>325</v>
       </c>
@@ -7447,8 +7477,8 @@
       <c r="A164" s="18">
         <v>149</v>
       </c>
-      <c r="B164" s="47"/>
-      <c r="C164" s="40" t="s">
+      <c r="B164" s="51"/>
+      <c r="C164" s="38" t="s">
         <v>327</v>
       </c>
       <c r="D164" s="10" t="s">
@@ -7474,8 +7504,8 @@
       <c r="A165" s="18">
         <v>150</v>
       </c>
-      <c r="B165" s="47"/>
-      <c r="C165" s="42"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="40"/>
       <c r="D165" s="10" t="s">
         <v>328</v>
       </c>
@@ -7499,7 +7529,7 @@
       <c r="A166" s="18">
         <v>151</v>
       </c>
-      <c r="B166" s="47"/>
+      <c r="B166" s="51"/>
       <c r="C166" s="22" t="s">
         <v>331</v>
       </c>
@@ -7526,8 +7556,8 @@
       <c r="A167" s="18">
         <v>152</v>
       </c>
-      <c r="B167" s="47"/>
-      <c r="C167" s="40" t="s">
+      <c r="B167" s="51"/>
+      <c r="C167" s="38" t="s">
         <v>334</v>
       </c>
       <c r="D167" s="10" t="s">
@@ -7553,8 +7583,8 @@
       <c r="A168" s="18">
         <v>153</v>
       </c>
-      <c r="B168" s="47"/>
-      <c r="C168" s="42"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="40"/>
       <c r="D168" s="10" t="s">
         <v>338</v>
       </c>
@@ -7578,8 +7608,8 @@
       <c r="A169" s="18">
         <v>154</v>
       </c>
-      <c r="B169" s="47"/>
-      <c r="C169" s="40" t="s">
+      <c r="B169" s="51"/>
+      <c r="C169" s="38" t="s">
         <v>337</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -7605,8 +7635,8 @@
       <c r="A170" s="18">
         <v>155</v>
       </c>
-      <c r="B170" s="47"/>
-      <c r="C170" s="42"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="40"/>
       <c r="D170" s="10" t="s">
         <v>340</v>
       </c>
@@ -7630,8 +7660,8 @@
       <c r="A171" s="18">
         <v>156</v>
       </c>
-      <c r="B171" s="47"/>
-      <c r="C171" s="40" t="s">
+      <c r="B171" s="51"/>
+      <c r="C171" s="38" t="s">
         <v>344</v>
       </c>
       <c r="D171" s="10" t="s">
@@ -7657,8 +7687,8 @@
       <c r="A172" s="18">
         <v>157</v>
       </c>
-      <c r="B172" s="47"/>
-      <c r="C172" s="41"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="39"/>
       <c r="D172" s="10" t="s">
         <v>347</v>
       </c>
@@ -7682,8 +7712,8 @@
       <c r="A173" s="18">
         <v>158</v>
       </c>
-      <c r="B173" s="47"/>
-      <c r="C173" s="42"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="40"/>
       <c r="D173" s="10" t="s">
         <v>349</v>
       </c>
@@ -7707,8 +7737,8 @@
       <c r="A174" s="18">
         <v>159</v>
       </c>
-      <c r="B174" s="47"/>
-      <c r="C174" s="40" t="s">
+      <c r="B174" s="51"/>
+      <c r="C174" s="38" t="s">
         <v>351</v>
       </c>
       <c r="D174" s="10" t="s">
@@ -7734,8 +7764,8 @@
       <c r="A175" s="18">
         <v>160</v>
       </c>
-      <c r="B175" s="47"/>
-      <c r="C175" s="42"/>
+      <c r="B175" s="51"/>
+      <c r="C175" s="40"/>
       <c r="D175" s="10" t="s">
         <v>352</v>
       </c>
@@ -7759,7 +7789,7 @@
       <c r="A176" s="18">
         <v>161</v>
       </c>
-      <c r="B176" s="47" t="s">
+      <c r="B176" s="51" t="s">
         <v>355</v>
       </c>
       <c r="C176" s="22" t="s">
@@ -7788,7 +7818,7 @@
       <c r="A177" s="18">
         <v>162</v>
       </c>
-      <c r="B177" s="47"/>
+      <c r="B177" s="51"/>
       <c r="C177" s="22" t="s">
         <v>356</v>
       </c>
@@ -7815,8 +7845,8 @@
       <c r="A178" s="18">
         <v>163</v>
       </c>
-      <c r="B178" s="47"/>
-      <c r="C178" s="40" t="s">
+      <c r="B178" s="51"/>
+      <c r="C178" s="38" t="s">
         <v>360</v>
       </c>
       <c r="D178" s="10" t="s">
@@ -7842,8 +7872,8 @@
       <c r="A179" s="18">
         <v>164</v>
       </c>
-      <c r="B179" s="48"/>
-      <c r="C179" s="42"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="40"/>
       <c r="D179" s="10" t="s">
         <v>362</v>
       </c>
@@ -7867,7 +7897,7 @@
       <c r="A180" s="18">
         <v>165</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="53" t="s">
         <v>364</v>
       </c>
       <c r="C180" s="32"/>
@@ -7894,7 +7924,7 @@
       <c r="A181" s="18">
         <v>166</v>
       </c>
-      <c r="B181" s="46"/>
+      <c r="B181" s="53"/>
       <c r="C181" s="32"/>
       <c r="D181" s="10" t="s">
         <v>367</v>
@@ -7919,7 +7949,7 @@
       <c r="A182" s="18">
         <v>167</v>
       </c>
-      <c r="B182" s="46"/>
+      <c r="B182" s="53"/>
       <c r="C182" s="32"/>
       <c r="D182" s="10" t="s">
         <v>369</v>
@@ -7944,7 +7974,7 @@
       <c r="A183" s="18">
         <v>168</v>
       </c>
-      <c r="B183" s="46"/>
+      <c r="B183" s="53"/>
       <c r="C183" s="32"/>
       <c r="D183" s="10" t="s">
         <v>371</v>
@@ -7969,7 +7999,7 @@
       <c r="A184" s="18">
         <v>169</v>
       </c>
-      <c r="B184" s="46" t="s">
+      <c r="B184" s="53" t="s">
         <v>373</v>
       </c>
       <c r="C184" s="32" t="s">
@@ -7998,7 +8028,7 @@
       <c r="A185" s="18">
         <v>170</v>
       </c>
-      <c r="B185" s="46"/>
+      <c r="B185" s="53"/>
       <c r="C185" s="32" t="s">
         <v>377</v>
       </c>
@@ -8025,7 +8055,7 @@
       <c r="A186" s="18">
         <v>171</v>
       </c>
-      <c r="B186" s="46"/>
+      <c r="B186" s="53"/>
       <c r="C186" s="32" t="s">
         <v>380</v>
       </c>
@@ -8052,7 +8082,7 @@
       <c r="A187" s="18">
         <v>172</v>
       </c>
-      <c r="B187" s="46"/>
+      <c r="B187" s="53"/>
       <c r="C187" s="32" t="s">
         <v>383</v>
       </c>
@@ -8079,7 +8109,7 @@
       <c r="A188" s="18">
         <v>173</v>
       </c>
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="53" t="s">
         <v>386</v>
       </c>
       <c r="C188" s="32" t="s">
@@ -8108,7 +8138,7 @@
       <c r="A189" s="18">
         <v>174</v>
       </c>
-      <c r="B189" s="46"/>
+      <c r="B189" s="53"/>
       <c r="C189" s="32" t="s">
         <v>390</v>
       </c>
@@ -8135,7 +8165,7 @@
       <c r="A190" s="18">
         <v>175</v>
       </c>
-      <c r="B190" s="46"/>
+      <c r="B190" s="53"/>
       <c r="C190" s="32" t="s">
         <v>393</v>
       </c>
@@ -8162,7 +8192,7 @@
       <c r="A191" s="18">
         <v>176</v>
       </c>
-      <c r="B191" s="46"/>
+      <c r="B191" s="53"/>
       <c r="C191" s="32" t="s">
         <v>396</v>
       </c>
@@ -8189,7 +8219,7 @@
       <c r="A192" s="18">
         <v>177</v>
       </c>
-      <c r="B192" s="46"/>
+      <c r="B192" s="53"/>
       <c r="C192" s="32" t="s">
         <v>398</v>
       </c>
@@ -8216,7 +8246,7 @@
       <c r="A193" s="18">
         <v>178</v>
       </c>
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="53" t="s">
         <v>400</v>
       </c>
       <c r="C193" s="32" t="s">
@@ -8245,7 +8275,7 @@
       <c r="A194" s="18">
         <v>179</v>
       </c>
-      <c r="B194" s="46"/>
+      <c r="B194" s="53"/>
       <c r="C194" s="32"/>
       <c r="D194" s="10" t="s">
         <v>404</v>
@@ -8270,7 +8300,7 @@
       <c r="A195" s="18">
         <v>180</v>
       </c>
-      <c r="B195" s="46"/>
+      <c r="B195" s="53"/>
       <c r="C195" s="32"/>
       <c r="D195" s="10" t="s">
         <v>406</v>
@@ -8295,7 +8325,7 @@
       <c r="A196" s="18">
         <v>181</v>
       </c>
-      <c r="B196" s="46"/>
+      <c r="B196" s="53"/>
       <c r="C196" s="32"/>
       <c r="D196" s="10" t="s">
         <v>408</v>
@@ -8320,7 +8350,7 @@
       <c r="A197" s="18">
         <v>182</v>
       </c>
-      <c r="B197" s="46"/>
+      <c r="B197" s="53"/>
       <c r="C197" s="32" t="s">
         <v>410</v>
       </c>
@@ -8347,7 +8377,7 @@
       <c r="A198" s="18">
         <v>183</v>
       </c>
-      <c r="B198" s="46"/>
+      <c r="B198" s="53"/>
       <c r="C198" s="32" t="s">
         <v>413</v>
       </c>
@@ -8374,7 +8404,7 @@
       <c r="A199" s="18">
         <v>184</v>
       </c>
-      <c r="B199" s="46"/>
+      <c r="B199" s="53"/>
       <c r="C199" s="32"/>
       <c r="D199" s="10" t="s">
         <v>416</v>
@@ -8399,7 +8429,7 @@
       <c r="A200" s="18">
         <v>185</v>
       </c>
-      <c r="B200" s="46"/>
+      <c r="B200" s="53"/>
       <c r="C200" s="32"/>
       <c r="D200" s="10" t="s">
         <v>418</v>
@@ -8424,7 +8454,7 @@
       <c r="A201" s="18">
         <v>186</v>
       </c>
-      <c r="B201" s="46"/>
+      <c r="B201" s="53"/>
       <c r="C201" s="32" t="s">
         <v>420</v>
       </c>
@@ -8451,7 +8481,7 @@
       <c r="A202" s="18">
         <v>187</v>
       </c>
-      <c r="B202" s="46"/>
+      <c r="B202" s="53"/>
       <c r="C202" s="32" t="s">
         <v>398</v>
       </c>
@@ -8478,7 +8508,7 @@
       <c r="A203" s="18">
         <v>188</v>
       </c>
-      <c r="B203" s="46"/>
+      <c r="B203" s="53"/>
       <c r="C203" s="32" t="s">
         <v>423</v>
       </c>
@@ -8505,7 +8535,7 @@
       <c r="A204" s="18">
         <v>189</v>
       </c>
-      <c r="B204" s="46" t="s">
+      <c r="B204" s="53" t="s">
         <v>425</v>
       </c>
       <c r="C204" s="32" t="s">
@@ -8534,7 +8564,7 @@
       <c r="A205" s="18">
         <v>190</v>
       </c>
-      <c r="B205" s="46"/>
+      <c r="B205" s="53"/>
       <c r="C205" s="32"/>
       <c r="D205" s="10" t="s">
         <v>394</v>
@@ -8559,7 +8589,7 @@
       <c r="A206" s="18">
         <v>191</v>
       </c>
-      <c r="B206" s="46"/>
+      <c r="B206" s="53"/>
       <c r="C206" s="32" t="s">
         <v>423</v>
       </c>
@@ -8586,7 +8616,7 @@
       <c r="A207" s="18">
         <v>192</v>
       </c>
-      <c r="B207" s="46"/>
+      <c r="B207" s="53"/>
       <c r="C207" s="32" t="s">
         <v>429</v>
       </c>
@@ -8613,7 +8643,7 @@
       <c r="A208" s="18">
         <v>193</v>
       </c>
-      <c r="B208" s="46"/>
+      <c r="B208" s="53"/>
       <c r="C208" s="36" t="s">
         <v>432</v>
       </c>
@@ -8640,7 +8670,7 @@
       <c r="A209" s="18">
         <v>194</v>
       </c>
-      <c r="B209" s="49" t="s">
+      <c r="B209" s="50" t="s">
         <v>435</v>
       </c>
       <c r="C209" s="22" t="s">
@@ -8669,8 +8699,8 @@
       <c r="A210" s="18">
         <v>195</v>
       </c>
-      <c r="B210" s="47"/>
-      <c r="C210" s="40" t="s">
+      <c r="B210" s="51"/>
+      <c r="C210" s="38" t="s">
         <v>438</v>
       </c>
       <c r="D210" s="10" t="s">
@@ -8696,8 +8726,8 @@
       <c r="A211" s="18">
         <v>196</v>
       </c>
-      <c r="B211" s="47"/>
-      <c r="C211" s="41"/>
+      <c r="B211" s="51"/>
+      <c r="C211" s="39"/>
       <c r="D211" s="10" t="s">
         <v>441</v>
       </c>
@@ -8721,8 +8751,8 @@
       <c r="A212" s="18">
         <v>197</v>
       </c>
-      <c r="B212" s="47"/>
-      <c r="C212" s="42"/>
+      <c r="B212" s="51"/>
+      <c r="C212" s="40"/>
       <c r="D212" s="10" t="s">
         <v>443</v>
       </c>
@@ -8746,7 +8776,7 @@
       <c r="A213" s="18">
         <v>198</v>
       </c>
-      <c r="B213" s="47"/>
+      <c r="B213" s="51"/>
       <c r="C213" s="22" t="s">
         <v>445</v>
       </c>
@@ -8773,7 +8803,7 @@
       <c r="A214" s="18">
         <v>199</v>
       </c>
-      <c r="B214" s="47"/>
+      <c r="B214" s="51"/>
       <c r="C214" s="22" t="s">
         <v>448</v>
       </c>
@@ -8800,8 +8830,8 @@
       <c r="A215" s="18">
         <v>200</v>
       </c>
-      <c r="B215" s="47"/>
-      <c r="C215" s="40" t="s">
+      <c r="B215" s="51"/>
+      <c r="C215" s="38" t="s">
         <v>451</v>
       </c>
       <c r="D215" s="10" t="s">
@@ -8827,8 +8857,8 @@
       <c r="A216" s="18">
         <v>201</v>
       </c>
-      <c r="B216" s="47"/>
-      <c r="C216" s="41"/>
+      <c r="B216" s="51"/>
+      <c r="C216" s="39"/>
       <c r="D216" s="10" t="s">
         <v>452</v>
       </c>
@@ -8852,8 +8882,8 @@
       <c r="A217" s="18">
         <v>202</v>
       </c>
-      <c r="B217" s="47"/>
-      <c r="C217" s="42"/>
+      <c r="B217" s="51"/>
+      <c r="C217" s="40"/>
       <c r="D217" s="10" t="s">
         <v>452</v>
       </c>
@@ -8877,7 +8907,7 @@
       <c r="A218" s="18">
         <v>203</v>
       </c>
-      <c r="B218" s="47"/>
+      <c r="B218" s="51"/>
       <c r="C218" s="22" t="s">
         <v>398</v>
       </c>
@@ -8904,7 +8934,7 @@
       <c r="A219" s="18">
         <v>204</v>
       </c>
-      <c r="B219" s="47"/>
+      <c r="B219" s="51"/>
       <c r="C219" s="22" t="s">
         <v>423</v>
       </c>
@@ -8931,7 +8961,7 @@
       <c r="A220" s="18">
         <v>205</v>
       </c>
-      <c r="B220" s="48"/>
+      <c r="B220" s="52"/>
       <c r="C220" s="22" t="s">
         <v>459</v>
       </c>
@@ -8958,7 +8988,7 @@
       <c r="A221" s="18">
         <v>206</v>
       </c>
-      <c r="B221" s="56" t="s">
+      <c r="B221" s="47" t="s">
         <v>462</v>
       </c>
       <c r="C221" s="22" t="s">
@@ -8987,8 +9017,8 @@
       <c r="A222" s="18">
         <v>207</v>
       </c>
-      <c r="B222" s="57"/>
-      <c r="C222" s="40" t="s">
+      <c r="B222" s="48"/>
+      <c r="C222" s="38" t="s">
         <v>438</v>
       </c>
       <c r="D222" s="10" t="s">
@@ -9014,8 +9044,8 @@
       <c r="A223" s="18">
         <v>208</v>
       </c>
-      <c r="B223" s="57"/>
-      <c r="C223" s="41"/>
+      <c r="B223" s="48"/>
+      <c r="C223" s="39"/>
       <c r="D223" s="10" t="s">
         <v>475</v>
       </c>
@@ -9039,8 +9069,8 @@
       <c r="A224" s="18">
         <v>209</v>
       </c>
-      <c r="B224" s="57"/>
-      <c r="C224" s="42"/>
+      <c r="B224" s="48"/>
+      <c r="C224" s="40"/>
       <c r="D224" s="10" t="s">
         <v>475</v>
       </c>
@@ -9064,7 +9094,7 @@
       <c r="A225" s="18">
         <v>210</v>
       </c>
-      <c r="B225" s="57"/>
+      <c r="B225" s="48"/>
       <c r="C225" s="22" t="s">
         <v>448</v>
       </c>
@@ -9091,8 +9121,8 @@
       <c r="A226" s="18">
         <v>211</v>
       </c>
-      <c r="B226" s="57"/>
-      <c r="C226" s="40" t="s">
+      <c r="B226" s="48"/>
+      <c r="C226" s="38" t="s">
         <v>451</v>
       </c>
       <c r="D226" s="10" t="s">
@@ -9118,8 +9148,8 @@
       <c r="A227" s="18">
         <v>212</v>
       </c>
-      <c r="B227" s="57"/>
-      <c r="C227" s="41"/>
+      <c r="B227" s="48"/>
+      <c r="C227" s="39"/>
       <c r="D227" s="10" t="s">
         <v>477</v>
       </c>
@@ -9143,8 +9173,8 @@
       <c r="A228" s="18">
         <v>213</v>
       </c>
-      <c r="B228" s="57"/>
-      <c r="C228" s="42"/>
+      <c r="B228" s="48"/>
+      <c r="C228" s="40"/>
       <c r="D228" s="10" t="s">
         <v>477</v>
       </c>
@@ -9168,7 +9198,7 @@
       <c r="A229" s="18">
         <v>214</v>
       </c>
-      <c r="B229" s="57"/>
+      <c r="B229" s="48"/>
       <c r="C229" s="22" t="s">
         <v>398</v>
       </c>
@@ -9195,7 +9225,7 @@
       <c r="A230" s="18">
         <v>215</v>
       </c>
-      <c r="B230" s="58"/>
+      <c r="B230" s="49"/>
       <c r="C230" s="22" t="s">
         <v>423</v>
       </c>
@@ -9222,7 +9252,7 @@
       <c r="A231" s="18">
         <v>216</v>
       </c>
-      <c r="B231" s="43" t="s">
+      <c r="B231" s="41" t="s">
         <v>465</v>
       </c>
       <c r="C231" s="22" t="s">
@@ -9251,8 +9281,8 @@
       <c r="A232" s="18">
         <v>217</v>
       </c>
-      <c r="B232" s="44"/>
-      <c r="C232" s="40" t="s">
+      <c r="B232" s="42"/>
+      <c r="C232" s="38" t="s">
         <v>438</v>
       </c>
       <c r="D232" s="10" t="s">
@@ -9278,8 +9308,8 @@
       <c r="A233" s="18">
         <v>218</v>
       </c>
-      <c r="B233" s="44"/>
-      <c r="C233" s="41"/>
+      <c r="B233" s="42"/>
+      <c r="C233" s="39"/>
       <c r="D233" s="10" t="s">
         <v>469</v>
       </c>
@@ -9303,8 +9333,8 @@
       <c r="A234" s="18">
         <v>219</v>
       </c>
-      <c r="B234" s="44"/>
-      <c r="C234" s="42"/>
+      <c r="B234" s="42"/>
+      <c r="C234" s="40"/>
       <c r="D234" s="10" t="s">
         <v>469</v>
       </c>
@@ -9328,7 +9358,7 @@
       <c r="A235" s="18">
         <v>220</v>
       </c>
-      <c r="B235" s="44"/>
+      <c r="B235" s="42"/>
       <c r="C235" s="22" t="s">
         <v>448</v>
       </c>
@@ -9355,8 +9385,8 @@
       <c r="A236" s="18">
         <v>221</v>
       </c>
-      <c r="B236" s="44"/>
-      <c r="C236" s="40" t="s">
+      <c r="B236" s="42"/>
+      <c r="C236" s="38" t="s">
         <v>451</v>
       </c>
       <c r="D236" s="10" t="s">
@@ -9382,8 +9412,8 @@
       <c r="A237" s="18">
         <v>222</v>
       </c>
-      <c r="B237" s="44"/>
-      <c r="C237" s="41"/>
+      <c r="B237" s="42"/>
+      <c r="C237" s="39"/>
       <c r="D237" s="10" t="s">
         <v>471</v>
       </c>
@@ -9407,8 +9437,8 @@
       <c r="A238" s="18">
         <v>223</v>
       </c>
-      <c r="B238" s="44"/>
-      <c r="C238" s="42"/>
+      <c r="B238" s="42"/>
+      <c r="C238" s="40"/>
       <c r="D238" s="10" t="s">
         <v>471</v>
       </c>
@@ -9432,7 +9462,7 @@
       <c r="A239" s="18">
         <v>224</v>
       </c>
-      <c r="B239" s="44"/>
+      <c r="B239" s="42"/>
       <c r="C239" s="22" t="s">
         <v>398</v>
       </c>
@@ -9459,7 +9489,7 @@
       <c r="A240" s="18">
         <v>225</v>
       </c>
-      <c r="B240" s="44"/>
+      <c r="B240" s="42"/>
       <c r="C240" s="22" t="s">
         <v>423</v>
       </c>
@@ -9486,7 +9516,7 @@
       <c r="A241" s="18">
         <v>226</v>
       </c>
-      <c r="B241" s="45"/>
+      <c r="B241" s="43"/>
       <c r="C241" s="22" t="s">
         <v>445</v>
       </c>
@@ -9513,7 +9543,7 @@
       <c r="A242" s="18">
         <v>227</v>
       </c>
-      <c r="B242" s="43" t="s">
+      <c r="B242" s="41" t="s">
         <v>480</v>
       </c>
       <c r="C242" s="22" t="s">
@@ -9542,7 +9572,7 @@
       <c r="A243" s="18">
         <v>228</v>
       </c>
-      <c r="B243" s="44"/>
+      <c r="B243" s="42"/>
       <c r="C243" s="22" t="s">
         <v>483</v>
       </c>
@@ -9569,7 +9599,7 @@
       <c r="A244" s="18">
         <v>229</v>
       </c>
-      <c r="B244" s="44"/>
+      <c r="B244" s="42"/>
       <c r="C244" s="22" t="s">
         <v>486</v>
       </c>
@@ -9596,7 +9626,7 @@
       <c r="A245" s="18">
         <v>230</v>
       </c>
-      <c r="B245" s="44"/>
+      <c r="B245" s="42"/>
       <c r="C245" s="22"/>
       <c r="D245" s="10" t="s">
         <v>489</v>
@@ -9621,7 +9651,7 @@
       <c r="A246" s="18">
         <v>231</v>
       </c>
-      <c r="B246" s="45"/>
+      <c r="B246" s="43"/>
       <c r="C246" s="22"/>
       <c r="D246" s="10" t="s">
         <v>491</v>
@@ -9646,7 +9676,7 @@
       <c r="A247" s="18">
         <v>232</v>
       </c>
-      <c r="B247" s="43" t="s">
+      <c r="B247" s="41" t="s">
         <v>493</v>
       </c>
       <c r="C247" s="28" t="s">
@@ -9669,8 +9699,8 @@
       <c r="A248" s="18">
         <v>233</v>
       </c>
-      <c r="B248" s="44"/>
-      <c r="C248" s="40" t="s">
+      <c r="B248" s="42"/>
+      <c r="C248" s="38" t="s">
         <v>494</v>
       </c>
       <c r="D248" s="10" t="s">
@@ -9690,8 +9720,8 @@
       <c r="A249" s="18">
         <v>234</v>
       </c>
-      <c r="B249" s="44"/>
-      <c r="C249" s="41"/>
+      <c r="B249" s="42"/>
+      <c r="C249" s="39"/>
       <c r="D249" s="10" t="s">
         <v>500</v>
       </c>
@@ -9709,8 +9739,8 @@
       <c r="A250" s="18">
         <v>235</v>
       </c>
-      <c r="B250" s="44"/>
-      <c r="C250" s="41"/>
+      <c r="B250" s="42"/>
+      <c r="C250" s="39"/>
       <c r="D250" s="10" t="s">
         <v>501</v>
       </c>
@@ -9728,8 +9758,8 @@
       <c r="A251" s="18">
         <v>236</v>
       </c>
-      <c r="B251" s="44"/>
-      <c r="C251" s="42"/>
+      <c r="B251" s="42"/>
+      <c r="C251" s="40"/>
       <c r="D251" s="10" t="s">
         <v>503</v>
       </c>
@@ -9747,7 +9777,7 @@
       <c r="A252" s="18">
         <v>237</v>
       </c>
-      <c r="B252" s="44"/>
+      <c r="B252" s="42"/>
       <c r="C252" s="28" t="s">
         <v>505</v>
       </c>
@@ -9768,7 +9798,7 @@
       <c r="A253" s="18">
         <v>238</v>
       </c>
-      <c r="B253" s="44"/>
+      <c r="B253" s="42"/>
       <c r="C253" s="28" t="s">
         <v>508</v>
       </c>
@@ -9789,7 +9819,7 @@
       <c r="A254" s="18">
         <v>239</v>
       </c>
-      <c r="B254" s="44"/>
+      <c r="B254" s="42"/>
       <c r="C254" s="28" t="s">
         <v>511</v>
       </c>
@@ -9810,7 +9840,7 @@
       <c r="A255" s="18">
         <v>240</v>
       </c>
-      <c r="B255" s="44"/>
+      <c r="B255" s="42"/>
       <c r="C255" s="28" t="s">
         <v>514</v>
       </c>
@@ -9831,7 +9861,7 @@
       <c r="A256" s="18">
         <v>241</v>
       </c>
-      <c r="B256" s="45"/>
+      <c r="B256" s="43"/>
       <c r="C256" s="28" t="s">
         <v>517</v>
       </c>
@@ -9852,7 +9882,7 @@
       <c r="A257" s="18">
         <v>242</v>
       </c>
-      <c r="B257" s="43" t="s">
+      <c r="B257" s="41" t="s">
         <v>520</v>
       </c>
       <c r="C257" s="28" t="s">
@@ -9881,7 +9911,7 @@
       <c r="A258" s="18">
         <v>243</v>
       </c>
-      <c r="B258" s="44"/>
+      <c r="B258" s="42"/>
       <c r="C258" s="22" t="s">
         <v>523</v>
       </c>
@@ -9908,7 +9938,7 @@
       <c r="A259" s="18">
         <v>244</v>
       </c>
-      <c r="B259" s="44"/>
+      <c r="B259" s="42"/>
       <c r="C259" s="22" t="s">
         <v>177</v>
       </c>
@@ -9935,8 +9965,8 @@
       <c r="A260" s="18">
         <v>245</v>
       </c>
-      <c r="B260" s="44"/>
-      <c r="C260" s="40" t="s">
+      <c r="B260" s="42"/>
+      <c r="C260" s="38" t="s">
         <v>528</v>
       </c>
       <c r="D260" s="10" t="s">
@@ -9962,8 +9992,8 @@
       <c r="A261" s="18">
         <v>246</v>
       </c>
-      <c r="B261" s="44"/>
-      <c r="C261" s="41"/>
+      <c r="B261" s="42"/>
+      <c r="C261" s="39"/>
       <c r="D261" s="10" t="s">
         <v>531</v>
       </c>
@@ -9987,8 +10017,8 @@
       <c r="A262" s="18">
         <v>247</v>
       </c>
-      <c r="B262" s="44"/>
-      <c r="C262" s="42"/>
+      <c r="B262" s="42"/>
+      <c r="C262" s="40"/>
       <c r="D262" s="10" t="s">
         <v>533</v>
       </c>
@@ -10012,7 +10042,7 @@
       <c r="A263" s="18">
         <v>248</v>
       </c>
-      <c r="B263" s="44"/>
+      <c r="B263" s="42"/>
       <c r="C263" s="30" t="s">
         <v>535</v>
       </c>
@@ -10039,7 +10069,7 @@
       <c r="A264" s="18">
         <v>249</v>
       </c>
-      <c r="B264" s="44"/>
+      <c r="B264" s="42"/>
       <c r="C264" s="28" t="s">
         <v>538</v>
       </c>
@@ -10066,7 +10096,7 @@
       <c r="A265" s="18">
         <v>250</v>
       </c>
-      <c r="B265" s="44"/>
+      <c r="B265" s="42"/>
       <c r="C265" s="28" t="s">
         <v>541</v>
       </c>
@@ -10093,7 +10123,7 @@
       <c r="A266" s="18">
         <v>251</v>
       </c>
-      <c r="B266" s="45"/>
+      <c r="B266" s="43"/>
       <c r="C266" s="28" t="s">
         <v>544</v>
       </c>
@@ -10120,7 +10150,7 @@
       <c r="A267" s="18">
         <v>252</v>
       </c>
-      <c r="B267" s="43" t="s">
+      <c r="B267" s="41" t="s">
         <v>547</v>
       </c>
       <c r="C267" s="28" t="s">
@@ -10149,7 +10179,7 @@
       <c r="A268" s="18">
         <v>253</v>
       </c>
-      <c r="B268" s="44"/>
+      <c r="B268" s="42"/>
       <c r="C268" s="28" t="s">
         <v>550</v>
       </c>
@@ -10176,7 +10206,7 @@
       <c r="A269" s="18">
         <v>254</v>
       </c>
-      <c r="B269" s="44"/>
+      <c r="B269" s="42"/>
       <c r="C269" s="28" t="s">
         <v>553</v>
       </c>
@@ -10203,7 +10233,7 @@
       <c r="A270" s="18">
         <v>255</v>
       </c>
-      <c r="B270" s="44"/>
+      <c r="B270" s="42"/>
       <c r="C270" s="28" t="s">
         <v>556</v>
       </c>
@@ -10230,7 +10260,7 @@
       <c r="A271" s="18">
         <v>256</v>
       </c>
-      <c r="B271" s="44"/>
+      <c r="B271" s="42"/>
       <c r="C271" s="28" t="s">
         <v>541</v>
       </c>
@@ -10257,7 +10287,7 @@
       <c r="A272" s="18">
         <v>257</v>
       </c>
-      <c r="B272" s="45"/>
+      <c r="B272" s="43"/>
       <c r="C272" s="28" t="s">
         <v>538</v>
       </c>
@@ -10284,7 +10314,7 @@
       <c r="A273" s="18">
         <v>258</v>
       </c>
-      <c r="B273" s="43" t="s">
+      <c r="B273" s="41" t="s">
         <v>561</v>
       </c>
       <c r="C273" s="28" t="s">
@@ -10313,7 +10343,7 @@
       <c r="A274" s="18">
         <v>259</v>
       </c>
-      <c r="B274" s="44"/>
+      <c r="B274" s="42"/>
       <c r="C274" s="28" t="s">
         <v>523</v>
       </c>
@@ -10340,7 +10370,7 @@
       <c r="A275" s="18">
         <v>260</v>
       </c>
-      <c r="B275" s="44"/>
+      <c r="B275" s="42"/>
       <c r="C275" s="28" t="s">
         <v>177</v>
       </c>
@@ -10367,8 +10397,8 @@
       <c r="A276" s="18">
         <v>261</v>
       </c>
-      <c r="B276" s="44"/>
-      <c r="C276" s="40" t="s">
+      <c r="B276" s="42"/>
+      <c r="C276" s="38" t="s">
         <v>528</v>
       </c>
       <c r="D276" s="10" t="s">
@@ -10394,8 +10424,8 @@
       <c r="A277" s="18">
         <v>262</v>
       </c>
-      <c r="B277" s="44"/>
-      <c r="C277" s="41"/>
+      <c r="B277" s="42"/>
+      <c r="C277" s="39"/>
       <c r="D277" s="10" t="s">
         <v>531</v>
       </c>
@@ -10419,8 +10449,8 @@
       <c r="A278" s="18">
         <v>263</v>
       </c>
-      <c r="B278" s="44"/>
-      <c r="C278" s="42"/>
+      <c r="B278" s="42"/>
+      <c r="C278" s="40"/>
       <c r="D278" s="10" t="s">
         <v>533</v>
       </c>
@@ -10444,7 +10474,7 @@
       <c r="A279" s="18">
         <v>264</v>
       </c>
-      <c r="B279" s="44"/>
+      <c r="B279" s="42"/>
       <c r="C279" s="30" t="s">
         <v>535</v>
       </c>
@@ -10471,7 +10501,7 @@
       <c r="A280" s="18">
         <v>265</v>
       </c>
-      <c r="B280" s="44"/>
+      <c r="B280" s="42"/>
       <c r="C280" s="28" t="s">
         <v>538</v>
       </c>
@@ -10498,7 +10528,7 @@
       <c r="A281" s="18">
         <v>266</v>
       </c>
-      <c r="B281" s="45"/>
+      <c r="B281" s="43"/>
       <c r="C281" s="28" t="s">
         <v>541</v>
       </c>
@@ -10525,7 +10555,7 @@
       <c r="A282" s="18">
         <v>267</v>
       </c>
-      <c r="B282" s="43" t="s">
+      <c r="B282" s="41" t="s">
         <v>571</v>
       </c>
       <c r="C282" s="28" t="s">
@@ -10548,7 +10578,7 @@
       <c r="A283" s="18">
         <v>268</v>
       </c>
-      <c r="B283" s="44"/>
+      <c r="B283" s="42"/>
       <c r="C283" s="28" t="s">
         <v>523</v>
       </c>
@@ -10569,7 +10599,7 @@
       <c r="A284" s="18">
         <v>269</v>
       </c>
-      <c r="B284" s="44"/>
+      <c r="B284" s="42"/>
       <c r="C284" s="28" t="s">
         <v>177</v>
       </c>
@@ -10590,7 +10620,7 @@
       <c r="A285" s="18">
         <v>270</v>
       </c>
-      <c r="B285" s="44"/>
+      <c r="B285" s="42"/>
       <c r="C285" s="28" t="s">
         <v>541</v>
       </c>
@@ -10611,7 +10641,7 @@
       <c r="A286" s="18">
         <v>271</v>
       </c>
-      <c r="B286" s="44"/>
+      <c r="B286" s="42"/>
       <c r="C286" s="28" t="s">
         <v>538</v>
       </c>
@@ -10632,8 +10662,8 @@
       <c r="A287" s="18">
         <v>272</v>
       </c>
-      <c r="B287" s="44"/>
-      <c r="C287" s="40" t="s">
+      <c r="B287" s="42"/>
+      <c r="C287" s="38" t="s">
         <v>528</v>
       </c>
       <c r="D287" s="10" t="s">
@@ -10653,8 +10683,8 @@
       <c r="A288" s="18">
         <v>273</v>
       </c>
-      <c r="B288" s="44"/>
-      <c r="C288" s="41"/>
+      <c r="B288" s="42"/>
+      <c r="C288" s="39"/>
       <c r="D288" s="10" t="s">
         <v>531</v>
       </c>
@@ -10672,8 +10702,8 @@
       <c r="A289" s="18">
         <v>274</v>
       </c>
-      <c r="B289" s="44"/>
-      <c r="C289" s="41"/>
+      <c r="B289" s="42"/>
+      <c r="C289" s="39"/>
       <c r="D289" s="10" t="s">
         <v>533</v>
       </c>
@@ -10691,8 +10721,8 @@
       <c r="A290" s="18">
         <v>275</v>
       </c>
-      <c r="B290" s="44"/>
-      <c r="C290" s="41"/>
+      <c r="B290" s="42"/>
+      <c r="C290" s="39"/>
       <c r="D290" s="10" t="s">
         <v>581</v>
       </c>
@@ -10710,8 +10740,8 @@
       <c r="A291" s="18">
         <v>276</v>
       </c>
-      <c r="B291" s="44"/>
-      <c r="C291" s="41"/>
+      <c r="B291" s="42"/>
+      <c r="C291" s="39"/>
       <c r="D291" s="10" t="s">
         <v>578</v>
       </c>
@@ -10729,8 +10759,8 @@
       <c r="A292" s="18">
         <v>277</v>
       </c>
-      <c r="B292" s="45"/>
-      <c r="C292" s="42"/>
+      <c r="B292" s="43"/>
+      <c r="C292" s="40"/>
       <c r="D292" s="10" t="s">
         <v>578</v>
       </c>
@@ -10748,7 +10778,7 @@
       <c r="A293" s="18">
         <v>278</v>
       </c>
-      <c r="B293" s="43" t="s">
+      <c r="B293" s="41" t="s">
         <v>585</v>
       </c>
       <c r="C293" s="28" t="s">
@@ -10771,7 +10801,7 @@
       <c r="A294" s="18">
         <v>279</v>
       </c>
-      <c r="B294" s="44"/>
+      <c r="B294" s="42"/>
       <c r="C294" s="28" t="s">
         <v>523</v>
       </c>
@@ -10792,7 +10822,7 @@
       <c r="A295" s="18">
         <v>280</v>
       </c>
-      <c r="B295" s="44"/>
+      <c r="B295" s="42"/>
       <c r="C295" s="28" t="s">
         <v>177</v>
       </c>
@@ -10813,7 +10843,7 @@
       <c r="A296" s="18">
         <v>281</v>
       </c>
-      <c r="B296" s="44"/>
+      <c r="B296" s="42"/>
       <c r="C296" s="28" t="s">
         <v>538</v>
       </c>
@@ -10834,8 +10864,8 @@
       <c r="A297" s="18">
         <v>282</v>
       </c>
-      <c r="B297" s="44"/>
-      <c r="C297" s="40" t="s">
+      <c r="B297" s="42"/>
+      <c r="C297" s="38" t="s">
         <v>528</v>
       </c>
       <c r="D297" s="10" t="s">
@@ -10855,8 +10885,8 @@
       <c r="A298" s="18">
         <v>283</v>
       </c>
-      <c r="B298" s="44"/>
-      <c r="C298" s="41"/>
+      <c r="B298" s="42"/>
+      <c r="C298" s="39"/>
       <c r="D298" s="10" t="s">
         <v>531</v>
       </c>
@@ -10874,8 +10904,8 @@
       <c r="A299" s="18">
         <v>284</v>
       </c>
-      <c r="B299" s="44"/>
-      <c r="C299" s="41"/>
+      <c r="B299" s="42"/>
+      <c r="C299" s="39"/>
       <c r="D299" s="10" t="s">
         <v>533</v>
       </c>
@@ -10893,8 +10923,8 @@
       <c r="A300" s="18">
         <v>285</v>
       </c>
-      <c r="B300" s="44"/>
-      <c r="C300" s="42"/>
+      <c r="B300" s="42"/>
+      <c r="C300" s="40"/>
       <c r="D300" s="10" t="s">
         <v>591</v>
       </c>
@@ -10912,7 +10942,7 @@
       <c r="A301" s="18">
         <v>286</v>
       </c>
-      <c r="B301" s="44"/>
+      <c r="B301" s="42"/>
       <c r="C301" s="28" t="s">
         <v>593</v>
       </c>
@@ -10933,7 +10963,7 @@
       <c r="A302" s="18">
         <v>287</v>
       </c>
-      <c r="B302" s="45"/>
+      <c r="B302" s="43"/>
       <c r="C302" s="28" t="s">
         <v>541</v>
       </c>
@@ -10954,7 +10984,7 @@
       <c r="A303" s="18">
         <v>288</v>
       </c>
-      <c r="B303" s="37" t="s">
+      <c r="B303" s="57" t="s">
         <v>597</v>
       </c>
       <c r="C303" s="28" t="s">
@@ -10977,7 +11007,7 @@
       <c r="A304" s="18">
         <v>289</v>
       </c>
-      <c r="B304" s="38"/>
+      <c r="B304" s="58"/>
       <c r="C304" s="28" t="s">
         <v>593</v>
       </c>
@@ -10998,7 +11028,7 @@
       <c r="A305" s="18">
         <v>290</v>
       </c>
-      <c r="B305" s="38"/>
+      <c r="B305" s="58"/>
       <c r="C305" s="28" t="s">
         <v>541</v>
       </c>
@@ -11019,7 +11049,7 @@
       <c r="A306" s="18">
         <v>291</v>
       </c>
-      <c r="B306" s="38"/>
+      <c r="B306" s="58"/>
       <c r="C306" s="28" t="s">
         <v>538</v>
       </c>
@@ -11040,7 +11070,7 @@
       <c r="A307" s="18">
         <v>292</v>
       </c>
-      <c r="B307" s="39"/>
+      <c r="B307" s="59"/>
       <c r="C307" s="28" t="s">
         <v>602</v>
       </c>
@@ -11061,7 +11091,7 @@
       <c r="A308" s="18">
         <v>293</v>
       </c>
-      <c r="B308" s="43" t="s">
+      <c r="B308" s="41" t="s">
         <v>605</v>
       </c>
       <c r="C308" s="28" t="s">
@@ -11084,7 +11114,7 @@
       <c r="A309" s="18">
         <v>294</v>
       </c>
-      <c r="B309" s="44"/>
+      <c r="B309" s="42"/>
       <c r="C309" s="28" t="s">
         <v>541</v>
       </c>
@@ -11105,7 +11135,7 @@
       <c r="A310" s="18">
         <v>295</v>
       </c>
-      <c r="B310" s="44"/>
+      <c r="B310" s="42"/>
       <c r="C310" s="28" t="s">
         <v>538</v>
       </c>
@@ -11126,8 +11156,8 @@
       <c r="A311" s="18">
         <v>296</v>
       </c>
-      <c r="B311" s="44"/>
-      <c r="C311" s="40" t="s">
+      <c r="B311" s="42"/>
+      <c r="C311" s="38" t="s">
         <v>528</v>
       </c>
       <c r="D311" s="10" t="s">
@@ -11147,8 +11177,8 @@
       <c r="A312" s="18">
         <v>297</v>
       </c>
-      <c r="B312" s="44"/>
-      <c r="C312" s="41"/>
+      <c r="B312" s="42"/>
+      <c r="C312" s="39"/>
       <c r="D312" s="10" t="s">
         <v>531</v>
       </c>
@@ -11166,8 +11196,8 @@
       <c r="A313" s="18">
         <v>298</v>
       </c>
-      <c r="B313" s="44"/>
-      <c r="C313" s="42"/>
+      <c r="B313" s="42"/>
+      <c r="C313" s="40"/>
       <c r="D313" s="10" t="s">
         <v>533</v>
       </c>
@@ -11185,8 +11215,8 @@
       <c r="A314" s="18">
         <v>299</v>
       </c>
-      <c r="B314" s="44"/>
-      <c r="C314" s="40" t="s">
+      <c r="B314" s="42"/>
+      <c r="C314" s="38" t="s">
         <v>610</v>
       </c>
       <c r="D314" s="10" t="s">
@@ -11206,8 +11236,8 @@
       <c r="A315" s="18">
         <v>300</v>
       </c>
-      <c r="B315" s="44"/>
-      <c r="C315" s="41"/>
+      <c r="B315" s="42"/>
+      <c r="C315" s="39"/>
       <c r="D315" s="10" t="s">
         <v>614</v>
       </c>
@@ -11225,8 +11255,8 @@
       <c r="A316" s="18">
         <v>301</v>
       </c>
-      <c r="B316" s="44"/>
-      <c r="C316" s="42"/>
+      <c r="B316" s="42"/>
+      <c r="C316" s="40"/>
       <c r="D316" s="10" t="s">
         <v>615</v>
       </c>
@@ -11244,8 +11274,8 @@
       <c r="A317" s="18">
         <v>302</v>
       </c>
-      <c r="B317" s="44"/>
-      <c r="C317" s="40" t="s">
+      <c r="B317" s="42"/>
+      <c r="C317" s="38" t="s">
         <v>617</v>
       </c>
       <c r="D317" s="10" t="s">
@@ -11265,8 +11295,8 @@
       <c r="A318" s="18">
         <v>303</v>
       </c>
-      <c r="B318" s="44"/>
-      <c r="C318" s="42"/>
+      <c r="B318" s="42"/>
+      <c r="C318" s="40"/>
       <c r="D318" s="10" t="s">
         <v>620</v>
       </c>
@@ -11284,7 +11314,7 @@
       <c r="A319" s="18">
         <v>304</v>
       </c>
-      <c r="B319" s="45"/>
+      <c r="B319" s="43"/>
       <c r="C319" s="28" t="s">
         <v>622</v>
       </c>
@@ -11596,6 +11626,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="B308:B319"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="B273:B281"/>
+    <mergeCell ref="C287:C292"/>
+    <mergeCell ref="B282:B292"/>
+    <mergeCell ref="C297:C300"/>
+    <mergeCell ref="B293:B302"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="B247:B256"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="B257:B266"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B193:B203"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B133:B146"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="B115:B132"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="B65:B81"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C78:C80"/>
     <mergeCell ref="C236:C238"/>
     <mergeCell ref="B231:B241"/>
     <mergeCell ref="B242:B246"/>
@@ -11612,74 +11710,6 @@
     <mergeCell ref="B111:B114"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="B65:B81"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B115:B132"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="B133:B146"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B193:B203"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="B247:B256"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="B257:B266"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="B273:B281"/>
-    <mergeCell ref="C287:C292"/>
-    <mergeCell ref="B282:B292"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="B293:B302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="B308:B319"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G257:I281 G16:I246">

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChuyenDe12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="630">
   <si>
     <t>Kết quả test trên ứng dụng</t>
   </si>
@@ -1734,16 +1734,6 @@
     <t>Navigate to english test screens</t>
   </si>
   <si>
-    <t>“Luyện tập” Button</t>
-  </si>
-  <si>
-    <t>Click "Luyện tập" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate to english test screens
-</t>
-  </si>
-  <si>
     <t>Learning English Of Topic Screen</t>
   </si>
   <si>
@@ -2635,7 +2625,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2852,37 +2842,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2894,13 +2854,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2915,31 +2881,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -3286,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K323"/>
+  <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3479,11 +3455,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
@@ -3504,11 +3480,11 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -3551,7 +3527,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3580,7 +3556,7 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3609,7 +3585,7 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3638,7 +3614,7 @@
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3667,7 +3643,7 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3696,7 +3672,7 @@
       <c r="A21" s="4">
         <v>6</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3723,7 +3699,7 @@
       <c r="A22" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -3752,8 +3728,8 @@
       <c r="A23" s="4">
         <v>8</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3777,7 +3753,7 @@
       <c r="A24" s="4">
         <v>9</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22" t="s">
         <v>44</v>
       </c>
@@ -3804,8 +3780,8 @@
       <c r="A25" s="4">
         <v>10</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3829,7 +3805,7 @@
       <c r="A26" s="4">
         <v>11</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3856,7 +3832,7 @@
       <c r="A27" s="4">
         <v>12</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
@@ -3883,7 +3859,7 @@
       <c r="A28" s="4">
         <v>13</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
@@ -3910,7 +3886,7 @@
       <c r="A29" s="4">
         <v>14</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3937,7 +3913,7 @@
       <c r="A30" s="4">
         <v>15</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3966,7 +3942,7 @@
       <c r="A31" s="4">
         <v>16</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -3995,7 +3971,7 @@
       <c r="A32" s="4">
         <v>17</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
@@ -4024,7 +4000,7 @@
       <c r="A33" s="4">
         <v>18</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4045,7 +4021,7 @@
         <v>141</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -4053,7 +4029,7 @@
       <c r="A34" s="4">
         <v>19</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4080,7 +4056,7 @@
       <c r="A35" s="4">
         <v>20</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4107,7 +4083,7 @@
       <c r="A36" s="4">
         <v>21</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
@@ -4134,7 +4110,7 @@
       <c r="A37" s="4">
         <v>22</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4163,7 +4139,7 @@
       <c r="A38" s="4">
         <v>23</v>
       </c>
-      <c r="B38" s="30"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -4192,7 +4168,7 @@
       <c r="A39" s="4">
         <v>24</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
@@ -4221,7 +4197,7 @@
       <c r="A40" s="4">
         <v>25</v>
       </c>
-      <c r="B40" s="30"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4250,7 +4226,7 @@
       <c r="A41" s="4">
         <v>26</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
@@ -4279,7 +4255,7 @@
       <c r="A42" s="4">
         <v>27</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
@@ -4306,7 +4282,7 @@
       <c r="A43" s="4">
         <v>28</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
@@ -4333,7 +4309,7 @@
       <c r="A44" s="4">
         <v>29</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4362,7 +4338,7 @@
       <c r="A45" s="4">
         <v>30</v>
       </c>
-      <c r="B45" s="30"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="4" t="s">
         <v>89</v>
       </c>
@@ -4389,7 +4365,7 @@
       <c r="A46" s="4">
         <v>31</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4" t="s">
         <v>71</v>
       </c>
@@ -4418,7 +4394,7 @@
       <c r="A47" s="4">
         <v>32</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
@@ -4447,7 +4423,7 @@
       <c r="A48" s="4">
         <v>33</v>
       </c>
-      <c r="B48" s="30"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4476,7 +4452,7 @@
       <c r="A49" s="4">
         <v>34</v>
       </c>
-      <c r="B49" s="31"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
@@ -4505,7 +4481,7 @@
       <c r="A50" s="4">
         <v>35</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="28" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4534,7 +4510,7 @@
       <c r="A51" s="4">
         <v>36</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
@@ -4563,7 +4539,7 @@
       <c r="A52" s="4">
         <v>37</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
@@ -4590,7 +4566,7 @@
       <c r="A53" s="4">
         <v>38</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4619,7 +4595,7 @@
       <c r="A54" s="4">
         <v>39</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
@@ -4648,7 +4624,7 @@
       <c r="A55" s="4">
         <v>40</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4677,7 +4653,7 @@
       <c r="A56" s="4">
         <v>41</v>
       </c>
-      <c r="B56" s="30"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
@@ -4706,7 +4682,7 @@
       <c r="A57" s="4">
         <v>42</v>
       </c>
-      <c r="B57" s="31"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
@@ -4735,10 +4711,10 @@
       <c r="A58" s="4">
         <v>43</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4764,8 +4740,8 @@
       <c r="A59" s="4">
         <v>44</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="35"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="5" t="s">
         <v>124</v>
       </c>
@@ -4789,8 +4765,8 @@
       <c r="A60" s="4">
         <v>45</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="35"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="5" t="s">
         <v>126</v>
       </c>
@@ -4814,8 +4790,8 @@
       <c r="A61" s="4">
         <v>46</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="35"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="5" t="s">
         <v>128</v>
       </c>
@@ -4839,8 +4815,8 @@
       <c r="A62" s="4">
         <v>47</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="35"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="5" t="s">
         <v>130</v>
       </c>
@@ -4864,10 +4840,10 @@
       <c r="A63" s="4">
         <v>48</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="27" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4893,8 +4869,8 @@
       <c r="A64" s="4">
         <v>49</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="35"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="5" t="s">
         <v>136</v>
       </c>
@@ -4918,8 +4894,8 @@
       <c r="A65" s="4">
         <v>50</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="35"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="5" t="s">
         <v>138</v>
       </c>
@@ -4947,8 +4923,8 @@
       <c r="A66" s="4">
         <v>51</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="35"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="5" t="s">
         <v>143</v>
       </c>
@@ -4976,8 +4952,8 @@
       <c r="A67" s="4">
         <v>52</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="35"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="5" t="s">
         <v>146</v>
       </c>
@@ -5003,8 +4979,8 @@
       <c r="A68" s="4">
         <v>53</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="35"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
       <c r="D68" s="5" t="s">
         <v>149</v>
       </c>
@@ -5030,8 +5006,8 @@
       <c r="A69" s="4">
         <v>54</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="35" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -5057,8 +5033,8 @@
       <c r="A70" s="4">
         <v>55</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="35"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="5" t="s">
         <v>153</v>
       </c>
@@ -5082,8 +5058,8 @@
       <c r="A71" s="4">
         <v>56</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="35"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
       <c r="D71" s="5" t="s">
         <v>155</v>
       </c>
@@ -5107,8 +5083,8 @@
       <c r="A72" s="4">
         <v>57</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="35"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="5" t="s">
         <v>157</v>
       </c>
@@ -5132,8 +5108,8 @@
       <c r="A73" s="4">
         <v>58</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="35"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="5" t="s">
         <v>159</v>
       </c>
@@ -5157,8 +5133,8 @@
       <c r="A74" s="4">
         <v>59</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="35"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="5" t="s">
         <v>161</v>
       </c>
@@ -5182,7 +5158,7 @@
       <c r="A75" s="4">
         <v>60</v>
       </c>
-      <c r="B75" s="28"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="4" t="s">
         <v>163</v>
       </c>
@@ -5209,8 +5185,8 @@
       <c r="A76" s="4">
         <v>61</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="35" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="27" t="s">
         <v>166</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -5236,8 +5212,8 @@
       <c r="A77" s="4">
         <v>62</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="35"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="5" t="s">
         <v>169</v>
       </c>
@@ -5261,8 +5237,8 @@
       <c r="A78" s="4">
         <v>63</v>
       </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="35"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="5" t="s">
         <v>171</v>
       </c>
@@ -5286,7 +5262,7 @@
       <c r="A79" s="4">
         <v>64</v>
       </c>
-      <c r="B79" s="28"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5" t="s">
         <v>173</v>
@@ -5311,10 +5287,10 @@
       <c r="A80" s="4">
         <v>65</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="27" t="s">
         <v>176</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5342,8 +5318,8 @@
       <c r="A81" s="4">
         <v>66</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="35"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="5" t="s">
         <v>180</v>
       </c>
@@ -5367,8 +5343,8 @@
       <c r="A82" s="4">
         <v>67</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="35" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="27" t="s">
         <v>182</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -5394,8 +5370,8 @@
       <c r="A83" s="4">
         <v>68</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="35"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="5" t="s">
         <v>185</v>
       </c>
@@ -5419,8 +5395,8 @@
       <c r="A84" s="4">
         <v>69</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="35"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
       <c r="D84" s="5" t="s">
         <v>187</v>
       </c>
@@ -5444,8 +5420,8 @@
       <c r="A85" s="4">
         <v>70</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="35"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="27"/>
       <c r="D85" s="5" t="s">
         <v>189</v>
       </c>
@@ -5469,7 +5445,7 @@
       <c r="A86" s="4">
         <v>71</v>
       </c>
-      <c r="B86" s="28"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="4" t="s">
         <v>163</v>
       </c>
@@ -5496,7 +5472,7 @@
       <c r="A87" s="4">
         <v>72</v>
       </c>
-      <c r="B87" s="28"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5" t="s">
         <v>173</v>
@@ -5521,10 +5497,10 @@
       <c r="A88" s="4">
         <v>73</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="27" t="s">
         <v>176</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5550,8 +5526,8 @@
       <c r="A89" s="4">
         <v>74</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="35"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="5" t="s">
         <v>180</v>
       </c>
@@ -5575,8 +5551,8 @@
       <c r="A90" s="4">
         <v>75</v>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="35" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="27" t="s">
         <v>182</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -5602,8 +5578,8 @@
       <c r="A91" s="4">
         <v>76</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="35"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="27"/>
       <c r="D91" s="5" t="s">
         <v>185</v>
       </c>
@@ -5627,8 +5603,8 @@
       <c r="A92" s="4">
         <v>77</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="35"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="27"/>
       <c r="D92" s="5" t="s">
         <v>187</v>
       </c>
@@ -5652,8 +5628,8 @@
       <c r="A93" s="4">
         <v>78</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="35"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="27"/>
       <c r="D93" s="5" t="s">
         <v>189</v>
       </c>
@@ -5677,7 +5653,7 @@
       <c r="A94" s="4">
         <v>79</v>
       </c>
-      <c r="B94" s="28"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="4" t="s">
         <v>163</v>
       </c>
@@ -5704,7 +5680,7 @@
       <c r="A95" s="4">
         <v>80</v>
       </c>
-      <c r="B95" s="28"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5" t="s">
         <v>173</v>
@@ -5729,7 +5705,7 @@
       <c r="A96" s="4">
         <v>81</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="26" t="s">
         <v>193</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -5758,7 +5734,7 @@
       <c r="A97" s="4">
         <v>82</v>
       </c>
-      <c r="B97" s="28"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5" t="s">
         <v>173</v>
@@ -5783,7 +5759,7 @@
       <c r="A98" s="4">
         <v>83</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="26" t="s">
         <v>197</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -5812,7 +5788,7 @@
       <c r="A99" s="4">
         <v>84</v>
       </c>
-      <c r="B99" s="28"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="4" t="s">
         <v>163</v>
       </c>
@@ -5839,7 +5815,7 @@
       <c r="A100" s="4">
         <v>85</v>
       </c>
-      <c r="B100" s="28"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5" t="s">
         <v>173</v>
@@ -5864,7 +5840,7 @@
       <c r="A101" s="4">
         <v>86</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -5893,7 +5869,7 @@
       <c r="A102" s="4">
         <v>87</v>
       </c>
-      <c r="B102" s="28"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="4" t="s">
         <v>200</v>
       </c>
@@ -5920,8 +5896,8 @@
       <c r="A103" s="4">
         <v>88</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="35" t="s">
+      <c r="B103" s="26"/>
+      <c r="C103" s="27" t="s">
         <v>203</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -5947,8 +5923,8 @@
       <c r="A104" s="4">
         <v>89</v>
       </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="35"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="27"/>
       <c r="D104" s="5" t="s">
         <v>206</v>
       </c>
@@ -5972,8 +5948,8 @@
       <c r="A105" s="4">
         <v>90</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="35"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="27"/>
       <c r="D105" s="5" t="s">
         <v>207</v>
       </c>
@@ -5997,8 +5973,8 @@
       <c r="A106" s="4">
         <v>91</v>
       </c>
-      <c r="B106" s="28"/>
-      <c r="C106" s="35"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="27"/>
       <c r="D106" s="5" t="s">
         <v>209</v>
       </c>
@@ -6022,7 +5998,7 @@
       <c r="A107" s="4">
         <v>92</v>
       </c>
-      <c r="B107" s="28"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="4" t="s">
         <v>210</v>
       </c>
@@ -6051,7 +6027,7 @@
       <c r="A108" s="4">
         <v>93</v>
       </c>
-      <c r="B108" s="28"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5" t="s">
         <v>173</v>
@@ -6076,7 +6052,7 @@
       <c r="A109" s="4">
         <v>94</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="26" t="s">
         <v>214</v>
       </c>
       <c r="C109" s="22" t="s">
@@ -6105,8 +6081,8 @@
       <c r="A110" s="4">
         <v>95</v>
       </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="23"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="5" t="s">
         <v>217</v>
       </c>
@@ -6130,8 +6106,8 @@
       <c r="A111" s="4">
         <v>96</v>
       </c>
-      <c r="B111" s="28"/>
-      <c r="C111" s="23"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="5" t="s">
         <v>219</v>
       </c>
@@ -6155,8 +6131,8 @@
       <c r="A112" s="4">
         <v>97</v>
       </c>
-      <c r="B112" s="28"/>
-      <c r="C112" s="24"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="23"/>
       <c r="D112" s="5" t="s">
         <v>221</v>
       </c>
@@ -6180,7 +6156,7 @@
       <c r="A113" s="4">
         <v>98</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -6209,8 +6185,8 @@
       <c r="A114" s="4">
         <v>99</v>
       </c>
-      <c r="B114" s="28"/>
-      <c r="C114" s="35" t="s">
+      <c r="B114" s="26"/>
+      <c r="C114" s="27" t="s">
         <v>227</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -6236,8 +6212,8 @@
       <c r="A115" s="4">
         <v>100</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="35"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
       <c r="D115" s="5" t="s">
         <v>230</v>
       </c>
@@ -6261,8 +6237,8 @@
       <c r="A116" s="4">
         <v>101</v>
       </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="35"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27"/>
       <c r="D116" s="5" t="s">
         <v>232</v>
       </c>
@@ -6286,8 +6262,8 @@
       <c r="A117" s="4">
         <v>102</v>
       </c>
-      <c r="B117" s="28"/>
-      <c r="C117" s="35"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="27"/>
       <c r="D117" s="5" t="s">
         <v>234</v>
       </c>
@@ -6311,8 +6287,8 @@
       <c r="A118" s="4">
         <v>103</v>
       </c>
-      <c r="B118" s="28"/>
-      <c r="C118" s="35" t="s">
+      <c r="B118" s="26"/>
+      <c r="C118" s="27" t="s">
         <v>235</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -6338,8 +6314,8 @@
       <c r="A119" s="4">
         <v>104</v>
       </c>
-      <c r="B119" s="28"/>
-      <c r="C119" s="35"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="27"/>
       <c r="D119" s="5" t="s">
         <v>238</v>
       </c>
@@ -6363,8 +6339,8 @@
       <c r="A120" s="4">
         <v>105</v>
       </c>
-      <c r="B120" s="28"/>
-      <c r="C120" s="35"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="27"/>
       <c r="D120" s="5" t="s">
         <v>240</v>
       </c>
@@ -6388,8 +6364,8 @@
       <c r="A121" s="4">
         <v>106</v>
       </c>
-      <c r="B121" s="28"/>
-      <c r="C121" s="35"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="27"/>
       <c r="D121" s="5" t="s">
         <v>241</v>
       </c>
@@ -6413,8 +6389,8 @@
       <c r="A122" s="4">
         <v>107</v>
       </c>
-      <c r="B122" s="28"/>
-      <c r="C122" s="35" t="s">
+      <c r="B122" s="26"/>
+      <c r="C122" s="27" t="s">
         <v>242</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -6440,8 +6416,8 @@
       <c r="A123" s="4">
         <v>108</v>
       </c>
-      <c r="B123" s="28"/>
-      <c r="C123" s="35"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="27"/>
       <c r="D123" s="5" t="s">
         <v>245</v>
       </c>
@@ -6465,8 +6441,8 @@
       <c r="A124" s="4">
         <v>109</v>
       </c>
-      <c r="B124" s="28"/>
-      <c r="C124" s="35"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="27"/>
       <c r="D124" s="5" t="s">
         <v>246</v>
       </c>
@@ -6490,8 +6466,8 @@
       <c r="A125" s="4">
         <v>110</v>
       </c>
-      <c r="B125" s="28"/>
-      <c r="C125" s="35" t="s">
+      <c r="B125" s="26"/>
+      <c r="C125" s="27" t="s">
         <v>248</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -6517,8 +6493,8 @@
       <c r="A126" s="4">
         <v>111</v>
       </c>
-      <c r="B126" s="28"/>
-      <c r="C126" s="35"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="27"/>
       <c r="D126" s="5" t="s">
         <v>251</v>
       </c>
@@ -6542,8 +6518,8 @@
       <c r="A127" s="4">
         <v>112</v>
       </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="35" t="s">
+      <c r="B127" s="26"/>
+      <c r="C127" s="27" t="s">
         <v>253</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -6569,8 +6545,8 @@
       <c r="A128" s="4">
         <v>113</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="35"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="27"/>
       <c r="D128" s="5" t="s">
         <v>256</v>
       </c>
@@ -6594,8 +6570,8 @@
       <c r="A129" s="4">
         <v>114</v>
       </c>
-      <c r="B129" s="28"/>
-      <c r="C129" s="35"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="27"/>
       <c r="D129" s="5" t="s">
         <v>258</v>
       </c>
@@ -6619,7 +6595,7 @@
       <c r="A130" s="4">
         <v>115</v>
       </c>
-      <c r="B130" s="28"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
         <v>173</v>
@@ -6644,10 +6620,10 @@
       <c r="A131" s="4">
         <v>116</v>
       </c>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="27" t="s">
         <v>263</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -6673,8 +6649,8 @@
       <c r="A132" s="4">
         <v>117</v>
       </c>
-      <c r="B132" s="28"/>
-      <c r="C132" s="35"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="27"/>
       <c r="D132" s="5" t="s">
         <v>270</v>
       </c>
@@ -6698,8 +6674,8 @@
       <c r="A133" s="4">
         <v>118</v>
       </c>
-      <c r="B133" s="28"/>
-      <c r="C133" s="35"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="27"/>
       <c r="D133" s="5" t="s">
         <v>271</v>
       </c>
@@ -6723,7 +6699,7 @@
       <c r="A134" s="4">
         <v>119</v>
       </c>
-      <c r="B134" s="28"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="22" t="s">
         <v>264</v>
       </c>
@@ -6750,8 +6726,8 @@
       <c r="A135" s="4">
         <v>120</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="24"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="23"/>
       <c r="D135" s="5" t="s">
         <v>269</v>
       </c>
@@ -6775,7 +6751,7 @@
       <c r="A136" s="4">
         <v>121</v>
       </c>
-      <c r="B136" s="28"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="22" t="s">
         <v>265</v>
       </c>
@@ -6802,8 +6778,8 @@
       <c r="A137" s="4">
         <v>122</v>
       </c>
-      <c r="B137" s="28"/>
-      <c r="C137" s="23"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="31"/>
       <c r="D137" s="5" t="s">
         <v>277</v>
       </c>
@@ -6827,8 +6803,8 @@
       <c r="A138" s="4">
         <v>123</v>
       </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="24"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="23"/>
       <c r="D138" s="5" t="s">
         <v>279</v>
       </c>
@@ -6852,7 +6828,7 @@
       <c r="A139" s="4">
         <v>124</v>
       </c>
-      <c r="B139" s="28"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="22" t="s">
         <v>266</v>
       </c>
@@ -6879,8 +6855,8 @@
       <c r="A140" s="4">
         <v>125</v>
       </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="23"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="31"/>
       <c r="D140" s="5" t="s">
         <v>283</v>
       </c>
@@ -6904,8 +6880,8 @@
       <c r="A141" s="4">
         <v>126</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="23"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="31"/>
       <c r="D141" s="5" t="s">
         <v>285</v>
       </c>
@@ -6929,8 +6905,8 @@
       <c r="A142" s="4">
         <v>127</v>
       </c>
-      <c r="B142" s="28"/>
-      <c r="C142" s="23"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="31"/>
       <c r="D142" s="5" t="s">
         <v>284</v>
       </c>
@@ -6954,8 +6930,8 @@
       <c r="A143" s="4">
         <v>128</v>
       </c>
-      <c r="B143" s="28"/>
-      <c r="C143" s="23"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="31"/>
       <c r="D143" s="5" t="s">
         <v>286</v>
       </c>
@@ -6979,8 +6955,8 @@
       <c r="A144" s="4">
         <v>129</v>
       </c>
-      <c r="B144" s="28"/>
-      <c r="C144" s="24"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="23"/>
       <c r="D144" s="5" t="s">
         <v>288</v>
       </c>
@@ -7004,7 +6980,7 @@
       <c r="A145" s="4">
         <v>130</v>
       </c>
-      <c r="B145" s="28"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="7" t="s">
         <v>267</v>
       </c>
@@ -7031,7 +7007,7 @@
       <c r="A146" s="4">
         <v>131</v>
       </c>
-      <c r="B146" s="28"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="7"/>
       <c r="D146" s="5" t="s">
         <v>173</v>
@@ -7056,10 +7032,10 @@
       <c r="A147" s="4">
         <v>132</v>
       </c>
-      <c r="B147" s="28" t="s">
+      <c r="B147" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="27" t="s">
         <v>291</v>
       </c>
       <c r="D147" s="5" t="s">
@@ -7070,13 +7046,13 @@
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J147" s="6"/>
       <c r="K147" s="7"/>
@@ -7085,8 +7061,8 @@
       <c r="A148" s="4">
         <v>133</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="35"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="27"/>
       <c r="D148" s="5" t="s">
         <v>294</v>
       </c>
@@ -7095,13 +7071,13 @@
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J148" s="6"/>
       <c r="K148" s="7"/>
@@ -7110,7 +7086,7 @@
       <c r="A149" s="4">
         <v>134</v>
       </c>
-      <c r="B149" s="28"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5" t="s">
         <v>173</v>
@@ -7119,14 +7095,14 @@
         <v>260</v>
       </c>
       <c r="F149" s="5"/>
-      <c r="G149" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>213</v>
+      <c r="G149" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="7"/>
@@ -7135,7 +7111,7 @@
       <c r="A150" s="4">
         <v>135</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B150" s="19" t="s">
         <v>296</v>
       </c>
       <c r="C150" s="22" t="s">
@@ -7164,8 +7140,8 @@
       <c r="A151" s="4">
         <v>136</v>
       </c>
-      <c r="B151" s="30"/>
-      <c r="C151" s="23"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="31"/>
       <c r="D151" s="5" t="s">
         <v>300</v>
       </c>
@@ -7189,8 +7165,8 @@
       <c r="A152" s="4">
         <v>137</v>
       </c>
-      <c r="B152" s="30"/>
-      <c r="C152" s="23"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="31"/>
       <c r="D152" s="5" t="s">
         <v>302</v>
       </c>
@@ -7214,8 +7190,8 @@
       <c r="A153" s="4">
         <v>138</v>
       </c>
-      <c r="B153" s="30"/>
-      <c r="C153" s="24"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="23"/>
       <c r="D153" s="5" t="s">
         <v>304</v>
       </c>
@@ -7239,7 +7215,7 @@
       <c r="A154" s="4">
         <v>139</v>
       </c>
-      <c r="B154" s="30"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="22" t="s">
         <v>291</v>
       </c>
@@ -7266,8 +7242,8 @@
       <c r="A155" s="4">
         <v>140</v>
       </c>
-      <c r="B155" s="30"/>
-      <c r="C155" s="24"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="23"/>
       <c r="D155" s="5" t="s">
         <v>308</v>
       </c>
@@ -7291,7 +7267,7 @@
       <c r="A156" s="4">
         <v>141</v>
       </c>
-      <c r="B156" s="31"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5" t="s">
         <v>173</v>
@@ -7316,7 +7292,7 @@
       <c r="A157" s="4">
         <v>142</v>
       </c>
-      <c r="B157" s="29" t="s">
+      <c r="B157" s="19" t="s">
         <v>310</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -7345,7 +7321,7 @@
       <c r="A158" s="4">
         <v>143</v>
       </c>
-      <c r="B158" s="30"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="4" t="s">
         <v>314</v>
       </c>
@@ -7372,7 +7348,7 @@
       <c r="A159" s="4">
         <v>144</v>
       </c>
-      <c r="B159" s="30"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="4" t="s">
         <v>317</v>
       </c>
@@ -7399,7 +7375,7 @@
       <c r="A160" s="4">
         <v>145</v>
       </c>
-      <c r="B160" s="31"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5" t="s">
         <v>173</v>
@@ -7424,7 +7400,7 @@
       <c r="A161" s="4">
         <v>146</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="B161" s="19" t="s">
         <v>320</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -7453,7 +7429,7 @@
       <c r="A162" s="4">
         <v>147</v>
       </c>
-      <c r="B162" s="30"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="22" t="s">
         <v>323</v>
       </c>
@@ -7480,8 +7456,8 @@
       <c r="A163" s="4">
         <v>148</v>
       </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="24"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="23"/>
       <c r="D163" s="5" t="s">
         <v>326</v>
       </c>
@@ -7505,7 +7481,7 @@
       <c r="A164" s="4">
         <v>149</v>
       </c>
-      <c r="B164" s="30"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="22" t="s">
         <v>328</v>
       </c>
@@ -7532,8 +7508,8 @@
       <c r="A165" s="4">
         <v>150</v>
       </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="24"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="23"/>
       <c r="D165" s="5" t="s">
         <v>329</v>
       </c>
@@ -7557,7 +7533,7 @@
       <c r="A166" s="4">
         <v>151</v>
       </c>
-      <c r="B166" s="30"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="4" t="s">
         <v>332</v>
       </c>
@@ -7584,7 +7560,7 @@
       <c r="A167" s="4">
         <v>152</v>
       </c>
-      <c r="B167" s="30"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="22" t="s">
         <v>335</v>
       </c>
@@ -7611,8 +7587,8 @@
       <c r="A168" s="4">
         <v>153</v>
       </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="24"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="23"/>
       <c r="D168" s="5" t="s">
         <v>338</v>
       </c>
@@ -7636,7 +7612,7 @@
       <c r="A169" s="4">
         <v>154</v>
       </c>
-      <c r="B169" s="30"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="22" t="s">
         <v>340</v>
       </c>
@@ -7663,8 +7639,8 @@
       <c r="A170" s="4">
         <v>155</v>
       </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="24"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="23"/>
       <c r="D170" s="5" t="s">
         <v>343</v>
       </c>
@@ -7688,7 +7664,7 @@
       <c r="A171" s="4">
         <v>156</v>
       </c>
-      <c r="B171" s="30"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="22" t="s">
         <v>345</v>
       </c>
@@ -7715,8 +7691,8 @@
       <c r="A172" s="4">
         <v>157</v>
       </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="23"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="31"/>
       <c r="D172" s="5" t="s">
         <v>348</v>
       </c>
@@ -7740,8 +7716,8 @@
       <c r="A173" s="4">
         <v>158</v>
       </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="24"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="23"/>
       <c r="D173" s="5" t="s">
         <v>350</v>
       </c>
@@ -7765,7 +7741,7 @@
       <c r="A174" s="4">
         <v>159</v>
       </c>
-      <c r="B174" s="30"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="22" t="s">
         <v>352</v>
       </c>
@@ -7792,8 +7768,8 @@
       <c r="A175" s="4">
         <v>160</v>
       </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="24"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="23"/>
       <c r="D175" s="5" t="s">
         <v>353</v>
       </c>
@@ -7817,7 +7793,7 @@
       <c r="A176" s="4">
         <v>161</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="20" t="s">
         <v>356</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -7846,7 +7822,7 @@
       <c r="A177" s="4">
         <v>162</v>
       </c>
-      <c r="B177" s="30"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="4" t="s">
         <v>358</v>
       </c>
@@ -7873,7 +7849,7 @@
       <c r="A178" s="4">
         <v>163</v>
       </c>
-      <c r="B178" s="30"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="22" t="s">
         <v>361</v>
       </c>
@@ -7900,8 +7876,8 @@
       <c r="A179" s="4">
         <v>164</v>
       </c>
-      <c r="B179" s="31"/>
-      <c r="C179" s="24"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="23"/>
       <c r="D179" s="5" t="s">
         <v>362</v>
       </c>
@@ -7925,7 +7901,7 @@
       <c r="A180" s="4">
         <v>165</v>
       </c>
-      <c r="B180" s="28" t="s">
+      <c r="B180" s="26" t="s">
         <v>365</v>
       </c>
       <c r="C180" s="4"/>
@@ -7952,7 +7928,7 @@
       <c r="A181" s="4">
         <v>166</v>
       </c>
-      <c r="B181" s="28"/>
+      <c r="B181" s="26"/>
       <c r="C181" s="4"/>
       <c r="D181" s="5" t="s">
         <v>368</v>
@@ -7977,7 +7953,7 @@
       <c r="A182" s="4">
         <v>167</v>
       </c>
-      <c r="B182" s="28"/>
+      <c r="B182" s="26"/>
       <c r="C182" s="4"/>
       <c r="D182" s="5" t="s">
         <v>370</v>
@@ -8002,7 +7978,7 @@
       <c r="A183" s="4">
         <v>168</v>
       </c>
-      <c r="B183" s="28"/>
+      <c r="B183" s="26"/>
       <c r="C183" s="4"/>
       <c r="D183" s="5" t="s">
         <v>372</v>
@@ -8023,11 +7999,11 @@
       <c r="J183" s="6"/>
       <c r="K183" s="7"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>169</v>
       </c>
-      <c r="B184" s="28" t="s">
+      <c r="B184" s="19" t="s">
         <v>374</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -8053,10 +8029,10 @@
       <c r="K184" s="7"/>
     </row>
     <row r="185" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A185" s="4">
+      <c r="A185" s="18">
         <v>170</v>
       </c>
-      <c r="B185" s="28"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="4" t="s">
         <v>378</v>
       </c>
@@ -8080,10 +8056,10 @@
       <c r="K185" s="7"/>
     </row>
     <row r="186" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="4">
+      <c r="A186" s="18">
         <v>171</v>
       </c>
-      <c r="B186" s="28"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="4" t="s">
         <v>381</v>
       </c>
@@ -8106,40 +8082,40 @@
       <c r="J186" s="6"/>
       <c r="K186" s="7"/>
     </row>
-    <row r="187" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="4">
+    <row r="187" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="18">
         <v>172</v>
       </c>
-      <c r="B187" s="28"/>
+      <c r="B187" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="C187" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="4">
+      <c r="A188" s="18">
         <v>173</v>
       </c>
-      <c r="B188" s="28" t="s">
-        <v>387</v>
-      </c>
+      <c r="B188" s="26"/>
       <c r="C188" s="4" t="s">
         <v>388</v>
       </c>
@@ -8162,18 +8138,18 @@
       <c r="J188" s="6"/>
       <c r="K188" s="7"/>
     </row>
-    <row r="189" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="4">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="18">
         <v>174</v>
       </c>
-      <c r="B189" s="28"/>
+      <c r="B189" s="26"/>
       <c r="C189" s="4" t="s">
         <v>391</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="15" t="s">
         <v>393</v>
       </c>
       <c r="F189" s="6"/>
@@ -8189,19 +8165,19 @@
       <c r="J189" s="6"/>
       <c r="K189" s="7"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="4">
+    <row r="190" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A190" s="18">
         <v>175</v>
       </c>
-      <c r="B190" s="28"/>
+      <c r="B190" s="26"/>
       <c r="C190" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D190" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E190" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="E190" s="15" t="s">
-        <v>396</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="4" t="s">
@@ -8216,19 +8192,19 @@
       <c r="J190" s="6"/>
       <c r="K190" s="7"/>
     </row>
-    <row r="191" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="4">
+    <row r="191" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="18">
         <v>176</v>
       </c>
-      <c r="B191" s="28"/>
+      <c r="B191" s="26"/>
       <c r="C191" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="15" t="s">
-        <v>398</v>
+      <c r="E191" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="4" t="s">
@@ -8244,47 +8220,45 @@
       <c r="K191" s="7"/>
     </row>
     <row r="192" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="4">
+      <c r="A192" s="18">
         <v>177</v>
       </c>
-      <c r="B192" s="28"/>
+      <c r="B192" s="26" t="s">
+        <v>398</v>
+      </c>
       <c r="C192" s="4" t="s">
         <v>399</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>195</v>
+        <v>400</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="4" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="J192" s="6"/>
       <c r="K192" s="7"/>
     </row>
-    <row r="193" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="4">
+    <row r="193" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A193" s="18">
         <v>178</v>
       </c>
-      <c r="B193" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="C193" s="4" t="s">
+      <c r="B193" s="26"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="E193" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="4" t="s">
@@ -8299,17 +8273,17 @@
       <c r="J193" s="6"/>
       <c r="K193" s="7"/>
     </row>
-    <row r="194" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A194" s="4">
+    <row r="194" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A194" s="18">
         <v>179</v>
       </c>
-      <c r="B194" s="28"/>
+      <c r="B194" s="26"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E194" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="4" t="s">
@@ -8325,16 +8299,16 @@
       <c r="K194" s="7"/>
     </row>
     <row r="195" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A195" s="4">
+      <c r="A195" s="18">
         <v>180</v>
       </c>
-      <c r="B195" s="28"/>
+      <c r="B195" s="26"/>
       <c r="C195" s="4"/>
       <c r="D195" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E195" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="4" t="s">
@@ -8349,12 +8323,14 @@
       <c r="J195" s="6"/>
       <c r="K195" s="7"/>
     </row>
-    <row r="196" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="4">
+    <row r="196" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A196" s="18">
         <v>181</v>
       </c>
-      <c r="B196" s="28"/>
-      <c r="C196" s="4"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="D196" s="5" t="s">
         <v>409</v>
       </c>
@@ -8374,11 +8350,11 @@
       <c r="J196" s="6"/>
       <c r="K196" s="7"/>
     </row>
-    <row r="197" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A197" s="4">
+    <row r="197" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="18">
         <v>182</v>
       </c>
-      <c r="B197" s="28"/>
+      <c r="B197" s="26"/>
       <c r="C197" s="4" t="s">
         <v>411</v>
       </c>
@@ -8401,19 +8377,17 @@
       <c r="J197" s="6"/>
       <c r="K197" s="7"/>
     </row>
-    <row r="198" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A198" s="4">
+    <row r="198" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A198" s="18">
         <v>183</v>
       </c>
-      <c r="B198" s="28"/>
-      <c r="C198" s="4" t="s">
+      <c r="B198" s="26"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="E198" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="4" t="s">
@@ -8428,17 +8402,17 @@
       <c r="J198" s="6"/>
       <c r="K198" s="7"/>
     </row>
-    <row r="199" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A199" s="4">
+    <row r="199" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="18">
         <v>184</v>
       </c>
-      <c r="B199" s="28"/>
+      <c r="B199" s="26"/>
       <c r="C199" s="4"/>
       <c r="D199" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E199" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="4" t="s">
@@ -8453,17 +8427,19 @@
       <c r="J199" s="6"/>
       <c r="K199" s="7"/>
     </row>
-    <row r="200" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A200" s="4">
+    <row r="200" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="18">
         <v>185</v>
       </c>
-      <c r="B200" s="28"/>
-      <c r="C200" s="4"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="4" t="s">
+        <v>418</v>
+      </c>
       <c r="D200" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E200" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="4" t="s">
@@ -8478,19 +8454,19 @@
       <c r="J200" s="6"/>
       <c r="K200" s="7"/>
     </row>
-    <row r="201" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="4">
+    <row r="201" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A201" s="18">
         <v>186</v>
       </c>
-      <c r="B201" s="28"/>
+      <c r="B201" s="26"/>
       <c r="C201" s="4" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>195</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="4" t="s">
@@ -8506,18 +8482,18 @@
       <c r="K201" s="7"/>
     </row>
     <row r="202" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A202" s="4">
+      <c r="A202" s="18">
         <v>187</v>
       </c>
-      <c r="B202" s="28"/>
+      <c r="B202" s="26"/>
       <c r="C202" s="4" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>195</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="4" t="s">
@@ -8532,19 +8508,21 @@
       <c r="J202" s="6"/>
       <c r="K202" s="7"/>
     </row>
-    <row r="203" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A203" s="4">
+    <row r="203" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="18">
         <v>188</v>
       </c>
-      <c r="B203" s="28"/>
+      <c r="B203" s="26" t="s">
+        <v>423</v>
+      </c>
       <c r="C203" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>195</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="4" t="s">
@@ -8559,21 +8537,17 @@
       <c r="J203" s="6"/>
       <c r="K203" s="7"/>
     </row>
-    <row r="204" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="4">
+    <row r="204" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="18">
         <v>189</v>
       </c>
-      <c r="B204" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>421</v>
-      </c>
+      <c r="B204" s="26"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>427</v>
+        <v>392</v>
+      </c>
+      <c r="E204" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="4" t="s">
@@ -8588,17 +8562,19 @@
       <c r="J204" s="6"/>
       <c r="K204" s="7"/>
     </row>
-    <row r="205" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="4">
+    <row r="205" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A205" s="18">
         <v>190</v>
       </c>
-      <c r="B205" s="28"/>
-      <c r="C205" s="4"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D205" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E205" s="15" t="s">
-        <v>428</v>
+        <v>195</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="4" t="s">
@@ -8613,18 +8589,18 @@
       <c r="J205" s="6"/>
       <c r="K205" s="7"/>
     </row>
-    <row r="206" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A206" s="4">
+    <row r="206" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="18">
         <v>191</v>
       </c>
-      <c r="B206" s="28"/>
+      <c r="B206" s="26"/>
       <c r="C206" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E206" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E206" s="15" t="s">
         <v>429</v>
       </c>
       <c r="F206" s="6"/>
@@ -8640,18 +8616,18 @@
       <c r="J206" s="6"/>
       <c r="K206" s="7"/>
     </row>
-    <row r="207" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="4">
+    <row r="207" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="18">
         <v>192</v>
       </c>
-      <c r="B207" s="28"/>
-      <c r="C207" s="4" t="s">
+      <c r="B207" s="26"/>
+      <c r="C207" s="16" t="s">
         <v>430</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E207" s="15" t="s">
+      <c r="E207" s="5" t="s">
         <v>432</v>
       </c>
       <c r="F207" s="6"/>
@@ -8667,13 +8643,15 @@
       <c r="J207" s="6"/>
       <c r="K207" s="7"/>
     </row>
-    <row r="208" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="4">
+    <row r="208" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="18">
         <v>193</v>
       </c>
-      <c r="B208" s="28"/>
-      <c r="C208" s="16" t="s">
+      <c r="B208" s="19" t="s">
         <v>433</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>434</v>
@@ -8694,15 +8672,13 @@
       <c r="J208" s="6"/>
       <c r="K208" s="7"/>
     </row>
-    <row r="209" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A209" s="4">
+    <row r="209" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="18">
         <v>194</v>
       </c>
-      <c r="B209" s="29" t="s">
+      <c r="B209" s="20"/>
+      <c r="C209" s="22" t="s">
         <v>436</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>437</v>
@@ -8723,19 +8699,17 @@
       <c r="J209" s="6"/>
       <c r="K209" s="7"/>
     </row>
-    <row r="210" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="4">
+    <row r="210" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="18">
         <v>195</v>
       </c>
-      <c r="B210" s="30"/>
-      <c r="C210" s="22" t="s">
+      <c r="B210" s="20"/>
+      <c r="C210" s="31"/>
+      <c r="D210" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="E210" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="4" t="s">
@@ -8751,16 +8725,16 @@
       <c r="K210" s="7"/>
     </row>
     <row r="211" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A211" s="4">
+      <c r="A211" s="18">
         <v>196</v>
       </c>
-      <c r="B211" s="30"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="23"/>
       <c r="D211" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E211" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>443</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="4" t="s">
@@ -8775,12 +8749,14 @@
       <c r="J211" s="6"/>
       <c r="K211" s="7"/>
     </row>
-    <row r="212" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="4">
+    <row r="212" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="18">
         <v>197</v>
       </c>
-      <c r="B212" s="30"/>
-      <c r="C212" s="24"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="D212" s="5" t="s">
         <v>444</v>
       </c>
@@ -8800,11 +8776,11 @@
       <c r="J212" s="6"/>
       <c r="K212" s="7"/>
     </row>
-    <row r="213" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A213" s="4">
+    <row r="213" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="18">
         <v>198</v>
       </c>
-      <c r="B213" s="30"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="4" t="s">
         <v>446</v>
       </c>
@@ -8814,7 +8790,7 @@
       <c r="E213" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="F213" s="6"/>
+      <c r="F213" s="7"/>
       <c r="G213" s="4" t="s">
         <v>213</v>
       </c>
@@ -8824,21 +8800,21 @@
       <c r="I213" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J213" s="6"/>
+      <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
-    <row r="214" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="4">
+    <row r="214" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A214" s="18">
         <v>199</v>
       </c>
-      <c r="B214" s="30"/>
-      <c r="C214" s="4" t="s">
+      <c r="B214" s="20"/>
+      <c r="C214" s="22" t="s">
         <v>449</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E214" s="2" t="s">
         <v>451</v>
       </c>
       <c r="F214" s="7"/>
@@ -8855,18 +8831,16 @@
       <c r="K214" s="7"/>
     </row>
     <row r="215" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A215" s="4">
+      <c r="A215" s="18">
         <v>200</v>
       </c>
-      <c r="B215" s="30"/>
-      <c r="C215" s="22" t="s">
+      <c r="B215" s="20"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E215" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="4" t="s">
@@ -8882,16 +8856,16 @@
       <c r="K215" s="7"/>
     </row>
     <row r="216" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A216" s="4">
+      <c r="A216" s="18">
         <v>201</v>
       </c>
-      <c r="B216" s="30"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="23"/>
       <c r="D216" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E216" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="4" t="s">
@@ -8907,16 +8881,18 @@
       <c r="K216" s="7"/>
     </row>
     <row r="217" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A217" s="4">
+      <c r="A217" s="18">
         <v>202</v>
       </c>
-      <c r="B217" s="30"/>
-      <c r="C217" s="24"/>
-      <c r="D217" s="5" t="s">
-        <v>453</v>
+      <c r="B217" s="20"/>
+      <c r="C217" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="4" t="s">
@@ -8932,18 +8908,18 @@
       <c r="K217" s="7"/>
     </row>
     <row r="218" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A218" s="4">
+      <c r="A218" s="18">
         <v>203</v>
       </c>
-      <c r="B218" s="30"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>457</v>
+        <v>421</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="4" t="s">
@@ -8958,19 +8934,19 @@
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
-    <row r="219" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A219" s="4">
+    <row r="219" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="18">
         <v>204</v>
       </c>
-      <c r="B219" s="30"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="4" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="D219" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E219" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="4" t="s">
@@ -8985,13 +8961,15 @@
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
-    <row r="220" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="4">
+    <row r="220" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="18">
         <v>205</v>
       </c>
-      <c r="B220" s="31"/>
+      <c r="B220" s="32" t="s">
+        <v>460</v>
+      </c>
       <c r="C220" s="4" t="s">
-        <v>460</v>
+        <v>19</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>461</v>
@@ -9012,21 +8990,19 @@
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
-    <row r="221" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="4">
+    <row r="221" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="18">
         <v>206</v>
       </c>
-      <c r="B221" s="32" t="s">
+      <c r="B221" s="33"/>
+      <c r="C221" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E221" s="5" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="4" t="s">
@@ -9042,18 +9018,16 @@
       <c r="K221" s="7"/>
     </row>
     <row r="222" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="4">
+      <c r="A222" s="18">
         <v>207</v>
       </c>
       <c r="B222" s="33"/>
-      <c r="C222" s="22" t="s">
-        <v>439</v>
-      </c>
+      <c r="C222" s="31"/>
       <c r="D222" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="4" t="s">
@@ -9069,16 +9043,16 @@
       <c r="K222" s="7"/>
     </row>
     <row r="223" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="4">
+      <c r="A223" s="18">
         <v>208</v>
       </c>
       <c r="B223" s="33"/>
       <c r="C223" s="23"/>
       <c r="D223" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="4" t="s">
@@ -9094,16 +9068,18 @@
       <c r="K223" s="7"/>
     </row>
     <row r="224" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="4">
+      <c r="A224" s="18">
         <v>209</v>
       </c>
       <c r="B224" s="33"/>
-      <c r="C224" s="24"/>
+      <c r="C224" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="D224" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="4" t="s">
@@ -9118,18 +9094,18 @@
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
-    <row r="225" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="4">
+    <row r="225" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A225" s="18">
         <v>210</v>
       </c>
       <c r="B225" s="33"/>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="22" t="s">
         <v>449</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E225" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>451</v>
       </c>
       <c r="F225" s="7"/>
@@ -9146,18 +9122,16 @@
       <c r="K225" s="7"/>
     </row>
     <row r="226" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A226" s="4">
+      <c r="A226" s="18">
         <v>211</v>
       </c>
       <c r="B226" s="33"/>
-      <c r="C226" s="22" t="s">
+      <c r="C226" s="31"/>
+      <c r="D226" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E226" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="4" t="s">
@@ -9173,16 +9147,16 @@
       <c r="K226" s="7"/>
     </row>
     <row r="227" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A227" s="4">
+      <c r="A227" s="18">
         <v>212</v>
       </c>
       <c r="B227" s="33"/>
       <c r="C227" s="23"/>
       <c r="D227" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="4" t="s">
@@ -9198,16 +9172,18 @@
       <c r="K227" s="7"/>
     </row>
     <row r="228" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A228" s="4">
+      <c r="A228" s="18">
         <v>213</v>
       </c>
       <c r="B228" s="33"/>
-      <c r="C228" s="24"/>
-      <c r="D228" s="5" t="s">
-        <v>468</v>
+      <c r="C228" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F228" s="7"/>
       <c r="G228" s="4" t="s">
@@ -9223,18 +9199,18 @@
       <c r="K228" s="7"/>
     </row>
     <row r="229" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A229" s="4">
+      <c r="A229" s="18">
         <v>214</v>
       </c>
-      <c r="B229" s="33"/>
+      <c r="B229" s="34"/>
       <c r="C229" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>469</v>
+        <v>421</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="4" t="s">
@@ -9249,19 +9225,21 @@
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
-    <row r="230" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A230" s="4">
+    <row r="230" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="18">
         <v>215</v>
       </c>
-      <c r="B230" s="34"/>
+      <c r="B230" s="35" t="s">
+        <v>468</v>
+      </c>
       <c r="C230" s="4" t="s">
-        <v>424</v>
+        <v>19</v>
       </c>
       <c r="D230" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E230" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="F230" s="7"/>
       <c r="G230" s="4" t="s">
@@ -9276,21 +9254,19 @@
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
-    <row r="231" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A231" s="4">
+    <row r="231" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="18">
         <v>216</v>
       </c>
-      <c r="B231" s="19" t="s">
+      <c r="B231" s="36"/>
+      <c r="C231" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D231" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>472</v>
-      </c>
       <c r="E231" s="5" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="F231" s="7"/>
       <c r="G231" s="4" t="s">
@@ -9305,19 +9281,17 @@
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
-    <row r="232" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="4">
+    <row r="232" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A232" s="18">
         <v>217</v>
       </c>
-      <c r="B232" s="20"/>
-      <c r="C232" s="22" t="s">
-        <v>439</v>
-      </c>
+      <c r="B232" s="36"/>
+      <c r="C232" s="31"/>
       <c r="D232" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F232" s="7"/>
       <c r="G232" s="4" t="s">
@@ -9333,16 +9307,16 @@
       <c r="K232" s="7"/>
     </row>
     <row r="233" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A233" s="4">
+      <c r="A233" s="18">
         <v>218</v>
       </c>
-      <c r="B233" s="20"/>
+      <c r="B233" s="36"/>
       <c r="C233" s="23"/>
       <c r="D233" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="4" t="s">
@@ -9357,17 +9331,19 @@
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
-    <row r="234" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A234" s="4">
+    <row r="234" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="18">
         <v>219</v>
       </c>
-      <c r="B234" s="20"/>
-      <c r="C234" s="24"/>
+      <c r="B234" s="36"/>
+      <c r="C234" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="D234" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F234" s="7"/>
       <c r="G234" s="4" t="s">
@@ -9382,18 +9358,18 @@
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
-    <row r="235" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="4">
+    <row r="235" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A235" s="18">
         <v>220</v>
       </c>
-      <c r="B235" s="20"/>
-      <c r="C235" s="4" t="s">
+      <c r="B235" s="36"/>
+      <c r="C235" s="22" t="s">
         <v>449</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="E235" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>451</v>
       </c>
       <c r="F235" s="7"/>
@@ -9410,18 +9386,16 @@
       <c r="K235" s="7"/>
     </row>
     <row r="236" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A236" s="4">
+      <c r="A236" s="18">
         <v>221</v>
       </c>
-      <c r="B236" s="20"/>
-      <c r="C236" s="22" t="s">
+      <c r="B236" s="36"/>
+      <c r="C236" s="31"/>
+      <c r="D236" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E236" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="4" t="s">
@@ -9437,16 +9411,16 @@
       <c r="K236" s="7"/>
     </row>
     <row r="237" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A237" s="4">
+      <c r="A237" s="18">
         <v>222</v>
       </c>
-      <c r="B237" s="20"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="23"/>
       <c r="D237" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F237" s="7"/>
       <c r="G237" s="4" t="s">
@@ -9462,16 +9436,18 @@
       <c r="K237" s="7"/>
     </row>
     <row r="238" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A238" s="4">
+      <c r="A238" s="18">
         <v>223</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="24"/>
-      <c r="D238" s="5" t="s">
-        <v>477</v>
+      <c r="B238" s="36"/>
+      <c r="C238" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F238" s="7"/>
       <c r="G238" s="4" t="s">
@@ -9487,18 +9463,18 @@
       <c r="K238" s="7"/>
     </row>
     <row r="239" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A239" s="4">
+      <c r="A239" s="18">
         <v>224</v>
       </c>
-      <c r="B239" s="20"/>
+      <c r="B239" s="36"/>
       <c r="C239" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>478</v>
+        <v>421</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="F239" s="7"/>
       <c r="G239" s="4" t="s">
@@ -9514,18 +9490,18 @@
       <c r="K239" s="7"/>
     </row>
     <row r="240" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A240" s="4">
+      <c r="A240" s="18">
         <v>225</v>
       </c>
-      <c r="B240" s="20"/>
+      <c r="B240" s="37"/>
       <c r="C240" s="4" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F240" s="7"/>
       <c r="G240" s="4" t="s">
@@ -9540,19 +9516,21 @@
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
     </row>
-    <row r="241" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A241" s="4">
+    <row r="241" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="18">
         <v>226</v>
       </c>
-      <c r="B241" s="21"/>
+      <c r="B241" s="35" t="s">
+        <v>478</v>
+      </c>
       <c r="C241" s="4" t="s">
-        <v>446</v>
+        <v>19</v>
       </c>
       <c r="D241" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E241" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="F241" s="7"/>
       <c r="G241" s="4" t="s">
@@ -9567,15 +9545,13 @@
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
     </row>
-    <row r="242" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A242" s="4">
+    <row r="242" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="18">
         <v>227</v>
       </c>
-      <c r="B242" s="19" t="s">
+      <c r="B242" s="36"/>
+      <c r="C242" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>482</v>
@@ -9597,10 +9573,10 @@
       <c r="K242" s="7"/>
     </row>
     <row r="243" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="4">
+      <c r="A243" s="18">
         <v>228</v>
       </c>
-      <c r="B243" s="20"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="4" t="s">
         <v>484</v>
       </c>
@@ -9623,19 +9599,17 @@
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
     </row>
-    <row r="244" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="4">
+    <row r="244" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A244" s="18">
         <v>229</v>
       </c>
-      <c r="B244" s="20"/>
-      <c r="C244" s="4" t="s">
+      <c r="B244" s="36"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D244" s="5" t="s">
+      <c r="E244" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="F244" s="7"/>
       <c r="G244" s="4" t="s">
@@ -9651,16 +9625,16 @@
       <c r="K244" s="7"/>
     </row>
     <row r="245" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A245" s="4">
+      <c r="A245" s="18">
         <v>230</v>
       </c>
-      <c r="B245" s="20"/>
+      <c r="B245" s="37"/>
       <c r="C245" s="4"/>
       <c r="D245" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E245" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="E245" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="4" t="s">
@@ -9675,12 +9649,16 @@
       <c r="J245" s="7"/>
       <c r="K245" s="7"/>
     </row>
-    <row r="246" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A246" s="4">
+    <row r="246" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="18">
         <v>231</v>
       </c>
-      <c r="B246" s="21"/>
-      <c r="C246" s="4"/>
+      <c r="B246" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D246" s="5" t="s">
         <v>492</v>
       </c>
@@ -9700,15 +9678,13 @@
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
     </row>
-    <row r="247" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A247" s="4">
+    <row r="247" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="18">
         <v>232</v>
       </c>
-      <c r="B247" s="19" t="s">
+      <c r="B247" s="36"/>
+      <c r="C247" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>495</v>
@@ -9729,19 +9705,17 @@
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
     </row>
-    <row r="248" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="4">
+    <row r="248" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A248" s="18">
         <v>233</v>
       </c>
-      <c r="B248" s="20"/>
-      <c r="C248" s="22" t="s">
+      <c r="B248" s="36"/>
+      <c r="C248" s="31"/>
+      <c r="D248" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D248" s="5" t="s">
+      <c r="E248" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="F248" s="7"/>
       <c r="G248" s="4" t="s">
@@ -9756,17 +9730,17 @@
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
     </row>
-    <row r="249" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A249" s="4">
+    <row r="249" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="18">
         <v>234</v>
       </c>
-      <c r="B249" s="20"/>
-      <c r="C249" s="23"/>
+      <c r="B249" s="36"/>
+      <c r="C249" s="31"/>
       <c r="D249" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E249" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="F249" s="7"/>
       <c r="G249" s="4" t="s">
@@ -9782,16 +9756,16 @@
       <c r="K249" s="7"/>
     </row>
     <row r="250" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A250" s="4">
+      <c r="A250" s="18">
         <v>235</v>
       </c>
-      <c r="B250" s="20"/>
+      <c r="B250" s="36"/>
       <c r="C250" s="23"/>
       <c r="D250" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E250" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="F250" s="7"/>
       <c r="G250" s="4" t="s">
@@ -9806,12 +9780,14 @@
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
     </row>
-    <row r="251" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A251" s="4">
+    <row r="251" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="18">
         <v>236</v>
       </c>
-      <c r="B251" s="20"/>
-      <c r="C251" s="24"/>
+      <c r="B251" s="36"/>
+      <c r="C251" s="4" t="s">
+        <v>503</v>
+      </c>
       <c r="D251" s="5" t="s">
         <v>504</v>
       </c>
@@ -9832,10 +9808,10 @@
       <c r="K251" s="7"/>
     </row>
     <row r="252" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="4">
+      <c r="A252" s="18">
         <v>237</v>
       </c>
-      <c r="B252" s="20"/>
+      <c r="B252" s="36"/>
       <c r="C252" s="4" t="s">
         <v>506</v>
       </c>
@@ -9859,10 +9835,10 @@
       <c r="K252" s="7"/>
     </row>
     <row r="253" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="4">
+      <c r="A253" s="18">
         <v>238</v>
       </c>
-      <c r="B253" s="20"/>
+      <c r="B253" s="36"/>
       <c r="C253" s="4" t="s">
         <v>509</v>
       </c>
@@ -9886,10 +9862,10 @@
       <c r="K253" s="7"/>
     </row>
     <row r="254" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A254" s="4">
+      <c r="A254" s="18">
         <v>239</v>
       </c>
-      <c r="B254" s="20"/>
+      <c r="B254" s="36"/>
       <c r="C254" s="4" t="s">
         <v>512</v>
       </c>
@@ -9913,10 +9889,10 @@
       <c r="K254" s="7"/>
     </row>
     <row r="255" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A255" s="4">
+      <c r="A255" s="18">
         <v>240</v>
       </c>
-      <c r="B255" s="20"/>
+      <c r="B255" s="37"/>
       <c r="C255" s="4" t="s">
         <v>515</v>
       </c>
@@ -9939,13 +9915,15 @@
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
     </row>
-    <row r="256" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="4">
+    <row r="256" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="18">
         <v>241</v>
       </c>
-      <c r="B256" s="21"/>
+      <c r="B256" s="35" t="s">
+        <v>518</v>
+      </c>
       <c r="C256" s="4" t="s">
-        <v>518</v>
+        <v>19</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>519</v>
@@ -9955,26 +9933,24 @@
       </c>
       <c r="F256" s="7"/>
       <c r="G256" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
     </row>
-    <row r="257" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A257" s="4">
+    <row r="257" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="18">
         <v>242</v>
       </c>
-      <c r="B257" s="19" t="s">
+      <c r="B257" s="36"/>
+      <c r="C257" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>522</v>
@@ -9996,18 +9972,18 @@
       <c r="K257" s="7"/>
     </row>
     <row r="258" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A258" s="4">
+      <c r="A258" s="18">
         <v>243</v>
       </c>
-      <c r="B258" s="20"/>
+      <c r="B258" s="36"/>
       <c r="C258" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D258" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="D258" s="5" t="s">
+      <c r="E258" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="F258" s="7"/>
       <c r="G258" s="4" t="s">
@@ -10022,13 +9998,13 @@
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
     </row>
-    <row r="259" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="4">
+    <row r="259" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="18">
         <v>244</v>
       </c>
-      <c r="B259" s="20"/>
-      <c r="C259" s="4" t="s">
-        <v>176</v>
+      <c r="B259" s="36"/>
+      <c r="C259" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>527</v>
@@ -10049,19 +10025,17 @@
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
     </row>
-    <row r="260" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A260" s="4">
+    <row r="260" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="18">
         <v>245</v>
       </c>
-      <c r="B260" s="20"/>
-      <c r="C260" s="22" t="s">
+      <c r="B260" s="36"/>
+      <c r="C260" s="31"/>
+      <c r="D260" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D260" s="5" t="s">
+      <c r="E260" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="F260" s="7"/>
       <c r="G260" s="4" t="s">
@@ -10077,16 +10051,16 @@
       <c r="K260" s="7"/>
     </row>
     <row r="261" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A261" s="4">
+      <c r="A261" s="18">
         <v>246</v>
       </c>
-      <c r="B261" s="20"/>
+      <c r="B261" s="36"/>
       <c r="C261" s="23"/>
       <c r="D261" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E261" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="E261" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="F261" s="7"/>
       <c r="G261" s="4" t="s">
@@ -10101,12 +10075,14 @@
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
     </row>
-    <row r="262" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A262" s="4">
+    <row r="262" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="18">
         <v>247</v>
       </c>
-      <c r="B262" s="20"/>
-      <c r="C262" s="24"/>
+      <c r="B262" s="36"/>
+      <c r="C262" s="17" t="s">
+        <v>533</v>
+      </c>
       <c r="D262" s="5" t="s">
         <v>534</v>
       </c>
@@ -10127,11 +10103,11 @@
       <c r="K262" s="7"/>
     </row>
     <row r="263" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A263" s="4">
+      <c r="A263" s="18">
         <v>248</v>
       </c>
-      <c r="B263" s="20"/>
-      <c r="C263" s="17" t="s">
+      <c r="B263" s="36"/>
+      <c r="C263" s="4" t="s">
         <v>536</v>
       </c>
       <c r="D263" s="5" t="s">
@@ -10154,10 +10130,10 @@
       <c r="K263" s="7"/>
     </row>
     <row r="264" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="4">
+      <c r="A264" s="18">
         <v>249</v>
       </c>
-      <c r="B264" s="20"/>
+      <c r="B264" s="36"/>
       <c r="C264" s="4" t="s">
         <v>539</v>
       </c>
@@ -10181,10 +10157,10 @@
       <c r="K264" s="7"/>
     </row>
     <row r="265" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A265" s="4">
+      <c r="A265" s="18">
         <v>250</v>
       </c>
-      <c r="B265" s="20"/>
+      <c r="B265" s="37"/>
       <c r="C265" s="4" t="s">
         <v>542</v>
       </c>
@@ -10207,13 +10183,15 @@
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
     </row>
-    <row r="266" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A266" s="4">
+    <row r="266" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="18">
         <v>251</v>
       </c>
-      <c r="B266" s="21"/>
+      <c r="B266" s="35" t="s">
+        <v>545</v>
+      </c>
       <c r="C266" s="4" t="s">
-        <v>545</v>
+        <v>19</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>546</v>
@@ -10234,15 +10212,13 @@
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
     </row>
-    <row r="267" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A267" s="4">
+    <row r="267" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="18">
         <v>252</v>
       </c>
-      <c r="B267" s="19" t="s">
+      <c r="B267" s="36"/>
+      <c r="C267" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>549</v>
@@ -10264,10 +10240,10 @@
       <c r="K267" s="7"/>
     </row>
     <row r="268" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A268" s="4">
+      <c r="A268" s="18">
         <v>253</v>
       </c>
-      <c r="B268" s="20"/>
+      <c r="B268" s="36"/>
       <c r="C268" s="4" t="s">
         <v>551</v>
       </c>
@@ -10291,10 +10267,10 @@
       <c r="K268" s="7"/>
     </row>
     <row r="269" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A269" s="4">
+      <c r="A269" s="18">
         <v>254</v>
       </c>
-      <c r="B269" s="20"/>
+      <c r="B269" s="36"/>
       <c r="C269" s="4" t="s">
         <v>554</v>
       </c>
@@ -10317,19 +10293,19 @@
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
     </row>
-    <row r="270" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A270" s="4">
+    <row r="270" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="18">
         <v>255</v>
       </c>
-      <c r="B270" s="20"/>
+      <c r="B270" s="36"/>
       <c r="C270" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D270" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="D270" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="E270" s="5" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="F270" s="7"/>
       <c r="G270" s="4" t="s">
@@ -10345,18 +10321,18 @@
       <c r="K270" s="7"/>
     </row>
     <row r="271" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A271" s="4">
+      <c r="A271" s="18">
         <v>256</v>
       </c>
-      <c r="B271" s="20"/>
+      <c r="B271" s="37"/>
       <c r="C271" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F271" s="7"/>
       <c r="G271" s="4" t="s">
@@ -10371,19 +10347,21 @@
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
     </row>
-    <row r="272" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A272" s="4">
+    <row r="272" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A272" s="18">
         <v>257</v>
       </c>
-      <c r="B272" s="21"/>
+      <c r="B272" s="35" t="s">
+        <v>559</v>
+      </c>
       <c r="C272" s="4" t="s">
-        <v>539</v>
+        <v>19</v>
       </c>
       <c r="D272" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E272" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="E272" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="4" t="s">
@@ -10398,21 +10376,19 @@
       <c r="J272" s="7"/>
       <c r="K272" s="7"/>
     </row>
-    <row r="273" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A273" s="4">
+    <row r="273" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="18">
         <v>258</v>
       </c>
-      <c r="B273" s="19" t="s">
+      <c r="B273" s="36"/>
+      <c r="C273" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D273" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C273" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>563</v>
-      </c>
       <c r="E273" s="5" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="F273" s="7"/>
       <c r="G273" s="4" t="s">
@@ -10428,18 +10404,18 @@
       <c r="K273" s="7"/>
     </row>
     <row r="274" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A274" s="4">
+      <c r="A274" s="18">
         <v>259</v>
       </c>
-      <c r="B274" s="20"/>
+      <c r="B274" s="36"/>
       <c r="C274" s="4" t="s">
-        <v>524</v>
+        <v>176</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F274" s="7"/>
       <c r="G274" s="4" t="s">
@@ -10454,19 +10430,19 @@
       <c r="J274" s="7"/>
       <c r="K274" s="7"/>
     </row>
-    <row r="275" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A275" s="4">
+    <row r="275" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A275" s="18">
         <v>260</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="4" t="s">
-        <v>176</v>
+      <c r="B275" s="36"/>
+      <c r="C275" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="F275" s="7"/>
       <c r="G275" s="4" t="s">
@@ -10482,18 +10458,16 @@
       <c r="K275" s="7"/>
     </row>
     <row r="276" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A276" s="4">
+      <c r="A276" s="18">
         <v>261</v>
       </c>
-      <c r="B276" s="20"/>
-      <c r="C276" s="22" t="s">
+      <c r="B276" s="36"/>
+      <c r="C276" s="31"/>
+      <c r="D276" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D276" s="5" t="s">
-        <v>567</v>
-      </c>
       <c r="E276" s="5" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="F276" s="7"/>
       <c r="G276" s="4" t="s">
@@ -10509,16 +10483,16 @@
       <c r="K276" s="7"/>
     </row>
     <row r="277" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="4">
+      <c r="A277" s="18">
         <v>262</v>
       </c>
-      <c r="B277" s="20"/>
+      <c r="B277" s="36"/>
       <c r="C277" s="23"/>
       <c r="D277" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E277" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="E277" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="F277" s="7"/>
       <c r="G277" s="4" t="s">
@@ -10534,13 +10508,15 @@
       <c r="K277" s="7"/>
     </row>
     <row r="278" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A278" s="4">
+      <c r="A278" s="18">
         <v>263</v>
       </c>
-      <c r="B278" s="20"/>
-      <c r="C278" s="24"/>
+      <c r="B278" s="36"/>
+      <c r="C278" s="17" t="s">
+        <v>533</v>
+      </c>
       <c r="D278" s="5" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>535</v>
@@ -10559,15 +10535,15 @@
       <c r="K278" s="7"/>
     </row>
     <row r="279" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A279" s="4">
+      <c r="A279" s="18">
         <v>264</v>
       </c>
-      <c r="B279" s="20"/>
-      <c r="C279" s="17" t="s">
+      <c r="B279" s="36"/>
+      <c r="C279" s="4" t="s">
         <v>536</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>538</v>
@@ -10586,15 +10562,15 @@
       <c r="K279" s="7"/>
     </row>
     <row r="280" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A280" s="4">
+      <c r="A280" s="18">
         <v>265</v>
       </c>
-      <c r="B280" s="20"/>
+      <c r="B280" s="37"/>
       <c r="C280" s="4" t="s">
         <v>539</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>541</v>
@@ -10612,48 +10588,48 @@
       <c r="J280" s="7"/>
       <c r="K280" s="7"/>
     </row>
-    <row r="281" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A281" s="4">
+    <row r="281" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="18">
         <v>266</v>
       </c>
-      <c r="B281" s="21"/>
+      <c r="B281" s="35" t="s">
+        <v>569</v>
+      </c>
       <c r="C281" s="4" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="D281" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E281" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="E281" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="F281" s="7"/>
       <c r="G281" s="4" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="J281" s="7"/>
       <c r="K281" s="7"/>
     </row>
-    <row r="282" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A282" s="4">
+    <row r="282" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A282" s="18">
         <v>267</v>
       </c>
-      <c r="B282" s="19" t="s">
+      <c r="B282" s="36"/>
+      <c r="C282" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D282" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>573</v>
-      </c>
       <c r="E282" s="5" t="s">
-        <v>574</v>
+        <v>523</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="4" t="s">
@@ -10669,18 +10645,18 @@
       <c r="K282" s="7"/>
     </row>
     <row r="283" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A283" s="4">
+      <c r="A283" s="18">
         <v>268</v>
       </c>
-      <c r="B283" s="20"/>
+      <c r="B283" s="36"/>
       <c r="C283" s="4" t="s">
-        <v>524</v>
+        <v>176</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F283" s="7"/>
       <c r="G283" s="4" t="s">
@@ -10695,19 +10671,19 @@
       <c r="J283" s="7"/>
       <c r="K283" s="7"/>
     </row>
-    <row r="284" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="4">
+    <row r="284" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A284" s="18">
         <v>269</v>
       </c>
-      <c r="B284" s="20"/>
+      <c r="B284" s="36"/>
       <c r="C284" s="4" t="s">
-        <v>176</v>
+        <v>539</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F284" s="7"/>
       <c r="G284" s="4" t="s">
@@ -10723,18 +10699,18 @@
       <c r="K284" s="7"/>
     </row>
     <row r="285" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A285" s="4">
+      <c r="A285" s="18">
         <v>270</v>
       </c>
-      <c r="B285" s="20"/>
+      <c r="B285" s="36"/>
       <c r="C285" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="4" t="s">
@@ -10750,18 +10726,18 @@
       <c r="K285" s="7"/>
     </row>
     <row r="286" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A286" s="4">
+      <c r="A286" s="18">
         <v>271</v>
       </c>
-      <c r="B286" s="20"/>
-      <c r="C286" s="4" t="s">
-        <v>539</v>
+      <c r="B286" s="36"/>
+      <c r="C286" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="F286" s="7"/>
       <c r="G286" s="4" t="s">
@@ -10776,19 +10752,17 @@
       <c r="J286" s="7"/>
       <c r="K286" s="7"/>
     </row>
-    <row r="287" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="4">
+    <row r="287" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A287" s="18">
         <v>272</v>
       </c>
-      <c r="B287" s="20"/>
-      <c r="C287" s="22" t="s">
+      <c r="B287" s="36"/>
+      <c r="C287" s="31"/>
+      <c r="D287" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D287" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="E287" s="5" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="F287" s="7"/>
       <c r="G287" s="4" t="s">
@@ -10804,16 +10778,16 @@
       <c r="K287" s="7"/>
     </row>
     <row r="288" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A288" s="4">
+      <c r="A288" s="18">
         <v>273</v>
       </c>
-      <c r="B288" s="20"/>
-      <c r="C288" s="23"/>
+      <c r="B288" s="36"/>
+      <c r="C288" s="31"/>
       <c r="D288" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E288" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="E288" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="4" t="s">
@@ -10828,17 +10802,17 @@
       <c r="J288" s="7"/>
       <c r="K288" s="7"/>
     </row>
-    <row r="289" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A289" s="4">
+    <row r="289" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A289" s="18">
         <v>274</v>
       </c>
-      <c r="B289" s="20"/>
-      <c r="C289" s="23"/>
+      <c r="B289" s="36"/>
+      <c r="C289" s="31"/>
       <c r="D289" s="5" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
       <c r="F289" s="7"/>
       <c r="G289" s="4" t="s">
@@ -10853,17 +10827,17 @@
       <c r="J289" s="7"/>
       <c r="K289" s="7"/>
     </row>
-    <row r="290" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A290" s="4">
+    <row r="290" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A290" s="18">
         <v>275</v>
       </c>
-      <c r="B290" s="20"/>
-      <c r="C290" s="23"/>
+      <c r="B290" s="36"/>
+      <c r="C290" s="31"/>
       <c r="D290" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E290" s="5" t="s">
         <v>581</v>
-      </c>
-      <c r="E290" s="5" t="s">
-        <v>582</v>
       </c>
       <c r="F290" s="7"/>
       <c r="G290" s="4" t="s">
@@ -10879,16 +10853,16 @@
       <c r="K290" s="7"/>
     </row>
     <row r="291" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A291" s="4">
+      <c r="A291" s="18">
         <v>276</v>
       </c>
-      <c r="B291" s="20"/>
+      <c r="B291" s="37"/>
       <c r="C291" s="23"/>
       <c r="D291" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F291" s="7"/>
       <c r="G291" s="4" t="s">
@@ -10903,14 +10877,18 @@
       <c r="J291" s="7"/>
       <c r="K291" s="7"/>
     </row>
-    <row r="292" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A292" s="4">
+    <row r="292" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="18">
         <v>277</v>
       </c>
-      <c r="B292" s="21"/>
-      <c r="C292" s="24"/>
+      <c r="B292" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D292" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>585</v>
@@ -10928,21 +10906,19 @@
       <c r="J292" s="7"/>
       <c r="K292" s="7"/>
     </row>
-    <row r="293" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A293" s="4">
+    <row r="293" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A293" s="18">
         <v>278</v>
       </c>
-      <c r="B293" s="19" t="s">
+      <c r="B293" s="36"/>
+      <c r="C293" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D293" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C293" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D293" s="5" t="s">
-        <v>587</v>
-      </c>
       <c r="E293" s="5" t="s">
-        <v>588</v>
+        <v>523</v>
       </c>
       <c r="F293" s="7"/>
       <c r="G293" s="4" t="s">
@@ -10958,18 +10934,18 @@
       <c r="K293" s="7"/>
     </row>
     <row r="294" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A294" s="4">
+      <c r="A294" s="18">
         <v>279</v>
       </c>
-      <c r="B294" s="20"/>
+      <c r="B294" s="36"/>
       <c r="C294" s="4" t="s">
-        <v>524</v>
+        <v>176</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="4" t="s">
@@ -10984,19 +10960,19 @@
       <c r="J294" s="7"/>
       <c r="K294" s="7"/>
     </row>
-    <row r="295" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A295" s="4">
+    <row r="295" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A295" s="18">
         <v>280</v>
       </c>
-      <c r="B295" s="20"/>
+      <c r="B295" s="36"/>
       <c r="C295" s="4" t="s">
-        <v>176</v>
+        <v>536</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="F295" s="7"/>
       <c r="G295" s="4" t="s">
@@ -11012,18 +10988,18 @@
       <c r="K295" s="7"/>
     </row>
     <row r="296" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A296" s="4">
+      <c r="A296" s="18">
         <v>281</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="4" t="s">
-        <v>539</v>
+      <c r="B296" s="36"/>
+      <c r="C296" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="F296" s="7"/>
       <c r="G296" s="4" t="s">
@@ -11038,19 +11014,17 @@
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
     </row>
-    <row r="297" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A297" s="4">
+    <row r="297" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A297" s="18">
         <v>282</v>
       </c>
-      <c r="B297" s="20"/>
-      <c r="C297" s="22" t="s">
+      <c r="B297" s="36"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D297" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="E297" s="5" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="F297" s="7"/>
       <c r="G297" s="4" t="s">
@@ -11066,16 +11040,16 @@
       <c r="K297" s="7"/>
     </row>
     <row r="298" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A298" s="4">
+      <c r="A298" s="18">
         <v>283</v>
       </c>
-      <c r="B298" s="20"/>
-      <c r="C298" s="23"/>
+      <c r="B298" s="36"/>
+      <c r="C298" s="31"/>
       <c r="D298" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E298" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="E298" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="4" t="s">
@@ -11090,17 +11064,17 @@
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
     </row>
-    <row r="299" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A299" s="4">
+    <row r="299" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A299" s="18">
         <v>284</v>
       </c>
-      <c r="B299" s="20"/>
+      <c r="B299" s="36"/>
       <c r="C299" s="23"/>
       <c r="D299" s="5" t="s">
-        <v>534</v>
+        <v>589</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="F299" s="7"/>
       <c r="G299" s="4" t="s">
@@ -11115,12 +11089,14 @@
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
     </row>
-    <row r="300" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A300" s="4">
+    <row r="300" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A300" s="18">
         <v>285</v>
       </c>
-      <c r="B300" s="20"/>
-      <c r="C300" s="24"/>
+      <c r="B300" s="36"/>
+      <c r="C300" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="D300" s="5" t="s">
         <v>592</v>
       </c>
@@ -11140,19 +11116,19 @@
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
     </row>
-    <row r="301" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A301" s="4">
+    <row r="301" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A301" s="18">
         <v>286</v>
       </c>
-      <c r="B301" s="20"/>
+      <c r="B301" s="37"/>
       <c r="C301" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D301" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="D301" s="5" t="s">
-        <v>595</v>
-      </c>
       <c r="E301" s="5" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="F301" s="7"/>
       <c r="G301" s="4" t="s">
@@ -11167,19 +11143,21 @@
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
     </row>
-    <row r="302" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A302" s="4">
+    <row r="302" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A302" s="18">
         <v>287</v>
       </c>
-      <c r="B302" s="21"/>
+      <c r="B302" s="38" t="s">
+        <v>595</v>
+      </c>
       <c r="C302" s="4" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="D302" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E302" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="E302" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="F302" s="7"/>
       <c r="G302" s="4" t="s">
@@ -11194,21 +11172,19 @@
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
     </row>
-    <row r="303" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A303" s="4">
+    <row r="303" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="18">
         <v>288</v>
       </c>
-      <c r="B303" s="25" t="s">
-        <v>598</v>
-      </c>
+      <c r="B303" s="39"/>
       <c r="C303" s="4" t="s">
-        <v>19</v>
+        <v>591</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F303" s="7"/>
       <c r="G303" s="4" t="s">
@@ -11223,19 +11199,19 @@
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
     </row>
-    <row r="304" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A304" s="4">
+    <row r="304" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A304" s="18">
         <v>289</v>
       </c>
-      <c r="B304" s="26"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="4" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="4" t="s">
@@ -11251,18 +11227,18 @@
       <c r="K304" s="7"/>
     </row>
     <row r="305" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A305" s="4">
+      <c r="A305" s="18">
         <v>290</v>
       </c>
-      <c r="B305" s="26"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F305" s="7"/>
       <c r="G305" s="4" t="s">
@@ -11277,19 +11253,19 @@
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
     </row>
-    <row r="306" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A306" s="4">
+    <row r="306" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A306" s="18">
         <v>291</v>
       </c>
-      <c r="B306" s="26"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="4" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="D306" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E306" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="E306" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="F306" s="7"/>
       <c r="G306" s="4" t="s">
@@ -11304,13 +11280,15 @@
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
     </row>
-    <row r="307" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A307" s="4">
+    <row r="307" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A307" s="18">
         <v>292</v>
       </c>
-      <c r="B307" s="27"/>
+      <c r="B307" s="35" t="s">
+        <v>603</v>
+      </c>
       <c r="C307" s="4" t="s">
-        <v>603</v>
+        <v>19</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>604</v>
@@ -11331,21 +11309,19 @@
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
     </row>
-    <row r="308" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A308" s="4">
+    <row r="308" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A308" s="18">
         <v>293</v>
       </c>
-      <c r="B308" s="19" t="s">
+      <c r="B308" s="36"/>
+      <c r="C308" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D308" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="C308" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>607</v>
-      </c>
       <c r="E308" s="5" t="s">
-        <v>608</v>
+        <v>541</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="4" t="s">
@@ -11361,18 +11337,18 @@
       <c r="K308" s="7"/>
     </row>
     <row r="309" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A309" s="4">
+      <c r="A309" s="18">
         <v>294</v>
       </c>
-      <c r="B309" s="20"/>
+      <c r="B309" s="36"/>
       <c r="C309" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="4" t="s">
@@ -11387,19 +11363,19 @@
       <c r="J309" s="7"/>
       <c r="K309" s="7"/>
     </row>
-    <row r="310" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A310" s="4">
+    <row r="310" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A310" s="18">
         <v>295</v>
       </c>
-      <c r="B310" s="20"/>
-      <c r="C310" s="4" t="s">
-        <v>539</v>
+      <c r="B310" s="36"/>
+      <c r="C310" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>610</v>
+        <v>564</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="F310" s="7"/>
       <c r="G310" s="4" t="s">
@@ -11415,18 +11391,16 @@
       <c r="K310" s="7"/>
     </row>
     <row r="311" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A311" s="4">
+      <c r="A311" s="18">
         <v>296</v>
       </c>
-      <c r="B311" s="20"/>
-      <c r="C311" s="22" t="s">
+      <c r="B311" s="36"/>
+      <c r="C311" s="31"/>
+      <c r="D311" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D311" s="5" t="s">
-        <v>567</v>
-      </c>
       <c r="E311" s="5" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="F311" s="7"/>
       <c r="G311" s="4" t="s">
@@ -11442,16 +11416,16 @@
       <c r="K311" s="7"/>
     </row>
     <row r="312" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A312" s="4">
+      <c r="A312" s="18">
         <v>297</v>
       </c>
-      <c r="B312" s="20"/>
+      <c r="B312" s="36"/>
       <c r="C312" s="23"/>
       <c r="D312" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E312" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="E312" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="F312" s="7"/>
       <c r="G312" s="4" t="s">
@@ -11466,17 +11440,19 @@
       <c r="J312" s="7"/>
       <c r="K312" s="7"/>
     </row>
-    <row r="313" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A313" s="4">
+    <row r="313" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A313" s="18">
         <v>298</v>
       </c>
-      <c r="B313" s="20"/>
-      <c r="C313" s="24"/>
+      <c r="B313" s="36"/>
+      <c r="C313" s="22" t="s">
+        <v>608</v>
+      </c>
       <c r="D313" s="5" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="F313" s="7"/>
       <c r="G313" s="4" t="s">
@@ -11491,19 +11467,17 @@
       <c r="J313" s="7"/>
       <c r="K313" s="7"/>
     </row>
-    <row r="314" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A314" s="4">
+    <row r="314" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A314" s="18">
         <v>299</v>
       </c>
-      <c r="B314" s="20"/>
-      <c r="C314" s="22" t="s">
+      <c r="B314" s="36"/>
+      <c r="C314" s="31"/>
+      <c r="D314" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="D314" s="5" t="s">
+      <c r="E314" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="E314" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="F314" s="7"/>
       <c r="G314" s="4" t="s">
@@ -11519,16 +11493,16 @@
       <c r="K314" s="7"/>
     </row>
     <row r="315" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A315" s="4">
+      <c r="A315" s="18">
         <v>300</v>
       </c>
-      <c r="B315" s="20"/>
+      <c r="B315" s="36"/>
       <c r="C315" s="23"/>
       <c r="D315" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E315" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="F315" s="7"/>
       <c r="G315" s="4" t="s">
@@ -11543,12 +11517,14 @@
       <c r="J315" s="7"/>
       <c r="K315" s="7"/>
     </row>
-    <row r="316" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A316" s="4">
+    <row r="316" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A316" s="18">
         <v>301</v>
       </c>
-      <c r="B316" s="20"/>
-      <c r="C316" s="24"/>
+      <c r="B316" s="36"/>
+      <c r="C316" s="22" t="s">
+        <v>615</v>
+      </c>
       <c r="D316" s="5" t="s">
         <v>616</v>
       </c>
@@ -11568,19 +11544,17 @@
       <c r="J316" s="7"/>
       <c r="K316" s="7"/>
     </row>
-    <row r="317" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A317" s="4">
+    <row r="317" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A317" s="18">
         <v>302</v>
       </c>
-      <c r="B317" s="20"/>
-      <c r="C317" s="22" t="s">
+      <c r="B317" s="36"/>
+      <c r="C317" s="23"/>
+      <c r="D317" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D317" s="5" t="s">
+      <c r="E317" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="E317" s="5" t="s">
-        <v>620</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="4" t="s">
@@ -11595,12 +11569,14 @@
       <c r="J317" s="7"/>
       <c r="K317" s="7"/>
     </row>
-    <row r="318" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A318" s="4">
+    <row r="318" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A318" s="18">
         <v>303</v>
       </c>
-      <c r="B318" s="20"/>
-      <c r="C318" s="24"/>
+      <c r="B318" s="37"/>
+      <c r="C318" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="D318" s="5" t="s">
         <v>621</v>
       </c>
@@ -11620,13 +11596,15 @@
       <c r="J318" s="7"/>
       <c r="K318" s="7"/>
     </row>
-    <row r="319" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A319" s="4">
+    <row r="319" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="18">
         <v>304</v>
       </c>
-      <c r="B319" s="21"/>
+      <c r="B319" s="35" t="s">
+        <v>623</v>
+      </c>
       <c r="C319" s="4" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>624</v>
@@ -11647,21 +11625,19 @@
       <c r="J319" s="7"/>
       <c r="K319" s="7"/>
     </row>
-    <row r="320" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A320" s="4">
+    <row r="320" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A320" s="18">
         <v>305</v>
       </c>
-      <c r="B320" s="18" t="s">
+      <c r="B320" s="36"/>
+      <c r="C320" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D320" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="C320" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D320" s="5" t="s">
+      <c r="E320" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="F320" s="7"/>
       <c r="G320" s="4" t="s">
@@ -11677,18 +11653,18 @@
       <c r="K320" s="7"/>
     </row>
     <row r="321" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A321" s="4">
+      <c r="A321" s="18">
         <v>306</v>
       </c>
-      <c r="B321" s="4"/>
+      <c r="B321" s="36"/>
       <c r="C321" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>630</v>
+        <v>541</v>
       </c>
       <c r="F321" s="7"/>
       <c r="G321" s="4" t="s">
@@ -11704,18 +11680,18 @@
       <c r="K321" s="7"/>
     </row>
     <row r="322" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A322" s="4">
+      <c r="A322" s="18">
         <v>307</v>
       </c>
-      <c r="B322" s="4"/>
+      <c r="B322" s="37"/>
       <c r="C322" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F322" s="7"/>
       <c r="G322" s="4" t="s">
@@ -11730,76 +11706,43 @@
       <c r="J322" s="7"/>
       <c r="K322" s="7"/>
     </row>
-    <row r="323" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A323" s="4">
-        <v>308</v>
-      </c>
-      <c r="B323" s="4"/>
-      <c r="C323" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="E323" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="F323" s="7"/>
-      <c r="G323" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H323" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I323" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J323" s="7"/>
-      <c r="K323" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B113:B130"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B101:B108"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="B63:B79"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C139:C144"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B131:B146"/>
-    <mergeCell ref="C131:C133"/>
+  <mergeCells count="86">
+    <mergeCell ref="B319:B322"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="B292:B301"/>
+    <mergeCell ref="C296:C299"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="B307:B318"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="C313:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="B281:B291"/>
+    <mergeCell ref="C286:C291"/>
+    <mergeCell ref="B230:B240"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="B246:B255"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="B256:B265"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="B266:B271"/>
+    <mergeCell ref="B272:B280"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="B220:B229"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="B192:B202"/>
+    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="B208:B219"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C214:C216"/>
     <mergeCell ref="B150:B156"/>
     <mergeCell ref="C150:C153"/>
     <mergeCell ref="C154:C155"/>
@@ -11810,46 +11753,53 @@
     <mergeCell ref="C167:C168"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="C171:C173"/>
-    <mergeCell ref="B221:B230"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="C226:C228"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B193:B203"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="B209:B220"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="B282:B292"/>
-    <mergeCell ref="C287:C292"/>
-    <mergeCell ref="B231:B241"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="B247:B256"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="B257:B266"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="B273:B281"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="B293:B302"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="B308:B319"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C139:C144"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B131:B146"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="B63:B79"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B130"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B101:B108"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K213">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K212">
       <formula1>$C$2:$C$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I323">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I322">
       <formula1>$B$1:$B$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -11881,7 +11831,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G16:I130 G132:I146</xm:sqref>
+          <xm:sqref>G16:I130 G132:I255</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{5F2DFDBD-06DA-4837-B76B-210602F638BB}">
@@ -11909,33 +11859,8 @@
           <xm:sqref>G131:I131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{56A0738B-EADB-48D6-9346-C67170DAFB27}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G147)))</xm:f>
-            <xm:f>$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{6F67292B-D7EC-42BB-9AEA-6375AB5A2C98}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G147)))</xm:f>
-            <xm:f>$B$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G147:I256</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E253D3FB-E17C-4F07-8A6C-BB9D6CA27F97}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G273)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G272)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11946,7 +11871,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="6" operator="containsText" id="{BB207536-5CB2-44D8-91E7-00E2D5DEA655}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G273)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G272)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -11956,11 +11881,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G273:I281</xm:sqref>
+          <xm:sqref>G272:I280</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{CC548D13-3C19-450E-AF9D-BA83982B8EFC}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G257)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G256)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11971,7 +11896,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{E612C287-D89D-4C5F-8C2D-D03D527DF1B6}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G257)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G256)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -11981,11 +11906,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G257:I272</xm:sqref>
+          <xm:sqref>G256:I271</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{1DD87E91-C9AC-4C95-9342-BDFC9C9B6BDD}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G282)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G281)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11996,7 +11921,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{50C83B94-3CF8-4C9C-919B-681D73216901}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G282)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G281)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -12006,7 +11931,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G282:I323</xm:sqref>
+          <xm:sqref>G281:I322</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN KHAC DUC\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D9E51-FF8B-4B4A-83C4-FB6F26BAE0B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2625,7 +2626,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2848,15 +2849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2869,10 +2861,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2884,83 +2915,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -3306,11 +3265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J203" sqref="A13:K322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3500,11 +3459,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
@@ -3525,11 +3484,11 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -3572,7 +3531,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3601,7 +3560,7 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3630,7 +3589,7 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3659,7 +3618,7 @@
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3688,7 +3647,7 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3717,7 +3676,7 @@
       <c r="A21" s="4">
         <v>6</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3744,10 +3703,10 @@
       <c r="A22" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3773,8 +3732,8 @@
       <c r="A23" s="4">
         <v>8</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3798,8 +3757,8 @@
       <c r="A24" s="4">
         <v>9</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3825,8 +3784,8 @@
       <c r="A25" s="4">
         <v>10</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3850,7 +3809,7 @@
       <c r="A26" s="4">
         <v>11</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3877,7 +3836,7 @@
       <c r="A27" s="4">
         <v>12</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
@@ -3904,7 +3863,7 @@
       <c r="A28" s="4">
         <v>13</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
@@ -3931,7 +3890,7 @@
       <c r="A29" s="4">
         <v>14</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3958,7 +3917,7 @@
       <c r="A30" s="4">
         <v>15</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3987,7 +3946,7 @@
       <c r="A31" s="4">
         <v>16</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -4016,7 +3975,7 @@
       <c r="A32" s="4">
         <v>17</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
@@ -4045,7 +4004,7 @@
       <c r="A33" s="4">
         <v>18</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4074,7 +4033,7 @@
       <c r="A34" s="4">
         <v>19</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4101,7 +4060,7 @@
       <c r="A35" s="4">
         <v>20</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4128,7 +4087,7 @@
       <c r="A36" s="4">
         <v>21</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
@@ -4155,7 +4114,7 @@
       <c r="A37" s="4">
         <v>22</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4184,7 +4143,7 @@
       <c r="A38" s="4">
         <v>23</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -4213,7 +4172,7 @@
       <c r="A39" s="4">
         <v>24</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
@@ -4242,7 +4201,7 @@
       <c r="A40" s="4">
         <v>25</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4271,7 +4230,7 @@
       <c r="A41" s="4">
         <v>26</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
@@ -4300,7 +4259,7 @@
       <c r="A42" s="4">
         <v>27</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
@@ -4327,7 +4286,7 @@
       <c r="A43" s="4">
         <v>28</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
@@ -4354,7 +4313,7 @@
       <c r="A44" s="4">
         <v>29</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4383,7 +4342,7 @@
       <c r="A45" s="4">
         <v>30</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="4" t="s">
         <v>89</v>
       </c>
@@ -4410,7 +4369,7 @@
       <c r="A46" s="4">
         <v>31</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="4" t="s">
         <v>71</v>
       </c>
@@ -4439,7 +4398,7 @@
       <c r="A47" s="4">
         <v>32</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
@@ -4468,7 +4427,7 @@
       <c r="A48" s="4">
         <v>33</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4497,7 +4456,7 @@
       <c r="A49" s="4">
         <v>34</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
@@ -4526,7 +4485,7 @@
       <c r="A50" s="4">
         <v>35</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="30" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4555,7 +4514,7 @@
       <c r="A51" s="4">
         <v>36</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
@@ -4584,7 +4543,7 @@
       <c r="A52" s="4">
         <v>37</v>
       </c>
-      <c r="B52" s="39"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
@@ -4611,7 +4570,7 @@
       <c r="A53" s="4">
         <v>38</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4640,7 +4599,7 @@
       <c r="A54" s="4">
         <v>39</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
@@ -4669,7 +4628,7 @@
       <c r="A55" s="4">
         <v>40</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4698,7 +4657,7 @@
       <c r="A56" s="4">
         <v>41</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
@@ -4727,7 +4686,7 @@
       <c r="A57" s="4">
         <v>42</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
@@ -4756,10 +4715,10 @@
       <c r="A58" s="4">
         <v>43</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4785,8 +4744,8 @@
       <c r="A59" s="4">
         <v>44</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="5" t="s">
         <v>124</v>
       </c>
@@ -4810,8 +4769,8 @@
       <c r="A60" s="4">
         <v>45</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="5" t="s">
         <v>126</v>
       </c>
@@ -4835,8 +4794,8 @@
       <c r="A61" s="4">
         <v>46</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="36"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="5" t="s">
         <v>128</v>
       </c>
@@ -4860,8 +4819,8 @@
       <c r="A62" s="4">
         <v>47</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="5" t="s">
         <v>130</v>
       </c>
@@ -4885,10 +4844,10 @@
       <c r="A63" s="4">
         <v>48</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="28" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4914,8 +4873,8 @@
       <c r="A64" s="4">
         <v>49</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="36"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="5" t="s">
         <v>136</v>
       </c>
@@ -4939,8 +4898,8 @@
       <c r="A65" s="4">
         <v>50</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="5" t="s">
         <v>138</v>
       </c>
@@ -4968,8 +4927,8 @@
       <c r="A66" s="4">
         <v>51</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="5" t="s">
         <v>143</v>
       </c>
@@ -4997,8 +4956,8 @@
       <c r="A67" s="4">
         <v>52</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
       <c r="D67" s="5" t="s">
         <v>146</v>
       </c>
@@ -5024,8 +4983,8 @@
       <c r="A68" s="4">
         <v>53</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="5" t="s">
         <v>149</v>
       </c>
@@ -5051,8 +5010,8 @@
       <c r="A69" s="4">
         <v>54</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="36" t="s">
+      <c r="B69" s="27"/>
+      <c r="C69" s="28" t="s">
         <v>151</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -5078,8 +5037,8 @@
       <c r="A70" s="4">
         <v>55</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="36"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="5" t="s">
         <v>153</v>
       </c>
@@ -5103,8 +5062,8 @@
       <c r="A71" s="4">
         <v>56</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="5" t="s">
         <v>155</v>
       </c>
@@ -5128,8 +5087,8 @@
       <c r="A72" s="4">
         <v>57</v>
       </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="5" t="s">
         <v>157</v>
       </c>
@@ -5153,8 +5112,8 @@
       <c r="A73" s="4">
         <v>58</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="36"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="5" t="s">
         <v>159</v>
       </c>
@@ -5178,8 +5137,8 @@
       <c r="A74" s="4">
         <v>59</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="36"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
       <c r="D74" s="5" t="s">
         <v>161</v>
       </c>
@@ -5203,7 +5162,7 @@
       <c r="A75" s="4">
         <v>60</v>
       </c>
-      <c r="B75" s="35"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="4" t="s">
         <v>163</v>
       </c>
@@ -5230,8 +5189,8 @@
       <c r="A76" s="4">
         <v>61</v>
       </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="36" t="s">
+      <c r="B76" s="27"/>
+      <c r="C76" s="28" t="s">
         <v>166</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -5257,8 +5216,8 @@
       <c r="A77" s="4">
         <v>62</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
       <c r="D77" s="5" t="s">
         <v>169</v>
       </c>
@@ -5282,8 +5241,8 @@
       <c r="A78" s="4">
         <v>63</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="36"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="5" t="s">
         <v>171</v>
       </c>
@@ -5307,7 +5266,7 @@
       <c r="A79" s="4">
         <v>64</v>
       </c>
-      <c r="B79" s="35"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5" t="s">
         <v>173</v>
@@ -5332,10 +5291,10 @@
       <c r="A80" s="4">
         <v>65</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="28" t="s">
         <v>176</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5363,8 +5322,8 @@
       <c r="A81" s="4">
         <v>66</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="36"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="5" t="s">
         <v>180</v>
       </c>
@@ -5388,8 +5347,8 @@
       <c r="A82" s="4">
         <v>67</v>
       </c>
-      <c r="B82" s="35"/>
-      <c r="C82" s="36" t="s">
+      <c r="B82" s="27"/>
+      <c r="C82" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -5415,8 +5374,8 @@
       <c r="A83" s="4">
         <v>68</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="36"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="5" t="s">
         <v>185</v>
       </c>
@@ -5440,8 +5399,8 @@
       <c r="A84" s="4">
         <v>69</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="5" t="s">
         <v>187</v>
       </c>
@@ -5465,8 +5424,8 @@
       <c r="A85" s="4">
         <v>70</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="36"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="5" t="s">
         <v>189</v>
       </c>
@@ -5490,7 +5449,7 @@
       <c r="A86" s="4">
         <v>71</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="4" t="s">
         <v>163</v>
       </c>
@@ -5517,7 +5476,7 @@
       <c r="A87" s="4">
         <v>72</v>
       </c>
-      <c r="B87" s="35"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5" t="s">
         <v>173</v>
@@ -5542,10 +5501,10 @@
       <c r="A88" s="4">
         <v>73</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="28" t="s">
         <v>176</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5571,8 +5530,8 @@
       <c r="A89" s="4">
         <v>74</v>
       </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="36"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="5" t="s">
         <v>180</v>
       </c>
@@ -5596,8 +5555,8 @@
       <c r="A90" s="4">
         <v>75</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="36" t="s">
+      <c r="B90" s="27"/>
+      <c r="C90" s="28" t="s">
         <v>182</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -5623,8 +5582,8 @@
       <c r="A91" s="4">
         <v>76</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="5" t="s">
         <v>185</v>
       </c>
@@ -5648,8 +5607,8 @@
       <c r="A92" s="4">
         <v>77</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="36"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="5" t="s">
         <v>187</v>
       </c>
@@ -5673,8 +5632,8 @@
       <c r="A93" s="4">
         <v>78</v>
       </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="36"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="5" t="s">
         <v>189</v>
       </c>
@@ -5698,7 +5657,7 @@
       <c r="A94" s="4">
         <v>79</v>
       </c>
-      <c r="B94" s="35"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="4" t="s">
         <v>163</v>
       </c>
@@ -5725,7 +5684,7 @@
       <c r="A95" s="4">
         <v>80</v>
       </c>
-      <c r="B95" s="35"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5" t="s">
         <v>173</v>
@@ -5750,7 +5709,7 @@
       <c r="A96" s="4">
         <v>81</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="27" t="s">
         <v>193</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -5779,7 +5738,7 @@
       <c r="A97" s="4">
         <v>82</v>
       </c>
-      <c r="B97" s="35"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5" t="s">
         <v>173</v>
@@ -5804,7 +5763,7 @@
       <c r="A98" s="4">
         <v>83</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="27" t="s">
         <v>197</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -5833,7 +5792,7 @@
       <c r="A99" s="4">
         <v>84</v>
       </c>
-      <c r="B99" s="35"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="4" t="s">
         <v>163</v>
       </c>
@@ -5860,7 +5819,7 @@
       <c r="A100" s="4">
         <v>85</v>
       </c>
-      <c r="B100" s="35"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5" t="s">
         <v>173</v>
@@ -5885,7 +5844,7 @@
       <c r="A101" s="4">
         <v>86</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -5914,7 +5873,7 @@
       <c r="A102" s="4">
         <v>87</v>
       </c>
-      <c r="B102" s="35"/>
+      <c r="B102" s="27"/>
       <c r="C102" s="4" t="s">
         <v>200</v>
       </c>
@@ -5941,8 +5900,8 @@
       <c r="A103" s="4">
         <v>88</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="36" t="s">
+      <c r="B103" s="27"/>
+      <c r="C103" s="28" t="s">
         <v>203</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -5968,8 +5927,8 @@
       <c r="A104" s="4">
         <v>89</v>
       </c>
-      <c r="B104" s="35"/>
-      <c r="C104" s="36"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="5" t="s">
         <v>206</v>
       </c>
@@ -5993,8 +5952,8 @@
       <c r="A105" s="4">
         <v>90</v>
       </c>
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="5" t="s">
         <v>207</v>
       </c>
@@ -6018,8 +5977,8 @@
       <c r="A106" s="4">
         <v>91</v>
       </c>
-      <c r="B106" s="35"/>
-      <c r="C106" s="36"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="28"/>
       <c r="D106" s="5" t="s">
         <v>209</v>
       </c>
@@ -6043,7 +6002,7 @@
       <c r="A107" s="4">
         <v>92</v>
       </c>
-      <c r="B107" s="35"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="4" t="s">
         <v>210</v>
       </c>
@@ -6072,7 +6031,7 @@
       <c r="A108" s="4">
         <v>93</v>
       </c>
-      <c r="B108" s="35"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5" t="s">
         <v>173</v>
@@ -6097,10 +6056,10 @@
       <c r="A109" s="4">
         <v>94</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -6126,8 +6085,8 @@
       <c r="A110" s="4">
         <v>95</v>
       </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="29"/>
       <c r="D110" s="5" t="s">
         <v>217</v>
       </c>
@@ -6151,8 +6110,8 @@
       <c r="A111" s="4">
         <v>96</v>
       </c>
-      <c r="B111" s="35"/>
-      <c r="C111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="29"/>
       <c r="D111" s="5" t="s">
         <v>219</v>
       </c>
@@ -6176,8 +6135,8 @@
       <c r="A112" s="4">
         <v>97</v>
       </c>
-      <c r="B112" s="35"/>
-      <c r="C112" s="28"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="24"/>
       <c r="D112" s="5" t="s">
         <v>221</v>
       </c>
@@ -6201,7 +6160,7 @@
       <c r="A113" s="4">
         <v>98</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="27" t="s">
         <v>223</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -6230,8 +6189,8 @@
       <c r="A114" s="4">
         <v>99</v>
       </c>
-      <c r="B114" s="35"/>
-      <c r="C114" s="36" t="s">
+      <c r="B114" s="27"/>
+      <c r="C114" s="28" t="s">
         <v>227</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -6257,8 +6216,8 @@
       <c r="A115" s="4">
         <v>100</v>
       </c>
-      <c r="B115" s="35"/>
-      <c r="C115" s="36"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="28"/>
       <c r="D115" s="5" t="s">
         <v>230</v>
       </c>
@@ -6282,8 +6241,8 @@
       <c r="A116" s="4">
         <v>101</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="36"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="28"/>
       <c r="D116" s="5" t="s">
         <v>232</v>
       </c>
@@ -6307,8 +6266,8 @@
       <c r="A117" s="4">
         <v>102</v>
       </c>
-      <c r="B117" s="35"/>
-      <c r="C117" s="36"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="28"/>
       <c r="D117" s="5" t="s">
         <v>234</v>
       </c>
@@ -6332,8 +6291,8 @@
       <c r="A118" s="4">
         <v>103</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="36" t="s">
+      <c r="B118" s="27"/>
+      <c r="C118" s="28" t="s">
         <v>235</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -6359,8 +6318,8 @@
       <c r="A119" s="4">
         <v>104</v>
       </c>
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="28"/>
       <c r="D119" s="5" t="s">
         <v>238</v>
       </c>
@@ -6384,8 +6343,8 @@
       <c r="A120" s="4">
         <v>105</v>
       </c>
-      <c r="B120" s="35"/>
-      <c r="C120" s="36"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="28"/>
       <c r="D120" s="5" t="s">
         <v>240</v>
       </c>
@@ -6409,8 +6368,8 @@
       <c r="A121" s="4">
         <v>106</v>
       </c>
-      <c r="B121" s="35"/>
-      <c r="C121" s="36"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="28"/>
       <c r="D121" s="5" t="s">
         <v>241</v>
       </c>
@@ -6434,8 +6393,8 @@
       <c r="A122" s="4">
         <v>107</v>
       </c>
-      <c r="B122" s="35"/>
-      <c r="C122" s="36" t="s">
+      <c r="B122" s="27"/>
+      <c r="C122" s="28" t="s">
         <v>242</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -6461,8 +6420,8 @@
       <c r="A123" s="4">
         <v>108</v>
       </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="28"/>
       <c r="D123" s="5" t="s">
         <v>245</v>
       </c>
@@ -6486,8 +6445,8 @@
       <c r="A124" s="4">
         <v>109</v>
       </c>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="28"/>
       <c r="D124" s="5" t="s">
         <v>246</v>
       </c>
@@ -6511,8 +6470,8 @@
       <c r="A125" s="4">
         <v>110</v>
       </c>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36" t="s">
+      <c r="B125" s="27"/>
+      <c r="C125" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -6538,8 +6497,8 @@
       <c r="A126" s="4">
         <v>111</v>
       </c>
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="28"/>
       <c r="D126" s="5" t="s">
         <v>251</v>
       </c>
@@ -6563,8 +6522,8 @@
       <c r="A127" s="4">
         <v>112</v>
       </c>
-      <c r="B127" s="35"/>
-      <c r="C127" s="36" t="s">
+      <c r="B127" s="27"/>
+      <c r="C127" s="28" t="s">
         <v>253</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -6590,8 +6549,8 @@
       <c r="A128" s="4">
         <v>113</v>
       </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="36"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="28"/>
       <c r="D128" s="5" t="s">
         <v>256</v>
       </c>
@@ -6615,8 +6574,8 @@
       <c r="A129" s="4">
         <v>114</v>
       </c>
-      <c r="B129" s="35"/>
-      <c r="C129" s="36"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="28"/>
       <c r="D129" s="5" t="s">
         <v>258</v>
       </c>
@@ -6640,7 +6599,7 @@
       <c r="A130" s="4">
         <v>115</v>
       </c>
-      <c r="B130" s="35"/>
+      <c r="B130" s="27"/>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
         <v>173</v>
@@ -6665,10 +6624,10 @@
       <c r="A131" s="4">
         <v>116</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C131" s="36" t="s">
+      <c r="C131" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -6694,8 +6653,8 @@
       <c r="A132" s="4">
         <v>117</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="28"/>
       <c r="D132" s="5" t="s">
         <v>270</v>
       </c>
@@ -6719,8 +6678,8 @@
       <c r="A133" s="4">
         <v>118</v>
       </c>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="28"/>
       <c r="D133" s="5" t="s">
         <v>271</v>
       </c>
@@ -6744,8 +6703,8 @@
       <c r="A134" s="4">
         <v>119</v>
       </c>
-      <c r="B134" s="35"/>
-      <c r="C134" s="26" t="s">
+      <c r="B134" s="27"/>
+      <c r="C134" s="23" t="s">
         <v>264</v>
       </c>
       <c r="D134" s="5" t="s">
@@ -6771,8 +6730,8 @@
       <c r="A135" s="4">
         <v>120</v>
       </c>
-      <c r="B135" s="35"/>
-      <c r="C135" s="28"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="24"/>
       <c r="D135" s="5" t="s">
         <v>269</v>
       </c>
@@ -6796,8 +6755,8 @@
       <c r="A136" s="4">
         <v>121</v>
       </c>
-      <c r="B136" s="35"/>
-      <c r="C136" s="26" t="s">
+      <c r="B136" s="27"/>
+      <c r="C136" s="23" t="s">
         <v>265</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -6823,8 +6782,8 @@
       <c r="A137" s="4">
         <v>122</v>
       </c>
-      <c r="B137" s="35"/>
-      <c r="C137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="29"/>
       <c r="D137" s="5" t="s">
         <v>277</v>
       </c>
@@ -6848,8 +6807,8 @@
       <c r="A138" s="4">
         <v>123</v>
       </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="28"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="24"/>
       <c r="D138" s="5" t="s">
         <v>279</v>
       </c>
@@ -6873,8 +6832,8 @@
       <c r="A139" s="4">
         <v>124</v>
       </c>
-      <c r="B139" s="35"/>
-      <c r="C139" s="26" t="s">
+      <c r="B139" s="27"/>
+      <c r="C139" s="23" t="s">
         <v>266</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -6900,8 +6859,8 @@
       <c r="A140" s="4">
         <v>125</v>
       </c>
-      <c r="B140" s="35"/>
-      <c r="C140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="29"/>
       <c r="D140" s="5" t="s">
         <v>283</v>
       </c>
@@ -6925,8 +6884,8 @@
       <c r="A141" s="4">
         <v>126</v>
       </c>
-      <c r="B141" s="35"/>
-      <c r="C141" s="27"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="29"/>
       <c r="D141" s="5" t="s">
         <v>285</v>
       </c>
@@ -6950,8 +6909,8 @@
       <c r="A142" s="4">
         <v>127</v>
       </c>
-      <c r="B142" s="35"/>
-      <c r="C142" s="27"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="29"/>
       <c r="D142" s="5" t="s">
         <v>284</v>
       </c>
@@ -6975,8 +6934,8 @@
       <c r="A143" s="4">
         <v>128</v>
       </c>
-      <c r="B143" s="35"/>
-      <c r="C143" s="27"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="29"/>
       <c r="D143" s="5" t="s">
         <v>286</v>
       </c>
@@ -7000,8 +6959,8 @@
       <c r="A144" s="4">
         <v>129</v>
       </c>
-      <c r="B144" s="35"/>
-      <c r="C144" s="28"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="24"/>
       <c r="D144" s="5" t="s">
         <v>288</v>
       </c>
@@ -7025,7 +6984,7 @@
       <c r="A145" s="4">
         <v>130</v>
       </c>
-      <c r="B145" s="35"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="7" t="s">
         <v>267</v>
       </c>
@@ -7052,7 +7011,7 @@
       <c r="A146" s="4">
         <v>131</v>
       </c>
-      <c r="B146" s="35"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="7"/>
       <c r="D146" s="5" t="s">
         <v>173</v>
@@ -7077,10 +7036,10 @@
       <c r="A147" s="4">
         <v>132</v>
       </c>
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C147" s="36" t="s">
+      <c r="C147" s="28" t="s">
         <v>291</v>
       </c>
       <c r="D147" s="5" t="s">
@@ -7106,8 +7065,8 @@
       <c r="A148" s="4">
         <v>133</v>
       </c>
-      <c r="B148" s="35"/>
-      <c r="C148" s="36"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="28"/>
       <c r="D148" s="5" t="s">
         <v>294</v>
       </c>
@@ -7131,7 +7090,7 @@
       <c r="A149" s="4">
         <v>134</v>
       </c>
-      <c r="B149" s="35"/>
+      <c r="B149" s="27"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5" t="s">
         <v>173</v>
@@ -7156,10 +7115,10 @@
       <c r="A150" s="4">
         <v>135</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="23" t="s">
         <v>297</v>
       </c>
       <c r="D150" s="5" t="s">
@@ -7185,8 +7144,8 @@
       <c r="A151" s="4">
         <v>136</v>
       </c>
-      <c r="B151" s="24"/>
-      <c r="C151" s="27"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="29"/>
       <c r="D151" s="5" t="s">
         <v>300</v>
       </c>
@@ -7210,8 +7169,8 @@
       <c r="A152" s="4">
         <v>137</v>
       </c>
-      <c r="B152" s="24"/>
-      <c r="C152" s="27"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="29"/>
       <c r="D152" s="5" t="s">
         <v>302</v>
       </c>
@@ -7235,8 +7194,8 @@
       <c r="A153" s="4">
         <v>138</v>
       </c>
-      <c r="B153" s="24"/>
-      <c r="C153" s="28"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="24"/>
       <c r="D153" s="5" t="s">
         <v>304</v>
       </c>
@@ -7260,8 +7219,8 @@
       <c r="A154" s="4">
         <v>139</v>
       </c>
-      <c r="B154" s="24"/>
-      <c r="C154" s="26" t="s">
+      <c r="B154" s="21"/>
+      <c r="C154" s="23" t="s">
         <v>291</v>
       </c>
       <c r="D154" s="5" t="s">
@@ -7287,8 +7246,8 @@
       <c r="A155" s="4">
         <v>140</v>
       </c>
-      <c r="B155" s="24"/>
-      <c r="C155" s="28"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="24"/>
       <c r="D155" s="5" t="s">
         <v>308</v>
       </c>
@@ -7312,7 +7271,7 @@
       <c r="A156" s="4">
         <v>141</v>
       </c>
-      <c r="B156" s="25"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5" t="s">
         <v>173</v>
@@ -7337,7 +7296,7 @@
       <c r="A157" s="4">
         <v>142</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="B157" s="20" t="s">
         <v>310</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -7366,7 +7325,7 @@
       <c r="A158" s="4">
         <v>143</v>
       </c>
-      <c r="B158" s="24"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="4" t="s">
         <v>314</v>
       </c>
@@ -7393,7 +7352,7 @@
       <c r="A159" s="4">
         <v>144</v>
       </c>
-      <c r="B159" s="24"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="4" t="s">
         <v>317</v>
       </c>
@@ -7420,7 +7379,7 @@
       <c r="A160" s="4">
         <v>145</v>
       </c>
-      <c r="B160" s="25"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5" t="s">
         <v>173</v>
@@ -7445,7 +7404,7 @@
       <c r="A161" s="4">
         <v>146</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="20" t="s">
         <v>320</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -7474,8 +7433,8 @@
       <c r="A162" s="4">
         <v>147</v>
       </c>
-      <c r="B162" s="24"/>
-      <c r="C162" s="26" t="s">
+      <c r="B162" s="21"/>
+      <c r="C162" s="23" t="s">
         <v>323</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -7501,8 +7460,8 @@
       <c r="A163" s="4">
         <v>148</v>
       </c>
-      <c r="B163" s="24"/>
-      <c r="C163" s="28"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="24"/>
       <c r="D163" s="5" t="s">
         <v>326</v>
       </c>
@@ -7526,8 +7485,8 @@
       <c r="A164" s="4">
         <v>149</v>
       </c>
-      <c r="B164" s="24"/>
-      <c r="C164" s="26" t="s">
+      <c r="B164" s="21"/>
+      <c r="C164" s="23" t="s">
         <v>328</v>
       </c>
       <c r="D164" s="5" t="s">
@@ -7553,8 +7512,8 @@
       <c r="A165" s="4">
         <v>150</v>
       </c>
-      <c r="B165" s="24"/>
-      <c r="C165" s="28"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="24"/>
       <c r="D165" s="5" t="s">
         <v>329</v>
       </c>
@@ -7578,7 +7537,7 @@
       <c r="A166" s="4">
         <v>151</v>
       </c>
-      <c r="B166" s="24"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="4" t="s">
         <v>332</v>
       </c>
@@ -7605,8 +7564,8 @@
       <c r="A167" s="4">
         <v>152</v>
       </c>
-      <c r="B167" s="24"/>
-      <c r="C167" s="26" t="s">
+      <c r="B167" s="21"/>
+      <c r="C167" s="23" t="s">
         <v>335</v>
       </c>
       <c r="D167" s="5" t="s">
@@ -7632,8 +7591,8 @@
       <c r="A168" s="4">
         <v>153</v>
       </c>
-      <c r="B168" s="24"/>
-      <c r="C168" s="28"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="24"/>
       <c r="D168" s="5" t="s">
         <v>338</v>
       </c>
@@ -7657,8 +7616,8 @@
       <c r="A169" s="4">
         <v>154</v>
       </c>
-      <c r="B169" s="24"/>
-      <c r="C169" s="26" t="s">
+      <c r="B169" s="21"/>
+      <c r="C169" s="23" t="s">
         <v>340</v>
       </c>
       <c r="D169" s="5" t="s">
@@ -7684,8 +7643,8 @@
       <c r="A170" s="4">
         <v>155</v>
       </c>
-      <c r="B170" s="24"/>
-      <c r="C170" s="28"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="24"/>
       <c r="D170" s="5" t="s">
         <v>343</v>
       </c>
@@ -7709,8 +7668,8 @@
       <c r="A171" s="4">
         <v>156</v>
       </c>
-      <c r="B171" s="24"/>
-      <c r="C171" s="26" t="s">
+      <c r="B171" s="21"/>
+      <c r="C171" s="23" t="s">
         <v>345</v>
       </c>
       <c r="D171" s="5" t="s">
@@ -7736,8 +7695,8 @@
       <c r="A172" s="4">
         <v>157</v>
       </c>
-      <c r="B172" s="24"/>
-      <c r="C172" s="27"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="29"/>
       <c r="D172" s="5" t="s">
         <v>348</v>
       </c>
@@ -7761,8 +7720,8 @@
       <c r="A173" s="4">
         <v>158</v>
       </c>
-      <c r="B173" s="24"/>
-      <c r="C173" s="28"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="24"/>
       <c r="D173" s="5" t="s">
         <v>350</v>
       </c>
@@ -7786,8 +7745,8 @@
       <c r="A174" s="4">
         <v>159</v>
       </c>
-      <c r="B174" s="24"/>
-      <c r="C174" s="26" t="s">
+      <c r="B174" s="21"/>
+      <c r="C174" s="23" t="s">
         <v>352</v>
       </c>
       <c r="D174" s="5" t="s">
@@ -7813,8 +7772,8 @@
       <c r="A175" s="4">
         <v>160</v>
       </c>
-      <c r="B175" s="24"/>
-      <c r="C175" s="28"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="24"/>
       <c r="D175" s="5" t="s">
         <v>353</v>
       </c>
@@ -7838,7 +7797,7 @@
       <c r="A176" s="4">
         <v>161</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="21" t="s">
         <v>356</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -7867,7 +7826,7 @@
       <c r="A177" s="4">
         <v>162</v>
       </c>
-      <c r="B177" s="24"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="4" t="s">
         <v>358</v>
       </c>
@@ -7894,8 +7853,8 @@
       <c r="A178" s="4">
         <v>163</v>
       </c>
-      <c r="B178" s="24"/>
-      <c r="C178" s="26" t="s">
+      <c r="B178" s="21"/>
+      <c r="C178" s="23" t="s">
         <v>361</v>
       </c>
       <c r="D178" s="5" t="s">
@@ -7921,8 +7880,8 @@
       <c r="A179" s="4">
         <v>164</v>
       </c>
-      <c r="B179" s="25"/>
-      <c r="C179" s="28"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="24"/>
       <c r="D179" s="5" t="s">
         <v>362</v>
       </c>
@@ -7946,7 +7905,7 @@
       <c r="A180" s="4">
         <v>165</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="27" t="s">
         <v>365</v>
       </c>
       <c r="C180" s="4"/>
@@ -7973,7 +7932,7 @@
       <c r="A181" s="4">
         <v>166</v>
       </c>
-      <c r="B181" s="35"/>
+      <c r="B181" s="27"/>
       <c r="C181" s="4"/>
       <c r="D181" s="5" t="s">
         <v>368</v>
@@ -7998,7 +7957,7 @@
       <c r="A182" s="4">
         <v>167</v>
       </c>
-      <c r="B182" s="35"/>
+      <c r="B182" s="27"/>
       <c r="C182" s="4"/>
       <c r="D182" s="5" t="s">
         <v>370</v>
@@ -8023,7 +7982,7 @@
       <c r="A183" s="4">
         <v>168</v>
       </c>
-      <c r="B183" s="35"/>
+      <c r="B183" s="27"/>
       <c r="C183" s="4"/>
       <c r="D183" s="5" t="s">
         <v>372</v>
@@ -8048,7 +8007,7 @@
       <c r="A184" s="4">
         <v>169</v>
       </c>
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="20" t="s">
         <v>374</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -8062,13 +8021,13 @@
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J184" s="6"/>
       <c r="K184" s="7"/>
@@ -8077,7 +8036,7 @@
       <c r="A185" s="18">
         <v>170</v>
       </c>
-      <c r="B185" s="24"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="4" t="s">
         <v>378</v>
       </c>
@@ -8089,13 +8048,13 @@
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J185" s="6"/>
       <c r="K185" s="7"/>
@@ -8104,7 +8063,7 @@
       <c r="A186" s="18">
         <v>171</v>
       </c>
-      <c r="B186" s="25"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="4" t="s">
         <v>381</v>
       </c>
@@ -8116,13 +8075,13 @@
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J186" s="6"/>
       <c r="K186" s="7"/>
@@ -8131,7 +8090,7 @@
       <c r="A187" s="18">
         <v>172</v>
       </c>
-      <c r="B187" s="35" t="s">
+      <c r="B187" s="27" t="s">
         <v>384</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -8160,7 +8119,7 @@
       <c r="A188" s="18">
         <v>173</v>
       </c>
-      <c r="B188" s="35"/>
+      <c r="B188" s="27"/>
       <c r="C188" s="4" t="s">
         <v>388</v>
       </c>
@@ -8187,7 +8146,7 @@
       <c r="A189" s="18">
         <v>174</v>
       </c>
-      <c r="B189" s="35"/>
+      <c r="B189" s="27"/>
       <c r="C189" s="4" t="s">
         <v>391</v>
       </c>
@@ -8214,7 +8173,7 @@
       <c r="A190" s="18">
         <v>175</v>
       </c>
-      <c r="B190" s="35"/>
+      <c r="B190" s="27"/>
       <c r="C190" s="4" t="s">
         <v>394</v>
       </c>
@@ -8241,7 +8200,7 @@
       <c r="A191" s="18">
         <v>176</v>
       </c>
-      <c r="B191" s="35"/>
+      <c r="B191" s="27"/>
       <c r="C191" s="4" t="s">
         <v>396</v>
       </c>
@@ -8268,7 +8227,7 @@
       <c r="A192" s="18">
         <v>177</v>
       </c>
-      <c r="B192" s="35" t="s">
+      <c r="B192" s="27" t="s">
         <v>398</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -8297,7 +8256,7 @@
       <c r="A193" s="18">
         <v>178</v>
       </c>
-      <c r="B193" s="35"/>
+      <c r="B193" s="27"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5" t="s">
         <v>402</v>
@@ -8322,7 +8281,7 @@
       <c r="A194" s="18">
         <v>179</v>
       </c>
-      <c r="B194" s="35"/>
+      <c r="B194" s="27"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5" t="s">
         <v>404</v>
@@ -8347,7 +8306,7 @@
       <c r="A195" s="18">
         <v>180</v>
       </c>
-      <c r="B195" s="35"/>
+      <c r="B195" s="27"/>
       <c r="C195" s="4"/>
       <c r="D195" s="5" t="s">
         <v>406</v>
@@ -8372,7 +8331,7 @@
       <c r="A196" s="18">
         <v>181</v>
       </c>
-      <c r="B196" s="35"/>
+      <c r="B196" s="27"/>
       <c r="C196" s="4" t="s">
         <v>408</v>
       </c>
@@ -8399,7 +8358,7 @@
       <c r="A197" s="18">
         <v>182</v>
       </c>
-      <c r="B197" s="35"/>
+      <c r="B197" s="27"/>
       <c r="C197" s="4" t="s">
         <v>411</v>
       </c>
@@ -8426,7 +8385,7 @@
       <c r="A198" s="18">
         <v>183</v>
       </c>
-      <c r="B198" s="35"/>
+      <c r="B198" s="27"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5" t="s">
         <v>414</v>
@@ -8451,7 +8410,7 @@
       <c r="A199" s="18">
         <v>184</v>
       </c>
-      <c r="B199" s="35"/>
+      <c r="B199" s="27"/>
       <c r="C199" s="4"/>
       <c r="D199" s="5" t="s">
         <v>416</v>
@@ -8476,7 +8435,7 @@
       <c r="A200" s="18">
         <v>185</v>
       </c>
-      <c r="B200" s="35"/>
+      <c r="B200" s="27"/>
       <c r="C200" s="4" t="s">
         <v>418</v>
       </c>
@@ -8503,7 +8462,7 @@
       <c r="A201" s="18">
         <v>186</v>
       </c>
-      <c r="B201" s="35"/>
+      <c r="B201" s="27"/>
       <c r="C201" s="4" t="s">
         <v>396</v>
       </c>
@@ -8530,7 +8489,7 @@
       <c r="A202" s="18">
         <v>187</v>
       </c>
-      <c r="B202" s="35"/>
+      <c r="B202" s="27"/>
       <c r="C202" s="4" t="s">
         <v>421</v>
       </c>
@@ -8557,7 +8516,7 @@
       <c r="A203" s="18">
         <v>188</v>
       </c>
-      <c r="B203" s="35" t="s">
+      <c r="B203" s="27" t="s">
         <v>423</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -8571,13 +8530,13 @@
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J203" s="6"/>
       <c r="K203" s="7"/>
@@ -8586,7 +8545,7 @@
       <c r="A204" s="18">
         <v>189</v>
       </c>
-      <c r="B204" s="35"/>
+      <c r="B204" s="27"/>
       <c r="C204" s="4"/>
       <c r="D204" s="5" t="s">
         <v>392</v>
@@ -8596,13 +8555,13 @@
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J204" s="6"/>
       <c r="K204" s="7"/>
@@ -8611,7 +8570,7 @@
       <c r="A205" s="18">
         <v>190</v>
       </c>
-      <c r="B205" s="35"/>
+      <c r="B205" s="27"/>
       <c r="C205" s="4" t="s">
         <v>421</v>
       </c>
@@ -8623,13 +8582,13 @@
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J205" s="6"/>
       <c r="K205" s="7"/>
@@ -8638,7 +8597,7 @@
       <c r="A206" s="18">
         <v>191</v>
       </c>
-      <c r="B206" s="35"/>
+      <c r="B206" s="27"/>
       <c r="C206" s="4" t="s">
         <v>427</v>
       </c>
@@ -8650,13 +8609,13 @@
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J206" s="6"/>
       <c r="K206" s="7"/>
@@ -8665,7 +8624,7 @@
       <c r="A207" s="18">
         <v>192</v>
       </c>
-      <c r="B207" s="35"/>
+      <c r="B207" s="27"/>
       <c r="C207" s="16" t="s">
         <v>430</v>
       </c>
@@ -8677,13 +8636,13 @@
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="J207" s="6"/>
       <c r="K207" s="7"/>
@@ -8692,7 +8651,7 @@
       <c r="A208" s="18">
         <v>193</v>
       </c>
-      <c r="B208" s="23" t="s">
+      <c r="B208" s="20" t="s">
         <v>433</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -8721,8 +8680,8 @@
       <c r="A209" s="18">
         <v>194</v>
       </c>
-      <c r="B209" s="24"/>
-      <c r="C209" s="26" t="s">
+      <c r="B209" s="21"/>
+      <c r="C209" s="23" t="s">
         <v>436</v>
       </c>
       <c r="D209" s="5" t="s">
@@ -8748,8 +8707,8 @@
       <c r="A210" s="18">
         <v>195</v>
       </c>
-      <c r="B210" s="24"/>
-      <c r="C210" s="27"/>
+      <c r="B210" s="21"/>
+      <c r="C210" s="29"/>
       <c r="D210" s="5" t="s">
         <v>439</v>
       </c>
@@ -8773,8 +8732,8 @@
       <c r="A211" s="18">
         <v>196</v>
       </c>
-      <c r="B211" s="24"/>
-      <c r="C211" s="28"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="24"/>
       <c r="D211" s="5" t="s">
         <v>441</v>
       </c>
@@ -8798,7 +8757,7 @@
       <c r="A212" s="18">
         <v>197</v>
       </c>
-      <c r="B212" s="24"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="4" t="s">
         <v>443</v>
       </c>
@@ -8825,7 +8784,7 @@
       <c r="A213" s="18">
         <v>198</v>
       </c>
-      <c r="B213" s="24"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="4" t="s">
         <v>446</v>
       </c>
@@ -8852,8 +8811,8 @@
       <c r="A214" s="18">
         <v>199</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="26" t="s">
+      <c r="B214" s="21"/>
+      <c r="C214" s="23" t="s">
         <v>449</v>
       </c>
       <c r="D214" s="5" t="s">
@@ -8879,8 +8838,8 @@
       <c r="A215" s="18">
         <v>200</v>
       </c>
-      <c r="B215" s="24"/>
-      <c r="C215" s="27"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="29"/>
       <c r="D215" s="5" t="s">
         <v>450</v>
       </c>
@@ -8904,8 +8863,8 @@
       <c r="A216" s="18">
         <v>201</v>
       </c>
-      <c r="B216" s="24"/>
-      <c r="C216" s="28"/>
+      <c r="B216" s="21"/>
+      <c r="C216" s="24"/>
       <c r="D216" s="5" t="s">
         <v>450</v>
       </c>
@@ -8929,7 +8888,7 @@
       <c r="A217" s="18">
         <v>202</v>
       </c>
-      <c r="B217" s="24"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="4" t="s">
         <v>396</v>
       </c>
@@ -8956,7 +8915,7 @@
       <c r="A218" s="18">
         <v>203</v>
       </c>
-      <c r="B218" s="24"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="4" t="s">
         <v>421</v>
       </c>
@@ -8983,7 +8942,7 @@
       <c r="A219" s="18">
         <v>204</v>
       </c>
-      <c r="B219" s="25"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="4" t="s">
         <v>457</v>
       </c>
@@ -9010,7 +8969,7 @@
       <c r="A220" s="18">
         <v>205</v>
       </c>
-      <c r="B220" s="32" t="s">
+      <c r="B220" s="33" t="s">
         <v>460</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -9039,8 +8998,8 @@
       <c r="A221" s="18">
         <v>206</v>
       </c>
-      <c r="B221" s="33"/>
-      <c r="C221" s="26" t="s">
+      <c r="B221" s="34"/>
+      <c r="C221" s="23" t="s">
         <v>436</v>
       </c>
       <c r="D221" s="5" t="s">
@@ -9066,8 +9025,8 @@
       <c r="A222" s="18">
         <v>207</v>
       </c>
-      <c r="B222" s="33"/>
-      <c r="C222" s="27"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="29"/>
       <c r="D222" s="5" t="s">
         <v>463</v>
       </c>
@@ -9091,8 +9050,8 @@
       <c r="A223" s="18">
         <v>208</v>
       </c>
-      <c r="B223" s="33"/>
-      <c r="C223" s="28"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="24"/>
       <c r="D223" s="5" t="s">
         <v>463</v>
       </c>
@@ -9116,7 +9075,7 @@
       <c r="A224" s="18">
         <v>209</v>
       </c>
-      <c r="B224" s="33"/>
+      <c r="B224" s="34"/>
       <c r="C224" s="4" t="s">
         <v>446</v>
       </c>
@@ -9143,8 +9102,8 @@
       <c r="A225" s="18">
         <v>210</v>
       </c>
-      <c r="B225" s="33"/>
-      <c r="C225" s="26" t="s">
+      <c r="B225" s="34"/>
+      <c r="C225" s="23" t="s">
         <v>449</v>
       </c>
       <c r="D225" s="5" t="s">
@@ -9170,8 +9129,8 @@
       <c r="A226" s="18">
         <v>211</v>
       </c>
-      <c r="B226" s="33"/>
-      <c r="C226" s="27"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="29"/>
       <c r="D226" s="5" t="s">
         <v>465</v>
       </c>
@@ -9195,8 +9154,8 @@
       <c r="A227" s="18">
         <v>212</v>
       </c>
-      <c r="B227" s="33"/>
-      <c r="C227" s="28"/>
+      <c r="B227" s="34"/>
+      <c r="C227" s="24"/>
       <c r="D227" s="5" t="s">
         <v>465</v>
       </c>
@@ -9220,7 +9179,7 @@
       <c r="A228" s="18">
         <v>213</v>
       </c>
-      <c r="B228" s="33"/>
+      <c r="B228" s="34"/>
       <c r="C228" s="4" t="s">
         <v>396</v>
       </c>
@@ -9247,7 +9206,7 @@
       <c r="A229" s="18">
         <v>214</v>
       </c>
-      <c r="B229" s="34"/>
+      <c r="B229" s="35"/>
       <c r="C229" s="4" t="s">
         <v>421</v>
       </c>
@@ -9274,7 +9233,7 @@
       <c r="A230" s="18">
         <v>215</v>
       </c>
-      <c r="B230" s="20" t="s">
+      <c r="B230" s="36" t="s">
         <v>468</v>
       </c>
       <c r="C230" s="4" t="s">
@@ -9303,8 +9262,8 @@
       <c r="A231" s="18">
         <v>216</v>
       </c>
-      <c r="B231" s="21"/>
-      <c r="C231" s="26" t="s">
+      <c r="B231" s="37"/>
+      <c r="C231" s="23" t="s">
         <v>436</v>
       </c>
       <c r="D231" s="5" t="s">
@@ -9330,8 +9289,8 @@
       <c r="A232" s="18">
         <v>217</v>
       </c>
-      <c r="B232" s="21"/>
-      <c r="C232" s="27"/>
+      <c r="B232" s="37"/>
+      <c r="C232" s="29"/>
       <c r="D232" s="5" t="s">
         <v>472</v>
       </c>
@@ -9355,8 +9314,8 @@
       <c r="A233" s="18">
         <v>218</v>
       </c>
-      <c r="B233" s="21"/>
-      <c r="C233" s="28"/>
+      <c r="B233" s="37"/>
+      <c r="C233" s="24"/>
       <c r="D233" s="5" t="s">
         <v>472</v>
       </c>
@@ -9380,7 +9339,7 @@
       <c r="A234" s="18">
         <v>219</v>
       </c>
-      <c r="B234" s="21"/>
+      <c r="B234" s="37"/>
       <c r="C234" s="4" t="s">
         <v>446</v>
       </c>
@@ -9407,8 +9366,8 @@
       <c r="A235" s="18">
         <v>220</v>
       </c>
-      <c r="B235" s="21"/>
-      <c r="C235" s="26" t="s">
+      <c r="B235" s="37"/>
+      <c r="C235" s="23" t="s">
         <v>449</v>
       </c>
       <c r="D235" s="5" t="s">
@@ -9434,8 +9393,8 @@
       <c r="A236" s="18">
         <v>221</v>
       </c>
-      <c r="B236" s="21"/>
-      <c r="C236" s="27"/>
+      <c r="B236" s="37"/>
+      <c r="C236" s="29"/>
       <c r="D236" s="5" t="s">
         <v>474</v>
       </c>
@@ -9459,8 +9418,8 @@
       <c r="A237" s="18">
         <v>222</v>
       </c>
-      <c r="B237" s="21"/>
-      <c r="C237" s="28"/>
+      <c r="B237" s="37"/>
+      <c r="C237" s="24"/>
       <c r="D237" s="5" t="s">
         <v>474</v>
       </c>
@@ -9484,7 +9443,7 @@
       <c r="A238" s="18">
         <v>223</v>
       </c>
-      <c r="B238" s="21"/>
+      <c r="B238" s="37"/>
       <c r="C238" s="4" t="s">
         <v>396</v>
       </c>
@@ -9511,7 +9470,7 @@
       <c r="A239" s="18">
         <v>224</v>
       </c>
-      <c r="B239" s="21"/>
+      <c r="B239" s="37"/>
       <c r="C239" s="4" t="s">
         <v>421</v>
       </c>
@@ -9538,7 +9497,7 @@
       <c r="A240" s="18">
         <v>225</v>
       </c>
-      <c r="B240" s="22"/>
+      <c r="B240" s="38"/>
       <c r="C240" s="4" t="s">
         <v>443</v>
       </c>
@@ -9565,7 +9524,7 @@
       <c r="A241" s="18">
         <v>226</v>
       </c>
-      <c r="B241" s="20" t="s">
+      <c r="B241" s="36" t="s">
         <v>478</v>
       </c>
       <c r="C241" s="4" t="s">
@@ -9594,7 +9553,7 @@
       <c r="A242" s="18">
         <v>227</v>
       </c>
-      <c r="B242" s="21"/>
+      <c r="B242" s="37"/>
       <c r="C242" s="4" t="s">
         <v>481</v>
       </c>
@@ -9621,7 +9580,7 @@
       <c r="A243" s="18">
         <v>228</v>
       </c>
-      <c r="B243" s="21"/>
+      <c r="B243" s="37"/>
       <c r="C243" s="4" t="s">
         <v>484</v>
       </c>
@@ -9648,7 +9607,7 @@
       <c r="A244" s="18">
         <v>229</v>
       </c>
-      <c r="B244" s="21"/>
+      <c r="B244" s="37"/>
       <c r="C244" s="4"/>
       <c r="D244" s="5" t="s">
         <v>487</v>
@@ -9673,7 +9632,7 @@
       <c r="A245" s="18">
         <v>230</v>
       </c>
-      <c r="B245" s="22"/>
+      <c r="B245" s="38"/>
       <c r="C245" s="4"/>
       <c r="D245" s="5" t="s">
         <v>489</v>
@@ -9698,7 +9657,7 @@
       <c r="A246" s="18">
         <v>231</v>
       </c>
-      <c r="B246" s="20" t="s">
+      <c r="B246" s="36" t="s">
         <v>491</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -9727,8 +9686,8 @@
       <c r="A247" s="18">
         <v>232</v>
       </c>
-      <c r="B247" s="21"/>
-      <c r="C247" s="26" t="s">
+      <c r="B247" s="37"/>
+      <c r="C247" s="23" t="s">
         <v>494</v>
       </c>
       <c r="D247" s="5" t="s">
@@ -9754,8 +9713,8 @@
       <c r="A248" s="18">
         <v>233</v>
       </c>
-      <c r="B248" s="21"/>
-      <c r="C248" s="27"/>
+      <c r="B248" s="37"/>
+      <c r="C248" s="29"/>
       <c r="D248" s="5" t="s">
         <v>497</v>
       </c>
@@ -9779,8 +9738,8 @@
       <c r="A249" s="18">
         <v>234</v>
       </c>
-      <c r="B249" s="21"/>
-      <c r="C249" s="27"/>
+      <c r="B249" s="37"/>
+      <c r="C249" s="29"/>
       <c r="D249" s="5" t="s">
         <v>499</v>
       </c>
@@ -9804,8 +9763,8 @@
       <c r="A250" s="18">
         <v>235</v>
       </c>
-      <c r="B250" s="21"/>
-      <c r="C250" s="28"/>
+      <c r="B250" s="37"/>
+      <c r="C250" s="24"/>
       <c r="D250" s="5" t="s">
         <v>501</v>
       </c>
@@ -9829,7 +9788,7 @@
       <c r="A251" s="18">
         <v>236</v>
       </c>
-      <c r="B251" s="21"/>
+      <c r="B251" s="37"/>
       <c r="C251" s="4" t="s">
         <v>503</v>
       </c>
@@ -9856,7 +9815,7 @@
       <c r="A252" s="18">
         <v>237</v>
       </c>
-      <c r="B252" s="21"/>
+      <c r="B252" s="37"/>
       <c r="C252" s="4" t="s">
         <v>506</v>
       </c>
@@ -9883,7 +9842,7 @@
       <c r="A253" s="18">
         <v>238</v>
       </c>
-      <c r="B253" s="21"/>
+      <c r="B253" s="37"/>
       <c r="C253" s="4" t="s">
         <v>509</v>
       </c>
@@ -9910,7 +9869,7 @@
       <c r="A254" s="18">
         <v>239</v>
       </c>
-      <c r="B254" s="21"/>
+      <c r="B254" s="37"/>
       <c r="C254" s="4" t="s">
         <v>512</v>
       </c>
@@ -9937,7 +9896,7 @@
       <c r="A255" s="18">
         <v>240</v>
       </c>
-      <c r="B255" s="22"/>
+      <c r="B255" s="38"/>
       <c r="C255" s="4" t="s">
         <v>515</v>
       </c>
@@ -9964,7 +9923,7 @@
       <c r="A256" s="18">
         <v>241</v>
       </c>
-      <c r="B256" s="20" t="s">
+      <c r="B256" s="36" t="s">
         <v>518</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -9993,7 +9952,7 @@
       <c r="A257" s="18">
         <v>242</v>
       </c>
-      <c r="B257" s="21"/>
+      <c r="B257" s="37"/>
       <c r="C257" s="4" t="s">
         <v>521</v>
       </c>
@@ -10020,7 +9979,7 @@
       <c r="A258" s="18">
         <v>243</v>
       </c>
-      <c r="B258" s="21"/>
+      <c r="B258" s="37"/>
       <c r="C258" s="4" t="s">
         <v>176</v>
       </c>
@@ -10047,8 +10006,8 @@
       <c r="A259" s="18">
         <v>244</v>
       </c>
-      <c r="B259" s="21"/>
-      <c r="C259" s="26" t="s">
+      <c r="B259" s="37"/>
+      <c r="C259" s="23" t="s">
         <v>526</v>
       </c>
       <c r="D259" s="5" t="s">
@@ -10074,8 +10033,8 @@
       <c r="A260" s="18">
         <v>245</v>
       </c>
-      <c r="B260" s="21"/>
-      <c r="C260" s="27"/>
+      <c r="B260" s="37"/>
+      <c r="C260" s="29"/>
       <c r="D260" s="5" t="s">
         <v>529</v>
       </c>
@@ -10099,8 +10058,8 @@
       <c r="A261" s="18">
         <v>246</v>
       </c>
-      <c r="B261" s="21"/>
-      <c r="C261" s="28"/>
+      <c r="B261" s="37"/>
+      <c r="C261" s="24"/>
       <c r="D261" s="5" t="s">
         <v>531</v>
       </c>
@@ -10124,7 +10083,7 @@
       <c r="A262" s="18">
         <v>247</v>
       </c>
-      <c r="B262" s="21"/>
+      <c r="B262" s="37"/>
       <c r="C262" s="17" t="s">
         <v>533</v>
       </c>
@@ -10151,7 +10110,7 @@
       <c r="A263" s="18">
         <v>248</v>
       </c>
-      <c r="B263" s="21"/>
+      <c r="B263" s="37"/>
       <c r="C263" s="4" t="s">
         <v>536</v>
       </c>
@@ -10178,7 +10137,7 @@
       <c r="A264" s="18">
         <v>249</v>
       </c>
-      <c r="B264" s="21"/>
+      <c r="B264" s="37"/>
       <c r="C264" s="4" t="s">
         <v>539</v>
       </c>
@@ -10205,7 +10164,7 @@
       <c r="A265" s="18">
         <v>250</v>
       </c>
-      <c r="B265" s="22"/>
+      <c r="B265" s="38"/>
       <c r="C265" s="4" t="s">
         <v>542</v>
       </c>
@@ -10232,7 +10191,7 @@
       <c r="A266" s="18">
         <v>251</v>
       </c>
-      <c r="B266" s="20" t="s">
+      <c r="B266" s="36" t="s">
         <v>545</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -10261,7 +10220,7 @@
       <c r="A267" s="18">
         <v>252</v>
       </c>
-      <c r="B267" s="21"/>
+      <c r="B267" s="37"/>
       <c r="C267" s="4" t="s">
         <v>548</v>
       </c>
@@ -10288,7 +10247,7 @@
       <c r="A268" s="18">
         <v>253</v>
       </c>
-      <c r="B268" s="21"/>
+      <c r="B268" s="37"/>
       <c r="C268" s="4" t="s">
         <v>551</v>
       </c>
@@ -10315,7 +10274,7 @@
       <c r="A269" s="18">
         <v>254</v>
       </c>
-      <c r="B269" s="21"/>
+      <c r="B269" s="37"/>
       <c r="C269" s="4" t="s">
         <v>554</v>
       </c>
@@ -10342,7 +10301,7 @@
       <c r="A270" s="18">
         <v>255</v>
       </c>
-      <c r="B270" s="21"/>
+      <c r="B270" s="37"/>
       <c r="C270" s="4" t="s">
         <v>539</v>
       </c>
@@ -10369,7 +10328,7 @@
       <c r="A271" s="18">
         <v>256</v>
       </c>
-      <c r="B271" s="22"/>
+      <c r="B271" s="38"/>
       <c r="C271" s="4" t="s">
         <v>536</v>
       </c>
@@ -10396,7 +10355,7 @@
       <c r="A272" s="18">
         <v>257</v>
       </c>
-      <c r="B272" s="20" t="s">
+      <c r="B272" s="36" t="s">
         <v>559</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -10425,7 +10384,7 @@
       <c r="A273" s="18">
         <v>258</v>
       </c>
-      <c r="B273" s="21"/>
+      <c r="B273" s="37"/>
       <c r="C273" s="4" t="s">
         <v>521</v>
       </c>
@@ -10452,7 +10411,7 @@
       <c r="A274" s="18">
         <v>259</v>
       </c>
-      <c r="B274" s="21"/>
+      <c r="B274" s="37"/>
       <c r="C274" s="4" t="s">
         <v>176</v>
       </c>
@@ -10479,8 +10438,8 @@
       <c r="A275" s="18">
         <v>260</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="26" t="s">
+      <c r="B275" s="37"/>
+      <c r="C275" s="23" t="s">
         <v>526</v>
       </c>
       <c r="D275" s="5" t="s">
@@ -10506,8 +10465,8 @@
       <c r="A276" s="18">
         <v>261</v>
       </c>
-      <c r="B276" s="21"/>
-      <c r="C276" s="27"/>
+      <c r="B276" s="37"/>
+      <c r="C276" s="29"/>
       <c r="D276" s="5" t="s">
         <v>529</v>
       </c>
@@ -10531,8 +10490,8 @@
       <c r="A277" s="18">
         <v>262</v>
       </c>
-      <c r="B277" s="21"/>
-      <c r="C277" s="28"/>
+      <c r="B277" s="37"/>
+      <c r="C277" s="24"/>
       <c r="D277" s="5" t="s">
         <v>531</v>
       </c>
@@ -10556,7 +10515,7 @@
       <c r="A278" s="18">
         <v>263</v>
       </c>
-      <c r="B278" s="21"/>
+      <c r="B278" s="37"/>
       <c r="C278" s="17" t="s">
         <v>533</v>
       </c>
@@ -10583,7 +10542,7 @@
       <c r="A279" s="18">
         <v>264</v>
       </c>
-      <c r="B279" s="21"/>
+      <c r="B279" s="37"/>
       <c r="C279" s="4" t="s">
         <v>536</v>
       </c>
@@ -10610,7 +10569,7 @@
       <c r="A280" s="18">
         <v>265</v>
       </c>
-      <c r="B280" s="22"/>
+      <c r="B280" s="38"/>
       <c r="C280" s="4" t="s">
         <v>539</v>
       </c>
@@ -10637,7 +10596,7 @@
       <c r="A281" s="18">
         <v>266</v>
       </c>
-      <c r="B281" s="20" t="s">
+      <c r="B281" s="36" t="s">
         <v>569</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -10666,7 +10625,7 @@
       <c r="A282" s="18">
         <v>267</v>
       </c>
-      <c r="B282" s="21"/>
+      <c r="B282" s="37"/>
       <c r="C282" s="4" t="s">
         <v>521</v>
       </c>
@@ -10693,7 +10652,7 @@
       <c r="A283" s="18">
         <v>268</v>
       </c>
-      <c r="B283" s="21"/>
+      <c r="B283" s="37"/>
       <c r="C283" s="4" t="s">
         <v>176</v>
       </c>
@@ -10720,7 +10679,7 @@
       <c r="A284" s="18">
         <v>269</v>
       </c>
-      <c r="B284" s="21"/>
+      <c r="B284" s="37"/>
       <c r="C284" s="4" t="s">
         <v>539</v>
       </c>
@@ -10747,7 +10706,7 @@
       <c r="A285" s="18">
         <v>270</v>
       </c>
-      <c r="B285" s="21"/>
+      <c r="B285" s="37"/>
       <c r="C285" s="4" t="s">
         <v>536</v>
       </c>
@@ -10774,8 +10733,8 @@
       <c r="A286" s="18">
         <v>271</v>
       </c>
-      <c r="B286" s="21"/>
-      <c r="C286" s="26" t="s">
+      <c r="B286" s="37"/>
+      <c r="C286" s="23" t="s">
         <v>526</v>
       </c>
       <c r="D286" s="5" t="s">
@@ -10801,8 +10760,8 @@
       <c r="A287" s="18">
         <v>272</v>
       </c>
-      <c r="B287" s="21"/>
-      <c r="C287" s="27"/>
+      <c r="B287" s="37"/>
+      <c r="C287" s="29"/>
       <c r="D287" s="5" t="s">
         <v>529</v>
       </c>
@@ -10826,8 +10785,8 @@
       <c r="A288" s="18">
         <v>273</v>
       </c>
-      <c r="B288" s="21"/>
-      <c r="C288" s="27"/>
+      <c r="B288" s="37"/>
+      <c r="C288" s="29"/>
       <c r="D288" s="5" t="s">
         <v>531</v>
       </c>
@@ -10851,8 +10810,8 @@
       <c r="A289" s="18">
         <v>274</v>
       </c>
-      <c r="B289" s="21"/>
-      <c r="C289" s="27"/>
+      <c r="B289" s="37"/>
+      <c r="C289" s="29"/>
       <c r="D289" s="5" t="s">
         <v>578</v>
       </c>
@@ -10876,8 +10835,8 @@
       <c r="A290" s="18">
         <v>275</v>
       </c>
-      <c r="B290" s="21"/>
-      <c r="C290" s="27"/>
+      <c r="B290" s="37"/>
+      <c r="C290" s="29"/>
       <c r="D290" s="5" t="s">
         <v>580</v>
       </c>
@@ -10901,8 +10860,8 @@
       <c r="A291" s="18">
         <v>276</v>
       </c>
-      <c r="B291" s="22"/>
-      <c r="C291" s="28"/>
+      <c r="B291" s="38"/>
+      <c r="C291" s="24"/>
       <c r="D291" s="5" t="s">
         <v>580</v>
       </c>
@@ -10926,7 +10885,7 @@
       <c r="A292" s="18">
         <v>277</v>
       </c>
-      <c r="B292" s="20" t="s">
+      <c r="B292" s="36" t="s">
         <v>583</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -10955,7 +10914,7 @@
       <c r="A293" s="18">
         <v>278</v>
       </c>
-      <c r="B293" s="21"/>
+      <c r="B293" s="37"/>
       <c r="C293" s="4" t="s">
         <v>521</v>
       </c>
@@ -10982,7 +10941,7 @@
       <c r="A294" s="18">
         <v>279</v>
       </c>
-      <c r="B294" s="21"/>
+      <c r="B294" s="37"/>
       <c r="C294" s="4" t="s">
         <v>176</v>
       </c>
@@ -11009,7 +10968,7 @@
       <c r="A295" s="18">
         <v>280</v>
       </c>
-      <c r="B295" s="21"/>
+      <c r="B295" s="37"/>
       <c r="C295" s="4" t="s">
         <v>536</v>
       </c>
@@ -11036,8 +10995,8 @@
       <c r="A296" s="18">
         <v>281</v>
       </c>
-      <c r="B296" s="21"/>
-      <c r="C296" s="26" t="s">
+      <c r="B296" s="37"/>
+      <c r="C296" s="23" t="s">
         <v>526</v>
       </c>
       <c r="D296" s="5" t="s">
@@ -11063,8 +11022,8 @@
       <c r="A297" s="18">
         <v>282</v>
       </c>
-      <c r="B297" s="21"/>
-      <c r="C297" s="27"/>
+      <c r="B297" s="37"/>
+      <c r="C297" s="29"/>
       <c r="D297" s="5" t="s">
         <v>529</v>
       </c>
@@ -11088,8 +11047,8 @@
       <c r="A298" s="18">
         <v>283</v>
       </c>
-      <c r="B298" s="21"/>
-      <c r="C298" s="27"/>
+      <c r="B298" s="37"/>
+      <c r="C298" s="29"/>
       <c r="D298" s="5" t="s">
         <v>531</v>
       </c>
@@ -11113,8 +11072,8 @@
       <c r="A299" s="18">
         <v>284</v>
       </c>
-      <c r="B299" s="21"/>
-      <c r="C299" s="28"/>
+      <c r="B299" s="37"/>
+      <c r="C299" s="24"/>
       <c r="D299" s="5" t="s">
         <v>589</v>
       </c>
@@ -11138,7 +11097,7 @@
       <c r="A300" s="18">
         <v>285</v>
       </c>
-      <c r="B300" s="21"/>
+      <c r="B300" s="37"/>
       <c r="C300" s="4" t="s">
         <v>591</v>
       </c>
@@ -11165,7 +11124,7 @@
       <c r="A301" s="18">
         <v>286</v>
       </c>
-      <c r="B301" s="22"/>
+      <c r="B301" s="38"/>
       <c r="C301" s="4" t="s">
         <v>539</v>
       </c>
@@ -11192,7 +11151,7 @@
       <c r="A302" s="18">
         <v>287</v>
       </c>
-      <c r="B302" s="29" t="s">
+      <c r="B302" s="39" t="s">
         <v>595</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -11221,7 +11180,7 @@
       <c r="A303" s="18">
         <v>288</v>
       </c>
-      <c r="B303" s="30"/>
+      <c r="B303" s="40"/>
       <c r="C303" s="4" t="s">
         <v>591</v>
       </c>
@@ -11248,7 +11207,7 @@
       <c r="A304" s="18">
         <v>289</v>
       </c>
-      <c r="B304" s="30"/>
+      <c r="B304" s="40"/>
       <c r="C304" s="4" t="s">
         <v>539</v>
       </c>
@@ -11275,7 +11234,7 @@
       <c r="A305" s="18">
         <v>290</v>
       </c>
-      <c r="B305" s="30"/>
+      <c r="B305" s="40"/>
       <c r="C305" s="4" t="s">
         <v>536</v>
       </c>
@@ -11302,7 +11261,7 @@
       <c r="A306" s="18">
         <v>291</v>
       </c>
-      <c r="B306" s="31"/>
+      <c r="B306" s="41"/>
       <c r="C306" s="4" t="s">
         <v>600</v>
       </c>
@@ -11329,7 +11288,7 @@
       <c r="A307" s="18">
         <v>292</v>
       </c>
-      <c r="B307" s="20" t="s">
+      <c r="B307" s="36" t="s">
         <v>603</v>
       </c>
       <c r="C307" s="4" t="s">
@@ -11358,7 +11317,7 @@
       <c r="A308" s="18">
         <v>293</v>
       </c>
-      <c r="B308" s="21"/>
+      <c r="B308" s="37"/>
       <c r="C308" s="4" t="s">
         <v>539</v>
       </c>
@@ -11385,7 +11344,7 @@
       <c r="A309" s="18">
         <v>294</v>
       </c>
-      <c r="B309" s="21"/>
+      <c r="B309" s="37"/>
       <c r="C309" s="4" t="s">
         <v>536</v>
       </c>
@@ -11412,8 +11371,8 @@
       <c r="A310" s="18">
         <v>295</v>
       </c>
-      <c r="B310" s="21"/>
-      <c r="C310" s="26" t="s">
+      <c r="B310" s="37"/>
+      <c r="C310" s="23" t="s">
         <v>526</v>
       </c>
       <c r="D310" s="5" t="s">
@@ -11439,8 +11398,8 @@
       <c r="A311" s="18">
         <v>296</v>
       </c>
-      <c r="B311" s="21"/>
-      <c r="C311" s="27"/>
+      <c r="B311" s="37"/>
+      <c r="C311" s="29"/>
       <c r="D311" s="5" t="s">
         <v>529</v>
       </c>
@@ -11464,8 +11423,8 @@
       <c r="A312" s="18">
         <v>297</v>
       </c>
-      <c r="B312" s="21"/>
-      <c r="C312" s="28"/>
+      <c r="B312" s="37"/>
+      <c r="C312" s="24"/>
       <c r="D312" s="5" t="s">
         <v>531</v>
       </c>
@@ -11489,8 +11448,8 @@
       <c r="A313" s="18">
         <v>298</v>
       </c>
-      <c r="B313" s="21"/>
-      <c r="C313" s="26" t="s">
+      <c r="B313" s="37"/>
+      <c r="C313" s="23" t="s">
         <v>608</v>
       </c>
       <c r="D313" s="5" t="s">
@@ -11516,8 +11475,8 @@
       <c r="A314" s="18">
         <v>299</v>
       </c>
-      <c r="B314" s="21"/>
-      <c r="C314" s="27"/>
+      <c r="B314" s="37"/>
+      <c r="C314" s="29"/>
       <c r="D314" s="5" t="s">
         <v>611</v>
       </c>
@@ -11541,8 +11500,8 @@
       <c r="A315" s="18">
         <v>300</v>
       </c>
-      <c r="B315" s="21"/>
-      <c r="C315" s="28"/>
+      <c r="B315" s="37"/>
+      <c r="C315" s="24"/>
       <c r="D315" s="5" t="s">
         <v>613</v>
       </c>
@@ -11566,8 +11525,8 @@
       <c r="A316" s="18">
         <v>301</v>
       </c>
-      <c r="B316" s="21"/>
-      <c r="C316" s="26" t="s">
+      <c r="B316" s="37"/>
+      <c r="C316" s="23" t="s">
         <v>615</v>
       </c>
       <c r="D316" s="5" t="s">
@@ -11593,8 +11552,8 @@
       <c r="A317" s="18">
         <v>302</v>
       </c>
-      <c r="B317" s="21"/>
-      <c r="C317" s="28"/>
+      <c r="B317" s="37"/>
+      <c r="C317" s="24"/>
       <c r="D317" s="5" t="s">
         <v>618</v>
       </c>
@@ -11618,7 +11577,7 @@
       <c r="A318" s="18">
         <v>303</v>
       </c>
-      <c r="B318" s="22"/>
+      <c r="B318" s="38"/>
       <c r="C318" s="4" t="s">
         <v>620</v>
       </c>
@@ -11645,7 +11604,7 @@
       <c r="A319" s="18">
         <v>304</v>
       </c>
-      <c r="B319" s="20" t="s">
+      <c r="B319" s="36" t="s">
         <v>623</v>
       </c>
       <c r="C319" s="4" t="s">
@@ -11674,7 +11633,7 @@
       <c r="A320" s="18">
         <v>305</v>
       </c>
-      <c r="B320" s="21"/>
+      <c r="B320" s="37"/>
       <c r="C320" s="4" t="s">
         <v>533</v>
       </c>
@@ -11701,7 +11660,7 @@
       <c r="A321" s="18">
         <v>306</v>
       </c>
-      <c r="B321" s="21"/>
+      <c r="B321" s="37"/>
       <c r="C321" s="4" t="s">
         <v>539</v>
       </c>
@@ -11728,7 +11687,7 @@
       <c r="A322" s="18">
         <v>307</v>
       </c>
-      <c r="B322" s="22"/>
+      <c r="B322" s="38"/>
       <c r="C322" s="4" t="s">
         <v>536</v>
       </c>
@@ -11753,76 +11712,6 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B113:B130"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B101:B108"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="B63:B79"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C139:C144"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B131:B146"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="B220:B229"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="B192:B202"/>
-    <mergeCell ref="B203:B207"/>
-    <mergeCell ref="B208:B219"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="B256:B265"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="B266:B271"/>
-    <mergeCell ref="B272:B280"/>
-    <mergeCell ref="C275:C277"/>
     <mergeCell ref="B319:B322"/>
     <mergeCell ref="B184:B186"/>
     <mergeCell ref="B292:B301"/>
@@ -11839,12 +11728,82 @@
     <mergeCell ref="C235:C237"/>
     <mergeCell ref="B241:B245"/>
     <mergeCell ref="B246:B255"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="B256:B265"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="B266:B271"/>
+    <mergeCell ref="B272:B280"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="B220:B229"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="B192:B202"/>
+    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="B208:B219"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C139:C144"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B131:B146"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="B63:B79"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B130"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B101:B108"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K212">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K212" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$C$2:$C$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I322">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I322" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$1:$B$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChuyenDe12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D9E51-FF8B-4B4A-83C4-FB6F26BAE0B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2626,7 +2625,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2790,7 +2789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2849,6 +2848,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2861,22 +2872,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2888,38 +2911,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3265,11 +3309,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J203" sqref="A13:K322"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150:B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3459,11 +3503,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
@@ -3484,11 +3528,11 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -3531,7 +3575,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3560,7 +3604,7 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3589,7 +3633,7 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3618,7 +3662,7 @@
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3647,7 +3691,7 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3676,7 +3720,7 @@
       <c r="A21" s="4">
         <v>6</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3703,10 +3747,10 @@
       <c r="A22" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3732,8 +3776,8 @@
       <c r="A23" s="4">
         <v>8</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3757,8 +3801,8 @@
       <c r="A24" s="4">
         <v>9</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3784,8 +3828,8 @@
       <c r="A25" s="4">
         <v>10</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3809,7 +3853,7 @@
       <c r="A26" s="4">
         <v>11</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3836,7 +3880,7 @@
       <c r="A27" s="4">
         <v>12</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
@@ -3863,7 +3907,7 @@
       <c r="A28" s="4">
         <v>13</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
@@ -3890,7 +3934,7 @@
       <c r="A29" s="4">
         <v>14</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3917,7 +3961,7 @@
       <c r="A30" s="4">
         <v>15</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3946,7 +3990,7 @@
       <c r="A31" s="4">
         <v>16</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -3975,7 +4019,7 @@
       <c r="A32" s="4">
         <v>17</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
@@ -4004,7 +4048,7 @@
       <c r="A33" s="4">
         <v>18</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4033,7 +4077,7 @@
       <c r="A34" s="4">
         <v>19</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4060,7 +4104,7 @@
       <c r="A35" s="4">
         <v>20</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4087,7 +4131,7 @@
       <c r="A36" s="4">
         <v>21</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
@@ -4114,7 +4158,7 @@
       <c r="A37" s="4">
         <v>22</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4143,7 +4187,7 @@
       <c r="A38" s="4">
         <v>23</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -4172,7 +4216,7 @@
       <c r="A39" s="4">
         <v>24</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
@@ -4201,7 +4245,7 @@
       <c r="A40" s="4">
         <v>25</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4230,7 +4274,7 @@
       <c r="A41" s="4">
         <v>26</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
@@ -4259,7 +4303,7 @@
       <c r="A42" s="4">
         <v>27</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
@@ -4286,7 +4330,7 @@
       <c r="A43" s="4">
         <v>28</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
@@ -4313,7 +4357,7 @@
       <c r="A44" s="4">
         <v>29</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4342,7 +4386,7 @@
       <c r="A45" s="4">
         <v>30</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="4" t="s">
         <v>89</v>
       </c>
@@ -4369,7 +4413,7 @@
       <c r="A46" s="4">
         <v>31</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="4" t="s">
         <v>71</v>
       </c>
@@ -4398,7 +4442,7 @@
       <c r="A47" s="4">
         <v>32</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
@@ -4427,7 +4471,7 @@
       <c r="A48" s="4">
         <v>33</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4456,7 +4500,7 @@
       <c r="A49" s="4">
         <v>34</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
@@ -4485,7 +4529,7 @@
       <c r="A50" s="4">
         <v>35</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="38" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4514,7 +4558,7 @@
       <c r="A51" s="4">
         <v>36</v>
       </c>
-      <c r="B51" s="31"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
@@ -4543,7 +4587,7 @@
       <c r="A52" s="4">
         <v>37</v>
       </c>
-      <c r="B52" s="32"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
@@ -4570,7 +4614,7 @@
       <c r="A53" s="4">
         <v>38</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4599,7 +4643,7 @@
       <c r="A54" s="4">
         <v>39</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
@@ -4628,7 +4672,7 @@
       <c r="A55" s="4">
         <v>40</v>
       </c>
-      <c r="B55" s="21"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4657,7 +4701,7 @@
       <c r="A56" s="4">
         <v>41</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
@@ -4686,7 +4730,7 @@
       <c r="A57" s="4">
         <v>42</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
@@ -4715,10 +4759,10 @@
       <c r="A58" s="4">
         <v>43</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4744,8 +4788,8 @@
       <c r="A59" s="4">
         <v>44</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="5" t="s">
         <v>124</v>
       </c>
@@ -4769,8 +4813,8 @@
       <c r="A60" s="4">
         <v>45</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="5" t="s">
         <v>126</v>
       </c>
@@ -4794,8 +4838,8 @@
       <c r="A61" s="4">
         <v>46</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="5" t="s">
         <v>128</v>
       </c>
@@ -4819,8 +4863,8 @@
       <c r="A62" s="4">
         <v>47</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="5" t="s">
         <v>130</v>
       </c>
@@ -4844,10 +4888,10 @@
       <c r="A63" s="4">
         <v>48</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="37" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4873,8 +4917,8 @@
       <c r="A64" s="4">
         <v>49</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="5" t="s">
         <v>136</v>
       </c>
@@ -4898,8 +4942,8 @@
       <c r="A65" s="4">
         <v>50</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="28"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="5" t="s">
         <v>138</v>
       </c>
@@ -4927,8 +4971,8 @@
       <c r="A66" s="4">
         <v>51</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="5" t="s">
         <v>143</v>
       </c>
@@ -4956,8 +5000,8 @@
       <c r="A67" s="4">
         <v>52</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="5" t="s">
         <v>146</v>
       </c>
@@ -4983,8 +5027,8 @@
       <c r="A68" s="4">
         <v>53</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="5" t="s">
         <v>149</v>
       </c>
@@ -5010,8 +5054,8 @@
       <c r="A69" s="4">
         <v>54</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28" t="s">
+      <c r="B69" s="36"/>
+      <c r="C69" s="37" t="s">
         <v>151</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -5037,8 +5081,8 @@
       <c r="A70" s="4">
         <v>55</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="28"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="5" t="s">
         <v>153</v>
       </c>
@@ -5062,8 +5106,8 @@
       <c r="A71" s="4">
         <v>56</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="28"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="5" t="s">
         <v>155</v>
       </c>
@@ -5087,8 +5131,8 @@
       <c r="A72" s="4">
         <v>57</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="5" t="s">
         <v>157</v>
       </c>
@@ -5112,8 +5156,8 @@
       <c r="A73" s="4">
         <v>58</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="5" t="s">
         <v>159</v>
       </c>
@@ -5137,8 +5181,8 @@
       <c r="A74" s="4">
         <v>59</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="5" t="s">
         <v>161</v>
       </c>
@@ -5162,7 +5206,7 @@
       <c r="A75" s="4">
         <v>60</v>
       </c>
-      <c r="B75" s="27"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="4" t="s">
         <v>163</v>
       </c>
@@ -5189,8 +5233,8 @@
       <c r="A76" s="4">
         <v>61</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28" t="s">
+      <c r="B76" s="36"/>
+      <c r="C76" s="37" t="s">
         <v>166</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -5216,8 +5260,8 @@
       <c r="A77" s="4">
         <v>62</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="5" t="s">
         <v>169</v>
       </c>
@@ -5241,8 +5285,8 @@
       <c r="A78" s="4">
         <v>63</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="28"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="5" t="s">
         <v>171</v>
       </c>
@@ -5266,7 +5310,7 @@
       <c r="A79" s="4">
         <v>64</v>
       </c>
-      <c r="B79" s="27"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5" t="s">
         <v>173</v>
@@ -5291,10 +5335,10 @@
       <c r="A80" s="4">
         <v>65</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="37" t="s">
         <v>176</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5322,8 +5366,8 @@
       <c r="A81" s="4">
         <v>66</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="5" t="s">
         <v>180</v>
       </c>
@@ -5347,8 +5391,8 @@
       <c r="A82" s="4">
         <v>67</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28" t="s">
+      <c r="B82" s="36"/>
+      <c r="C82" s="37" t="s">
         <v>182</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -5374,8 +5418,8 @@
       <c r="A83" s="4">
         <v>68</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="5" t="s">
         <v>185</v>
       </c>
@@ -5399,8 +5443,8 @@
       <c r="A84" s="4">
         <v>69</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="28"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="5" t="s">
         <v>187</v>
       </c>
@@ -5424,8 +5468,8 @@
       <c r="A85" s="4">
         <v>70</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="28"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="5" t="s">
         <v>189</v>
       </c>
@@ -5449,7 +5493,7 @@
       <c r="A86" s="4">
         <v>71</v>
       </c>
-      <c r="B86" s="27"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="4" t="s">
         <v>163</v>
       </c>
@@ -5476,7 +5520,7 @@
       <c r="A87" s="4">
         <v>72</v>
       </c>
-      <c r="B87" s="27"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5" t="s">
         <v>173</v>
@@ -5501,10 +5545,10 @@
       <c r="A88" s="4">
         <v>73</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="37" t="s">
         <v>176</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5530,8 +5574,8 @@
       <c r="A89" s="4">
         <v>74</v>
       </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="28"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="5" t="s">
         <v>180</v>
       </c>
@@ -5555,8 +5599,8 @@
       <c r="A90" s="4">
         <v>75</v>
       </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="28" t="s">
+      <c r="B90" s="36"/>
+      <c r="C90" s="37" t="s">
         <v>182</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -5582,8 +5626,8 @@
       <c r="A91" s="4">
         <v>76</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="28"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="5" t="s">
         <v>185</v>
       </c>
@@ -5607,8 +5651,8 @@
       <c r="A92" s="4">
         <v>77</v>
       </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="28"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="5" t="s">
         <v>187</v>
       </c>
@@ -5632,8 +5676,8 @@
       <c r="A93" s="4">
         <v>78</v>
       </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="28"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="5" t="s">
         <v>189</v>
       </c>
@@ -5657,7 +5701,7 @@
       <c r="A94" s="4">
         <v>79</v>
       </c>
-      <c r="B94" s="27"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="4" t="s">
         <v>163</v>
       </c>
@@ -5684,7 +5728,7 @@
       <c r="A95" s="4">
         <v>80</v>
       </c>
-      <c r="B95" s="27"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5" t="s">
         <v>173</v>
@@ -5709,7 +5753,7 @@
       <c r="A96" s="4">
         <v>81</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="36" t="s">
         <v>193</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -5738,7 +5782,7 @@
       <c r="A97" s="4">
         <v>82</v>
       </c>
-      <c r="B97" s="27"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5" t="s">
         <v>173</v>
@@ -5763,7 +5807,7 @@
       <c r="A98" s="4">
         <v>83</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="36" t="s">
         <v>197</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -5792,7 +5836,7 @@
       <c r="A99" s="4">
         <v>84</v>
       </c>
-      <c r="B99" s="27"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="4" t="s">
         <v>163</v>
       </c>
@@ -5819,7 +5863,7 @@
       <c r="A100" s="4">
         <v>85</v>
       </c>
-      <c r="B100" s="27"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5" t="s">
         <v>173</v>
@@ -5844,7 +5888,7 @@
       <c r="A101" s="4">
         <v>86</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="36" t="s">
         <v>199</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -5873,7 +5917,7 @@
       <c r="A102" s="4">
         <v>87</v>
       </c>
-      <c r="B102" s="27"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="4" t="s">
         <v>200</v>
       </c>
@@ -5900,8 +5944,8 @@
       <c r="A103" s="4">
         <v>88</v>
       </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="28" t="s">
+      <c r="B103" s="36"/>
+      <c r="C103" s="37" t="s">
         <v>203</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -5927,8 +5971,8 @@
       <c r="A104" s="4">
         <v>89</v>
       </c>
-      <c r="B104" s="27"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="37"/>
       <c r="D104" s="5" t="s">
         <v>206</v>
       </c>
@@ -5952,8 +5996,8 @@
       <c r="A105" s="4">
         <v>90</v>
       </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="5" t="s">
         <v>207</v>
       </c>
@@ -5977,8 +6021,8 @@
       <c r="A106" s="4">
         <v>91</v>
       </c>
-      <c r="B106" s="27"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="5" t="s">
         <v>209</v>
       </c>
@@ -6002,7 +6046,7 @@
       <c r="A107" s="4">
         <v>92</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="4" t="s">
         <v>210</v>
       </c>
@@ -6031,7 +6075,7 @@
       <c r="A108" s="4">
         <v>93</v>
       </c>
-      <c r="B108" s="27"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5" t="s">
         <v>173</v>
@@ -6056,10 +6100,10 @@
       <c r="A109" s="4">
         <v>94</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -6085,8 +6129,8 @@
       <c r="A110" s="4">
         <v>95</v>
       </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="29"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="28"/>
       <c r="D110" s="5" t="s">
         <v>217</v>
       </c>
@@ -6110,8 +6154,8 @@
       <c r="A111" s="4">
         <v>96</v>
       </c>
-      <c r="B111" s="27"/>
-      <c r="C111" s="29"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="5" t="s">
         <v>219</v>
       </c>
@@ -6135,8 +6179,8 @@
       <c r="A112" s="4">
         <v>97</v>
       </c>
-      <c r="B112" s="27"/>
-      <c r="C112" s="24"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="29"/>
       <c r="D112" s="5" t="s">
         <v>221</v>
       </c>
@@ -6160,7 +6204,7 @@
       <c r="A113" s="4">
         <v>98</v>
       </c>
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="36" t="s">
         <v>223</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -6189,8 +6233,8 @@
       <c r="A114" s="4">
         <v>99</v>
       </c>
-      <c r="B114" s="27"/>
-      <c r="C114" s="28" t="s">
+      <c r="B114" s="36"/>
+      <c r="C114" s="37" t="s">
         <v>227</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -6216,8 +6260,8 @@
       <c r="A115" s="4">
         <v>100</v>
       </c>
-      <c r="B115" s="27"/>
-      <c r="C115" s="28"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="37"/>
       <c r="D115" s="5" t="s">
         <v>230</v>
       </c>
@@ -6241,8 +6285,8 @@
       <c r="A116" s="4">
         <v>101</v>
       </c>
-      <c r="B116" s="27"/>
-      <c r="C116" s="28"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="37"/>
       <c r="D116" s="5" t="s">
         <v>232</v>
       </c>
@@ -6266,8 +6310,8 @@
       <c r="A117" s="4">
         <v>102</v>
       </c>
-      <c r="B117" s="27"/>
-      <c r="C117" s="28"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="37"/>
       <c r="D117" s="5" t="s">
         <v>234</v>
       </c>
@@ -6291,8 +6335,8 @@
       <c r="A118" s="4">
         <v>103</v>
       </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="28" t="s">
+      <c r="B118" s="36"/>
+      <c r="C118" s="37" t="s">
         <v>235</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -6318,8 +6362,8 @@
       <c r="A119" s="4">
         <v>104</v>
       </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="28"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="37"/>
       <c r="D119" s="5" t="s">
         <v>238</v>
       </c>
@@ -6343,8 +6387,8 @@
       <c r="A120" s="4">
         <v>105</v>
       </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="28"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="37"/>
       <c r="D120" s="5" t="s">
         <v>240</v>
       </c>
@@ -6368,8 +6412,8 @@
       <c r="A121" s="4">
         <v>106</v>
       </c>
-      <c r="B121" s="27"/>
-      <c r="C121" s="28"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="37"/>
       <c r="D121" s="5" t="s">
         <v>241</v>
       </c>
@@ -6393,8 +6437,8 @@
       <c r="A122" s="4">
         <v>107</v>
       </c>
-      <c r="B122" s="27"/>
-      <c r="C122" s="28" t="s">
+      <c r="B122" s="36"/>
+      <c r="C122" s="37" t="s">
         <v>242</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -6420,8 +6464,8 @@
       <c r="A123" s="4">
         <v>108</v>
       </c>
-      <c r="B123" s="27"/>
-      <c r="C123" s="28"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="37"/>
       <c r="D123" s="5" t="s">
         <v>245</v>
       </c>
@@ -6445,8 +6489,8 @@
       <c r="A124" s="4">
         <v>109</v>
       </c>
-      <c r="B124" s="27"/>
-      <c r="C124" s="28"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="37"/>
       <c r="D124" s="5" t="s">
         <v>246</v>
       </c>
@@ -6470,8 +6514,8 @@
       <c r="A125" s="4">
         <v>110</v>
       </c>
-      <c r="B125" s="27"/>
-      <c r="C125" s="28" t="s">
+      <c r="B125" s="36"/>
+      <c r="C125" s="37" t="s">
         <v>248</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -6497,8 +6541,8 @@
       <c r="A126" s="4">
         <v>111</v>
       </c>
-      <c r="B126" s="27"/>
-      <c r="C126" s="28"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="37"/>
       <c r="D126" s="5" t="s">
         <v>251</v>
       </c>
@@ -6522,8 +6566,8 @@
       <c r="A127" s="4">
         <v>112</v>
       </c>
-      <c r="B127" s="27"/>
-      <c r="C127" s="28" t="s">
+      <c r="B127" s="36"/>
+      <c r="C127" s="37" t="s">
         <v>253</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -6549,8 +6593,8 @@
       <c r="A128" s="4">
         <v>113</v>
       </c>
-      <c r="B128" s="27"/>
-      <c r="C128" s="28"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="37"/>
       <c r="D128" s="5" t="s">
         <v>256</v>
       </c>
@@ -6574,8 +6618,8 @@
       <c r="A129" s="4">
         <v>114</v>
       </c>
-      <c r="B129" s="27"/>
-      <c r="C129" s="28"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="37"/>
       <c r="D129" s="5" t="s">
         <v>258</v>
       </c>
@@ -6599,7 +6643,7 @@
       <c r="A130" s="4">
         <v>115</v>
       </c>
-      <c r="B130" s="27"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
         <v>173</v>
@@ -6624,10 +6668,10 @@
       <c r="A131" s="4">
         <v>116</v>
       </c>
-      <c r="B131" s="27" t="s">
+      <c r="B131" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="37" t="s">
         <v>263</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -6653,8 +6697,8 @@
       <c r="A132" s="4">
         <v>117</v>
       </c>
-      <c r="B132" s="27"/>
-      <c r="C132" s="28"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="37"/>
       <c r="D132" s="5" t="s">
         <v>270</v>
       </c>
@@ -6678,8 +6722,8 @@
       <c r="A133" s="4">
         <v>118</v>
       </c>
-      <c r="B133" s="27"/>
-      <c r="C133" s="28"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="37"/>
       <c r="D133" s="5" t="s">
         <v>271</v>
       </c>
@@ -6703,8 +6747,8 @@
       <c r="A134" s="4">
         <v>119</v>
       </c>
-      <c r="B134" s="27"/>
-      <c r="C134" s="23" t="s">
+      <c r="B134" s="36"/>
+      <c r="C134" s="27" t="s">
         <v>264</v>
       </c>
       <c r="D134" s="5" t="s">
@@ -6730,8 +6774,8 @@
       <c r="A135" s="4">
         <v>120</v>
       </c>
-      <c r="B135" s="27"/>
-      <c r="C135" s="24"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="29"/>
       <c r="D135" s="5" t="s">
         <v>269</v>
       </c>
@@ -6755,8 +6799,8 @@
       <c r="A136" s="4">
         <v>121</v>
       </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="23" t="s">
+      <c r="B136" s="36"/>
+      <c r="C136" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -6782,8 +6826,8 @@
       <c r="A137" s="4">
         <v>122</v>
       </c>
-      <c r="B137" s="27"/>
-      <c r="C137" s="29"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="28"/>
       <c r="D137" s="5" t="s">
         <v>277</v>
       </c>
@@ -6807,8 +6851,8 @@
       <c r="A138" s="4">
         <v>123</v>
       </c>
-      <c r="B138" s="27"/>
-      <c r="C138" s="24"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="29"/>
       <c r="D138" s="5" t="s">
         <v>279</v>
       </c>
@@ -6832,8 +6876,8 @@
       <c r="A139" s="4">
         <v>124</v>
       </c>
-      <c r="B139" s="27"/>
-      <c r="C139" s="23" t="s">
+      <c r="B139" s="36"/>
+      <c r="C139" s="27" t="s">
         <v>266</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -6859,8 +6903,8 @@
       <c r="A140" s="4">
         <v>125</v>
       </c>
-      <c r="B140" s="27"/>
-      <c r="C140" s="29"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="28"/>
       <c r="D140" s="5" t="s">
         <v>283</v>
       </c>
@@ -6884,8 +6928,8 @@
       <c r="A141" s="4">
         <v>126</v>
       </c>
-      <c r="B141" s="27"/>
-      <c r="C141" s="29"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="28"/>
       <c r="D141" s="5" t="s">
         <v>285</v>
       </c>
@@ -6909,8 +6953,8 @@
       <c r="A142" s="4">
         <v>127</v>
       </c>
-      <c r="B142" s="27"/>
-      <c r="C142" s="29"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="28"/>
       <c r="D142" s="5" t="s">
         <v>284</v>
       </c>
@@ -6934,8 +6978,8 @@
       <c r="A143" s="4">
         <v>128</v>
       </c>
-      <c r="B143" s="27"/>
-      <c r="C143" s="29"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="28"/>
       <c r="D143" s="5" t="s">
         <v>286</v>
       </c>
@@ -6959,8 +7003,8 @@
       <c r="A144" s="4">
         <v>129</v>
       </c>
-      <c r="B144" s="27"/>
-      <c r="C144" s="24"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="29"/>
       <c r="D144" s="5" t="s">
         <v>288</v>
       </c>
@@ -6984,7 +7028,7 @@
       <c r="A145" s="4">
         <v>130</v>
       </c>
-      <c r="B145" s="27"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="7" t="s">
         <v>267</v>
       </c>
@@ -7011,7 +7055,7 @@
       <c r="A146" s="4">
         <v>131</v>
       </c>
-      <c r="B146" s="27"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="7"/>
       <c r="D146" s="5" t="s">
         <v>173</v>
@@ -7036,10 +7080,10 @@
       <c r="A147" s="4">
         <v>132</v>
       </c>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="37" t="s">
         <v>291</v>
       </c>
       <c r="D147" s="5" t="s">
@@ -7065,8 +7109,8 @@
       <c r="A148" s="4">
         <v>133</v>
       </c>
-      <c r="B148" s="27"/>
-      <c r="C148" s="28"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="37"/>
       <c r="D148" s="5" t="s">
         <v>294</v>
       </c>
@@ -7090,7 +7134,7 @@
       <c r="A149" s="4">
         <v>134</v>
       </c>
-      <c r="B149" s="27"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5" t="s">
         <v>173</v>
@@ -7102,10 +7146,10 @@
       <c r="G149" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H149" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I149" s="18" t="s">
+      <c r="H149" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I149" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J149" s="6"/>
@@ -7115,10 +7159,10 @@
       <c r="A150" s="4">
         <v>135</v>
       </c>
-      <c r="B150" s="20" t="s">
+      <c r="B150" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C150" s="27" t="s">
         <v>297</v>
       </c>
       <c r="D150" s="5" t="s">
@@ -7128,14 +7172,14 @@
         <v>299</v>
       </c>
       <c r="F150" s="5"/>
-      <c r="G150" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>213</v>
+      <c r="G150" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="J150" s="6"/>
       <c r="K150" s="7"/>
@@ -7144,8 +7188,8 @@
       <c r="A151" s="4">
         <v>136</v>
       </c>
-      <c r="B151" s="21"/>
-      <c r="C151" s="29"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="28"/>
       <c r="D151" s="5" t="s">
         <v>300</v>
       </c>
@@ -7153,14 +7197,14 @@
         <v>301</v>
       </c>
       <c r="F151" s="5"/>
-      <c r="G151" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>213</v>
+      <c r="G151" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="J151" s="6"/>
       <c r="K151" s="7"/>
@@ -7169,8 +7213,8 @@
       <c r="A152" s="4">
         <v>137</v>
       </c>
-      <c r="B152" s="21"/>
-      <c r="C152" s="29"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="28"/>
       <c r="D152" s="5" t="s">
         <v>302</v>
       </c>
@@ -7178,14 +7222,14 @@
         <v>303</v>
       </c>
       <c r="F152" s="5"/>
-      <c r="G152" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>213</v>
+      <c r="G152" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="J152" s="6"/>
       <c r="K152" s="7"/>
@@ -7194,8 +7238,8 @@
       <c r="A153" s="4">
         <v>138</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="24"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="29"/>
       <c r="D153" s="5" t="s">
         <v>304</v>
       </c>
@@ -7203,14 +7247,14 @@
         <v>305</v>
       </c>
       <c r="F153" s="5"/>
-      <c r="G153" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I153" s="4" t="s">
-        <v>213</v>
+      <c r="G153" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I153" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="J153" s="6"/>
       <c r="K153" s="7"/>
@@ -7219,8 +7263,8 @@
       <c r="A154" s="4">
         <v>139</v>
       </c>
-      <c r="B154" s="21"/>
-      <c r="C154" s="23" t="s">
+      <c r="B154" s="25"/>
+      <c r="C154" s="27" t="s">
         <v>291</v>
       </c>
       <c r="D154" s="5" t="s">
@@ -7230,14 +7274,14 @@
         <v>307</v>
       </c>
       <c r="F154" s="5"/>
-      <c r="G154" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>213</v>
+      <c r="G154" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I154" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="J154" s="6"/>
       <c r="K154" s="7"/>
@@ -7246,8 +7290,8 @@
       <c r="A155" s="4">
         <v>140</v>
       </c>
-      <c r="B155" s="21"/>
-      <c r="C155" s="24"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="29"/>
       <c r="D155" s="5" t="s">
         <v>308</v>
       </c>
@@ -7255,14 +7299,14 @@
         <v>309</v>
       </c>
       <c r="F155" s="5"/>
-      <c r="G155" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I155" s="4" t="s">
-        <v>213</v>
+      <c r="G155" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="J155" s="6"/>
       <c r="K155" s="7"/>
@@ -7271,7 +7315,7 @@
       <c r="A156" s="4">
         <v>141</v>
       </c>
-      <c r="B156" s="22"/>
+      <c r="B156" s="26"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5" t="s">
         <v>173</v>
@@ -7280,14 +7324,14 @@
         <v>260</v>
       </c>
       <c r="F156" s="5"/>
-      <c r="G156" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>213</v>
+      <c r="G156" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="7"/>
@@ -7296,7 +7340,7 @@
       <c r="A157" s="4">
         <v>142</v>
       </c>
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="24" t="s">
         <v>310</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -7325,7 +7369,7 @@
       <c r="A158" s="4">
         <v>143</v>
       </c>
-      <c r="B158" s="21"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="4" t="s">
         <v>314</v>
       </c>
@@ -7352,7 +7396,7 @@
       <c r="A159" s="4">
         <v>144</v>
       </c>
-      <c r="B159" s="21"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="4" t="s">
         <v>317</v>
       </c>
@@ -7379,7 +7423,7 @@
       <c r="A160" s="4">
         <v>145</v>
       </c>
-      <c r="B160" s="22"/>
+      <c r="B160" s="26"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5" t="s">
         <v>173</v>
@@ -7404,7 +7448,7 @@
       <c r="A161" s="4">
         <v>146</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="24" t="s">
         <v>320</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -7433,8 +7477,8 @@
       <c r="A162" s="4">
         <v>147</v>
       </c>
-      <c r="B162" s="21"/>
-      <c r="C162" s="23" t="s">
+      <c r="B162" s="25"/>
+      <c r="C162" s="27" t="s">
         <v>323</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -7460,8 +7504,8 @@
       <c r="A163" s="4">
         <v>148</v>
       </c>
-      <c r="B163" s="21"/>
-      <c r="C163" s="24"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="29"/>
       <c r="D163" s="5" t="s">
         <v>326</v>
       </c>
@@ -7485,8 +7529,8 @@
       <c r="A164" s="4">
         <v>149</v>
       </c>
-      <c r="B164" s="21"/>
-      <c r="C164" s="23" t="s">
+      <c r="B164" s="25"/>
+      <c r="C164" s="27" t="s">
         <v>328</v>
       </c>
       <c r="D164" s="5" t="s">
@@ -7512,8 +7556,8 @@
       <c r="A165" s="4">
         <v>150</v>
       </c>
-      <c r="B165" s="21"/>
-      <c r="C165" s="24"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="29"/>
       <c r="D165" s="5" t="s">
         <v>329</v>
       </c>
@@ -7537,7 +7581,7 @@
       <c r="A166" s="4">
         <v>151</v>
       </c>
-      <c r="B166" s="21"/>
+      <c r="B166" s="25"/>
       <c r="C166" s="4" t="s">
         <v>332</v>
       </c>
@@ -7564,8 +7608,8 @@
       <c r="A167" s="4">
         <v>152</v>
       </c>
-      <c r="B167" s="21"/>
-      <c r="C167" s="23" t="s">
+      <c r="B167" s="25"/>
+      <c r="C167" s="27" t="s">
         <v>335</v>
       </c>
       <c r="D167" s="5" t="s">
@@ -7591,8 +7635,8 @@
       <c r="A168" s="4">
         <v>153</v>
       </c>
-      <c r="B168" s="21"/>
-      <c r="C168" s="24"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="29"/>
       <c r="D168" s="5" t="s">
         <v>338</v>
       </c>
@@ -7616,8 +7660,8 @@
       <c r="A169" s="4">
         <v>154</v>
       </c>
-      <c r="B169" s="21"/>
-      <c r="C169" s="23" t="s">
+      <c r="B169" s="25"/>
+      <c r="C169" s="27" t="s">
         <v>340</v>
       </c>
       <c r="D169" s="5" t="s">
@@ -7643,8 +7687,8 @@
       <c r="A170" s="4">
         <v>155</v>
       </c>
-      <c r="B170" s="21"/>
-      <c r="C170" s="24"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="29"/>
       <c r="D170" s="5" t="s">
         <v>343</v>
       </c>
@@ -7668,8 +7712,8 @@
       <c r="A171" s="4">
         <v>156</v>
       </c>
-      <c r="B171" s="21"/>
-      <c r="C171" s="23" t="s">
+      <c r="B171" s="25"/>
+      <c r="C171" s="27" t="s">
         <v>345</v>
       </c>
       <c r="D171" s="5" t="s">
@@ -7695,8 +7739,8 @@
       <c r="A172" s="4">
         <v>157</v>
       </c>
-      <c r="B172" s="21"/>
-      <c r="C172" s="29"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="28"/>
       <c r="D172" s="5" t="s">
         <v>348</v>
       </c>
@@ -7720,8 +7764,8 @@
       <c r="A173" s="4">
         <v>158</v>
       </c>
-      <c r="B173" s="21"/>
-      <c r="C173" s="24"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="29"/>
       <c r="D173" s="5" t="s">
         <v>350</v>
       </c>
@@ -7745,8 +7789,8 @@
       <c r="A174" s="4">
         <v>159</v>
       </c>
-      <c r="B174" s="21"/>
-      <c r="C174" s="23" t="s">
+      <c r="B174" s="25"/>
+      <c r="C174" s="27" t="s">
         <v>352</v>
       </c>
       <c r="D174" s="5" t="s">
@@ -7772,8 +7816,8 @@
       <c r="A175" s="4">
         <v>160</v>
       </c>
-      <c r="B175" s="21"/>
-      <c r="C175" s="24"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="29"/>
       <c r="D175" s="5" t="s">
         <v>353</v>
       </c>
@@ -7797,7 +7841,7 @@
       <c r="A176" s="4">
         <v>161</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="25" t="s">
         <v>356</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -7826,7 +7870,7 @@
       <c r="A177" s="4">
         <v>162</v>
       </c>
-      <c r="B177" s="21"/>
+      <c r="B177" s="25"/>
       <c r="C177" s="4" t="s">
         <v>358</v>
       </c>
@@ -7853,8 +7897,8 @@
       <c r="A178" s="4">
         <v>163</v>
       </c>
-      <c r="B178" s="21"/>
-      <c r="C178" s="23" t="s">
+      <c r="B178" s="25"/>
+      <c r="C178" s="27" t="s">
         <v>361</v>
       </c>
       <c r="D178" s="5" t="s">
@@ -7880,8 +7924,8 @@
       <c r="A179" s="4">
         <v>164</v>
       </c>
-      <c r="B179" s="22"/>
-      <c r="C179" s="24"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="29"/>
       <c r="D179" s="5" t="s">
         <v>362</v>
       </c>
@@ -7905,7 +7949,7 @@
       <c r="A180" s="4">
         <v>165</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="B180" s="36" t="s">
         <v>365</v>
       </c>
       <c r="C180" s="4"/>
@@ -7932,7 +7976,7 @@
       <c r="A181" s="4">
         <v>166</v>
       </c>
-      <c r="B181" s="27"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="4"/>
       <c r="D181" s="5" t="s">
         <v>368</v>
@@ -7957,7 +8001,7 @@
       <c r="A182" s="4">
         <v>167</v>
       </c>
-      <c r="B182" s="27"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="4"/>
       <c r="D182" s="5" t="s">
         <v>370</v>
@@ -7982,7 +8026,7 @@
       <c r="A183" s="4">
         <v>168</v>
       </c>
-      <c r="B183" s="27"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="4"/>
       <c r="D183" s="5" t="s">
         <v>372</v>
@@ -8007,7 +8051,7 @@
       <c r="A184" s="4">
         <v>169</v>
       </c>
-      <c r="B184" s="20" t="s">
+      <c r="B184" s="24" t="s">
         <v>374</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -8036,7 +8080,7 @@
       <c r="A185" s="18">
         <v>170</v>
       </c>
-      <c r="B185" s="21"/>
+      <c r="B185" s="25"/>
       <c r="C185" s="4" t="s">
         <v>378</v>
       </c>
@@ -8063,7 +8107,7 @@
       <c r="A186" s="18">
         <v>171</v>
       </c>
-      <c r="B186" s="22"/>
+      <c r="B186" s="26"/>
       <c r="C186" s="4" t="s">
         <v>381</v>
       </c>
@@ -8090,7 +8134,7 @@
       <c r="A187" s="18">
         <v>172</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="B187" s="36" t="s">
         <v>384</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -8119,7 +8163,7 @@
       <c r="A188" s="18">
         <v>173</v>
       </c>
-      <c r="B188" s="27"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="4" t="s">
         <v>388</v>
       </c>
@@ -8146,7 +8190,7 @@
       <c r="A189" s="18">
         <v>174</v>
       </c>
-      <c r="B189" s="27"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="4" t="s">
         <v>391</v>
       </c>
@@ -8173,7 +8217,7 @@
       <c r="A190" s="18">
         <v>175</v>
       </c>
-      <c r="B190" s="27"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="4" t="s">
         <v>394</v>
       </c>
@@ -8200,7 +8244,7 @@
       <c r="A191" s="18">
         <v>176</v>
       </c>
-      <c r="B191" s="27"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="4" t="s">
         <v>396</v>
       </c>
@@ -8227,7 +8271,7 @@
       <c r="A192" s="18">
         <v>177</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="B192" s="36" t="s">
         <v>398</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -8256,7 +8300,7 @@
       <c r="A193" s="18">
         <v>178</v>
       </c>
-      <c r="B193" s="27"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5" t="s">
         <v>402</v>
@@ -8281,7 +8325,7 @@
       <c r="A194" s="18">
         <v>179</v>
       </c>
-      <c r="B194" s="27"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5" t="s">
         <v>404</v>
@@ -8306,7 +8350,7 @@
       <c r="A195" s="18">
         <v>180</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="4"/>
       <c r="D195" s="5" t="s">
         <v>406</v>
@@ -8331,7 +8375,7 @@
       <c r="A196" s="18">
         <v>181</v>
       </c>
-      <c r="B196" s="27"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="4" t="s">
         <v>408</v>
       </c>
@@ -8358,7 +8402,7 @@
       <c r="A197" s="18">
         <v>182</v>
       </c>
-      <c r="B197" s="27"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="4" t="s">
         <v>411</v>
       </c>
@@ -8385,7 +8429,7 @@
       <c r="A198" s="18">
         <v>183</v>
       </c>
-      <c r="B198" s="27"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5" t="s">
         <v>414</v>
@@ -8410,7 +8454,7 @@
       <c r="A199" s="18">
         <v>184</v>
       </c>
-      <c r="B199" s="27"/>
+      <c r="B199" s="36"/>
       <c r="C199" s="4"/>
       <c r="D199" s="5" t="s">
         <v>416</v>
@@ -8435,7 +8479,7 @@
       <c r="A200" s="18">
         <v>185</v>
       </c>
-      <c r="B200" s="27"/>
+      <c r="B200" s="36"/>
       <c r="C200" s="4" t="s">
         <v>418</v>
       </c>
@@ -8462,7 +8506,7 @@
       <c r="A201" s="18">
         <v>186</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="36"/>
       <c r="C201" s="4" t="s">
         <v>396</v>
       </c>
@@ -8489,7 +8533,7 @@
       <c r="A202" s="18">
         <v>187</v>
       </c>
-      <c r="B202" s="27"/>
+      <c r="B202" s="36"/>
       <c r="C202" s="4" t="s">
         <v>421</v>
       </c>
@@ -8516,7 +8560,7 @@
       <c r="A203" s="18">
         <v>188</v>
       </c>
-      <c r="B203" s="27" t="s">
+      <c r="B203" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -8545,7 +8589,7 @@
       <c r="A204" s="18">
         <v>189</v>
       </c>
-      <c r="B204" s="27"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="4"/>
       <c r="D204" s="5" t="s">
         <v>392</v>
@@ -8570,7 +8614,7 @@
       <c r="A205" s="18">
         <v>190</v>
       </c>
-      <c r="B205" s="27"/>
+      <c r="B205" s="36"/>
       <c r="C205" s="4" t="s">
         <v>421</v>
       </c>
@@ -8597,7 +8641,7 @@
       <c r="A206" s="18">
         <v>191</v>
       </c>
-      <c r="B206" s="27"/>
+      <c r="B206" s="36"/>
       <c r="C206" s="4" t="s">
         <v>427</v>
       </c>
@@ -8624,7 +8668,7 @@
       <c r="A207" s="18">
         <v>192</v>
       </c>
-      <c r="B207" s="27"/>
+      <c r="B207" s="36"/>
       <c r="C207" s="16" t="s">
         <v>430</v>
       </c>
@@ -8651,7 +8695,7 @@
       <c r="A208" s="18">
         <v>193</v>
       </c>
-      <c r="B208" s="20" t="s">
+      <c r="B208" s="24" t="s">
         <v>433</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -8680,8 +8724,8 @@
       <c r="A209" s="18">
         <v>194</v>
       </c>
-      <c r="B209" s="21"/>
-      <c r="C209" s="23" t="s">
+      <c r="B209" s="25"/>
+      <c r="C209" s="27" t="s">
         <v>436</v>
       </c>
       <c r="D209" s="5" t="s">
@@ -8707,8 +8751,8 @@
       <c r="A210" s="18">
         <v>195</v>
       </c>
-      <c r="B210" s="21"/>
-      <c r="C210" s="29"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="28"/>
       <c r="D210" s="5" t="s">
         <v>439</v>
       </c>
@@ -8732,8 +8776,8 @@
       <c r="A211" s="18">
         <v>196</v>
       </c>
-      <c r="B211" s="21"/>
-      <c r="C211" s="24"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="29"/>
       <c r="D211" s="5" t="s">
         <v>441</v>
       </c>
@@ -8757,7 +8801,7 @@
       <c r="A212" s="18">
         <v>197</v>
       </c>
-      <c r="B212" s="21"/>
+      <c r="B212" s="25"/>
       <c r="C212" s="4" t="s">
         <v>443</v>
       </c>
@@ -8784,7 +8828,7 @@
       <c r="A213" s="18">
         <v>198</v>
       </c>
-      <c r="B213" s="21"/>
+      <c r="B213" s="25"/>
       <c r="C213" s="4" t="s">
         <v>446</v>
       </c>
@@ -8811,8 +8855,8 @@
       <c r="A214" s="18">
         <v>199</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="23" t="s">
+      <c r="B214" s="25"/>
+      <c r="C214" s="27" t="s">
         <v>449</v>
       </c>
       <c r="D214" s="5" t="s">
@@ -8838,8 +8882,8 @@
       <c r="A215" s="18">
         <v>200</v>
       </c>
-      <c r="B215" s="21"/>
-      <c r="C215" s="29"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="28"/>
       <c r="D215" s="5" t="s">
         <v>450</v>
       </c>
@@ -8863,8 +8907,8 @@
       <c r="A216" s="18">
         <v>201</v>
       </c>
-      <c r="B216" s="21"/>
-      <c r="C216" s="24"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="29"/>
       <c r="D216" s="5" t="s">
         <v>450</v>
       </c>
@@ -8888,7 +8932,7 @@
       <c r="A217" s="18">
         <v>202</v>
       </c>
-      <c r="B217" s="21"/>
+      <c r="B217" s="25"/>
       <c r="C217" s="4" t="s">
         <v>396</v>
       </c>
@@ -8915,7 +8959,7 @@
       <c r="A218" s="18">
         <v>203</v>
       </c>
-      <c r="B218" s="21"/>
+      <c r="B218" s="25"/>
       <c r="C218" s="4" t="s">
         <v>421</v>
       </c>
@@ -8942,7 +8986,7 @@
       <c r="A219" s="18">
         <v>204</v>
       </c>
-      <c r="B219" s="22"/>
+      <c r="B219" s="26"/>
       <c r="C219" s="4" t="s">
         <v>457</v>
       </c>
@@ -8999,7 +9043,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="34"/>
-      <c r="C221" s="23" t="s">
+      <c r="C221" s="27" t="s">
         <v>436</v>
       </c>
       <c r="D221" s="5" t="s">
@@ -9026,7 +9070,7 @@
         <v>207</v>
       </c>
       <c r="B222" s="34"/>
-      <c r="C222" s="29"/>
+      <c r="C222" s="28"/>
       <c r="D222" s="5" t="s">
         <v>463</v>
       </c>
@@ -9051,7 +9095,7 @@
         <v>208</v>
       </c>
       <c r="B223" s="34"/>
-      <c r="C223" s="24"/>
+      <c r="C223" s="29"/>
       <c r="D223" s="5" t="s">
         <v>463</v>
       </c>
@@ -9103,7 +9147,7 @@
         <v>210</v>
       </c>
       <c r="B225" s="34"/>
-      <c r="C225" s="23" t="s">
+      <c r="C225" s="27" t="s">
         <v>449</v>
       </c>
       <c r="D225" s="5" t="s">
@@ -9130,7 +9174,7 @@
         <v>211</v>
       </c>
       <c r="B226" s="34"/>
-      <c r="C226" s="29"/>
+      <c r="C226" s="28"/>
       <c r="D226" s="5" t="s">
         <v>465</v>
       </c>
@@ -9155,7 +9199,7 @@
         <v>212</v>
       </c>
       <c r="B227" s="34"/>
-      <c r="C227" s="24"/>
+      <c r="C227" s="29"/>
       <c r="D227" s="5" t="s">
         <v>465</v>
       </c>
@@ -9233,7 +9277,7 @@
       <c r="A230" s="18">
         <v>215</v>
       </c>
-      <c r="B230" s="36" t="s">
+      <c r="B230" s="21" t="s">
         <v>468</v>
       </c>
       <c r="C230" s="4" t="s">
@@ -9262,8 +9306,8 @@
       <c r="A231" s="18">
         <v>216</v>
       </c>
-      <c r="B231" s="37"/>
-      <c r="C231" s="23" t="s">
+      <c r="B231" s="22"/>
+      <c r="C231" s="27" t="s">
         <v>436</v>
       </c>
       <c r="D231" s="5" t="s">
@@ -9289,8 +9333,8 @@
       <c r="A232" s="18">
         <v>217</v>
       </c>
-      <c r="B232" s="37"/>
-      <c r="C232" s="29"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="28"/>
       <c r="D232" s="5" t="s">
         <v>472</v>
       </c>
@@ -9314,8 +9358,8 @@
       <c r="A233" s="18">
         <v>218</v>
       </c>
-      <c r="B233" s="37"/>
-      <c r="C233" s="24"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="29"/>
       <c r="D233" s="5" t="s">
         <v>472</v>
       </c>
@@ -9339,7 +9383,7 @@
       <c r="A234" s="18">
         <v>219</v>
       </c>
-      <c r="B234" s="37"/>
+      <c r="B234" s="22"/>
       <c r="C234" s="4" t="s">
         <v>446</v>
       </c>
@@ -9366,8 +9410,8 @@
       <c r="A235" s="18">
         <v>220</v>
       </c>
-      <c r="B235" s="37"/>
-      <c r="C235" s="23" t="s">
+      <c r="B235" s="22"/>
+      <c r="C235" s="27" t="s">
         <v>449</v>
       </c>
       <c r="D235" s="5" t="s">
@@ -9393,8 +9437,8 @@
       <c r="A236" s="18">
         <v>221</v>
       </c>
-      <c r="B236" s="37"/>
-      <c r="C236" s="29"/>
+      <c r="B236" s="22"/>
+      <c r="C236" s="28"/>
       <c r="D236" s="5" t="s">
         <v>474</v>
       </c>
@@ -9418,8 +9462,8 @@
       <c r="A237" s="18">
         <v>222</v>
       </c>
-      <c r="B237" s="37"/>
-      <c r="C237" s="24"/>
+      <c r="B237" s="22"/>
+      <c r="C237" s="29"/>
       <c r="D237" s="5" t="s">
         <v>474</v>
       </c>
@@ -9443,7 +9487,7 @@
       <c r="A238" s="18">
         <v>223</v>
       </c>
-      <c r="B238" s="37"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="4" t="s">
         <v>396</v>
       </c>
@@ -9470,7 +9514,7 @@
       <c r="A239" s="18">
         <v>224</v>
       </c>
-      <c r="B239" s="37"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="4" t="s">
         <v>421</v>
       </c>
@@ -9497,7 +9541,7 @@
       <c r="A240" s="18">
         <v>225</v>
       </c>
-      <c r="B240" s="38"/>
+      <c r="B240" s="23"/>
       <c r="C240" s="4" t="s">
         <v>443</v>
       </c>
@@ -9524,7 +9568,7 @@
       <c r="A241" s="18">
         <v>226</v>
       </c>
-      <c r="B241" s="36" t="s">
+      <c r="B241" s="21" t="s">
         <v>478</v>
       </c>
       <c r="C241" s="4" t="s">
@@ -9553,7 +9597,7 @@
       <c r="A242" s="18">
         <v>227</v>
       </c>
-      <c r="B242" s="37"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="4" t="s">
         <v>481</v>
       </c>
@@ -9580,7 +9624,7 @@
       <c r="A243" s="18">
         <v>228</v>
       </c>
-      <c r="B243" s="37"/>
+      <c r="B243" s="22"/>
       <c r="C243" s="4" t="s">
         <v>484</v>
       </c>
@@ -9607,7 +9651,7 @@
       <c r="A244" s="18">
         <v>229</v>
       </c>
-      <c r="B244" s="37"/>
+      <c r="B244" s="22"/>
       <c r="C244" s="4"/>
       <c r="D244" s="5" t="s">
         <v>487</v>
@@ -9632,7 +9676,7 @@
       <c r="A245" s="18">
         <v>230</v>
       </c>
-      <c r="B245" s="38"/>
+      <c r="B245" s="23"/>
       <c r="C245" s="4"/>
       <c r="D245" s="5" t="s">
         <v>489</v>
@@ -9657,7 +9701,7 @@
       <c r="A246" s="18">
         <v>231</v>
       </c>
-      <c r="B246" s="36" t="s">
+      <c r="B246" s="21" t="s">
         <v>491</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -9686,8 +9730,8 @@
       <c r="A247" s="18">
         <v>232</v>
       </c>
-      <c r="B247" s="37"/>
-      <c r="C247" s="23" t="s">
+      <c r="B247" s="22"/>
+      <c r="C247" s="27" t="s">
         <v>494</v>
       </c>
       <c r="D247" s="5" t="s">
@@ -9713,8 +9757,8 @@
       <c r="A248" s="18">
         <v>233</v>
       </c>
-      <c r="B248" s="37"/>
-      <c r="C248" s="29"/>
+      <c r="B248" s="22"/>
+      <c r="C248" s="28"/>
       <c r="D248" s="5" t="s">
         <v>497</v>
       </c>
@@ -9738,8 +9782,8 @@
       <c r="A249" s="18">
         <v>234</v>
       </c>
-      <c r="B249" s="37"/>
-      <c r="C249" s="29"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="28"/>
       <c r="D249" s="5" t="s">
         <v>499</v>
       </c>
@@ -9763,8 +9807,8 @@
       <c r="A250" s="18">
         <v>235</v>
       </c>
-      <c r="B250" s="37"/>
-      <c r="C250" s="24"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="29"/>
       <c r="D250" s="5" t="s">
         <v>501</v>
       </c>
@@ -9788,7 +9832,7 @@
       <c r="A251" s="18">
         <v>236</v>
       </c>
-      <c r="B251" s="37"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="4" t="s">
         <v>503</v>
       </c>
@@ -9815,7 +9859,7 @@
       <c r="A252" s="18">
         <v>237</v>
       </c>
-      <c r="B252" s="37"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="4" t="s">
         <v>506</v>
       </c>
@@ -9842,7 +9886,7 @@
       <c r="A253" s="18">
         <v>238</v>
       </c>
-      <c r="B253" s="37"/>
+      <c r="B253" s="22"/>
       <c r="C253" s="4" t="s">
         <v>509</v>
       </c>
@@ -9869,7 +9913,7 @@
       <c r="A254" s="18">
         <v>239</v>
       </c>
-      <c r="B254" s="37"/>
+      <c r="B254" s="22"/>
       <c r="C254" s="4" t="s">
         <v>512</v>
       </c>
@@ -9896,7 +9940,7 @@
       <c r="A255" s="18">
         <v>240</v>
       </c>
-      <c r="B255" s="38"/>
+      <c r="B255" s="23"/>
       <c r="C255" s="4" t="s">
         <v>515</v>
       </c>
@@ -9923,7 +9967,7 @@
       <c r="A256" s="18">
         <v>241</v>
       </c>
-      <c r="B256" s="36" t="s">
+      <c r="B256" s="21" t="s">
         <v>518</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -9952,7 +9996,7 @@
       <c r="A257" s="18">
         <v>242</v>
       </c>
-      <c r="B257" s="37"/>
+      <c r="B257" s="22"/>
       <c r="C257" s="4" t="s">
         <v>521</v>
       </c>
@@ -9979,7 +10023,7 @@
       <c r="A258" s="18">
         <v>243</v>
       </c>
-      <c r="B258" s="37"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="4" t="s">
         <v>176</v>
       </c>
@@ -10006,8 +10050,8 @@
       <c r="A259" s="18">
         <v>244</v>
       </c>
-      <c r="B259" s="37"/>
-      <c r="C259" s="23" t="s">
+      <c r="B259" s="22"/>
+      <c r="C259" s="27" t="s">
         <v>526</v>
       </c>
       <c r="D259" s="5" t="s">
@@ -10033,8 +10077,8 @@
       <c r="A260" s="18">
         <v>245</v>
       </c>
-      <c r="B260" s="37"/>
-      <c r="C260" s="29"/>
+      <c r="B260" s="22"/>
+      <c r="C260" s="28"/>
       <c r="D260" s="5" t="s">
         <v>529</v>
       </c>
@@ -10058,8 +10102,8 @@
       <c r="A261" s="18">
         <v>246</v>
       </c>
-      <c r="B261" s="37"/>
-      <c r="C261" s="24"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="29"/>
       <c r="D261" s="5" t="s">
         <v>531</v>
       </c>
@@ -10083,7 +10127,7 @@
       <c r="A262" s="18">
         <v>247</v>
       </c>
-      <c r="B262" s="37"/>
+      <c r="B262" s="22"/>
       <c r="C262" s="17" t="s">
         <v>533</v>
       </c>
@@ -10110,7 +10154,7 @@
       <c r="A263" s="18">
         <v>248</v>
       </c>
-      <c r="B263" s="37"/>
+      <c r="B263" s="22"/>
       <c r="C263" s="4" t="s">
         <v>536</v>
       </c>
@@ -10137,7 +10181,7 @@
       <c r="A264" s="18">
         <v>249</v>
       </c>
-      <c r="B264" s="37"/>
+      <c r="B264" s="22"/>
       <c r="C264" s="4" t="s">
         <v>539</v>
       </c>
@@ -10164,7 +10208,7 @@
       <c r="A265" s="18">
         <v>250</v>
       </c>
-      <c r="B265" s="38"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="4" t="s">
         <v>542</v>
       </c>
@@ -10191,7 +10235,7 @@
       <c r="A266" s="18">
         <v>251</v>
       </c>
-      <c r="B266" s="36" t="s">
+      <c r="B266" s="21" t="s">
         <v>545</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -10220,7 +10264,7 @@
       <c r="A267" s="18">
         <v>252</v>
       </c>
-      <c r="B267" s="37"/>
+      <c r="B267" s="22"/>
       <c r="C267" s="4" t="s">
         <v>548</v>
       </c>
@@ -10247,7 +10291,7 @@
       <c r="A268" s="18">
         <v>253</v>
       </c>
-      <c r="B268" s="37"/>
+      <c r="B268" s="22"/>
       <c r="C268" s="4" t="s">
         <v>551</v>
       </c>
@@ -10274,7 +10318,7 @@
       <c r="A269" s="18">
         <v>254</v>
       </c>
-      <c r="B269" s="37"/>
+      <c r="B269" s="22"/>
       <c r="C269" s="4" t="s">
         <v>554</v>
       </c>
@@ -10301,7 +10345,7 @@
       <c r="A270" s="18">
         <v>255</v>
       </c>
-      <c r="B270" s="37"/>
+      <c r="B270" s="22"/>
       <c r="C270" s="4" t="s">
         <v>539</v>
       </c>
@@ -10328,7 +10372,7 @@
       <c r="A271" s="18">
         <v>256</v>
       </c>
-      <c r="B271" s="38"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4" t="s">
         <v>536</v>
       </c>
@@ -10355,7 +10399,7 @@
       <c r="A272" s="18">
         <v>257</v>
       </c>
-      <c r="B272" s="36" t="s">
+      <c r="B272" s="21" t="s">
         <v>559</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -10384,7 +10428,7 @@
       <c r="A273" s="18">
         <v>258</v>
       </c>
-      <c r="B273" s="37"/>
+      <c r="B273" s="22"/>
       <c r="C273" s="4" t="s">
         <v>521</v>
       </c>
@@ -10411,7 +10455,7 @@
       <c r="A274" s="18">
         <v>259</v>
       </c>
-      <c r="B274" s="37"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="4" t="s">
         <v>176</v>
       </c>
@@ -10438,8 +10482,8 @@
       <c r="A275" s="18">
         <v>260</v>
       </c>
-      <c r="B275" s="37"/>
-      <c r="C275" s="23" t="s">
+      <c r="B275" s="22"/>
+      <c r="C275" s="27" t="s">
         <v>526</v>
       </c>
       <c r="D275" s="5" t="s">
@@ -10465,8 +10509,8 @@
       <c r="A276" s="18">
         <v>261</v>
       </c>
-      <c r="B276" s="37"/>
-      <c r="C276" s="29"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="28"/>
       <c r="D276" s="5" t="s">
         <v>529</v>
       </c>
@@ -10490,8 +10534,8 @@
       <c r="A277" s="18">
         <v>262</v>
       </c>
-      <c r="B277" s="37"/>
-      <c r="C277" s="24"/>
+      <c r="B277" s="22"/>
+      <c r="C277" s="29"/>
       <c r="D277" s="5" t="s">
         <v>531</v>
       </c>
@@ -10515,7 +10559,7 @@
       <c r="A278" s="18">
         <v>263</v>
       </c>
-      <c r="B278" s="37"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="17" t="s">
         <v>533</v>
       </c>
@@ -10542,7 +10586,7 @@
       <c r="A279" s="18">
         <v>264</v>
       </c>
-      <c r="B279" s="37"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="4" t="s">
         <v>536</v>
       </c>
@@ -10569,7 +10613,7 @@
       <c r="A280" s="18">
         <v>265</v>
       </c>
-      <c r="B280" s="38"/>
+      <c r="B280" s="23"/>
       <c r="C280" s="4" t="s">
         <v>539</v>
       </c>
@@ -10596,7 +10640,7 @@
       <c r="A281" s="18">
         <v>266</v>
       </c>
-      <c r="B281" s="36" t="s">
+      <c r="B281" s="21" t="s">
         <v>569</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -10625,7 +10669,7 @@
       <c r="A282" s="18">
         <v>267</v>
       </c>
-      <c r="B282" s="37"/>
+      <c r="B282" s="22"/>
       <c r="C282" s="4" t="s">
         <v>521</v>
       </c>
@@ -10652,7 +10696,7 @@
       <c r="A283" s="18">
         <v>268</v>
       </c>
-      <c r="B283" s="37"/>
+      <c r="B283" s="22"/>
       <c r="C283" s="4" t="s">
         <v>176</v>
       </c>
@@ -10679,7 +10723,7 @@
       <c r="A284" s="18">
         <v>269</v>
       </c>
-      <c r="B284" s="37"/>
+      <c r="B284" s="22"/>
       <c r="C284" s="4" t="s">
         <v>539</v>
       </c>
@@ -10706,7 +10750,7 @@
       <c r="A285" s="18">
         <v>270</v>
       </c>
-      <c r="B285" s="37"/>
+      <c r="B285" s="22"/>
       <c r="C285" s="4" t="s">
         <v>536</v>
       </c>
@@ -10733,8 +10777,8 @@
       <c r="A286" s="18">
         <v>271</v>
       </c>
-      <c r="B286" s="37"/>
-      <c r="C286" s="23" t="s">
+      <c r="B286" s="22"/>
+      <c r="C286" s="27" t="s">
         <v>526</v>
       </c>
       <c r="D286" s="5" t="s">
@@ -10760,8 +10804,8 @@
       <c r="A287" s="18">
         <v>272</v>
       </c>
-      <c r="B287" s="37"/>
-      <c r="C287" s="29"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="28"/>
       <c r="D287" s="5" t="s">
         <v>529</v>
       </c>
@@ -10785,8 +10829,8 @@
       <c r="A288" s="18">
         <v>273</v>
       </c>
-      <c r="B288" s="37"/>
-      <c r="C288" s="29"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="28"/>
       <c r="D288" s="5" t="s">
         <v>531</v>
       </c>
@@ -10810,8 +10854,8 @@
       <c r="A289" s="18">
         <v>274</v>
       </c>
-      <c r="B289" s="37"/>
-      <c r="C289" s="29"/>
+      <c r="B289" s="22"/>
+      <c r="C289" s="28"/>
       <c r="D289" s="5" t="s">
         <v>578</v>
       </c>
@@ -10835,8 +10879,8 @@
       <c r="A290" s="18">
         <v>275</v>
       </c>
-      <c r="B290" s="37"/>
-      <c r="C290" s="29"/>
+      <c r="B290" s="22"/>
+      <c r="C290" s="28"/>
       <c r="D290" s="5" t="s">
         <v>580</v>
       </c>
@@ -10860,8 +10904,8 @@
       <c r="A291" s="18">
         <v>276</v>
       </c>
-      <c r="B291" s="38"/>
-      <c r="C291" s="24"/>
+      <c r="B291" s="23"/>
+      <c r="C291" s="29"/>
       <c r="D291" s="5" t="s">
         <v>580</v>
       </c>
@@ -10885,7 +10929,7 @@
       <c r="A292" s="18">
         <v>277</v>
       </c>
-      <c r="B292" s="36" t="s">
+      <c r="B292" s="21" t="s">
         <v>583</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -10914,7 +10958,7 @@
       <c r="A293" s="18">
         <v>278</v>
       </c>
-      <c r="B293" s="37"/>
+      <c r="B293" s="22"/>
       <c r="C293" s="4" t="s">
         <v>521</v>
       </c>
@@ -10941,7 +10985,7 @@
       <c r="A294" s="18">
         <v>279</v>
       </c>
-      <c r="B294" s="37"/>
+      <c r="B294" s="22"/>
       <c r="C294" s="4" t="s">
         <v>176</v>
       </c>
@@ -10968,7 +11012,7 @@
       <c r="A295" s="18">
         <v>280</v>
       </c>
-      <c r="B295" s="37"/>
+      <c r="B295" s="22"/>
       <c r="C295" s="4" t="s">
         <v>536</v>
       </c>
@@ -10995,8 +11039,8 @@
       <c r="A296" s="18">
         <v>281</v>
       </c>
-      <c r="B296" s="37"/>
-      <c r="C296" s="23" t="s">
+      <c r="B296" s="22"/>
+      <c r="C296" s="27" t="s">
         <v>526</v>
       </c>
       <c r="D296" s="5" t="s">
@@ -11022,8 +11066,8 @@
       <c r="A297" s="18">
         <v>282</v>
       </c>
-      <c r="B297" s="37"/>
-      <c r="C297" s="29"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="28"/>
       <c r="D297" s="5" t="s">
         <v>529</v>
       </c>
@@ -11047,8 +11091,8 @@
       <c r="A298" s="18">
         <v>283</v>
       </c>
-      <c r="B298" s="37"/>
-      <c r="C298" s="29"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="28"/>
       <c r="D298" s="5" t="s">
         <v>531</v>
       </c>
@@ -11072,8 +11116,8 @@
       <c r="A299" s="18">
         <v>284</v>
       </c>
-      <c r="B299" s="37"/>
-      <c r="C299" s="24"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="29"/>
       <c r="D299" s="5" t="s">
         <v>589</v>
       </c>
@@ -11097,7 +11141,7 @@
       <c r="A300" s="18">
         <v>285</v>
       </c>
-      <c r="B300" s="37"/>
+      <c r="B300" s="22"/>
       <c r="C300" s="4" t="s">
         <v>591</v>
       </c>
@@ -11124,7 +11168,7 @@
       <c r="A301" s="18">
         <v>286</v>
       </c>
-      <c r="B301" s="38"/>
+      <c r="B301" s="23"/>
       <c r="C301" s="4" t="s">
         <v>539</v>
       </c>
@@ -11151,7 +11195,7 @@
       <c r="A302" s="18">
         <v>287</v>
       </c>
-      <c r="B302" s="39" t="s">
+      <c r="B302" s="30" t="s">
         <v>595</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -11180,7 +11224,7 @@
       <c r="A303" s="18">
         <v>288</v>
       </c>
-      <c r="B303" s="40"/>
+      <c r="B303" s="31"/>
       <c r="C303" s="4" t="s">
         <v>591</v>
       </c>
@@ -11207,7 +11251,7 @@
       <c r="A304" s="18">
         <v>289</v>
       </c>
-      <c r="B304" s="40"/>
+      <c r="B304" s="31"/>
       <c r="C304" s="4" t="s">
         <v>539</v>
       </c>
@@ -11234,7 +11278,7 @@
       <c r="A305" s="18">
         <v>290</v>
       </c>
-      <c r="B305" s="40"/>
+      <c r="B305" s="31"/>
       <c r="C305" s="4" t="s">
         <v>536</v>
       </c>
@@ -11261,7 +11305,7 @@
       <c r="A306" s="18">
         <v>291</v>
       </c>
-      <c r="B306" s="41"/>
+      <c r="B306" s="32"/>
       <c r="C306" s="4" t="s">
         <v>600</v>
       </c>
@@ -11288,7 +11332,7 @@
       <c r="A307" s="18">
         <v>292</v>
       </c>
-      <c r="B307" s="36" t="s">
+      <c r="B307" s="21" t="s">
         <v>603</v>
       </c>
       <c r="C307" s="4" t="s">
@@ -11317,7 +11361,7 @@
       <c r="A308" s="18">
         <v>293</v>
       </c>
-      <c r="B308" s="37"/>
+      <c r="B308" s="22"/>
       <c r="C308" s="4" t="s">
         <v>539</v>
       </c>
@@ -11344,7 +11388,7 @@
       <c r="A309" s="18">
         <v>294</v>
       </c>
-      <c r="B309" s="37"/>
+      <c r="B309" s="22"/>
       <c r="C309" s="4" t="s">
         <v>536</v>
       </c>
@@ -11371,8 +11415,8 @@
       <c r="A310" s="18">
         <v>295</v>
       </c>
-      <c r="B310" s="37"/>
-      <c r="C310" s="23" t="s">
+      <c r="B310" s="22"/>
+      <c r="C310" s="27" t="s">
         <v>526</v>
       </c>
       <c r="D310" s="5" t="s">
@@ -11398,8 +11442,8 @@
       <c r="A311" s="18">
         <v>296</v>
       </c>
-      <c r="B311" s="37"/>
-      <c r="C311" s="29"/>
+      <c r="B311" s="22"/>
+      <c r="C311" s="28"/>
       <c r="D311" s="5" t="s">
         <v>529</v>
       </c>
@@ -11423,8 +11467,8 @@
       <c r="A312" s="18">
         <v>297</v>
       </c>
-      <c r="B312" s="37"/>
-      <c r="C312" s="24"/>
+      <c r="B312" s="22"/>
+      <c r="C312" s="29"/>
       <c r="D312" s="5" t="s">
         <v>531</v>
       </c>
@@ -11448,8 +11492,8 @@
       <c r="A313" s="18">
         <v>298</v>
       </c>
-      <c r="B313" s="37"/>
-      <c r="C313" s="23" t="s">
+      <c r="B313" s="22"/>
+      <c r="C313" s="27" t="s">
         <v>608</v>
       </c>
       <c r="D313" s="5" t="s">
@@ -11475,8 +11519,8 @@
       <c r="A314" s="18">
         <v>299</v>
       </c>
-      <c r="B314" s="37"/>
-      <c r="C314" s="29"/>
+      <c r="B314" s="22"/>
+      <c r="C314" s="28"/>
       <c r="D314" s="5" t="s">
         <v>611</v>
       </c>
@@ -11500,8 +11544,8 @@
       <c r="A315" s="18">
         <v>300</v>
       </c>
-      <c r="B315" s="37"/>
-      <c r="C315" s="24"/>
+      <c r="B315" s="22"/>
+      <c r="C315" s="29"/>
       <c r="D315" s="5" t="s">
         <v>613</v>
       </c>
@@ -11525,8 +11569,8 @@
       <c r="A316" s="18">
         <v>301</v>
       </c>
-      <c r="B316" s="37"/>
-      <c r="C316" s="23" t="s">
+      <c r="B316" s="22"/>
+      <c r="C316" s="27" t="s">
         <v>615</v>
       </c>
       <c r="D316" s="5" t="s">
@@ -11552,8 +11596,8 @@
       <c r="A317" s="18">
         <v>302</v>
       </c>
-      <c r="B317" s="37"/>
-      <c r="C317" s="24"/>
+      <c r="B317" s="22"/>
+      <c r="C317" s="29"/>
       <c r="D317" s="5" t="s">
         <v>618</v>
       </c>
@@ -11577,7 +11621,7 @@
       <c r="A318" s="18">
         <v>303</v>
       </c>
-      <c r="B318" s="38"/>
+      <c r="B318" s="23"/>
       <c r="C318" s="4" t="s">
         <v>620</v>
       </c>
@@ -11604,7 +11648,7 @@
       <c r="A319" s="18">
         <v>304</v>
       </c>
-      <c r="B319" s="36" t="s">
+      <c r="B319" s="21" t="s">
         <v>623</v>
       </c>
       <c r="C319" s="4" t="s">
@@ -11633,7 +11677,7 @@
       <c r="A320" s="18">
         <v>305</v>
       </c>
-      <c r="B320" s="37"/>
+      <c r="B320" s="22"/>
       <c r="C320" s="4" t="s">
         <v>533</v>
       </c>
@@ -11660,7 +11704,7 @@
       <c r="A321" s="18">
         <v>306</v>
       </c>
-      <c r="B321" s="37"/>
+      <c r="B321" s="22"/>
       <c r="C321" s="4" t="s">
         <v>539</v>
       </c>
@@ -11687,7 +11731,7 @@
       <c r="A322" s="18">
         <v>307</v>
       </c>
-      <c r="B322" s="38"/>
+      <c r="B322" s="23"/>
       <c r="C322" s="4" t="s">
         <v>536</v>
       </c>
@@ -11712,6 +11756,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B130"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B101:B108"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="B63:B79"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C139:C144"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B131:B146"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="B220:B229"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="B192:B202"/>
+    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="B208:B219"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="B256:B265"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="B266:B271"/>
+    <mergeCell ref="B272:B280"/>
+    <mergeCell ref="C275:C277"/>
     <mergeCell ref="B319:B322"/>
     <mergeCell ref="B184:B186"/>
     <mergeCell ref="B292:B301"/>
@@ -11728,82 +11842,12 @@
     <mergeCell ref="C235:C237"/>
     <mergeCell ref="B241:B245"/>
     <mergeCell ref="B246:B255"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="B256:B265"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="B266:B271"/>
-    <mergeCell ref="B272:B280"/>
-    <mergeCell ref="C275:C277"/>
-    <mergeCell ref="B220:B229"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="B192:B202"/>
-    <mergeCell ref="B203:B207"/>
-    <mergeCell ref="B208:B219"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C139:C144"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B131:B146"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="B63:B79"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B113:B130"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B101:B108"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K212" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K212">
       <formula1>$C$2:$C$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I322" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I322">
       <formula1>$B$1:$B$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -11835,7 +11879,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G132:I255 G16:I130</xm:sqref>
+          <xm:sqref>G16:I130 G132:I255</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{5F2DFDBD-06DA-4837-B76B-210602F638BB}">

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChuyenDe12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F967991-73FD-4ED9-B325-19E9AA8609CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="615">
   <si>
     <t>Kết quả test trên ứng dụng</t>
   </si>
@@ -2486,9 +2485,6 @@
 2. click the Tabbar . Button</t>
   </si>
   <si>
-    <t>Không đăng nhập bằng fb đuọc</t>
-  </si>
-  <si>
     <t>Go to History screen</t>
   </si>
   <si>
@@ -2559,12 +2555,18 @@
   </si>
   <si>
     <t>Answer is wrong, the button will turn red. The screen will appear "Incorrect (Red)". Correct answer, the button will turn green. The screen will appear "Exacly (Green)"</t>
+  </si>
+  <si>
+    <t>Bấm vào không có chuyển sang màn đăng nhập bằng fb</t>
+  </si>
+  <si>
+    <t>Lõi không đăng nhập được</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2728,7 +2730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2796,6 +2798,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2808,22 +2825,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2835,41 +2864,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3313,11 +3346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M240" sqref="M240"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3507,11 +3540,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
@@ -3532,11 +3565,11 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -3575,11 +3608,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3608,7 +3641,7 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3637,7 +3670,7 @@
       <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3666,7 +3699,7 @@
       <c r="A19" s="22">
         <v>4</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3695,7 +3728,7 @@
       <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3724,7 +3757,7 @@
       <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3751,10 +3784,10 @@
       <c r="A22" s="22">
         <v>7</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="31" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3780,8 +3813,8 @@
       <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3805,8 +3838,8 @@
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3832,8 +3865,8 @@
       <c r="A25" s="22">
         <v>10</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3857,7 +3890,7 @@
       <c r="A26" s="22">
         <v>11</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3884,7 +3917,7 @@
       <c r="A27" s="22">
         <v>12</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
@@ -3911,7 +3944,7 @@
       <c r="A28" s="22">
         <v>13</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
@@ -3938,7 +3971,7 @@
       <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3965,7 +3998,7 @@
       <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3994,7 +4027,7 @@
       <c r="A31" s="22">
         <v>16</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -4023,7 +4056,7 @@
       <c r="A32" s="22">
         <v>17</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
@@ -4052,7 +4085,7 @@
       <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4073,15 +4106,17 @@
         <v>132</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="K33" s="5"/>
+        <v>613</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4093,7 +4128,7 @@
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="11" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>22</v>
@@ -4108,7 +4143,7 @@
       <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4135,7 +4170,7 @@
       <c r="A36" s="22">
         <v>21</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
@@ -4162,7 +4197,7 @@
       <c r="A37" s="22">
         <v>22</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4191,7 +4226,7 @@
       <c r="A38" s="22">
         <v>23</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -4220,7 +4255,7 @@
       <c r="A39" s="22">
         <v>24</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
@@ -4249,7 +4284,7 @@
       <c r="A40" s="22">
         <v>25</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4278,7 +4313,7 @@
       <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
@@ -4307,7 +4342,7 @@
       <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
@@ -4334,7 +4369,7 @@
       <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
@@ -4361,7 +4396,7 @@
       <c r="A44" s="22">
         <v>29</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4390,7 +4425,7 @@
       <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="4" t="s">
         <v>89</v>
       </c>
@@ -4417,7 +4452,7 @@
       <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="4" t="s">
         <v>71</v>
       </c>
@@ -4446,7 +4481,7 @@
       <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
@@ -4475,7 +4510,7 @@
       <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4504,7 +4539,7 @@
       <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
@@ -4533,7 +4568,7 @@
       <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="42" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4562,7 +4597,7 @@
       <c r="A51" s="22">
         <v>36</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
@@ -4591,7 +4626,7 @@
       <c r="A52" s="22">
         <v>37</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
@@ -4618,7 +4653,7 @@
       <c r="A53" s="22">
         <v>38</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4647,7 +4682,7 @@
       <c r="A54" s="22">
         <v>39</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
@@ -4676,7 +4711,7 @@
       <c r="A55" s="22">
         <v>40</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4705,7 +4740,7 @@
       <c r="A56" s="22">
         <v>41</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
@@ -4734,7 +4769,7 @@
       <c r="A57" s="22">
         <v>42</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
@@ -4763,14 +4798,14 @@
       <c r="A58" s="22">
         <v>43</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>122</v>
@@ -4792,8 +4827,8 @@
       <c r="A59" s="22">
         <v>44</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="5" t="s">
         <v>123</v>
       </c>
@@ -4817,8 +4852,8 @@
       <c r="A60" s="22">
         <v>45</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="5" t="s">
         <v>125</v>
       </c>
@@ -4842,13 +4877,13 @@
       <c r="A61" s="22">
         <v>46</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="31"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="11" t="s">
@@ -4867,13 +4902,13 @@
       <c r="A62" s="22">
         <v>47</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>599</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="11" t="s">
@@ -4892,10 +4927,10 @@
       <c r="A63" s="22">
         <v>48</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>127</v>
@@ -4917,17 +4952,17 @@
       <c r="A64" s="22">
         <v>49</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>601</v>
-      </c>
       <c r="D64" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>603</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>604</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="11" t="s">
@@ -4946,9 +4981,9 @@
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>139</v>
@@ -4973,15 +5008,15 @@
       <c r="A66" s="22">
         <v>51</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>597</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="22" t="s">
@@ -5000,15 +5035,15 @@
       <c r="A67" s="22">
         <v>52</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="45" t="s">
+      <c r="B67" s="30"/>
+      <c r="C67" s="24" t="s">
         <v>228</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="11" t="s">
@@ -5027,10 +5062,10 @@
       <c r="A68" s="22">
         <v>53</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -5056,7 +5091,7 @@
       <c r="A69" s="22">
         <v>54</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="32"/>
       <c r="D69" s="5" t="s">
         <v>133</v>
@@ -5083,8 +5118,8 @@
       <c r="A70" s="22">
         <v>55</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="27"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="5" t="s">
         <v>136</v>
       </c>
@@ -5110,7 +5145,7 @@
       <c r="A71" s="22">
         <v>56</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="4" t="s">
         <v>138</v>
       </c>
@@ -5137,8 +5172,8 @@
       <c r="A72" s="22">
         <v>57</v>
       </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="31" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="41" t="s">
         <v>141</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -5164,8 +5199,8 @@
       <c r="A73" s="22">
         <v>58</v>
       </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="31"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="5" t="s">
         <v>144</v>
       </c>
@@ -5189,8 +5224,8 @@
       <c r="A74" s="22">
         <v>59</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="31"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="5" t="s">
         <v>146</v>
       </c>
@@ -5214,7 +5249,7 @@
       <c r="A75" s="22">
         <v>60</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="22" t="s">
         <v>228</v>
       </c>
@@ -5222,7 +5257,7 @@
         <v>250</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="11" t="s">
@@ -5241,7 +5276,7 @@
       <c r="A76" s="22">
         <v>61</v>
       </c>
-      <c r="B76" s="25"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5" t="s">
         <v>148</v>
@@ -5266,10 +5301,10 @@
       <c r="A77" s="22">
         <v>62</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="41" t="s">
         <v>151</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -5297,8 +5332,8 @@
       <c r="A78" s="22">
         <v>63</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="31"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="5" t="s">
         <v>155</v>
       </c>
@@ -5322,8 +5357,8 @@
       <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="31" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -5349,8 +5384,8 @@
       <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="31"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="5" t="s">
         <v>160</v>
       </c>
@@ -5374,8 +5409,8 @@
       <c r="A81" s="22">
         <v>66</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="31"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="5" t="s">
         <v>162</v>
       </c>
@@ -5399,8 +5434,8 @@
       <c r="A82" s="22">
         <v>67</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="31"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="5" t="s">
         <v>164</v>
       </c>
@@ -5424,15 +5459,15 @@
       <c r="A83" s="22">
         <v>68</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>597</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="22" t="s">
@@ -5451,7 +5486,7 @@
       <c r="A84" s="22">
         <v>69</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="4" t="s">
         <v>138</v>
       </c>
@@ -5478,7 +5513,7 @@
       <c r="A85" s="22">
         <v>70</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="22" t="s">
         <v>228</v>
       </c>
@@ -5486,7 +5521,7 @@
         <v>250</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="11" t="s">
@@ -5505,7 +5540,7 @@
       <c r="A86" s="22">
         <v>71</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5" t="s">
         <v>148</v>
@@ -5530,10 +5565,10 @@
       <c r="A87" s="22">
         <v>72</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="41" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5559,8 +5594,8 @@
       <c r="A88" s="22">
         <v>73</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="41"/>
       <c r="D88" s="5" t="s">
         <v>155</v>
       </c>
@@ -5584,8 +5619,8 @@
       <c r="A89" s="22">
         <v>74</v>
       </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="31" t="s">
+      <c r="B89" s="40"/>
+      <c r="C89" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5611,8 +5646,8 @@
       <c r="A90" s="22">
         <v>75</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="31"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="41"/>
       <c r="D90" s="5" t="s">
         <v>160</v>
       </c>
@@ -5636,8 +5671,8 @@
       <c r="A91" s="22">
         <v>76</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="31"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="41"/>
       <c r="D91" s="5" t="s">
         <v>162</v>
       </c>
@@ -5661,8 +5696,8 @@
       <c r="A92" s="22">
         <v>77</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="31"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="5" t="s">
         <v>164</v>
       </c>
@@ -5686,15 +5721,15 @@
       <c r="A93" s="22">
         <v>78</v>
       </c>
-      <c r="B93" s="30"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>597</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="22" t="s">
@@ -5713,7 +5748,7 @@
       <c r="A94" s="22">
         <v>79</v>
       </c>
-      <c r="B94" s="30"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="4" t="s">
         <v>138</v>
       </c>
@@ -5740,7 +5775,7 @@
       <c r="A95" s="22">
         <v>80</v>
       </c>
-      <c r="B95" s="30"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="22" t="s">
         <v>228</v>
       </c>
@@ -5748,7 +5783,7 @@
         <v>250</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="11" t="s">
@@ -5767,7 +5802,7 @@
       <c r="A96" s="22">
         <v>81</v>
       </c>
-      <c r="B96" s="30"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5" t="s">
         <v>148</v>
@@ -5792,7 +5827,7 @@
       <c r="A97" s="22">
         <v>82</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="40" t="s">
         <v>168</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5821,7 +5856,7 @@
       <c r="A98" s="22">
         <v>83</v>
       </c>
-      <c r="B98" s="30"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="22" t="s">
         <v>228</v>
       </c>
@@ -5829,7 +5864,7 @@
         <v>250</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="22" t="s">
@@ -5848,7 +5883,7 @@
       <c r="A99" s="22">
         <v>84</v>
       </c>
-      <c r="B99" s="30"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5" t="s">
         <v>148</v>
@@ -5873,7 +5908,7 @@
       <c r="A100" s="22">
         <v>85</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="40" t="s">
         <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -5902,7 +5937,7 @@
       <c r="A101" s="22">
         <v>86</v>
       </c>
-      <c r="B101" s="30"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="4" t="s">
         <v>173</v>
       </c>
@@ -5929,15 +5964,15 @@
       <c r="A102" s="22">
         <v>87</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="31" t="s">
+      <c r="B102" s="40"/>
+      <c r="C102" s="41" t="s">
         <v>176</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="4" t="s">
@@ -5950,7 +5985,7 @@
         <v>22</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K102" s="7"/>
     </row>
@@ -5958,13 +5993,13 @@
       <c r="A103" s="22">
         <v>88</v>
       </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="31"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41"/>
       <c r="D103" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="4" t="s">
@@ -5977,7 +6012,7 @@
         <v>22</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K103" s="7"/>
     </row>
@@ -5985,13 +6020,13 @@
       <c r="A104" s="22">
         <v>89</v>
       </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="31"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="41"/>
       <c r="D104" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="4" t="s">
@@ -6004,7 +6039,7 @@
         <v>22</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K104" s="7"/>
     </row>
@@ -6012,13 +6047,13 @@
       <c r="A105" s="22">
         <v>90</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="31"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="41"/>
       <c r="D105" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="4" t="s">
@@ -6031,7 +6066,7 @@
         <v>22</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K105" s="7"/>
     </row>
@@ -6039,7 +6074,7 @@
       <c r="A106" s="22">
         <v>91</v>
       </c>
-      <c r="B106" s="30"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="4" t="s">
         <v>228</v>
       </c>
@@ -6047,7 +6082,7 @@
         <v>250</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="22" t="s">
@@ -6066,7 +6101,7 @@
       <c r="A107" s="22">
         <v>92</v>
       </c>
-      <c r="B107" s="30"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5" t="s">
         <v>148</v>
@@ -6091,10 +6126,10 @@
       <c r="A108" s="22">
         <v>93</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -6120,7 +6155,7 @@
       <c r="A109" s="22">
         <v>94</v>
       </c>
-      <c r="B109" s="30"/>
+      <c r="B109" s="40"/>
       <c r="C109" s="32"/>
       <c r="D109" s="5" t="s">
         <v>181</v>
@@ -6145,10 +6180,10 @@
       <c r="A110" s="22">
         <v>95</v>
       </c>
-      <c r="B110" s="30"/>
+      <c r="B110" s="40"/>
       <c r="C110" s="32"/>
       <c r="D110" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>183</v>
@@ -6170,10 +6205,10 @@
       <c r="A111" s="22">
         <v>96</v>
       </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="27"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="33"/>
       <c r="D111" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>184</v>
@@ -6195,7 +6230,7 @@
       <c r="A112" s="22">
         <v>97</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="40" t="s">
         <v>185</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -6224,8 +6259,8 @@
       <c r="A113" s="22">
         <v>98</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="31" t="s">
+      <c r="B113" s="40"/>
+      <c r="C113" s="41" t="s">
         <v>189</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -6251,8 +6286,8 @@
       <c r="A114" s="22">
         <v>99</v>
       </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="31"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="41"/>
       <c r="D114" s="5" t="s">
         <v>192</v>
       </c>
@@ -6276,8 +6311,8 @@
       <c r="A115" s="22">
         <v>100</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="31"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="41"/>
       <c r="D115" s="5" t="s">
         <v>194</v>
       </c>
@@ -6301,8 +6336,8 @@
       <c r="A116" s="22">
         <v>101</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="31"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="41"/>
       <c r="D116" s="5" t="s">
         <v>196</v>
       </c>
@@ -6326,8 +6361,8 @@
       <c r="A117" s="22">
         <v>102</v>
       </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="31" t="s">
+      <c r="B117" s="40"/>
+      <c r="C117" s="41" t="s">
         <v>197</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -6353,8 +6388,8 @@
       <c r="A118" s="22">
         <v>103</v>
       </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="31"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="5" t="s">
         <v>200</v>
       </c>
@@ -6378,8 +6413,8 @@
       <c r="A119" s="22">
         <v>104</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="31"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="41"/>
       <c r="D119" s="5" t="s">
         <v>202</v>
       </c>
@@ -6403,8 +6438,8 @@
       <c r="A120" s="22">
         <v>105</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="31"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="41"/>
       <c r="D120" s="5" t="s">
         <v>203</v>
       </c>
@@ -6428,8 +6463,8 @@
       <c r="A121" s="22">
         <v>106</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="31" t="s">
+      <c r="B121" s="40"/>
+      <c r="C121" s="41" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -6455,8 +6490,8 @@
       <c r="A122" s="22">
         <v>107</v>
       </c>
-      <c r="B122" s="30"/>
-      <c r="C122" s="31"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="5" t="s">
         <v>207</v>
       </c>
@@ -6480,8 +6515,8 @@
       <c r="A123" s="22">
         <v>108</v>
       </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="31"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="41"/>
       <c r="D123" s="5" t="s">
         <v>208</v>
       </c>
@@ -6505,8 +6540,8 @@
       <c r="A124" s="22">
         <v>109</v>
       </c>
-      <c r="B124" s="30"/>
-      <c r="C124" s="31" t="s">
+      <c r="B124" s="40"/>
+      <c r="C124" s="41" t="s">
         <v>210</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -6532,8 +6567,8 @@
       <c r="A125" s="22">
         <v>110</v>
       </c>
-      <c r="B125" s="30"/>
-      <c r="C125" s="31"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="41"/>
       <c r="D125" s="5" t="s">
         <v>213</v>
       </c>
@@ -6557,8 +6592,8 @@
       <c r="A126" s="22">
         <v>111</v>
       </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="31" t="s">
+      <c r="B126" s="40"/>
+      <c r="C126" s="41" t="s">
         <v>215</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -6584,8 +6619,8 @@
       <c r="A127" s="22">
         <v>112</v>
       </c>
-      <c r="B127" s="30"/>
-      <c r="C127" s="31"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="41"/>
       <c r="D127" s="5" t="s">
         <v>218</v>
       </c>
@@ -6609,8 +6644,8 @@
       <c r="A128" s="22">
         <v>113</v>
       </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="31"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="41"/>
       <c r="D128" s="5" t="s">
         <v>220</v>
       </c>
@@ -6634,7 +6669,7 @@
       <c r="A129" s="22">
         <v>114</v>
       </c>
-      <c r="B129" s="30"/>
+      <c r="B129" s="40"/>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
         <v>148</v>
@@ -6659,10 +6694,10 @@
       <c r="A130" s="22">
         <v>115</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="41" t="s">
         <v>224</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -6688,8 +6723,8 @@
       <c r="A131" s="22">
         <v>116</v>
       </c>
-      <c r="B131" s="30"/>
-      <c r="C131" s="31"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="41"/>
       <c r="D131" s="5" t="s">
         <v>231</v>
       </c>
@@ -6713,8 +6748,8 @@
       <c r="A132" s="22">
         <v>117</v>
       </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="31"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="41"/>
       <c r="D132" s="5" t="s">
         <v>232</v>
       </c>
@@ -6738,8 +6773,8 @@
       <c r="A133" s="22">
         <v>118</v>
       </c>
-      <c r="B133" s="30"/>
-      <c r="C133" s="26" t="s">
+      <c r="B133" s="40"/>
+      <c r="C133" s="31" t="s">
         <v>225</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -6765,8 +6800,8 @@
       <c r="A134" s="22">
         <v>119</v>
       </c>
-      <c r="B134" s="30"/>
-      <c r="C134" s="27"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="33"/>
       <c r="D134" s="5" t="s">
         <v>230</v>
       </c>
@@ -6790,8 +6825,8 @@
       <c r="A135" s="22">
         <v>120</v>
       </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="26" t="s">
+      <c r="B135" s="40"/>
+      <c r="C135" s="31" t="s">
         <v>226</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6817,7 +6852,7 @@
       <c r="A136" s="22">
         <v>121</v>
       </c>
-      <c r="B136" s="30"/>
+      <c r="B136" s="40"/>
       <c r="C136" s="32"/>
       <c r="D136" s="5" t="s">
         <v>238</v>
@@ -6842,8 +6877,8 @@
       <c r="A137" s="22">
         <v>122</v>
       </c>
-      <c r="B137" s="30"/>
-      <c r="C137" s="27"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="33"/>
       <c r="D137" s="5" t="s">
         <v>240</v>
       </c>
@@ -6867,8 +6902,8 @@
       <c r="A138" s="22">
         <v>123</v>
       </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="26" t="s">
+      <c r="B138" s="40"/>
+      <c r="C138" s="31" t="s">
         <v>227</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -6894,7 +6929,7 @@
       <c r="A139" s="22">
         <v>124</v>
       </c>
-      <c r="B139" s="30"/>
+      <c r="B139" s="40"/>
       <c r="C139" s="32"/>
       <c r="D139" s="5" t="s">
         <v>244</v>
@@ -6919,7 +6954,7 @@
       <c r="A140" s="22">
         <v>125</v>
       </c>
-      <c r="B140" s="30"/>
+      <c r="B140" s="40"/>
       <c r="C140" s="32"/>
       <c r="D140" s="5" t="s">
         <v>246</v>
@@ -6944,7 +6979,7 @@
       <c r="A141" s="22">
         <v>126</v>
       </c>
-      <c r="B141" s="30"/>
+      <c r="B141" s="40"/>
       <c r="C141" s="32"/>
       <c r="D141" s="5" t="s">
         <v>245</v>
@@ -6969,7 +7004,7 @@
       <c r="A142" s="22">
         <v>127</v>
       </c>
-      <c r="B142" s="30"/>
+      <c r="B142" s="40"/>
       <c r="C142" s="32"/>
       <c r="D142" s="5" t="s">
         <v>247</v>
@@ -6994,8 +7029,8 @@
       <c r="A143" s="22">
         <v>128</v>
       </c>
-      <c r="B143" s="30"/>
-      <c r="C143" s="27"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="33"/>
       <c r="D143" s="5" t="s">
         <v>249</v>
       </c>
@@ -7019,7 +7054,7 @@
       <c r="A144" s="22">
         <v>129</v>
       </c>
-      <c r="B144" s="30"/>
+      <c r="B144" s="40"/>
       <c r="C144" s="7" t="s">
         <v>228</v>
       </c>
@@ -7046,7 +7081,7 @@
       <c r="A145" s="22">
         <v>130</v>
       </c>
-      <c r="B145" s="30"/>
+      <c r="B145" s="40"/>
       <c r="C145" s="7"/>
       <c r="D145" s="5" t="s">
         <v>148</v>
@@ -7071,10 +7106,10 @@
       <c r="A146" s="22">
         <v>131</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="C146" s="31" t="s">
+      <c r="C146" s="41" t="s">
         <v>252</v>
       </c>
       <c r="D146" s="5" t="s">
@@ -7100,8 +7135,8 @@
       <c r="A147" s="22">
         <v>132</v>
       </c>
-      <c r="B147" s="30"/>
-      <c r="C147" s="31"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="41"/>
       <c r="D147" s="5" t="s">
         <v>255</v>
       </c>
@@ -7125,7 +7160,7 @@
       <c r="A148" s="22">
         <v>133</v>
       </c>
-      <c r="B148" s="30"/>
+      <c r="B148" s="40"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5" t="s">
         <v>148</v>
@@ -7150,10 +7185,10 @@
       <c r="A149" s="22">
         <v>134</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="31" t="s">
         <v>258</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -7179,7 +7214,7 @@
       <c r="A150" s="22">
         <v>135</v>
       </c>
-      <c r="B150" s="24"/>
+      <c r="B150" s="29"/>
       <c r="C150" s="32"/>
       <c r="D150" s="5" t="s">
         <v>261</v>
@@ -7204,7 +7239,7 @@
       <c r="A151" s="22">
         <v>136</v>
       </c>
-      <c r="B151" s="24"/>
+      <c r="B151" s="29"/>
       <c r="C151" s="32"/>
       <c r="D151" s="5" t="s">
         <v>263</v>
@@ -7229,8 +7264,8 @@
       <c r="A152" s="22">
         <v>137</v>
       </c>
-      <c r="B152" s="24"/>
-      <c r="C152" s="27"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="33"/>
       <c r="D152" s="5" t="s">
         <v>265</v>
       </c>
@@ -7254,8 +7289,8 @@
       <c r="A153" s="22">
         <v>138</v>
       </c>
-      <c r="B153" s="24"/>
-      <c r="C153" s="26" t="s">
+      <c r="B153" s="29"/>
+      <c r="C153" s="31" t="s">
         <v>252</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -7281,8 +7316,8 @@
       <c r="A154" s="22">
         <v>139</v>
       </c>
-      <c r="B154" s="24"/>
-      <c r="C154" s="27"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="33"/>
       <c r="D154" s="5" t="s">
         <v>269</v>
       </c>
@@ -7306,7 +7341,7 @@
       <c r="A155" s="22">
         <v>140</v>
       </c>
-      <c r="B155" s="25"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5" t="s">
         <v>148</v>
@@ -7331,7 +7366,7 @@
       <c r="A156" s="22">
         <v>141</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B156" s="28" t="s">
         <v>271</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -7360,7 +7395,7 @@
       <c r="A157" s="22">
         <v>142</v>
       </c>
-      <c r="B157" s="24"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="4" t="s">
         <v>275</v>
       </c>
@@ -7387,7 +7422,7 @@
       <c r="A158" s="22">
         <v>143</v>
       </c>
-      <c r="B158" s="24"/>
+      <c r="B158" s="29"/>
       <c r="C158" s="4" t="s">
         <v>278</v>
       </c>
@@ -7414,7 +7449,7 @@
       <c r="A159" s="22">
         <v>144</v>
       </c>
-      <c r="B159" s="25"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5" t="s">
         <v>148</v>
@@ -7439,7 +7474,7 @@
       <c r="A160" s="22">
         <v>145</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="28" t="s">
         <v>281</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -7468,8 +7503,8 @@
       <c r="A161" s="22">
         <v>146</v>
       </c>
-      <c r="B161" s="24"/>
-      <c r="C161" s="26" t="s">
+      <c r="B161" s="29"/>
+      <c r="C161" s="31" t="s">
         <v>284</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -7495,8 +7530,8 @@
       <c r="A162" s="22">
         <v>147</v>
       </c>
-      <c r="B162" s="24"/>
-      <c r="C162" s="27"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="33"/>
       <c r="D162" s="5" t="s">
         <v>287</v>
       </c>
@@ -7520,8 +7555,8 @@
       <c r="A163" s="22">
         <v>148</v>
       </c>
-      <c r="B163" s="24"/>
-      <c r="C163" s="26" t="s">
+      <c r="B163" s="29"/>
+      <c r="C163" s="31" t="s">
         <v>289</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -7547,8 +7582,8 @@
       <c r="A164" s="22">
         <v>149</v>
       </c>
-      <c r="B164" s="24"/>
-      <c r="C164" s="27"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="33"/>
       <c r="D164" s="5" t="s">
         <v>290</v>
       </c>
@@ -7572,7 +7607,7 @@
       <c r="A165" s="22">
         <v>150</v>
       </c>
-      <c r="B165" s="24"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="4" t="s">
         <v>293</v>
       </c>
@@ -7599,8 +7634,8 @@
       <c r="A166" s="22">
         <v>151</v>
       </c>
-      <c r="B166" s="24"/>
-      <c r="C166" s="26" t="s">
+      <c r="B166" s="29"/>
+      <c r="C166" s="31" t="s">
         <v>296</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -7626,8 +7661,8 @@
       <c r="A167" s="22">
         <v>152</v>
       </c>
-      <c r="B167" s="24"/>
-      <c r="C167" s="27"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="33"/>
       <c r="D167" s="5" t="s">
         <v>299</v>
       </c>
@@ -7651,8 +7686,8 @@
       <c r="A168" s="22">
         <v>153</v>
       </c>
-      <c r="B168" s="24"/>
-      <c r="C168" s="26" t="s">
+      <c r="B168" s="29"/>
+      <c r="C168" s="31" t="s">
         <v>301</v>
       </c>
       <c r="D168" s="5" t="s">
@@ -7678,8 +7713,8 @@
       <c r="A169" s="22">
         <v>154</v>
       </c>
-      <c r="B169" s="24"/>
-      <c r="C169" s="27"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="33"/>
       <c r="D169" s="5" t="s">
         <v>304</v>
       </c>
@@ -7703,8 +7738,8 @@
       <c r="A170" s="22">
         <v>155</v>
       </c>
-      <c r="B170" s="24"/>
-      <c r="C170" s="26" t="s">
+      <c r="B170" s="29"/>
+      <c r="C170" s="31" t="s">
         <v>306</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -7730,7 +7765,7 @@
       <c r="A171" s="22">
         <v>156</v>
       </c>
-      <c r="B171" s="24"/>
+      <c r="B171" s="29"/>
       <c r="C171" s="32"/>
       <c r="D171" s="5" t="s">
         <v>309</v>
@@ -7755,8 +7790,8 @@
       <c r="A172" s="22">
         <v>157</v>
       </c>
-      <c r="B172" s="24"/>
-      <c r="C172" s="27"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="33"/>
       <c r="D172" s="5" t="s">
         <v>311</v>
       </c>
@@ -7780,8 +7815,8 @@
       <c r="A173" s="22">
         <v>158</v>
       </c>
-      <c r="B173" s="24"/>
-      <c r="C173" s="26" t="s">
+      <c r="B173" s="29"/>
+      <c r="C173" s="31" t="s">
         <v>313</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -7807,8 +7842,8 @@
       <c r="A174" s="22">
         <v>159</v>
       </c>
-      <c r="B174" s="24"/>
-      <c r="C174" s="27"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="33"/>
       <c r="D174" s="5" t="s">
         <v>314</v>
       </c>
@@ -7832,7 +7867,7 @@
       <c r="A175" s="22">
         <v>160</v>
       </c>
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="29" t="s">
         <v>317</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -7861,7 +7896,7 @@
       <c r="A176" s="22">
         <v>161</v>
       </c>
-      <c r="B176" s="24"/>
+      <c r="B176" s="29"/>
       <c r="C176" s="4" t="s">
         <v>319</v>
       </c>
@@ -7888,8 +7923,8 @@
       <c r="A177" s="22">
         <v>162</v>
       </c>
-      <c r="B177" s="24"/>
-      <c r="C177" s="26" t="s">
+      <c r="B177" s="29"/>
+      <c r="C177" s="31" t="s">
         <v>322</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -7915,8 +7950,8 @@
       <c r="A178" s="22">
         <v>163</v>
       </c>
-      <c r="B178" s="25"/>
-      <c r="C178" s="27"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="33"/>
       <c r="D178" s="5" t="s">
         <v>323</v>
       </c>
@@ -7940,10 +7975,10 @@
       <c r="A179" s="22">
         <v>164</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="C179" s="26" t="s">
+      <c r="C179" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D179" s="5" t="s">
@@ -7954,13 +7989,13 @@
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="H179" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I179" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="J179" s="6"/>
       <c r="K179" s="7"/>
@@ -7969,7 +8004,7 @@
       <c r="A180" s="22">
         <v>165</v>
       </c>
-      <c r="B180" s="30"/>
+      <c r="B180" s="40"/>
       <c r="C180" s="32"/>
       <c r="D180" s="5" t="s">
         <v>329</v>
@@ -7978,14 +8013,14 @@
         <v>330</v>
       </c>
       <c r="F180" s="6"/>
-      <c r="G180" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>177</v>
+      <c r="G180" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H180" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I180" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="J180" s="6"/>
       <c r="K180" s="7"/>
@@ -7994,7 +8029,7 @@
       <c r="A181" s="22">
         <v>166</v>
       </c>
-      <c r="B181" s="30"/>
+      <c r="B181" s="40"/>
       <c r="C181" s="32"/>
       <c r="D181" s="5" t="s">
         <v>331</v>
@@ -8003,14 +8038,14 @@
         <v>332</v>
       </c>
       <c r="F181" s="6"/>
-      <c r="G181" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>177</v>
+      <c r="G181" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H181" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I181" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="J181" s="6"/>
       <c r="K181" s="7"/>
@@ -8019,8 +8054,8 @@
       <c r="A182" s="22">
         <v>167</v>
       </c>
-      <c r="B182" s="30"/>
-      <c r="C182" s="27"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="33"/>
       <c r="D182" s="5" t="s">
         <v>333</v>
       </c>
@@ -8028,14 +8063,14 @@
         <v>334</v>
       </c>
       <c r="F182" s="6"/>
-      <c r="G182" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I182" s="4" t="s">
-        <v>177</v>
+      <c r="G182" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H182" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I182" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="7"/>
@@ -8044,7 +8079,7 @@
       <c r="A183" s="22">
         <v>168</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="28" t="s">
         <v>335</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -8073,7 +8108,7 @@
       <c r="A184" s="22">
         <v>169</v>
       </c>
-      <c r="B184" s="24"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="4" t="s">
         <v>339</v>
       </c>
@@ -8100,7 +8135,7 @@
       <c r="A185" s="22">
         <v>170</v>
       </c>
-      <c r="B185" s="25"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="4" t="s">
         <v>342</v>
       </c>
@@ -8127,7 +8162,7 @@
       <c r="A186" s="22">
         <v>171</v>
       </c>
-      <c r="B186" s="30" t="s">
+      <c r="B186" s="40" t="s">
         <v>345</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -8156,7 +8191,7 @@
       <c r="A187" s="22">
         <v>172</v>
       </c>
-      <c r="B187" s="30"/>
+      <c r="B187" s="40"/>
       <c r="C187" s="4" t="s">
         <v>349</v>
       </c>
@@ -8183,7 +8218,7 @@
       <c r="A188" s="22">
         <v>173</v>
       </c>
-      <c r="B188" s="30"/>
+      <c r="B188" s="40"/>
       <c r="C188" s="4" t="s">
         <v>352</v>
       </c>
@@ -8210,7 +8245,7 @@
       <c r="A189" s="22">
         <v>174</v>
       </c>
-      <c r="B189" s="30"/>
+      <c r="B189" s="40"/>
       <c r="C189" s="4" t="s">
         <v>355</v>
       </c>
@@ -8237,7 +8272,7 @@
       <c r="A190" s="22">
         <v>175</v>
       </c>
-      <c r="B190" s="30"/>
+      <c r="B190" s="40"/>
       <c r="C190" s="4" t="s">
         <v>357</v>
       </c>
@@ -8264,7 +8299,7 @@
       <c r="A191" s="22">
         <v>176</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="40" t="s">
         <v>359</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -8293,7 +8328,7 @@
       <c r="A192" s="22">
         <v>177</v>
       </c>
-      <c r="B192" s="30"/>
+      <c r="B192" s="40"/>
       <c r="C192" s="4"/>
       <c r="D192" s="5" t="s">
         <v>363</v>
@@ -8318,7 +8353,7 @@
       <c r="A193" s="22">
         <v>178</v>
       </c>
-      <c r="B193" s="30"/>
+      <c r="B193" s="40"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5" t="s">
         <v>365</v>
@@ -8343,7 +8378,7 @@
       <c r="A194" s="22">
         <v>179</v>
       </c>
-      <c r="B194" s="30"/>
+      <c r="B194" s="40"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5" t="s">
         <v>367</v>
@@ -8368,7 +8403,7 @@
       <c r="A195" s="22">
         <v>180</v>
       </c>
-      <c r="B195" s="30"/>
+      <c r="B195" s="40"/>
       <c r="C195" s="4" t="s">
         <v>369</v>
       </c>
@@ -8395,7 +8430,7 @@
       <c r="A196" s="22">
         <v>181</v>
       </c>
-      <c r="B196" s="30"/>
+      <c r="B196" s="40"/>
       <c r="C196" s="4" t="s">
         <v>372</v>
       </c>
@@ -8422,7 +8457,7 @@
       <c r="A197" s="22">
         <v>182</v>
       </c>
-      <c r="B197" s="30"/>
+      <c r="B197" s="40"/>
       <c r="C197" s="4"/>
       <c r="D197" s="5" t="s">
         <v>375</v>
@@ -8447,7 +8482,7 @@
       <c r="A198" s="22">
         <v>183</v>
       </c>
-      <c r="B198" s="30"/>
+      <c r="B198" s="40"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5" t="s">
         <v>377</v>
@@ -8472,7 +8507,7 @@
       <c r="A199" s="22">
         <v>184</v>
       </c>
-      <c r="B199" s="30"/>
+      <c r="B199" s="40"/>
       <c r="C199" s="4" t="s">
         <v>379</v>
       </c>
@@ -8499,7 +8534,7 @@
       <c r="A200" s="22">
         <v>185</v>
       </c>
-      <c r="B200" s="30"/>
+      <c r="B200" s="40"/>
       <c r="C200" s="4" t="s">
         <v>357</v>
       </c>
@@ -8526,7 +8561,7 @@
       <c r="A201" s="22">
         <v>186</v>
       </c>
-      <c r="B201" s="30"/>
+      <c r="B201" s="40"/>
       <c r="C201" s="4" t="s">
         <v>382</v>
       </c>
@@ -8553,7 +8588,7 @@
       <c r="A202" s="22">
         <v>187</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="40" t="s">
         <v>384</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -8582,7 +8617,7 @@
       <c r="A203" s="22">
         <v>188</v>
       </c>
-      <c r="B203" s="30"/>
+      <c r="B203" s="40"/>
       <c r="C203" s="4"/>
       <c r="D203" s="5" t="s">
         <v>353</v>
@@ -8607,7 +8642,7 @@
       <c r="A204" s="22">
         <v>189</v>
       </c>
-      <c r="B204" s="30"/>
+      <c r="B204" s="40"/>
       <c r="C204" s="4" t="s">
         <v>382</v>
       </c>
@@ -8634,7 +8669,7 @@
       <c r="A205" s="22">
         <v>190</v>
       </c>
-      <c r="B205" s="30"/>
+      <c r="B205" s="40"/>
       <c r="C205" s="4" t="s">
         <v>388</v>
       </c>
@@ -8661,7 +8696,7 @@
       <c r="A206" s="22">
         <v>191</v>
       </c>
-      <c r="B206" s="30"/>
+      <c r="B206" s="40"/>
       <c r="C206" s="16" t="s">
         <v>391</v>
       </c>
@@ -8688,7 +8723,7 @@
       <c r="A207" s="22">
         <v>192</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B207" s="28" t="s">
         <v>394</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -8717,8 +8752,8 @@
       <c r="A208" s="22">
         <v>193</v>
       </c>
-      <c r="B208" s="24"/>
-      <c r="C208" s="26" t="s">
+      <c r="B208" s="29"/>
+      <c r="C208" s="31" t="s">
         <v>397</v>
       </c>
       <c r="D208" s="5" t="s">
@@ -8744,7 +8779,7 @@
       <c r="A209" s="22">
         <v>194</v>
       </c>
-      <c r="B209" s="24"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="32"/>
       <c r="D209" s="5" t="s">
         <v>400</v>
@@ -8769,8 +8804,8 @@
       <c r="A210" s="22">
         <v>195</v>
       </c>
-      <c r="B210" s="24"/>
-      <c r="C210" s="27"/>
+      <c r="B210" s="29"/>
+      <c r="C210" s="33"/>
       <c r="D210" s="5" t="s">
         <v>402</v>
       </c>
@@ -8794,7 +8829,7 @@
       <c r="A211" s="22">
         <v>196</v>
       </c>
-      <c r="B211" s="24"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="4" t="s">
         <v>404</v>
       </c>
@@ -8821,7 +8856,7 @@
       <c r="A212" s="22">
         <v>197</v>
       </c>
-      <c r="B212" s="24"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="4" t="s">
         <v>407</v>
       </c>
@@ -8848,8 +8883,8 @@
       <c r="A213" s="22">
         <v>198</v>
       </c>
-      <c r="B213" s="24"/>
-      <c r="C213" s="26" t="s">
+      <c r="B213" s="29"/>
+      <c r="C213" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D213" s="5" t="s">
@@ -8875,7 +8910,7 @@
       <c r="A214" s="22">
         <v>199</v>
       </c>
-      <c r="B214" s="24"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="32"/>
       <c r="D214" s="5" t="s">
         <v>411</v>
@@ -8900,8 +8935,8 @@
       <c r="A215" s="22">
         <v>200</v>
       </c>
-      <c r="B215" s="24"/>
-      <c r="C215" s="27"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="33"/>
       <c r="D215" s="5" t="s">
         <v>411</v>
       </c>
@@ -8925,7 +8960,7 @@
       <c r="A216" s="22">
         <v>201</v>
       </c>
-      <c r="B216" s="24"/>
+      <c r="B216" s="29"/>
       <c r="C216" s="4" t="s">
         <v>357</v>
       </c>
@@ -8952,7 +8987,7 @@
       <c r="A217" s="22">
         <v>202</v>
       </c>
-      <c r="B217" s="24"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="4" t="s">
         <v>382</v>
       </c>
@@ -8979,7 +9014,7 @@
       <c r="A218" s="22">
         <v>203</v>
       </c>
-      <c r="B218" s="25"/>
+      <c r="B218" s="30"/>
       <c r="C218" s="4" t="s">
         <v>418</v>
       </c>
@@ -9006,7 +9041,7 @@
       <c r="A219" s="22">
         <v>204</v>
       </c>
-      <c r="B219" s="36" t="s">
+      <c r="B219" s="37" t="s">
         <v>421</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -9035,8 +9070,8 @@
       <c r="A220" s="22">
         <v>205</v>
       </c>
-      <c r="B220" s="37"/>
-      <c r="C220" s="26" t="s">
+      <c r="B220" s="38"/>
+      <c r="C220" s="31" t="s">
         <v>397</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -9062,7 +9097,7 @@
       <c r="A221" s="22">
         <v>206</v>
       </c>
-      <c r="B221" s="37"/>
+      <c r="B221" s="38"/>
       <c r="C221" s="32"/>
       <c r="D221" s="5" t="s">
         <v>424</v>
@@ -9087,8 +9122,8 @@
       <c r="A222" s="22">
         <v>207</v>
       </c>
-      <c r="B222" s="37"/>
-      <c r="C222" s="27"/>
+      <c r="B222" s="38"/>
+      <c r="C222" s="33"/>
       <c r="D222" s="5" t="s">
         <v>424</v>
       </c>
@@ -9112,7 +9147,7 @@
       <c r="A223" s="22">
         <v>208</v>
       </c>
-      <c r="B223" s="37"/>
+      <c r="B223" s="38"/>
       <c r="C223" s="4" t="s">
         <v>407</v>
       </c>
@@ -9139,8 +9174,8 @@
       <c r="A224" s="22">
         <v>209</v>
       </c>
-      <c r="B224" s="37"/>
-      <c r="C224" s="26" t="s">
+      <c r="B224" s="38"/>
+      <c r="C224" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D224" s="5" t="s">
@@ -9166,7 +9201,7 @@
       <c r="A225" s="22">
         <v>210</v>
       </c>
-      <c r="B225" s="37"/>
+      <c r="B225" s="38"/>
       <c r="C225" s="32"/>
       <c r="D225" s="5" t="s">
         <v>426</v>
@@ -9191,8 +9226,8 @@
       <c r="A226" s="22">
         <v>211</v>
       </c>
-      <c r="B226" s="37"/>
-      <c r="C226" s="27"/>
+      <c r="B226" s="38"/>
+      <c r="C226" s="33"/>
       <c r="D226" s="5" t="s">
         <v>426</v>
       </c>
@@ -9216,7 +9251,7 @@
       <c r="A227" s="22">
         <v>212</v>
       </c>
-      <c r="B227" s="37"/>
+      <c r="B227" s="38"/>
       <c r="C227" s="4" t="s">
         <v>357</v>
       </c>
@@ -9243,7 +9278,7 @@
       <c r="A228" s="22">
         <v>213</v>
       </c>
-      <c r="B228" s="38"/>
+      <c r="B228" s="39"/>
       <c r="C228" s="4" t="s">
         <v>382</v>
       </c>
@@ -9270,7 +9305,7 @@
       <c r="A229" s="22">
         <v>214</v>
       </c>
-      <c r="B229" s="39" t="s">
+      <c r="B229" s="25" t="s">
         <v>429</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -9299,8 +9334,8 @@
       <c r="A230" s="22">
         <v>215</v>
       </c>
-      <c r="B230" s="40"/>
-      <c r="C230" s="26" t="s">
+      <c r="B230" s="26"/>
+      <c r="C230" s="31" t="s">
         <v>397</v>
       </c>
       <c r="D230" s="5" t="s">
@@ -9326,7 +9361,7 @@
       <c r="A231" s="22">
         <v>216</v>
       </c>
-      <c r="B231" s="40"/>
+      <c r="B231" s="26"/>
       <c r="C231" s="32"/>
       <c r="D231" s="5" t="s">
         <v>433</v>
@@ -9351,8 +9386,8 @@
       <c r="A232" s="22">
         <v>217</v>
       </c>
-      <c r="B232" s="40"/>
-      <c r="C232" s="27"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="33"/>
       <c r="D232" s="5" t="s">
         <v>433</v>
       </c>
@@ -9376,7 +9411,7 @@
       <c r="A233" s="22">
         <v>218</v>
       </c>
-      <c r="B233" s="40"/>
+      <c r="B233" s="26"/>
       <c r="C233" s="4" t="s">
         <v>407</v>
       </c>
@@ -9403,8 +9438,8 @@
       <c r="A234" s="22">
         <v>219</v>
       </c>
-      <c r="B234" s="40"/>
-      <c r="C234" s="26" t="s">
+      <c r="B234" s="26"/>
+      <c r="C234" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D234" s="5" t="s">
@@ -9430,7 +9465,7 @@
       <c r="A235" s="22">
         <v>220</v>
       </c>
-      <c r="B235" s="40"/>
+      <c r="B235" s="26"/>
       <c r="C235" s="32"/>
       <c r="D235" s="5" t="s">
         <v>435</v>
@@ -9455,8 +9490,8 @@
       <c r="A236" s="22">
         <v>221</v>
       </c>
-      <c r="B236" s="40"/>
-      <c r="C236" s="27"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="33"/>
       <c r="D236" s="5" t="s">
         <v>435</v>
       </c>
@@ -9480,7 +9515,7 @@
       <c r="A237" s="22">
         <v>222</v>
       </c>
-      <c r="B237" s="40"/>
+      <c r="B237" s="26"/>
       <c r="C237" s="4" t="s">
         <v>357</v>
       </c>
@@ -9507,7 +9542,7 @@
       <c r="A238" s="22">
         <v>223</v>
       </c>
-      <c r="B238" s="40"/>
+      <c r="B238" s="26"/>
       <c r="C238" s="4" t="s">
         <v>382</v>
       </c>
@@ -9534,7 +9569,7 @@
       <c r="A239" s="22">
         <v>224</v>
       </c>
-      <c r="B239" s="41"/>
+      <c r="B239" s="27"/>
       <c r="C239" s="4" t="s">
         <v>404</v>
       </c>
@@ -9561,7 +9596,7 @@
       <c r="A240" s="22">
         <v>225</v>
       </c>
-      <c r="B240" s="39" t="s">
+      <c r="B240" s="25" t="s">
         <v>439</v>
       </c>
       <c r="C240" s="4" t="s">
@@ -9590,7 +9625,7 @@
       <c r="A241" s="22">
         <v>226</v>
       </c>
-      <c r="B241" s="40"/>
+      <c r="B241" s="26"/>
       <c r="C241" s="4" t="s">
         <v>442</v>
       </c>
@@ -9617,7 +9652,7 @@
       <c r="A242" s="22">
         <v>227</v>
       </c>
-      <c r="B242" s="40"/>
+      <c r="B242" s="26"/>
       <c r="C242" s="4" t="s">
         <v>445</v>
       </c>
@@ -9644,7 +9679,7 @@
       <c r="A243" s="22">
         <v>228</v>
       </c>
-      <c r="B243" s="40"/>
+      <c r="B243" s="26"/>
       <c r="C243" s="4"/>
       <c r="D243" s="5" t="s">
         <v>448</v>
@@ -9669,7 +9704,7 @@
       <c r="A244" s="22">
         <v>229</v>
       </c>
-      <c r="B244" s="41"/>
+      <c r="B244" s="27"/>
       <c r="C244" s="4"/>
       <c r="D244" s="5" t="s">
         <v>450</v>
@@ -9694,7 +9729,7 @@
       <c r="A245" s="22">
         <v>230</v>
       </c>
-      <c r="B245" s="39" t="s">
+      <c r="B245" s="25" t="s">
         <v>452</v>
       </c>
       <c r="C245" s="4" t="s">
@@ -9723,8 +9758,8 @@
       <c r="A246" s="22">
         <v>231</v>
       </c>
-      <c r="B246" s="40"/>
-      <c r="C246" s="26" t="s">
+      <c r="B246" s="26"/>
+      <c r="C246" s="31" t="s">
         <v>455</v>
       </c>
       <c r="D246" s="5" t="s">
@@ -9750,7 +9785,7 @@
       <c r="A247" s="22">
         <v>232</v>
       </c>
-      <c r="B247" s="40"/>
+      <c r="B247" s="26"/>
       <c r="C247" s="32"/>
       <c r="D247" s="5" t="s">
         <v>458</v>
@@ -9775,7 +9810,7 @@
       <c r="A248" s="22">
         <v>233</v>
       </c>
-      <c r="B248" s="40"/>
+      <c r="B248" s="26"/>
       <c r="C248" s="32"/>
       <c r="D248" s="5" t="s">
         <v>460</v>
@@ -9800,8 +9835,8 @@
       <c r="A249" s="22">
         <v>234</v>
       </c>
-      <c r="B249" s="40"/>
-      <c r="C249" s="27"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="33"/>
       <c r="D249" s="5" t="s">
         <v>462</v>
       </c>
@@ -9825,7 +9860,7 @@
       <c r="A250" s="22">
         <v>235</v>
       </c>
-      <c r="B250" s="40"/>
+      <c r="B250" s="26"/>
       <c r="C250" s="4" t="s">
         <v>464</v>
       </c>
@@ -9852,7 +9887,7 @@
       <c r="A251" s="22">
         <v>236</v>
       </c>
-      <c r="B251" s="40"/>
+      <c r="B251" s="26"/>
       <c r="C251" s="4" t="s">
         <v>467</v>
       </c>
@@ -9879,7 +9914,7 @@
       <c r="A252" s="22">
         <v>237</v>
       </c>
-      <c r="B252" s="40"/>
+      <c r="B252" s="26"/>
       <c r="C252" s="4" t="s">
         <v>470</v>
       </c>
@@ -9906,7 +9941,7 @@
       <c r="A253" s="22">
         <v>238</v>
       </c>
-      <c r="B253" s="40"/>
+      <c r="B253" s="26"/>
       <c r="C253" s="4" t="s">
         <v>473</v>
       </c>
@@ -9933,7 +9968,7 @@
       <c r="A254" s="22">
         <v>239</v>
       </c>
-      <c r="B254" s="41"/>
+      <c r="B254" s="27"/>
       <c r="C254" s="4" t="s">
         <v>476</v>
       </c>
@@ -9960,7 +9995,7 @@
       <c r="A255" s="22">
         <v>240</v>
       </c>
-      <c r="B255" s="39" t="s">
+      <c r="B255" s="25" t="s">
         <v>479</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -9989,7 +10024,7 @@
       <c r="A256" s="22">
         <v>241</v>
       </c>
-      <c r="B256" s="40"/>
+      <c r="B256" s="26"/>
       <c r="C256" s="4" t="s">
         <v>482</v>
       </c>
@@ -10016,7 +10051,7 @@
       <c r="A257" s="22">
         <v>242</v>
       </c>
-      <c r="B257" s="40"/>
+      <c r="B257" s="26"/>
       <c r="C257" s="4" t="s">
         <v>151</v>
       </c>
@@ -10043,8 +10078,8 @@
       <c r="A258" s="22">
         <v>243</v>
       </c>
-      <c r="B258" s="40"/>
-      <c r="C258" s="26" t="s">
+      <c r="B258" s="26"/>
+      <c r="C258" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D258" s="5" t="s">
@@ -10070,7 +10105,7 @@
       <c r="A259" s="22">
         <v>244</v>
       </c>
-      <c r="B259" s="40"/>
+      <c r="B259" s="26"/>
       <c r="C259" s="32"/>
       <c r="D259" s="5" t="s">
         <v>490</v>
@@ -10095,8 +10130,8 @@
       <c r="A260" s="22">
         <v>245</v>
       </c>
-      <c r="B260" s="40"/>
-      <c r="C260" s="27"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="33"/>
       <c r="D260" s="5" t="s">
         <v>492</v>
       </c>
@@ -10120,7 +10155,7 @@
       <c r="A261" s="22">
         <v>246</v>
       </c>
-      <c r="B261" s="40"/>
+      <c r="B261" s="26"/>
       <c r="C261" s="17" t="s">
         <v>494</v>
       </c>
@@ -10147,7 +10182,7 @@
       <c r="A262" s="22">
         <v>247</v>
       </c>
-      <c r="B262" s="40"/>
+      <c r="B262" s="26"/>
       <c r="C262" s="4" t="s">
         <v>497</v>
       </c>
@@ -10174,7 +10209,7 @@
       <c r="A263" s="22">
         <v>248</v>
       </c>
-      <c r="B263" s="40"/>
+      <c r="B263" s="26"/>
       <c r="C263" s="4" t="s">
         <v>500</v>
       </c>
@@ -10201,7 +10236,7 @@
       <c r="A264" s="22">
         <v>249</v>
       </c>
-      <c r="B264" s="41"/>
+      <c r="B264" s="27"/>
       <c r="C264" s="4" t="s">
         <v>503</v>
       </c>
@@ -10228,7 +10263,7 @@
       <c r="A265" s="22">
         <v>250</v>
       </c>
-      <c r="B265" s="39" t="s">
+      <c r="B265" s="25" t="s">
         <v>506</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -10257,7 +10292,7 @@
       <c r="A266" s="22">
         <v>251</v>
       </c>
-      <c r="B266" s="40"/>
+      <c r="B266" s="26"/>
       <c r="C266" s="4" t="s">
         <v>509</v>
       </c>
@@ -10284,7 +10319,7 @@
       <c r="A267" s="22">
         <v>252</v>
       </c>
-      <c r="B267" s="40"/>
+      <c r="B267" s="26"/>
       <c r="C267" s="4" t="s">
         <v>512</v>
       </c>
@@ -10311,7 +10346,7 @@
       <c r="A268" s="22">
         <v>253</v>
       </c>
-      <c r="B268" s="40"/>
+      <c r="B268" s="26"/>
       <c r="C268" s="4" t="s">
         <v>515</v>
       </c>
@@ -10338,7 +10373,7 @@
       <c r="A269" s="22">
         <v>254</v>
       </c>
-      <c r="B269" s="40"/>
+      <c r="B269" s="26"/>
       <c r="C269" s="4" t="s">
         <v>500</v>
       </c>
@@ -10365,7 +10400,7 @@
       <c r="A270" s="22">
         <v>255</v>
       </c>
-      <c r="B270" s="41"/>
+      <c r="B270" s="27"/>
       <c r="C270" s="4" t="s">
         <v>497</v>
       </c>
@@ -10392,7 +10427,7 @@
       <c r="A271" s="22">
         <v>256</v>
       </c>
-      <c r="B271" s="39" t="s">
+      <c r="B271" s="25" t="s">
         <v>520</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -10421,7 +10456,7 @@
       <c r="A272" s="22">
         <v>257</v>
       </c>
-      <c r="B272" s="40"/>
+      <c r="B272" s="26"/>
       <c r="C272" s="4" t="s">
         <v>482</v>
       </c>
@@ -10448,7 +10483,7 @@
       <c r="A273" s="22">
         <v>258</v>
       </c>
-      <c r="B273" s="40"/>
+      <c r="B273" s="26"/>
       <c r="C273" s="4" t="s">
         <v>151</v>
       </c>
@@ -10475,8 +10510,8 @@
       <c r="A274" s="22">
         <v>259</v>
       </c>
-      <c r="B274" s="40"/>
-      <c r="C274" s="26" t="s">
+      <c r="B274" s="26"/>
+      <c r="C274" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D274" s="5" t="s">
@@ -10502,7 +10537,7 @@
       <c r="A275" s="22">
         <v>260</v>
       </c>
-      <c r="B275" s="40"/>
+      <c r="B275" s="26"/>
       <c r="C275" s="32"/>
       <c r="D275" s="5" t="s">
         <v>490</v>
@@ -10527,8 +10562,8 @@
       <c r="A276" s="22">
         <v>261</v>
       </c>
-      <c r="B276" s="40"/>
-      <c r="C276" s="27"/>
+      <c r="B276" s="26"/>
+      <c r="C276" s="33"/>
       <c r="D276" s="5" t="s">
         <v>492</v>
       </c>
@@ -10552,7 +10587,7 @@
       <c r="A277" s="22">
         <v>262</v>
       </c>
-      <c r="B277" s="40"/>
+      <c r="B277" s="26"/>
       <c r="C277" s="17" t="s">
         <v>494</v>
       </c>
@@ -10579,7 +10614,7 @@
       <c r="A278" s="22">
         <v>263</v>
       </c>
-      <c r="B278" s="40"/>
+      <c r="B278" s="26"/>
       <c r="C278" s="4" t="s">
         <v>497</v>
       </c>
@@ -10606,7 +10641,7 @@
       <c r="A279" s="22">
         <v>264</v>
       </c>
-      <c r="B279" s="41"/>
+      <c r="B279" s="27"/>
       <c r="C279" s="4" t="s">
         <v>500</v>
       </c>
@@ -10633,7 +10668,7 @@
       <c r="A280" s="22">
         <v>265</v>
       </c>
-      <c r="B280" s="39" t="s">
+      <c r="B280" s="25" t="s">
         <v>530</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -10662,7 +10697,7 @@
       <c r="A281" s="22">
         <v>266</v>
       </c>
-      <c r="B281" s="40"/>
+      <c r="B281" s="26"/>
       <c r="C281" s="4" t="s">
         <v>482</v>
       </c>
@@ -10689,7 +10724,7 @@
       <c r="A282" s="22">
         <v>267</v>
       </c>
-      <c r="B282" s="40"/>
+      <c r="B282" s="26"/>
       <c r="C282" s="4" t="s">
         <v>151</v>
       </c>
@@ -10716,7 +10751,7 @@
       <c r="A283" s="22">
         <v>268</v>
       </c>
-      <c r="B283" s="40"/>
+      <c r="B283" s="26"/>
       <c r="C283" s="4" t="s">
         <v>500</v>
       </c>
@@ -10743,7 +10778,7 @@
       <c r="A284" s="22">
         <v>269</v>
       </c>
-      <c r="B284" s="40"/>
+      <c r="B284" s="26"/>
       <c r="C284" s="4" t="s">
         <v>497</v>
       </c>
@@ -10770,8 +10805,8 @@
       <c r="A285" s="22">
         <v>270</v>
       </c>
-      <c r="B285" s="40"/>
-      <c r="C285" s="26" t="s">
+      <c r="B285" s="26"/>
+      <c r="C285" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D285" s="5" t="s">
@@ -10797,7 +10832,7 @@
       <c r="A286" s="22">
         <v>271</v>
       </c>
-      <c r="B286" s="40"/>
+      <c r="B286" s="26"/>
       <c r="C286" s="32"/>
       <c r="D286" s="5" t="s">
         <v>490</v>
@@ -10822,7 +10857,7 @@
       <c r="A287" s="22">
         <v>272</v>
       </c>
-      <c r="B287" s="40"/>
+      <c r="B287" s="26"/>
       <c r="C287" s="32"/>
       <c r="D287" s="5" t="s">
         <v>492</v>
@@ -10847,7 +10882,7 @@
       <c r="A288" s="22">
         <v>273</v>
       </c>
-      <c r="B288" s="40"/>
+      <c r="B288" s="26"/>
       <c r="C288" s="32"/>
       <c r="D288" s="5" t="s">
         <v>539</v>
@@ -10872,7 +10907,7 @@
       <c r="A289" s="22">
         <v>274</v>
       </c>
-      <c r="B289" s="40"/>
+      <c r="B289" s="26"/>
       <c r="C289" s="32"/>
       <c r="D289" s="5" t="s">
         <v>541</v>
@@ -10897,8 +10932,8 @@
       <c r="A290" s="22">
         <v>275</v>
       </c>
-      <c r="B290" s="41"/>
-      <c r="C290" s="27"/>
+      <c r="B290" s="27"/>
+      <c r="C290" s="33"/>
       <c r="D290" s="5" t="s">
         <v>541</v>
       </c>
@@ -10922,7 +10957,7 @@
       <c r="A291" s="22">
         <v>276</v>
       </c>
-      <c r="B291" s="39" t="s">
+      <c r="B291" s="25" t="s">
         <v>544</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -10951,7 +10986,7 @@
       <c r="A292" s="22">
         <v>277</v>
       </c>
-      <c r="B292" s="40"/>
+      <c r="B292" s="26"/>
       <c r="C292" s="4" t="s">
         <v>482</v>
       </c>
@@ -10978,7 +11013,7 @@
       <c r="A293" s="22">
         <v>278</v>
       </c>
-      <c r="B293" s="40"/>
+      <c r="B293" s="26"/>
       <c r="C293" s="4" t="s">
         <v>151</v>
       </c>
@@ -11005,7 +11040,7 @@
       <c r="A294" s="22">
         <v>279</v>
       </c>
-      <c r="B294" s="40"/>
+      <c r="B294" s="26"/>
       <c r="C294" s="4" t="s">
         <v>497</v>
       </c>
@@ -11032,8 +11067,8 @@
       <c r="A295" s="22">
         <v>280</v>
       </c>
-      <c r="B295" s="40"/>
-      <c r="C295" s="26" t="s">
+      <c r="B295" s="26"/>
+      <c r="C295" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D295" s="5" t="s">
@@ -11059,7 +11094,7 @@
       <c r="A296" s="22">
         <v>281</v>
       </c>
-      <c r="B296" s="40"/>
+      <c r="B296" s="26"/>
       <c r="C296" s="32"/>
       <c r="D296" s="5" t="s">
         <v>490</v>
@@ -11084,7 +11119,7 @@
       <c r="A297" s="22">
         <v>282</v>
       </c>
-      <c r="B297" s="40"/>
+      <c r="B297" s="26"/>
       <c r="C297" s="32"/>
       <c r="D297" s="5" t="s">
         <v>492</v>
@@ -11109,8 +11144,8 @@
       <c r="A298" s="22">
         <v>283</v>
       </c>
-      <c r="B298" s="40"/>
-      <c r="C298" s="27"/>
+      <c r="B298" s="26"/>
+      <c r="C298" s="33"/>
       <c r="D298" s="5" t="s">
         <v>550</v>
       </c>
@@ -11134,7 +11169,7 @@
       <c r="A299" s="22">
         <v>284</v>
       </c>
-      <c r="B299" s="40"/>
+      <c r="B299" s="26"/>
       <c r="C299" s="4" t="s">
         <v>552</v>
       </c>
@@ -11161,7 +11196,7 @@
       <c r="A300" s="22">
         <v>285</v>
       </c>
-      <c r="B300" s="41"/>
+      <c r="B300" s="27"/>
       <c r="C300" s="4" t="s">
         <v>500</v>
       </c>
@@ -11188,7 +11223,7 @@
       <c r="A301" s="22">
         <v>286</v>
       </c>
-      <c r="B301" s="42" t="s">
+      <c r="B301" s="34" t="s">
         <v>556</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -11217,7 +11252,7 @@
       <c r="A302" s="22">
         <v>287</v>
       </c>
-      <c r="B302" s="43"/>
+      <c r="B302" s="35"/>
       <c r="C302" s="4" t="s">
         <v>552</v>
       </c>
@@ -11244,7 +11279,7 @@
       <c r="A303" s="22">
         <v>288</v>
       </c>
-      <c r="B303" s="43"/>
+      <c r="B303" s="35"/>
       <c r="C303" s="4" t="s">
         <v>500</v>
       </c>
@@ -11271,7 +11306,7 @@
       <c r="A304" s="22">
         <v>289</v>
       </c>
-      <c r="B304" s="43"/>
+      <c r="B304" s="35"/>
       <c r="C304" s="4" t="s">
         <v>497</v>
       </c>
@@ -11298,7 +11333,7 @@
       <c r="A305" s="22">
         <v>290</v>
       </c>
-      <c r="B305" s="44"/>
+      <c r="B305" s="36"/>
       <c r="C305" s="4" t="s">
         <v>561</v>
       </c>
@@ -11325,7 +11360,7 @@
       <c r="A306" s="22">
         <v>291</v>
       </c>
-      <c r="B306" s="39" t="s">
+      <c r="B306" s="25" t="s">
         <v>564</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -11354,7 +11389,7 @@
       <c r="A307" s="22">
         <v>292</v>
       </c>
-      <c r="B307" s="40"/>
+      <c r="B307" s="26"/>
       <c r="C307" s="4" t="s">
         <v>500</v>
       </c>
@@ -11381,7 +11416,7 @@
       <c r="A308" s="22">
         <v>293</v>
       </c>
-      <c r="B308" s="40"/>
+      <c r="B308" s="26"/>
       <c r="C308" s="4" t="s">
         <v>497</v>
       </c>
@@ -11408,8 +11443,8 @@
       <c r="A309" s="22">
         <v>294</v>
       </c>
-      <c r="B309" s="40"/>
-      <c r="C309" s="26" t="s">
+      <c r="B309" s="26"/>
+      <c r="C309" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D309" s="5" t="s">
@@ -11435,7 +11470,7 @@
       <c r="A310" s="22">
         <v>295</v>
       </c>
-      <c r="B310" s="40"/>
+      <c r="B310" s="26"/>
       <c r="C310" s="32"/>
       <c r="D310" s="5" t="s">
         <v>490</v>
@@ -11460,8 +11495,8 @@
       <c r="A311" s="22">
         <v>296</v>
       </c>
-      <c r="B311" s="40"/>
-      <c r="C311" s="27"/>
+      <c r="B311" s="26"/>
+      <c r="C311" s="33"/>
       <c r="D311" s="5" t="s">
         <v>492</v>
       </c>
@@ -11485,8 +11520,8 @@
       <c r="A312" s="22">
         <v>297</v>
       </c>
-      <c r="B312" s="40"/>
-      <c r="C312" s="26" t="s">
+      <c r="B312" s="26"/>
+      <c r="C312" s="31" t="s">
         <v>569</v>
       </c>
       <c r="D312" s="5" t="s">
@@ -11512,7 +11547,7 @@
       <c r="A313" s="22">
         <v>298</v>
       </c>
-      <c r="B313" s="40"/>
+      <c r="B313" s="26"/>
       <c r="C313" s="32"/>
       <c r="D313" s="5" t="s">
         <v>572</v>
@@ -11537,8 +11572,8 @@
       <c r="A314" s="22">
         <v>299</v>
       </c>
-      <c r="B314" s="40"/>
-      <c r="C314" s="27"/>
+      <c r="B314" s="26"/>
+      <c r="C314" s="33"/>
       <c r="D314" s="5" t="s">
         <v>574</v>
       </c>
@@ -11562,8 +11597,8 @@
       <c r="A315" s="22">
         <v>300</v>
       </c>
-      <c r="B315" s="40"/>
-      <c r="C315" s="26" t="s">
+      <c r="B315" s="26"/>
+      <c r="C315" s="31" t="s">
         <v>576</v>
       </c>
       <c r="D315" s="5" t="s">
@@ -11589,8 +11624,8 @@
       <c r="A316" s="22">
         <v>301</v>
       </c>
-      <c r="B316" s="40"/>
-      <c r="C316" s="27"/>
+      <c r="B316" s="26"/>
+      <c r="C316" s="33"/>
       <c r="D316" s="5" t="s">
         <v>579</v>
       </c>
@@ -11614,7 +11649,7 @@
       <c r="A317" s="22">
         <v>302</v>
       </c>
-      <c r="B317" s="41"/>
+      <c r="B317" s="27"/>
       <c r="C317" s="4" t="s">
         <v>581</v>
       </c>
@@ -11641,7 +11676,7 @@
       <c r="A318" s="22">
         <v>303</v>
       </c>
-      <c r="B318" s="39" t="s">
+      <c r="B318" s="25" t="s">
         <v>584</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -11670,7 +11705,7 @@
       <c r="A319" s="22">
         <v>304</v>
       </c>
-      <c r="B319" s="40"/>
+      <c r="B319" s="26"/>
       <c r="C319" s="4" t="s">
         <v>494</v>
       </c>
@@ -11697,7 +11732,7 @@
       <c r="A320" s="22">
         <v>305</v>
       </c>
-      <c r="B320" s="40"/>
+      <c r="B320" s="26"/>
       <c r="C320" s="4" t="s">
         <v>500</v>
       </c>
@@ -11724,7 +11759,7 @@
       <c r="A321" s="22">
         <v>306</v>
       </c>
-      <c r="B321" s="41"/>
+      <c r="B321" s="27"/>
       <c r="C321" s="4" t="s">
         <v>497</v>
       </c>
@@ -11749,6 +11784,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B129"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B130:B145"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="B149:B155"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B160:B174"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="B219:B228"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="B191:B201"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="B255:B264"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="B265:B270"/>
+    <mergeCell ref="B271:B279"/>
+    <mergeCell ref="C274:C276"/>
     <mergeCell ref="B318:B321"/>
     <mergeCell ref="B183:B185"/>
     <mergeCell ref="B291:B300"/>
@@ -11765,82 +11870,12 @@
     <mergeCell ref="C234:C236"/>
     <mergeCell ref="B240:B244"/>
     <mergeCell ref="B245:B254"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="B255:B264"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="B265:B270"/>
-    <mergeCell ref="B271:B279"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="B219:B228"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="B191:B201"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B160:B174"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B130:B145"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B87:B96"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B129"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K211" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K211">
       <formula1>$C$2:$C$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I321" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I321">
       <formula1>$B$1:$B$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -2730,7 +2730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2804,13 +2804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2825,10 +2819,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2840,41 +2873,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3349,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3540,11 +3557,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
@@ -3565,11 +3582,11 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -3612,7 +3629,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3641,7 +3658,7 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3670,7 +3687,7 @@
       <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3699,7 +3716,7 @@
       <c r="A19" s="22">
         <v>4</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3728,7 +3745,7 @@
       <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3757,7 +3774,7 @@
       <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3784,10 +3801,10 @@
       <c r="A22" s="22">
         <v>7</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3813,8 +3830,8 @@
       <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3838,8 +3855,8 @@
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3865,8 +3882,8 @@
       <c r="A25" s="22">
         <v>10</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3890,7 +3907,7 @@
       <c r="A26" s="22">
         <v>11</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3917,7 +3934,7 @@
       <c r="A27" s="22">
         <v>12</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
@@ -3944,7 +3961,7 @@
       <c r="A28" s="22">
         <v>13</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
@@ -3971,7 +3988,7 @@
       <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3998,7 +4015,7 @@
       <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -4027,7 +4044,7 @@
       <c r="A31" s="22">
         <v>16</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -4056,7 +4073,7 @@
       <c r="A32" s="22">
         <v>17</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
@@ -4085,7 +4102,7 @@
       <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4116,7 +4133,7 @@
       <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4143,7 +4160,7 @@
       <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4170,7 +4187,7 @@
       <c r="A36" s="22">
         <v>21</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
@@ -4197,7 +4214,7 @@
       <c r="A37" s="22">
         <v>22</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4226,7 +4243,7 @@
       <c r="A38" s="22">
         <v>23</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -4255,7 +4272,7 @@
       <c r="A39" s="22">
         <v>24</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
@@ -4284,7 +4301,7 @@
       <c r="A40" s="22">
         <v>25</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4313,7 +4330,7 @@
       <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
@@ -4342,7 +4359,7 @@
       <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
@@ -4369,7 +4386,7 @@
       <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
@@ -4396,7 +4413,7 @@
       <c r="A44" s="22">
         <v>29</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4425,7 +4442,7 @@
       <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="4" t="s">
         <v>89</v>
       </c>
@@ -4452,7 +4469,7 @@
       <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="4" t="s">
         <v>71</v>
       </c>
@@ -4481,7 +4498,7 @@
       <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
@@ -4510,7 +4527,7 @@
       <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4539,7 +4556,7 @@
       <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B49" s="30"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
@@ -4568,7 +4585,7 @@
       <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="36" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4597,7 +4614,7 @@
       <c r="A51" s="22">
         <v>36</v>
       </c>
-      <c r="B51" s="43"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
@@ -4626,7 +4643,7 @@
       <c r="A52" s="22">
         <v>37</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
@@ -4653,7 +4670,7 @@
       <c r="A53" s="22">
         <v>38</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="26" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4682,7 +4699,7 @@
       <c r="A54" s="22">
         <v>39</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
@@ -4711,7 +4728,7 @@
       <c r="A55" s="22">
         <v>40</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4740,7 +4757,7 @@
       <c r="A56" s="22">
         <v>41</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
@@ -4769,7 +4786,7 @@
       <c r="A57" s="22">
         <v>42</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
@@ -4798,10 +4815,10 @@
       <c r="A58" s="22">
         <v>43</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4827,8 +4844,8 @@
       <c r="A59" s="22">
         <v>44</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="5" t="s">
         <v>123</v>
       </c>
@@ -4852,8 +4869,8 @@
       <c r="A60" s="22">
         <v>45</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="5" t="s">
         <v>125</v>
       </c>
@@ -4877,8 +4894,8 @@
       <c r="A61" s="22">
         <v>46</v>
       </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="5" t="s">
         <v>593</v>
       </c>
@@ -4902,8 +4919,8 @@
       <c r="A62" s="22">
         <v>47</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="5" t="s">
         <v>597</v>
       </c>
@@ -4927,8 +4944,8 @@
       <c r="A63" s="22">
         <v>48</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="41"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="5" t="s">
         <v>592</v>
       </c>
@@ -4952,7 +4969,7 @@
       <c r="A64" s="22">
         <v>49</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="26" t="s">
         <v>599</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -4981,7 +4998,7 @@
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="21" t="s">
         <v>601</v>
       </c>
@@ -5008,7 +5025,7 @@
       <c r="A66" s="22">
         <v>51</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="22" t="s">
         <v>594</v>
       </c>
@@ -5035,7 +5052,7 @@
       <c r="A67" s="22">
         <v>52</v>
       </c>
-      <c r="B67" s="30"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="24" t="s">
         <v>228</v>
       </c>
@@ -5062,10 +5079,10 @@
       <c r="A68" s="22">
         <v>53</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -5091,8 +5108,8 @@
       <c r="A69" s="22">
         <v>54</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="5" t="s">
         <v>133</v>
       </c>
@@ -5118,8 +5135,8 @@
       <c r="A70" s="22">
         <v>55</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="33"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="5" t="s">
         <v>136</v>
       </c>
@@ -5145,7 +5162,7 @@
       <c r="A71" s="22">
         <v>56</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="4" t="s">
         <v>138</v>
       </c>
@@ -5172,8 +5189,8 @@
       <c r="A72" s="22">
         <v>57</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="41" t="s">
+      <c r="B72" s="27"/>
+      <c r="C72" s="33" t="s">
         <v>141</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -5199,8 +5216,8 @@
       <c r="A73" s="22">
         <v>58</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="41"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="5" t="s">
         <v>144</v>
       </c>
@@ -5224,8 +5241,8 @@
       <c r="A74" s="22">
         <v>59</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="41"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="5" t="s">
         <v>146</v>
       </c>
@@ -5249,7 +5266,7 @@
       <c r="A75" s="22">
         <v>60</v>
       </c>
-      <c r="B75" s="29"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="22" t="s">
         <v>228</v>
       </c>
@@ -5276,7 +5293,7 @@
       <c r="A76" s="22">
         <v>61</v>
       </c>
-      <c r="B76" s="30"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5" t="s">
         <v>148</v>
@@ -5301,10 +5318,10 @@
       <c r="A77" s="22">
         <v>62</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="33" t="s">
         <v>151</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -5332,8 +5349,8 @@
       <c r="A78" s="22">
         <v>63</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="41"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="5" t="s">
         <v>155</v>
       </c>
@@ -5357,8 +5374,8 @@
       <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="41" t="s">
+      <c r="B79" s="27"/>
+      <c r="C79" s="33" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -5384,8 +5401,8 @@
       <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="41"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="5" t="s">
         <v>160</v>
       </c>
@@ -5409,8 +5426,8 @@
       <c r="A81" s="22">
         <v>66</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="41"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="5" t="s">
         <v>162</v>
       </c>
@@ -5434,8 +5451,8 @@
       <c r="A82" s="22">
         <v>67</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="41"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="5" t="s">
         <v>164</v>
       </c>
@@ -5459,7 +5476,7 @@
       <c r="A83" s="22">
         <v>68</v>
       </c>
-      <c r="B83" s="29"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="22" t="s">
         <v>594</v>
       </c>
@@ -5486,7 +5503,7 @@
       <c r="A84" s="22">
         <v>69</v>
       </c>
-      <c r="B84" s="29"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="4" t="s">
         <v>138</v>
       </c>
@@ -5513,7 +5530,7 @@
       <c r="A85" s="22">
         <v>70</v>
       </c>
-      <c r="B85" s="29"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="22" t="s">
         <v>228</v>
       </c>
@@ -5540,7 +5557,7 @@
       <c r="A86" s="22">
         <v>71</v>
       </c>
-      <c r="B86" s="30"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5" t="s">
         <v>148</v>
@@ -5565,10 +5582,10 @@
       <c r="A87" s="22">
         <v>72</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="33" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5594,8 +5611,8 @@
       <c r="A88" s="22">
         <v>73</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="41"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="33"/>
       <c r="D88" s="5" t="s">
         <v>155</v>
       </c>
@@ -5619,8 +5636,8 @@
       <c r="A89" s="22">
         <v>74</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="41" t="s">
+      <c r="B89" s="34"/>
+      <c r="C89" s="33" t="s">
         <v>157</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5646,8 +5663,8 @@
       <c r="A90" s="22">
         <v>75</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="41"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="33"/>
       <c r="D90" s="5" t="s">
         <v>160</v>
       </c>
@@ -5671,8 +5688,8 @@
       <c r="A91" s="22">
         <v>76</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="41"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="5" t="s">
         <v>162</v>
       </c>
@@ -5696,8 +5713,8 @@
       <c r="A92" s="22">
         <v>77</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="41"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="5" t="s">
         <v>164</v>
       </c>
@@ -5721,7 +5738,7 @@
       <c r="A93" s="22">
         <v>78</v>
       </c>
-      <c r="B93" s="40"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="22" t="s">
         <v>594</v>
       </c>
@@ -5748,7 +5765,7 @@
       <c r="A94" s="22">
         <v>79</v>
       </c>
-      <c r="B94" s="40"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="4" t="s">
         <v>138</v>
       </c>
@@ -5775,7 +5792,7 @@
       <c r="A95" s="22">
         <v>80</v>
       </c>
-      <c r="B95" s="40"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="22" t="s">
         <v>228</v>
       </c>
@@ -5802,7 +5819,7 @@
       <c r="A96" s="22">
         <v>81</v>
       </c>
-      <c r="B96" s="40"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5" t="s">
         <v>148</v>
@@ -5827,7 +5844,7 @@
       <c r="A97" s="22">
         <v>82</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="34" t="s">
         <v>168</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5856,7 +5873,7 @@
       <c r="A98" s="22">
         <v>83</v>
       </c>
-      <c r="B98" s="40"/>
+      <c r="B98" s="34"/>
       <c r="C98" s="22" t="s">
         <v>228</v>
       </c>
@@ -5883,7 +5900,7 @@
       <c r="A99" s="22">
         <v>84</v>
       </c>
-      <c r="B99" s="40"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5" t="s">
         <v>148</v>
@@ -5908,7 +5925,7 @@
       <c r="A100" s="22">
         <v>85</v>
       </c>
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="34" t="s">
         <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -5937,7 +5954,7 @@
       <c r="A101" s="22">
         <v>86</v>
       </c>
-      <c r="B101" s="40"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="4" t="s">
         <v>173</v>
       </c>
@@ -5964,8 +5981,8 @@
       <c r="A102" s="22">
         <v>87</v>
       </c>
-      <c r="B102" s="40"/>
-      <c r="C102" s="41" t="s">
+      <c r="B102" s="34"/>
+      <c r="C102" s="33" t="s">
         <v>176</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -5993,8 +6010,8 @@
       <c r="A103" s="22">
         <v>88</v>
       </c>
-      <c r="B103" s="40"/>
-      <c r="C103" s="41"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="33"/>
       <c r="D103" s="5" t="s">
         <v>608</v>
       </c>
@@ -6020,8 +6037,8 @@
       <c r="A104" s="22">
         <v>89</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="41"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="33"/>
       <c r="D104" s="5" t="s">
         <v>609</v>
       </c>
@@ -6047,8 +6064,8 @@
       <c r="A105" s="22">
         <v>90</v>
       </c>
-      <c r="B105" s="40"/>
-      <c r="C105" s="41"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="33"/>
       <c r="D105" s="5" t="s">
         <v>610</v>
       </c>
@@ -6074,7 +6091,7 @@
       <c r="A106" s="22">
         <v>91</v>
       </c>
-      <c r="B106" s="40"/>
+      <c r="B106" s="34"/>
       <c r="C106" s="4" t="s">
         <v>228</v>
       </c>
@@ -6101,7 +6118,7 @@
       <c r="A107" s="22">
         <v>92</v>
       </c>
-      <c r="B107" s="40"/>
+      <c r="B107" s="34"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5" t="s">
         <v>148</v>
@@ -6126,10 +6143,10 @@
       <c r="A108" s="22">
         <v>93</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -6155,8 +6172,8 @@
       <c r="A109" s="22">
         <v>94</v>
       </c>
-      <c r="B109" s="40"/>
-      <c r="C109" s="32"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="35"/>
       <c r="D109" s="5" t="s">
         <v>181</v>
       </c>
@@ -6180,8 +6197,8 @@
       <c r="A110" s="22">
         <v>95</v>
       </c>
-      <c r="B110" s="40"/>
-      <c r="C110" s="32"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="35"/>
       <c r="D110" s="5" t="s">
         <v>606</v>
       </c>
@@ -6205,8 +6222,8 @@
       <c r="A111" s="22">
         <v>96</v>
       </c>
-      <c r="B111" s="40"/>
-      <c r="C111" s="33"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="30"/>
       <c r="D111" s="5" t="s">
         <v>605</v>
       </c>
@@ -6230,7 +6247,7 @@
       <c r="A112" s="22">
         <v>97</v>
       </c>
-      <c r="B112" s="40" t="s">
+      <c r="B112" s="34" t="s">
         <v>185</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -6259,8 +6276,8 @@
       <c r="A113" s="22">
         <v>98</v>
       </c>
-      <c r="B113" s="40"/>
-      <c r="C113" s="41" t="s">
+      <c r="B113" s="34"/>
+      <c r="C113" s="33" t="s">
         <v>189</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -6286,8 +6303,8 @@
       <c r="A114" s="22">
         <v>99</v>
       </c>
-      <c r="B114" s="40"/>
-      <c r="C114" s="41"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="33"/>
       <c r="D114" s="5" t="s">
         <v>192</v>
       </c>
@@ -6311,8 +6328,8 @@
       <c r="A115" s="22">
         <v>100</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="41"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="33"/>
       <c r="D115" s="5" t="s">
         <v>194</v>
       </c>
@@ -6336,8 +6353,8 @@
       <c r="A116" s="22">
         <v>101</v>
       </c>
-      <c r="B116" s="40"/>
-      <c r="C116" s="41"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="33"/>
       <c r="D116" s="5" t="s">
         <v>196</v>
       </c>
@@ -6361,8 +6378,8 @@
       <c r="A117" s="22">
         <v>102</v>
       </c>
-      <c r="B117" s="40"/>
-      <c r="C117" s="41" t="s">
+      <c r="B117" s="34"/>
+      <c r="C117" s="33" t="s">
         <v>197</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -6388,8 +6405,8 @@
       <c r="A118" s="22">
         <v>103</v>
       </c>
-      <c r="B118" s="40"/>
-      <c r="C118" s="41"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="33"/>
       <c r="D118" s="5" t="s">
         <v>200</v>
       </c>
@@ -6413,8 +6430,8 @@
       <c r="A119" s="22">
         <v>104</v>
       </c>
-      <c r="B119" s="40"/>
-      <c r="C119" s="41"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="33"/>
       <c r="D119" s="5" t="s">
         <v>202</v>
       </c>
@@ -6438,8 +6455,8 @@
       <c r="A120" s="22">
         <v>105</v>
       </c>
-      <c r="B120" s="40"/>
-      <c r="C120" s="41"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="33"/>
       <c r="D120" s="5" t="s">
         <v>203</v>
       </c>
@@ -6463,8 +6480,8 @@
       <c r="A121" s="22">
         <v>106</v>
       </c>
-      <c r="B121" s="40"/>
-      <c r="C121" s="41" t="s">
+      <c r="B121" s="34"/>
+      <c r="C121" s="33" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -6490,8 +6507,8 @@
       <c r="A122" s="22">
         <v>107</v>
       </c>
-      <c r="B122" s="40"/>
-      <c r="C122" s="41"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="33"/>
       <c r="D122" s="5" t="s">
         <v>207</v>
       </c>
@@ -6515,8 +6532,8 @@
       <c r="A123" s="22">
         <v>108</v>
       </c>
-      <c r="B123" s="40"/>
-      <c r="C123" s="41"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="5" t="s">
         <v>208</v>
       </c>
@@ -6540,8 +6557,8 @@
       <c r="A124" s="22">
         <v>109</v>
       </c>
-      <c r="B124" s="40"/>
-      <c r="C124" s="41" t="s">
+      <c r="B124" s="34"/>
+      <c r="C124" s="33" t="s">
         <v>210</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -6567,8 +6584,8 @@
       <c r="A125" s="22">
         <v>110</v>
       </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="41"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="5" t="s">
         <v>213</v>
       </c>
@@ -6592,8 +6609,8 @@
       <c r="A126" s="22">
         <v>111</v>
       </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="41" t="s">
+      <c r="B126" s="34"/>
+      <c r="C126" s="33" t="s">
         <v>215</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -6619,8 +6636,8 @@
       <c r="A127" s="22">
         <v>112</v>
       </c>
-      <c r="B127" s="40"/>
-      <c r="C127" s="41"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="33"/>
       <c r="D127" s="5" t="s">
         <v>218</v>
       </c>
@@ -6644,8 +6661,8 @@
       <c r="A128" s="22">
         <v>113</v>
       </c>
-      <c r="B128" s="40"/>
-      <c r="C128" s="41"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="33"/>
       <c r="D128" s="5" t="s">
         <v>220</v>
       </c>
@@ -6669,7 +6686,7 @@
       <c r="A129" s="22">
         <v>114</v>
       </c>
-      <c r="B129" s="40"/>
+      <c r="B129" s="34"/>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
         <v>148</v>
@@ -6694,10 +6711,10 @@
       <c r="A130" s="22">
         <v>115</v>
       </c>
-      <c r="B130" s="40" t="s">
+      <c r="B130" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="C130" s="41" t="s">
+      <c r="C130" s="33" t="s">
         <v>224</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -6723,8 +6740,8 @@
       <c r="A131" s="22">
         <v>116</v>
       </c>
-      <c r="B131" s="40"/>
-      <c r="C131" s="41"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="33"/>
       <c r="D131" s="5" t="s">
         <v>231</v>
       </c>
@@ -6748,8 +6765,8 @@
       <c r="A132" s="22">
         <v>117</v>
       </c>
-      <c r="B132" s="40"/>
-      <c r="C132" s="41"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="33"/>
       <c r="D132" s="5" t="s">
         <v>232</v>
       </c>
@@ -6773,8 +6790,8 @@
       <c r="A133" s="22">
         <v>118</v>
       </c>
-      <c r="B133" s="40"/>
-      <c r="C133" s="31" t="s">
+      <c r="B133" s="34"/>
+      <c r="C133" s="29" t="s">
         <v>225</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -6800,8 +6817,8 @@
       <c r="A134" s="22">
         <v>119</v>
       </c>
-      <c r="B134" s="40"/>
-      <c r="C134" s="33"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="30"/>
       <c r="D134" s="5" t="s">
         <v>230</v>
       </c>
@@ -6825,8 +6842,8 @@
       <c r="A135" s="22">
         <v>120</v>
       </c>
-      <c r="B135" s="40"/>
-      <c r="C135" s="31" t="s">
+      <c r="B135" s="34"/>
+      <c r="C135" s="29" t="s">
         <v>226</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6852,8 +6869,8 @@
       <c r="A136" s="22">
         <v>121</v>
       </c>
-      <c r="B136" s="40"/>
-      <c r="C136" s="32"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="35"/>
       <c r="D136" s="5" t="s">
         <v>238</v>
       </c>
@@ -6877,8 +6894,8 @@
       <c r="A137" s="22">
         <v>122</v>
       </c>
-      <c r="B137" s="40"/>
-      <c r="C137" s="33"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="30"/>
       <c r="D137" s="5" t="s">
         <v>240</v>
       </c>
@@ -6902,8 +6919,8 @@
       <c r="A138" s="22">
         <v>123</v>
       </c>
-      <c r="B138" s="40"/>
-      <c r="C138" s="31" t="s">
+      <c r="B138" s="34"/>
+      <c r="C138" s="29" t="s">
         <v>227</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -6929,8 +6946,8 @@
       <c r="A139" s="22">
         <v>124</v>
       </c>
-      <c r="B139" s="40"/>
-      <c r="C139" s="32"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="35"/>
       <c r="D139" s="5" t="s">
         <v>244</v>
       </c>
@@ -6954,8 +6971,8 @@
       <c r="A140" s="22">
         <v>125</v>
       </c>
-      <c r="B140" s="40"/>
-      <c r="C140" s="32"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="35"/>
       <c r="D140" s="5" t="s">
         <v>246</v>
       </c>
@@ -6979,8 +6996,8 @@
       <c r="A141" s="22">
         <v>126</v>
       </c>
-      <c r="B141" s="40"/>
-      <c r="C141" s="32"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="35"/>
       <c r="D141" s="5" t="s">
         <v>245</v>
       </c>
@@ -7004,8 +7021,8 @@
       <c r="A142" s="22">
         <v>127</v>
       </c>
-      <c r="B142" s="40"/>
-      <c r="C142" s="32"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="35"/>
       <c r="D142" s="5" t="s">
         <v>247</v>
       </c>
@@ -7029,8 +7046,8 @@
       <c r="A143" s="22">
         <v>128</v>
       </c>
-      <c r="B143" s="40"/>
-      <c r="C143" s="33"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="30"/>
       <c r="D143" s="5" t="s">
         <v>249</v>
       </c>
@@ -7054,7 +7071,7 @@
       <c r="A144" s="22">
         <v>129</v>
       </c>
-      <c r="B144" s="40"/>
+      <c r="B144" s="34"/>
       <c r="C144" s="7" t="s">
         <v>228</v>
       </c>
@@ -7081,7 +7098,7 @@
       <c r="A145" s="22">
         <v>130</v>
       </c>
-      <c r="B145" s="40"/>
+      <c r="B145" s="34"/>
       <c r="C145" s="7"/>
       <c r="D145" s="5" t="s">
         <v>148</v>
@@ -7106,10 +7123,10 @@
       <c r="A146" s="22">
         <v>131</v>
       </c>
-      <c r="B146" s="40" t="s">
+      <c r="B146" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="C146" s="41" t="s">
+      <c r="C146" s="33" t="s">
         <v>252</v>
       </c>
       <c r="D146" s="5" t="s">
@@ -7135,8 +7152,8 @@
       <c r="A147" s="22">
         <v>132</v>
       </c>
-      <c r="B147" s="40"/>
-      <c r="C147" s="41"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="33"/>
       <c r="D147" s="5" t="s">
         <v>255</v>
       </c>
@@ -7160,7 +7177,7 @@
       <c r="A148" s="22">
         <v>133</v>
       </c>
-      <c r="B148" s="40"/>
+      <c r="B148" s="34"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5" t="s">
         <v>148</v>
@@ -7185,10 +7202,10 @@
       <c r="A149" s="22">
         <v>134</v>
       </c>
-      <c r="B149" s="28" t="s">
+      <c r="B149" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="31" t="s">
+      <c r="C149" s="29" t="s">
         <v>258</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -7214,8 +7231,8 @@
       <c r="A150" s="22">
         <v>135</v>
       </c>
-      <c r="B150" s="29"/>
-      <c r="C150" s="32"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="35"/>
       <c r="D150" s="5" t="s">
         <v>261</v>
       </c>
@@ -7239,8 +7256,8 @@
       <c r="A151" s="22">
         <v>136</v>
       </c>
-      <c r="B151" s="29"/>
-      <c r="C151" s="32"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="35"/>
       <c r="D151" s="5" t="s">
         <v>263</v>
       </c>
@@ -7264,8 +7281,8 @@
       <c r="A152" s="22">
         <v>137</v>
       </c>
-      <c r="B152" s="29"/>
-      <c r="C152" s="33"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="30"/>
       <c r="D152" s="5" t="s">
         <v>265</v>
       </c>
@@ -7289,8 +7306,8 @@
       <c r="A153" s="22">
         <v>138</v>
       </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="31" t="s">
+      <c r="B153" s="27"/>
+      <c r="C153" s="29" t="s">
         <v>252</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -7316,8 +7333,8 @@
       <c r="A154" s="22">
         <v>139</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="33"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="30"/>
       <c r="D154" s="5" t="s">
         <v>269</v>
       </c>
@@ -7341,7 +7358,7 @@
       <c r="A155" s="22">
         <v>140</v>
       </c>
-      <c r="B155" s="30"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5" t="s">
         <v>148</v>
@@ -7366,7 +7383,7 @@
       <c r="A156" s="22">
         <v>141</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="B156" s="26" t="s">
         <v>271</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -7395,7 +7412,7 @@
       <c r="A157" s="22">
         <v>142</v>
       </c>
-      <c r="B157" s="29"/>
+      <c r="B157" s="27"/>
       <c r="C157" s="4" t="s">
         <v>275</v>
       </c>
@@ -7422,7 +7439,7 @@
       <c r="A158" s="22">
         <v>143</v>
       </c>
-      <c r="B158" s="29"/>
+      <c r="B158" s="27"/>
       <c r="C158" s="4" t="s">
         <v>278</v>
       </c>
@@ -7449,7 +7466,7 @@
       <c r="A159" s="22">
         <v>144</v>
       </c>
-      <c r="B159" s="30"/>
+      <c r="B159" s="28"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5" t="s">
         <v>148</v>
@@ -7474,7 +7491,7 @@
       <c r="A160" s="22">
         <v>145</v>
       </c>
-      <c r="B160" s="28" t="s">
+      <c r="B160" s="26" t="s">
         <v>281</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -7488,13 +7505,13 @@
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="H160" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I160" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="7"/>
@@ -7503,8 +7520,8 @@
       <c r="A161" s="22">
         <v>146</v>
       </c>
-      <c r="B161" s="29"/>
-      <c r="C161" s="31" t="s">
+      <c r="B161" s="27"/>
+      <c r="C161" s="29" t="s">
         <v>284</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -7514,14 +7531,14 @@
         <v>286</v>
       </c>
       <c r="F161" s="6"/>
-      <c r="G161" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>177</v>
+      <c r="G161" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I161" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="7"/>
@@ -7530,8 +7547,8 @@
       <c r="A162" s="22">
         <v>147</v>
       </c>
-      <c r="B162" s="29"/>
-      <c r="C162" s="33"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="30"/>
       <c r="D162" s="5" t="s">
         <v>287</v>
       </c>
@@ -7539,14 +7556,14 @@
         <v>288</v>
       </c>
       <c r="F162" s="6"/>
-      <c r="G162" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>177</v>
+      <c r="G162" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I162" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="7"/>
@@ -7555,8 +7572,8 @@
       <c r="A163" s="22">
         <v>148</v>
       </c>
-      <c r="B163" s="29"/>
-      <c r="C163" s="31" t="s">
+      <c r="B163" s="27"/>
+      <c r="C163" s="29" t="s">
         <v>289</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -7566,14 +7583,14 @@
         <v>291</v>
       </c>
       <c r="F163" s="6"/>
-      <c r="G163" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>177</v>
+      <c r="G163" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H163" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I163" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="7"/>
@@ -7582,8 +7599,8 @@
       <c r="A164" s="22">
         <v>149</v>
       </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="33"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="30"/>
       <c r="D164" s="5" t="s">
         <v>290</v>
       </c>
@@ -7591,14 +7608,14 @@
         <v>292</v>
       </c>
       <c r="F164" s="6"/>
-      <c r="G164" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>177</v>
+      <c r="G164" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I164" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="7"/>
@@ -7607,7 +7624,7 @@
       <c r="A165" s="22">
         <v>150</v>
       </c>
-      <c r="B165" s="29"/>
+      <c r="B165" s="27"/>
       <c r="C165" s="4" t="s">
         <v>293</v>
       </c>
@@ -7618,14 +7635,14 @@
         <v>295</v>
       </c>
       <c r="F165" s="6"/>
-      <c r="G165" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>177</v>
+      <c r="G165" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I165" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J165" s="6"/>
       <c r="K165" s="7"/>
@@ -7634,8 +7651,8 @@
       <c r="A166" s="22">
         <v>151</v>
       </c>
-      <c r="B166" s="29"/>
-      <c r="C166" s="31" t="s">
+      <c r="B166" s="27"/>
+      <c r="C166" s="29" t="s">
         <v>296</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -7645,14 +7662,14 @@
         <v>298</v>
       </c>
       <c r="F166" s="6"/>
-      <c r="G166" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>177</v>
+      <c r="G166" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H166" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I166" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J166" s="6"/>
       <c r="K166" s="7"/>
@@ -7661,8 +7678,8 @@
       <c r="A167" s="22">
         <v>152</v>
       </c>
-      <c r="B167" s="29"/>
-      <c r="C167" s="33"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="30"/>
       <c r="D167" s="5" t="s">
         <v>299</v>
       </c>
@@ -7670,14 +7687,14 @@
         <v>300</v>
       </c>
       <c r="F167" s="6"/>
-      <c r="G167" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>177</v>
+      <c r="G167" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I167" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="7"/>
@@ -7686,8 +7703,8 @@
       <c r="A168" s="22">
         <v>153</v>
       </c>
-      <c r="B168" s="29"/>
-      <c r="C168" s="31" t="s">
+      <c r="B168" s="27"/>
+      <c r="C168" s="29" t="s">
         <v>301</v>
       </c>
       <c r="D168" s="5" t="s">
@@ -7697,14 +7714,14 @@
         <v>303</v>
       </c>
       <c r="F168" s="6"/>
-      <c r="G168" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>177</v>
+      <c r="G168" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I168" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J168" s="6"/>
       <c r="K168" s="7"/>
@@ -7713,8 +7730,8 @@
       <c r="A169" s="22">
         <v>154</v>
       </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="33"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="30"/>
       <c r="D169" s="5" t="s">
         <v>304</v>
       </c>
@@ -7722,14 +7739,14 @@
         <v>305</v>
       </c>
       <c r="F169" s="6"/>
-      <c r="G169" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>177</v>
+      <c r="G169" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I169" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="7"/>
@@ -7738,8 +7755,8 @@
       <c r="A170" s="22">
         <v>155</v>
       </c>
-      <c r="B170" s="29"/>
-      <c r="C170" s="31" t="s">
+      <c r="B170" s="27"/>
+      <c r="C170" s="29" t="s">
         <v>306</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -7749,14 +7766,14 @@
         <v>308</v>
       </c>
       <c r="F170" s="6"/>
-      <c r="G170" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>177</v>
+      <c r="G170" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I170" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J170" s="6"/>
       <c r="K170" s="7"/>
@@ -7765,8 +7782,8 @@
       <c r="A171" s="22">
         <v>156</v>
       </c>
-      <c r="B171" s="29"/>
-      <c r="C171" s="32"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="35"/>
       <c r="D171" s="5" t="s">
         <v>309</v>
       </c>
@@ -7774,14 +7791,14 @@
         <v>310</v>
       </c>
       <c r="F171" s="6"/>
-      <c r="G171" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>177</v>
+      <c r="G171" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H171" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I171" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J171" s="6"/>
       <c r="K171" s="7"/>
@@ -7790,8 +7807,8 @@
       <c r="A172" s="22">
         <v>157</v>
       </c>
-      <c r="B172" s="29"/>
-      <c r="C172" s="33"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="30"/>
       <c r="D172" s="5" t="s">
         <v>311</v>
       </c>
@@ -7799,14 +7816,14 @@
         <v>312</v>
       </c>
       <c r="F172" s="6"/>
-      <c r="G172" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>177</v>
+      <c r="G172" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H172" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I172" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J172" s="6"/>
       <c r="K172" s="7"/>
@@ -7815,8 +7832,8 @@
       <c r="A173" s="22">
         <v>158</v>
       </c>
-      <c r="B173" s="29"/>
-      <c r="C173" s="31" t="s">
+      <c r="B173" s="27"/>
+      <c r="C173" s="29" t="s">
         <v>313</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -7826,14 +7843,14 @@
         <v>315</v>
       </c>
       <c r="F173" s="6"/>
-      <c r="G173" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>177</v>
+      <c r="G173" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H173" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I173" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J173" s="6"/>
       <c r="K173" s="7"/>
@@ -7842,8 +7859,8 @@
       <c r="A174" s="22">
         <v>159</v>
       </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="33"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="30"/>
       <c r="D174" s="5" t="s">
         <v>314</v>
       </c>
@@ -7851,14 +7868,14 @@
         <v>316</v>
       </c>
       <c r="F174" s="6"/>
-      <c r="G174" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I174" s="4" t="s">
-        <v>177</v>
+      <c r="G174" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I174" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J174" s="6"/>
       <c r="K174" s="7"/>
@@ -7867,7 +7884,7 @@
       <c r="A175" s="22">
         <v>160</v>
       </c>
-      <c r="B175" s="29" t="s">
+      <c r="B175" s="27" t="s">
         <v>317</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -7880,14 +7897,14 @@
         <v>283</v>
       </c>
       <c r="F175" s="6"/>
-      <c r="G175" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>177</v>
+      <c r="G175" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I175" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J175" s="6"/>
       <c r="K175" s="7"/>
@@ -7896,7 +7913,7 @@
       <c r="A176" s="22">
         <v>161</v>
       </c>
-      <c r="B176" s="29"/>
+      <c r="B176" s="27"/>
       <c r="C176" s="4" t="s">
         <v>319</v>
       </c>
@@ -7907,14 +7924,14 @@
         <v>321</v>
       </c>
       <c r="F176" s="6"/>
-      <c r="G176" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>177</v>
+      <c r="G176" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J176" s="6"/>
       <c r="K176" s="7"/>
@@ -7923,8 +7940,8 @@
       <c r="A177" s="22">
         <v>162</v>
       </c>
-      <c r="B177" s="29"/>
-      <c r="C177" s="31" t="s">
+      <c r="B177" s="27"/>
+      <c r="C177" s="29" t="s">
         <v>322</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -7934,14 +7951,14 @@
         <v>324</v>
       </c>
       <c r="F177" s="6"/>
-      <c r="G177" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I177" s="4" t="s">
-        <v>177</v>
+      <c r="G177" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I177" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J177" s="6"/>
       <c r="K177" s="7"/>
@@ -7950,8 +7967,8 @@
       <c r="A178" s="22">
         <v>163</v>
       </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="33"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="30"/>
       <c r="D178" s="5" t="s">
         <v>323</v>
       </c>
@@ -7959,14 +7976,14 @@
         <v>325</v>
       </c>
       <c r="F178" s="6"/>
-      <c r="G178" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>177</v>
+      <c r="G178" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J178" s="6"/>
       <c r="K178" s="7"/>
@@ -7975,10 +7992,10 @@
       <c r="A179" s="22">
         <v>164</v>
       </c>
-      <c r="B179" s="40" t="s">
+      <c r="B179" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="C179" s="31" t="s">
+      <c r="C179" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D179" s="5" t="s">
@@ -8004,8 +8021,8 @@
       <c r="A180" s="22">
         <v>165</v>
       </c>
-      <c r="B180" s="40"/>
-      <c r="C180" s="32"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="35"/>
       <c r="D180" s="5" t="s">
         <v>329</v>
       </c>
@@ -8029,8 +8046,8 @@
       <c r="A181" s="22">
         <v>166</v>
       </c>
-      <c r="B181" s="40"/>
-      <c r="C181" s="32"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="35"/>
       <c r="D181" s="5" t="s">
         <v>331</v>
       </c>
@@ -8054,8 +8071,8 @@
       <c r="A182" s="22">
         <v>167</v>
       </c>
-      <c r="B182" s="40"/>
-      <c r="C182" s="33"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="30"/>
       <c r="D182" s="5" t="s">
         <v>333</v>
       </c>
@@ -8079,7 +8096,7 @@
       <c r="A183" s="22">
         <v>168</v>
       </c>
-      <c r="B183" s="28" t="s">
+      <c r="B183" s="26" t="s">
         <v>335</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -8108,7 +8125,7 @@
       <c r="A184" s="22">
         <v>169</v>
       </c>
-      <c r="B184" s="29"/>
+      <c r="B184" s="27"/>
       <c r="C184" s="4" t="s">
         <v>339</v>
       </c>
@@ -8135,7 +8152,7 @@
       <c r="A185" s="22">
         <v>170</v>
       </c>
-      <c r="B185" s="30"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="4" t="s">
         <v>342</v>
       </c>
@@ -8162,7 +8179,7 @@
       <c r="A186" s="22">
         <v>171</v>
       </c>
-      <c r="B186" s="40" t="s">
+      <c r="B186" s="34" t="s">
         <v>345</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -8191,7 +8208,7 @@
       <c r="A187" s="22">
         <v>172</v>
       </c>
-      <c r="B187" s="40"/>
+      <c r="B187" s="34"/>
       <c r="C187" s="4" t="s">
         <v>349</v>
       </c>
@@ -8218,7 +8235,7 @@
       <c r="A188" s="22">
         <v>173</v>
       </c>
-      <c r="B188" s="40"/>
+      <c r="B188" s="34"/>
       <c r="C188" s="4" t="s">
         <v>352</v>
       </c>
@@ -8245,7 +8262,7 @@
       <c r="A189" s="22">
         <v>174</v>
       </c>
-      <c r="B189" s="40"/>
+      <c r="B189" s="34"/>
       <c r="C189" s="4" t="s">
         <v>355</v>
       </c>
@@ -8272,7 +8289,7 @@
       <c r="A190" s="22">
         <v>175</v>
       </c>
-      <c r="B190" s="40"/>
+      <c r="B190" s="34"/>
       <c r="C190" s="4" t="s">
         <v>357</v>
       </c>
@@ -8299,7 +8316,7 @@
       <c r="A191" s="22">
         <v>176</v>
       </c>
-      <c r="B191" s="40" t="s">
+      <c r="B191" s="34" t="s">
         <v>359</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -8328,7 +8345,7 @@
       <c r="A192" s="22">
         <v>177</v>
       </c>
-      <c r="B192" s="40"/>
+      <c r="B192" s="34"/>
       <c r="C192" s="4"/>
       <c r="D192" s="5" t="s">
         <v>363</v>
@@ -8353,7 +8370,7 @@
       <c r="A193" s="22">
         <v>178</v>
       </c>
-      <c r="B193" s="40"/>
+      <c r="B193" s="34"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5" t="s">
         <v>365</v>
@@ -8378,7 +8395,7 @@
       <c r="A194" s="22">
         <v>179</v>
       </c>
-      <c r="B194" s="40"/>
+      <c r="B194" s="34"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5" t="s">
         <v>367</v>
@@ -8403,7 +8420,7 @@
       <c r="A195" s="22">
         <v>180</v>
       </c>
-      <c r="B195" s="40"/>
+      <c r="B195" s="34"/>
       <c r="C195" s="4" t="s">
         <v>369</v>
       </c>
@@ -8430,7 +8447,7 @@
       <c r="A196" s="22">
         <v>181</v>
       </c>
-      <c r="B196" s="40"/>
+      <c r="B196" s="34"/>
       <c r="C196" s="4" t="s">
         <v>372</v>
       </c>
@@ -8457,7 +8474,7 @@
       <c r="A197" s="22">
         <v>182</v>
       </c>
-      <c r="B197" s="40"/>
+      <c r="B197" s="34"/>
       <c r="C197" s="4"/>
       <c r="D197" s="5" t="s">
         <v>375</v>
@@ -8482,7 +8499,7 @@
       <c r="A198" s="22">
         <v>183</v>
       </c>
-      <c r="B198" s="40"/>
+      <c r="B198" s="34"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5" t="s">
         <v>377</v>
@@ -8507,7 +8524,7 @@
       <c r="A199" s="22">
         <v>184</v>
       </c>
-      <c r="B199" s="40"/>
+      <c r="B199" s="34"/>
       <c r="C199" s="4" t="s">
         <v>379</v>
       </c>
@@ -8534,7 +8551,7 @@
       <c r="A200" s="22">
         <v>185</v>
       </c>
-      <c r="B200" s="40"/>
+      <c r="B200" s="34"/>
       <c r="C200" s="4" t="s">
         <v>357</v>
       </c>
@@ -8561,7 +8578,7 @@
       <c r="A201" s="22">
         <v>186</v>
       </c>
-      <c r="B201" s="40"/>
+      <c r="B201" s="34"/>
       <c r="C201" s="4" t="s">
         <v>382</v>
       </c>
@@ -8588,7 +8605,7 @@
       <c r="A202" s="22">
         <v>187</v>
       </c>
-      <c r="B202" s="40" t="s">
+      <c r="B202" s="34" t="s">
         <v>384</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -8617,7 +8634,7 @@
       <c r="A203" s="22">
         <v>188</v>
       </c>
-      <c r="B203" s="40"/>
+      <c r="B203" s="34"/>
       <c r="C203" s="4"/>
       <c r="D203" s="5" t="s">
         <v>353</v>
@@ -8642,7 +8659,7 @@
       <c r="A204" s="22">
         <v>189</v>
       </c>
-      <c r="B204" s="40"/>
+      <c r="B204" s="34"/>
       <c r="C204" s="4" t="s">
         <v>382</v>
       </c>
@@ -8669,7 +8686,7 @@
       <c r="A205" s="22">
         <v>190</v>
       </c>
-      <c r="B205" s="40"/>
+      <c r="B205" s="34"/>
       <c r="C205" s="4" t="s">
         <v>388</v>
       </c>
@@ -8696,7 +8713,7 @@
       <c r="A206" s="22">
         <v>191</v>
       </c>
-      <c r="B206" s="40"/>
+      <c r="B206" s="34"/>
       <c r="C206" s="16" t="s">
         <v>391</v>
       </c>
@@ -8723,7 +8740,7 @@
       <c r="A207" s="22">
         <v>192</v>
       </c>
-      <c r="B207" s="28" t="s">
+      <c r="B207" s="26" t="s">
         <v>394</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -8752,8 +8769,8 @@
       <c r="A208" s="22">
         <v>193</v>
       </c>
-      <c r="B208" s="29"/>
-      <c r="C208" s="31" t="s">
+      <c r="B208" s="27"/>
+      <c r="C208" s="29" t="s">
         <v>397</v>
       </c>
       <c r="D208" s="5" t="s">
@@ -8779,8 +8796,8 @@
       <c r="A209" s="22">
         <v>194</v>
       </c>
-      <c r="B209" s="29"/>
-      <c r="C209" s="32"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="35"/>
       <c r="D209" s="5" t="s">
         <v>400</v>
       </c>
@@ -8804,8 +8821,8 @@
       <c r="A210" s="22">
         <v>195</v>
       </c>
-      <c r="B210" s="29"/>
-      <c r="C210" s="33"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="30"/>
       <c r="D210" s="5" t="s">
         <v>402</v>
       </c>
@@ -8829,7 +8846,7 @@
       <c r="A211" s="22">
         <v>196</v>
       </c>
-      <c r="B211" s="29"/>
+      <c r="B211" s="27"/>
       <c r="C211" s="4" t="s">
         <v>404</v>
       </c>
@@ -8856,7 +8873,7 @@
       <c r="A212" s="22">
         <v>197</v>
       </c>
-      <c r="B212" s="29"/>
+      <c r="B212" s="27"/>
       <c r="C212" s="4" t="s">
         <v>407</v>
       </c>
@@ -8883,8 +8900,8 @@
       <c r="A213" s="22">
         <v>198</v>
       </c>
-      <c r="B213" s="29"/>
-      <c r="C213" s="31" t="s">
+      <c r="B213" s="27"/>
+      <c r="C213" s="29" t="s">
         <v>410</v>
       </c>
       <c r="D213" s="5" t="s">
@@ -8910,8 +8927,8 @@
       <c r="A214" s="22">
         <v>199</v>
       </c>
-      <c r="B214" s="29"/>
-      <c r="C214" s="32"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="35"/>
       <c r="D214" s="5" t="s">
         <v>411</v>
       </c>
@@ -8935,8 +8952,8 @@
       <c r="A215" s="22">
         <v>200</v>
       </c>
-      <c r="B215" s="29"/>
-      <c r="C215" s="33"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="30"/>
       <c r="D215" s="5" t="s">
         <v>411</v>
       </c>
@@ -8960,7 +8977,7 @@
       <c r="A216" s="22">
         <v>201</v>
       </c>
-      <c r="B216" s="29"/>
+      <c r="B216" s="27"/>
       <c r="C216" s="4" t="s">
         <v>357</v>
       </c>
@@ -8987,7 +9004,7 @@
       <c r="A217" s="22">
         <v>202</v>
       </c>
-      <c r="B217" s="29"/>
+      <c r="B217" s="27"/>
       <c r="C217" s="4" t="s">
         <v>382</v>
       </c>
@@ -9014,7 +9031,7 @@
       <c r="A218" s="22">
         <v>203</v>
       </c>
-      <c r="B218" s="30"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="4" t="s">
         <v>418</v>
       </c>
@@ -9041,7 +9058,7 @@
       <c r="A219" s="22">
         <v>204</v>
       </c>
-      <c r="B219" s="37" t="s">
+      <c r="B219" s="39" t="s">
         <v>421</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -9070,8 +9087,8 @@
       <c r="A220" s="22">
         <v>205</v>
       </c>
-      <c r="B220" s="38"/>
-      <c r="C220" s="31" t="s">
+      <c r="B220" s="40"/>
+      <c r="C220" s="29" t="s">
         <v>397</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -9097,8 +9114,8 @@
       <c r="A221" s="22">
         <v>206</v>
       </c>
-      <c r="B221" s="38"/>
-      <c r="C221" s="32"/>
+      <c r="B221" s="40"/>
+      <c r="C221" s="35"/>
       <c r="D221" s="5" t="s">
         <v>424</v>
       </c>
@@ -9122,8 +9139,8 @@
       <c r="A222" s="22">
         <v>207</v>
       </c>
-      <c r="B222" s="38"/>
-      <c r="C222" s="33"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="30"/>
       <c r="D222" s="5" t="s">
         <v>424</v>
       </c>
@@ -9147,7 +9164,7 @@
       <c r="A223" s="22">
         <v>208</v>
       </c>
-      <c r="B223" s="38"/>
+      <c r="B223" s="40"/>
       <c r="C223" s="4" t="s">
         <v>407</v>
       </c>
@@ -9174,8 +9191,8 @@
       <c r="A224" s="22">
         <v>209</v>
       </c>
-      <c r="B224" s="38"/>
-      <c r="C224" s="31" t="s">
+      <c r="B224" s="40"/>
+      <c r="C224" s="29" t="s">
         <v>410</v>
       </c>
       <c r="D224" s="5" t="s">
@@ -9201,8 +9218,8 @@
       <c r="A225" s="22">
         <v>210</v>
       </c>
-      <c r="B225" s="38"/>
-      <c r="C225" s="32"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="35"/>
       <c r="D225" s="5" t="s">
         <v>426</v>
       </c>
@@ -9226,8 +9243,8 @@
       <c r="A226" s="22">
         <v>211</v>
       </c>
-      <c r="B226" s="38"/>
-      <c r="C226" s="33"/>
+      <c r="B226" s="40"/>
+      <c r="C226" s="30"/>
       <c r="D226" s="5" t="s">
         <v>426</v>
       </c>
@@ -9251,7 +9268,7 @@
       <c r="A227" s="22">
         <v>212</v>
       </c>
-      <c r="B227" s="38"/>
+      <c r="B227" s="40"/>
       <c r="C227" s="4" t="s">
         <v>357</v>
       </c>
@@ -9278,7 +9295,7 @@
       <c r="A228" s="22">
         <v>213</v>
       </c>
-      <c r="B228" s="39"/>
+      <c r="B228" s="41"/>
       <c r="C228" s="4" t="s">
         <v>382</v>
       </c>
@@ -9305,7 +9322,7 @@
       <c r="A229" s="22">
         <v>214</v>
       </c>
-      <c r="B229" s="25" t="s">
+      <c r="B229" s="42" t="s">
         <v>429</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -9334,8 +9351,8 @@
       <c r="A230" s="22">
         <v>215</v>
       </c>
-      <c r="B230" s="26"/>
-      <c r="C230" s="31" t="s">
+      <c r="B230" s="43"/>
+      <c r="C230" s="29" t="s">
         <v>397</v>
       </c>
       <c r="D230" s="5" t="s">
@@ -9361,8 +9378,8 @@
       <c r="A231" s="22">
         <v>216</v>
       </c>
-      <c r="B231" s="26"/>
-      <c r="C231" s="32"/>
+      <c r="B231" s="43"/>
+      <c r="C231" s="35"/>
       <c r="D231" s="5" t="s">
         <v>433</v>
       </c>
@@ -9386,8 +9403,8 @@
       <c r="A232" s="22">
         <v>217</v>
       </c>
-      <c r="B232" s="26"/>
-      <c r="C232" s="33"/>
+      <c r="B232" s="43"/>
+      <c r="C232" s="30"/>
       <c r="D232" s="5" t="s">
         <v>433</v>
       </c>
@@ -9411,7 +9428,7 @@
       <c r="A233" s="22">
         <v>218</v>
       </c>
-      <c r="B233" s="26"/>
+      <c r="B233" s="43"/>
       <c r="C233" s="4" t="s">
         <v>407</v>
       </c>
@@ -9438,8 +9455,8 @@
       <c r="A234" s="22">
         <v>219</v>
       </c>
-      <c r="B234" s="26"/>
-      <c r="C234" s="31" t="s">
+      <c r="B234" s="43"/>
+      <c r="C234" s="29" t="s">
         <v>410</v>
       </c>
       <c r="D234" s="5" t="s">
@@ -9465,8 +9482,8 @@
       <c r="A235" s="22">
         <v>220</v>
       </c>
-      <c r="B235" s="26"/>
-      <c r="C235" s="32"/>
+      <c r="B235" s="43"/>
+      <c r="C235" s="35"/>
       <c r="D235" s="5" t="s">
         <v>435</v>
       </c>
@@ -9490,8 +9507,8 @@
       <c r="A236" s="22">
         <v>221</v>
       </c>
-      <c r="B236" s="26"/>
-      <c r="C236" s="33"/>
+      <c r="B236" s="43"/>
+      <c r="C236" s="30"/>
       <c r="D236" s="5" t="s">
         <v>435</v>
       </c>
@@ -9515,7 +9532,7 @@
       <c r="A237" s="22">
         <v>222</v>
       </c>
-      <c r="B237" s="26"/>
+      <c r="B237" s="43"/>
       <c r="C237" s="4" t="s">
         <v>357</v>
       </c>
@@ -9542,7 +9559,7 @@
       <c r="A238" s="22">
         <v>223</v>
       </c>
-      <c r="B238" s="26"/>
+      <c r="B238" s="43"/>
       <c r="C238" s="4" t="s">
         <v>382</v>
       </c>
@@ -9569,7 +9586,7 @@
       <c r="A239" s="22">
         <v>224</v>
       </c>
-      <c r="B239" s="27"/>
+      <c r="B239" s="44"/>
       <c r="C239" s="4" t="s">
         <v>404</v>
       </c>
@@ -9596,7 +9613,7 @@
       <c r="A240" s="22">
         <v>225</v>
       </c>
-      <c r="B240" s="25" t="s">
+      <c r="B240" s="42" t="s">
         <v>439</v>
       </c>
       <c r="C240" s="4" t="s">
@@ -9625,7 +9642,7 @@
       <c r="A241" s="22">
         <v>226</v>
       </c>
-      <c r="B241" s="26"/>
+      <c r="B241" s="43"/>
       <c r="C241" s="4" t="s">
         <v>442</v>
       </c>
@@ -9652,7 +9669,7 @@
       <c r="A242" s="22">
         <v>227</v>
       </c>
-      <c r="B242" s="26"/>
+      <c r="B242" s="43"/>
       <c r="C242" s="4" t="s">
         <v>445</v>
       </c>
@@ -9679,7 +9696,7 @@
       <c r="A243" s="22">
         <v>228</v>
       </c>
-      <c r="B243" s="26"/>
+      <c r="B243" s="43"/>
       <c r="C243" s="4"/>
       <c r="D243" s="5" t="s">
         <v>448</v>
@@ -9704,7 +9721,7 @@
       <c r="A244" s="22">
         <v>229</v>
       </c>
-      <c r="B244" s="27"/>
+      <c r="B244" s="44"/>
       <c r="C244" s="4"/>
       <c r="D244" s="5" t="s">
         <v>450</v>
@@ -9729,7 +9746,7 @@
       <c r="A245" s="22">
         <v>230</v>
       </c>
-      <c r="B245" s="25" t="s">
+      <c r="B245" s="42" t="s">
         <v>452</v>
       </c>
       <c r="C245" s="4" t="s">
@@ -9758,8 +9775,8 @@
       <c r="A246" s="22">
         <v>231</v>
       </c>
-      <c r="B246" s="26"/>
-      <c r="C246" s="31" t="s">
+      <c r="B246" s="43"/>
+      <c r="C246" s="29" t="s">
         <v>455</v>
       </c>
       <c r="D246" s="5" t="s">
@@ -9785,8 +9802,8 @@
       <c r="A247" s="22">
         <v>232</v>
       </c>
-      <c r="B247" s="26"/>
-      <c r="C247" s="32"/>
+      <c r="B247" s="43"/>
+      <c r="C247" s="35"/>
       <c r="D247" s="5" t="s">
         <v>458</v>
       </c>
@@ -9810,8 +9827,8 @@
       <c r="A248" s="22">
         <v>233</v>
       </c>
-      <c r="B248" s="26"/>
-      <c r="C248" s="32"/>
+      <c r="B248" s="43"/>
+      <c r="C248" s="35"/>
       <c r="D248" s="5" t="s">
         <v>460</v>
       </c>
@@ -9835,8 +9852,8 @@
       <c r="A249" s="22">
         <v>234</v>
       </c>
-      <c r="B249" s="26"/>
-      <c r="C249" s="33"/>
+      <c r="B249" s="43"/>
+      <c r="C249" s="30"/>
       <c r="D249" s="5" t="s">
         <v>462</v>
       </c>
@@ -9860,7 +9877,7 @@
       <c r="A250" s="22">
         <v>235</v>
       </c>
-      <c r="B250" s="26"/>
+      <c r="B250" s="43"/>
       <c r="C250" s="4" t="s">
         <v>464</v>
       </c>
@@ -9887,7 +9904,7 @@
       <c r="A251" s="22">
         <v>236</v>
       </c>
-      <c r="B251" s="26"/>
+      <c r="B251" s="43"/>
       <c r="C251" s="4" t="s">
         <v>467</v>
       </c>
@@ -9914,7 +9931,7 @@
       <c r="A252" s="22">
         <v>237</v>
       </c>
-      <c r="B252" s="26"/>
+      <c r="B252" s="43"/>
       <c r="C252" s="4" t="s">
         <v>470</v>
       </c>
@@ -9941,7 +9958,7 @@
       <c r="A253" s="22">
         <v>238</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="43"/>
       <c r="C253" s="4" t="s">
         <v>473</v>
       </c>
@@ -9968,7 +9985,7 @@
       <c r="A254" s="22">
         <v>239</v>
       </c>
-      <c r="B254" s="27"/>
+      <c r="B254" s="44"/>
       <c r="C254" s="4" t="s">
         <v>476</v>
       </c>
@@ -9995,7 +10012,7 @@
       <c r="A255" s="22">
         <v>240</v>
       </c>
-      <c r="B255" s="25" t="s">
+      <c r="B255" s="42" t="s">
         <v>479</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -10024,7 +10041,7 @@
       <c r="A256" s="22">
         <v>241</v>
       </c>
-      <c r="B256" s="26"/>
+      <c r="B256" s="43"/>
       <c r="C256" s="4" t="s">
         <v>482</v>
       </c>
@@ -10051,7 +10068,7 @@
       <c r="A257" s="22">
         <v>242</v>
       </c>
-      <c r="B257" s="26"/>
+      <c r="B257" s="43"/>
       <c r="C257" s="4" t="s">
         <v>151</v>
       </c>
@@ -10078,8 +10095,8 @@
       <c r="A258" s="22">
         <v>243</v>
       </c>
-      <c r="B258" s="26"/>
-      <c r="C258" s="31" t="s">
+      <c r="B258" s="43"/>
+      <c r="C258" s="29" t="s">
         <v>487</v>
       </c>
       <c r="D258" s="5" t="s">
@@ -10105,8 +10122,8 @@
       <c r="A259" s="22">
         <v>244</v>
       </c>
-      <c r="B259" s="26"/>
-      <c r="C259" s="32"/>
+      <c r="B259" s="43"/>
+      <c r="C259" s="35"/>
       <c r="D259" s="5" t="s">
         <v>490</v>
       </c>
@@ -10130,8 +10147,8 @@
       <c r="A260" s="22">
         <v>245</v>
       </c>
-      <c r="B260" s="26"/>
-      <c r="C260" s="33"/>
+      <c r="B260" s="43"/>
+      <c r="C260" s="30"/>
       <c r="D260" s="5" t="s">
         <v>492</v>
       </c>
@@ -10155,7 +10172,7 @@
       <c r="A261" s="22">
         <v>246</v>
       </c>
-      <c r="B261" s="26"/>
+      <c r="B261" s="43"/>
       <c r="C261" s="17" t="s">
         <v>494</v>
       </c>
@@ -10182,7 +10199,7 @@
       <c r="A262" s="22">
         <v>247</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="43"/>
       <c r="C262" s="4" t="s">
         <v>497</v>
       </c>
@@ -10209,7 +10226,7 @@
       <c r="A263" s="22">
         <v>248</v>
       </c>
-      <c r="B263" s="26"/>
+      <c r="B263" s="43"/>
       <c r="C263" s="4" t="s">
         <v>500</v>
       </c>
@@ -10236,7 +10253,7 @@
       <c r="A264" s="22">
         <v>249</v>
       </c>
-      <c r="B264" s="27"/>
+      <c r="B264" s="44"/>
       <c r="C264" s="4" t="s">
         <v>503</v>
       </c>
@@ -10263,7 +10280,7 @@
       <c r="A265" s="22">
         <v>250</v>
       </c>
-      <c r="B265" s="25" t="s">
+      <c r="B265" s="42" t="s">
         <v>506</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -10292,7 +10309,7 @@
       <c r="A266" s="22">
         <v>251</v>
       </c>
-      <c r="B266" s="26"/>
+      <c r="B266" s="43"/>
       <c r="C266" s="4" t="s">
         <v>509</v>
       </c>
@@ -10319,7 +10336,7 @@
       <c r="A267" s="22">
         <v>252</v>
       </c>
-      <c r="B267" s="26"/>
+      <c r="B267" s="43"/>
       <c r="C267" s="4" t="s">
         <v>512</v>
       </c>
@@ -10346,7 +10363,7 @@
       <c r="A268" s="22">
         <v>253</v>
       </c>
-      <c r="B268" s="26"/>
+      <c r="B268" s="43"/>
       <c r="C268" s="4" t="s">
         <v>515</v>
       </c>
@@ -10373,7 +10390,7 @@
       <c r="A269" s="22">
         <v>254</v>
       </c>
-      <c r="B269" s="26"/>
+      <c r="B269" s="43"/>
       <c r="C269" s="4" t="s">
         <v>500</v>
       </c>
@@ -10400,7 +10417,7 @@
       <c r="A270" s="22">
         <v>255</v>
       </c>
-      <c r="B270" s="27"/>
+      <c r="B270" s="44"/>
       <c r="C270" s="4" t="s">
         <v>497</v>
       </c>
@@ -10427,7 +10444,7 @@
       <c r="A271" s="22">
         <v>256</v>
       </c>
-      <c r="B271" s="25" t="s">
+      <c r="B271" s="42" t="s">
         <v>520</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -10456,7 +10473,7 @@
       <c r="A272" s="22">
         <v>257</v>
       </c>
-      <c r="B272" s="26"/>
+      <c r="B272" s="43"/>
       <c r="C272" s="4" t="s">
         <v>482</v>
       </c>
@@ -10483,7 +10500,7 @@
       <c r="A273" s="22">
         <v>258</v>
       </c>
-      <c r="B273" s="26"/>
+      <c r="B273" s="43"/>
       <c r="C273" s="4" t="s">
         <v>151</v>
       </c>
@@ -10510,8 +10527,8 @@
       <c r="A274" s="22">
         <v>259</v>
       </c>
-      <c r="B274" s="26"/>
-      <c r="C274" s="31" t="s">
+      <c r="B274" s="43"/>
+      <c r="C274" s="29" t="s">
         <v>487</v>
       </c>
       <c r="D274" s="5" t="s">
@@ -10537,8 +10554,8 @@
       <c r="A275" s="22">
         <v>260</v>
       </c>
-      <c r="B275" s="26"/>
-      <c r="C275" s="32"/>
+      <c r="B275" s="43"/>
+      <c r="C275" s="35"/>
       <c r="D275" s="5" t="s">
         <v>490</v>
       </c>
@@ -10562,8 +10579,8 @@
       <c r="A276" s="22">
         <v>261</v>
       </c>
-      <c r="B276" s="26"/>
-      <c r="C276" s="33"/>
+      <c r="B276" s="43"/>
+      <c r="C276" s="30"/>
       <c r="D276" s="5" t="s">
         <v>492</v>
       </c>
@@ -10587,7 +10604,7 @@
       <c r="A277" s="22">
         <v>262</v>
       </c>
-      <c r="B277" s="26"/>
+      <c r="B277" s="43"/>
       <c r="C277" s="17" t="s">
         <v>494</v>
       </c>
@@ -10614,7 +10631,7 @@
       <c r="A278" s="22">
         <v>263</v>
       </c>
-      <c r="B278" s="26"/>
+      <c r="B278" s="43"/>
       <c r="C278" s="4" t="s">
         <v>497</v>
       </c>
@@ -10641,7 +10658,7 @@
       <c r="A279" s="22">
         <v>264</v>
       </c>
-      <c r="B279" s="27"/>
+      <c r="B279" s="44"/>
       <c r="C279" s="4" t="s">
         <v>500</v>
       </c>
@@ -10668,7 +10685,7 @@
       <c r="A280" s="22">
         <v>265</v>
       </c>
-      <c r="B280" s="25" t="s">
+      <c r="B280" s="42" t="s">
         <v>530</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -10697,7 +10714,7 @@
       <c r="A281" s="22">
         <v>266</v>
       </c>
-      <c r="B281" s="26"/>
+      <c r="B281" s="43"/>
       <c r="C281" s="4" t="s">
         <v>482</v>
       </c>
@@ -10724,7 +10741,7 @@
       <c r="A282" s="22">
         <v>267</v>
       </c>
-      <c r="B282" s="26"/>
+      <c r="B282" s="43"/>
       <c r="C282" s="4" t="s">
         <v>151</v>
       </c>
@@ -10751,7 +10768,7 @@
       <c r="A283" s="22">
         <v>268</v>
       </c>
-      <c r="B283" s="26"/>
+      <c r="B283" s="43"/>
       <c r="C283" s="4" t="s">
         <v>500</v>
       </c>
@@ -10778,7 +10795,7 @@
       <c r="A284" s="22">
         <v>269</v>
       </c>
-      <c r="B284" s="26"/>
+      <c r="B284" s="43"/>
       <c r="C284" s="4" t="s">
         <v>497</v>
       </c>
@@ -10805,8 +10822,8 @@
       <c r="A285" s="22">
         <v>270</v>
       </c>
-      <c r="B285" s="26"/>
-      <c r="C285" s="31" t="s">
+      <c r="B285" s="43"/>
+      <c r="C285" s="29" t="s">
         <v>487</v>
       </c>
       <c r="D285" s="5" t="s">
@@ -10832,8 +10849,8 @@
       <c r="A286" s="22">
         <v>271</v>
       </c>
-      <c r="B286" s="26"/>
-      <c r="C286" s="32"/>
+      <c r="B286" s="43"/>
+      <c r="C286" s="35"/>
       <c r="D286" s="5" t="s">
         <v>490</v>
       </c>
@@ -10857,8 +10874,8 @@
       <c r="A287" s="22">
         <v>272</v>
       </c>
-      <c r="B287" s="26"/>
-      <c r="C287" s="32"/>
+      <c r="B287" s="43"/>
+      <c r="C287" s="35"/>
       <c r="D287" s="5" t="s">
         <v>492</v>
       </c>
@@ -10882,8 +10899,8 @@
       <c r="A288" s="22">
         <v>273</v>
       </c>
-      <c r="B288" s="26"/>
-      <c r="C288" s="32"/>
+      <c r="B288" s="43"/>
+      <c r="C288" s="35"/>
       <c r="D288" s="5" t="s">
         <v>539</v>
       </c>
@@ -10907,8 +10924,8 @@
       <c r="A289" s="22">
         <v>274</v>
       </c>
-      <c r="B289" s="26"/>
-      <c r="C289" s="32"/>
+      <c r="B289" s="43"/>
+      <c r="C289" s="35"/>
       <c r="D289" s="5" t="s">
         <v>541</v>
       </c>
@@ -10932,8 +10949,8 @@
       <c r="A290" s="22">
         <v>275</v>
       </c>
-      <c r="B290" s="27"/>
-      <c r="C290" s="33"/>
+      <c r="B290" s="44"/>
+      <c r="C290" s="30"/>
       <c r="D290" s="5" t="s">
         <v>541</v>
       </c>
@@ -10957,7 +10974,7 @@
       <c r="A291" s="22">
         <v>276</v>
       </c>
-      <c r="B291" s="25" t="s">
+      <c r="B291" s="42" t="s">
         <v>544</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -10986,7 +11003,7 @@
       <c r="A292" s="22">
         <v>277</v>
       </c>
-      <c r="B292" s="26"/>
+      <c r="B292" s="43"/>
       <c r="C292" s="4" t="s">
         <v>482</v>
       </c>
@@ -11013,7 +11030,7 @@
       <c r="A293" s="22">
         <v>278</v>
       </c>
-      <c r="B293" s="26"/>
+      <c r="B293" s="43"/>
       <c r="C293" s="4" t="s">
         <v>151</v>
       </c>
@@ -11040,7 +11057,7 @@
       <c r="A294" s="22">
         <v>279</v>
       </c>
-      <c r="B294" s="26"/>
+      <c r="B294" s="43"/>
       <c r="C294" s="4" t="s">
         <v>497</v>
       </c>
@@ -11067,8 +11084,8 @@
       <c r="A295" s="22">
         <v>280</v>
       </c>
-      <c r="B295" s="26"/>
-      <c r="C295" s="31" t="s">
+      <c r="B295" s="43"/>
+      <c r="C295" s="29" t="s">
         <v>487</v>
       </c>
       <c r="D295" s="5" t="s">
@@ -11094,8 +11111,8 @@
       <c r="A296" s="22">
         <v>281</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="32"/>
+      <c r="B296" s="43"/>
+      <c r="C296" s="35"/>
       <c r="D296" s="5" t="s">
         <v>490</v>
       </c>
@@ -11119,8 +11136,8 @@
       <c r="A297" s="22">
         <v>282</v>
       </c>
-      <c r="B297" s="26"/>
-      <c r="C297" s="32"/>
+      <c r="B297" s="43"/>
+      <c r="C297" s="35"/>
       <c r="D297" s="5" t="s">
         <v>492</v>
       </c>
@@ -11144,8 +11161,8 @@
       <c r="A298" s="22">
         <v>283</v>
       </c>
-      <c r="B298" s="26"/>
-      <c r="C298" s="33"/>
+      <c r="B298" s="43"/>
+      <c r="C298" s="30"/>
       <c r="D298" s="5" t="s">
         <v>550</v>
       </c>
@@ -11169,7 +11186,7 @@
       <c r="A299" s="22">
         <v>284</v>
       </c>
-      <c r="B299" s="26"/>
+      <c r="B299" s="43"/>
       <c r="C299" s="4" t="s">
         <v>552</v>
       </c>
@@ -11196,7 +11213,7 @@
       <c r="A300" s="22">
         <v>285</v>
       </c>
-      <c r="B300" s="27"/>
+      <c r="B300" s="44"/>
       <c r="C300" s="4" t="s">
         <v>500</v>
       </c>
@@ -11223,7 +11240,7 @@
       <c r="A301" s="22">
         <v>286</v>
       </c>
-      <c r="B301" s="34" t="s">
+      <c r="B301" s="45" t="s">
         <v>556</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -11252,7 +11269,7 @@
       <c r="A302" s="22">
         <v>287</v>
       </c>
-      <c r="B302" s="35"/>
+      <c r="B302" s="46"/>
       <c r="C302" s="4" t="s">
         <v>552</v>
       </c>
@@ -11279,7 +11296,7 @@
       <c r="A303" s="22">
         <v>288</v>
       </c>
-      <c r="B303" s="35"/>
+      <c r="B303" s="46"/>
       <c r="C303" s="4" t="s">
         <v>500</v>
       </c>
@@ -11306,7 +11323,7 @@
       <c r="A304" s="22">
         <v>289</v>
       </c>
-      <c r="B304" s="35"/>
+      <c r="B304" s="46"/>
       <c r="C304" s="4" t="s">
         <v>497</v>
       </c>
@@ -11333,7 +11350,7 @@
       <c r="A305" s="22">
         <v>290</v>
       </c>
-      <c r="B305" s="36"/>
+      <c r="B305" s="47"/>
       <c r="C305" s="4" t="s">
         <v>561</v>
       </c>
@@ -11360,7 +11377,7 @@
       <c r="A306" s="22">
         <v>291</v>
       </c>
-      <c r="B306" s="25" t="s">
+      <c r="B306" s="42" t="s">
         <v>564</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -11389,7 +11406,7 @@
       <c r="A307" s="22">
         <v>292</v>
       </c>
-      <c r="B307" s="26"/>
+      <c r="B307" s="43"/>
       <c r="C307" s="4" t="s">
         <v>500</v>
       </c>
@@ -11416,7 +11433,7 @@
       <c r="A308" s="22">
         <v>293</v>
       </c>
-      <c r="B308" s="26"/>
+      <c r="B308" s="43"/>
       <c r="C308" s="4" t="s">
         <v>497</v>
       </c>
@@ -11443,8 +11460,8 @@
       <c r="A309" s="22">
         <v>294</v>
       </c>
-      <c r="B309" s="26"/>
-      <c r="C309" s="31" t="s">
+      <c r="B309" s="43"/>
+      <c r="C309" s="29" t="s">
         <v>487</v>
       </c>
       <c r="D309" s="5" t="s">
@@ -11470,8 +11487,8 @@
       <c r="A310" s="22">
         <v>295</v>
       </c>
-      <c r="B310" s="26"/>
-      <c r="C310" s="32"/>
+      <c r="B310" s="43"/>
+      <c r="C310" s="35"/>
       <c r="D310" s="5" t="s">
         <v>490</v>
       </c>
@@ -11495,8 +11512,8 @@
       <c r="A311" s="22">
         <v>296</v>
       </c>
-      <c r="B311" s="26"/>
-      <c r="C311" s="33"/>
+      <c r="B311" s="43"/>
+      <c r="C311" s="30"/>
       <c r="D311" s="5" t="s">
         <v>492</v>
       </c>
@@ -11520,8 +11537,8 @@
       <c r="A312" s="22">
         <v>297</v>
       </c>
-      <c r="B312" s="26"/>
-      <c r="C312" s="31" t="s">
+      <c r="B312" s="43"/>
+      <c r="C312" s="29" t="s">
         <v>569</v>
       </c>
       <c r="D312" s="5" t="s">
@@ -11547,8 +11564,8 @@
       <c r="A313" s="22">
         <v>298</v>
       </c>
-      <c r="B313" s="26"/>
-      <c r="C313" s="32"/>
+      <c r="B313" s="43"/>
+      <c r="C313" s="35"/>
       <c r="D313" s="5" t="s">
         <v>572</v>
       </c>
@@ -11572,8 +11589,8 @@
       <c r="A314" s="22">
         <v>299</v>
       </c>
-      <c r="B314" s="26"/>
-      <c r="C314" s="33"/>
+      <c r="B314" s="43"/>
+      <c r="C314" s="30"/>
       <c r="D314" s="5" t="s">
         <v>574</v>
       </c>
@@ -11597,8 +11614,8 @@
       <c r="A315" s="22">
         <v>300</v>
       </c>
-      <c r="B315" s="26"/>
-      <c r="C315" s="31" t="s">
+      <c r="B315" s="43"/>
+      <c r="C315" s="29" t="s">
         <v>576</v>
       </c>
       <c r="D315" s="5" t="s">
@@ -11624,8 +11641,8 @@
       <c r="A316" s="22">
         <v>301</v>
       </c>
-      <c r="B316" s="26"/>
-      <c r="C316" s="33"/>
+      <c r="B316" s="43"/>
+      <c r="C316" s="30"/>
       <c r="D316" s="5" t="s">
         <v>579</v>
       </c>
@@ -11649,7 +11666,7 @@
       <c r="A317" s="22">
         <v>302</v>
       </c>
-      <c r="B317" s="27"/>
+      <c r="B317" s="44"/>
       <c r="C317" s="4" t="s">
         <v>581</v>
       </c>
@@ -11676,7 +11693,7 @@
       <c r="A318" s="22">
         <v>303</v>
       </c>
-      <c r="B318" s="25" t="s">
+      <c r="B318" s="42" t="s">
         <v>584</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -11705,7 +11722,7 @@
       <c r="A319" s="22">
         <v>304</v>
       </c>
-      <c r="B319" s="26"/>
+      <c r="B319" s="43"/>
       <c r="C319" s="4" t="s">
         <v>494</v>
       </c>
@@ -11732,7 +11749,7 @@
       <c r="A320" s="22">
         <v>305</v>
       </c>
-      <c r="B320" s="26"/>
+      <c r="B320" s="43"/>
       <c r="C320" s="4" t="s">
         <v>500</v>
       </c>
@@ -11759,7 +11776,7 @@
       <c r="A321" s="22">
         <v>306</v>
       </c>
-      <c r="B321" s="27"/>
+      <c r="B321" s="44"/>
       <c r="C321" s="4" t="s">
         <v>497</v>
       </c>
@@ -11784,76 +11801,6 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B129"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B87:B96"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B130:B145"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B160:B174"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="B219:B228"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="B191:B201"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="B255:B264"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="B265:B270"/>
-    <mergeCell ref="B271:B279"/>
-    <mergeCell ref="C274:C276"/>
     <mergeCell ref="B318:B321"/>
     <mergeCell ref="B183:B185"/>
     <mergeCell ref="B291:B300"/>
@@ -11870,6 +11817,76 @@
     <mergeCell ref="C234:C236"/>
     <mergeCell ref="B240:B244"/>
     <mergeCell ref="B245:B254"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="B255:B264"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="B265:B270"/>
+    <mergeCell ref="B271:B279"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="B219:B228"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="B191:B201"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="B149:B155"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B160:B174"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B130:B145"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B129"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K211">

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -2730,7 +2730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2807,6 +2807,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2819,22 +2831,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2846,38 +2870,73 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3366,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O173" sqref="O173"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G280" sqref="G280:I290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3557,11 +3616,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
@@ -3582,11 +3641,11 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -3629,7 +3688,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3658,7 +3717,7 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3687,7 +3746,7 @@
       <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3716,7 +3775,7 @@
       <c r="A19" s="22">
         <v>4</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3745,7 +3804,7 @@
       <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3774,7 +3833,7 @@
       <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3801,10 +3860,10 @@
       <c r="A22" s="22">
         <v>7</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3830,8 +3889,8 @@
       <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3855,8 +3914,8 @@
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3882,8 +3941,8 @@
       <c r="A25" s="22">
         <v>10</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3907,7 +3966,7 @@
       <c r="A26" s="22">
         <v>11</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3934,7 +3993,7 @@
       <c r="A27" s="22">
         <v>12</v>
       </c>
-      <c r="B27" s="27"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
@@ -3961,7 +4020,7 @@
       <c r="A28" s="22">
         <v>13</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
@@ -3988,7 +4047,7 @@
       <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
@@ -4015,7 +4074,7 @@
       <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -4044,7 +4103,7 @@
       <c r="A31" s="22">
         <v>16</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -4073,7 +4132,7 @@
       <c r="A32" s="22">
         <v>17</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
@@ -4102,7 +4161,7 @@
       <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4133,7 +4192,7 @@
       <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4160,7 +4219,7 @@
       <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B35" s="27"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4187,7 +4246,7 @@
       <c r="A36" s="22">
         <v>21</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
@@ -4214,7 +4273,7 @@
       <c r="A37" s="22">
         <v>22</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4243,7 +4302,7 @@
       <c r="A38" s="22">
         <v>23</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -4272,7 +4331,7 @@
       <c r="A39" s="22">
         <v>24</v>
       </c>
-      <c r="B39" s="27"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
@@ -4301,7 +4360,7 @@
       <c r="A40" s="22">
         <v>25</v>
       </c>
-      <c r="B40" s="27"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4330,7 +4389,7 @@
       <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
@@ -4359,7 +4418,7 @@
       <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
@@ -4386,7 +4445,7 @@
       <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="B43" s="28"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
@@ -4413,7 +4472,7 @@
       <c r="A44" s="22">
         <v>29</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4442,7 +4501,7 @@
       <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="4" t="s">
         <v>89</v>
       </c>
@@ -4469,7 +4528,7 @@
       <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B46" s="27"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="4" t="s">
         <v>71</v>
       </c>
@@ -4498,7 +4557,7 @@
       <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="B47" s="27"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
@@ -4527,7 +4586,7 @@
       <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B48" s="27"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4556,7 +4615,7 @@
       <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
@@ -4585,7 +4644,7 @@
       <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="44" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4614,7 +4673,7 @@
       <c r="A51" s="22">
         <v>36</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
@@ -4643,7 +4702,7 @@
       <c r="A52" s="22">
         <v>37</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
@@ -4670,7 +4729,7 @@
       <c r="A53" s="22">
         <v>38</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="30" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4699,7 +4758,7 @@
       <c r="A54" s="22">
         <v>39</v>
       </c>
-      <c r="B54" s="27"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
@@ -4728,7 +4787,7 @@
       <c r="A55" s="22">
         <v>40</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4757,7 +4816,7 @@
       <c r="A56" s="22">
         <v>41</v>
       </c>
-      <c r="B56" s="27"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
@@ -4786,7 +4845,7 @@
       <c r="A57" s="22">
         <v>42</v>
       </c>
-      <c r="B57" s="28"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
@@ -4815,10 +4874,10 @@
       <c r="A58" s="22">
         <v>43</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4844,8 +4903,8 @@
       <c r="A59" s="22">
         <v>44</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="33"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="5" t="s">
         <v>123</v>
       </c>
@@ -4869,8 +4928,8 @@
       <c r="A60" s="22">
         <v>45</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="33"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="5" t="s">
         <v>125</v>
       </c>
@@ -4894,8 +4953,8 @@
       <c r="A61" s="22">
         <v>46</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="33"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="5" t="s">
         <v>593</v>
       </c>
@@ -4919,8 +4978,8 @@
       <c r="A62" s="22">
         <v>47</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="33"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="5" t="s">
         <v>597</v>
       </c>
@@ -4944,8 +5003,8 @@
       <c r="A63" s="22">
         <v>48</v>
       </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="33"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="5" t="s">
         <v>592</v>
       </c>
@@ -4969,7 +5028,7 @@
       <c r="A64" s="22">
         <v>49</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="30" t="s">
         <v>599</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -4998,7 +5057,7 @@
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="21" t="s">
         <v>601</v>
       </c>
@@ -5025,7 +5084,7 @@
       <c r="A66" s="22">
         <v>51</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="22" t="s">
         <v>594</v>
       </c>
@@ -5052,7 +5111,7 @@
       <c r="A67" s="22">
         <v>52</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="24" t="s">
         <v>228</v>
       </c>
@@ -5079,10 +5138,10 @@
       <c r="A68" s="22">
         <v>53</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="33" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -5108,8 +5167,8 @@
       <c r="A69" s="22">
         <v>54</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="35"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="5" t="s">
         <v>133</v>
       </c>
@@ -5135,8 +5194,8 @@
       <c r="A70" s="22">
         <v>55</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="5" t="s">
         <v>136</v>
       </c>
@@ -5162,7 +5221,7 @@
       <c r="A71" s="22">
         <v>56</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="4" t="s">
         <v>138</v>
       </c>
@@ -5189,8 +5248,8 @@
       <c r="A72" s="22">
         <v>57</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="33" t="s">
+      <c r="B72" s="31"/>
+      <c r="C72" s="43" t="s">
         <v>141</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -5216,8 +5275,8 @@
       <c r="A73" s="22">
         <v>58</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="33"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="5" t="s">
         <v>144</v>
       </c>
@@ -5241,8 +5300,8 @@
       <c r="A74" s="22">
         <v>59</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="33"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="5" t="s">
         <v>146</v>
       </c>
@@ -5266,7 +5325,7 @@
       <c r="A75" s="22">
         <v>60</v>
       </c>
-      <c r="B75" s="27"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="22" t="s">
         <v>228</v>
       </c>
@@ -5293,7 +5352,7 @@
       <c r="A76" s="22">
         <v>61</v>
       </c>
-      <c r="B76" s="28"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5" t="s">
         <v>148</v>
@@ -5318,10 +5377,10 @@
       <c r="A77" s="22">
         <v>62</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="43" t="s">
         <v>151</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -5349,8 +5408,8 @@
       <c r="A78" s="22">
         <v>63</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="5" t="s">
         <v>155</v>
       </c>
@@ -5374,8 +5433,8 @@
       <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="33" t="s">
+      <c r="B79" s="31"/>
+      <c r="C79" s="43" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -5401,8 +5460,8 @@
       <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="5" t="s">
         <v>160</v>
       </c>
@@ -5426,8 +5485,8 @@
       <c r="A81" s="22">
         <v>66</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="33"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="5" t="s">
         <v>162</v>
       </c>
@@ -5451,8 +5510,8 @@
       <c r="A82" s="22">
         <v>67</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="33"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="5" t="s">
         <v>164</v>
       </c>
@@ -5476,7 +5535,7 @@
       <c r="A83" s="22">
         <v>68</v>
       </c>
-      <c r="B83" s="27"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="22" t="s">
         <v>594</v>
       </c>
@@ -5503,7 +5562,7 @@
       <c r="A84" s="22">
         <v>69</v>
       </c>
-      <c r="B84" s="27"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="4" t="s">
         <v>138</v>
       </c>
@@ -5530,7 +5589,7 @@
       <c r="A85" s="22">
         <v>70</v>
       </c>
-      <c r="B85" s="27"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="22" t="s">
         <v>228</v>
       </c>
@@ -5557,7 +5616,7 @@
       <c r="A86" s="22">
         <v>71</v>
       </c>
-      <c r="B86" s="28"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5" t="s">
         <v>148</v>
@@ -5582,10 +5641,10 @@
       <c r="A87" s="22">
         <v>72</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="43" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5611,8 +5670,8 @@
       <c r="A88" s="22">
         <v>73</v>
       </c>
-      <c r="B88" s="34"/>
-      <c r="C88" s="33"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="5" t="s">
         <v>155</v>
       </c>
@@ -5636,8 +5695,8 @@
       <c r="A89" s="22">
         <v>74</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="33" t="s">
+      <c r="B89" s="42"/>
+      <c r="C89" s="43" t="s">
         <v>157</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5663,8 +5722,8 @@
       <c r="A90" s="22">
         <v>75</v>
       </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="33"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="5" t="s">
         <v>160</v>
       </c>
@@ -5688,8 +5747,8 @@
       <c r="A91" s="22">
         <v>76</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="33"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="5" t="s">
         <v>162</v>
       </c>
@@ -5713,8 +5772,8 @@
       <c r="A92" s="22">
         <v>77</v>
       </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="33"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="5" t="s">
         <v>164</v>
       </c>
@@ -5738,7 +5797,7 @@
       <c r="A93" s="22">
         <v>78</v>
       </c>
-      <c r="B93" s="34"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="22" t="s">
         <v>594</v>
       </c>
@@ -5765,7 +5824,7 @@
       <c r="A94" s="22">
         <v>79</v>
       </c>
-      <c r="B94" s="34"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="4" t="s">
         <v>138</v>
       </c>
@@ -5792,7 +5851,7 @@
       <c r="A95" s="22">
         <v>80</v>
       </c>
-      <c r="B95" s="34"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="22" t="s">
         <v>228</v>
       </c>
@@ -5819,7 +5878,7 @@
       <c r="A96" s="22">
         <v>81</v>
       </c>
-      <c r="B96" s="34"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5" t="s">
         <v>148</v>
@@ -5844,7 +5903,7 @@
       <c r="A97" s="22">
         <v>82</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="42" t="s">
         <v>168</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5873,7 +5932,7 @@
       <c r="A98" s="22">
         <v>83</v>
       </c>
-      <c r="B98" s="34"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="22" t="s">
         <v>228</v>
       </c>
@@ -5900,7 +5959,7 @@
       <c r="A99" s="22">
         <v>84</v>
       </c>
-      <c r="B99" s="34"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5" t="s">
         <v>148</v>
@@ -5925,7 +5984,7 @@
       <c r="A100" s="22">
         <v>85</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="42" t="s">
         <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -5954,7 +6013,7 @@
       <c r="A101" s="22">
         <v>86</v>
       </c>
-      <c r="B101" s="34"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="4" t="s">
         <v>173</v>
       </c>
@@ -5981,8 +6040,8 @@
       <c r="A102" s="22">
         <v>87</v>
       </c>
-      <c r="B102" s="34"/>
-      <c r="C102" s="33" t="s">
+      <c r="B102" s="42"/>
+      <c r="C102" s="43" t="s">
         <v>176</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -6010,8 +6069,8 @@
       <c r="A103" s="22">
         <v>88</v>
       </c>
-      <c r="B103" s="34"/>
-      <c r="C103" s="33"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="43"/>
       <c r="D103" s="5" t="s">
         <v>608</v>
       </c>
@@ -6037,8 +6096,8 @@
       <c r="A104" s="22">
         <v>89</v>
       </c>
-      <c r="B104" s="34"/>
-      <c r="C104" s="33"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="43"/>
       <c r="D104" s="5" t="s">
         <v>609</v>
       </c>
@@ -6064,8 +6123,8 @@
       <c r="A105" s="22">
         <v>90</v>
       </c>
-      <c r="B105" s="34"/>
-      <c r="C105" s="33"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="43"/>
       <c r="D105" s="5" t="s">
         <v>610</v>
       </c>
@@ -6091,7 +6150,7 @@
       <c r="A106" s="22">
         <v>91</v>
       </c>
-      <c r="B106" s="34"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="4" t="s">
         <v>228</v>
       </c>
@@ -6118,7 +6177,7 @@
       <c r="A107" s="22">
         <v>92</v>
       </c>
-      <c r="B107" s="34"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5" t="s">
         <v>148</v>
@@ -6143,10 +6202,10 @@
       <c r="A108" s="22">
         <v>93</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -6172,8 +6231,8 @@
       <c r="A109" s="22">
         <v>94</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="35"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="34"/>
       <c r="D109" s="5" t="s">
         <v>181</v>
       </c>
@@ -6197,8 +6256,8 @@
       <c r="A110" s="22">
         <v>95</v>
       </c>
-      <c r="B110" s="34"/>
-      <c r="C110" s="35"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="34"/>
       <c r="D110" s="5" t="s">
         <v>606</v>
       </c>
@@ -6222,8 +6281,8 @@
       <c r="A111" s="22">
         <v>96</v>
       </c>
-      <c r="B111" s="34"/>
-      <c r="C111" s="30"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="35"/>
       <c r="D111" s="5" t="s">
         <v>605</v>
       </c>
@@ -6247,7 +6306,7 @@
       <c r="A112" s="22">
         <v>97</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="42" t="s">
         <v>185</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -6276,8 +6335,8 @@
       <c r="A113" s="22">
         <v>98</v>
       </c>
-      <c r="B113" s="34"/>
-      <c r="C113" s="33" t="s">
+      <c r="B113" s="42"/>
+      <c r="C113" s="43" t="s">
         <v>189</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -6303,8 +6362,8 @@
       <c r="A114" s="22">
         <v>99</v>
       </c>
-      <c r="B114" s="34"/>
-      <c r="C114" s="33"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="43"/>
       <c r="D114" s="5" t="s">
         <v>192</v>
       </c>
@@ -6328,8 +6387,8 @@
       <c r="A115" s="22">
         <v>100</v>
       </c>
-      <c r="B115" s="34"/>
-      <c r="C115" s="33"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="43"/>
       <c r="D115" s="5" t="s">
         <v>194</v>
       </c>
@@ -6353,8 +6412,8 @@
       <c r="A116" s="22">
         <v>101</v>
       </c>
-      <c r="B116" s="34"/>
-      <c r="C116" s="33"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="43"/>
       <c r="D116" s="5" t="s">
         <v>196</v>
       </c>
@@ -6378,8 +6437,8 @@
       <c r="A117" s="22">
         <v>102</v>
       </c>
-      <c r="B117" s="34"/>
-      <c r="C117" s="33" t="s">
+      <c r="B117" s="42"/>
+      <c r="C117" s="43" t="s">
         <v>197</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -6405,8 +6464,8 @@
       <c r="A118" s="22">
         <v>103</v>
       </c>
-      <c r="B118" s="34"/>
-      <c r="C118" s="33"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="43"/>
       <c r="D118" s="5" t="s">
         <v>200</v>
       </c>
@@ -6430,8 +6489,8 @@
       <c r="A119" s="22">
         <v>104</v>
       </c>
-      <c r="B119" s="34"/>
-      <c r="C119" s="33"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="43"/>
       <c r="D119" s="5" t="s">
         <v>202</v>
       </c>
@@ -6455,8 +6514,8 @@
       <c r="A120" s="22">
         <v>105</v>
       </c>
-      <c r="B120" s="34"/>
-      <c r="C120" s="33"/>
+      <c r="B120" s="42"/>
+      <c r="C120" s="43"/>
       <c r="D120" s="5" t="s">
         <v>203</v>
       </c>
@@ -6480,8 +6539,8 @@
       <c r="A121" s="22">
         <v>106</v>
       </c>
-      <c r="B121" s="34"/>
-      <c r="C121" s="33" t="s">
+      <c r="B121" s="42"/>
+      <c r="C121" s="43" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -6507,8 +6566,8 @@
       <c r="A122" s="22">
         <v>107</v>
       </c>
-      <c r="B122" s="34"/>
-      <c r="C122" s="33"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="43"/>
       <c r="D122" s="5" t="s">
         <v>207</v>
       </c>
@@ -6532,8 +6591,8 @@
       <c r="A123" s="22">
         <v>108</v>
       </c>
-      <c r="B123" s="34"/>
-      <c r="C123" s="33"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="43"/>
       <c r="D123" s="5" t="s">
         <v>208</v>
       </c>
@@ -6557,8 +6616,8 @@
       <c r="A124" s="22">
         <v>109</v>
       </c>
-      <c r="B124" s="34"/>
-      <c r="C124" s="33" t="s">
+      <c r="B124" s="42"/>
+      <c r="C124" s="43" t="s">
         <v>210</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -6584,8 +6643,8 @@
       <c r="A125" s="22">
         <v>110</v>
       </c>
-      <c r="B125" s="34"/>
-      <c r="C125" s="33"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="43"/>
       <c r="D125" s="5" t="s">
         <v>213</v>
       </c>
@@ -6609,8 +6668,8 @@
       <c r="A126" s="22">
         <v>111</v>
       </c>
-      <c r="B126" s="34"/>
-      <c r="C126" s="33" t="s">
+      <c r="B126" s="42"/>
+      <c r="C126" s="43" t="s">
         <v>215</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -6636,8 +6695,8 @@
       <c r="A127" s="22">
         <v>112</v>
       </c>
-      <c r="B127" s="34"/>
-      <c r="C127" s="33"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="43"/>
       <c r="D127" s="5" t="s">
         <v>218</v>
       </c>
@@ -6661,8 +6720,8 @@
       <c r="A128" s="22">
         <v>113</v>
       </c>
-      <c r="B128" s="34"/>
-      <c r="C128" s="33"/>
+      <c r="B128" s="42"/>
+      <c r="C128" s="43"/>
       <c r="D128" s="5" t="s">
         <v>220</v>
       </c>
@@ -6686,7 +6745,7 @@
       <c r="A129" s="22">
         <v>114</v>
       </c>
-      <c r="B129" s="34"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
         <v>148</v>
@@ -6711,10 +6770,10 @@
       <c r="A130" s="22">
         <v>115</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="C130" s="33" t="s">
+      <c r="C130" s="43" t="s">
         <v>224</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -6740,8 +6799,8 @@
       <c r="A131" s="22">
         <v>116</v>
       </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="33"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="43"/>
       <c r="D131" s="5" t="s">
         <v>231</v>
       </c>
@@ -6765,8 +6824,8 @@
       <c r="A132" s="22">
         <v>117</v>
       </c>
-      <c r="B132" s="34"/>
-      <c r="C132" s="33"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="43"/>
       <c r="D132" s="5" t="s">
         <v>232</v>
       </c>
@@ -6790,8 +6849,8 @@
       <c r="A133" s="22">
         <v>118</v>
       </c>
-      <c r="B133" s="34"/>
-      <c r="C133" s="29" t="s">
+      <c r="B133" s="42"/>
+      <c r="C133" s="33" t="s">
         <v>225</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -6817,8 +6876,8 @@
       <c r="A134" s="22">
         <v>119</v>
       </c>
-      <c r="B134" s="34"/>
-      <c r="C134" s="30"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="35"/>
       <c r="D134" s="5" t="s">
         <v>230</v>
       </c>
@@ -6842,8 +6901,8 @@
       <c r="A135" s="22">
         <v>120</v>
       </c>
-      <c r="B135" s="34"/>
-      <c r="C135" s="29" t="s">
+      <c r="B135" s="42"/>
+      <c r="C135" s="33" t="s">
         <v>226</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6869,8 +6928,8 @@
       <c r="A136" s="22">
         <v>121</v>
       </c>
-      <c r="B136" s="34"/>
-      <c r="C136" s="35"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="34"/>
       <c r="D136" s="5" t="s">
         <v>238</v>
       </c>
@@ -6894,8 +6953,8 @@
       <c r="A137" s="22">
         <v>122</v>
       </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="30"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="35"/>
       <c r="D137" s="5" t="s">
         <v>240</v>
       </c>
@@ -6919,8 +6978,8 @@
       <c r="A138" s="22">
         <v>123</v>
       </c>
-      <c r="B138" s="34"/>
-      <c r="C138" s="29" t="s">
+      <c r="B138" s="42"/>
+      <c r="C138" s="33" t="s">
         <v>227</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -6946,8 +7005,8 @@
       <c r="A139" s="22">
         <v>124</v>
       </c>
-      <c r="B139" s="34"/>
-      <c r="C139" s="35"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="34"/>
       <c r="D139" s="5" t="s">
         <v>244</v>
       </c>
@@ -6971,8 +7030,8 @@
       <c r="A140" s="22">
         <v>125</v>
       </c>
-      <c r="B140" s="34"/>
-      <c r="C140" s="35"/>
+      <c r="B140" s="42"/>
+      <c r="C140" s="34"/>
       <c r="D140" s="5" t="s">
         <v>246</v>
       </c>
@@ -6996,8 +7055,8 @@
       <c r="A141" s="22">
         <v>126</v>
       </c>
-      <c r="B141" s="34"/>
-      <c r="C141" s="35"/>
+      <c r="B141" s="42"/>
+      <c r="C141" s="34"/>
       <c r="D141" s="5" t="s">
         <v>245</v>
       </c>
@@ -7021,8 +7080,8 @@
       <c r="A142" s="22">
         <v>127</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="35"/>
+      <c r="B142" s="42"/>
+      <c r="C142" s="34"/>
       <c r="D142" s="5" t="s">
         <v>247</v>
       </c>
@@ -7046,8 +7105,8 @@
       <c r="A143" s="22">
         <v>128</v>
       </c>
-      <c r="B143" s="34"/>
-      <c r="C143" s="30"/>
+      <c r="B143" s="42"/>
+      <c r="C143" s="35"/>
       <c r="D143" s="5" t="s">
         <v>249</v>
       </c>
@@ -7071,7 +7130,7 @@
       <c r="A144" s="22">
         <v>129</v>
       </c>
-      <c r="B144" s="34"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="7" t="s">
         <v>228</v>
       </c>
@@ -7098,7 +7157,7 @@
       <c r="A145" s="22">
         <v>130</v>
       </c>
-      <c r="B145" s="34"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="7"/>
       <c r="D145" s="5" t="s">
         <v>148</v>
@@ -7123,10 +7182,10 @@
       <c r="A146" s="22">
         <v>131</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C146" s="33" t="s">
+      <c r="C146" s="43" t="s">
         <v>252</v>
       </c>
       <c r="D146" s="5" t="s">
@@ -7152,8 +7211,8 @@
       <c r="A147" s="22">
         <v>132</v>
       </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="33"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="43"/>
       <c r="D147" s="5" t="s">
         <v>255</v>
       </c>
@@ -7177,7 +7236,7 @@
       <c r="A148" s="22">
         <v>133</v>
       </c>
-      <c r="B148" s="34"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5" t="s">
         <v>148</v>
@@ -7202,10 +7261,10 @@
       <c r="A149" s="22">
         <v>134</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="29" t="s">
+      <c r="C149" s="33" t="s">
         <v>258</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -7231,8 +7290,8 @@
       <c r="A150" s="22">
         <v>135</v>
       </c>
-      <c r="B150" s="27"/>
-      <c r="C150" s="35"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="34"/>
       <c r="D150" s="5" t="s">
         <v>261</v>
       </c>
@@ -7256,8 +7315,8 @@
       <c r="A151" s="22">
         <v>136</v>
       </c>
-      <c r="B151" s="27"/>
-      <c r="C151" s="35"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="34"/>
       <c r="D151" s="5" t="s">
         <v>263</v>
       </c>
@@ -7281,8 +7340,8 @@
       <c r="A152" s="22">
         <v>137</v>
       </c>
-      <c r="B152" s="27"/>
-      <c r="C152" s="30"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="35"/>
       <c r="D152" s="5" t="s">
         <v>265</v>
       </c>
@@ -7306,8 +7365,8 @@
       <c r="A153" s="22">
         <v>138</v>
       </c>
-      <c r="B153" s="27"/>
-      <c r="C153" s="29" t="s">
+      <c r="B153" s="31"/>
+      <c r="C153" s="33" t="s">
         <v>252</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -7333,8 +7392,8 @@
       <c r="A154" s="22">
         <v>139</v>
       </c>
-      <c r="B154" s="27"/>
-      <c r="C154" s="30"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="35"/>
       <c r="D154" s="5" t="s">
         <v>269</v>
       </c>
@@ -7358,7 +7417,7 @@
       <c r="A155" s="22">
         <v>140</v>
       </c>
-      <c r="B155" s="28"/>
+      <c r="B155" s="32"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5" t="s">
         <v>148</v>
@@ -7383,7 +7442,7 @@
       <c r="A156" s="22">
         <v>141</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B156" s="30" t="s">
         <v>271</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -7412,7 +7471,7 @@
       <c r="A157" s="22">
         <v>142</v>
       </c>
-      <c r="B157" s="27"/>
+      <c r="B157" s="31"/>
       <c r="C157" s="4" t="s">
         <v>275</v>
       </c>
@@ -7439,7 +7498,7 @@
       <c r="A158" s="22">
         <v>143</v>
       </c>
-      <c r="B158" s="27"/>
+      <c r="B158" s="31"/>
       <c r="C158" s="4" t="s">
         <v>278</v>
       </c>
@@ -7466,7 +7525,7 @@
       <c r="A159" s="22">
         <v>144</v>
       </c>
-      <c r="B159" s="28"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5" t="s">
         <v>148</v>
@@ -7491,7 +7550,7 @@
       <c r="A160" s="22">
         <v>145</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="30" t="s">
         <v>281</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -7520,8 +7579,8 @@
       <c r="A161" s="22">
         <v>146</v>
       </c>
-      <c r="B161" s="27"/>
-      <c r="C161" s="29" t="s">
+      <c r="B161" s="31"/>
+      <c r="C161" s="33" t="s">
         <v>284</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -7547,8 +7606,8 @@
       <c r="A162" s="22">
         <v>147</v>
       </c>
-      <c r="B162" s="27"/>
-      <c r="C162" s="30"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="35"/>
       <c r="D162" s="5" t="s">
         <v>287</v>
       </c>
@@ -7572,8 +7631,8 @@
       <c r="A163" s="22">
         <v>148</v>
       </c>
-      <c r="B163" s="27"/>
-      <c r="C163" s="29" t="s">
+      <c r="B163" s="31"/>
+      <c r="C163" s="33" t="s">
         <v>289</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -7599,8 +7658,8 @@
       <c r="A164" s="22">
         <v>149</v>
       </c>
-      <c r="B164" s="27"/>
-      <c r="C164" s="30"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="35"/>
       <c r="D164" s="5" t="s">
         <v>290</v>
       </c>
@@ -7624,7 +7683,7 @@
       <c r="A165" s="22">
         <v>150</v>
       </c>
-      <c r="B165" s="27"/>
+      <c r="B165" s="31"/>
       <c r="C165" s="4" t="s">
         <v>293</v>
       </c>
@@ -7651,8 +7710,8 @@
       <c r="A166" s="22">
         <v>151</v>
       </c>
-      <c r="B166" s="27"/>
-      <c r="C166" s="29" t="s">
+      <c r="B166" s="31"/>
+      <c r="C166" s="33" t="s">
         <v>296</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -7678,8 +7737,8 @@
       <c r="A167" s="22">
         <v>152</v>
       </c>
-      <c r="B167" s="27"/>
-      <c r="C167" s="30"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="35"/>
       <c r="D167" s="5" t="s">
         <v>299</v>
       </c>
@@ -7703,8 +7762,8 @@
       <c r="A168" s="22">
         <v>153</v>
       </c>
-      <c r="B168" s="27"/>
-      <c r="C168" s="29" t="s">
+      <c r="B168" s="31"/>
+      <c r="C168" s="33" t="s">
         <v>301</v>
       </c>
       <c r="D168" s="5" t="s">
@@ -7730,8 +7789,8 @@
       <c r="A169" s="22">
         <v>154</v>
       </c>
-      <c r="B169" s="27"/>
-      <c r="C169" s="30"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="35"/>
       <c r="D169" s="5" t="s">
         <v>304</v>
       </c>
@@ -7755,8 +7814,8 @@
       <c r="A170" s="22">
         <v>155</v>
       </c>
-      <c r="B170" s="27"/>
-      <c r="C170" s="29" t="s">
+      <c r="B170" s="31"/>
+      <c r="C170" s="33" t="s">
         <v>306</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -7782,8 +7841,8 @@
       <c r="A171" s="22">
         <v>156</v>
       </c>
-      <c r="B171" s="27"/>
-      <c r="C171" s="35"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="34"/>
       <c r="D171" s="5" t="s">
         <v>309</v>
       </c>
@@ -7807,8 +7866,8 @@
       <c r="A172" s="22">
         <v>157</v>
       </c>
-      <c r="B172" s="27"/>
-      <c r="C172" s="30"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="35"/>
       <c r="D172" s="5" t="s">
         <v>311</v>
       </c>
@@ -7832,8 +7891,8 @@
       <c r="A173" s="22">
         <v>158</v>
       </c>
-      <c r="B173" s="27"/>
-      <c r="C173" s="29" t="s">
+      <c r="B173" s="31"/>
+      <c r="C173" s="33" t="s">
         <v>313</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -7859,8 +7918,8 @@
       <c r="A174" s="22">
         <v>159</v>
       </c>
-      <c r="B174" s="27"/>
-      <c r="C174" s="30"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="35"/>
       <c r="D174" s="5" t="s">
         <v>314</v>
       </c>
@@ -7884,7 +7943,7 @@
       <c r="A175" s="22">
         <v>160</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B175" s="31" t="s">
         <v>317</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -7913,7 +7972,7 @@
       <c r="A176" s="22">
         <v>161</v>
       </c>
-      <c r="B176" s="27"/>
+      <c r="B176" s="31"/>
       <c r="C176" s="4" t="s">
         <v>319</v>
       </c>
@@ -7940,8 +7999,8 @@
       <c r="A177" s="22">
         <v>162</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="29" t="s">
+      <c r="B177" s="31"/>
+      <c r="C177" s="33" t="s">
         <v>322</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -7967,8 +8026,8 @@
       <c r="A178" s="22">
         <v>163</v>
       </c>
-      <c r="B178" s="28"/>
-      <c r="C178" s="30"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="35"/>
       <c r="D178" s="5" t="s">
         <v>323</v>
       </c>
@@ -7992,10 +8051,10 @@
       <c r="A179" s="22">
         <v>164</v>
       </c>
-      <c r="B179" s="34" t="s">
+      <c r="B179" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="C179" s="29" t="s">
+      <c r="C179" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D179" s="5" t="s">
@@ -8021,8 +8080,8 @@
       <c r="A180" s="22">
         <v>165</v>
       </c>
-      <c r="B180" s="34"/>
-      <c r="C180" s="35"/>
+      <c r="B180" s="42"/>
+      <c r="C180" s="34"/>
       <c r="D180" s="5" t="s">
         <v>329</v>
       </c>
@@ -8046,8 +8105,8 @@
       <c r="A181" s="22">
         <v>166</v>
       </c>
-      <c r="B181" s="34"/>
-      <c r="C181" s="35"/>
+      <c r="B181" s="42"/>
+      <c r="C181" s="34"/>
       <c r="D181" s="5" t="s">
         <v>331</v>
       </c>
@@ -8071,8 +8130,8 @@
       <c r="A182" s="22">
         <v>167</v>
       </c>
-      <c r="B182" s="34"/>
-      <c r="C182" s="30"/>
+      <c r="B182" s="42"/>
+      <c r="C182" s="35"/>
       <c r="D182" s="5" t="s">
         <v>333</v>
       </c>
@@ -8096,7 +8155,7 @@
       <c r="A183" s="22">
         <v>168</v>
       </c>
-      <c r="B183" s="26" t="s">
+      <c r="B183" s="30" t="s">
         <v>335</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -8125,7 +8184,7 @@
       <c r="A184" s="22">
         <v>169</v>
       </c>
-      <c r="B184" s="27"/>
+      <c r="B184" s="31"/>
       <c r="C184" s="4" t="s">
         <v>339</v>
       </c>
@@ -8152,7 +8211,7 @@
       <c r="A185" s="22">
         <v>170</v>
       </c>
-      <c r="B185" s="28"/>
+      <c r="B185" s="32"/>
       <c r="C185" s="4" t="s">
         <v>342</v>
       </c>
@@ -8179,7 +8238,7 @@
       <c r="A186" s="22">
         <v>171</v>
       </c>
-      <c r="B186" s="34" t="s">
+      <c r="B186" s="42" t="s">
         <v>345</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -8208,7 +8267,7 @@
       <c r="A187" s="22">
         <v>172</v>
       </c>
-      <c r="B187" s="34"/>
+      <c r="B187" s="42"/>
       <c r="C187" s="4" t="s">
         <v>349</v>
       </c>
@@ -8235,7 +8294,7 @@
       <c r="A188" s="22">
         <v>173</v>
       </c>
-      <c r="B188" s="34"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="4" t="s">
         <v>352</v>
       </c>
@@ -8262,7 +8321,7 @@
       <c r="A189" s="22">
         <v>174</v>
       </c>
-      <c r="B189" s="34"/>
+      <c r="B189" s="42"/>
       <c r="C189" s="4" t="s">
         <v>355</v>
       </c>
@@ -8289,7 +8348,7 @@
       <c r="A190" s="22">
         <v>175</v>
       </c>
-      <c r="B190" s="34"/>
+      <c r="B190" s="42"/>
       <c r="C190" s="4" t="s">
         <v>357</v>
       </c>
@@ -8316,7 +8375,7 @@
       <c r="A191" s="22">
         <v>176</v>
       </c>
-      <c r="B191" s="34" t="s">
+      <c r="B191" s="42" t="s">
         <v>359</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -8345,7 +8404,7 @@
       <c r="A192" s="22">
         <v>177</v>
       </c>
-      <c r="B192" s="34"/>
+      <c r="B192" s="42"/>
       <c r="C192" s="4"/>
       <c r="D192" s="5" t="s">
         <v>363</v>
@@ -8370,7 +8429,7 @@
       <c r="A193" s="22">
         <v>178</v>
       </c>
-      <c r="B193" s="34"/>
+      <c r="B193" s="42"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5" t="s">
         <v>365</v>
@@ -8395,7 +8454,7 @@
       <c r="A194" s="22">
         <v>179</v>
       </c>
-      <c r="B194" s="34"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5" t="s">
         <v>367</v>
@@ -8420,7 +8479,7 @@
       <c r="A195" s="22">
         <v>180</v>
       </c>
-      <c r="B195" s="34"/>
+      <c r="B195" s="42"/>
       <c r="C195" s="4" t="s">
         <v>369</v>
       </c>
@@ -8447,7 +8506,7 @@
       <c r="A196" s="22">
         <v>181</v>
       </c>
-      <c r="B196" s="34"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="4" t="s">
         <v>372</v>
       </c>
@@ -8474,7 +8533,7 @@
       <c r="A197" s="22">
         <v>182</v>
       </c>
-      <c r="B197" s="34"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="4"/>
       <c r="D197" s="5" t="s">
         <v>375</v>
@@ -8499,7 +8558,7 @@
       <c r="A198" s="22">
         <v>183</v>
       </c>
-      <c r="B198" s="34"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5" t="s">
         <v>377</v>
@@ -8524,7 +8583,7 @@
       <c r="A199" s="22">
         <v>184</v>
       </c>
-      <c r="B199" s="34"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="4" t="s">
         <v>379</v>
       </c>
@@ -8551,7 +8610,7 @@
       <c r="A200" s="22">
         <v>185</v>
       </c>
-      <c r="B200" s="34"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="4" t="s">
         <v>357</v>
       </c>
@@ -8578,7 +8637,7 @@
       <c r="A201" s="22">
         <v>186</v>
       </c>
-      <c r="B201" s="34"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="4" t="s">
         <v>382</v>
       </c>
@@ -8605,7 +8664,7 @@
       <c r="A202" s="22">
         <v>187</v>
       </c>
-      <c r="B202" s="34" t="s">
+      <c r="B202" s="42" t="s">
         <v>384</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -8634,7 +8693,7 @@
       <c r="A203" s="22">
         <v>188</v>
       </c>
-      <c r="B203" s="34"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="4"/>
       <c r="D203" s="5" t="s">
         <v>353</v>
@@ -8659,7 +8718,7 @@
       <c r="A204" s="22">
         <v>189</v>
       </c>
-      <c r="B204" s="34"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="4" t="s">
         <v>382</v>
       </c>
@@ -8686,7 +8745,7 @@
       <c r="A205" s="22">
         <v>190</v>
       </c>
-      <c r="B205" s="34"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="4" t="s">
         <v>388</v>
       </c>
@@ -8713,7 +8772,7 @@
       <c r="A206" s="22">
         <v>191</v>
       </c>
-      <c r="B206" s="34"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="16" t="s">
         <v>391</v>
       </c>
@@ -8740,7 +8799,7 @@
       <c r="A207" s="22">
         <v>192</v>
       </c>
-      <c r="B207" s="26" t="s">
+      <c r="B207" s="30" t="s">
         <v>394</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -8769,8 +8828,8 @@
       <c r="A208" s="22">
         <v>193</v>
       </c>
-      <c r="B208" s="27"/>
-      <c r="C208" s="29" t="s">
+      <c r="B208" s="31"/>
+      <c r="C208" s="33" t="s">
         <v>397</v>
       </c>
       <c r="D208" s="5" t="s">
@@ -8796,8 +8855,8 @@
       <c r="A209" s="22">
         <v>194</v>
       </c>
-      <c r="B209" s="27"/>
-      <c r="C209" s="35"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="34"/>
       <c r="D209" s="5" t="s">
         <v>400</v>
       </c>
@@ -8821,8 +8880,8 @@
       <c r="A210" s="22">
         <v>195</v>
       </c>
-      <c r="B210" s="27"/>
-      <c r="C210" s="30"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="35"/>
       <c r="D210" s="5" t="s">
         <v>402</v>
       </c>
@@ -8846,7 +8905,7 @@
       <c r="A211" s="22">
         <v>196</v>
       </c>
-      <c r="B211" s="27"/>
+      <c r="B211" s="31"/>
       <c r="C211" s="4" t="s">
         <v>404</v>
       </c>
@@ -8873,7 +8932,7 @@
       <c r="A212" s="22">
         <v>197</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="31"/>
       <c r="C212" s="4" t="s">
         <v>407</v>
       </c>
@@ -8900,8 +8959,8 @@
       <c r="A213" s="22">
         <v>198</v>
       </c>
-      <c r="B213" s="27"/>
-      <c r="C213" s="29" t="s">
+      <c r="B213" s="31"/>
+      <c r="C213" s="33" t="s">
         <v>410</v>
       </c>
       <c r="D213" s="5" t="s">
@@ -8927,8 +8986,8 @@
       <c r="A214" s="22">
         <v>199</v>
       </c>
-      <c r="B214" s="27"/>
-      <c r="C214" s="35"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="34"/>
       <c r="D214" s="5" t="s">
         <v>411</v>
       </c>
@@ -8952,8 +9011,8 @@
       <c r="A215" s="22">
         <v>200</v>
       </c>
-      <c r="B215" s="27"/>
-      <c r="C215" s="30"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="35"/>
       <c r="D215" s="5" t="s">
         <v>411</v>
       </c>
@@ -8977,7 +9036,7 @@
       <c r="A216" s="22">
         <v>201</v>
       </c>
-      <c r="B216" s="27"/>
+      <c r="B216" s="31"/>
       <c r="C216" s="4" t="s">
         <v>357</v>
       </c>
@@ -9004,7 +9063,7 @@
       <c r="A217" s="22">
         <v>202</v>
       </c>
-      <c r="B217" s="27"/>
+      <c r="B217" s="31"/>
       <c r="C217" s="4" t="s">
         <v>382</v>
       </c>
@@ -9031,7 +9090,7 @@
       <c r="A218" s="22">
         <v>203</v>
       </c>
-      <c r="B218" s="28"/>
+      <c r="B218" s="32"/>
       <c r="C218" s="4" t="s">
         <v>418</v>
       </c>
@@ -9088,7 +9147,7 @@
         <v>205</v>
       </c>
       <c r="B220" s="40"/>
-      <c r="C220" s="29" t="s">
+      <c r="C220" s="33" t="s">
         <v>397</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -9115,7 +9174,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="40"/>
-      <c r="C221" s="35"/>
+      <c r="C221" s="34"/>
       <c r="D221" s="5" t="s">
         <v>424</v>
       </c>
@@ -9140,7 +9199,7 @@
         <v>207</v>
       </c>
       <c r="B222" s="40"/>
-      <c r="C222" s="30"/>
+      <c r="C222" s="35"/>
       <c r="D222" s="5" t="s">
         <v>424</v>
       </c>
@@ -9192,7 +9251,7 @@
         <v>209</v>
       </c>
       <c r="B224" s="40"/>
-      <c r="C224" s="29" t="s">
+      <c r="C224" s="33" t="s">
         <v>410</v>
       </c>
       <c r="D224" s="5" t="s">
@@ -9219,7 +9278,7 @@
         <v>210</v>
       </c>
       <c r="B225" s="40"/>
-      <c r="C225" s="35"/>
+      <c r="C225" s="34"/>
       <c r="D225" s="5" t="s">
         <v>426</v>
       </c>
@@ -9244,7 +9303,7 @@
         <v>211</v>
       </c>
       <c r="B226" s="40"/>
-      <c r="C226" s="30"/>
+      <c r="C226" s="35"/>
       <c r="D226" s="5" t="s">
         <v>426</v>
       </c>
@@ -9322,7 +9381,7 @@
       <c r="A229" s="22">
         <v>214</v>
       </c>
-      <c r="B229" s="42" t="s">
+      <c r="B229" s="27" t="s">
         <v>429</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -9351,8 +9410,8 @@
       <c r="A230" s="22">
         <v>215</v>
       </c>
-      <c r="B230" s="43"/>
-      <c r="C230" s="29" t="s">
+      <c r="B230" s="28"/>
+      <c r="C230" s="33" t="s">
         <v>397</v>
       </c>
       <c r="D230" s="5" t="s">
@@ -9378,8 +9437,8 @@
       <c r="A231" s="22">
         <v>216</v>
       </c>
-      <c r="B231" s="43"/>
-      <c r="C231" s="35"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="34"/>
       <c r="D231" s="5" t="s">
         <v>433</v>
       </c>
@@ -9403,8 +9462,8 @@
       <c r="A232" s="22">
         <v>217</v>
       </c>
-      <c r="B232" s="43"/>
-      <c r="C232" s="30"/>
+      <c r="B232" s="28"/>
+      <c r="C232" s="35"/>
       <c r="D232" s="5" t="s">
         <v>433</v>
       </c>
@@ -9428,7 +9487,7 @@
       <c r="A233" s="22">
         <v>218</v>
       </c>
-      <c r="B233" s="43"/>
+      <c r="B233" s="28"/>
       <c r="C233" s="4" t="s">
         <v>407</v>
       </c>
@@ -9455,8 +9514,8 @@
       <c r="A234" s="22">
         <v>219</v>
       </c>
-      <c r="B234" s="43"/>
-      <c r="C234" s="29" t="s">
+      <c r="B234" s="28"/>
+      <c r="C234" s="33" t="s">
         <v>410</v>
       </c>
       <c r="D234" s="5" t="s">
@@ -9482,8 +9541,8 @@
       <c r="A235" s="22">
         <v>220</v>
       </c>
-      <c r="B235" s="43"/>
-      <c r="C235" s="35"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="34"/>
       <c r="D235" s="5" t="s">
         <v>435</v>
       </c>
@@ -9507,8 +9566,8 @@
       <c r="A236" s="22">
         <v>221</v>
       </c>
-      <c r="B236" s="43"/>
-      <c r="C236" s="30"/>
+      <c r="B236" s="28"/>
+      <c r="C236" s="35"/>
       <c r="D236" s="5" t="s">
         <v>435</v>
       </c>
@@ -9532,7 +9591,7 @@
       <c r="A237" s="22">
         <v>222</v>
       </c>
-      <c r="B237" s="43"/>
+      <c r="B237" s="28"/>
       <c r="C237" s="4" t="s">
         <v>357</v>
       </c>
@@ -9559,7 +9618,7 @@
       <c r="A238" s="22">
         <v>223</v>
       </c>
-      <c r="B238" s="43"/>
+      <c r="B238" s="28"/>
       <c r="C238" s="4" t="s">
         <v>382</v>
       </c>
@@ -9586,7 +9645,7 @@
       <c r="A239" s="22">
         <v>224</v>
       </c>
-      <c r="B239" s="44"/>
+      <c r="B239" s="29"/>
       <c r="C239" s="4" t="s">
         <v>404</v>
       </c>
@@ -9613,7 +9672,7 @@
       <c r="A240" s="22">
         <v>225</v>
       </c>
-      <c r="B240" s="42" t="s">
+      <c r="B240" s="27" t="s">
         <v>439</v>
       </c>
       <c r="C240" s="4" t="s">
@@ -9642,7 +9701,7 @@
       <c r="A241" s="22">
         <v>226</v>
       </c>
-      <c r="B241" s="43"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="4" t="s">
         <v>442</v>
       </c>
@@ -9669,7 +9728,7 @@
       <c r="A242" s="22">
         <v>227</v>
       </c>
-      <c r="B242" s="43"/>
+      <c r="B242" s="28"/>
       <c r="C242" s="4" t="s">
         <v>445</v>
       </c>
@@ -9696,7 +9755,7 @@
       <c r="A243" s="22">
         <v>228</v>
       </c>
-      <c r="B243" s="43"/>
+      <c r="B243" s="28"/>
       <c r="C243" s="4"/>
       <c r="D243" s="5" t="s">
         <v>448</v>
@@ -9721,7 +9780,7 @@
       <c r="A244" s="22">
         <v>229</v>
       </c>
-      <c r="B244" s="44"/>
+      <c r="B244" s="29"/>
       <c r="C244" s="4"/>
       <c r="D244" s="5" t="s">
         <v>450</v>
@@ -9746,7 +9805,7 @@
       <c r="A245" s="22">
         <v>230</v>
       </c>
-      <c r="B245" s="42" t="s">
+      <c r="B245" s="27" t="s">
         <v>452</v>
       </c>
       <c r="C245" s="4" t="s">
@@ -9760,13 +9819,13 @@
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H245" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I245" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="H245" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I245" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J245" s="7"/>
       <c r="K245" s="7"/>
@@ -9775,8 +9834,8 @@
       <c r="A246" s="22">
         <v>231</v>
       </c>
-      <c r="B246" s="43"/>
-      <c r="C246" s="29" t="s">
+      <c r="B246" s="28"/>
+      <c r="C246" s="33" t="s">
         <v>455</v>
       </c>
       <c r="D246" s="5" t="s">
@@ -9786,14 +9845,14 @@
         <v>457</v>
       </c>
       <c r="F246" s="7"/>
-      <c r="G246" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I246" s="4" t="s">
-        <v>177</v>
+      <c r="G246" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H246" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I246" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
@@ -9802,8 +9861,8 @@
       <c r="A247" s="22">
         <v>232</v>
       </c>
-      <c r="B247" s="43"/>
-      <c r="C247" s="35"/>
+      <c r="B247" s="28"/>
+      <c r="C247" s="34"/>
       <c r="D247" s="5" t="s">
         <v>458</v>
       </c>
@@ -9811,14 +9870,14 @@
         <v>459</v>
       </c>
       <c r="F247" s="7"/>
-      <c r="G247" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H247" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I247" s="4" t="s">
-        <v>177</v>
+      <c r="G247" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H247" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I247" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
@@ -9827,8 +9886,8 @@
       <c r="A248" s="22">
         <v>233</v>
       </c>
-      <c r="B248" s="43"/>
-      <c r="C248" s="35"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="34"/>
       <c r="D248" s="5" t="s">
         <v>460</v>
       </c>
@@ -9836,14 +9895,14 @@
         <v>461</v>
       </c>
       <c r="F248" s="7"/>
-      <c r="G248" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H248" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I248" s="4" t="s">
-        <v>177</v>
+      <c r="G248" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H248" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I248" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
@@ -9852,8 +9911,8 @@
       <c r="A249" s="22">
         <v>234</v>
       </c>
-      <c r="B249" s="43"/>
-      <c r="C249" s="30"/>
+      <c r="B249" s="28"/>
+      <c r="C249" s="35"/>
       <c r="D249" s="5" t="s">
         <v>462</v>
       </c>
@@ -9861,14 +9920,14 @@
         <v>463</v>
       </c>
       <c r="F249" s="7"/>
-      <c r="G249" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H249" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I249" s="4" t="s">
-        <v>177</v>
+      <c r="G249" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H249" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I249" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
@@ -9877,7 +9936,7 @@
       <c r="A250" s="22">
         <v>235</v>
       </c>
-      <c r="B250" s="43"/>
+      <c r="B250" s="28"/>
       <c r="C250" s="4" t="s">
         <v>464</v>
       </c>
@@ -9888,14 +9947,14 @@
         <v>466</v>
       </c>
       <c r="F250" s="7"/>
-      <c r="G250" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H250" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I250" s="4" t="s">
-        <v>177</v>
+      <c r="G250" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H250" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I250" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
@@ -9904,7 +9963,7 @@
       <c r="A251" s="22">
         <v>236</v>
       </c>
-      <c r="B251" s="43"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="4" t="s">
         <v>467</v>
       </c>
@@ -9931,7 +9990,7 @@
       <c r="A252" s="22">
         <v>237</v>
       </c>
-      <c r="B252" s="43"/>
+      <c r="B252" s="28"/>
       <c r="C252" s="4" t="s">
         <v>470</v>
       </c>
@@ -9943,13 +10002,13 @@
       </c>
       <c r="F252" s="7"/>
       <c r="G252" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H252" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I252" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="H252" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I252" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J252" s="7"/>
       <c r="K252" s="7"/>
@@ -9958,7 +10017,7 @@
       <c r="A253" s="22">
         <v>238</v>
       </c>
-      <c r="B253" s="43"/>
+      <c r="B253" s="28"/>
       <c r="C253" s="4" t="s">
         <v>473</v>
       </c>
@@ -9969,14 +10028,14 @@
         <v>475</v>
       </c>
       <c r="F253" s="7"/>
-      <c r="G253" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H253" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I253" s="4" t="s">
-        <v>177</v>
+      <c r="G253" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H253" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I253" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
@@ -9985,7 +10044,7 @@
       <c r="A254" s="22">
         <v>239</v>
       </c>
-      <c r="B254" s="44"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="4" t="s">
         <v>476</v>
       </c>
@@ -9996,14 +10055,14 @@
         <v>478</v>
       </c>
       <c r="F254" s="7"/>
-      <c r="G254" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H254" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I254" s="4" t="s">
-        <v>177</v>
+      <c r="G254" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I254" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J254" s="7"/>
       <c r="K254" s="7"/>
@@ -10012,7 +10071,7 @@
       <c r="A255" s="22">
         <v>240</v>
       </c>
-      <c r="B255" s="42" t="s">
+      <c r="B255" s="27" t="s">
         <v>479</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -10041,7 +10100,7 @@
       <c r="A256" s="22">
         <v>241</v>
       </c>
-      <c r="B256" s="43"/>
+      <c r="B256" s="28"/>
       <c r="C256" s="4" t="s">
         <v>482</v>
       </c>
@@ -10068,7 +10127,7 @@
       <c r="A257" s="22">
         <v>242</v>
       </c>
-      <c r="B257" s="43"/>
+      <c r="B257" s="28"/>
       <c r="C257" s="4" t="s">
         <v>151</v>
       </c>
@@ -10095,8 +10154,8 @@
       <c r="A258" s="22">
         <v>243</v>
       </c>
-      <c r="B258" s="43"/>
-      <c r="C258" s="29" t="s">
+      <c r="B258" s="28"/>
+      <c r="C258" s="33" t="s">
         <v>487</v>
       </c>
       <c r="D258" s="5" t="s">
@@ -10122,8 +10181,8 @@
       <c r="A259" s="22">
         <v>244</v>
       </c>
-      <c r="B259" s="43"/>
-      <c r="C259" s="35"/>
+      <c r="B259" s="28"/>
+      <c r="C259" s="34"/>
       <c r="D259" s="5" t="s">
         <v>490</v>
       </c>
@@ -10147,8 +10206,8 @@
       <c r="A260" s="22">
         <v>245</v>
       </c>
-      <c r="B260" s="43"/>
-      <c r="C260" s="30"/>
+      <c r="B260" s="28"/>
+      <c r="C260" s="35"/>
       <c r="D260" s="5" t="s">
         <v>492</v>
       </c>
@@ -10172,7 +10231,7 @@
       <c r="A261" s="22">
         <v>246</v>
       </c>
-      <c r="B261" s="43"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="17" t="s">
         <v>494</v>
       </c>
@@ -10199,7 +10258,7 @@
       <c r="A262" s="22">
         <v>247</v>
       </c>
-      <c r="B262" s="43"/>
+      <c r="B262" s="28"/>
       <c r="C262" s="4" t="s">
         <v>497</v>
       </c>
@@ -10226,7 +10285,7 @@
       <c r="A263" s="22">
         <v>248</v>
       </c>
-      <c r="B263" s="43"/>
+      <c r="B263" s="28"/>
       <c r="C263" s="4" t="s">
         <v>500</v>
       </c>
@@ -10253,7 +10312,7 @@
       <c r="A264" s="22">
         <v>249</v>
       </c>
-      <c r="B264" s="44"/>
+      <c r="B264" s="29"/>
       <c r="C264" s="4" t="s">
         <v>503</v>
       </c>
@@ -10280,7 +10339,7 @@
       <c r="A265" s="22">
         <v>250</v>
       </c>
-      <c r="B265" s="42" t="s">
+      <c r="B265" s="27" t="s">
         <v>506</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -10309,7 +10368,7 @@
       <c r="A266" s="22">
         <v>251</v>
       </c>
-      <c r="B266" s="43"/>
+      <c r="B266" s="28"/>
       <c r="C266" s="4" t="s">
         <v>509</v>
       </c>
@@ -10336,7 +10395,7 @@
       <c r="A267" s="22">
         <v>252</v>
       </c>
-      <c r="B267" s="43"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="4" t="s">
         <v>512</v>
       </c>
@@ -10363,7 +10422,7 @@
       <c r="A268" s="22">
         <v>253</v>
       </c>
-      <c r="B268" s="43"/>
+      <c r="B268" s="28"/>
       <c r="C268" s="4" t="s">
         <v>515</v>
       </c>
@@ -10390,7 +10449,7 @@
       <c r="A269" s="22">
         <v>254</v>
       </c>
-      <c r="B269" s="43"/>
+      <c r="B269" s="28"/>
       <c r="C269" s="4" t="s">
         <v>500</v>
       </c>
@@ -10417,7 +10476,7 @@
       <c r="A270" s="22">
         <v>255</v>
       </c>
-      <c r="B270" s="44"/>
+      <c r="B270" s="29"/>
       <c r="C270" s="4" t="s">
         <v>497</v>
       </c>
@@ -10444,7 +10503,7 @@
       <c r="A271" s="22">
         <v>256</v>
       </c>
-      <c r="B271" s="42" t="s">
+      <c r="B271" s="27" t="s">
         <v>520</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -10473,7 +10532,7 @@
       <c r="A272" s="22">
         <v>257</v>
       </c>
-      <c r="B272" s="43"/>
+      <c r="B272" s="28"/>
       <c r="C272" s="4" t="s">
         <v>482</v>
       </c>
@@ -10500,7 +10559,7 @@
       <c r="A273" s="22">
         <v>258</v>
       </c>
-      <c r="B273" s="43"/>
+      <c r="B273" s="28"/>
       <c r="C273" s="4" t="s">
         <v>151</v>
       </c>
@@ -10527,8 +10586,8 @@
       <c r="A274" s="22">
         <v>259</v>
       </c>
-      <c r="B274" s="43"/>
-      <c r="C274" s="29" t="s">
+      <c r="B274" s="28"/>
+      <c r="C274" s="33" t="s">
         <v>487</v>
       </c>
       <c r="D274" s="5" t="s">
@@ -10554,8 +10613,8 @@
       <c r="A275" s="22">
         <v>260</v>
       </c>
-      <c r="B275" s="43"/>
-      <c r="C275" s="35"/>
+      <c r="B275" s="28"/>
+      <c r="C275" s="34"/>
       <c r="D275" s="5" t="s">
         <v>490</v>
       </c>
@@ -10579,8 +10638,8 @@
       <c r="A276" s="22">
         <v>261</v>
       </c>
-      <c r="B276" s="43"/>
-      <c r="C276" s="30"/>
+      <c r="B276" s="28"/>
+      <c r="C276" s="35"/>
       <c r="D276" s="5" t="s">
         <v>492</v>
       </c>
@@ -10604,7 +10663,7 @@
       <c r="A277" s="22">
         <v>262</v>
       </c>
-      <c r="B277" s="43"/>
+      <c r="B277" s="28"/>
       <c r="C277" s="17" t="s">
         <v>494</v>
       </c>
@@ -10631,7 +10690,7 @@
       <c r="A278" s="22">
         <v>263</v>
       </c>
-      <c r="B278" s="43"/>
+      <c r="B278" s="28"/>
       <c r="C278" s="4" t="s">
         <v>497</v>
       </c>
@@ -10658,7 +10717,7 @@
       <c r="A279" s="22">
         <v>264</v>
       </c>
-      <c r="B279" s="44"/>
+      <c r="B279" s="29"/>
       <c r="C279" s="4" t="s">
         <v>500</v>
       </c>
@@ -10685,7 +10744,7 @@
       <c r="A280" s="22">
         <v>265</v>
       </c>
-      <c r="B280" s="42" t="s">
+      <c r="B280" s="27" t="s">
         <v>530</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -10698,14 +10757,14 @@
         <v>532</v>
       </c>
       <c r="F280" s="7"/>
-      <c r="G280" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H280" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I280" s="4" t="s">
-        <v>177</v>
+      <c r="G280" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H280" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I280" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J280" s="7"/>
       <c r="K280" s="7"/>
@@ -10714,7 +10773,7 @@
       <c r="A281" s="22">
         <v>266</v>
       </c>
-      <c r="B281" s="43"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="4" t="s">
         <v>482</v>
       </c>
@@ -10725,14 +10784,14 @@
         <v>484</v>
       </c>
       <c r="F281" s="7"/>
-      <c r="G281" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H281" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I281" s="4" t="s">
-        <v>177</v>
+      <c r="G281" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H281" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I281" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J281" s="7"/>
       <c r="K281" s="7"/>
@@ -10741,7 +10800,7 @@
       <c r="A282" s="22">
         <v>267</v>
       </c>
-      <c r="B282" s="43"/>
+      <c r="B282" s="28"/>
       <c r="C282" s="4" t="s">
         <v>151</v>
       </c>
@@ -10752,14 +10811,14 @@
         <v>486</v>
       </c>
       <c r="F282" s="7"/>
-      <c r="G282" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H282" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I282" s="4" t="s">
-        <v>177</v>
+      <c r="G282" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H282" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I282" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J282" s="7"/>
       <c r="K282" s="7"/>
@@ -10768,7 +10827,7 @@
       <c r="A283" s="22">
         <v>268</v>
       </c>
-      <c r="B283" s="43"/>
+      <c r="B283" s="28"/>
       <c r="C283" s="4" t="s">
         <v>500</v>
       </c>
@@ -10779,14 +10838,14 @@
         <v>502</v>
       </c>
       <c r="F283" s="7"/>
-      <c r="G283" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H283" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I283" s="4" t="s">
-        <v>177</v>
+      <c r="G283" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H283" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I283" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J283" s="7"/>
       <c r="K283" s="7"/>
@@ -10795,7 +10854,7 @@
       <c r="A284" s="22">
         <v>269</v>
       </c>
-      <c r="B284" s="43"/>
+      <c r="B284" s="28"/>
       <c r="C284" s="4" t="s">
         <v>497</v>
       </c>
@@ -10806,14 +10865,14 @@
         <v>499</v>
       </c>
       <c r="F284" s="7"/>
-      <c r="G284" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H284" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I284" s="4" t="s">
-        <v>177</v>
+      <c r="G284" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H284" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I284" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J284" s="7"/>
       <c r="K284" s="7"/>
@@ -10822,8 +10881,8 @@
       <c r="A285" s="22">
         <v>270</v>
       </c>
-      <c r="B285" s="43"/>
-      <c r="C285" s="29" t="s">
+      <c r="B285" s="28"/>
+      <c r="C285" s="33" t="s">
         <v>487</v>
       </c>
       <c r="D285" s="5" t="s">
@@ -10833,14 +10892,14 @@
         <v>538</v>
       </c>
       <c r="F285" s="7"/>
-      <c r="G285" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H285" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I285" s="4" t="s">
-        <v>177</v>
+      <c r="G285" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H285" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I285" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J285" s="7"/>
       <c r="K285" s="7"/>
@@ -10849,8 +10908,8 @@
       <c r="A286" s="22">
         <v>271</v>
       </c>
-      <c r="B286" s="43"/>
-      <c r="C286" s="35"/>
+      <c r="B286" s="28"/>
+      <c r="C286" s="34"/>
       <c r="D286" s="5" t="s">
         <v>490</v>
       </c>
@@ -10858,14 +10917,14 @@
         <v>491</v>
       </c>
       <c r="F286" s="7"/>
-      <c r="G286" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H286" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>177</v>
+      <c r="G286" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H286" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I286" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J286" s="7"/>
       <c r="K286" s="7"/>
@@ -10874,8 +10933,8 @@
       <c r="A287" s="22">
         <v>272</v>
       </c>
-      <c r="B287" s="43"/>
-      <c r="C287" s="35"/>
+      <c r="B287" s="28"/>
+      <c r="C287" s="34"/>
       <c r="D287" s="5" t="s">
         <v>492</v>
       </c>
@@ -10883,14 +10942,14 @@
         <v>493</v>
       </c>
       <c r="F287" s="7"/>
-      <c r="G287" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H287" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I287" s="4" t="s">
-        <v>177</v>
+      <c r="G287" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H287" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I287" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J287" s="7"/>
       <c r="K287" s="7"/>
@@ -10899,8 +10958,8 @@
       <c r="A288" s="22">
         <v>273</v>
       </c>
-      <c r="B288" s="43"/>
-      <c r="C288" s="35"/>
+      <c r="B288" s="28"/>
+      <c r="C288" s="34"/>
       <c r="D288" s="5" t="s">
         <v>539</v>
       </c>
@@ -10908,14 +10967,14 @@
         <v>540</v>
       </c>
       <c r="F288" s="7"/>
-      <c r="G288" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H288" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I288" s="4" t="s">
-        <v>177</v>
+      <c r="G288" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H288" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I288" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J288" s="7"/>
       <c r="K288" s="7"/>
@@ -10924,8 +10983,8 @@
       <c r="A289" s="22">
         <v>274</v>
       </c>
-      <c r="B289" s="43"/>
-      <c r="C289" s="35"/>
+      <c r="B289" s="28"/>
+      <c r="C289" s="34"/>
       <c r="D289" s="5" t="s">
         <v>541</v>
       </c>
@@ -10933,14 +10992,14 @@
         <v>542</v>
       </c>
       <c r="F289" s="7"/>
-      <c r="G289" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H289" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I289" s="4" t="s">
-        <v>177</v>
+      <c r="G289" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H289" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I289" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J289" s="7"/>
       <c r="K289" s="7"/>
@@ -10949,8 +11008,8 @@
       <c r="A290" s="22">
         <v>275</v>
       </c>
-      <c r="B290" s="44"/>
-      <c r="C290" s="30"/>
+      <c r="B290" s="29"/>
+      <c r="C290" s="35"/>
       <c r="D290" s="5" t="s">
         <v>541</v>
       </c>
@@ -10958,14 +11017,14 @@
         <v>543</v>
       </c>
       <c r="F290" s="7"/>
-      <c r="G290" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H290" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I290" s="4" t="s">
-        <v>177</v>
+      <c r="G290" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H290" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I290" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="J290" s="7"/>
       <c r="K290" s="7"/>
@@ -10974,7 +11033,7 @@
       <c r="A291" s="22">
         <v>276</v>
       </c>
-      <c r="B291" s="42" t="s">
+      <c r="B291" s="27" t="s">
         <v>544</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -11003,7 +11062,7 @@
       <c r="A292" s="22">
         <v>277</v>
       </c>
-      <c r="B292" s="43"/>
+      <c r="B292" s="28"/>
       <c r="C292" s="4" t="s">
         <v>482</v>
       </c>
@@ -11030,7 +11089,7 @@
       <c r="A293" s="22">
         <v>278</v>
       </c>
-      <c r="B293" s="43"/>
+      <c r="B293" s="28"/>
       <c r="C293" s="4" t="s">
         <v>151</v>
       </c>
@@ -11057,7 +11116,7 @@
       <c r="A294" s="22">
         <v>279</v>
       </c>
-      <c r="B294" s="43"/>
+      <c r="B294" s="28"/>
       <c r="C294" s="4" t="s">
         <v>497</v>
       </c>
@@ -11084,8 +11143,8 @@
       <c r="A295" s="22">
         <v>280</v>
       </c>
-      <c r="B295" s="43"/>
-      <c r="C295" s="29" t="s">
+      <c r="B295" s="28"/>
+      <c r="C295" s="33" t="s">
         <v>487</v>
       </c>
       <c r="D295" s="5" t="s">
@@ -11111,8 +11170,8 @@
       <c r="A296" s="22">
         <v>281</v>
       </c>
-      <c r="B296" s="43"/>
-      <c r="C296" s="35"/>
+      <c r="B296" s="28"/>
+      <c r="C296" s="34"/>
       <c r="D296" s="5" t="s">
         <v>490</v>
       </c>
@@ -11136,8 +11195,8 @@
       <c r="A297" s="22">
         <v>282</v>
       </c>
-      <c r="B297" s="43"/>
-      <c r="C297" s="35"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="34"/>
       <c r="D297" s="5" t="s">
         <v>492</v>
       </c>
@@ -11161,8 +11220,8 @@
       <c r="A298" s="22">
         <v>283</v>
       </c>
-      <c r="B298" s="43"/>
-      <c r="C298" s="30"/>
+      <c r="B298" s="28"/>
+      <c r="C298" s="35"/>
       <c r="D298" s="5" t="s">
         <v>550</v>
       </c>
@@ -11186,7 +11245,7 @@
       <c r="A299" s="22">
         <v>284</v>
       </c>
-      <c r="B299" s="43"/>
+      <c r="B299" s="28"/>
       <c r="C299" s="4" t="s">
         <v>552</v>
       </c>
@@ -11213,7 +11272,7 @@
       <c r="A300" s="22">
         <v>285</v>
       </c>
-      <c r="B300" s="44"/>
+      <c r="B300" s="29"/>
       <c r="C300" s="4" t="s">
         <v>500</v>
       </c>
@@ -11240,7 +11299,7 @@
       <c r="A301" s="22">
         <v>286</v>
       </c>
-      <c r="B301" s="45" t="s">
+      <c r="B301" s="36" t="s">
         <v>556</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -11269,7 +11328,7 @@
       <c r="A302" s="22">
         <v>287</v>
       </c>
-      <c r="B302" s="46"/>
+      <c r="B302" s="37"/>
       <c r="C302" s="4" t="s">
         <v>552</v>
       </c>
@@ -11296,7 +11355,7 @@
       <c r="A303" s="22">
         <v>288</v>
       </c>
-      <c r="B303" s="46"/>
+      <c r="B303" s="37"/>
       <c r="C303" s="4" t="s">
         <v>500</v>
       </c>
@@ -11323,7 +11382,7 @@
       <c r="A304" s="22">
         <v>289</v>
       </c>
-      <c r="B304" s="46"/>
+      <c r="B304" s="37"/>
       <c r="C304" s="4" t="s">
         <v>497</v>
       </c>
@@ -11350,7 +11409,7 @@
       <c r="A305" s="22">
         <v>290</v>
       </c>
-      <c r="B305" s="47"/>
+      <c r="B305" s="38"/>
       <c r="C305" s="4" t="s">
         <v>561</v>
       </c>
@@ -11377,7 +11436,7 @@
       <c r="A306" s="22">
         <v>291</v>
       </c>
-      <c r="B306" s="42" t="s">
+      <c r="B306" s="27" t="s">
         <v>564</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -11406,7 +11465,7 @@
       <c r="A307" s="22">
         <v>292</v>
       </c>
-      <c r="B307" s="43"/>
+      <c r="B307" s="28"/>
       <c r="C307" s="4" t="s">
         <v>500</v>
       </c>
@@ -11433,7 +11492,7 @@
       <c r="A308" s="22">
         <v>293</v>
       </c>
-      <c r="B308" s="43"/>
+      <c r="B308" s="28"/>
       <c r="C308" s="4" t="s">
         <v>497</v>
       </c>
@@ -11460,8 +11519,8 @@
       <c r="A309" s="22">
         <v>294</v>
       </c>
-      <c r="B309" s="43"/>
-      <c r="C309" s="29" t="s">
+      <c r="B309" s="28"/>
+      <c r="C309" s="33" t="s">
         <v>487</v>
       </c>
       <c r="D309" s="5" t="s">
@@ -11487,8 +11546,8 @@
       <c r="A310" s="22">
         <v>295</v>
       </c>
-      <c r="B310" s="43"/>
-      <c r="C310" s="35"/>
+      <c r="B310" s="28"/>
+      <c r="C310" s="34"/>
       <c r="D310" s="5" t="s">
         <v>490</v>
       </c>
@@ -11512,8 +11571,8 @@
       <c r="A311" s="22">
         <v>296</v>
       </c>
-      <c r="B311" s="43"/>
-      <c r="C311" s="30"/>
+      <c r="B311" s="28"/>
+      <c r="C311" s="35"/>
       <c r="D311" s="5" t="s">
         <v>492</v>
       </c>
@@ -11537,8 +11596,8 @@
       <c r="A312" s="22">
         <v>297</v>
       </c>
-      <c r="B312" s="43"/>
-      <c r="C312" s="29" t="s">
+      <c r="B312" s="28"/>
+      <c r="C312" s="33" t="s">
         <v>569</v>
       </c>
       <c r="D312" s="5" t="s">
@@ -11564,8 +11623,8 @@
       <c r="A313" s="22">
         <v>298</v>
       </c>
-      <c r="B313" s="43"/>
-      <c r="C313" s="35"/>
+      <c r="B313" s="28"/>
+      <c r="C313" s="34"/>
       <c r="D313" s="5" t="s">
         <v>572</v>
       </c>
@@ -11589,8 +11648,8 @@
       <c r="A314" s="22">
         <v>299</v>
       </c>
-      <c r="B314" s="43"/>
-      <c r="C314" s="30"/>
+      <c r="B314" s="28"/>
+      <c r="C314" s="35"/>
       <c r="D314" s="5" t="s">
         <v>574</v>
       </c>
@@ -11614,8 +11673,8 @@
       <c r="A315" s="22">
         <v>300</v>
       </c>
-      <c r="B315" s="43"/>
-      <c r="C315" s="29" t="s">
+      <c r="B315" s="28"/>
+      <c r="C315" s="33" t="s">
         <v>576</v>
       </c>
       <c r="D315" s="5" t="s">
@@ -11641,8 +11700,8 @@
       <c r="A316" s="22">
         <v>301</v>
       </c>
-      <c r="B316" s="43"/>
-      <c r="C316" s="30"/>
+      <c r="B316" s="28"/>
+      <c r="C316" s="35"/>
       <c r="D316" s="5" t="s">
         <v>579</v>
       </c>
@@ -11666,7 +11725,7 @@
       <c r="A317" s="22">
         <v>302</v>
       </c>
-      <c r="B317" s="44"/>
+      <c r="B317" s="29"/>
       <c r="C317" s="4" t="s">
         <v>581</v>
       </c>
@@ -11693,7 +11752,7 @@
       <c r="A318" s="22">
         <v>303</v>
       </c>
-      <c r="B318" s="42" t="s">
+      <c r="B318" s="27" t="s">
         <v>584</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -11722,7 +11781,7 @@
       <c r="A319" s="22">
         <v>304</v>
       </c>
-      <c r="B319" s="43"/>
+      <c r="B319" s="28"/>
       <c r="C319" s="4" t="s">
         <v>494</v>
       </c>
@@ -11749,7 +11808,7 @@
       <c r="A320" s="22">
         <v>305</v>
       </c>
-      <c r="B320" s="43"/>
+      <c r="B320" s="28"/>
       <c r="C320" s="4" t="s">
         <v>500</v>
       </c>
@@ -11776,7 +11835,7 @@
       <c r="A321" s="22">
         <v>306</v>
       </c>
-      <c r="B321" s="44"/>
+      <c r="B321" s="29"/>
       <c r="C321" s="4" t="s">
         <v>497</v>
       </c>
@@ -11801,6 +11860,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B129"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B130:B145"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="B149:B155"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B160:B174"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="B219:B228"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="B191:B201"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="B255:B264"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="B265:B270"/>
+    <mergeCell ref="B271:B279"/>
+    <mergeCell ref="C274:C276"/>
     <mergeCell ref="B318:B321"/>
     <mergeCell ref="B183:B185"/>
     <mergeCell ref="B291:B300"/>
@@ -11817,76 +11946,6 @@
     <mergeCell ref="C234:C236"/>
     <mergeCell ref="B240:B244"/>
     <mergeCell ref="B245:B254"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="B255:B264"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="B265:B270"/>
-    <mergeCell ref="B271:B279"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="B219:B228"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="B191:B201"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B160:B174"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B130:B145"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B129"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B87:B96"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K211">
@@ -11974,7 +12033,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G271:I279</xm:sqref>
+          <xm:sqref>G271:I290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{CC548D13-3C19-450E-AF9D-BA83982B8EFC}">
@@ -12003,7 +12062,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="15" operator="containsText" id="{1DD87E91-C9AC-4C95-9342-BDFC9C9B6BDD}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G280)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G291)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -12014,7 +12073,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{50C83B94-3CF8-4C9C-919B-681D73216901}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G280)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G291)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -12024,7 +12083,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G280:I321</xm:sqref>
+          <xm:sqref>G291:I321</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="13" operator="containsText" id="{733DC285-0DB7-45F1-B9BC-869A21993076}">

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChuyenDe12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PTDiDong12\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B278C-B65A-426D-86FA-A4E41A65C26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2566,7 +2567,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2730,7 +2731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2810,13 +2811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2831,10 +2826,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2846,139 +2880,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -3422,11 +3328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G280" sqref="G280:I290"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3616,11 +3522,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
@@ -3641,11 +3547,11 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -3688,7 +3594,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3717,7 +3623,7 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3746,7 +3652,7 @@
       <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3775,7 +3681,7 @@
       <c r="A19" s="22">
         <v>4</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3804,7 +3710,7 @@
       <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3833,7 +3739,7 @@
       <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3860,10 +3766,10 @@
       <c r="A22" s="22">
         <v>7</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3889,8 +3795,8 @@
       <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3914,8 +3820,8 @@
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3941,8 +3847,8 @@
       <c r="A25" s="22">
         <v>10</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3966,7 +3872,7 @@
       <c r="A26" s="22">
         <v>11</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3993,7 +3899,7 @@
       <c r="A27" s="22">
         <v>12</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
@@ -4020,7 +3926,7 @@
       <c r="A28" s="22">
         <v>13</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
@@ -4047,7 +3953,7 @@
       <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
@@ -4074,7 +3980,7 @@
       <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -4103,7 +4009,7 @@
       <c r="A31" s="22">
         <v>16</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -4132,7 +4038,7 @@
       <c r="A32" s="22">
         <v>17</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
@@ -4161,7 +4067,7 @@
       <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B33" s="31"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4192,7 +4098,7 @@
       <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4219,7 +4125,7 @@
       <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B35" s="31"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4246,7 +4152,7 @@
       <c r="A36" s="22">
         <v>21</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
@@ -4273,7 +4179,7 @@
       <c r="A37" s="22">
         <v>22</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4302,7 +4208,7 @@
       <c r="A38" s="22">
         <v>23</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -4331,7 +4237,7 @@
       <c r="A39" s="22">
         <v>24</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
@@ -4360,7 +4266,7 @@
       <c r="A40" s="22">
         <v>25</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4389,7 +4295,7 @@
       <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
@@ -4418,7 +4324,7 @@
       <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="B42" s="31"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
@@ -4445,7 +4351,7 @@
       <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
@@ -4472,7 +4378,7 @@
       <c r="A44" s="22">
         <v>29</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4501,7 +4407,7 @@
       <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="B45" s="31"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="4" t="s">
         <v>89</v>
       </c>
@@ -4528,7 +4434,7 @@
       <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B46" s="31"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="4" t="s">
         <v>71</v>
       </c>
@@ -4557,7 +4463,7 @@
       <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="B47" s="31"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
@@ -4586,7 +4492,7 @@
       <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B48" s="31"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4615,7 +4521,7 @@
       <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B49" s="32"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
@@ -4644,7 +4550,7 @@
       <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="38" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4673,7 +4579,7 @@
       <c r="A51" s="22">
         <v>36</v>
       </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
@@ -4702,7 +4608,7 @@
       <c r="A52" s="22">
         <v>37</v>
       </c>
-      <c r="B52" s="46"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
@@ -4729,7 +4635,7 @@
       <c r="A53" s="22">
         <v>38</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4758,7 +4664,7 @@
       <c r="A54" s="22">
         <v>39</v>
       </c>
-      <c r="B54" s="31"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
@@ -4787,7 +4693,7 @@
       <c r="A55" s="22">
         <v>40</v>
       </c>
-      <c r="B55" s="31"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4816,7 +4722,7 @@
       <c r="A56" s="22">
         <v>41</v>
       </c>
-      <c r="B56" s="31"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
@@ -4845,7 +4751,7 @@
       <c r="A57" s="22">
         <v>42</v>
       </c>
-      <c r="B57" s="32"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
@@ -4874,10 +4780,10 @@
       <c r="A58" s="22">
         <v>43</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4903,8 +4809,8 @@
       <c r="A59" s="22">
         <v>44</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="5" t="s">
         <v>123</v>
       </c>
@@ -4928,8 +4834,8 @@
       <c r="A60" s="22">
         <v>45</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="5" t="s">
         <v>125</v>
       </c>
@@ -4953,8 +4859,8 @@
       <c r="A61" s="22">
         <v>46</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="5" t="s">
         <v>593</v>
       </c>
@@ -4978,8 +4884,8 @@
       <c r="A62" s="22">
         <v>47</v>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="5" t="s">
         <v>597</v>
       </c>
@@ -5003,8 +4909,8 @@
       <c r="A63" s="22">
         <v>48</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="5" t="s">
         <v>592</v>
       </c>
@@ -5028,7 +4934,7 @@
       <c r="A64" s="22">
         <v>49</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="28" t="s">
         <v>599</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -5057,7 +4963,7 @@
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="31"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="21" t="s">
         <v>601</v>
       </c>
@@ -5084,7 +4990,7 @@
       <c r="A66" s="22">
         <v>51</v>
       </c>
-      <c r="B66" s="31"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="22" t="s">
         <v>594</v>
       </c>
@@ -5111,7 +5017,7 @@
       <c r="A67" s="22">
         <v>52</v>
       </c>
-      <c r="B67" s="32"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="24" t="s">
         <v>228</v>
       </c>
@@ -5138,10 +5044,10 @@
       <c r="A68" s="22">
         <v>53</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -5167,8 +5073,8 @@
       <c r="A69" s="22">
         <v>54</v>
       </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="5" t="s">
         <v>133</v>
       </c>
@@ -5194,8 +5100,8 @@
       <c r="A70" s="22">
         <v>55</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="35"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="5" t="s">
         <v>136</v>
       </c>
@@ -5221,7 +5127,7 @@
       <c r="A71" s="22">
         <v>56</v>
       </c>
-      <c r="B71" s="31"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="4" t="s">
         <v>138</v>
       </c>
@@ -5248,8 +5154,8 @@
       <c r="A72" s="22">
         <v>57</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="43" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="36" t="s">
         <v>141</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -5275,8 +5181,8 @@
       <c r="A73" s="22">
         <v>58</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="43"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="36"/>
       <c r="D73" s="5" t="s">
         <v>144</v>
       </c>
@@ -5300,8 +5206,8 @@
       <c r="A74" s="22">
         <v>59</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="43"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="5" t="s">
         <v>146</v>
       </c>
@@ -5325,7 +5231,7 @@
       <c r="A75" s="22">
         <v>60</v>
       </c>
-      <c r="B75" s="31"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="22" t="s">
         <v>228</v>
       </c>
@@ -5352,7 +5258,7 @@
       <c r="A76" s="22">
         <v>61</v>
       </c>
-      <c r="B76" s="32"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5" t="s">
         <v>148</v>
@@ -5377,10 +5283,10 @@
       <c r="A77" s="22">
         <v>62</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="36" t="s">
         <v>151</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -5408,8 +5314,8 @@
       <c r="A78" s="22">
         <v>63</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="43"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="36"/>
       <c r="D78" s="5" t="s">
         <v>155</v>
       </c>
@@ -5433,8 +5339,8 @@
       <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="43" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="36" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -5460,8 +5366,8 @@
       <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="43"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="5" t="s">
         <v>160</v>
       </c>
@@ -5485,8 +5391,8 @@
       <c r="A81" s="22">
         <v>66</v>
       </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="43"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="5" t="s">
         <v>162</v>
       </c>
@@ -5510,8 +5416,8 @@
       <c r="A82" s="22">
         <v>67</v>
       </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="43"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="5" t="s">
         <v>164</v>
       </c>
@@ -5535,7 +5441,7 @@
       <c r="A83" s="22">
         <v>68</v>
       </c>
-      <c r="B83" s="31"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="22" t="s">
         <v>594</v>
       </c>
@@ -5562,7 +5468,7 @@
       <c r="A84" s="22">
         <v>69</v>
       </c>
-      <c r="B84" s="31"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="4" t="s">
         <v>138</v>
       </c>
@@ -5589,7 +5495,7 @@
       <c r="A85" s="22">
         <v>70</v>
       </c>
-      <c r="B85" s="31"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="22" t="s">
         <v>228</v>
       </c>
@@ -5616,7 +5522,7 @@
       <c r="A86" s="22">
         <v>71</v>
       </c>
-      <c r="B86" s="32"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5" t="s">
         <v>148</v>
@@ -5641,10 +5547,10 @@
       <c r="A87" s="22">
         <v>72</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="36" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5670,8 +5576,8 @@
       <c r="A88" s="22">
         <v>73</v>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="43"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="36"/>
       <c r="D88" s="5" t="s">
         <v>155</v>
       </c>
@@ -5695,8 +5601,8 @@
       <c r="A89" s="22">
         <v>74</v>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="43" t="s">
+      <c r="B89" s="35"/>
+      <c r="C89" s="36" t="s">
         <v>157</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5722,8 +5628,8 @@
       <c r="A90" s="22">
         <v>75</v>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="43"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="36"/>
       <c r="D90" s="5" t="s">
         <v>160</v>
       </c>
@@ -5747,8 +5653,8 @@
       <c r="A91" s="22">
         <v>76</v>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="43"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="5" t="s">
         <v>162</v>
       </c>
@@ -5772,8 +5678,8 @@
       <c r="A92" s="22">
         <v>77</v>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="43"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="36"/>
       <c r="D92" s="5" t="s">
         <v>164</v>
       </c>
@@ -5797,7 +5703,7 @@
       <c r="A93" s="22">
         <v>78</v>
       </c>
-      <c r="B93" s="42"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="22" t="s">
         <v>594</v>
       </c>
@@ -5824,7 +5730,7 @@
       <c r="A94" s="22">
         <v>79</v>
       </c>
-      <c r="B94" s="42"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="4" t="s">
         <v>138</v>
       </c>
@@ -5851,7 +5757,7 @@
       <c r="A95" s="22">
         <v>80</v>
       </c>
-      <c r="B95" s="42"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="22" t="s">
         <v>228</v>
       </c>
@@ -5878,7 +5784,7 @@
       <c r="A96" s="22">
         <v>81</v>
       </c>
-      <c r="B96" s="42"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5" t="s">
         <v>148</v>
@@ -5903,7 +5809,7 @@
       <c r="A97" s="22">
         <v>82</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="35" t="s">
         <v>168</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5932,7 +5838,7 @@
       <c r="A98" s="22">
         <v>83</v>
       </c>
-      <c r="B98" s="42"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="22" t="s">
         <v>228</v>
       </c>
@@ -5959,7 +5865,7 @@
       <c r="A99" s="22">
         <v>84</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="35"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5" t="s">
         <v>148</v>
@@ -5984,7 +5890,7 @@
       <c r="A100" s="22">
         <v>85</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="35" t="s">
         <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -6013,7 +5919,7 @@
       <c r="A101" s="22">
         <v>86</v>
       </c>
-      <c r="B101" s="42"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="4" t="s">
         <v>173</v>
       </c>
@@ -6040,8 +5946,8 @@
       <c r="A102" s="22">
         <v>87</v>
       </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="43" t="s">
+      <c r="B102" s="35"/>
+      <c r="C102" s="36" t="s">
         <v>176</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -6069,8 +5975,8 @@
       <c r="A103" s="22">
         <v>88</v>
       </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="43"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="36"/>
       <c r="D103" s="5" t="s">
         <v>608</v>
       </c>
@@ -6096,8 +6002,8 @@
       <c r="A104" s="22">
         <v>89</v>
       </c>
-      <c r="B104" s="42"/>
-      <c r="C104" s="43"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="36"/>
       <c r="D104" s="5" t="s">
         <v>609</v>
       </c>
@@ -6123,8 +6029,8 @@
       <c r="A105" s="22">
         <v>90</v>
       </c>
-      <c r="B105" s="42"/>
-      <c r="C105" s="43"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
       <c r="D105" s="5" t="s">
         <v>610</v>
       </c>
@@ -6150,7 +6056,7 @@
       <c r="A106" s="22">
         <v>91</v>
       </c>
-      <c r="B106" s="42"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="4" t="s">
         <v>228</v>
       </c>
@@ -6177,7 +6083,7 @@
       <c r="A107" s="22">
         <v>92</v>
       </c>
-      <c r="B107" s="42"/>
+      <c r="B107" s="35"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5" t="s">
         <v>148</v>
@@ -6202,10 +6108,10 @@
       <c r="A108" s="22">
         <v>93</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C108" s="33" t="s">
+      <c r="C108" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -6231,8 +6137,8 @@
       <c r="A109" s="22">
         <v>94</v>
       </c>
-      <c r="B109" s="42"/>
-      <c r="C109" s="34"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="5" t="s">
         <v>181</v>
       </c>
@@ -6256,8 +6162,8 @@
       <c r="A110" s="22">
         <v>95</v>
       </c>
-      <c r="B110" s="42"/>
-      <c r="C110" s="34"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="37"/>
       <c r="D110" s="5" t="s">
         <v>606</v>
       </c>
@@ -6281,8 +6187,8 @@
       <c r="A111" s="22">
         <v>96</v>
       </c>
-      <c r="B111" s="42"/>
-      <c r="C111" s="35"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="32"/>
       <c r="D111" s="5" t="s">
         <v>605</v>
       </c>
@@ -6306,7 +6212,7 @@
       <c r="A112" s="22">
         <v>97</v>
       </c>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="35" t="s">
         <v>185</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -6335,8 +6241,8 @@
       <c r="A113" s="22">
         <v>98</v>
       </c>
-      <c r="B113" s="42"/>
-      <c r="C113" s="43" t="s">
+      <c r="B113" s="35"/>
+      <c r="C113" s="36" t="s">
         <v>189</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -6362,8 +6268,8 @@
       <c r="A114" s="22">
         <v>99</v>
       </c>
-      <c r="B114" s="42"/>
-      <c r="C114" s="43"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="36"/>
       <c r="D114" s="5" t="s">
         <v>192</v>
       </c>
@@ -6387,8 +6293,8 @@
       <c r="A115" s="22">
         <v>100</v>
       </c>
-      <c r="B115" s="42"/>
-      <c r="C115" s="43"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="36"/>
       <c r="D115" s="5" t="s">
         <v>194</v>
       </c>
@@ -6412,8 +6318,8 @@
       <c r="A116" s="22">
         <v>101</v>
       </c>
-      <c r="B116" s="42"/>
-      <c r="C116" s="43"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="36"/>
       <c r="D116" s="5" t="s">
         <v>196</v>
       </c>
@@ -6437,8 +6343,8 @@
       <c r="A117" s="22">
         <v>102</v>
       </c>
-      <c r="B117" s="42"/>
-      <c r="C117" s="43" t="s">
+      <c r="B117" s="35"/>
+      <c r="C117" s="36" t="s">
         <v>197</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -6464,8 +6370,8 @@
       <c r="A118" s="22">
         <v>103</v>
       </c>
-      <c r="B118" s="42"/>
-      <c r="C118" s="43"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="36"/>
       <c r="D118" s="5" t="s">
         <v>200</v>
       </c>
@@ -6489,8 +6395,8 @@
       <c r="A119" s="22">
         <v>104</v>
       </c>
-      <c r="B119" s="42"/>
-      <c r="C119" s="43"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
       <c r="D119" s="5" t="s">
         <v>202</v>
       </c>
@@ -6514,8 +6420,8 @@
       <c r="A120" s="22">
         <v>105</v>
       </c>
-      <c r="B120" s="42"/>
-      <c r="C120" s="43"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="36"/>
       <c r="D120" s="5" t="s">
         <v>203</v>
       </c>
@@ -6539,8 +6445,8 @@
       <c r="A121" s="22">
         <v>106</v>
       </c>
-      <c r="B121" s="42"/>
-      <c r="C121" s="43" t="s">
+      <c r="B121" s="35"/>
+      <c r="C121" s="36" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -6566,8 +6472,8 @@
       <c r="A122" s="22">
         <v>107</v>
       </c>
-      <c r="B122" s="42"/>
-      <c r="C122" s="43"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="36"/>
       <c r="D122" s="5" t="s">
         <v>207</v>
       </c>
@@ -6591,8 +6497,8 @@
       <c r="A123" s="22">
         <v>108</v>
       </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="43"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="36"/>
       <c r="D123" s="5" t="s">
         <v>208</v>
       </c>
@@ -6616,8 +6522,8 @@
       <c r="A124" s="22">
         <v>109</v>
       </c>
-      <c r="B124" s="42"/>
-      <c r="C124" s="43" t="s">
+      <c r="B124" s="35"/>
+      <c r="C124" s="36" t="s">
         <v>210</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -6643,8 +6549,8 @@
       <c r="A125" s="22">
         <v>110</v>
       </c>
-      <c r="B125" s="42"/>
-      <c r="C125" s="43"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="36"/>
       <c r="D125" s="5" t="s">
         <v>213</v>
       </c>
@@ -6668,8 +6574,8 @@
       <c r="A126" s="22">
         <v>111</v>
       </c>
-      <c r="B126" s="42"/>
-      <c r="C126" s="43" t="s">
+      <c r="B126" s="35"/>
+      <c r="C126" s="36" t="s">
         <v>215</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -6695,8 +6601,8 @@
       <c r="A127" s="22">
         <v>112</v>
       </c>
-      <c r="B127" s="42"/>
-      <c r="C127" s="43"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="36"/>
       <c r="D127" s="5" t="s">
         <v>218</v>
       </c>
@@ -6720,8 +6626,8 @@
       <c r="A128" s="22">
         <v>113</v>
       </c>
-      <c r="B128" s="42"/>
-      <c r="C128" s="43"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="36"/>
       <c r="D128" s="5" t="s">
         <v>220</v>
       </c>
@@ -6745,7 +6651,7 @@
       <c r="A129" s="22">
         <v>114</v>
       </c>
-      <c r="B129" s="42"/>
+      <c r="B129" s="35"/>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
         <v>148</v>
@@ -6770,10 +6676,10 @@
       <c r="A130" s="22">
         <v>115</v>
       </c>
-      <c r="B130" s="42" t="s">
+      <c r="B130" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="C130" s="43" t="s">
+      <c r="C130" s="36" t="s">
         <v>224</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -6799,8 +6705,8 @@
       <c r="A131" s="22">
         <v>116</v>
       </c>
-      <c r="B131" s="42"/>
-      <c r="C131" s="43"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="36"/>
       <c r="D131" s="5" t="s">
         <v>231</v>
       </c>
@@ -6824,8 +6730,8 @@
       <c r="A132" s="22">
         <v>117</v>
       </c>
-      <c r="B132" s="42"/>
-      <c r="C132" s="43"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="36"/>
       <c r="D132" s="5" t="s">
         <v>232</v>
       </c>
@@ -6849,8 +6755,8 @@
       <c r="A133" s="22">
         <v>118</v>
       </c>
-      <c r="B133" s="42"/>
-      <c r="C133" s="33" t="s">
+      <c r="B133" s="35"/>
+      <c r="C133" s="31" t="s">
         <v>225</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -6876,8 +6782,8 @@
       <c r="A134" s="22">
         <v>119</v>
       </c>
-      <c r="B134" s="42"/>
-      <c r="C134" s="35"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="32"/>
       <c r="D134" s="5" t="s">
         <v>230</v>
       </c>
@@ -6901,8 +6807,8 @@
       <c r="A135" s="22">
         <v>120</v>
       </c>
-      <c r="B135" s="42"/>
-      <c r="C135" s="33" t="s">
+      <c r="B135" s="35"/>
+      <c r="C135" s="31" t="s">
         <v>226</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6928,8 +6834,8 @@
       <c r="A136" s="22">
         <v>121</v>
       </c>
-      <c r="B136" s="42"/>
-      <c r="C136" s="34"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="37"/>
       <c r="D136" s="5" t="s">
         <v>238</v>
       </c>
@@ -6953,8 +6859,8 @@
       <c r="A137" s="22">
         <v>122</v>
       </c>
-      <c r="B137" s="42"/>
-      <c r="C137" s="35"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="32"/>
       <c r="D137" s="5" t="s">
         <v>240</v>
       </c>
@@ -6978,8 +6884,8 @@
       <c r="A138" s="22">
         <v>123</v>
       </c>
-      <c r="B138" s="42"/>
-      <c r="C138" s="33" t="s">
+      <c r="B138" s="35"/>
+      <c r="C138" s="31" t="s">
         <v>227</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -7005,8 +6911,8 @@
       <c r="A139" s="22">
         <v>124</v>
       </c>
-      <c r="B139" s="42"/>
-      <c r="C139" s="34"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="37"/>
       <c r="D139" s="5" t="s">
         <v>244</v>
       </c>
@@ -7030,8 +6936,8 @@
       <c r="A140" s="22">
         <v>125</v>
       </c>
-      <c r="B140" s="42"/>
-      <c r="C140" s="34"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="37"/>
       <c r="D140" s="5" t="s">
         <v>246</v>
       </c>
@@ -7055,8 +6961,8 @@
       <c r="A141" s="22">
         <v>126</v>
       </c>
-      <c r="B141" s="42"/>
-      <c r="C141" s="34"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="37"/>
       <c r="D141" s="5" t="s">
         <v>245</v>
       </c>
@@ -7080,8 +6986,8 @@
       <c r="A142" s="22">
         <v>127</v>
       </c>
-      <c r="B142" s="42"/>
-      <c r="C142" s="34"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="37"/>
       <c r="D142" s="5" t="s">
         <v>247</v>
       </c>
@@ -7105,8 +7011,8 @@
       <c r="A143" s="22">
         <v>128</v>
       </c>
-      <c r="B143" s="42"/>
-      <c r="C143" s="35"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="32"/>
       <c r="D143" s="5" t="s">
         <v>249</v>
       </c>
@@ -7130,7 +7036,7 @@
       <c r="A144" s="22">
         <v>129</v>
       </c>
-      <c r="B144" s="42"/>
+      <c r="B144" s="35"/>
       <c r="C144" s="7" t="s">
         <v>228</v>
       </c>
@@ -7157,7 +7063,7 @@
       <c r="A145" s="22">
         <v>130</v>
       </c>
-      <c r="B145" s="42"/>
+      <c r="B145" s="35"/>
       <c r="C145" s="7"/>
       <c r="D145" s="5" t="s">
         <v>148</v>
@@ -7182,10 +7088,10 @@
       <c r="A146" s="22">
         <v>131</v>
       </c>
-      <c r="B146" s="42" t="s">
+      <c r="B146" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C146" s="43" t="s">
+      <c r="C146" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D146" s="5" t="s">
@@ -7211,8 +7117,8 @@
       <c r="A147" s="22">
         <v>132</v>
       </c>
-      <c r="B147" s="42"/>
-      <c r="C147" s="43"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
       <c r="D147" s="5" t="s">
         <v>255</v>
       </c>
@@ -7236,7 +7142,7 @@
       <c r="A148" s="22">
         <v>133</v>
       </c>
-      <c r="B148" s="42"/>
+      <c r="B148" s="35"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5" t="s">
         <v>148</v>
@@ -7261,10 +7167,10 @@
       <c r="A149" s="22">
         <v>134</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="33" t="s">
+      <c r="C149" s="31" t="s">
         <v>258</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -7290,8 +7196,8 @@
       <c r="A150" s="22">
         <v>135</v>
       </c>
-      <c r="B150" s="31"/>
-      <c r="C150" s="34"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="37"/>
       <c r="D150" s="5" t="s">
         <v>261</v>
       </c>
@@ -7315,8 +7221,8 @@
       <c r="A151" s="22">
         <v>136</v>
       </c>
-      <c r="B151" s="31"/>
-      <c r="C151" s="34"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="37"/>
       <c r="D151" s="5" t="s">
         <v>263</v>
       </c>
@@ -7340,8 +7246,8 @@
       <c r="A152" s="22">
         <v>137</v>
       </c>
-      <c r="B152" s="31"/>
-      <c r="C152" s="35"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="32"/>
       <c r="D152" s="5" t="s">
         <v>265</v>
       </c>
@@ -7365,8 +7271,8 @@
       <c r="A153" s="22">
         <v>138</v>
       </c>
-      <c r="B153" s="31"/>
-      <c r="C153" s="33" t="s">
+      <c r="B153" s="29"/>
+      <c r="C153" s="31" t="s">
         <v>252</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -7392,8 +7298,8 @@
       <c r="A154" s="22">
         <v>139</v>
       </c>
-      <c r="B154" s="31"/>
-      <c r="C154" s="35"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="32"/>
       <c r="D154" s="5" t="s">
         <v>269</v>
       </c>
@@ -7417,7 +7323,7 @@
       <c r="A155" s="22">
         <v>140</v>
       </c>
-      <c r="B155" s="32"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5" t="s">
         <v>148</v>
@@ -7442,7 +7348,7 @@
       <c r="A156" s="22">
         <v>141</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="28" t="s">
         <v>271</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -7455,14 +7361,14 @@
         <v>274</v>
       </c>
       <c r="F156" s="5"/>
-      <c r="G156" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>177</v>
+      <c r="G156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="7"/>
@@ -7471,7 +7377,7 @@
       <c r="A157" s="22">
         <v>142</v>
       </c>
-      <c r="B157" s="31"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="4" t="s">
         <v>275</v>
       </c>
@@ -7498,7 +7404,7 @@
       <c r="A158" s="22">
         <v>143</v>
       </c>
-      <c r="B158" s="31"/>
+      <c r="B158" s="29"/>
       <c r="C158" s="4" t="s">
         <v>278</v>
       </c>
@@ -7525,7 +7431,7 @@
       <c r="A159" s="22">
         <v>144</v>
       </c>
-      <c r="B159" s="32"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5" t="s">
         <v>148</v>
@@ -7550,7 +7456,7 @@
       <c r="A160" s="22">
         <v>145</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="28" t="s">
         <v>281</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -7579,8 +7485,8 @@
       <c r="A161" s="22">
         <v>146</v>
       </c>
-      <c r="B161" s="31"/>
-      <c r="C161" s="33" t="s">
+      <c r="B161" s="29"/>
+      <c r="C161" s="31" t="s">
         <v>284</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -7606,8 +7512,8 @@
       <c r="A162" s="22">
         <v>147</v>
       </c>
-      <c r="B162" s="31"/>
-      <c r="C162" s="35"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="32"/>
       <c r="D162" s="5" t="s">
         <v>287</v>
       </c>
@@ -7631,8 +7537,8 @@
       <c r="A163" s="22">
         <v>148</v>
       </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="33" t="s">
+      <c r="B163" s="29"/>
+      <c r="C163" s="31" t="s">
         <v>289</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -7658,8 +7564,8 @@
       <c r="A164" s="22">
         <v>149</v>
       </c>
-      <c r="B164" s="31"/>
-      <c r="C164" s="35"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="32"/>
       <c r="D164" s="5" t="s">
         <v>290</v>
       </c>
@@ -7683,7 +7589,7 @@
       <c r="A165" s="22">
         <v>150</v>
       </c>
-      <c r="B165" s="31"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="4" t="s">
         <v>293</v>
       </c>
@@ -7710,8 +7616,8 @@
       <c r="A166" s="22">
         <v>151</v>
       </c>
-      <c r="B166" s="31"/>
-      <c r="C166" s="33" t="s">
+      <c r="B166" s="29"/>
+      <c r="C166" s="31" t="s">
         <v>296</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -7737,8 +7643,8 @@
       <c r="A167" s="22">
         <v>152</v>
       </c>
-      <c r="B167" s="31"/>
-      <c r="C167" s="35"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="32"/>
       <c r="D167" s="5" t="s">
         <v>299</v>
       </c>
@@ -7762,8 +7668,8 @@
       <c r="A168" s="22">
         <v>153</v>
       </c>
-      <c r="B168" s="31"/>
-      <c r="C168" s="33" t="s">
+      <c r="B168" s="29"/>
+      <c r="C168" s="31" t="s">
         <v>301</v>
       </c>
       <c r="D168" s="5" t="s">
@@ -7789,8 +7695,8 @@
       <c r="A169" s="22">
         <v>154</v>
       </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="35"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="32"/>
       <c r="D169" s="5" t="s">
         <v>304</v>
       </c>
@@ -7814,8 +7720,8 @@
       <c r="A170" s="22">
         <v>155</v>
       </c>
-      <c r="B170" s="31"/>
-      <c r="C170" s="33" t="s">
+      <c r="B170" s="29"/>
+      <c r="C170" s="31" t="s">
         <v>306</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -7841,8 +7747,8 @@
       <c r="A171" s="22">
         <v>156</v>
       </c>
-      <c r="B171" s="31"/>
-      <c r="C171" s="34"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="37"/>
       <c r="D171" s="5" t="s">
         <v>309</v>
       </c>
@@ -7866,8 +7772,8 @@
       <c r="A172" s="22">
         <v>157</v>
       </c>
-      <c r="B172" s="31"/>
-      <c r="C172" s="35"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="32"/>
       <c r="D172" s="5" t="s">
         <v>311</v>
       </c>
@@ -7891,8 +7797,8 @@
       <c r="A173" s="22">
         <v>158</v>
       </c>
-      <c r="B173" s="31"/>
-      <c r="C173" s="33" t="s">
+      <c r="B173" s="29"/>
+      <c r="C173" s="31" t="s">
         <v>313</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -7918,8 +7824,8 @@
       <c r="A174" s="22">
         <v>159</v>
       </c>
-      <c r="B174" s="31"/>
-      <c r="C174" s="35"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="32"/>
       <c r="D174" s="5" t="s">
         <v>314</v>
       </c>
@@ -7943,7 +7849,7 @@
       <c r="A175" s="22">
         <v>160</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="29" t="s">
         <v>317</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -7972,7 +7878,7 @@
       <c r="A176" s="22">
         <v>161</v>
       </c>
-      <c r="B176" s="31"/>
+      <c r="B176" s="29"/>
       <c r="C176" s="4" t="s">
         <v>319</v>
       </c>
@@ -7999,8 +7905,8 @@
       <c r="A177" s="22">
         <v>162</v>
       </c>
-      <c r="B177" s="31"/>
-      <c r="C177" s="33" t="s">
+      <c r="B177" s="29"/>
+      <c r="C177" s="31" t="s">
         <v>322</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -8026,8 +7932,8 @@
       <c r="A178" s="22">
         <v>163</v>
       </c>
-      <c r="B178" s="32"/>
-      <c r="C178" s="35"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="32"/>
       <c r="D178" s="5" t="s">
         <v>323</v>
       </c>
@@ -8051,10 +7957,10 @@
       <c r="A179" s="22">
         <v>164</v>
       </c>
-      <c r="B179" s="42" t="s">
+      <c r="B179" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C179" s="33" t="s">
+      <c r="C179" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D179" s="5" t="s">
@@ -8080,8 +7986,8 @@
       <c r="A180" s="22">
         <v>165</v>
       </c>
-      <c r="B180" s="42"/>
-      <c r="C180" s="34"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="37"/>
       <c r="D180" s="5" t="s">
         <v>329</v>
       </c>
@@ -8105,8 +8011,8 @@
       <c r="A181" s="22">
         <v>166</v>
       </c>
-      <c r="B181" s="42"/>
-      <c r="C181" s="34"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="37"/>
       <c r="D181" s="5" t="s">
         <v>331</v>
       </c>
@@ -8130,8 +8036,8 @@
       <c r="A182" s="22">
         <v>167</v>
       </c>
-      <c r="B182" s="42"/>
-      <c r="C182" s="35"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="32"/>
       <c r="D182" s="5" t="s">
         <v>333</v>
       </c>
@@ -8155,7 +8061,7 @@
       <c r="A183" s="22">
         <v>168</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="28" t="s">
         <v>335</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -8184,7 +8090,7 @@
       <c r="A184" s="22">
         <v>169</v>
       </c>
-      <c r="B184" s="31"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="4" t="s">
         <v>339</v>
       </c>
@@ -8211,7 +8117,7 @@
       <c r="A185" s="22">
         <v>170</v>
       </c>
-      <c r="B185" s="32"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="4" t="s">
         <v>342</v>
       </c>
@@ -8238,7 +8144,7 @@
       <c r="A186" s="22">
         <v>171</v>
       </c>
-      <c r="B186" s="42" t="s">
+      <c r="B186" s="35" t="s">
         <v>345</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -8267,7 +8173,7 @@
       <c r="A187" s="22">
         <v>172</v>
       </c>
-      <c r="B187" s="42"/>
+      <c r="B187" s="35"/>
       <c r="C187" s="4" t="s">
         <v>349</v>
       </c>
@@ -8294,7 +8200,7 @@
       <c r="A188" s="22">
         <v>173</v>
       </c>
-      <c r="B188" s="42"/>
+      <c r="B188" s="35"/>
       <c r="C188" s="4" t="s">
         <v>352</v>
       </c>
@@ -8321,7 +8227,7 @@
       <c r="A189" s="22">
         <v>174</v>
       </c>
-      <c r="B189" s="42"/>
+      <c r="B189" s="35"/>
       <c r="C189" s="4" t="s">
         <v>355</v>
       </c>
@@ -8348,7 +8254,7 @@
       <c r="A190" s="22">
         <v>175</v>
       </c>
-      <c r="B190" s="42"/>
+      <c r="B190" s="35"/>
       <c r="C190" s="4" t="s">
         <v>357</v>
       </c>
@@ -8375,7 +8281,7 @@
       <c r="A191" s="22">
         <v>176</v>
       </c>
-      <c r="B191" s="42" t="s">
+      <c r="B191" s="35" t="s">
         <v>359</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -8404,7 +8310,7 @@
       <c r="A192" s="22">
         <v>177</v>
       </c>
-      <c r="B192" s="42"/>
+      <c r="B192" s="35"/>
       <c r="C192" s="4"/>
       <c r="D192" s="5" t="s">
         <v>363</v>
@@ -8429,7 +8335,7 @@
       <c r="A193" s="22">
         <v>178</v>
       </c>
-      <c r="B193" s="42"/>
+      <c r="B193" s="35"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5" t="s">
         <v>365</v>
@@ -8454,7 +8360,7 @@
       <c r="A194" s="22">
         <v>179</v>
       </c>
-      <c r="B194" s="42"/>
+      <c r="B194" s="35"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5" t="s">
         <v>367</v>
@@ -8479,7 +8385,7 @@
       <c r="A195" s="22">
         <v>180</v>
       </c>
-      <c r="B195" s="42"/>
+      <c r="B195" s="35"/>
       <c r="C195" s="4" t="s">
         <v>369</v>
       </c>
@@ -8506,7 +8412,7 @@
       <c r="A196" s="22">
         <v>181</v>
       </c>
-      <c r="B196" s="42"/>
+      <c r="B196" s="35"/>
       <c r="C196" s="4" t="s">
         <v>372</v>
       </c>
@@ -8533,7 +8439,7 @@
       <c r="A197" s="22">
         <v>182</v>
       </c>
-      <c r="B197" s="42"/>
+      <c r="B197" s="35"/>
       <c r="C197" s="4"/>
       <c r="D197" s="5" t="s">
         <v>375</v>
@@ -8558,7 +8464,7 @@
       <c r="A198" s="22">
         <v>183</v>
       </c>
-      <c r="B198" s="42"/>
+      <c r="B198" s="35"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5" t="s">
         <v>377</v>
@@ -8583,7 +8489,7 @@
       <c r="A199" s="22">
         <v>184</v>
       </c>
-      <c r="B199" s="42"/>
+      <c r="B199" s="35"/>
       <c r="C199" s="4" t="s">
         <v>379</v>
       </c>
@@ -8610,7 +8516,7 @@
       <c r="A200" s="22">
         <v>185</v>
       </c>
-      <c r="B200" s="42"/>
+      <c r="B200" s="35"/>
       <c r="C200" s="4" t="s">
         <v>357</v>
       </c>
@@ -8637,7 +8543,7 @@
       <c r="A201" s="22">
         <v>186</v>
       </c>
-      <c r="B201" s="42"/>
+      <c r="B201" s="35"/>
       <c r="C201" s="4" t="s">
         <v>382</v>
       </c>
@@ -8664,7 +8570,7 @@
       <c r="A202" s="22">
         <v>187</v>
       </c>
-      <c r="B202" s="42" t="s">
+      <c r="B202" s="35" t="s">
         <v>384</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -8693,7 +8599,7 @@
       <c r="A203" s="22">
         <v>188</v>
       </c>
-      <c r="B203" s="42"/>
+      <c r="B203" s="35"/>
       <c r="C203" s="4"/>
       <c r="D203" s="5" t="s">
         <v>353</v>
@@ -8718,7 +8624,7 @@
       <c r="A204" s="22">
         <v>189</v>
       </c>
-      <c r="B204" s="42"/>
+      <c r="B204" s="35"/>
       <c r="C204" s="4" t="s">
         <v>382</v>
       </c>
@@ -8745,7 +8651,7 @@
       <c r="A205" s="22">
         <v>190</v>
       </c>
-      <c r="B205" s="42"/>
+      <c r="B205" s="35"/>
       <c r="C205" s="4" t="s">
         <v>388</v>
       </c>
@@ -8772,7 +8678,7 @@
       <c r="A206" s="22">
         <v>191</v>
       </c>
-      <c r="B206" s="42"/>
+      <c r="B206" s="35"/>
       <c r="C206" s="16" t="s">
         <v>391</v>
       </c>
@@ -8799,7 +8705,7 @@
       <c r="A207" s="22">
         <v>192</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="28" t="s">
         <v>394</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -8828,8 +8734,8 @@
       <c r="A208" s="22">
         <v>193</v>
       </c>
-      <c r="B208" s="31"/>
-      <c r="C208" s="33" t="s">
+      <c r="B208" s="29"/>
+      <c r="C208" s="31" t="s">
         <v>397</v>
       </c>
       <c r="D208" s="5" t="s">
@@ -8855,8 +8761,8 @@
       <c r="A209" s="22">
         <v>194</v>
       </c>
-      <c r="B209" s="31"/>
-      <c r="C209" s="34"/>
+      <c r="B209" s="29"/>
+      <c r="C209" s="37"/>
       <c r="D209" s="5" t="s">
         <v>400</v>
       </c>
@@ -8880,8 +8786,8 @@
       <c r="A210" s="22">
         <v>195</v>
       </c>
-      <c r="B210" s="31"/>
-      <c r="C210" s="35"/>
+      <c r="B210" s="29"/>
+      <c r="C210" s="32"/>
       <c r="D210" s="5" t="s">
         <v>402</v>
       </c>
@@ -8905,7 +8811,7 @@
       <c r="A211" s="22">
         <v>196</v>
       </c>
-      <c r="B211" s="31"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="4" t="s">
         <v>404</v>
       </c>
@@ -8932,7 +8838,7 @@
       <c r="A212" s="22">
         <v>197</v>
       </c>
-      <c r="B212" s="31"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="4" t="s">
         <v>407</v>
       </c>
@@ -8959,8 +8865,8 @@
       <c r="A213" s="22">
         <v>198</v>
       </c>
-      <c r="B213" s="31"/>
-      <c r="C213" s="33" t="s">
+      <c r="B213" s="29"/>
+      <c r="C213" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D213" s="5" t="s">
@@ -8986,8 +8892,8 @@
       <c r="A214" s="22">
         <v>199</v>
       </c>
-      <c r="B214" s="31"/>
-      <c r="C214" s="34"/>
+      <c r="B214" s="29"/>
+      <c r="C214" s="37"/>
       <c r="D214" s="5" t="s">
         <v>411</v>
       </c>
@@ -9011,8 +8917,8 @@
       <c r="A215" s="22">
         <v>200</v>
       </c>
-      <c r="B215" s="31"/>
-      <c r="C215" s="35"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="32"/>
       <c r="D215" s="5" t="s">
         <v>411</v>
       </c>
@@ -9036,7 +8942,7 @@
       <c r="A216" s="22">
         <v>201</v>
       </c>
-      <c r="B216" s="31"/>
+      <c r="B216" s="29"/>
       <c r="C216" s="4" t="s">
         <v>357</v>
       </c>
@@ -9063,7 +8969,7 @@
       <c r="A217" s="22">
         <v>202</v>
       </c>
-      <c r="B217" s="31"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="4" t="s">
         <v>382</v>
       </c>
@@ -9090,7 +8996,7 @@
       <c r="A218" s="22">
         <v>203</v>
       </c>
-      <c r="B218" s="32"/>
+      <c r="B218" s="30"/>
       <c r="C218" s="4" t="s">
         <v>418</v>
       </c>
@@ -9117,7 +9023,7 @@
       <c r="A219" s="22">
         <v>204</v>
       </c>
-      <c r="B219" s="39" t="s">
+      <c r="B219" s="41" t="s">
         <v>421</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -9146,8 +9052,8 @@
       <c r="A220" s="22">
         <v>205</v>
       </c>
-      <c r="B220" s="40"/>
-      <c r="C220" s="33" t="s">
+      <c r="B220" s="42"/>
+      <c r="C220" s="31" t="s">
         <v>397</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -9173,8 +9079,8 @@
       <c r="A221" s="22">
         <v>206</v>
       </c>
-      <c r="B221" s="40"/>
-      <c r="C221" s="34"/>
+      <c r="B221" s="42"/>
+      <c r="C221" s="37"/>
       <c r="D221" s="5" t="s">
         <v>424</v>
       </c>
@@ -9198,8 +9104,8 @@
       <c r="A222" s="22">
         <v>207</v>
       </c>
-      <c r="B222" s="40"/>
-      <c r="C222" s="35"/>
+      <c r="B222" s="42"/>
+      <c r="C222" s="32"/>
       <c r="D222" s="5" t="s">
         <v>424</v>
       </c>
@@ -9223,7 +9129,7 @@
       <c r="A223" s="22">
         <v>208</v>
       </c>
-      <c r="B223" s="40"/>
+      <c r="B223" s="42"/>
       <c r="C223" s="4" t="s">
         <v>407</v>
       </c>
@@ -9250,8 +9156,8 @@
       <c r="A224" s="22">
         <v>209</v>
       </c>
-      <c r="B224" s="40"/>
-      <c r="C224" s="33" t="s">
+      <c r="B224" s="42"/>
+      <c r="C224" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D224" s="5" t="s">
@@ -9277,8 +9183,8 @@
       <c r="A225" s="22">
         <v>210</v>
       </c>
-      <c r="B225" s="40"/>
-      <c r="C225" s="34"/>
+      <c r="B225" s="42"/>
+      <c r="C225" s="37"/>
       <c r="D225" s="5" t="s">
         <v>426</v>
       </c>
@@ -9302,8 +9208,8 @@
       <c r="A226" s="22">
         <v>211</v>
       </c>
-      <c r="B226" s="40"/>
-      <c r="C226" s="35"/>
+      <c r="B226" s="42"/>
+      <c r="C226" s="32"/>
       <c r="D226" s="5" t="s">
         <v>426</v>
       </c>
@@ -9327,7 +9233,7 @@
       <c r="A227" s="22">
         <v>212</v>
       </c>
-      <c r="B227" s="40"/>
+      <c r="B227" s="42"/>
       <c r="C227" s="4" t="s">
         <v>357</v>
       </c>
@@ -9354,7 +9260,7 @@
       <c r="A228" s="22">
         <v>213</v>
       </c>
-      <c r="B228" s="41"/>
+      <c r="B228" s="43"/>
       <c r="C228" s="4" t="s">
         <v>382</v>
       </c>
@@ -9381,7 +9287,7 @@
       <c r="A229" s="22">
         <v>214</v>
       </c>
-      <c r="B229" s="27" t="s">
+      <c r="B229" s="44" t="s">
         <v>429</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -9410,8 +9316,8 @@
       <c r="A230" s="22">
         <v>215</v>
       </c>
-      <c r="B230" s="28"/>
-      <c r="C230" s="33" t="s">
+      <c r="B230" s="45"/>
+      <c r="C230" s="31" t="s">
         <v>397</v>
       </c>
       <c r="D230" s="5" t="s">
@@ -9437,8 +9343,8 @@
       <c r="A231" s="22">
         <v>216</v>
       </c>
-      <c r="B231" s="28"/>
-      <c r="C231" s="34"/>
+      <c r="B231" s="45"/>
+      <c r="C231" s="37"/>
       <c r="D231" s="5" t="s">
         <v>433</v>
       </c>
@@ -9462,8 +9368,8 @@
       <c r="A232" s="22">
         <v>217</v>
       </c>
-      <c r="B232" s="28"/>
-      <c r="C232" s="35"/>
+      <c r="B232" s="45"/>
+      <c r="C232" s="32"/>
       <c r="D232" s="5" t="s">
         <v>433</v>
       </c>
@@ -9487,7 +9393,7 @@
       <c r="A233" s="22">
         <v>218</v>
       </c>
-      <c r="B233" s="28"/>
+      <c r="B233" s="45"/>
       <c r="C233" s="4" t="s">
         <v>407</v>
       </c>
@@ -9514,8 +9420,8 @@
       <c r="A234" s="22">
         <v>219</v>
       </c>
-      <c r="B234" s="28"/>
-      <c r="C234" s="33" t="s">
+      <c r="B234" s="45"/>
+      <c r="C234" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D234" s="5" t="s">
@@ -9541,8 +9447,8 @@
       <c r="A235" s="22">
         <v>220</v>
       </c>
-      <c r="B235" s="28"/>
-      <c r="C235" s="34"/>
+      <c r="B235" s="45"/>
+      <c r="C235" s="37"/>
       <c r="D235" s="5" t="s">
         <v>435</v>
       </c>
@@ -9566,8 +9472,8 @@
       <c r="A236" s="22">
         <v>221</v>
       </c>
-      <c r="B236" s="28"/>
-      <c r="C236" s="35"/>
+      <c r="B236" s="45"/>
+      <c r="C236" s="32"/>
       <c r="D236" s="5" t="s">
         <v>435</v>
       </c>
@@ -9591,7 +9497,7 @@
       <c r="A237" s="22">
         <v>222</v>
       </c>
-      <c r="B237" s="28"/>
+      <c r="B237" s="45"/>
       <c r="C237" s="4" t="s">
         <v>357</v>
       </c>
@@ -9618,7 +9524,7 @@
       <c r="A238" s="22">
         <v>223</v>
       </c>
-      <c r="B238" s="28"/>
+      <c r="B238" s="45"/>
       <c r="C238" s="4" t="s">
         <v>382</v>
       </c>
@@ -9645,7 +9551,7 @@
       <c r="A239" s="22">
         <v>224</v>
       </c>
-      <c r="B239" s="29"/>
+      <c r="B239" s="46"/>
       <c r="C239" s="4" t="s">
         <v>404</v>
       </c>
@@ -9672,7 +9578,7 @@
       <c r="A240" s="22">
         <v>225</v>
       </c>
-      <c r="B240" s="27" t="s">
+      <c r="B240" s="44" t="s">
         <v>439</v>
       </c>
       <c r="C240" s="4" t="s">
@@ -9701,7 +9607,7 @@
       <c r="A241" s="22">
         <v>226</v>
       </c>
-      <c r="B241" s="28"/>
+      <c r="B241" s="45"/>
       <c r="C241" s="4" t="s">
         <v>442</v>
       </c>
@@ -9728,7 +9634,7 @@
       <c r="A242" s="22">
         <v>227</v>
       </c>
-      <c r="B242" s="28"/>
+      <c r="B242" s="45"/>
       <c r="C242" s="4" t="s">
         <v>445</v>
       </c>
@@ -9755,7 +9661,7 @@
       <c r="A243" s="22">
         <v>228</v>
       </c>
-      <c r="B243" s="28"/>
+      <c r="B243" s="45"/>
       <c r="C243" s="4"/>
       <c r="D243" s="5" t="s">
         <v>448</v>
@@ -9780,7 +9686,7 @@
       <c r="A244" s="22">
         <v>229</v>
       </c>
-      <c r="B244" s="29"/>
+      <c r="B244" s="46"/>
       <c r="C244" s="4"/>
       <c r="D244" s="5" t="s">
         <v>450</v>
@@ -9805,7 +9711,7 @@
       <c r="A245" s="22">
         <v>230</v>
       </c>
-      <c r="B245" s="27" t="s">
+      <c r="B245" s="44" t="s">
         <v>452</v>
       </c>
       <c r="C245" s="4" t="s">
@@ -9834,8 +9740,8 @@
       <c r="A246" s="22">
         <v>231</v>
       </c>
-      <c r="B246" s="28"/>
-      <c r="C246" s="33" t="s">
+      <c r="B246" s="45"/>
+      <c r="C246" s="31" t="s">
         <v>455</v>
       </c>
       <c r="D246" s="5" t="s">
@@ -9861,8 +9767,8 @@
       <c r="A247" s="22">
         <v>232</v>
       </c>
-      <c r="B247" s="28"/>
-      <c r="C247" s="34"/>
+      <c r="B247" s="45"/>
+      <c r="C247" s="37"/>
       <c r="D247" s="5" t="s">
         <v>458</v>
       </c>
@@ -9886,8 +9792,8 @@
       <c r="A248" s="22">
         <v>233</v>
       </c>
-      <c r="B248" s="28"/>
-      <c r="C248" s="34"/>
+      <c r="B248" s="45"/>
+      <c r="C248" s="37"/>
       <c r="D248" s="5" t="s">
         <v>460</v>
       </c>
@@ -9911,8 +9817,8 @@
       <c r="A249" s="22">
         <v>234</v>
       </c>
-      <c r="B249" s="28"/>
-      <c r="C249" s="35"/>
+      <c r="B249" s="45"/>
+      <c r="C249" s="32"/>
       <c r="D249" s="5" t="s">
         <v>462</v>
       </c>
@@ -9936,7 +9842,7 @@
       <c r="A250" s="22">
         <v>235</v>
       </c>
-      <c r="B250" s="28"/>
+      <c r="B250" s="45"/>
       <c r="C250" s="4" t="s">
         <v>464</v>
       </c>
@@ -9963,7 +9869,7 @@
       <c r="A251" s="22">
         <v>236</v>
       </c>
-      <c r="B251" s="28"/>
+      <c r="B251" s="45"/>
       <c r="C251" s="4" t="s">
         <v>467</v>
       </c>
@@ -9990,7 +9896,7 @@
       <c r="A252" s="22">
         <v>237</v>
       </c>
-      <c r="B252" s="28"/>
+      <c r="B252" s="45"/>
       <c r="C252" s="4" t="s">
         <v>470</v>
       </c>
@@ -10017,7 +9923,7 @@
       <c r="A253" s="22">
         <v>238</v>
       </c>
-      <c r="B253" s="28"/>
+      <c r="B253" s="45"/>
       <c r="C253" s="4" t="s">
         <v>473</v>
       </c>
@@ -10044,7 +9950,7 @@
       <c r="A254" s="22">
         <v>239</v>
       </c>
-      <c r="B254" s="29"/>
+      <c r="B254" s="46"/>
       <c r="C254" s="4" t="s">
         <v>476</v>
       </c>
@@ -10071,7 +9977,7 @@
       <c r="A255" s="22">
         <v>240</v>
       </c>
-      <c r="B255" s="27" t="s">
+      <c r="B255" s="44" t="s">
         <v>479</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -10100,7 +10006,7 @@
       <c r="A256" s="22">
         <v>241</v>
       </c>
-      <c r="B256" s="28"/>
+      <c r="B256" s="45"/>
       <c r="C256" s="4" t="s">
         <v>482</v>
       </c>
@@ -10127,7 +10033,7 @@
       <c r="A257" s="22">
         <v>242</v>
       </c>
-      <c r="B257" s="28"/>
+      <c r="B257" s="45"/>
       <c r="C257" s="4" t="s">
         <v>151</v>
       </c>
@@ -10154,8 +10060,8 @@
       <c r="A258" s="22">
         <v>243</v>
       </c>
-      <c r="B258" s="28"/>
-      <c r="C258" s="33" t="s">
+      <c r="B258" s="45"/>
+      <c r="C258" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D258" s="5" t="s">
@@ -10181,8 +10087,8 @@
       <c r="A259" s="22">
         <v>244</v>
       </c>
-      <c r="B259" s="28"/>
-      <c r="C259" s="34"/>
+      <c r="B259" s="45"/>
+      <c r="C259" s="37"/>
       <c r="D259" s="5" t="s">
         <v>490</v>
       </c>
@@ -10206,8 +10112,8 @@
       <c r="A260" s="22">
         <v>245</v>
       </c>
-      <c r="B260" s="28"/>
-      <c r="C260" s="35"/>
+      <c r="B260" s="45"/>
+      <c r="C260" s="32"/>
       <c r="D260" s="5" t="s">
         <v>492</v>
       </c>
@@ -10231,7 +10137,7 @@
       <c r="A261" s="22">
         <v>246</v>
       </c>
-      <c r="B261" s="28"/>
+      <c r="B261" s="45"/>
       <c r="C261" s="17" t="s">
         <v>494</v>
       </c>
@@ -10258,7 +10164,7 @@
       <c r="A262" s="22">
         <v>247</v>
       </c>
-      <c r="B262" s="28"/>
+      <c r="B262" s="45"/>
       <c r="C262" s="4" t="s">
         <v>497</v>
       </c>
@@ -10285,7 +10191,7 @@
       <c r="A263" s="22">
         <v>248</v>
       </c>
-      <c r="B263" s="28"/>
+      <c r="B263" s="45"/>
       <c r="C263" s="4" t="s">
         <v>500</v>
       </c>
@@ -10312,7 +10218,7 @@
       <c r="A264" s="22">
         <v>249</v>
       </c>
-      <c r="B264" s="29"/>
+      <c r="B264" s="46"/>
       <c r="C264" s="4" t="s">
         <v>503</v>
       </c>
@@ -10339,7 +10245,7 @@
       <c r="A265" s="22">
         <v>250</v>
       </c>
-      <c r="B265" s="27" t="s">
+      <c r="B265" s="44" t="s">
         <v>506</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -10368,7 +10274,7 @@
       <c r="A266" s="22">
         <v>251</v>
       </c>
-      <c r="B266" s="28"/>
+      <c r="B266" s="45"/>
       <c r="C266" s="4" t="s">
         <v>509</v>
       </c>
@@ -10395,7 +10301,7 @@
       <c r="A267" s="22">
         <v>252</v>
       </c>
-      <c r="B267" s="28"/>
+      <c r="B267" s="45"/>
       <c r="C267" s="4" t="s">
         <v>512</v>
       </c>
@@ -10422,7 +10328,7 @@
       <c r="A268" s="22">
         <v>253</v>
       </c>
-      <c r="B268" s="28"/>
+      <c r="B268" s="45"/>
       <c r="C268" s="4" t="s">
         <v>515</v>
       </c>
@@ -10449,7 +10355,7 @@
       <c r="A269" s="22">
         <v>254</v>
       </c>
-      <c r="B269" s="28"/>
+      <c r="B269" s="45"/>
       <c r="C269" s="4" t="s">
         <v>500</v>
       </c>
@@ -10476,7 +10382,7 @@
       <c r="A270" s="22">
         <v>255</v>
       </c>
-      <c r="B270" s="29"/>
+      <c r="B270" s="46"/>
       <c r="C270" s="4" t="s">
         <v>497</v>
       </c>
@@ -10503,7 +10409,7 @@
       <c r="A271" s="22">
         <v>256</v>
       </c>
-      <c r="B271" s="27" t="s">
+      <c r="B271" s="44" t="s">
         <v>520</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -10532,7 +10438,7 @@
       <c r="A272" s="22">
         <v>257</v>
       </c>
-      <c r="B272" s="28"/>
+      <c r="B272" s="45"/>
       <c r="C272" s="4" t="s">
         <v>482</v>
       </c>
@@ -10559,7 +10465,7 @@
       <c r="A273" s="22">
         <v>258</v>
       </c>
-      <c r="B273" s="28"/>
+      <c r="B273" s="45"/>
       <c r="C273" s="4" t="s">
         <v>151</v>
       </c>
@@ -10586,8 +10492,8 @@
       <c r="A274" s="22">
         <v>259</v>
       </c>
-      <c r="B274" s="28"/>
-      <c r="C274" s="33" t="s">
+      <c r="B274" s="45"/>
+      <c r="C274" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D274" s="5" t="s">
@@ -10613,8 +10519,8 @@
       <c r="A275" s="22">
         <v>260</v>
       </c>
-      <c r="B275" s="28"/>
-      <c r="C275" s="34"/>
+      <c r="B275" s="45"/>
+      <c r="C275" s="37"/>
       <c r="D275" s="5" t="s">
         <v>490</v>
       </c>
@@ -10638,8 +10544,8 @@
       <c r="A276" s="22">
         <v>261</v>
       </c>
-      <c r="B276" s="28"/>
-      <c r="C276" s="35"/>
+      <c r="B276" s="45"/>
+      <c r="C276" s="32"/>
       <c r="D276" s="5" t="s">
         <v>492</v>
       </c>
@@ -10663,7 +10569,7 @@
       <c r="A277" s="22">
         <v>262</v>
       </c>
-      <c r="B277" s="28"/>
+      <c r="B277" s="45"/>
       <c r="C277" s="17" t="s">
         <v>494</v>
       </c>
@@ -10690,7 +10596,7 @@
       <c r="A278" s="22">
         <v>263</v>
       </c>
-      <c r="B278" s="28"/>
+      <c r="B278" s="45"/>
       <c r="C278" s="4" t="s">
         <v>497</v>
       </c>
@@ -10717,7 +10623,7 @@
       <c r="A279" s="22">
         <v>264</v>
       </c>
-      <c r="B279" s="29"/>
+      <c r="B279" s="46"/>
       <c r="C279" s="4" t="s">
         <v>500</v>
       </c>
@@ -10744,7 +10650,7 @@
       <c r="A280" s="22">
         <v>265</v>
       </c>
-      <c r="B280" s="27" t="s">
+      <c r="B280" s="44" t="s">
         <v>530</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -10773,7 +10679,7 @@
       <c r="A281" s="22">
         <v>266</v>
       </c>
-      <c r="B281" s="28"/>
+      <c r="B281" s="45"/>
       <c r="C281" s="4" t="s">
         <v>482</v>
       </c>
@@ -10800,7 +10706,7 @@
       <c r="A282" s="22">
         <v>267</v>
       </c>
-      <c r="B282" s="28"/>
+      <c r="B282" s="45"/>
       <c r="C282" s="4" t="s">
         <v>151</v>
       </c>
@@ -10827,7 +10733,7 @@
       <c r="A283" s="22">
         <v>268</v>
       </c>
-      <c r="B283" s="28"/>
+      <c r="B283" s="45"/>
       <c r="C283" s="4" t="s">
         <v>500</v>
       </c>
@@ -10854,7 +10760,7 @@
       <c r="A284" s="22">
         <v>269</v>
       </c>
-      <c r="B284" s="28"/>
+      <c r="B284" s="45"/>
       <c r="C284" s="4" t="s">
         <v>497</v>
       </c>
@@ -10881,8 +10787,8 @@
       <c r="A285" s="22">
         <v>270</v>
       </c>
-      <c r="B285" s="28"/>
-      <c r="C285" s="33" t="s">
+      <c r="B285" s="45"/>
+      <c r="C285" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D285" s="5" t="s">
@@ -10908,8 +10814,8 @@
       <c r="A286" s="22">
         <v>271</v>
       </c>
-      <c r="B286" s="28"/>
-      <c r="C286" s="34"/>
+      <c r="B286" s="45"/>
+      <c r="C286" s="37"/>
       <c r="D286" s="5" t="s">
         <v>490</v>
       </c>
@@ -10933,8 +10839,8 @@
       <c r="A287" s="22">
         <v>272</v>
       </c>
-      <c r="B287" s="28"/>
-      <c r="C287" s="34"/>
+      <c r="B287" s="45"/>
+      <c r="C287" s="37"/>
       <c r="D287" s="5" t="s">
         <v>492</v>
       </c>
@@ -10958,8 +10864,8 @@
       <c r="A288" s="22">
         <v>273</v>
       </c>
-      <c r="B288" s="28"/>
-      <c r="C288" s="34"/>
+      <c r="B288" s="45"/>
+      <c r="C288" s="37"/>
       <c r="D288" s="5" t="s">
         <v>539</v>
       </c>
@@ -10983,8 +10889,8 @@
       <c r="A289" s="22">
         <v>274</v>
       </c>
-      <c r="B289" s="28"/>
-      <c r="C289" s="34"/>
+      <c r="B289" s="45"/>
+      <c r="C289" s="37"/>
       <c r="D289" s="5" t="s">
         <v>541</v>
       </c>
@@ -11008,8 +10914,8 @@
       <c r="A290" s="22">
         <v>275</v>
       </c>
-      <c r="B290" s="29"/>
-      <c r="C290" s="35"/>
+      <c r="B290" s="46"/>
+      <c r="C290" s="32"/>
       <c r="D290" s="5" t="s">
         <v>541</v>
       </c>
@@ -11033,7 +10939,7 @@
       <c r="A291" s="22">
         <v>276</v>
       </c>
-      <c r="B291" s="27" t="s">
+      <c r="B291" s="44" t="s">
         <v>544</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -11062,7 +10968,7 @@
       <c r="A292" s="22">
         <v>277</v>
       </c>
-      <c r="B292" s="28"/>
+      <c r="B292" s="45"/>
       <c r="C292" s="4" t="s">
         <v>482</v>
       </c>
@@ -11089,7 +10995,7 @@
       <c r="A293" s="22">
         <v>278</v>
       </c>
-      <c r="B293" s="28"/>
+      <c r="B293" s="45"/>
       <c r="C293" s="4" t="s">
         <v>151</v>
       </c>
@@ -11116,7 +11022,7 @@
       <c r="A294" s="22">
         <v>279</v>
       </c>
-      <c r="B294" s="28"/>
+      <c r="B294" s="45"/>
       <c r="C294" s="4" t="s">
         <v>497</v>
       </c>
@@ -11143,8 +11049,8 @@
       <c r="A295" s="22">
         <v>280</v>
       </c>
-      <c r="B295" s="28"/>
-      <c r="C295" s="33" t="s">
+      <c r="B295" s="45"/>
+      <c r="C295" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D295" s="5" t="s">
@@ -11170,8 +11076,8 @@
       <c r="A296" s="22">
         <v>281</v>
       </c>
-      <c r="B296" s="28"/>
-      <c r="C296" s="34"/>
+      <c r="B296" s="45"/>
+      <c r="C296" s="37"/>
       <c r="D296" s="5" t="s">
         <v>490</v>
       </c>
@@ -11195,8 +11101,8 @@
       <c r="A297" s="22">
         <v>282</v>
       </c>
-      <c r="B297" s="28"/>
-      <c r="C297" s="34"/>
+      <c r="B297" s="45"/>
+      <c r="C297" s="37"/>
       <c r="D297" s="5" t="s">
         <v>492</v>
       </c>
@@ -11220,8 +11126,8 @@
       <c r="A298" s="22">
         <v>283</v>
       </c>
-      <c r="B298" s="28"/>
-      <c r="C298" s="35"/>
+      <c r="B298" s="45"/>
+      <c r="C298" s="32"/>
       <c r="D298" s="5" t="s">
         <v>550</v>
       </c>
@@ -11245,7 +11151,7 @@
       <c r="A299" s="22">
         <v>284</v>
       </c>
-      <c r="B299" s="28"/>
+      <c r="B299" s="45"/>
       <c r="C299" s="4" t="s">
         <v>552</v>
       </c>
@@ -11272,7 +11178,7 @@
       <c r="A300" s="22">
         <v>285</v>
       </c>
-      <c r="B300" s="29"/>
+      <c r="B300" s="46"/>
       <c r="C300" s="4" t="s">
         <v>500</v>
       </c>
@@ -11299,7 +11205,7 @@
       <c r="A301" s="22">
         <v>286</v>
       </c>
-      <c r="B301" s="36" t="s">
+      <c r="B301" s="47" t="s">
         <v>556</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -11328,7 +11234,7 @@
       <c r="A302" s="22">
         <v>287</v>
       </c>
-      <c r="B302" s="37"/>
+      <c r="B302" s="48"/>
       <c r="C302" s="4" t="s">
         <v>552</v>
       </c>
@@ -11355,7 +11261,7 @@
       <c r="A303" s="22">
         <v>288</v>
       </c>
-      <c r="B303" s="37"/>
+      <c r="B303" s="48"/>
       <c r="C303" s="4" t="s">
         <v>500</v>
       </c>
@@ -11382,7 +11288,7 @@
       <c r="A304" s="22">
         <v>289</v>
       </c>
-      <c r="B304" s="37"/>
+      <c r="B304" s="48"/>
       <c r="C304" s="4" t="s">
         <v>497</v>
       </c>
@@ -11409,7 +11315,7 @@
       <c r="A305" s="22">
         <v>290</v>
       </c>
-      <c r="B305" s="38"/>
+      <c r="B305" s="49"/>
       <c r="C305" s="4" t="s">
         <v>561</v>
       </c>
@@ -11436,7 +11342,7 @@
       <c r="A306" s="22">
         <v>291</v>
       </c>
-      <c r="B306" s="27" t="s">
+      <c r="B306" s="44" t="s">
         <v>564</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -11465,7 +11371,7 @@
       <c r="A307" s="22">
         <v>292</v>
       </c>
-      <c r="B307" s="28"/>
+      <c r="B307" s="45"/>
       <c r="C307" s="4" t="s">
         <v>500</v>
       </c>
@@ -11492,7 +11398,7 @@
       <c r="A308" s="22">
         <v>293</v>
       </c>
-      <c r="B308" s="28"/>
+      <c r="B308" s="45"/>
       <c r="C308" s="4" t="s">
         <v>497</v>
       </c>
@@ -11519,8 +11425,8 @@
       <c r="A309" s="22">
         <v>294</v>
       </c>
-      <c r="B309" s="28"/>
-      <c r="C309" s="33" t="s">
+      <c r="B309" s="45"/>
+      <c r="C309" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D309" s="5" t="s">
@@ -11546,8 +11452,8 @@
       <c r="A310" s="22">
         <v>295</v>
       </c>
-      <c r="B310" s="28"/>
-      <c r="C310" s="34"/>
+      <c r="B310" s="45"/>
+      <c r="C310" s="37"/>
       <c r="D310" s="5" t="s">
         <v>490</v>
       </c>
@@ -11571,8 +11477,8 @@
       <c r="A311" s="22">
         <v>296</v>
       </c>
-      <c r="B311" s="28"/>
-      <c r="C311" s="35"/>
+      <c r="B311" s="45"/>
+      <c r="C311" s="32"/>
       <c r="D311" s="5" t="s">
         <v>492</v>
       </c>
@@ -11596,8 +11502,8 @@
       <c r="A312" s="22">
         <v>297</v>
       </c>
-      <c r="B312" s="28"/>
-      <c r="C312" s="33" t="s">
+      <c r="B312" s="45"/>
+      <c r="C312" s="31" t="s">
         <v>569</v>
       </c>
       <c r="D312" s="5" t="s">
@@ -11623,8 +11529,8 @@
       <c r="A313" s="22">
         <v>298</v>
       </c>
-      <c r="B313" s="28"/>
-      <c r="C313" s="34"/>
+      <c r="B313" s="45"/>
+      <c r="C313" s="37"/>
       <c r="D313" s="5" t="s">
         <v>572</v>
       </c>
@@ -11648,8 +11554,8 @@
       <c r="A314" s="22">
         <v>299</v>
       </c>
-      <c r="B314" s="28"/>
-      <c r="C314" s="35"/>
+      <c r="B314" s="45"/>
+      <c r="C314" s="32"/>
       <c r="D314" s="5" t="s">
         <v>574</v>
       </c>
@@ -11673,8 +11579,8 @@
       <c r="A315" s="22">
         <v>300</v>
       </c>
-      <c r="B315" s="28"/>
-      <c r="C315" s="33" t="s">
+      <c r="B315" s="45"/>
+      <c r="C315" s="31" t="s">
         <v>576</v>
       </c>
       <c r="D315" s="5" t="s">
@@ -11700,8 +11606,8 @@
       <c r="A316" s="22">
         <v>301</v>
       </c>
-      <c r="B316" s="28"/>
-      <c r="C316" s="35"/>
+      <c r="B316" s="45"/>
+      <c r="C316" s="32"/>
       <c r="D316" s="5" t="s">
         <v>579</v>
       </c>
@@ -11725,7 +11631,7 @@
       <c r="A317" s="22">
         <v>302</v>
       </c>
-      <c r="B317" s="29"/>
+      <c r="B317" s="46"/>
       <c r="C317" s="4" t="s">
         <v>581</v>
       </c>
@@ -11752,7 +11658,7 @@
       <c r="A318" s="22">
         <v>303</v>
       </c>
-      <c r="B318" s="27" t="s">
+      <c r="B318" s="44" t="s">
         <v>584</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -11781,7 +11687,7 @@
       <c r="A319" s="22">
         <v>304</v>
       </c>
-      <c r="B319" s="28"/>
+      <c r="B319" s="45"/>
       <c r="C319" s="4" t="s">
         <v>494</v>
       </c>
@@ -11808,7 +11714,7 @@
       <c r="A320" s="22">
         <v>305</v>
       </c>
-      <c r="B320" s="28"/>
+      <c r="B320" s="45"/>
       <c r="C320" s="4" t="s">
         <v>500</v>
       </c>
@@ -11835,7 +11741,7 @@
       <c r="A321" s="22">
         <v>306</v>
       </c>
-      <c r="B321" s="29"/>
+      <c r="B321" s="46"/>
       <c r="C321" s="4" t="s">
         <v>497</v>
       </c>
@@ -11860,76 +11766,6 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B129"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B87:B96"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B130:B145"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B160:B174"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="B219:B228"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="B191:B201"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="B255:B264"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="B265:B270"/>
-    <mergeCell ref="B271:B279"/>
-    <mergeCell ref="C274:C276"/>
     <mergeCell ref="B318:B321"/>
     <mergeCell ref="B183:B185"/>
     <mergeCell ref="B291:B300"/>
@@ -11946,12 +11782,82 @@
     <mergeCell ref="C234:C236"/>
     <mergeCell ref="B240:B244"/>
     <mergeCell ref="B245:B254"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="B255:B264"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="B265:B270"/>
+    <mergeCell ref="B271:B279"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="B219:B228"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="B191:B201"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="B207:B218"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="B149:B155"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B160:B174"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B130:B145"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B129"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K211" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$C$2:$C$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I321">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I321" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$1:$B$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCase-Reup.xlsx
+++ b/TestCase-Reup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PTDiDong12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B278C-B65A-426D-86FA-A4E41A65C26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7102551-6A09-4CD0-A8FE-4CE0C075F5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="655">
   <si>
     <t>Kết quả test trên ứng dụng</t>
   </si>
@@ -1341,40 +1341,6 @@
     <t>The alarm will be turned off, the user will not receive the notification</t>
   </si>
   <si>
-    <t>"Trợ giúp" screen</t>
-  </si>
-  <si>
-    <t>EditText(Search)</t>
-  </si>
-  <si>
-    <t>1. Click EditText
-2. Enter your question(Normally asked question)</t>
-  </si>
-  <si>
-    <t>The screen will appear some frequently asked questions</t>
-  </si>
-  <si>
-    <t>LabelLink(Normally asked question)</t>
-  </si>
-  <si>
-    <t>Click 1 FAQ</t>
-  </si>
-  <si>
-    <t>The screen will redirect to the solution screen</t>
-  </si>
-  <si>
-    <t>Help (Icon)</t>
-  </si>
-  <si>
-    <t>Click icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user click this field, the text on the field will show to dev team
-- This will check if problem is null
-- If it null.nothing is send
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interface Alarm Screen
 </t>
   </si>
@@ -2562,13 +2528,191 @@
   </si>
   <si>
     <t>Lõi không đăng nhập được</t>
+  </si>
+  <si>
+    <t>Blog user</t>
+  </si>
+  <si>
+    <t>MostFavorite tab</t>
+  </si>
+  <si>
+    <t>New tab</t>
+  </si>
+  <si>
+    <t>YourFarvorite tab</t>
+  </si>
+  <si>
+    <t>Click MostFavorite tab</t>
+  </si>
+  <si>
+    <t>Click New tab</t>
+  </si>
+  <si>
+    <t>Showing posts with the most views</t>
+  </si>
+  <si>
+    <t>Show individual favorite posts</t>
+  </si>
+  <si>
+    <t>Show latest posts</t>
+  </si>
+  <si>
+    <t>Add post button</t>
+  </si>
+  <si>
+    <t>Click YourFavorite tab</t>
+  </si>
+  <si>
+    <t>Click “+” icon</t>
+  </si>
+  <si>
+    <t>Go to Post screen</t>
+  </si>
+  <si>
+    <t>1. Click "+" icon
+2. Click EditText Title, Fill in any text
+3. Click EditText Comment, Fill in any text
+4. Click "đăng" button</t>
+  </si>
+  <si>
+    <t>Message "Bài đăng đang chờ kiểm duyệt"</t>
+  </si>
+  <si>
+    <t>1. Click "+" icon
+2. Click EditText Title, Fill in any text
+3. Click EditText Comment, Fill in any text
+4. Click "Hủy" button</t>
+  </si>
+  <si>
+    <t>Return to the Blog screen</t>
+  </si>
+  <si>
+    <t>1. Click "+" icon
+2. Click EditText Title, blank
+3. Click EditText Comment, Fill in any text
+4. Click "Đăng" button</t>
+  </si>
+  <si>
+    <t>Message"Vui lòng nhập gì đó"</t>
+  </si>
+  <si>
+    <t>1. Click "+" icon
+2. Click EditText Title, Fill in any text
+3. Click EditText Comment, blank
+4. Click "Đăng" button</t>
+  </si>
+  <si>
+    <t>1. Click "+" icon
+2. Click icon Camera</t>
+  </si>
+  <si>
+    <t>Connect to Photo Albums on your device and allow to choose any photo to upload</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>1. Click any Post
+2. Click Like icon</t>
+  </si>
+  <si>
+    <t>1. Click any Post
+2. Click Like icon
+3. Click Again like icon</t>
+  </si>
+  <si>
+    <t>1. Click any Post
+2. Click Heart icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of likes will increase. </t>
+  </si>
+  <si>
+    <t>The number of likes will decrease</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1. Click comment icon
+2. Blank EditText
+3. Click "Đăng" button</t>
+  </si>
+  <si>
+    <t>Comments will be displayed in the post</t>
+  </si>
+  <si>
+    <t>1. Click comment icon
+2. Fill in any text in EditText
+3. Click "Đăng" button</t>
+  </si>
+  <si>
+    <t>1. Click comment icon
+2. Fill in any text in EditText
+3. Click "Hủy" button</t>
+  </si>
+  <si>
+    <t>Close comment posting option</t>
+  </si>
+  <si>
+    <t>Blog Admin</t>
+  </si>
+  <si>
+    <t>1. Click EditText
+2. Enter keywords to search</t>
+  </si>
+  <si>
+    <t>Search results corresponding to the keyword will appear</t>
+  </si>
+  <si>
+    <t>Accept icon</t>
+  </si>
+  <si>
+    <t>Click Accept icon</t>
+  </si>
+  <si>
+    <t>A message appears with 2 options YES/NO</t>
+  </si>
+  <si>
+    <t>1. Click Accept icon
+2. Click Yes button</t>
+  </si>
+  <si>
+    <t>The post will appear in the User Blog Section</t>
+  </si>
+  <si>
+    <t>1. Click Accept icon
+2. Click No button</t>
+  </si>
+  <si>
+    <t>Cancel the "Accept" operation. Close mesage</t>
+  </si>
+  <si>
+    <t>Delete icon</t>
+  </si>
+  <si>
+    <t>Click Delete icon</t>
+  </si>
+  <si>
+    <t>1. Click Delete icon
+2. Click Yes button</t>
+  </si>
+  <si>
+    <t>1. Click Delete icon
+2. Click No button</t>
+  </si>
+  <si>
+    <t>This post will be removed from the Pending Review list.</t>
+  </si>
+  <si>
+    <t>Cancel the "reject post" operation. Close message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2633,6 +2777,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2731,7 +2881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2814,6 +2964,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2826,22 +2985,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2853,32 +3024,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3329,10 +3520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E316" sqref="E316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3522,11 +3713,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
     </row>
@@ -3547,11 +3738,11 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
     </row>
@@ -3594,7 +3785,7 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3623,7 +3814,7 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3652,7 +3843,7 @@
       <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3681,7 +3872,7 @@
       <c r="A19" s="22">
         <v>4</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3710,7 +3901,7 @@
       <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3739,7 +3930,7 @@
       <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3766,10 +3957,10 @@
       <c r="A22" s="22">
         <v>7</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3795,8 +3986,8 @@
       <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3820,8 +4011,8 @@
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3847,8 +4038,8 @@
       <c r="A25" s="22">
         <v>10</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
@@ -3872,7 +4063,7 @@
       <c r="A26" s="22">
         <v>11</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3899,7 +4090,7 @@
       <c r="A27" s="22">
         <v>12</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
@@ -3926,7 +4117,7 @@
       <c r="A28" s="22">
         <v>13</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
@@ -3953,7 +4144,7 @@
       <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3980,7 +4171,7 @@
       <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -4009,7 +4200,7 @@
       <c r="A31" s="22">
         <v>16</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -4038,7 +4229,7 @@
       <c r="A32" s="22">
         <v>17</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
@@ -4067,7 +4258,7 @@
       <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
@@ -4088,17 +4279,17 @@
         <v>132</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
@@ -4125,7 +4316,7 @@
       <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
@@ -4152,7 +4343,7 @@
       <c r="A36" s="22">
         <v>21</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
@@ -4179,7 +4370,7 @@
       <c r="A37" s="22">
         <v>22</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4208,7 +4399,7 @@
       <c r="A38" s="22">
         <v>23</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -4237,7 +4428,7 @@
       <c r="A39" s="22">
         <v>24</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
@@ -4266,7 +4457,7 @@
       <c r="A40" s="22">
         <v>25</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4295,7 +4486,7 @@
       <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
@@ -4324,7 +4515,7 @@
       <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
@@ -4351,7 +4542,7 @@
       <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
@@ -4378,7 +4569,7 @@
       <c r="A44" s="22">
         <v>29</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4407,7 +4598,7 @@
       <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="4" t="s">
         <v>89</v>
       </c>
@@ -4434,7 +4625,7 @@
       <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="4" t="s">
         <v>71</v>
       </c>
@@ -4463,7 +4654,7 @@
       <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
@@ -4492,7 +4683,7 @@
       <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4521,7 +4712,7 @@
       <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B49" s="30"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
@@ -4550,7 +4741,7 @@
       <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="45" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4579,7 +4770,7 @@
       <c r="A51" s="22">
         <v>36</v>
       </c>
-      <c r="B51" s="39"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
@@ -4608,7 +4799,7 @@
       <c r="A52" s="22">
         <v>37</v>
       </c>
-      <c r="B52" s="40"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
@@ -4635,7 +4826,7 @@
       <c r="A53" s="22">
         <v>38</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="31" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4664,7 +4855,7 @@
       <c r="A54" s="22">
         <v>39</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
@@ -4693,7 +4884,7 @@
       <c r="A55" s="22">
         <v>40</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4722,7 +4913,7 @@
       <c r="A56" s="22">
         <v>41</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
@@ -4751,7 +4942,7 @@
       <c r="A57" s="22">
         <v>42</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="4" t="s">
         <v>74</v>
       </c>
@@ -4780,14 +4971,14 @@
       <c r="A58" s="22">
         <v>43</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="44" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>122</v>
@@ -4809,8 +5000,8 @@
       <c r="A59" s="22">
         <v>44</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="5" t="s">
         <v>123</v>
       </c>
@@ -4834,8 +5025,8 @@
       <c r="A60" s="22">
         <v>45</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="5" t="s">
         <v>125</v>
       </c>
@@ -4859,13 +5050,13 @@
       <c r="A61" s="22">
         <v>46</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="36"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="5" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="11" t="s">
@@ -4884,13 +5075,13 @@
       <c r="A62" s="22">
         <v>47</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="5" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="11" t="s">
@@ -4909,10 +5100,10 @@
       <c r="A63" s="22">
         <v>48</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="5" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>127</v>
@@ -4934,17 +5125,17 @@
       <c r="A64" s="22">
         <v>49</v>
       </c>
-      <c r="B64" s="28" t="s">
-        <v>599</v>
+      <c r="B64" s="31" t="s">
+        <v>589</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="11" t="s">
@@ -4963,9 +5154,9 @@
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="21" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>139</v>
@@ -4990,15 +5181,15 @@
       <c r="A66" s="22">
         <v>51</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="22" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="22" t="s">
@@ -5017,7 +5208,7 @@
       <c r="A67" s="22">
         <v>52</v>
       </c>
-      <c r="B67" s="30"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="24" t="s">
         <v>228</v>
       </c>
@@ -5025,7 +5216,7 @@
         <v>250</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="11" t="s">
@@ -5044,10 +5235,10 @@
       <c r="A68" s="22">
         <v>53</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="34" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -5073,8 +5264,8 @@
       <c r="A69" s="22">
         <v>54</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="37"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="5" t="s">
         <v>133</v>
       </c>
@@ -5100,8 +5291,8 @@
       <c r="A70" s="22">
         <v>55</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="36"/>
       <c r="D70" s="5" t="s">
         <v>136</v>
       </c>
@@ -5127,7 +5318,7 @@
       <c r="A71" s="22">
         <v>56</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="4" t="s">
         <v>138</v>
       </c>
@@ -5154,8 +5345,8 @@
       <c r="A72" s="22">
         <v>57</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="36" t="s">
+      <c r="B72" s="32"/>
+      <c r="C72" s="44" t="s">
         <v>141</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -5181,8 +5372,8 @@
       <c r="A73" s="22">
         <v>58</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="36"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="44"/>
       <c r="D73" s="5" t="s">
         <v>144</v>
       </c>
@@ -5206,8 +5397,8 @@
       <c r="A74" s="22">
         <v>59</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="36"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="5" t="s">
         <v>146</v>
       </c>
@@ -5231,7 +5422,7 @@
       <c r="A75" s="22">
         <v>60</v>
       </c>
-      <c r="B75" s="29"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="22" t="s">
         <v>228</v>
       </c>
@@ -5239,7 +5430,7 @@
         <v>250</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="11" t="s">
@@ -5258,7 +5449,7 @@
       <c r="A76" s="22">
         <v>61</v>
       </c>
-      <c r="B76" s="30"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5" t="s">
         <v>148</v>
@@ -5283,10 +5474,10 @@
       <c r="A77" s="22">
         <v>62</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="44" t="s">
         <v>151</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -5314,8 +5505,8 @@
       <c r="A78" s="22">
         <v>63</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="36"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="44"/>
       <c r="D78" s="5" t="s">
         <v>155</v>
       </c>
@@ -5339,8 +5530,8 @@
       <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="36" t="s">
+      <c r="B79" s="32"/>
+      <c r="C79" s="44" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -5366,8 +5557,8 @@
       <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="36"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="5" t="s">
         <v>160</v>
       </c>
@@ -5391,8 +5582,8 @@
       <c r="A81" s="22">
         <v>66</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="36"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="5" t="s">
         <v>162</v>
       </c>
@@ -5416,8 +5607,8 @@
       <c r="A82" s="22">
         <v>67</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="36"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="5" t="s">
         <v>164</v>
       </c>
@@ -5441,15 +5632,15 @@
       <c r="A83" s="22">
         <v>68</v>
       </c>
-      <c r="B83" s="29"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="22" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="22" t="s">
@@ -5468,7 +5659,7 @@
       <c r="A84" s="22">
         <v>69</v>
       </c>
-      <c r="B84" s="29"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="4" t="s">
         <v>138</v>
       </c>
@@ -5495,7 +5686,7 @@
       <c r="A85" s="22">
         <v>70</v>
       </c>
-      <c r="B85" s="29"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="22" t="s">
         <v>228</v>
       </c>
@@ -5503,7 +5694,7 @@
         <v>250</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="11" t="s">
@@ -5522,7 +5713,7 @@
       <c r="A86" s="22">
         <v>71</v>
       </c>
-      <c r="B86" s="30"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5" t="s">
         <v>148</v>
@@ -5547,10 +5738,10 @@
       <c r="A87" s="22">
         <v>72</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="44" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5576,8 +5767,8 @@
       <c r="A88" s="22">
         <v>73</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="36"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="5" t="s">
         <v>155</v>
       </c>
@@ -5601,8 +5792,8 @@
       <c r="A89" s="22">
         <v>74</v>
       </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="36" t="s">
+      <c r="B89" s="43"/>
+      <c r="C89" s="44" t="s">
         <v>157</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5628,8 +5819,8 @@
       <c r="A90" s="22">
         <v>75</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="36"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="5" t="s">
         <v>160</v>
       </c>
@@ -5653,8 +5844,8 @@
       <c r="A91" s="22">
         <v>76</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="44"/>
       <c r="D91" s="5" t="s">
         <v>162</v>
       </c>
@@ -5678,8 +5869,8 @@
       <c r="A92" s="22">
         <v>77</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="36"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="5" t="s">
         <v>164</v>
       </c>
@@ -5703,15 +5894,15 @@
       <c r="A93" s="22">
         <v>78</v>
       </c>
-      <c r="B93" s="35"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="22" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="22" t="s">
@@ -5730,7 +5921,7 @@
       <c r="A94" s="22">
         <v>79</v>
       </c>
-      <c r="B94" s="35"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="4" t="s">
         <v>138</v>
       </c>
@@ -5757,7 +5948,7 @@
       <c r="A95" s="22">
         <v>80</v>
       </c>
-      <c r="B95" s="35"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="22" t="s">
         <v>228</v>
       </c>
@@ -5765,7 +5956,7 @@
         <v>250</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="11" t="s">
@@ -5784,7 +5975,7 @@
       <c r="A96" s="22">
         <v>81</v>
       </c>
-      <c r="B96" s="35"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5" t="s">
         <v>148</v>
@@ -5809,7 +6000,7 @@
       <c r="A97" s="22">
         <v>82</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="43" t="s">
         <v>168</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5838,7 +6029,7 @@
       <c r="A98" s="22">
         <v>83</v>
       </c>
-      <c r="B98" s="35"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="22" t="s">
         <v>228</v>
       </c>
@@ -5846,7 +6037,7 @@
         <v>250</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="22" t="s">
@@ -5865,7 +6056,7 @@
       <c r="A99" s="22">
         <v>84</v>
       </c>
-      <c r="B99" s="35"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5" t="s">
         <v>148</v>
@@ -5890,7 +6081,7 @@
       <c r="A100" s="22">
         <v>85</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="43" t="s">
         <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -5919,7 +6110,7 @@
       <c r="A101" s="22">
         <v>86</v>
       </c>
-      <c r="B101" s="35"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="4" t="s">
         <v>173</v>
       </c>
@@ -5946,15 +6137,15 @@
       <c r="A102" s="22">
         <v>87</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="36" t="s">
+      <c r="B102" s="43"/>
+      <c r="C102" s="44" t="s">
         <v>176</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="4" t="s">
@@ -5967,7 +6158,7 @@
         <v>22</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="K102" s="7"/>
     </row>
@@ -5975,13 +6166,13 @@
       <c r="A103" s="22">
         <v>88</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="36"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
       <c r="D103" s="5" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="4" t="s">
@@ -5994,7 +6185,7 @@
         <v>22</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="K103" s="7"/>
     </row>
@@ -6002,13 +6193,13 @@
       <c r="A104" s="22">
         <v>89</v>
       </c>
-      <c r="B104" s="35"/>
-      <c r="C104" s="36"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="5" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="4" t="s">
@@ -6021,7 +6212,7 @@
         <v>22</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="K104" s="7"/>
     </row>
@@ -6029,13 +6220,13 @@
       <c r="A105" s="22">
         <v>90</v>
       </c>
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="5" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="4" t="s">
@@ -6048,7 +6239,7 @@
         <v>22</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="K105" s="7"/>
     </row>
@@ -6056,7 +6247,7 @@
       <c r="A106" s="22">
         <v>91</v>
       </c>
-      <c r="B106" s="35"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="4" t="s">
         <v>228</v>
       </c>
@@ -6064,7 +6255,7 @@
         <v>250</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="22" t="s">
@@ -6083,7 +6274,7 @@
       <c r="A107" s="22">
         <v>92</v>
       </c>
-      <c r="B107" s="35"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5" t="s">
         <v>148</v>
@@ -6108,10 +6299,10 @@
       <c r="A108" s="22">
         <v>93</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -6137,8 +6328,8 @@
       <c r="A109" s="22">
         <v>94</v>
       </c>
-      <c r="B109" s="35"/>
-      <c r="C109" s="37"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="35"/>
       <c r="D109" s="5" t="s">
         <v>181</v>
       </c>
@@ -6162,10 +6353,10 @@
       <c r="A110" s="22">
         <v>95</v>
       </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="37"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="35"/>
       <c r="D110" s="5" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>183</v>
@@ -6187,10 +6378,10 @@
       <c r="A111" s="22">
         <v>96</v>
       </c>
-      <c r="B111" s="35"/>
-      <c r="C111" s="32"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="36"/>
       <c r="D111" s="5" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>184</v>
@@ -6212,7 +6403,7 @@
       <c r="A112" s="22">
         <v>97</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="43" t="s">
         <v>185</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -6241,8 +6432,8 @@
       <c r="A113" s="22">
         <v>98</v>
       </c>
-      <c r="B113" s="35"/>
-      <c r="C113" s="36" t="s">
+      <c r="B113" s="43"/>
+      <c r="C113" s="44" t="s">
         <v>189</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -6268,8 +6459,8 @@
       <c r="A114" s="22">
         <v>99</v>
       </c>
-      <c r="B114" s="35"/>
-      <c r="C114" s="36"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="44"/>
       <c r="D114" s="5" t="s">
         <v>192</v>
       </c>
@@ -6293,8 +6484,8 @@
       <c r="A115" s="22">
         <v>100</v>
       </c>
-      <c r="B115" s="35"/>
-      <c r="C115" s="36"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="44"/>
       <c r="D115" s="5" t="s">
         <v>194</v>
       </c>
@@ -6318,8 +6509,8 @@
       <c r="A116" s="22">
         <v>101</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="36"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="44"/>
       <c r="D116" s="5" t="s">
         <v>196</v>
       </c>
@@ -6343,8 +6534,8 @@
       <c r="A117" s="22">
         <v>102</v>
       </c>
-      <c r="B117" s="35"/>
-      <c r="C117" s="36" t="s">
+      <c r="B117" s="43"/>
+      <c r="C117" s="44" t="s">
         <v>197</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -6370,8 +6561,8 @@
       <c r="A118" s="22">
         <v>103</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="36"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
       <c r="D118" s="5" t="s">
         <v>200</v>
       </c>
@@ -6395,8 +6586,8 @@
       <c r="A119" s="22">
         <v>104</v>
       </c>
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="44"/>
       <c r="D119" s="5" t="s">
         <v>202</v>
       </c>
@@ -6420,8 +6611,8 @@
       <c r="A120" s="22">
         <v>105</v>
       </c>
-      <c r="B120" s="35"/>
-      <c r="C120" s="36"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="44"/>
       <c r="D120" s="5" t="s">
         <v>203</v>
       </c>
@@ -6445,8 +6636,8 @@
       <c r="A121" s="22">
         <v>106</v>
       </c>
-      <c r="B121" s="35"/>
-      <c r="C121" s="36" t="s">
+      <c r="B121" s="43"/>
+      <c r="C121" s="44" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -6472,8 +6663,8 @@
       <c r="A122" s="22">
         <v>107</v>
       </c>
-      <c r="B122" s="35"/>
-      <c r="C122" s="36"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="44"/>
       <c r="D122" s="5" t="s">
         <v>207</v>
       </c>
@@ -6497,8 +6688,8 @@
       <c r="A123" s="22">
         <v>108</v>
       </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="44"/>
       <c r="D123" s="5" t="s">
         <v>208</v>
       </c>
@@ -6522,8 +6713,8 @@
       <c r="A124" s="22">
         <v>109</v>
       </c>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36" t="s">
+      <c r="B124" s="43"/>
+      <c r="C124" s="44" t="s">
         <v>210</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -6549,8 +6740,8 @@
       <c r="A125" s="22">
         <v>110</v>
       </c>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="44"/>
       <c r="D125" s="5" t="s">
         <v>213</v>
       </c>
@@ -6574,8 +6765,8 @@
       <c r="A126" s="22">
         <v>111</v>
       </c>
-      <c r="B126" s="35"/>
-      <c r="C126" s="36" t="s">
+      <c r="B126" s="43"/>
+      <c r="C126" s="44" t="s">
         <v>215</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -6601,8 +6792,8 @@
       <c r="A127" s="22">
         <v>112</v>
       </c>
-      <c r="B127" s="35"/>
-      <c r="C127" s="36"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="44"/>
       <c r="D127" s="5" t="s">
         <v>218</v>
       </c>
@@ -6626,8 +6817,8 @@
       <c r="A128" s="22">
         <v>113</v>
       </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="36"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="44"/>
       <c r="D128" s="5" t="s">
         <v>220</v>
       </c>
@@ -6651,7 +6842,7 @@
       <c r="A129" s="22">
         <v>114</v>
       </c>
-      <c r="B129" s="35"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
         <v>148</v>
@@ -6676,10 +6867,10 @@
       <c r="A130" s="22">
         <v>115</v>
       </c>
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C130" s="36" t="s">
+      <c r="C130" s="44" t="s">
         <v>224</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -6705,8 +6896,8 @@
       <c r="A131" s="22">
         <v>116</v>
       </c>
-      <c r="B131" s="35"/>
-      <c r="C131" s="36"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="44"/>
       <c r="D131" s="5" t="s">
         <v>231</v>
       </c>
@@ -6730,8 +6921,8 @@
       <c r="A132" s="22">
         <v>117</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="44"/>
       <c r="D132" s="5" t="s">
         <v>232</v>
       </c>
@@ -6755,8 +6946,8 @@
       <c r="A133" s="22">
         <v>118</v>
       </c>
-      <c r="B133" s="35"/>
-      <c r="C133" s="31" t="s">
+      <c r="B133" s="43"/>
+      <c r="C133" s="34" t="s">
         <v>225</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -6782,8 +6973,8 @@
       <c r="A134" s="22">
         <v>119</v>
       </c>
-      <c r="B134" s="35"/>
-      <c r="C134" s="32"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="36"/>
       <c r="D134" s="5" t="s">
         <v>230</v>
       </c>
@@ -6807,8 +6998,8 @@
       <c r="A135" s="22">
         <v>120</v>
       </c>
-      <c r="B135" s="35"/>
-      <c r="C135" s="31" t="s">
+      <c r="B135" s="43"/>
+      <c r="C135" s="34" t="s">
         <v>226</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6834,8 +7025,8 @@
       <c r="A136" s="22">
         <v>121</v>
       </c>
-      <c r="B136" s="35"/>
-      <c r="C136" s="37"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="35"/>
       <c r="D136" s="5" t="s">
         <v>238</v>
       </c>
@@ -6859,8 +7050,8 @@
       <c r="A137" s="22">
         <v>122</v>
       </c>
-      <c r="B137" s="35"/>
-      <c r="C137" s="32"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="36"/>
       <c r="D137" s="5" t="s">
         <v>240</v>
       </c>
@@ -6884,8 +7075,8 @@
       <c r="A138" s="22">
         <v>123</v>
       </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="31" t="s">
+      <c r="B138" s="43"/>
+      <c r="C138" s="34" t="s">
         <v>227</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -6911,8 +7102,8 @@
       <c r="A139" s="22">
         <v>124</v>
       </c>
-      <c r="B139" s="35"/>
-      <c r="C139" s="37"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="35"/>
       <c r="D139" s="5" t="s">
         <v>244</v>
       </c>
@@ -6936,8 +7127,8 @@
       <c r="A140" s="22">
         <v>125</v>
       </c>
-      <c r="B140" s="35"/>
-      <c r="C140" s="37"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="35"/>
       <c r="D140" s="5" t="s">
         <v>246</v>
       </c>
@@ -6961,8 +7152,8 @@
       <c r="A141" s="22">
         <v>126</v>
       </c>
-      <c r="B141" s="35"/>
-      <c r="C141" s="37"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="35"/>
       <c r="D141" s="5" t="s">
         <v>245</v>
       </c>
@@ -6986,8 +7177,8 @@
       <c r="A142" s="22">
         <v>127</v>
       </c>
-      <c r="B142" s="35"/>
-      <c r="C142" s="37"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="35"/>
       <c r="D142" s="5" t="s">
         <v>247</v>
       </c>
@@ -7011,8 +7202,8 @@
       <c r="A143" s="22">
         <v>128</v>
       </c>
-      <c r="B143" s="35"/>
-      <c r="C143" s="32"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="36"/>
       <c r="D143" s="5" t="s">
         <v>249</v>
       </c>
@@ -7036,7 +7227,7 @@
       <c r="A144" s="22">
         <v>129</v>
       </c>
-      <c r="B144" s="35"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="7" t="s">
         <v>228</v>
       </c>
@@ -7063,7 +7254,7 @@
       <c r="A145" s="22">
         <v>130</v>
       </c>
-      <c r="B145" s="35"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="7"/>
       <c r="D145" s="5" t="s">
         <v>148</v>
@@ -7088,10 +7279,10 @@
       <c r="A146" s="22">
         <v>131</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="C146" s="36" t="s">
+      <c r="C146" s="44" t="s">
         <v>252</v>
       </c>
       <c r="D146" s="5" t="s">
@@ -7117,8 +7308,8 @@
       <c r="A147" s="22">
         <v>132</v>
       </c>
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="44"/>
       <c r="D147" s="5" t="s">
         <v>255</v>
       </c>
@@ -7142,7 +7333,7 @@
       <c r="A148" s="22">
         <v>133</v>
       </c>
-      <c r="B148" s="35"/>
+      <c r="B148" s="43"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5" t="s">
         <v>148</v>
@@ -7167,10 +7358,10 @@
       <c r="A149" s="22">
         <v>134</v>
       </c>
-      <c r="B149" s="28" t="s">
+      <c r="B149" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="31" t="s">
+      <c r="C149" s="34" t="s">
         <v>258</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -7196,8 +7387,8 @@
       <c r="A150" s="22">
         <v>135</v>
       </c>
-      <c r="B150" s="29"/>
-      <c r="C150" s="37"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="35"/>
       <c r="D150" s="5" t="s">
         <v>261</v>
       </c>
@@ -7221,8 +7412,8 @@
       <c r="A151" s="22">
         <v>136</v>
       </c>
-      <c r="B151" s="29"/>
-      <c r="C151" s="37"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="35"/>
       <c r="D151" s="5" t="s">
         <v>263</v>
       </c>
@@ -7246,8 +7437,8 @@
       <c r="A152" s="22">
         <v>137</v>
       </c>
-      <c r="B152" s="29"/>
-      <c r="C152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="36"/>
       <c r="D152" s="5" t="s">
         <v>265</v>
       </c>
@@ -7271,8 +7462,8 @@
       <c r="A153" s="22">
         <v>138</v>
       </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="31" t="s">
+      <c r="B153" s="32"/>
+      <c r="C153" s="34" t="s">
         <v>252</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -7298,8 +7489,8 @@
       <c r="A154" s="22">
         <v>139</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="36"/>
       <c r="D154" s="5" t="s">
         <v>269</v>
       </c>
@@ -7323,7 +7514,7 @@
       <c r="A155" s="22">
         <v>140</v>
       </c>
-      <c r="B155" s="30"/>
+      <c r="B155" s="33"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5" t="s">
         <v>148</v>
@@ -7344,132 +7535,128 @@
       <c r="J155" s="6"/>
       <c r="K155" s="7"/>
     </row>
-    <row r="156" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="22">
+    <row r="156" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="27">
         <v>141</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="B156" s="31" t="s">
         <v>271</v>
       </c>
       <c r="C156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="E156" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E156" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F156" s="5"/>
-      <c r="G156" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H156" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I156" s="27" t="s">
+      <c r="F156" s="6"/>
+      <c r="G156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" s="25" t="s">
         <v>22</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="22">
+      <c r="A157" s="27">
         <v>142</v>
       </c>
-      <c r="B157" s="29"/>
-      <c r="C157" s="4" t="s">
+      <c r="B157" s="32"/>
+      <c r="C157" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="E157" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E157" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="F157" s="6"/>
-      <c r="G157" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>177</v>
+      <c r="G157" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H157" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I157" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="7"/>
     </row>
-    <row r="158" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="22">
+    <row r="158" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="27">
         <v>143</v>
       </c>
-      <c r="B158" s="29"/>
-      <c r="C158" s="4" t="s">
+      <c r="B158" s="32"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E158" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D158" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="F158" s="6"/>
-      <c r="G158" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>177</v>
+      <c r="G158" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I158" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="22">
+      <c r="A159" s="27">
         <v>144</v>
       </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="4"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="34" t="s">
+        <v>279</v>
+      </c>
       <c r="D159" s="5" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="F159" s="6"/>
-      <c r="G159" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>177</v>
+      <c r="G159" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J159" s="6"/>
       <c r="K159" s="7"/>
     </row>
-    <row r="160" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="22">
+    <row r="160" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="27">
         <v>145</v>
       </c>
-      <c r="B160" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B160" s="32"/>
+      <c r="C160" s="36"/>
       <c r="D160" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E160" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E160" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="F160" s="6"/>
-      <c r="G160" s="4" t="s">
+      <c r="G160" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H160" s="25" t="s">
@@ -7481,19 +7668,19 @@
       <c r="J160" s="6"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="22">
+    <row r="161" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="27">
         <v>146</v>
       </c>
-      <c r="B161" s="29"/>
-      <c r="C161" s="31" t="s">
+      <c r="B161" s="32"/>
+      <c r="C161" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="E161" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="25" t="s">
@@ -7509,11 +7696,13 @@
       <c r="K161" s="7"/>
     </row>
     <row r="162" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="22">
+      <c r="A162" s="27">
         <v>147</v>
       </c>
-      <c r="B162" s="29"/>
-      <c r="C162" s="32"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="34" t="s">
+        <v>286</v>
+      </c>
       <c r="D162" s="5" t="s">
         <v>287</v>
       </c>
@@ -7533,19 +7722,17 @@
       <c r="J162" s="6"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="22">
+    <row r="163" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="27">
         <v>148</v>
       </c>
-      <c r="B163" s="29"/>
-      <c r="C163" s="31" t="s">
+      <c r="B163" s="32"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="E163" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="25" t="s">
@@ -7560,17 +7747,19 @@
       <c r="J163" s="6"/>
       <c r="K163" s="7"/>
     </row>
-    <row r="164" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="22">
+    <row r="164" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="27">
         <v>149</v>
       </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="32"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="34" t="s">
+        <v>291</v>
+      </c>
       <c r="D164" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="25" t="s">
@@ -7586,13 +7775,11 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="22">
+      <c r="A165" s="27">
         <v>150</v>
       </c>
-      <c r="B165" s="29"/>
-      <c r="C165" s="4" t="s">
-        <v>293</v>
-      </c>
+      <c r="B165" s="32"/>
+      <c r="C165" s="36"/>
       <c r="D165" s="5" t="s">
         <v>294</v>
       </c>
@@ -7613,11 +7800,11 @@
       <c r="K165" s="7"/>
     </row>
     <row r="166" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="22">
+      <c r="A166" s="27">
         <v>151</v>
       </c>
-      <c r="B166" s="29"/>
-      <c r="C166" s="31" t="s">
+      <c r="B166" s="32"/>
+      <c r="C166" s="34" t="s">
         <v>296</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -7639,12 +7826,12 @@
       <c r="J166" s="6"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="22">
+    <row r="167" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="27">
         <v>152</v>
       </c>
-      <c r="B167" s="29"/>
-      <c r="C167" s="32"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="35"/>
       <c r="D167" s="5" t="s">
         <v>299</v>
       </c>
@@ -7665,18 +7852,16 @@
       <c r="K167" s="7"/>
     </row>
     <row r="168" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="22">
+      <c r="A168" s="27">
         <v>153</v>
       </c>
-      <c r="B168" s="29"/>
-      <c r="C168" s="31" t="s">
+      <c r="B168" s="32"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="E168" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="25" t="s">
@@ -7691,12 +7876,14 @@
       <c r="J168" s="6"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="22">
+    <row r="169" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="27">
         <v>154</v>
       </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="32"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="34" t="s">
+        <v>303</v>
+      </c>
       <c r="D169" s="5" t="s">
         <v>304</v>
       </c>
@@ -7716,19 +7903,17 @@
       <c r="J169" s="6"/>
       <c r="K169" s="7"/>
     </row>
-    <row r="170" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="22">
+    <row r="170" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="27">
         <v>155</v>
       </c>
-      <c r="B170" s="29"/>
-      <c r="C170" s="31" t="s">
+      <c r="B170" s="32"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="25" t="s">
@@ -7743,17 +7928,21 @@
       <c r="J170" s="6"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A171" s="22">
+    <row r="171" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="27">
         <v>156</v>
       </c>
-      <c r="B171" s="29"/>
-      <c r="C171" s="37"/>
+      <c r="B171" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D171" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="25" t="s">
@@ -7769,16 +7958,18 @@
       <c r="K171" s="7"/>
     </row>
     <row r="172" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="22">
+      <c r="A172" s="27">
         <v>157</v>
       </c>
-      <c r="B172" s="29"/>
-      <c r="C172" s="32"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="D172" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E172" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="25" t="s">
@@ -7794,18 +7985,18 @@
       <c r="K172" s="7"/>
     </row>
     <row r="173" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="22">
+      <c r="A173" s="27">
         <v>158</v>
       </c>
-      <c r="B173" s="29"/>
-      <c r="C173" s="31" t="s">
+      <c r="B173" s="32"/>
+      <c r="C173" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="25" t="s">
@@ -7820,17 +8011,17 @@
       <c r="J173" s="6"/>
       <c r="K173" s="7"/>
     </row>
-    <row r="174" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="22">
+    <row r="174" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A174" s="27">
         <v>159</v>
       </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="32"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="36"/>
       <c r="D174" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="25" t="s">
@@ -7845,123 +8036,119 @@
       <c r="J174" s="6"/>
       <c r="K174" s="7"/>
     </row>
-    <row r="175" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="22">
+    <row r="175" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="27">
         <v>160</v>
       </c>
-      <c r="B175" s="29" t="s">
+      <c r="B175" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="5" t="s">
+      <c r="E175" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E175" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="F175" s="6"/>
-      <c r="G175" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I175" s="25" t="s">
+      <c r="G175" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I175" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J175" s="6"/>
       <c r="K175" s="7"/>
     </row>
-    <row r="176" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A176" s="22">
+    <row r="176" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="27">
         <v>161</v>
       </c>
-      <c r="B176" s="29"/>
-      <c r="C176" s="4" t="s">
+      <c r="B176" s="43"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="E176" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E176" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="F176" s="6"/>
-      <c r="G176" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H176" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I176" s="25" t="s">
+      <c r="G176" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J176" s="6"/>
       <c r="K176" s="7"/>
     </row>
-    <row r="177" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="22">
+    <row r="177" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A177" s="27">
         <v>162</v>
       </c>
-      <c r="B177" s="29"/>
-      <c r="C177" s="31" t="s">
+      <c r="B177" s="43"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E177" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="F177" s="6"/>
-      <c r="G177" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H177" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I177" s="25" t="s">
+      <c r="G177" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I177" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J177" s="6"/>
       <c r="K177" s="7"/>
     </row>
-    <row r="178" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A178" s="22">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="27">
         <v>163</v>
       </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="32"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="36"/>
       <c r="D178" s="5" t="s">
         <v>323</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F178" s="6"/>
-      <c r="G178" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H178" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I178" s="25" t="s">
+      <c r="G178" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H178" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J178" s="6"/>
       <c r="K178" s="7"/>
     </row>
-    <row r="179" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="22">
+    <row r="179" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="27">
         <v>164</v>
       </c>
-      <c r="B179" s="35" t="s">
+      <c r="B179" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="C179" s="31" t="s">
-        <v>19</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>327</v>
@@ -7973,105 +8160,111 @@
       <c r="G179" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H179" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I179" s="23" t="s">
+      <c r="H179" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I179" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J179" s="6"/>
       <c r="K179" s="7"/>
     </row>
-    <row r="180" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="22">
+    <row r="180" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A180" s="27">
         <v>165</v>
       </c>
-      <c r="B180" s="35"/>
-      <c r="C180" s="37"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="D180" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F180" s="6"/>
-      <c r="G180" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H180" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I180" s="23" t="s">
+      <c r="G180" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I180" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J180" s="6"/>
       <c r="K180" s="7"/>
     </row>
-    <row r="181" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A181" s="22">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="27">
         <v>166</v>
       </c>
-      <c r="B181" s="35"/>
-      <c r="C181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D181" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E181" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="F181" s="6"/>
-      <c r="G181" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H181" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I181" s="23" t="s">
+      <c r="G181" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I181" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J181" s="6"/>
       <c r="K181" s="7"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="22">
+    <row r="182" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="27">
         <v>167</v>
       </c>
-      <c r="B182" s="35"/>
-      <c r="C182" s="32"/>
+      <c r="B182" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D182" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F182" s="6"/>
-      <c r="G182" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H182" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I182" s="23" t="s">
+      <c r="G182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I182" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="7"/>
     </row>
-    <row r="183" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="22">
+    <row r="183" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="27">
         <v>168</v>
       </c>
-      <c r="B183" s="28" t="s">
-        <v>335</v>
-      </c>
+      <c r="B183" s="43"/>
       <c r="C183" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="4" t="s">
@@ -8086,19 +8279,19 @@
       <c r="J183" s="6"/>
       <c r="K183" s="7"/>
     </row>
-    <row r="184" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A184" s="22">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="27">
         <v>169</v>
       </c>
-      <c r="B184" s="29"/>
+      <c r="B184" s="43"/>
       <c r="C184" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="E184" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="4" t="s">
@@ -8113,19 +8306,19 @@
       <c r="J184" s="6"/>
       <c r="K184" s="7"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="22">
+    <row r="185" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A185" s="27">
         <v>170</v>
       </c>
-      <c r="B185" s="30"/>
+      <c r="B185" s="43"/>
       <c r="C185" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>344</v>
+        <v>170</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>346</v>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="4" t="s">
@@ -8141,17 +8334,15 @@
       <c r="K185" s="7"/>
     </row>
     <row r="186" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="22">
+      <c r="A186" s="27">
         <v>171</v>
       </c>
-      <c r="B186" s="35" t="s">
-        <v>345</v>
-      </c>
+      <c r="B186" s="43"/>
       <c r="C186" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>347</v>
+        <v>170</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>348</v>
@@ -8170,128 +8361,122 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="22">
+      <c r="A187" s="27">
         <v>172</v>
       </c>
-      <c r="B187" s="35"/>
+      <c r="B187" s="43" t="s">
+        <v>349</v>
+      </c>
       <c r="C187" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="7"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="22">
+    <row r="188" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A188" s="27">
         <v>173</v>
       </c>
-      <c r="B188" s="35"/>
-      <c r="C188" s="4" t="s">
-        <v>352</v>
-      </c>
+      <c r="B188" s="43"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E188" s="15" t="s">
+      <c r="E188" s="5" t="s">
         <v>354</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="7"/>
     </row>
-    <row r="189" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A189" s="22">
+    <row r="189" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="27">
         <v>174</v>
       </c>
-      <c r="B189" s="35"/>
-      <c r="C189" s="4" t="s">
+      <c r="B189" s="43"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D189" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E189" s="15" t="s">
+      <c r="E189" s="5" t="s">
         <v>356</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="J189" s="6"/>
       <c r="K189" s="7"/>
     </row>
-    <row r="190" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="22">
+    <row r="190" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="27">
         <v>175</v>
       </c>
-      <c r="B190" s="35"/>
-      <c r="C190" s="4" t="s">
+      <c r="B190" s="43"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>358</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="J190" s="6"/>
       <c r="K190" s="7"/>
     </row>
-    <row r="191" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="22">
+    <row r="191" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="27">
         <v>176</v>
       </c>
-      <c r="B191" s="35" t="s">
+      <c r="B191" s="43"/>
+      <c r="C191" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="D191" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="E191" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="4" t="s">
@@ -8306,12 +8491,14 @@
       <c r="J191" s="6"/>
       <c r="K191" s="7"/>
     </row>
-    <row r="192" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A192" s="22">
+    <row r="192" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="27">
         <v>177</v>
       </c>
-      <c r="B192" s="35"/>
-      <c r="C192" s="4"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="D192" s="5" t="s">
         <v>363</v>
       </c>
@@ -8331,11 +8518,11 @@
       <c r="J192" s="6"/>
       <c r="K192" s="7"/>
     </row>
-    <row r="193" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A193" s="22">
+    <row r="193" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A193" s="27">
         <v>178</v>
       </c>
-      <c r="B193" s="35"/>
+      <c r="B193" s="43"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5" t="s">
         <v>365</v>
@@ -8357,10 +8544,10 @@
       <c r="K193" s="7"/>
     </row>
     <row r="194" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A194" s="22">
+      <c r="A194" s="27">
         <v>179</v>
       </c>
-      <c r="B194" s="35"/>
+      <c r="B194" s="43"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5" t="s">
         <v>367</v>
@@ -8381,19 +8568,19 @@
       <c r="J194" s="6"/>
       <c r="K194" s="7"/>
     </row>
-    <row r="195" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="22">
+    <row r="195" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="27">
         <v>180</v>
       </c>
-      <c r="B195" s="35"/>
+      <c r="B195" s="43"/>
       <c r="C195" s="4" t="s">
         <v>369</v>
       </c>
       <c r="D195" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E195" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="4" t="s">
@@ -8408,19 +8595,19 @@
       <c r="J195" s="6"/>
       <c r="K195" s="7"/>
     </row>
-    <row r="196" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="22">
+    <row r="196" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A196" s="27">
         <v>181</v>
       </c>
-      <c r="B196" s="35"/>
+      <c r="B196" s="43"/>
       <c r="C196" s="4" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="4" t="s">
@@ -8435,17 +8622,19 @@
       <c r="J196" s="6"/>
       <c r="K196" s="7"/>
     </row>
-    <row r="197" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A197" s="22">
+    <row r="197" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A197" s="27">
         <v>182</v>
       </c>
-      <c r="B197" s="35"/>
-      <c r="C197" s="4"/>
+      <c r="B197" s="43"/>
+      <c r="C197" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="D197" s="5" t="s">
-        <v>375</v>
+        <v>170</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="4" t="s">
@@ -8460,127 +8649,127 @@
       <c r="J197" s="6"/>
       <c r="K197" s="7"/>
     </row>
-    <row r="198" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A198" s="22">
+    <row r="198" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A198" s="27">
         <v>183</v>
       </c>
-      <c r="B198" s="35"/>
-      <c r="C198" s="4"/>
+      <c r="B198" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="D198" s="5" t="s">
-        <v>377</v>
+        <v>170</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="J198" s="6"/>
       <c r="K198" s="7"/>
     </row>
-    <row r="199" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="22">
+    <row r="199" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="27">
         <v>184</v>
       </c>
-      <c r="B199" s="35"/>
-      <c r="C199" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="B199" s="43"/>
+      <c r="C199" s="4"/>
       <c r="D199" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>380</v>
+        <v>343</v>
+      </c>
+      <c r="E199" s="15" t="s">
+        <v>376</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="J199" s="6"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A200" s="22">
+      <c r="A200" s="27">
         <v>185</v>
       </c>
-      <c r="B200" s="35"/>
+      <c r="B200" s="43"/>
       <c r="C200" s="4" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="J200" s="6"/>
       <c r="K200" s="7"/>
     </row>
-    <row r="201" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A201" s="22">
+    <row r="201" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="27">
         <v>186</v>
       </c>
-      <c r="B201" s="35"/>
+      <c r="B201" s="43"/>
       <c r="C201" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
+      </c>
+      <c r="E201" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="J201" s="6"/>
       <c r="K201" s="7"/>
     </row>
-    <row r="202" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A202" s="22">
+    <row r="202" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="27">
         <v>187</v>
       </c>
-      <c r="B202" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>379</v>
+      <c r="B202" s="43"/>
+      <c r="C202" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>170</v>
+        <v>382</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="4" t="s">
@@ -8595,16 +8784,20 @@
       <c r="J202" s="6"/>
       <c r="K202" s="7"/>
     </row>
-    <row r="203" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="22">
+    <row r="203" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="27">
         <v>188</v>
       </c>
-      <c r="B203" s="35"/>
-      <c r="C203" s="4"/>
+      <c r="B203" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D203" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E203" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="E203" s="5" t="s">
         <v>386</v>
       </c>
       <c r="F203" s="6"/>
@@ -8620,68 +8813,64 @@
       <c r="J203" s="6"/>
       <c r="K203" s="7"/>
     </row>
-    <row r="204" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A204" s="22">
+    <row r="204" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="27">
         <v>189</v>
       </c>
-      <c r="B204" s="35"/>
-      <c r="C204" s="4" t="s">
-        <v>382</v>
+      <c r="B204" s="32"/>
+      <c r="C204" s="34" t="s">
+        <v>387</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>170</v>
+        <v>388</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F204" s="6"/>
-      <c r="G204" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I204" s="4" t="s">
+      <c r="G204" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H204" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I204" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J204" s="6"/>
       <c r="K204" s="7"/>
     </row>
-    <row r="205" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="22">
+    <row r="205" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="27">
         <v>190</v>
       </c>
-      <c r="B205" s="35"/>
-      <c r="C205" s="4" t="s">
-        <v>388</v>
-      </c>
+      <c r="B205" s="32"/>
+      <c r="C205" s="35"/>
       <c r="D205" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E205" s="15" t="s">
         <v>390</v>
       </c>
+      <c r="E205" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="F205" s="6"/>
-      <c r="G205" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I205" s="4" t="s">
+      <c r="G205" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H205" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I205" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J205" s="6"/>
       <c r="K205" s="7"/>
     </row>
-    <row r="206" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="22">
+    <row r="206" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="27">
         <v>191</v>
       </c>
-      <c r="B206" s="35"/>
-      <c r="C206" s="16" t="s">
-        <v>391</v>
-      </c>
+      <c r="B206" s="32"/>
+      <c r="C206" s="36"/>
       <c r="D206" s="5" t="s">
         <v>392</v>
       </c>
@@ -8689,27 +8878,25 @@
         <v>393</v>
       </c>
       <c r="F206" s="6"/>
-      <c r="G206" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H206" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I206" s="4" t="s">
+      <c r="G206" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H206" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J206" s="6"/>
       <c r="K206" s="7"/>
     </row>
-    <row r="207" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="22">
+    <row r="207" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="27">
         <v>192</v>
       </c>
-      <c r="B207" s="28" t="s">
+      <c r="B207" s="32"/>
+      <c r="C207" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>395</v>
@@ -8718,24 +8905,24 @@
         <v>396</v>
       </c>
       <c r="F207" s="6"/>
-      <c r="G207" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I207" s="4" t="s">
+      <c r="G207" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H207" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I207" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J207" s="6"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="22">
+      <c r="A208" s="27">
         <v>193</v>
       </c>
-      <c r="B208" s="29"/>
-      <c r="C208" s="31" t="s">
+      <c r="B208" s="32"/>
+      <c r="C208" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D208" s="5" t="s">
@@ -8744,7 +8931,7 @@
       <c r="E208" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="F208" s="6"/>
+      <c r="F208" s="7"/>
       <c r="G208" s="22" t="s">
         <v>22</v>
       </c>
@@ -8754,22 +8941,24 @@
       <c r="I208" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J208" s="6"/>
+      <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
-    <row r="209" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A209" s="22">
+    <row r="209" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A209" s="27">
         <v>194</v>
       </c>
-      <c r="B209" s="29"/>
-      <c r="C209" s="37"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="D209" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E209" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F209" s="6"/>
+      <c r="E209" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F209" s="7"/>
       <c r="G209" s="22" t="s">
         <v>22</v>
       </c>
@@ -8779,22 +8968,22 @@
       <c r="I209" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J209" s="6"/>
+      <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
-    <row r="210" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A210" s="22">
+    <row r="210" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A210" s="27">
         <v>195</v>
       </c>
-      <c r="B210" s="29"/>
-      <c r="C210" s="32"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="35"/>
       <c r="D210" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F210" s="6"/>
+      <c r="F210" s="7"/>
       <c r="G210" s="22" t="s">
         <v>22</v>
       </c>
@@ -8804,49 +8993,47 @@
       <c r="I210" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J210" s="6"/>
+      <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A211" s="22">
+      <c r="A211" s="27">
         <v>196</v>
       </c>
-      <c r="B211" s="29"/>
-      <c r="C211" s="4" t="s">
+      <c r="B211" s="32"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E211" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="F211" s="7"/>
+      <c r="G211" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H211" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I211" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J211" s="7"/>
+      <c r="K211" s="7"/>
+    </row>
+    <row r="212" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="27">
+        <v>197</v>
+      </c>
+      <c r="B212" s="32"/>
+      <c r="C212" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E211" s="5" t="s">
+      <c r="E212" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="F211" s="6"/>
-      <c r="G211" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H211" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I211" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J211" s="6"/>
-      <c r="K211" s="7"/>
-    </row>
-    <row r="212" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="22">
-        <v>197</v>
-      </c>
-      <c r="B212" s="29"/>
-      <c r="C212" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="22" t="s">
@@ -8862,18 +9049,18 @@
       <c r="K212" s="7"/>
     </row>
     <row r="213" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A213" s="22">
+      <c r="A213" s="27">
         <v>198</v>
       </c>
-      <c r="B213" s="29"/>
-      <c r="C213" s="31" t="s">
-        <v>410</v>
+      <c r="B213" s="32"/>
+      <c r="C213" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="F213" s="7"/>
       <c r="G213" s="22" t="s">
@@ -8888,17 +9075,19 @@
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
-    <row r="214" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A214" s="22">
+    <row r="214" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="27">
         <v>199</v>
       </c>
-      <c r="B214" s="29"/>
-      <c r="C214" s="37"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="D214" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F214" s="7"/>
       <c r="G214" s="22" t="s">
@@ -8913,17 +9102,21 @@
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
-    <row r="215" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A215" s="22">
+    <row r="215" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="27">
         <v>200</v>
       </c>
-      <c r="B215" s="29"/>
-      <c r="C215" s="32"/>
+      <c r="B215" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D215" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="22" t="s">
@@ -8938,19 +9131,19 @@
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
-    <row r="216" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A216" s="22">
+    <row r="216" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="27">
         <v>201</v>
       </c>
-      <c r="B216" s="29"/>
-      <c r="C216" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>415</v>
+      <c r="B216" s="41"/>
+      <c r="C216" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="22" t="s">
@@ -8965,19 +9158,17 @@
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
     </row>
-    <row r="217" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A217" s="22">
+    <row r="217" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="27">
         <v>202</v>
       </c>
-      <c r="B217" s="29"/>
-      <c r="C217" s="4" t="s">
-        <v>382</v>
-      </c>
+      <c r="B217" s="41"/>
+      <c r="C217" s="35"/>
       <c r="D217" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="22" t="s">
@@ -8993,18 +9184,16 @@
       <c r="K217" s="7"/>
     </row>
     <row r="218" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="22">
+      <c r="A218" s="27">
         <v>203</v>
       </c>
-      <c r="B218" s="30"/>
-      <c r="C218" s="4" t="s">
-        <v>418</v>
-      </c>
+      <c r="B218" s="41"/>
+      <c r="C218" s="36"/>
       <c r="D218" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="22" t="s">
@@ -9019,21 +9208,19 @@
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
-    <row r="219" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="22">
+    <row r="219" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="27">
         <v>204</v>
       </c>
-      <c r="B219" s="41" t="s">
-        <v>421</v>
-      </c>
+      <c r="B219" s="41"/>
       <c r="C219" s="4" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="22" t="s">
@@ -9048,19 +9235,19 @@
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
-    <row r="220" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="22">
+    <row r="220" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A220" s="27">
         <v>205</v>
       </c>
-      <c r="B220" s="42"/>
-      <c r="C220" s="31" t="s">
-        <v>397</v>
+      <c r="B220" s="41"/>
+      <c r="C220" s="34" t="s">
+        <v>400</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>399</v>
+        <v>416</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="22" t="s">
@@ -9075,17 +9262,17 @@
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
-    <row r="221" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A221" s="22">
+    <row r="221" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A221" s="27">
         <v>206</v>
       </c>
-      <c r="B221" s="42"/>
-      <c r="C221" s="37"/>
+      <c r="B221" s="41"/>
+      <c r="C221" s="35"/>
       <c r="D221" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="22" t="s">
@@ -9100,17 +9287,17 @@
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
-    <row r="222" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="22">
+    <row r="222" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A222" s="27">
         <v>207</v>
       </c>
-      <c r="B222" s="42"/>
-      <c r="C222" s="32"/>
+      <c r="B222" s="41"/>
+      <c r="C222" s="36"/>
       <c r="D222" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="22" t="s">
@@ -9125,19 +9312,19 @@
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
-    <row r="223" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="22">
+    <row r="223" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A223" s="27">
         <v>208</v>
       </c>
-      <c r="B223" s="42"/>
+      <c r="B223" s="41"/>
       <c r="C223" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>425</v>
+        <v>347</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="22" t="s">
@@ -9153,18 +9340,18 @@
       <c r="K223" s="7"/>
     </row>
     <row r="224" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A224" s="22">
+      <c r="A224" s="27">
         <v>209</v>
       </c>
       <c r="B224" s="42"/>
-      <c r="C224" s="31" t="s">
-        <v>410</v>
+      <c r="C224" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="22" t="s">
@@ -9180,16 +9367,20 @@
       <c r="K224" s="7"/>
     </row>
     <row r="225" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A225" s="22">
+      <c r="A225" s="27">
         <v>210</v>
       </c>
-      <c r="B225" s="42"/>
-      <c r="C225" s="37"/>
+      <c r="B225" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D225" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="22" t="s">
@@ -9204,17 +9395,19 @@
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
-    <row r="226" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A226" s="22">
+    <row r="226" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="27">
         <v>211</v>
       </c>
-      <c r="B226" s="42"/>
-      <c r="C226" s="32"/>
+      <c r="B226" s="29"/>
+      <c r="C226" s="34" t="s">
+        <v>387</v>
+      </c>
       <c r="D226" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="22" t="s">
@@ -9229,19 +9422,17 @@
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
-    <row r="227" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A227" s="22">
+    <row r="227" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="27">
         <v>212</v>
       </c>
-      <c r="B227" s="42"/>
-      <c r="C227" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>427</v>
+      <c r="B227" s="29"/>
+      <c r="C227" s="35"/>
+      <c r="D227" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="22" t="s">
@@ -9256,19 +9447,17 @@
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
-    <row r="228" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A228" s="22">
+    <row r="228" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="27">
         <v>213</v>
       </c>
-      <c r="B228" s="43"/>
-      <c r="C228" s="4" t="s">
-        <v>382</v>
-      </c>
+      <c r="B228" s="29"/>
+      <c r="C228" s="36"/>
       <c r="D228" s="5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F228" s="7"/>
       <c r="G228" s="22" t="s">
@@ -9283,21 +9472,19 @@
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
-    <row r="229" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A229" s="22">
+    <row r="229" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="27">
         <v>214</v>
       </c>
-      <c r="B229" s="44" t="s">
-        <v>429</v>
-      </c>
+      <c r="B229" s="29"/>
       <c r="C229" s="4" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="22" t="s">
@@ -9312,19 +9499,19 @@
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
-    <row r="230" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A230" s="22">
+    <row r="230" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A230" s="27">
         <v>215</v>
       </c>
-      <c r="B230" s="45"/>
-      <c r="C230" s="31" t="s">
-        <v>397</v>
+      <c r="B230" s="29"/>
+      <c r="C230" s="34" t="s">
+        <v>400</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>399</v>
+        <v>425</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="F230" s="7"/>
       <c r="G230" s="22" t="s">
@@ -9339,17 +9526,17 @@
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
-    <row r="231" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A231" s="22">
+    <row r="231" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A231" s="27">
         <v>216</v>
       </c>
-      <c r="B231" s="45"/>
-      <c r="C231" s="37"/>
+      <c r="B231" s="29"/>
+      <c r="C231" s="35"/>
       <c r="D231" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F231" s="7"/>
       <c r="G231" s="22" t="s">
@@ -9364,17 +9551,17 @@
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
-    <row r="232" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A232" s="22">
+    <row r="232" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A232" s="27">
         <v>217</v>
       </c>
-      <c r="B232" s="45"/>
-      <c r="C232" s="32"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="36"/>
       <c r="D232" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F232" s="7"/>
       <c r="G232" s="22" t="s">
@@ -9389,19 +9576,19 @@
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
-    <row r="233" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="22">
+    <row r="233" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A233" s="27">
         <v>218</v>
       </c>
-      <c r="B233" s="45"/>
+      <c r="B233" s="29"/>
       <c r="C233" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>434</v>
+        <v>347</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="22" t="s">
@@ -9417,18 +9604,18 @@
       <c r="K233" s="7"/>
     </row>
     <row r="234" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A234" s="22">
+      <c r="A234" s="27">
         <v>219</v>
       </c>
-      <c r="B234" s="45"/>
-      <c r="C234" s="31" t="s">
-        <v>410</v>
+      <c r="B234" s="29"/>
+      <c r="C234" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="F234" s="7"/>
       <c r="G234" s="22" t="s">
@@ -9444,16 +9631,18 @@
       <c r="K234" s="7"/>
     </row>
     <row r="235" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A235" s="22">
+      <c r="A235" s="27">
         <v>220</v>
       </c>
-      <c r="B235" s="45"/>
-      <c r="C235" s="37"/>
+      <c r="B235" s="30"/>
+      <c r="C235" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="D235" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="F235" s="7"/>
       <c r="G235" s="22" t="s">
@@ -9468,17 +9657,21 @@
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
-    <row r="236" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A236" s="22">
+    <row r="236" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A236" s="27">
         <v>221</v>
       </c>
-      <c r="B236" s="45"/>
-      <c r="C236" s="32"/>
+      <c r="B236" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D236" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="22" t="s">
@@ -9493,19 +9686,19 @@
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
-    <row r="237" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A237" s="22">
+    <row r="237" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="27">
         <v>222</v>
       </c>
-      <c r="B237" s="45"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="F237" s="7"/>
       <c r="G237" s="22" t="s">
@@ -9520,19 +9713,19 @@
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
     </row>
-    <row r="238" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A238" s="22">
+    <row r="238" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="27">
         <v>223</v>
       </c>
-      <c r="B238" s="45"/>
+      <c r="B238" s="29"/>
       <c r="C238" s="4" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="D238" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E238" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="F238" s="7"/>
       <c r="G238" s="22" t="s">
@@ -9548,18 +9741,16 @@
       <c r="K238" s="7"/>
     </row>
     <row r="239" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A239" s="22">
+      <c r="A239" s="27">
         <v>224</v>
       </c>
-      <c r="B239" s="46"/>
-      <c r="C239" s="4" t="s">
-        <v>404</v>
-      </c>
+      <c r="B239" s="29"/>
+      <c r="C239" s="4"/>
       <c r="D239" s="5" t="s">
         <v>438</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="F239" s="7"/>
       <c r="G239" s="22" t="s">
@@ -9574,16 +9765,12 @@
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
     </row>
-    <row r="240" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="22">
+    <row r="240" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A240" s="27">
         <v>225</v>
       </c>
-      <c r="B240" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B240" s="30"/>
+      <c r="C240" s="4"/>
       <c r="D240" s="5" t="s">
         <v>440</v>
       </c>
@@ -9603,13 +9790,15 @@
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
     </row>
-    <row r="241" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="22">
+    <row r="241" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A241" s="27">
         <v>226</v>
       </c>
-      <c r="B241" s="45"/>
+      <c r="B241" s="28" t="s">
+        <v>442</v>
+      </c>
       <c r="C241" s="4" t="s">
-        <v>442</v>
+        <v>19</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>443</v>
@@ -9618,24 +9807,24 @@
         <v>444</v>
       </c>
       <c r="F241" s="7"/>
-      <c r="G241" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H241" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I241" s="22" t="s">
+      <c r="G241" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H241" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I241" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
     </row>
     <row r="242" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="22">
+      <c r="A242" s="27">
         <v>227</v>
       </c>
-      <c r="B242" s="45"/>
-      <c r="C242" s="4" t="s">
+      <c r="B242" s="29"/>
+      <c r="C242" s="34" t="s">
         <v>445</v>
       </c>
       <c r="D242" s="5" t="s">
@@ -9645,24 +9834,24 @@
         <v>447</v>
       </c>
       <c r="F242" s="7"/>
-      <c r="G242" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H242" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I242" s="22" t="s">
+      <c r="G242" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H242" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I242" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
     </row>
     <row r="243" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A243" s="22">
+      <c r="A243" s="27">
         <v>228</v>
       </c>
-      <c r="B243" s="45"/>
-      <c r="C243" s="4"/>
+      <c r="B243" s="29"/>
+      <c r="C243" s="35"/>
       <c r="D243" s="5" t="s">
         <v>448</v>
       </c>
@@ -9670,24 +9859,24 @@
         <v>449</v>
       </c>
       <c r="F243" s="7"/>
-      <c r="G243" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H243" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I243" s="22" t="s">
+      <c r="G243" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I243" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
     </row>
-    <row r="244" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A244" s="22">
+    <row r="244" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="27">
         <v>229</v>
       </c>
-      <c r="B244" s="46"/>
-      <c r="C244" s="4"/>
+      <c r="B244" s="29"/>
+      <c r="C244" s="35"/>
       <c r="D244" s="5" t="s">
         <v>450</v>
       </c>
@@ -9695,36 +9884,32 @@
         <v>451</v>
       </c>
       <c r="F244" s="7"/>
-      <c r="G244" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H244" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I244" s="22" t="s">
+      <c r="G244" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H244" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I244" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J244" s="7"/>
       <c r="K244" s="7"/>
     </row>
-    <row r="245" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A245" s="22">
+    <row r="245" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="27">
         <v>230</v>
       </c>
-      <c r="B245" s="44" t="s">
+      <c r="B245" s="29"/>
+      <c r="C245" s="36"/>
+      <c r="D245" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D245" s="5" t="s">
+      <c r="E245" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="E245" s="5" t="s">
-        <v>454</v>
-      </c>
       <c r="F245" s="7"/>
-      <c r="G245" s="4" t="s">
+      <c r="G245" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H245" s="26" t="s">
@@ -9737,18 +9922,18 @@
       <c r="K245" s="7"/>
     </row>
     <row r="246" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="22">
+      <c r="A246" s="27">
         <v>231</v>
       </c>
-      <c r="B246" s="45"/>
-      <c r="C246" s="31" t="s">
+      <c r="B246" s="29"/>
+      <c r="C246" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D246" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D246" s="5" t="s">
+      <c r="E246" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="26" t="s">
@@ -9763,12 +9948,14 @@
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
     </row>
-    <row r="247" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A247" s="22">
+    <row r="247" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="27">
         <v>232</v>
       </c>
-      <c r="B247" s="45"/>
-      <c r="C247" s="37"/>
+      <c r="B247" s="29"/>
+      <c r="C247" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="D247" s="5" t="s">
         <v>458</v>
       </c>
@@ -9776,32 +9963,34 @@
         <v>459</v>
       </c>
       <c r="F247" s="7"/>
-      <c r="G247" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H247" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I247" s="26" t="s">
-        <v>22</v>
+      <c r="G247" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
     </row>
-    <row r="248" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A248" s="22">
+    <row r="248" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="27">
         <v>233</v>
       </c>
-      <c r="B248" s="45"/>
-      <c r="C248" s="37"/>
+      <c r="B248" s="29"/>
+      <c r="C248" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="D248" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F248" s="7"/>
-      <c r="G248" s="26" t="s">
+      <c r="G248" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H248" s="26" t="s">
@@ -9813,17 +10002,19 @@
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
     </row>
-    <row r="249" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A249" s="22">
+    <row r="249" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A249" s="27">
         <v>234</v>
       </c>
-      <c r="B249" s="45"/>
-      <c r="C249" s="32"/>
+      <c r="B249" s="29"/>
+      <c r="C249" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="D249" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F249" s="7"/>
       <c r="G249" s="26" t="s">
@@ -9839,18 +10030,18 @@
       <c r="K249" s="7"/>
     </row>
     <row r="250" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="22">
+      <c r="A250" s="27">
         <v>235</v>
       </c>
-      <c r="B250" s="45"/>
+      <c r="B250" s="30"/>
       <c r="C250" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F250" s="7"/>
       <c r="G250" s="26" t="s">
@@ -9865,124 +10056,122 @@
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
     </row>
-    <row r="251" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="22">
+    <row r="251" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="27">
         <v>236</v>
       </c>
-      <c r="B251" s="45"/>
+      <c r="B251" s="28" t="s">
+        <v>469</v>
+      </c>
       <c r="C251" s="4" t="s">
-        <v>467</v>
+        <v>19</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F251" s="7"/>
       <c r="G251" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="J251" s="7"/>
       <c r="K251" s="7"/>
     </row>
-    <row r="252" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="22">
+    <row r="252" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A252" s="27">
         <v>237</v>
       </c>
-      <c r="B252" s="45"/>
+      <c r="B252" s="29"/>
       <c r="C252" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F252" s="7"/>
       <c r="G252" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H252" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I252" s="26" t="s">
+      <c r="H252" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I252" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J252" s="7"/>
       <c r="K252" s="7"/>
     </row>
-    <row r="253" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="22">
+    <row r="253" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A253" s="27">
         <v>238</v>
       </c>
-      <c r="B253" s="45"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="4" t="s">
-        <v>473</v>
+        <v>151</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F253" s="7"/>
-      <c r="G253" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H253" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I253" s="26" t="s">
+      <c r="G253" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I253" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
     </row>
-    <row r="254" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A254" s="22">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="27">
         <v>239</v>
       </c>
-      <c r="B254" s="46"/>
-      <c r="C254" s="4" t="s">
-        <v>476</v>
+      <c r="B254" s="29"/>
+      <c r="C254" s="34" t="s">
+        <v>477</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F254" s="7"/>
-      <c r="G254" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H254" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I254" s="26" t="s">
+      <c r="G254" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I254" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J254" s="7"/>
       <c r="K254" s="7"/>
     </row>
-    <row r="255" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A255" s="22">
+    <row r="255" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A255" s="27">
         <v>240</v>
       </c>
-      <c r="B255" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B255" s="29"/>
+      <c r="C255" s="35"/>
       <c r="D255" s="5" t="s">
         <v>480</v>
       </c>
@@ -10003,18 +10192,16 @@
       <c r="K255" s="7"/>
     </row>
     <row r="256" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A256" s="22">
+      <c r="A256" s="27">
         <v>241</v>
       </c>
-      <c r="B256" s="45"/>
-      <c r="C256" s="4" t="s">
+      <c r="B256" s="29"/>
+      <c r="C256" s="36"/>
+      <c r="D256" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="E256" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="E256" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F256" s="7"/>
       <c r="G256" s="4" t="s">
@@ -10029,13 +10216,13 @@
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
     </row>
-    <row r="257" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A257" s="22">
+    <row r="257" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="27">
         <v>242</v>
       </c>
-      <c r="B257" s="45"/>
-      <c r="C257" s="4" t="s">
-        <v>151</v>
+      <c r="B257" s="29"/>
+      <c r="C257" s="17" t="s">
+        <v>484</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>485</v>
@@ -10056,12 +10243,12 @@
       <c r="J257" s="7"/>
       <c r="K257" s="7"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A258" s="22">
+    <row r="258" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A258" s="27">
         <v>243</v>
       </c>
-      <c r="B258" s="45"/>
-      <c r="C258" s="31" t="s">
+      <c r="B258" s="29"/>
+      <c r="C258" s="4" t="s">
         <v>487</v>
       </c>
       <c r="D258" s="5" t="s">
@@ -10083,17 +10270,19 @@
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
     </row>
-    <row r="259" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="22">
+    <row r="259" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="27">
         <v>244</v>
       </c>
-      <c r="B259" s="45"/>
-      <c r="C259" s="37"/>
+      <c r="B259" s="29"/>
+      <c r="C259" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="D259" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F259" s="7"/>
       <c r="G259" s="4" t="s">
@@ -10108,17 +10297,19 @@
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
     </row>
-    <row r="260" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A260" s="22">
+    <row r="260" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="27">
         <v>245</v>
       </c>
-      <c r="B260" s="45"/>
-      <c r="C260" s="32"/>
+      <c r="B260" s="30"/>
+      <c r="C260" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="D260" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F260" s="7"/>
       <c r="G260" s="4" t="s">
@@ -10133,19 +10324,21 @@
       <c r="J260" s="7"/>
       <c r="K260" s="7"/>
     </row>
-    <row r="261" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A261" s="22">
+    <row r="261" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="27">
         <v>246</v>
       </c>
-      <c r="B261" s="45"/>
-      <c r="C261" s="17" t="s">
-        <v>494</v>
+      <c r="B261" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F261" s="7"/>
       <c r="G261" s="4" t="s">
@@ -10161,18 +10354,18 @@
       <c r="K261" s="7"/>
     </row>
     <row r="262" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="22">
+      <c r="A262" s="27">
         <v>247</v>
       </c>
-      <c r="B262" s="45"/>
+      <c r="B262" s="29"/>
       <c r="C262" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F262" s="7"/>
       <c r="G262" s="4" t="s">
@@ -10188,18 +10381,18 @@
       <c r="K262" s="7"/>
     </row>
     <row r="263" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A263" s="22">
+      <c r="A263" s="27">
         <v>248</v>
       </c>
-      <c r="B263" s="45"/>
+      <c r="B263" s="29"/>
       <c r="C263" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F263" s="7"/>
       <c r="G263" s="4" t="s">
@@ -10215,18 +10408,18 @@
       <c r="K263" s="7"/>
     </row>
     <row r="264" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="22">
+      <c r="A264" s="27">
         <v>249</v>
       </c>
-      <c r="B264" s="46"/>
+      <c r="B264" s="29"/>
       <c r="C264" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F264" s="7"/>
       <c r="G264" s="4" t="s">
@@ -10241,21 +10434,19 @@
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
     </row>
-    <row r="265" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A265" s="22">
+    <row r="265" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A265" s="27">
         <v>250</v>
       </c>
-      <c r="B265" s="44" t="s">
-        <v>506</v>
-      </c>
+      <c r="B265" s="29"/>
       <c r="C265" s="4" t="s">
-        <v>19</v>
+        <v>490</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F265" s="7"/>
       <c r="G265" s="4" t="s">
@@ -10271,18 +10462,18 @@
       <c r="K265" s="7"/>
     </row>
     <row r="266" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A266" s="22">
+      <c r="A266" s="27">
         <v>251</v>
       </c>
-      <c r="B266" s="45"/>
+      <c r="B266" s="30"/>
       <c r="C266" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D266" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="D266" s="5" t="s">
-        <v>510</v>
-      </c>
       <c r="E266" s="5" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="F266" s="7"/>
       <c r="G266" s="4" t="s">
@@ -10297,19 +10488,21 @@
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
     </row>
-    <row r="267" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A267" s="22">
+    <row r="267" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="27">
         <v>252</v>
       </c>
-      <c r="B267" s="45"/>
+      <c r="B267" s="28" t="s">
+        <v>510</v>
+      </c>
       <c r="C267" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E267" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="F267" s="7"/>
       <c r="G267" s="4" t="s">
@@ -10324,19 +10517,19 @@
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
     </row>
-    <row r="268" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A268" s="22">
+    <row r="268" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="27">
         <v>253</v>
       </c>
-      <c r="B268" s="45"/>
+      <c r="B268" s="29"/>
       <c r="C268" s="4" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="F268" s="7"/>
       <c r="G268" s="4" t="s">
@@ -10351,19 +10544,19 @@
       <c r="J268" s="7"/>
       <c r="K268" s="7"/>
     </row>
-    <row r="269" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A269" s="22">
+    <row r="269" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="27">
         <v>254</v>
       </c>
-      <c r="B269" s="45"/>
+      <c r="B269" s="29"/>
       <c r="C269" s="4" t="s">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="F269" s="7"/>
       <c r="G269" s="4" t="s">
@@ -10378,19 +10571,19 @@
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
     </row>
-    <row r="270" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="22">
+    <row r="270" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A270" s="27">
         <v>255</v>
       </c>
-      <c r="B270" s="46"/>
-      <c r="C270" s="4" t="s">
-        <v>497</v>
+      <c r="B270" s="29"/>
+      <c r="C270" s="34" t="s">
+        <v>477</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="F270" s="7"/>
       <c r="G270" s="4" t="s">
@@ -10405,21 +10598,17 @@
       <c r="J270" s="7"/>
       <c r="K270" s="7"/>
     </row>
-    <row r="271" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A271" s="22">
+    <row r="271" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A271" s="27">
         <v>256</v>
       </c>
-      <c r="B271" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B271" s="29"/>
+      <c r="C271" s="35"/>
       <c r="D271" s="5" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="F271" s="7"/>
       <c r="G271" s="4" t="s">
@@ -10434,19 +10623,17 @@
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
     </row>
-    <row r="272" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A272" s="22">
+    <row r="272" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A272" s="27">
         <v>257</v>
       </c>
-      <c r="B272" s="45"/>
-      <c r="C272" s="4" t="s">
+      <c r="B272" s="29"/>
+      <c r="C272" s="36"/>
+      <c r="D272" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D272" s="5" t="s">
-        <v>523</v>
-      </c>
       <c r="E272" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="4" t="s">
@@ -10461,16 +10648,16 @@
       <c r="J272" s="7"/>
       <c r="K272" s="7"/>
     </row>
-    <row r="273" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A273" s="22">
+    <row r="273" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A273" s="27">
         <v>258</v>
       </c>
-      <c r="B273" s="45"/>
-      <c r="C273" s="4" t="s">
-        <v>151</v>
+      <c r="B273" s="29"/>
+      <c r="C273" s="17" t="s">
+        <v>484</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>486</v>
@@ -10489,18 +10676,18 @@
       <c r="K273" s="7"/>
     </row>
     <row r="274" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A274" s="22">
+      <c r="A274" s="27">
         <v>259</v>
       </c>
-      <c r="B274" s="45"/>
-      <c r="C274" s="31" t="s">
+      <c r="B274" s="29"/>
+      <c r="C274" s="4" t="s">
         <v>487</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="F274" s="7"/>
       <c r="G274" s="4" t="s">
@@ -10516,16 +10703,18 @@
       <c r="K274" s="7"/>
     </row>
     <row r="275" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A275" s="22">
+      <c r="A275" s="27">
         <v>260</v>
       </c>
-      <c r="B275" s="45"/>
-      <c r="C275" s="37"/>
+      <c r="B275" s="30"/>
+      <c r="C275" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="D275" s="5" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F275" s="7"/>
       <c r="G275" s="4" t="s">
@@ -10540,127 +10729,129 @@
       <c r="J275" s="7"/>
       <c r="K275" s="7"/>
     </row>
-    <row r="276" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A276" s="22">
+    <row r="276" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="27">
         <v>261</v>
       </c>
-      <c r="B276" s="45"/>
-      <c r="C276" s="32"/>
+      <c r="B276" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D276" s="5" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="F276" s="7"/>
-      <c r="G276" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H276" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I276" s="4" t="s">
+      <c r="G276" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H276" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I276" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J276" s="7"/>
       <c r="K276" s="7"/>
     </row>
     <row r="277" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="22">
+      <c r="A277" s="27">
         <v>262</v>
       </c>
-      <c r="B277" s="45"/>
-      <c r="C277" s="17" t="s">
-        <v>494</v>
+      <c r="B277" s="29"/>
+      <c r="C277" s="4" t="s">
+        <v>472</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="F277" s="7"/>
-      <c r="G277" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H277" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I277" s="4" t="s">
+      <c r="G277" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H277" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I277" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J277" s="7"/>
       <c r="K277" s="7"/>
     </row>
     <row r="278" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A278" s="22">
+      <c r="A278" s="27">
         <v>263</v>
       </c>
-      <c r="B278" s="45"/>
+      <c r="B278" s="29"/>
       <c r="C278" s="4" t="s">
-        <v>497</v>
+        <v>151</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="F278" s="7"/>
-      <c r="G278" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H278" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I278" s="4" t="s">
+      <c r="G278" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H278" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I278" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J278" s="7"/>
       <c r="K278" s="7"/>
     </row>
-    <row r="279" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A279" s="22">
+    <row r="279" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A279" s="27">
         <v>264</v>
       </c>
-      <c r="B279" s="46"/>
+      <c r="B279" s="29"/>
       <c r="C279" s="4" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F279" s="7"/>
-      <c r="G279" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H279" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I279" s="4" t="s">
+      <c r="G279" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H279" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I279" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J279" s="7"/>
       <c r="K279" s="7"/>
     </row>
-    <row r="280" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A280" s="22">
+    <row r="280" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="27">
         <v>265</v>
       </c>
-      <c r="B280" s="44" t="s">
-        <v>530</v>
-      </c>
+      <c r="B280" s="29"/>
       <c r="C280" s="4" t="s">
-        <v>19</v>
+        <v>487</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="26" t="s">
@@ -10675,19 +10866,19 @@
       <c r="J280" s="7"/>
       <c r="K280" s="7"/>
     </row>
-    <row r="281" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A281" s="22">
+    <row r="281" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A281" s="27">
         <v>266</v>
       </c>
-      <c r="B281" s="45"/>
-      <c r="C281" s="4" t="s">
-        <v>482</v>
+      <c r="B281" s="29"/>
+      <c r="C281" s="34" t="s">
+        <v>477</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="F281" s="7"/>
       <c r="G281" s="26" t="s">
@@ -10703,18 +10894,16 @@
       <c r="K281" s="7"/>
     </row>
     <row r="282" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A282" s="22">
+      <c r="A282" s="27">
         <v>267</v>
       </c>
-      <c r="B282" s="45"/>
-      <c r="C282" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="B282" s="29"/>
+      <c r="C282" s="35"/>
       <c r="D282" s="5" t="s">
-        <v>534</v>
+        <v>480</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="26" t="s">
@@ -10729,19 +10918,17 @@
       <c r="J282" s="7"/>
       <c r="K282" s="7"/>
     </row>
-    <row r="283" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A283" s="22">
+    <row r="283" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A283" s="27">
         <v>268</v>
       </c>
-      <c r="B283" s="45"/>
-      <c r="C283" s="4" t="s">
-        <v>500</v>
-      </c>
+      <c r="B283" s="29"/>
+      <c r="C283" s="35"/>
       <c r="D283" s="5" t="s">
-        <v>535</v>
+        <v>482</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="F283" s="7"/>
       <c r="G283" s="26" t="s">
@@ -10757,18 +10944,16 @@
       <c r="K283" s="7"/>
     </row>
     <row r="284" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A284" s="22">
+      <c r="A284" s="27">
         <v>269</v>
       </c>
-      <c r="B284" s="45"/>
-      <c r="C284" s="4" t="s">
-        <v>497</v>
-      </c>
+      <c r="B284" s="29"/>
+      <c r="C284" s="35"/>
       <c r="D284" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="F284" s="7"/>
       <c r="G284" s="26" t="s">
@@ -10783,19 +10968,17 @@
       <c r="J284" s="7"/>
       <c r="K284" s="7"/>
     </row>
-    <row r="285" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A285" s="22">
+    <row r="285" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A285" s="27">
         <v>270</v>
       </c>
-      <c r="B285" s="45"/>
-      <c r="C285" s="31" t="s">
-        <v>487</v>
-      </c>
+      <c r="B285" s="29"/>
+      <c r="C285" s="35"/>
       <c r="D285" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="26" t="s">
@@ -10811,16 +10994,16 @@
       <c r="K285" s="7"/>
     </row>
     <row r="286" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A286" s="22">
+      <c r="A286" s="27">
         <v>271</v>
       </c>
-      <c r="B286" s="45"/>
-      <c r="C286" s="37"/>
+      <c r="B286" s="30"/>
+      <c r="C286" s="36"/>
       <c r="D286" s="5" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="F286" s="7"/>
       <c r="G286" s="26" t="s">
@@ -10835,121 +11018,129 @@
       <c r="J286" s="7"/>
       <c r="K286" s="7"/>
     </row>
-    <row r="287" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A287" s="22">
+    <row r="287" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="27">
         <v>272</v>
       </c>
-      <c r="B287" s="45"/>
-      <c r="C287" s="37"/>
+      <c r="B287" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D287" s="5" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="F287" s="7"/>
-      <c r="G287" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H287" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I287" s="26" t="s">
-        <v>22</v>
+      <c r="G287" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H287" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I287" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="J287" s="7"/>
       <c r="K287" s="7"/>
     </row>
-    <row r="288" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A288" s="22">
+    <row r="288" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A288" s="27">
         <v>273</v>
       </c>
-      <c r="B288" s="45"/>
-      <c r="C288" s="37"/>
+      <c r="B288" s="29"/>
+      <c r="C288" s="4" t="s">
+        <v>472</v>
+      </c>
       <c r="D288" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="F288" s="7"/>
-      <c r="G288" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H288" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I288" s="26" t="s">
-        <v>22</v>
+      <c r="G288" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H288" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="J288" s="7"/>
       <c r="K288" s="7"/>
     </row>
     <row r="289" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A289" s="22">
+      <c r="A289" s="27">
         <v>274</v>
       </c>
-      <c r="B289" s="45"/>
-      <c r="C289" s="37"/>
+      <c r="B289" s="29"/>
+      <c r="C289" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="D289" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="F289" s="7"/>
-      <c r="G289" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H289" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I289" s="26" t="s">
-        <v>22</v>
+      <c r="G289" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H289" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="J289" s="7"/>
       <c r="K289" s="7"/>
     </row>
-    <row r="290" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A290" s="22">
+    <row r="290" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A290" s="27">
         <v>275</v>
       </c>
-      <c r="B290" s="46"/>
-      <c r="C290" s="32"/>
+      <c r="B290" s="29"/>
+      <c r="C290" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="D290" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="F290" s="7"/>
-      <c r="G290" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H290" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I290" s="26" t="s">
-        <v>22</v>
+      <c r="G290" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H290" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="J290" s="7"/>
       <c r="K290" s="7"/>
     </row>
-    <row r="291" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A291" s="22">
+    <row r="291" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A291" s="27">
         <v>276</v>
       </c>
-      <c r="B291" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>19</v>
+      <c r="B291" s="29"/>
+      <c r="C291" s="34" t="s">
+        <v>477</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="F291" s="7"/>
       <c r="G291" s="4" t="s">
@@ -10965,18 +11156,16 @@
       <c r="K291" s="7"/>
     </row>
     <row r="292" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A292" s="22">
+      <c r="A292" s="27">
         <v>277</v>
       </c>
-      <c r="B292" s="45"/>
-      <c r="C292" s="4" t="s">
-        <v>482</v>
-      </c>
+      <c r="B292" s="29"/>
+      <c r="C292" s="35"/>
       <c r="D292" s="5" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F292" s="7"/>
       <c r="G292" s="4" t="s">
@@ -10992,18 +11181,16 @@
       <c r="K292" s="7"/>
     </row>
     <row r="293" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A293" s="22">
+      <c r="A293" s="27">
         <v>278</v>
       </c>
-      <c r="B293" s="45"/>
-      <c r="C293" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="B293" s="29"/>
+      <c r="C293" s="35"/>
       <c r="D293" s="5" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F293" s="7"/>
       <c r="G293" s="4" t="s">
@@ -11019,18 +11206,16 @@
       <c r="K293" s="7"/>
     </row>
     <row r="294" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A294" s="22">
+      <c r="A294" s="27">
         <v>279</v>
       </c>
-      <c r="B294" s="45"/>
-      <c r="C294" s="4" t="s">
-        <v>497</v>
-      </c>
+      <c r="B294" s="29"/>
+      <c r="C294" s="36"/>
       <c r="D294" s="5" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="4" t="s">
@@ -11045,19 +11230,19 @@
       <c r="J294" s="7"/>
       <c r="K294" s="7"/>
     </row>
-    <row r="295" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A295" s="22">
+    <row r="295" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A295" s="27">
         <v>280</v>
       </c>
-      <c r="B295" s="45"/>
-      <c r="C295" s="31" t="s">
-        <v>487</v>
+      <c r="B295" s="29"/>
+      <c r="C295" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F295" s="7"/>
       <c r="G295" s="4" t="s">
@@ -11072,17 +11257,19 @@
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
     </row>
-    <row r="296" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A296" s="22">
+    <row r="296" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A296" s="27">
         <v>281</v>
       </c>
-      <c r="B296" s="45"/>
-      <c r="C296" s="37"/>
+      <c r="B296" s="30"/>
+      <c r="C296" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="D296" s="5" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F296" s="7"/>
       <c r="G296" s="4" t="s">
@@ -11098,16 +11285,20 @@
       <c r="K296" s="7"/>
     </row>
     <row r="297" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A297" s="22">
+      <c r="A297" s="27">
         <v>282</v>
       </c>
-      <c r="B297" s="45"/>
-      <c r="C297" s="37"/>
+      <c r="B297" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D297" s="5" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="F297" s="7"/>
       <c r="G297" s="4" t="s">
@@ -11122,17 +11313,19 @@
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
     </row>
-    <row r="298" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A298" s="22">
+    <row r="298" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A298" s="27">
         <v>283</v>
       </c>
-      <c r="B298" s="45"/>
-      <c r="C298" s="32"/>
+      <c r="B298" s="38"/>
+      <c r="C298" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="D298" s="5" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="4" t="s">
@@ -11147,19 +11340,19 @@
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
     </row>
-    <row r="299" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A299" s="22">
+    <row r="299" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A299" s="27">
         <v>284</v>
       </c>
-      <c r="B299" s="45"/>
+      <c r="B299" s="38"/>
       <c r="C299" s="4" t="s">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="F299" s="7"/>
       <c r="G299" s="4" t="s">
@@ -11175,18 +11368,18 @@
       <c r="K299" s="7"/>
     </row>
     <row r="300" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A300" s="22">
+      <c r="A300" s="27">
         <v>285</v>
       </c>
-      <c r="B300" s="46"/>
+      <c r="B300" s="38"/>
       <c r="C300" s="4" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F300" s="7"/>
       <c r="G300" s="4" t="s">
@@ -11202,20 +11395,18 @@
       <c r="K300" s="7"/>
     </row>
     <row r="301" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A301" s="22">
+      <c r="A301" s="27">
         <v>286</v>
       </c>
-      <c r="B301" s="47" t="s">
-        <v>556</v>
-      </c>
+      <c r="B301" s="39"/>
       <c r="C301" s="4" t="s">
-        <v>19</v>
+        <v>551</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F301" s="7"/>
       <c r="G301" s="4" t="s">
@@ -11231,306 +11422,302 @@
       <c r="K301" s="7"/>
     </row>
     <row r="302" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A302" s="22">
+      <c r="A302" s="27">
         <v>287</v>
       </c>
-      <c r="B302" s="48"/>
+      <c r="B302" s="28" t="s">
+        <v>554</v>
+      </c>
       <c r="C302" s="4" t="s">
-        <v>552</v>
+        <v>19</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F302" s="7"/>
       <c r="G302" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I302" s="4" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
     </row>
     <row r="303" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A303" s="22">
+      <c r="A303" s="27">
         <v>288</v>
       </c>
-      <c r="B303" s="48"/>
+      <c r="B303" s="29"/>
       <c r="C303" s="4" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F303" s="7"/>
-      <c r="G303" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H303" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I303" s="4" t="s">
-        <v>177</v>
+      <c r="G303" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H303" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I303" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
     </row>
     <row r="304" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A304" s="22">
+      <c r="A304" s="27">
         <v>289</v>
       </c>
-      <c r="B304" s="48"/>
+      <c r="B304" s="29"/>
       <c r="C304" s="4" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F304" s="7"/>
-      <c r="G304" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H304" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I304" s="4" t="s">
-        <v>177</v>
+      <c r="G304" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H304" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I304" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
     </row>
     <row r="305" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A305" s="22">
+      <c r="A305" s="27">
         <v>290</v>
       </c>
-      <c r="B305" s="49"/>
-      <c r="C305" s="4" t="s">
-        <v>561</v>
+      <c r="B305" s="29"/>
+      <c r="C305" s="34" t="s">
+        <v>477</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="F305" s="7"/>
-      <c r="G305" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H305" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I305" s="4" t="s">
-        <v>177</v>
+      <c r="G305" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H305" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I305" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
     </row>
-    <row r="306" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A306" s="22">
+    <row r="306" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A306" s="27">
         <v>291</v>
       </c>
-      <c r="B306" s="44" t="s">
-        <v>564</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B306" s="29"/>
+      <c r="C306" s="35"/>
       <c r="D306" s="5" t="s">
-        <v>565</v>
+        <v>480</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>566</v>
+        <v>481</v>
       </c>
       <c r="F306" s="7"/>
-      <c r="G306" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H306" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I306" s="4" t="s">
-        <v>177</v>
+      <c r="G306" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H306" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I306" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
     </row>
-    <row r="307" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A307" s="22">
+    <row r="307" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A307" s="27">
         <v>292</v>
       </c>
-      <c r="B307" s="45"/>
-      <c r="C307" s="4" t="s">
-        <v>500</v>
-      </c>
+      <c r="B307" s="29"/>
+      <c r="C307" s="36"/>
       <c r="D307" s="5" t="s">
-        <v>567</v>
+        <v>482</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="F307" s="7"/>
-      <c r="G307" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H307" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I307" s="4" t="s">
-        <v>177</v>
+      <c r="G307" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H307" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I307" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
     </row>
     <row r="308" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A308" s="22">
+      <c r="A308" s="27">
         <v>293</v>
       </c>
-      <c r="B308" s="45"/>
-      <c r="C308" s="4" t="s">
-        <v>497</v>
+      <c r="B308" s="29"/>
+      <c r="C308" s="34" t="s">
+        <v>559</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="F308" s="7"/>
-      <c r="G308" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H308" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I308" s="4" t="s">
-        <v>177</v>
+      <c r="G308" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H308" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I308" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
     </row>
     <row r="309" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A309" s="22">
+      <c r="A309" s="27">
         <v>294</v>
       </c>
-      <c r="B309" s="45"/>
-      <c r="C309" s="31" t="s">
-        <v>487</v>
-      </c>
+      <c r="B309" s="29"/>
+      <c r="C309" s="35"/>
       <c r="D309" s="5" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="F309" s="7"/>
-      <c r="G309" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H309" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I309" s="4" t="s">
-        <v>177</v>
+      <c r="G309" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H309" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I309" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J309" s="7"/>
       <c r="K309" s="7"/>
     </row>
     <row r="310" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A310" s="22">
+      <c r="A310" s="27">
         <v>295</v>
       </c>
-      <c r="B310" s="45"/>
-      <c r="C310" s="37"/>
+      <c r="B310" s="29"/>
+      <c r="C310" s="36"/>
       <c r="D310" s="5" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="F310" s="7"/>
-      <c r="G310" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H310" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I310" s="4" t="s">
-        <v>177</v>
+      <c r="G310" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H310" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I310" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
     </row>
-    <row r="311" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A311" s="22">
+    <row r="311" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A311" s="27">
         <v>296</v>
       </c>
-      <c r="B311" s="45"/>
-      <c r="C311" s="32"/>
+      <c r="B311" s="29"/>
+      <c r="C311" s="34" t="s">
+        <v>566</v>
+      </c>
       <c r="D311" s="5" t="s">
-        <v>492</v>
+        <v>567</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="F311" s="7"/>
-      <c r="G311" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H311" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I311" s="4" t="s">
-        <v>177</v>
+      <c r="G311" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H311" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I311" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J311" s="7"/>
       <c r="K311" s="7"/>
     </row>
-    <row r="312" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A312" s="22">
+    <row r="312" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A312" s="27">
         <v>297</v>
       </c>
-      <c r="B312" s="45"/>
-      <c r="C312" s="31" t="s">
+      <c r="B312" s="29"/>
+      <c r="C312" s="36"/>
+      <c r="D312" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="D312" s="5" t="s">
+      <c r="E312" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="E312" s="5" t="s">
-        <v>571</v>
-      </c>
       <c r="F312" s="7"/>
-      <c r="G312" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H312" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I312" s="4" t="s">
-        <v>177</v>
+      <c r="G312" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H312" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I312" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J312" s="7"/>
       <c r="K312" s="7"/>
     </row>
-    <row r="313" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A313" s="22">
+    <row r="313" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A313" s="27">
         <v>298</v>
       </c>
-      <c r="B313" s="45"/>
-      <c r="C313" s="37"/>
+      <c r="B313" s="30"/>
+      <c r="C313" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="D313" s="5" t="s">
         <v>572</v>
       </c>
@@ -11538,50 +11725,54 @@
         <v>573</v>
       </c>
       <c r="F313" s="7"/>
-      <c r="G313" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H313" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I313" s="4" t="s">
-        <v>177</v>
+      <c r="G313" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H313" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I313" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J313" s="7"/>
       <c r="K313" s="7"/>
     </row>
-    <row r="314" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A314" s="22">
+    <row r="314" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A314" s="27">
         <v>299</v>
       </c>
-      <c r="B314" s="45"/>
-      <c r="C314" s="32"/>
+      <c r="B314" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D314" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F314" s="7"/>
-      <c r="G314" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H314" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I314" s="4" t="s">
-        <v>177</v>
+      <c r="G314" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H314" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I314" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J314" s="7"/>
       <c r="K314" s="7"/>
     </row>
     <row r="315" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A315" s="22">
+      <c r="A315" s="27">
         <v>300</v>
       </c>
-      <c r="B315" s="45"/>
-      <c r="C315" s="31" t="s">
-        <v>576</v>
+      <c r="B315" s="29"/>
+      <c r="C315" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>577</v>
@@ -11590,236 +11781,666 @@
         <v>578</v>
       </c>
       <c r="F315" s="7"/>
-      <c r="G315" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H315" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I315" s="4" t="s">
-        <v>177</v>
+      <c r="G315" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H315" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I315" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J315" s="7"/>
       <c r="K315" s="7"/>
     </row>
-    <row r="316" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A316" s="22">
+    <row r="316" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A316" s="27">
         <v>301</v>
       </c>
-      <c r="B316" s="45"/>
-      <c r="C316" s="32"/>
+      <c r="B316" s="29"/>
+      <c r="C316" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="D316" s="5" t="s">
         <v>579</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>580</v>
+        <v>492</v>
       </c>
       <c r="F316" s="7"/>
-      <c r="G316" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H316" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I316" s="4" t="s">
-        <v>177</v>
+      <c r="G316" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H316" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I316" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J316" s="7"/>
       <c r="K316" s="7"/>
     </row>
     <row r="317" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A317" s="22">
+      <c r="A317" s="27">
         <v>302</v>
       </c>
-      <c r="B317" s="46"/>
+      <c r="B317" s="30"/>
       <c r="C317" s="4" t="s">
-        <v>581</v>
+        <v>487</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>583</v>
+        <v>489</v>
       </c>
       <c r="F317" s="7"/>
-      <c r="G317" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H317" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I317" s="4" t="s">
-        <v>177</v>
+      <c r="G317" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H317" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I317" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J317" s="7"/>
       <c r="K317" s="7"/>
     </row>
-    <row r="318" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A318" s="22">
+    <row r="318" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A318" s="27">
         <v>303</v>
       </c>
-      <c r="B318" s="44" t="s">
-        <v>584</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D318" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E318" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="F318" s="7"/>
-      <c r="G318" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H318" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I318" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J318" s="7"/>
-      <c r="K318" s="7"/>
-    </row>
-    <row r="319" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A319" s="22">
+      <c r="B318" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="C318" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="D318" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="E318" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="F318" s="12"/>
+      <c r="G318" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H318" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I318" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J318" s="12"/>
+      <c r="K318" s="12"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="27">
         <v>304</v>
       </c>
-      <c r="B319" s="45"/>
-      <c r="C319" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D319" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E319" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="F319" s="7"/>
-      <c r="G319" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H319" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I319" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J319" s="7"/>
-      <c r="K319" s="7"/>
-    </row>
-    <row r="320" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A320" s="22">
+      <c r="B319" s="50"/>
+      <c r="C319" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="E319" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="F319" s="12"/>
+      <c r="G319" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H319" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I319" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J319" s="12"/>
+      <c r="K319" s="12"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" s="27">
         <v>305</v>
       </c>
-      <c r="B320" s="45"/>
-      <c r="C320" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D320" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="F320" s="7"/>
-      <c r="G320" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H320" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I320" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J320" s="7"/>
-      <c r="K320" s="7"/>
-    </row>
-    <row r="321" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A321" s="22">
+      <c r="B320" s="50"/>
+      <c r="C320" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="E320" s="52" t="s">
+        <v>613</v>
+      </c>
+      <c r="F320" s="12"/>
+      <c r="G320" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H320" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I320" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J320" s="12"/>
+      <c r="K320" s="12"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="27">
         <v>306</v>
       </c>
-      <c r="B321" s="46"/>
-      <c r="C321" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D321" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E321" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="F321" s="7"/>
-      <c r="G321" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H321" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I321" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J321" s="7"/>
-      <c r="K321" s="7"/>
+      <c r="B321" s="50"/>
+      <c r="C321" s="53" t="s">
+        <v>614</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="E321" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="F321" s="12"/>
+      <c r="G321" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H321" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I321" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J321" s="12"/>
+      <c r="K321" s="12"/>
+    </row>
+    <row r="322" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="27">
+        <v>307</v>
+      </c>
+      <c r="B322" s="50"/>
+      <c r="C322" s="53"/>
+      <c r="D322" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="E322" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F322" s="12"/>
+      <c r="G322" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H322" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I322" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J322" s="12"/>
+      <c r="K322" s="12"/>
+    </row>
+    <row r="323" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A323" s="27">
+        <v>308</v>
+      </c>
+      <c r="B323" s="50"/>
+      <c r="C323" s="53"/>
+      <c r="D323" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="E323" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="F323" s="12"/>
+      <c r="G323" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H323" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I323" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J323" s="12"/>
+      <c r="K323" s="12"/>
+    </row>
+    <row r="324" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="27">
+        <v>309</v>
+      </c>
+      <c r="B324" s="50"/>
+      <c r="C324" s="53"/>
+      <c r="D324" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="E324" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="F324" s="12"/>
+      <c r="G324" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H324" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I324" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J324" s="12"/>
+      <c r="K324" s="12"/>
+    </row>
+    <row r="325" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="27">
+        <v>310</v>
+      </c>
+      <c r="B325" s="50"/>
+      <c r="C325" s="53"/>
+      <c r="D325" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E325" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="F325" s="12"/>
+      <c r="G325" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H325" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I325" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J325" s="12"/>
+      <c r="K325" s="12"/>
+    </row>
+    <row r="326" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="27">
+        <v>311</v>
+      </c>
+      <c r="B326" s="50"/>
+      <c r="C326" s="53"/>
+      <c r="D326" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E326" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="F326" s="12"/>
+      <c r="G326" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H326" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I326" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J326" s="12"/>
+      <c r="K326" s="12"/>
+    </row>
+    <row r="327" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A327" s="27">
+        <v>312</v>
+      </c>
+      <c r="B327" s="50"/>
+      <c r="C327" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E327" s="12"/>
+      <c r="F327" s="12"/>
+      <c r="G327" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H327" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I327" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J327" s="12"/>
+      <c r="K327" s="12"/>
+    </row>
+    <row r="328" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A328" s="27">
+        <v>313</v>
+      </c>
+      <c r="B328" s="50"/>
+      <c r="C328" s="55"/>
+      <c r="D328" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="E328" s="56" t="s">
+        <v>631</v>
+      </c>
+      <c r="F328" s="12"/>
+      <c r="G328" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H328" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I328" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J328" s="12"/>
+      <c r="K328" s="12"/>
+    </row>
+    <row r="329" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A329" s="27">
+        <v>314</v>
+      </c>
+      <c r="B329" s="50"/>
+      <c r="C329" s="55"/>
+      <c r="D329" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E329" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="F329" s="12"/>
+      <c r="G329" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H329" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I329" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J329" s="12"/>
+      <c r="K329" s="12"/>
+    </row>
+    <row r="330" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A330" s="27">
+        <v>315</v>
+      </c>
+      <c r="B330" s="50"/>
+      <c r="C330" s="55" t="s">
+        <v>633</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="F330" s="12"/>
+      <c r="G330" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H330" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I330" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J330" s="12"/>
+      <c r="K330" s="12"/>
+    </row>
+    <row r="331" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A331" s="27">
+        <v>316</v>
+      </c>
+      <c r="B331" s="50"/>
+      <c r="C331" s="55"/>
+      <c r="D331" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="E331" s="57" t="s">
+        <v>635</v>
+      </c>
+      <c r="F331" s="12"/>
+      <c r="G331" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H331" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I331" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J331" s="12"/>
+      <c r="K331" s="12"/>
+    </row>
+    <row r="332" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A332" s="27">
+        <v>317</v>
+      </c>
+      <c r="B332" s="50"/>
+      <c r="C332" s="55"/>
+      <c r="D332" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="E332" s="58" t="s">
+        <v>638</v>
+      </c>
+      <c r="F332" s="12"/>
+      <c r="G332" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H332" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I332" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J332" s="12"/>
+      <c r="K332" s="12"/>
+    </row>
+    <row r="333" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A333" s="27">
+        <v>318</v>
+      </c>
+      <c r="B333" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="C333" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D333" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="E333" s="59" t="s">
+        <v>641</v>
+      </c>
+      <c r="F333" s="12"/>
+      <c r="G333" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H333" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I333" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J333" s="12"/>
+      <c r="K333" s="12"/>
+    </row>
+    <row r="334" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A334" s="27">
+        <v>319</v>
+      </c>
+      <c r="B334" s="29"/>
+      <c r="C334" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="D334" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="E334" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="F334" s="12"/>
+      <c r="G334" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H334" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I334" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J334" s="12"/>
+      <c r="K334" s="12"/>
+    </row>
+    <row r="335" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A335" s="27">
+        <v>320</v>
+      </c>
+      <c r="B335" s="29"/>
+      <c r="C335" s="63"/>
+      <c r="D335" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="E335" s="59" t="s">
+        <v>646</v>
+      </c>
+      <c r="F335" s="12"/>
+      <c r="G335" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H335" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I335" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J335" s="12"/>
+      <c r="K335" s="12"/>
+    </row>
+    <row r="336" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A336" s="27">
+        <v>321</v>
+      </c>
+      <c r="B336" s="29"/>
+      <c r="C336" s="64"/>
+      <c r="D336" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="E336" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="F336" s="12"/>
+      <c r="G336" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H336" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I336" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J336" s="12"/>
+      <c r="K336" s="12"/>
+    </row>
+    <row r="337" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A337" s="27">
+        <v>322</v>
+      </c>
+      <c r="B337" s="29"/>
+      <c r="C337" s="62" t="s">
+        <v>649</v>
+      </c>
+      <c r="D337" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="E337" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="F337" s="12"/>
+      <c r="G337" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H337" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I337" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J337" s="12"/>
+      <c r="K337" s="12"/>
+    </row>
+    <row r="338" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A338" s="27">
+        <v>323</v>
+      </c>
+      <c r="B338" s="29"/>
+      <c r="C338" s="63"/>
+      <c r="D338" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="E338" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="F338" s="12"/>
+      <c r="G338" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H338" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I338" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J338" s="12"/>
+      <c r="K338" s="12"/>
+    </row>
+    <row r="339" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A339" s="27">
+        <v>324</v>
+      </c>
+      <c r="B339" s="30"/>
+      <c r="C339" s="64"/>
+      <c r="D339" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="E339" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="F339" s="12"/>
+      <c r="G339" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H339" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I339" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J339" s="12"/>
+      <c r="K339" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B291:B300"/>
-    <mergeCell ref="C295:C298"/>
-    <mergeCell ref="B301:B305"/>
-    <mergeCell ref="B306:B317"/>
-    <mergeCell ref="C309:C311"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="C315:C316"/>
-    <mergeCell ref="B280:B290"/>
-    <mergeCell ref="C285:C290"/>
-    <mergeCell ref="B229:B239"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="C234:C236"/>
-    <mergeCell ref="B240:B244"/>
-    <mergeCell ref="B245:B254"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="B255:B264"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="B265:B270"/>
-    <mergeCell ref="B271:B279"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="B219:B228"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="B191:B201"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="B207:B218"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="B160:B174"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B130:B145"/>
-    <mergeCell ref="C130:C132"/>
+  <mergeCells count="92">
+    <mergeCell ref="C327:C329"/>
+    <mergeCell ref="C330:C332"/>
+    <mergeCell ref="B318:B332"/>
+    <mergeCell ref="C334:C336"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="B333:B339"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C321:C326"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C108:C111"/>
     <mergeCell ref="B44:B49"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B53:B57"/>
@@ -11829,6 +12450,14 @@
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B130:B145"/>
+    <mergeCell ref="C130:C132"/>
     <mergeCell ref="B108:B111"/>
     <mergeCell ref="B112:B129"/>
     <mergeCell ref="C113:C116"/>
@@ -11837,27 +12466,57 @@
     <mergeCell ref="B100:B107"/>
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B87:B96"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B149:B155"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B156:B170"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="B215:B224"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B182:B186"/>
+    <mergeCell ref="B187:B197"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="B203:B214"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="B251:B260"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="B261:B266"/>
+    <mergeCell ref="B267:B275"/>
+    <mergeCell ref="C270:C272"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B287:B296"/>
+    <mergeCell ref="C291:C294"/>
+    <mergeCell ref="B297:B301"/>
+    <mergeCell ref="B302:B313"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="C308:C310"/>
+    <mergeCell ref="C311:C312"/>
+    <mergeCell ref="B276:B286"/>
+    <mergeCell ref="C281:C286"/>
+    <mergeCell ref="B225:B235"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="B241:B250"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K211" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 K54:K57 K59:K207" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$C$2:$C$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I321" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 G16:I339" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$1:$B$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -11889,7 +12548,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G16:I64 G94:I94 G67:I74 G86:I92 G76:I84 G96:I97 G99:I129 G131:I254</xm:sqref>
+          <xm:sqref>G16:I64 G94:I94 G67:I74 G86:I92 G76:I84 G96:I97 G99:I129 G131:I250</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="23" operator="containsText" id="{5F2DFDBD-06DA-4837-B76B-210602F638BB}">
@@ -11918,7 +12577,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="19" operator="containsText" id="{E253D3FB-E17C-4F07-8A6C-BB9D6CA27F97}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G271)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G267)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11929,7 +12588,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="20" operator="containsText" id="{BB207536-5CB2-44D8-91E7-00E2D5DEA655}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G271)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G267)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -11939,11 +12598,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G271:I290</xm:sqref>
+          <xm:sqref>G267:I286</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{CC548D13-3C19-450E-AF9D-BA83982B8EFC}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G255)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G251)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11954,7 +12613,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="18" operator="containsText" id="{E612C287-D89D-4C5F-8C2D-D03D527DF1B6}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G255)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G251)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -11964,11 +12623,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G255:I270</xm:sqref>
+          <xm:sqref>G251:I266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="15" operator="containsText" id="{1DD87E91-C9AC-4C95-9342-BDFC9C9B6BDD}">
-            <xm:f>NOT(ISERROR(SEARCH($B$4,G291)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$4,G287)))</xm:f>
             <xm:f>$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11979,7 +12638,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{50C83B94-3CF8-4C9C-919B-681D73216901}">
-            <xm:f>NOT(ISERROR(SEARCH($B$3,G291)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($B$3,G287)))</xm:f>
             <xm:f>$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -11989,7 +12648,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G291:I321</xm:sqref>
+          <xm:sqref>G287:I339</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="13" operator="containsText" id="{733DC285-0DB7-45F1-B9BC-869A21993076}">
